--- a/data/02_intermediate/cleaned_Hornet_La_Frappe_songs.xlsx
+++ b/data/02_intermediate/cleaned_Hornet_La_Frappe_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Zeg P on the track Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok J'te rappelle si je m'rappelle qu'il faut l'faire, c'est la paix, ce soir, faut une autre guerre Parlons pas d'tess, parlons pas d'tess, balayette, rafale dans le bas d'caisse Tant qu'j'suis pas sous terre, c'est pas fini, moi, j'reviens toujours, j'me venge de c'qu'on me fait Même des années après, l'ancien, laisse pas traîner ta fille, on va la schtroumpfer Un kilo par ci, un platine par là, j'écoute pas mais j'entends parler, tranquille tranquille J'compte mes trophées, arrête de m'chauffer, j'vais lui snapper cent mille Longue vie, hijo de puta, transac' 9.3 égale rotte-ca Sors une chaussette, y a pas d'potte-ca, de la beuh, dans le crane de la vodka Y a pas d'condé à l'horizon, si tu décroches, Allô, prison Balance ton porc frérot j'la nique, balayette, au niveau d'la nuque Déclare le squad, on paiera jamais pour qu'un tapin nous fouette Fais ton malinois, j'te ramène le SWAT, t'es mort au final mais ma gueule, on vous souhaite, souhaite Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok You might also like Longue vie et nique ta belle-maman, c'est plus la même qu'avant eh J'suis dans l'plavon, ganté, jogging alligator, on fait partie des grands eh Longue vie mama na yo eh, j'm'envole vers Pattaya eh Si j'grattais pas un euro eh, j'aurais d'jà arrêté l'pe-ra tiens Longue vie hachtoun yemmek tiens, j'suis derrière, gros, fais belek Elle effectue l'booty shake, j'suis Birdman, j'suis Gucci Mane brr Le compte en banque, blindé comme une porte, khabat dans l'appart' J'peux pas bicrave à perte, j'peux pas bicrave à perte, c'est moi qui gagne J'connais toutes les cartes, j'connais toutes les failles Rolex dans la fouille, l'OPJ perd le smile mais je m'en bats les couilles bats les couilles Longue vie Counia Manman'w an'w, GP et casque Araï Ta grand-mère la pute en string, triple platine en stream Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Parle pas, va d'l'avant ouh, petit maghrébin vend de l'afghan han Patate dans pomme d'Adam han, j'ai la même bande qu'avant han Longue vie nikomok, les mains faites pour l'or sont dans bezoules Pour mes bougnoules qui soignent coups de shlass au zit zitoune Disque d'or, j'traîne toujours avec celui qu'a prêté vingt eu' Ouais, ton corps, la rue du succès dans ta schneck c'était ta queue Avenue Montaigne, j'en rêvais, t'as vu mon teint, c'est l'été Soulagé quand je suis sur Alger, j'suis mwana mboka, jsuis rajeul brr Pas d'ciste-ra entre nous c'est la même, nos reumés touchent les allocs c'est la merde, mon pote Ensemble, on met la pression sur ces salopes wouh J'fais de la corde, je travaille le cardio fort, rebeu au fond du Ford On m'disait non, à long terme c'est hard, allume l'antenne, c'est oi-m Peufra Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et Tiens, tiens, retiens13</t>
+          <t>Zeg P on the track Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok J'te rappelle si je m'rappelle qu'il faut l'faire, c'est la paix, ce soir, faut une autre guerre Parlons pas d'tess, parlons pas d'tess, balayette, rafale dans le bas d'caisse Tant qu'j'suis pas sous terre, c'est pas fini, moi, j'reviens toujours, j'me venge de c'qu'on me fait Même des années après, l'ancien, laisse pas traîner ta fille, on va la schtroumpfer Un kilo par ci, un platine par là, j'écoute pas mais j'entends parler, tranquille tranquille J'compte mes trophées, arrête de m'chauffer, j'vais lui snapper cent mille Longue vie, hijo de puta, transac' 9.3 égale rotte-ca Sors une chaussette, y a pas d'potte-ca, de la beuh, dans le crane de la vodka Y a pas d'condé à l'horizon, si tu décroches, Allô, prison Balance ton porc frérot j'la nique, balayette, au niveau d'la nuque Déclare le squad, on paiera jamais pour qu'un tapin nous fouette Fais ton malinois, j'te ramène le SWAT, t'es mort au final mais ma gueule, on vous souhaite, souhaite Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nique ta belle-maman, c'est plus la même qu'avant eh J'suis dans l'plavon, ganté, jogging alligator, on fait partie des grands eh Longue vie mama na yo eh, j'm'envole vers Pattaya eh Si j'grattais pas un euro eh, j'aurais d'jà arrêté l'pe-ra tiens Longue vie hachtoun yemmek tiens, j'suis derrière, gros, fais belek Elle effectue l'booty shake, j'suis Birdman, j'suis Gucci Mane brr Le compte en banque, blindé comme une porte, khabat dans l'appart' J'peux pas bicrave à perte, j'peux pas bicrave à perte, c'est moi qui gagne J'connais toutes les cartes, j'connais toutes les failles Rolex dans la fouille, l'OPJ perd le smile mais je m'en bats les couilles bats les couilles Longue vie Counia Manman'w an'w, GP et casque Araï Ta grand-mère la pute en string, triple platine en stream Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Parle pas, va d'l'avant ouh, petit maghrébin vend de l'afghan han Patate dans pomme d'Adam han, j'ai la même bande qu'avant han Longue vie nikomok, les mains faites pour l'or sont dans bezoules Pour mes bougnoules qui soignent coups de shlass au zit zitoune Disque d'or, j'traîne toujours avec celui qu'a prêté vingt eu' Ouais, ton corps, la rue du succès dans ta schneck c'était ta queue Avenue Montaigne, j'en rêvais, t'as vu mon teint, c'est l'été Soulagé quand je suis sur Alger, j'suis mwana mboka, jsuis rajeul brr Pas d'ciste-ra entre nous c'est la même, nos reumés touchent les allocs c'est la merde, mon pote Ensemble, on met la pression sur ces salopes wouh J'fais de la corde, je travaille le cardio fort, rebeu au fond du Ford On m'disait non, à long terme c'est hard, allume l'antenne, c'est oi-m Peufra Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et nikomok longue vie et nikomok Longue vie et Tiens, tiens, retiens13</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gramme de peu-fra dans le vaisseau sanguinaire, obligé de t'allumer, tu fais plus de 100 kilos Pisse du diable qui réchauffe en hiver, la ke-co c'est du sel si l'alcool c'est de l'eau Fais pas le solitaire, on avance en binôme, tu fumes grâce au cul de ton co-cellulaire Combien de fils de pute sur 10 hommes je marche qu'avec amitié de plus de 10 ans Crapote ta chicha entouré de tes beu-beu, capote sans chichi, gros uc en leu-leu Tu veux mon bien ? Y'a pas de souçay, j'veux pas mon bien, trop souvent sous sky J'ai fait du mal à petit cur fragile, je suis très calme mais quand j'parle j'agis Enfermé tu penses à ta sortie, fuck la gamelle, cuisine des tajines Toute la cité, derrière ma carrière, faut pas que je me loupe, pas de marche arrière Pas besoin de marabout pour voir les bâtards qui veulent me mettre que des barrières On s'sert les coudes, personne inquiété, je vais niquer un rappeur pour finir en TT Gramme de peu-fra dans ton néné, comme Ninho je vais te faire danser nae nae J'veux être légendaire, pas finir au ballon Hein ! Je donne plus de trop de nouvelles à qui la faute ? Hein ! Je donne plus de trop de nouvelles à qui la faute ? Viens dans mon coin ça bibi quelques grammes de peuf peu-peu-peuf J'suis tellement loin jamais ralenti par les meufs meu-meu-meufs J'suis validé par les reufs par les reufs Viens dans mon coin ça bibi quelques grammes de peuf non, non You might also like J'veux être légendaire, faut pas finir au ballon J'ai trop grandi, normal que j'ai le bras long J'suis déter, j'te mets un tendu tu t'allonges Gros cul tient que sur gros talons J'arrive dans le game, sale et en finesse J'pète au feu, recherche petit silex J'te dit je t'aime que pour te la mettre, bats les couilles d'être le bâtard de l'année H La Peuf c'est réel crois-moi, tu peux me croiser dans les rues de chez moi Fonce-dé écoutant du chaoui, tout s'achète sauf les 9laoui Marche ou crève ou roule en Chrysler yeah yeah yeah Samedi soir ta hlel boit du Ciroc yeah yeah yeah Ça se barre en couilles jette lil comme Cyclope yeah yeah yeah Tout vient à point à qui sait cuisiner non non non Viens dans mon coin ça bibi quelques grammes de peuf peu-peu-peuf J'suis tellement loin jamais ralenti par les meufs meu-meu-meufs J'suis validé par les reufs ouais par les reufs Viens dans mon coin ça bibi quelques grammes de peuf grammes de peuf ! Hein ! Je donne plus de trop de nouvelles à qui la faute ? Hein ! Je donne plus de trop de nouvelles à qui la faute ? Viens dans mon coin ça bibi quelques grammes de peuf peu-peu-peuf J'suis tellement loin jamais ralenti par les meufs meu-meu-meufs J'suis validé par les reufs par les reufs Viens dans mon coin ça bibi quelques grammes de peuf non, non Quelques grammes de peuf Quelques, quelques grammes de peuf, grammes de peuf Viens dans mon coin, viens dans mon coin Yeah, team peu-fra Peu-peu-peuf Meu-meu-meufs Par les reufs Non, non5</t>
+          <t>Gramme de peu-fra dans le vaisseau sanguinaire, obligé de t'allumer, tu fais plus de 100 kilos Pisse du diable qui réchauffe en hiver, la ke-co c'est du sel si l'alcool c'est de l'eau Fais pas le solitaire, on avance en binôme, tu fumes grâce au cul de ton co-cellulaire Combien de fils de pute sur 10 hommes je marche qu'avec amitié de plus de 10 ans Crapote ta chicha entouré de tes beu-beu, capote sans chichi, gros uc en leu-leu Tu veux mon bien ? Y'a pas de souçay, j'veux pas mon bien, trop souvent sous sky J'ai fait du mal à petit cur fragile, je suis très calme mais quand j'parle j'agis Enfermé tu penses à ta sortie, fuck la gamelle, cuisine des tajines Toute la cité, derrière ma carrière, faut pas que je me loupe, pas de marche arrière Pas besoin de marabout pour voir les bâtards qui veulent me mettre que des barrières On s'sert les coudes, personne inquiété, je vais niquer un rappeur pour finir en TT Gramme de peu-fra dans ton néné, comme Ninho je vais te faire danser nae nae J'veux être légendaire, pas finir au ballon Hein ! Je donne plus de trop de nouvelles à qui la faute ? Hein ! Je donne plus de trop de nouvelles à qui la faute ? Viens dans mon coin ça bibi quelques grammes de peuf peu-peu-peuf J'suis tellement loin jamais ralenti par les meufs meu-meu-meufs J'suis validé par les reufs par les reufs Viens dans mon coin ça bibi quelques grammes de peuf non, non J'veux être légendaire, faut pas finir au ballon J'ai trop grandi, normal que j'ai le bras long J'suis déter, j'te mets un tendu tu t'allonges Gros cul tient que sur gros talons J'arrive dans le game, sale et en finesse J'pète au feu, recherche petit silex J'te dit je t'aime que pour te la mettre, bats les couilles d'être le bâtard de l'année H La Peuf c'est réel crois-moi, tu peux me croiser dans les rues de chez moi Fonce-dé écoutant du chaoui, tout s'achète sauf les 9laoui Marche ou crève ou roule en Chrysler yeah yeah yeah Samedi soir ta hlel boit du Ciroc yeah yeah yeah Ça se barre en couilles jette lil comme Cyclope yeah yeah yeah Tout vient à point à qui sait cuisiner non non non Viens dans mon coin ça bibi quelques grammes de peuf peu-peu-peuf J'suis tellement loin jamais ralenti par les meufs meu-meu-meufs J'suis validé par les reufs ouais par les reufs Viens dans mon coin ça bibi quelques grammes de peuf grammes de peuf ! Hein ! Je donne plus de trop de nouvelles à qui la faute ? Hein ! Je donne plus de trop de nouvelles à qui la faute ? Viens dans mon coin ça bibi quelques grammes de peuf peu-peu-peuf J'suis tellement loin jamais ralenti par les meufs meu-meu-meufs J'suis validé par les reufs par les reufs Viens dans mon coin ça bibi quelques grammes de peuf non, non Quelques grammes de peuf Quelques, quelques grammes de peuf, grammes de peuf Viens dans mon coin, viens dans mon coin Yeah, team peu-fra Peu-peu-peuf Meu-meu-meufs Par les reufs Non, non5</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Maghrébin c'est mort pour Musée Grévin Condamné à couper les 10 et les 20 Les mains faites pour l'or, elles sont dans tes seins Tu voulais du love, j't'ai vendu du rêve J'suis mauvais élève, j'ai pas mauvais fond J'voulais tes lèvres, je m'endors sur tes fentes Sans grand frère, personne viendra me défendre J'défonce le sac, je mentraîne, j'mets les gants Tu mangeras des pâtes, si t'écoutes les gens Le cur est blanc, j'veux du chrome sur les jantes Posé en bas du bat', crois pas que c'est la fête Galette de crack, le chat aura la fève À qui la faute, je ne vise que la tête Niquer la vie, sans amour sans latex On est du-per comme indien dans la ville Jamais l'moral, ça va comme un lundi La vieille du 2, qui fait l'indic Envoie les p'tits pour lui casser la vitre P'tit maghrébin pas la gueule de l'emploi Ne devient pas Benzema celui qui aboie La richesse vient d'Afrique, wesh t'as cru quoi ? On respecte le daron, ton boss on l'tutoie Ton boss on l'tutoie Couleur bronzée dans l'paysage, on est des milliards Étoile filante dans les nuages, fonce-dé à la hiya Va bene, va bene, va bene khoya Va bene, va bene, va bene khoya Maghrébin, Maghrébin Les temps sont durs, je reste solide j'suis maghrébin Maghrébin, Maghrébin Je manque de tout, j'me prive de rien, j'suis maghrébin You might also like Mon pote perd du poids, affaibli par l'te-shi On demande pas plus, la survie ça suffit Pas d'bague sur l'annulaire du mal à s'unir Marié à la rue, bracelet sur la cheville Sortir du trou avec l'aide de l'Adhan Mais liquide à 40 degrés coule dans les veines On reste en bas, trop ivre pour monter l'Everest Chacun sa ie-v et à chacun ses rêves Fais ton chemin entre peines et galères Mais n'oublie rien comme un sénégalais Génération d'immigrés, n'passe plus le balai Nos darons n'ont fait pas le choix, c'est qu'il le fallait Prends ton oseille, il faudrait s'en aller Jeune maghrébin à qui on ne met pas la laisse Dégradé blanc t'as reconnu les arhbi On prends de l'élan pour t'la mettre mon ami Les nerfs à vif, de la peuf dans la ville Ça ramène pilon et tout l'monde est ravi Roule en gamos, donne une pièce au feu rouge Fais pas l'boloss qu'en a plus rien à foutre Fuck tes Mathusalem tes habits de luxe J'passe le salam aux frères en hass dans la cellule Passer sa vie enfermé mec c'est dur Courage le sang et la sortie c'est sûr Couleur bronzée dans l'paysage, on est des milliards Étoile filante dans les nuages, fonce-dé à la hiya Va bene, va bene, va bene khoya Va bene, va bene, va bene khoya Maghrébin, Maghrébin Les temps sont durs, je reste solide j'suis maghrébin Maghrébin, Maghrébin Je manque de tout, j'me prive de rien, j'suis maghrébin Maghrébin, Maghrébin, Maghrébin Maghrébin, Maghrébin, Maghrébin Maghrébin, Maghrébin, Maghrébin Maghrébin, Maghrébin, Maghrébin5</t>
+          <t>Maghrébin c'est mort pour Musée Grévin Condamné à couper les 10 et les 20 Les mains faites pour l'or, elles sont dans tes seins Tu voulais du love, j't'ai vendu du rêve J'suis mauvais élève, j'ai pas mauvais fond J'voulais tes lèvres, je m'endors sur tes fentes Sans grand frère, personne viendra me défendre J'défonce le sac, je mentraîne, j'mets les gants Tu mangeras des pâtes, si t'écoutes les gens Le cur est blanc, j'veux du chrome sur les jantes Posé en bas du bat', crois pas que c'est la fête Galette de crack, le chat aura la fève À qui la faute, je ne vise que la tête Niquer la vie, sans amour sans latex On est du-per comme indien dans la ville Jamais l'moral, ça va comme un lundi La vieille du 2, qui fait l'indic Envoie les p'tits pour lui casser la vitre P'tit maghrébin pas la gueule de l'emploi Ne devient pas Benzema celui qui aboie La richesse vient d'Afrique, wesh t'as cru quoi ? On respecte le daron, ton boss on l'tutoie Ton boss on l'tutoie Couleur bronzée dans l'paysage, on est des milliards Étoile filante dans les nuages, fonce-dé à la hiya Va bene, va bene, va bene khoya Va bene, va bene, va bene khoya Maghrébin, Maghrébin Les temps sont durs, je reste solide j'suis maghrébin Maghrébin, Maghrébin Je manque de tout, j'me prive de rien, j'suis maghrébin Mon pote perd du poids, affaibli par l'te-shi On demande pas plus, la survie ça suffit Pas d'bague sur l'annulaire du mal à s'unir Marié à la rue, bracelet sur la cheville Sortir du trou avec l'aide de l'Adhan Mais liquide à 40 degrés coule dans les veines On reste en bas, trop ivre pour monter l'Everest Chacun sa ie-v et à chacun ses rêves Fais ton chemin entre peines et galères Mais n'oublie rien comme un sénégalais Génération d'immigrés, n'passe plus le balai Nos darons n'ont fait pas le choix, c'est qu'il le fallait Prends ton oseille, il faudrait s'en aller Jeune maghrébin à qui on ne met pas la laisse Dégradé blanc t'as reconnu les arhbi On prends de l'élan pour t'la mettre mon ami Les nerfs à vif, de la peuf dans la ville Ça ramène pilon et tout l'monde est ravi Roule en gamos, donne une pièce au feu rouge Fais pas l'boloss qu'en a plus rien à foutre Fuck tes Mathusalem tes habits de luxe J'passe le salam aux frères en hass dans la cellule Passer sa vie enfermé mec c'est dur Courage le sang et la sortie c'est sûr Couleur bronzée dans l'paysage, on est des milliards Étoile filante dans les nuages, fonce-dé à la hiya Va bene, va bene, va bene khoya Va bene, va bene, va bene khoya Maghrébin, Maghrébin Les temps sont durs, je reste solide j'suis maghrébin Maghrébin, Maghrébin Je manque de tout, j'me prive de rien, j'suis maghrébin Maghrébin, Maghrébin, Maghrébin Maghrébin, Maghrébin, Maghrébin Maghrébin, Maghrébin, Maghrébin Maghrébin, Maghrébin, Maghrébin5</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>J'suis dans mon bolide, j'pense à toi Ger-char mon brolique, j'prends sur moi J'suis dans mon bolide, j'pense à toi Ger-char mon brolique, j'prends sur moi Cramé au poste avec test salivaire Prendre du ferme, chez nous, c'est héréditaire Courir après une femme, courir à sa perte Y'a plus d'sincérité ni d'fidélité Tu penses me connaître, j'fais encore connaissance avec moi même Personne me croyait, c'est Dieu qui donne, amine Mama n'aura plus de problèmes de loyers à vie Tu penses que j'vais laisser passer ma ce-chan Grammes de pe-fra, quand c'est bien vi-ser ça s'vend Ravitaille le rain-té, défouraille depuis qu'j'le mets dans mes pes-cli Rabats les ients-cli, te chasse comme Chucky Chupa ma pinga dans ma loc' Audi J'fais mouiller les chicas quand j'mets l'autotune On vise les jambes, on t'laisse viser la lune Faut des lovés lovés, frère Faut des lovés lovés, frère Faut se lever lever et les faire Faut se lever lever et les faire Faut des lovés lovés, frère Faut des lovés lovés, frère Faut se lever lever et les faire Faut se lever lever et les faire You might also like J'suis dans mon bolide, j'pense à toi J'suis dans mon bolide, j'pense à toi Ger-char mon brolique, j'prends sur moi Ger-char mon brolique, j'prends sur moi J'suis dans mon bolide, j'pense à toi J'suis dans mon bolide, j'pense à toi Ger-char mon brolique, j'prends sur moi Ger-char mon brolique, j'prends sur moi J'ai dizaine de problèmes mais je pense à toi T'en mettre une dans le cur pour qu'tu penses à moi Chez nous, on marche au feeling et chacun sa foi La vengeance sera terrible, rien qu'je pense à toi J'suis posé en bas, Clio 3 sans parechoc Sous-estime pas les bonhommes, ça s'en sort Nos vies s'résument à plaider la faute, plaider coupable Payer la dot d'une salope qui sucera un autre La vie c'est dur, nos couilles aussi J'pense au futur, à partir d'ici Fier comme un turc, comme un mec de Tizi Je rêve de plage, de palmiers et de transat J'me réveille, frérot en cage pour une transac' Difficile de faire des ronds ces temps-ci L'hélicoptère tourne autour d'la té-ci Le CDI d'la street un midi-minuit Trafiquant moderne, fini l'époque de Mesrine Donne-moi ton cur, s'il est pas fragile J'attends mon heure, j'parle pas d'ma fin tragique Faut des lovés lovés, frère Faut des lovés lovés, frère Faut se lever lever et les faire Faut se lever lever et les faire Faut des lovés lovés, frère Faut des lovés lovés, frère Faut se lever lever et les faire Faut se lever lever et les faire J'suis dans mon bolide, j'pense à toi J'suis dans mon bolide, j'pense à toi Ger-char mon brolique, j'prends sur moi Ger-char mon brolique, j'prends sur moi J'suis dans mon bolide, j'pense à toi J'suis dans mon bolide, j'pense à toi Ger-char mon brolique, j'prends sur moi Ger-char mon brolique, j'prends sur moi J'ai dizaine de problèmes mais je pense à toi T'en mettre une dans le cur pour qu'tu penses à moi Chez nous, on marche au feeling et chacun sa foi La vengeance sera terrible, rien qu'je pense à toi3</t>
+          <t>J'suis dans mon bolide, j'pense à toi Ger-char mon brolique, j'prends sur moi J'suis dans mon bolide, j'pense à toi Ger-char mon brolique, j'prends sur moi Cramé au poste avec test salivaire Prendre du ferme, chez nous, c'est héréditaire Courir après une femme, courir à sa perte Y'a plus d'sincérité ni d'fidélité Tu penses me connaître, j'fais encore connaissance avec moi même Personne me croyait, c'est Dieu qui donne, amine Mama n'aura plus de problèmes de loyers à vie Tu penses que j'vais laisser passer ma ce-chan Grammes de pe-fra, quand c'est bien vi-ser ça s'vend Ravitaille le rain-té, défouraille depuis qu'j'le mets dans mes pes-cli Rabats les ients-cli, te chasse comme Chucky Chupa ma pinga dans ma loc' Audi J'fais mouiller les chicas quand j'mets l'autotune On vise les jambes, on t'laisse viser la lune Faut des lovés lovés, frère Faut des lovés lovés, frère Faut se lever lever et les faire Faut se lever lever et les faire Faut des lovés lovés, frère Faut des lovés lovés, frère Faut se lever lever et les faire Faut se lever lever et les faire J'suis dans mon bolide, j'pense à toi J'suis dans mon bolide, j'pense à toi Ger-char mon brolique, j'prends sur moi Ger-char mon brolique, j'prends sur moi J'suis dans mon bolide, j'pense à toi J'suis dans mon bolide, j'pense à toi Ger-char mon brolique, j'prends sur moi Ger-char mon brolique, j'prends sur moi J'ai dizaine de problèmes mais je pense à toi T'en mettre une dans le cur pour qu'tu penses à moi Chez nous, on marche au feeling et chacun sa foi La vengeance sera terrible, rien qu'je pense à toi J'suis posé en bas, Clio 3 sans parechoc Sous-estime pas les bonhommes, ça s'en sort Nos vies s'résument à plaider la faute, plaider coupable Payer la dot d'une salope qui sucera un autre La vie c'est dur, nos couilles aussi J'pense au futur, à partir d'ici Fier comme un turc, comme un mec de Tizi Je rêve de plage, de palmiers et de transat J'me réveille, frérot en cage pour une transac' Difficile de faire des ronds ces temps-ci L'hélicoptère tourne autour d'la té-ci Le CDI d'la street un midi-minuit Trafiquant moderne, fini l'époque de Mesrine Donne-moi ton cur, s'il est pas fragile J'attends mon heure, j'parle pas d'ma fin tragique Faut des lovés lovés, frère Faut des lovés lovés, frère Faut se lever lever et les faire Faut se lever lever et les faire Faut des lovés lovés, frère Faut des lovés lovés, frère Faut se lever lever et les faire Faut se lever lever et les faire J'suis dans mon bolide, j'pense à toi J'suis dans mon bolide, j'pense à toi Ger-char mon brolique, j'prends sur moi Ger-char mon brolique, j'prends sur moi J'suis dans mon bolide, j'pense à toi J'suis dans mon bolide, j'pense à toi Ger-char mon brolique, j'prends sur moi Ger-char mon brolique, j'prends sur moi J'ai dizaine de problèmes mais je pense à toi T'en mettre une dans le cur pour qu'tu penses à moi Chez nous, on marche au feeling et chacun sa foi La vengeance sera terrible, rien qu'je pense à toi3</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>On assume le pire et l'best, on tire sur l'RAID Dis-moi, tu veux qu'j'ai honte de quoi ? Des nuits frère des fois j'suis pété sale j'fais la morale à mon poing gauche Mon poing droit connait plus de monde que moi Le futur est glacé comme une tombe j'me les gèle Y a qu'un pas du soleil aux nuits sombres dans les geôles On va régler des comptes, pompe, pompe dans les gilets Dans la rue quand tu te-mon c'est coup d'pompe dans léchelle Rouh, rah! Colonise le territoire ils disent mon nom j'les amande Obligé y a l'OPJ qui fait des roues Rah! Gros cul d'mexicaine, mal au cou Bolivienne, demi-cross américaine canon court Déguisé en Farc t'as mon vote Tah le moyen-âge on les vise tous à l'arc Mal aux côtes Pas d'claque à mon pote, frère braque pas mon pit' craque pas J'donne à boire du sang, du crack à mon rott' J'les baise co, j'arrive en sandales Mental de tchétchène go Tu vas pas bouillave tous ces p'tits trav' si grave J'ai du monde à remplacer, bicrave la Shevchenko Comme une bouteille j'la vide, comme une arme je l'astique Deux cales de dix balles compressées sous l'élastique Touche pas la oukhty ça va tirer pour tchi J'connais deux trois mecs de la Courtille qui mettent du plastique Fianso You might also like Rentre, rentre, allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Bandit saleté type nord-africain Fallait pas m'laisser passer j'ai la recette des ricains Jette nous pas lil, on a assez de pépins Gauche droite dans l'oeil et la lumière séteint Tu t'prends pour Fifty allez chante Many Men Balle dans la tête avec 9 millimètres Les petits ont grandi, ils ont plus d'sentiments À la Dadinho, gros sourire en tirant Ça regarde du coin d'lil ça veut reprendre ton rain-té Ça choisit ton cercueil mais tu m'a pas l'air inquiet Pour d'la peuf y a pas de ristourne paye plein pot Y a pas qu'les keufs qui tournent, y a les frères au dépôt À la Clint Eastwood, ça va sortir un pe-pom On m'a dit baise les tous, tarrêtes pas jusqu'au fond J'viens d'encaisser dix années de salaire sa mère Encore la semaine dernière moi jétais en galère Peufra Rentre, rentre, allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Cocaïna cocaïna, Pablo, Gustavo, Totò Riina, GLKalash rha rha Sorti du 93, jassassine J'mets la lucarne en pleine finale Paw! Villa, milliardaire en dinars Byl-ka légendaire comme Zidane Posté à la cité, pisté par une brigade Artena Celui qui approche j'vais lui faire sa fête Deux dans les genoux bâtard té-ma l'effet que ça fait J'vais au stud, mes reufs montent sur une grosse affaire Là j'sors de Jumu'a j'me mange que des rappels putain d'merde T'es super mignon, t'invente pas de vie Range ton calibre factice, là c'est pour de vrai C'est pas un clip D'la jalousie, dans les yeux d'ces bâtards jamais j'l'oublierai T'as vendu deux trois kils, tu t'prends pour j'sais pas qui Bande de harkis j'fais l'tour de la France avec So et Bakyl A la base des bases moi j'te tej GLK tabasse la basse, signé 93 93 Bandits, s'en sortent avec des prothèses car Dieu les protège GLKalash Rentre, rentre, allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Ils me reprochent le mal mais ils en sont vecteurs YL est connu dans ton secteur Mon petit frère a foutu en cloque ta p'tite sur J'vais le protéger comme le prince Hector Jamais à terre Moi J'remonte à bord Oui, j'remonte à balle C'est moi qui ramène la drogue, à bord de l'Aventador Ma gueule, j'fais la remontada Rebeu masqué, rah Frappe de Moscou, rah Frappe de bosniaque dans la pastèque Ces bâtards ne veulent pas qu'tu respires Ils vont t'rafaler devant la mosquée Regarde-moi bien-bien avant qu'je t'étale-tale, violence verbale Du rebeu d'Air-BelAir-Bel Neandertal Bourré comme à Cabo-Verde J'fais crier la première J'ai raté la prière J'ai forcé le péage, j't'ai forcé à payer Mon reflet dans les nuages, j'attends les jours meilleurs J'refais pas mon CV mais j'me refais quand même, le matin on casse la AVY Break Les salopes ont continué de manigancer, toutes façons les vaillants sont avec YL Rentre, rentre, allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle5</t>
+          <t>On assume le pire et l'best, on tire sur l'RAID Dis-moi, tu veux qu'j'ai honte de quoi ? Des nuits frère des fois j'suis pété sale j'fais la morale à mon poing gauche Mon poing droit connait plus de monde que moi Le futur est glacé comme une tombe j'me les gèle Y a qu'un pas du soleil aux nuits sombres dans les geôles On va régler des comptes, pompe, pompe dans les gilets Dans la rue quand tu te-mon c'est coup d'pompe dans léchelle Rouh, rah! Colonise le territoire ils disent mon nom j'les amande Obligé y a l'OPJ qui fait des roues Rah! Gros cul d'mexicaine, mal au cou Bolivienne, demi-cross américaine canon court Déguisé en Farc t'as mon vote Tah le moyen-âge on les vise tous à l'arc Mal aux côtes Pas d'claque à mon pote, frère braque pas mon pit' craque pas J'donne à boire du sang, du crack à mon rott' J'les baise co, j'arrive en sandales Mental de tchétchène go Tu vas pas bouillave tous ces p'tits trav' si grave J'ai du monde à remplacer, bicrave la Shevchenko Comme une bouteille j'la vide, comme une arme je l'astique Deux cales de dix balles compressées sous l'élastique Touche pas la oukhty ça va tirer pour tchi J'connais deux trois mecs de la Courtille qui mettent du plastique Fianso Rentre, rentre, allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Bandit saleté type nord-africain Fallait pas m'laisser passer j'ai la recette des ricains Jette nous pas lil, on a assez de pépins Gauche droite dans l'oeil et la lumière séteint Tu t'prends pour Fifty allez chante Many Men Balle dans la tête avec 9 millimètres Les petits ont grandi, ils ont plus d'sentiments À la Dadinho, gros sourire en tirant Ça regarde du coin d'lil ça veut reprendre ton rain-té Ça choisit ton cercueil mais tu m'a pas l'air inquiet Pour d'la peuf y a pas de ristourne paye plein pot Y a pas qu'les keufs qui tournent, y a les frères au dépôt À la Clint Eastwood, ça va sortir un pe-pom On m'a dit baise les tous, tarrêtes pas jusqu'au fond J'viens d'encaisser dix années de salaire sa mère Encore la semaine dernière moi jétais en galère Peufra Rentre, rentre, allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Cocaïna cocaïna, Pablo, Gustavo, Totò Riina, GLKalash rha rha Sorti du 93, jassassine J'mets la lucarne en pleine finale Paw! Villa, milliardaire en dinars Byl-ka légendaire comme Zidane Posté à la cité, pisté par une brigade Artena Celui qui approche j'vais lui faire sa fête Deux dans les genoux bâtard té-ma l'effet que ça fait J'vais au stud, mes reufs montent sur une grosse affaire Là j'sors de Jumu'a j'me mange que des rappels putain d'merde T'es super mignon, t'invente pas de vie Range ton calibre factice, là c'est pour de vrai C'est pas un clip D'la jalousie, dans les yeux d'ces bâtards jamais j'l'oublierai T'as vendu deux trois kils, tu t'prends pour j'sais pas qui Bande de harkis j'fais l'tour de la France avec So et Bakyl A la base des bases moi j'te tej GLK tabasse la basse, signé 93 93 Bandits, s'en sortent avec des prothèses car Dieu les protège GLKalash Rentre, rentre, allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Ils me reprochent le mal mais ils en sont vecteurs YL est connu dans ton secteur Mon petit frère a foutu en cloque ta p'tite sur J'vais le protéger comme le prince Hector Jamais à terre Moi J'remonte à bord Oui, j'remonte à balle C'est moi qui ramène la drogue, à bord de l'Aventador Ma gueule, j'fais la remontada Rebeu masqué, rah Frappe de Moscou, rah Frappe de bosniaque dans la pastèque Ces bâtards ne veulent pas qu'tu respires Ils vont t'rafaler devant la mosquée Regarde-moi bien-bien avant qu'je t'étale-tale, violence verbale Du rebeu d'Air-BelAir-Bel Neandertal Bourré comme à Cabo-Verde J'fais crier la première J'ai raté la prière J'ai forcé le péage, j't'ai forcé à payer Mon reflet dans les nuages, j'attends les jours meilleurs J'refais pas mon CV mais j'me refais quand même, le matin on casse la AVY Break Les salopes ont continué de manigancer, toutes façons les vaillants sont avec YL Rentre, rentre, allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Allez rentre dans le cercle, allez rentre dans le cercle, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle Viens te battre, viens te battre, viens te battre, viens te battre, allez rentre dans le cercle5</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bellek, la BAC attaque Bellek, la BAC attaque Trop d'principes, on dit rien devant la SPIP ou de l'affaire à streams Pas d'meuf en string, j'préfère prendre le p'tit reuf, lui faire quitter la street J'suis dans les îles, j'te donnerai pas raison, après la pluie l'orage Paire de quatre saisons, vrai 3arbi aucune comparaison Celui qui parle fort, c'est pas celui qui frappe Il se contrôle as-p, il donne des blazes au phone Il pleure au fond du Ford en pensant à sa folle T'es belle, t'es bonne, y a que tes formes qui comptent, j'vais t'se-bai comme King-Kong J'vais bosser dur, j'vais brasser chaque seconde avant qu'la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque You might also like Tous les moyens sont bons pour faire d'l'oseille en masse J'parle pas d'pousser la fonte, le plat d'entrée gambas Déter', ganté, jgambade, du douze ans d'âge dans l'bât' La cité s'embourgeoise au bord du RR cab' On mise sur l'bon cheval, aucun ami jetable, amitié d'plus d'vingt k Tu veux mon bien ? Ça s'voit dans les yeux Même pas b'soin d'parler, tout l'monde va s'en sortir Aucune cité n'a barreau, barbelé Tu veux la batata, celle de Ketama coupée au katana Celle qui fait prendre le large, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque J'suis loin d'chez moi, mais le monde, c'est mon toit le monde, c'est mon toit J'ai besoin d'tout mais j'me contente de toi j'me contente de toi J'vais les rendre fous, j'ai tout coffré sur moi tout coffré sur moi Gramme de taga, dans mon bagage, j'le cale dans mon bagage, j'le cale J'suis loin d'chez moi, mais le monde, c'est mon toit le monde, c'est mon toit J'ai besoin d'tout mais j'me contente de toi mais j'me contente de toi J'vais les rendre fous, j'ai tout coffré sur moi j'ai tout coffré sur moi Gramme de taga, dans mon bagage, j'le cale dans mon bagage, j'le cale Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque</t>
+          <t>Bellek, la BAC attaque Bellek, la BAC attaque Trop d'principes, on dit rien devant la SPIP ou de l'affaire à streams Pas d'meuf en string, j'préfère prendre le p'tit reuf, lui faire quitter la street J'suis dans les îles, j'te donnerai pas raison, après la pluie l'orage Paire de quatre saisons, vrai 3arbi aucune comparaison Celui qui parle fort, c'est pas celui qui frappe Il se contrôle as-p, il donne des blazes au phone Il pleure au fond du Ford en pensant à sa folle T'es belle, t'es bonne, y a que tes formes qui comptent, j'vais t'se-bai comme King-Kong J'vais bosser dur, j'vais brasser chaque seconde avant qu'la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Tous les moyens sont bons pour faire d'l'oseille en masse J'parle pas d'pousser la fonte, le plat d'entrée gambas Déter', ganté, jgambade, du douze ans d'âge dans l'bât' La cité s'embourgeoise au bord du RR cab' On mise sur l'bon cheval, aucun ami jetable, amitié d'plus d'vingt k Tu veux mon bien ? Ça s'voit dans les yeux Même pas b'soin d'parler, tout l'monde va s'en sortir Aucune cité n'a barreau, barbelé Tu veux la batata, celle de Ketama coupée au katana Celle qui fait prendre le large, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque J'suis loin d'chez moi, mais le monde, c'est mon toit le monde, c'est mon toit J'ai besoin d'tout mais j'me contente de toi j'me contente de toi J'vais les rendre fous, j'ai tout coffré sur moi tout coffré sur moi Gramme de taga, dans mon bagage, j'le cale dans mon bagage, j'le cale J'suis loin d'chez moi, mais le monde, c'est mon toit le monde, c'est mon toit J'ai besoin d'tout mais j'me contente de toi mais j'me contente de toi J'vais les rendre fous, j'ai tout coffré sur moi j'ai tout coffré sur moi Gramme de taga, dans mon bagage, j'le cale dans mon bagage, j'le cale Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque Ici, y a tout, sacoche remplie d'taga, sacoche remplie d'taga Tu veux d'la frappe, tu veux la batata, bellek, la BAC attaque</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>- Eh, gros, imagine, tu trouves une valise - Une valise remplie d'kilos et tout ? - Exactement - Attends, t'sais j'fais quoi ? Allô, déjà, je prends mon phone, j'appelle mon pote comme un homme comme un homme J'lui dis Poto, faut qu'tu viennes, la vie est folle Avec cent kil', j'fais la tonne, ma meuf est belle mais elle est conne elle est conne La vie d'ma mère, j'baiserais la meuf la plus bonne Plus d'sentiments, j'paie mes bails mes bails J'viens en bas d'ton tier-quar et j'te ravitaille Pablo du 9-3, goûte ma came, fais pas style tu tapes un rail Tu pètes un grec, tu d'mandes le price Toi, t'as pas d'pions, t'as que d'la caille Mais ma seule drogue reste le bédo Mama veut pas d'mon argent sale Grâce à la valise, j'fais des cadeaux J'suis avec Vald, ça tourne sur Paname Un jour ou l'autre, ils vont se dire Que le pire reste à venir J'préfère prévenir que guérir Mes frères ont pris du ferme pour d'l'herbe Un jour ou l'autre, ils vont se dire Taffer pour mille deux, c'est l'pire J'veux compter violets, jaunes, verts Une valise, je quitte vos terres You might also like Happy birthday, happy birthday Oh, ma malle à kilos and a Merry Christmas Oh, ma malle à kilos and a happy new year Oh, ma malle à kilos oh happy hanoucca Oh, ma malle à kilos Ah mais j't'ai pas raconté c'truc L'autre fois, j'étais dans la street, ça sentait l'shit de l'enfer yes À tous les coups au corner, j'vais croiser des putains d'hippies qui zonent Qui vont m'dégainer V.A., wesh, t'as pas dis bonjour Ta mère la Wisigoth Au lieu d'ça, j'tombe sur une camionnette porte arrière entrouverte, ça sent la ppe-fra, le spliff qui cogne Rapide coup d'il du côté passager, personne non plus qui tient le volant J'suis comme affolé, j'retourne à l'arrière, je tire la porte, le coffre Est comme rempli à ras bord, comme Piper Perri en fin de gangbang, j'call du renfort Allô, ma gueule, comment on fait des fils allô ? Surpris, il m'dit Comment ça, comment on fait des fils J'lui dis Frérot, là, c'est Dieu qui m'envoie un signe J'viens d'tomber sur une camionnette avec dedans cent kil' cent kil' Ou peut-être deux cents, qu'est-c'que j'en sais ? T'façon, ça tient pas sur ma pesette Entre trente sec', il s'téléporte, c'est lui qui fait démarrer la tire Sur le périph', on croise le shérif, ses narines frémissent Mais lorsqu'il nous regarde, il voit deux Polaks qui reviennent du chantier C'pour ça qu'il arrête le rebeu dans la Twingo derrière raciste Hors de portée, j'expose mon plan J'prends la moitié, ça s'ra ma cons' à vie L'autre moitié, tu la vends et on partage le bénéf' Il m'dit Si y a qu'moi qui vend, on partagera pas, j'dis C'moi qu'ai trouvé, c'est moi qu'ai trouvé Un jour ou l'autre, ils vont se dire Que le pire reste à venir J'préfère prévenir que guérir Mes frères ont pris du ferme pour d'l'herbe Un jour ou l'autre, ils vont se dire Taffer pour mille deux, c'est l'pire J'veux compter violets, jaunes, verts Une valise, je quitte vos terres Happy birthday, happy birthday Oh, ma malle à kilos and a Merry Christmas Oh, ma malle à kilos and a happy new year Oh, ma malle à kilos oh happy hanoucca Oh, ma malle à kilos Au SMIC, ma vie défile, un lo-ki et c'est fini T'es comique ou cinéphile ? J'suis dans l'cockpit, t'es dans l'building Au SMIC, ma vie défile, un lo-ki et c'est fini T'es comique ou cinéphile ? J'suis dans l'cockpit, t'es dans l'building Happy birthday, happy birthday Oh, ma malle à kilos and a Merry Christmas Oh, ma malle à kilos and a happy new year Oh, ma malle à kilos oh happy hanoucca Oh, ma malle à kilos Vald, La Ppe-fra 50k, GAM OVR</t>
+          <t>- Eh, gros, imagine, tu trouves une valise - Une valise remplie d'kilos et tout ? - Exactement - Attends, t'sais j'fais quoi ? Allô, déjà, je prends mon phone, j'appelle mon pote comme un homme comme un homme J'lui dis Poto, faut qu'tu viennes, la vie est folle Avec cent kil', j'fais la tonne, ma meuf est belle mais elle est conne elle est conne La vie d'ma mère, j'baiserais la meuf la plus bonne Plus d'sentiments, j'paie mes bails mes bails J'viens en bas d'ton tier-quar et j'te ravitaille Pablo du 9-3, goûte ma came, fais pas style tu tapes un rail Tu pètes un grec, tu d'mandes le price Toi, t'as pas d'pions, t'as que d'la caille Mais ma seule drogue reste le bédo Mama veut pas d'mon argent sale Grâce à la valise, j'fais des cadeaux J'suis avec Vald, ça tourne sur Paname Un jour ou l'autre, ils vont se dire Que le pire reste à venir J'préfère prévenir que guérir Mes frères ont pris du ferme pour d'l'herbe Un jour ou l'autre, ils vont se dire Taffer pour mille deux, c'est l'pire J'veux compter violets, jaunes, verts Une valise, je quitte vos terres Happy birthday, happy birthday Oh, ma malle à kilos and a Merry Christmas Oh, ma malle à kilos and a happy new year Oh, ma malle à kilos oh happy hanoucca Oh, ma malle à kilos Ah mais j't'ai pas raconté c'truc L'autre fois, j'étais dans la street, ça sentait l'shit de l'enfer yes À tous les coups au corner, j'vais croiser des putains d'hippies qui zonent Qui vont m'dégainer V.A., wesh, t'as pas dis bonjour Ta mère la Wisigoth Au lieu d'ça, j'tombe sur une camionnette porte arrière entrouverte, ça sent la ppe-fra, le spliff qui cogne Rapide coup d'il du côté passager, personne non plus qui tient le volant J'suis comme affolé, j'retourne à l'arrière, je tire la porte, le coffre Est comme rempli à ras bord, comme Piper Perri en fin de gangbang, j'call du renfort Allô, ma gueule, comment on fait des fils allô ? Surpris, il m'dit Comment ça, comment on fait des fils J'lui dis Frérot, là, c'est Dieu qui m'envoie un signe J'viens d'tomber sur une camionnette avec dedans cent kil' cent kil' Ou peut-être deux cents, qu'est-c'que j'en sais ? T'façon, ça tient pas sur ma pesette Entre trente sec', il s'téléporte, c'est lui qui fait démarrer la tire Sur le périph', on croise le shérif, ses narines frémissent Mais lorsqu'il nous regarde, il voit deux Polaks qui reviennent du chantier C'pour ça qu'il arrête le rebeu dans la Twingo derrière raciste Hors de portée, j'expose mon plan J'prends la moitié, ça s'ra ma cons' à vie L'autre moitié, tu la vends et on partage le bénéf' Il m'dit Si y a qu'moi qui vend, on partagera pas, j'dis C'moi qu'ai trouvé, c'est moi qu'ai trouvé Un jour ou l'autre, ils vont se dire Que le pire reste à venir J'préfère prévenir que guérir Mes frères ont pris du ferme pour d'l'herbe Un jour ou l'autre, ils vont se dire Taffer pour mille deux, c'est l'pire J'veux compter violets, jaunes, verts Une valise, je quitte vos terres Happy birthday, happy birthday Oh, ma malle à kilos and a Merry Christmas Oh, ma malle à kilos and a happy new year Oh, ma malle à kilos oh happy hanoucca Oh, ma malle à kilos Au SMIC, ma vie défile, un lo-ki et c'est fini T'es comique ou cinéphile ? J'suis dans l'cockpit, t'es dans l'building Au SMIC, ma vie défile, un lo-ki et c'est fini T'es comique ou cinéphile ? J'suis dans l'cockpit, t'es dans l'building Happy birthday, happy birthday Oh, ma malle à kilos and a Merry Christmas Oh, ma malle à kilos and a happy new year Oh, ma malle à kilos oh happy hanoucca Oh, ma malle à kilos Vald, La Ppe-fra 50k, GAM OVR</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sheitana-na-na-na, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na T'as mis la paire de Louboutin, t'es pas venue faire la groupie Mais t'as reconnu la table des grossistes Elle attire les dents cassées et les peines à deux chiffres Avec une Rolex, c'est l'Polo, moustique Réussir comme sheitana, tu sais bien que c'est possible Faut juste avoir la meilleure cambrure Tu veux niquer le monde, ton cur veut plus s'adoucir Ton ex t'a fait du mal, tu vas t'venger d'tes blessures La sheitana c'est une peu-fra, la vie d'ma mère c'est les States Elle compte sur personne, elle sait compter que l'espèce Côté passager, elle peut cacher ton brolique Tu tombes sous son charme, tu l'laisses conduire le bolide Et après le sale, elles veulent toutes se poser Elles ont pris de l'âge, elles veulent toutes se poser Et après le sale, elles veulent toutes se poser Elles ont pris de l'âge, elles veulent toutes se poser You might also like Elle veut les clés du Audi et piloter mon cur, ouais Tu crois qu'j'suis maudit, j'suis cramé dans l'secteur, ouais J'ai des ients-cli, des los-ki, dis-moi pourquoi t'as peur, babe Hey, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na Sheitana aime les boîtes de nuit, elle a grave du ce-vi Et dans le carré VIP elle gratte du cool-al Sheitana aime le pack AMG, le Porsche, le Féfé Le compte rempli, t'es validé Elle fait que snapper Cannes, Monaco et Marbella-la, la-la Elle connait le shour, elle a tout pour les faire chanter, Sheita-na-na Ah ouais, elle est souvent dans les villas, elle colle les mecs qui pèsent Et c'est souvent le plus riche qui la baise Vendredi, samedi et dimanche soir, elle fait la fête Sans oublier le mardi, en gros, toute la semaine Sheitana-na-na, dans les rues d'Pana-na-name Elle est bonne sa mère, elle fait trop mal à la tête Sheitana-na-na, dans les rues d'Pana-na-name Elle veut les clés du Classe A Elle veut les clés du Audi et piloter mon cur, ouais Tu crois qu'j'suis maudit, j'suis cramé dans l'secteur, ouais J'ai des ients-cli, des los-ki, dis-moi pourquoi t'as peur, babe Hey, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na Elle veut les clés du Audi et piloter mon cur, ouais Tu crois qu'j'suis maudit, j'suis cramé dans l'secteur, ouais J'ai des ients-cli, des los-ki, dis-moi pourquoi t'as peur, babe Hey, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na Elle veut les clés du Audi et piloter mon cur, ouais Tu crois qu'j'suis maudit, j'suis cramé dans l'secteur, ouais J'ai des ients-cli, des los-ki, dis-moi pourquoi t'as peur, babe Hey, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na1</t>
+          <t>Sheitana-na-na-na, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na T'as mis la paire de Louboutin, t'es pas venue faire la groupie Mais t'as reconnu la table des grossistes Elle attire les dents cassées et les peines à deux chiffres Avec une Rolex, c'est l'Polo, moustique Réussir comme sheitana, tu sais bien que c'est possible Faut juste avoir la meilleure cambrure Tu veux niquer le monde, ton cur veut plus s'adoucir Ton ex t'a fait du mal, tu vas t'venger d'tes blessures La sheitana c'est une peu-fra, la vie d'ma mère c'est les States Elle compte sur personne, elle sait compter que l'espèce Côté passager, elle peut cacher ton brolique Tu tombes sous son charme, tu l'laisses conduire le bolide Et après le sale, elles veulent toutes se poser Elles ont pris de l'âge, elles veulent toutes se poser Et après le sale, elles veulent toutes se poser Elles ont pris de l'âge, elles veulent toutes se poser Elle veut les clés du Audi et piloter mon cur, ouais Tu crois qu'j'suis maudit, j'suis cramé dans l'secteur, ouais J'ai des ients-cli, des los-ki, dis-moi pourquoi t'as peur, babe Hey, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na Sheitana aime les boîtes de nuit, elle a grave du ce-vi Et dans le carré VIP elle gratte du cool-al Sheitana aime le pack AMG, le Porsche, le Féfé Le compte rempli, t'es validé Elle fait que snapper Cannes, Monaco et Marbella-la, la-la Elle connait le shour, elle a tout pour les faire chanter, Sheita-na-na Ah ouais, elle est souvent dans les villas, elle colle les mecs qui pèsent Et c'est souvent le plus riche qui la baise Vendredi, samedi et dimanche soir, elle fait la fête Sans oublier le mardi, en gros, toute la semaine Sheitana-na-na, dans les rues d'Pana-na-name Elle est bonne sa mère, elle fait trop mal à la tête Sheitana-na-na, dans les rues d'Pana-na-name Elle veut les clés du Classe A Elle veut les clés du Audi et piloter mon cur, ouais Tu crois qu'j'suis maudit, j'suis cramé dans l'secteur, ouais J'ai des ients-cli, des los-ki, dis-moi pourquoi t'as peur, babe Hey, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na Elle veut les clés du Audi et piloter mon cur, ouais Tu crois qu'j'suis maudit, j'suis cramé dans l'secteur, ouais J'ai des ients-cli, des los-ki, dis-moi pourquoi t'as peur, babe Hey, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na Elle veut les clés du Audi et piloter mon cur, ouais Tu crois qu'j'suis maudit, j'suis cramé dans l'secteur, ouais J'ai des ients-cli, des los-ki, dis-moi pourquoi t'as peur, babe Hey, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na Sheitana-na-na-na, sheitana-na-na-na1</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Maintenant ou jamais comme demain j'arrête Y'a que sous Vodka Red j'ai besoin de tes caresses On vieillit mal on est loin d'être Pharrell Perquise 6 du mat' on a le temps de faire aucun rêve La vie c'est le game y en a qui meurent, qui naissent Mon cur te veux c'est ma fierté qui te laisse On traîne dans la rue avec doudoune North Face Compte que sur mes doigts alé un, dos, tres C'est réel dans ma ruelle qu'est-ce t'as cru Pisse du diable dans la Schweppes Agrum Tu mérites une rafale d'un mec fonsdé sous rhum Que des ien-cli sous pilons pas d'anguilles sous roche M'sers pas la main tu fais la bise à l'ennemi Jean Balmain j'arrive dans le game henani Toujours dans l'ombre comme un crochet du bas Le rrain-té c'est McDo', l'HappyMeal c'est 10 balles Comment oses-tu encore nous boycotter ? Ma bite sur l'épaule bascule du bon côté J'fais que du sale à ma porte viens toquer Type Nord-Africain ça résonne dans le talky Si t'es sorti c'est que t'as pouci Si t'as rien dis c'est que t'as tout dis Aucun parmi nous est un fils de toubib C'est la hess mais la paire de Nike est toute jdid You might also like Même dans la merde on pense à vivre J'pense aux frères qu'on nous a pris Y a qu'aux vrais que j'tape la bise De la peuf pour ma team C'est ma vie, tu sais que c'est ma vie Les frères ont pris du ferme le quartier devient vide Tout va vite, tout va vite Les frères ont pris du ferme le quartier devient vide C'est ma vie, alé wesh C'est nos vies, alé wesh C'est ma vie, alé wesh C'est nos vies, alé wesh Allume ta radio y a le petit Hornet qui rappe Y a la panenka devant les goals et ceux qui ratent Niquer des mères c'est le plan vigipirate Prends le volant, 6 du mat', sous chite et t'es rhabat C'est de la peufra crois pas que c'est de la caille A la baraque il n'y avait rien à graille J'prie Dieu pour de la force jamais pour de la maille Quatre-vingt-treize la frappe identifiable Bibi la beubeuh au bobo sur Paris Rebeu, renois, fuck le communautarisme T'es dans un trou du demande ce qui t'arrives Personne te relance ça t'allume sur le tarif Tu sors une voiture, des chaussures, ça te hayeun Tu sors une voiture, des chaussures, ça te hayeun Un mec de cité est selon son vécu Pas simplement mettre l'ensemble du Bayern Bibi la résine l'avenir est à nous J'suis fort t'hallucine na ko beta yo La frappe à Drogba, la frappe à Carlos Tes couilles dans le frigo, nos couilles dans le thermos Respectes les anciens, disque d'or sur vinyle Tu te prends pour Michael t'as vendu deux mille Le premier qui bouge on viendra l'enculer On zouk avec la mort sous rhum antillais Même dans la merde on pense à vivre J'pense aux frères qu'on nous a pris Y a qu'aux vrais que j'tape la bise De la peuf pour ma team C'est ma vie, tu sais que c'est ma vie Les frères ont pris du ferme le quartier devient vide Tout va vite, tout va vite Les frères ont pris du ferme le quartier devient vide C'est ma vie, alé wesh C'est nos vies, alé wesh C'est ma vie, alé wesh C'est nos vies, alé wesh Du sale c'est ça l'idée khey, du sale c'est ça l'idée khey Du sale c'est ça l'idée khey Du sale c'est ça l'idée khey, du sale c'est ça l'idée khey Du sale c'est ça l'idée khey Du sale c'est ça l'idée khey, du sale c'est ça l'idée khey Du sale c'est ça l'idée khey Du sale c'est ça l'idée khey, du sale c'est ça l'idée khey Du sale c'est ça l'idée khey</t>
+          <t>Maintenant ou jamais comme demain j'arrête Y'a que sous Vodka Red j'ai besoin de tes caresses On vieillit mal on est loin d'être Pharrell Perquise 6 du mat' on a le temps de faire aucun rêve La vie c'est le game y en a qui meurent, qui naissent Mon cur te veux c'est ma fierté qui te laisse On traîne dans la rue avec doudoune North Face Compte que sur mes doigts alé un, dos, tres C'est réel dans ma ruelle qu'est-ce t'as cru Pisse du diable dans la Schweppes Agrum Tu mérites une rafale d'un mec fonsdé sous rhum Que des ien-cli sous pilons pas d'anguilles sous roche M'sers pas la main tu fais la bise à l'ennemi Jean Balmain j'arrive dans le game henani Toujours dans l'ombre comme un crochet du bas Le rrain-té c'est McDo', l'HappyMeal c'est 10 balles Comment oses-tu encore nous boycotter ? Ma bite sur l'épaule bascule du bon côté J'fais que du sale à ma porte viens toquer Type Nord-Africain ça résonne dans le talky Si t'es sorti c'est que t'as pouci Si t'as rien dis c'est que t'as tout dis Aucun parmi nous est un fils de toubib C'est la hess mais la paire de Nike est toute jdid Même dans la merde on pense à vivre J'pense aux frères qu'on nous a pris Y a qu'aux vrais que j'tape la bise De la peuf pour ma team C'est ma vie, tu sais que c'est ma vie Les frères ont pris du ferme le quartier devient vide Tout va vite, tout va vite Les frères ont pris du ferme le quartier devient vide C'est ma vie, alé wesh C'est nos vies, alé wesh C'est ma vie, alé wesh C'est nos vies, alé wesh Allume ta radio y a le petit Hornet qui rappe Y a la panenka devant les goals et ceux qui ratent Niquer des mères c'est le plan vigipirate Prends le volant, 6 du mat', sous chite et t'es rhabat C'est de la peufra crois pas que c'est de la caille A la baraque il n'y avait rien à graille J'prie Dieu pour de la force jamais pour de la maille Quatre-vingt-treize la frappe identifiable Bibi la beubeuh au bobo sur Paris Rebeu, renois, fuck le communautarisme T'es dans un trou du demande ce qui t'arrives Personne te relance ça t'allume sur le tarif Tu sors une voiture, des chaussures, ça te hayeun Tu sors une voiture, des chaussures, ça te hayeun Un mec de cité est selon son vécu Pas simplement mettre l'ensemble du Bayern Bibi la résine l'avenir est à nous J'suis fort t'hallucine na ko beta yo La frappe à Drogba, la frappe à Carlos Tes couilles dans le frigo, nos couilles dans le thermos Respectes les anciens, disque d'or sur vinyle Tu te prends pour Michael t'as vendu deux mille Le premier qui bouge on viendra l'enculer On zouk avec la mort sous rhum antillais Même dans la merde on pense à vivre J'pense aux frères qu'on nous a pris Y a qu'aux vrais que j'tape la bise De la peuf pour ma team C'est ma vie, tu sais que c'est ma vie Les frères ont pris du ferme le quartier devient vide Tout va vite, tout va vite Les frères ont pris du ferme le quartier devient vide C'est ma vie, alé wesh C'est nos vies, alé wesh C'est ma vie, alé wesh C'est nos vies, alé wesh Du sale c'est ça l'idée khey, du sale c'est ça l'idée khey Du sale c'est ça l'idée khey Du sale c'est ça l'idée khey, du sale c'est ça l'idée khey Du sale c'est ça l'idée khey Du sale c'est ça l'idée khey, du sale c'est ça l'idée khey Du sale c'est ça l'idée khey Du sale c'est ça l'idée khey, du sale c'est ça l'idée khey Du sale c'est ça l'idée khey</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tu es mon ex, tu es mon ex Tu es mon ex, tu es mon ex Tu es mon ex, tu es mon ex Tu es mon ex, tu es mon ex C'est vrai qu'j'voulais ton cur, accompagné de ton âme J'pensais qu'c'était ton heure, d'être tombé sous mon charme J'te l'ai fait à l'envers, t'façon c'était juste des fleurs J'pensais pas à l'enfer, j'pensais juste à notre flirt J'aimais ton fond, tes formes, tu sais t'occuper de l'homme Au début c'était des lol, aujourd'hui j'suis tombé love J'suis prêt à donner l'or pour revoir ton corps On m'a jeté un sort, moi qui pensais être fort Tu réponds plus au phone, t'es p'têt devenue folle Je reviens aux nouvelles qu'elles soient mauvaises ou bonnes Ça fait de moi un homme d'avoir un cur en or Ça fait de toi une conne d'avoir laissé un homme Tu m'as piqué à vie, c'est comme une mort lente, sans le paradis A peine hier on s'aimait, on voulait se fiancer Mais j'me suis renseigné, t'as le cur cadenassé J'allais tappeler cette nuit mais tu es mon ex J'voulais lâcher la bibi mais tu es mon ex On s'était dit pour la vie, mais tu es mon ex J'voulais que tu restes sur le navire, mais tu es mon ex J'allais tappeler cette nuit mais tu es mon ex J'voulais lâcher la bibi mais tu es mon ex On s'était dit pour la vie, mais tu es mon ex J'voulais que tu restes sur le navire, mais tu es mon ex You might also like J'ai refait ma vie, j'ai remis l'anneau Rien n'est encore acquis, je pense à toi la nuit Je vais lâcher l'affaire, aller avec une autre Je deviens parano à te voir dans ses robes La vie est courte et longue quand tu dois jouer un rôle En lui disant ces mots, j'vais même lui faire un môme C'est toi mon premier kiff mais l'échec ça arrive Je t'ai menti c'est vrai, j'voulais monter l'Everest Je te veux au réveil, je t'ai même dans les veines Des fois j'étais en boîte j'esquivais tes appels J'étais vraiment rabhat' tu me prenais la tête Aujourd'hui tout ça manque, pourquoi tu veux qu'j'te mente Tu m'as piqué à vie, c'est comme une mort lente sans le paradis A peine hier on s'aimait, on voulait se fiancer Mais j'me suis renseigné, t'as le cur cadenassé J'allais tappeler cette nuit mais tu es mon ex J'voulais lâcher la bibi mais tu es mon ex On s'était dit pour la vie, mais tu es mon ex J'voulais que tu restes sur le navire, mais tu es mon ex J'allais tappeler cette nuit mais tu es mon ex J'voulais lâcher la bibi mais tu es mon ex On s'était dit pour la vie, mais tu es mon ex J'voulais que tu restes sur le navire, mais tu es mon ex Tu es mon ex, next, next, next, next Tu es mon ex, next, next, next, next Tu es mon ex, next, next, next, next Tu es mon ex, next, next, next, next Tu es mon ex, next, next, next, next Tu es mon ex, next, next, next, next Tu es mon ex, next, next, next, next Tu es mon ex, next, next, next, next J'allais tappeler cette nuit mais tu es mon ex J'voulais lâcher la bibi mais tu es mon ex On s'était dit pour la vie, mais tu es mon ex J'voulais que tu restes sur le navire, mais tu es mon ex J'allais tappeler cette nuit mais tu es mon ex J'voulais lâcher la bibi mais tu es mon ex On s'était dit pour la vie, mais tu es mon ex J'voulais que tu restes sur le navire, mais tu es mon ex2</t>
+          <t>Tu es mon ex, tu es mon ex Tu es mon ex, tu es mon ex Tu es mon ex, tu es mon ex Tu es mon ex, tu es mon ex C'est vrai qu'j'voulais ton cur, accompagné de ton âme J'pensais qu'c'était ton heure, d'être tombé sous mon charme J'te l'ai fait à l'envers, t'façon c'était juste des fleurs J'pensais pas à l'enfer, j'pensais juste à notre flirt J'aimais ton fond, tes formes, tu sais t'occuper de l'homme Au début c'était des lol, aujourd'hui j'suis tombé love J'suis prêt à donner l'or pour revoir ton corps On m'a jeté un sort, moi qui pensais être fort Tu réponds plus au phone, t'es p'têt devenue folle Je reviens aux nouvelles qu'elles soient mauvaises ou bonnes Ça fait de moi un homme d'avoir un cur en or Ça fait de toi une conne d'avoir laissé un homme Tu m'as piqué à vie, c'est comme une mort lente, sans le paradis A peine hier on s'aimait, on voulait se fiancer Mais j'me suis renseigné, t'as le cur cadenassé J'allais tappeler cette nuit mais tu es mon ex J'voulais lâcher la bibi mais tu es mon ex On s'était dit pour la vie, mais tu es mon ex J'voulais que tu restes sur le navire, mais tu es mon ex J'allais tappeler cette nuit mais tu es mon ex J'voulais lâcher la bibi mais tu es mon ex On s'était dit pour la vie, mais tu es mon ex J'voulais que tu restes sur le navire, mais tu es mon ex J'ai refait ma vie, j'ai remis l'anneau Rien n'est encore acquis, je pense à toi la nuit Je vais lâcher l'affaire, aller avec une autre Je deviens parano à te voir dans ses robes La vie est courte et longue quand tu dois jouer un rôle En lui disant ces mots, j'vais même lui faire un môme C'est toi mon premier kiff mais l'échec ça arrive Je t'ai menti c'est vrai, j'voulais monter l'Everest Je te veux au réveil, je t'ai même dans les veines Des fois j'étais en boîte j'esquivais tes appels J'étais vraiment rabhat' tu me prenais la tête Aujourd'hui tout ça manque, pourquoi tu veux qu'j'te mente Tu m'as piqué à vie, c'est comme une mort lente sans le paradis A peine hier on s'aimait, on voulait se fiancer Mais j'me suis renseigné, t'as le cur cadenassé J'allais tappeler cette nuit mais tu es mon ex J'voulais lâcher la bibi mais tu es mon ex On s'était dit pour la vie, mais tu es mon ex J'voulais que tu restes sur le navire, mais tu es mon ex J'allais tappeler cette nuit mais tu es mon ex J'voulais lâcher la bibi mais tu es mon ex On s'était dit pour la vie, mais tu es mon ex J'voulais que tu restes sur le navire, mais tu es mon ex Tu es mon ex, next, next, next, next Tu es mon ex, next, next, next, next Tu es mon ex, next, next, next, next Tu es mon ex, next, next, next, next Tu es mon ex, next, next, next, next Tu es mon ex, next, next, next, next Tu es mon ex, next, next, next, next Tu es mon ex, next, next, next, next J'allais tappeler cette nuit mais tu es mon ex J'voulais lâcher la bibi mais tu es mon ex On s'était dit pour la vie, mais tu es mon ex J'voulais que tu restes sur le navire, mais tu es mon ex J'allais tappeler cette nuit mais tu es mon ex J'voulais lâcher la bibi mais tu es mon ex On s'était dit pour la vie, mais tu es mon ex J'voulais que tu restes sur le navire, mais tu es mon ex2</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Côté passager mon pote pilote la choupette Calme est la fumette, cerveau scotché à l'appui-tête Que ça cherche des plans, personne est architecte Mets les gants, casque roof, bécane à vitesse Nos vies c'est réel, c'est pas un clip à 2 Chainz Fons-dé en club même le plus gros voyou fait sa p'tite dance On se vide la tête avec bouteille à un point On a conscience que chaque pêché a un poids On a rien à perdre et tout à prendre c'est bénef Pour aider son prochain tu sais bien qu'ici ça chenef Jamais rencontrer l'vét , écouté même à Genève Range ton couteau suisse devant l'équipe d'HLF On cherche le liquide, tu peux ranger ton chéquier Maman a pris des rides, fatiguée par les huissiers J'chantais pas ma peine, mais ma détermination J'suis pas là pour faire tiep', on est des mauvais garçons Donnez nous notre chance, on a des bâtiments sombres Plus fort dans la lumière quand t'as tout bâti dans l'ombre On a passé l'hiver à vouloir refaire le monde Peuf dans vaisseau sanguinaire je vous annonce Baba m'a dit Faut que tu frappes fort pour les assommer Yemma me répète T'es la fierté de la son-mai P'tit gangster, besoin d'air, marre de zoner Bénéfices nets, vise la tête pour des lovés You might also like La té-ci m'a dit T'as dead ça, respect Et pour ceux qui ne suivent pas, laisse-les J'fais mes dièzes, j'ne compte pas rester Mais si tu comptes sur moi, respect La té-ci m'a dit T'as dead ça, respect Et pour ceux qui ne suivent pas, laisse-les J'fais mes dièzes et je ne compte pas rester Mais si tu comptes sur moi, respect C'est pas ton gros cul qui va me faire dire Bébé j't'aime J'vide mon cur sur un 120 BPM Je sais qui je suis, et je sais avec qui je traîne Tout va vite, mais ça ralentit de finir à Fresnes J'suis dans lanonymat sur ma Donna Imma Mon chemin n'est pas droit, faut que je me rapproche d'un Imam J'ai fais du bien, mais on se souvient que du mal Montrer des litrons de peufs ça fait monter l'audimat J't'ai tendu l'bras, tu m'as coupé jusqu'à l'épaule P'tit frère essaye d'avoir l'bac, j'regrette d'avoir quitté l'école Nique la race humaine et vive la race à Snoopy Ça peut se recoudre l'hymen et faire la meuf toute jdid Bénéfice nets, t'auras la plus belle au lit Fons-dé dans l'Audi, que d'la peuf en olive Même en gros pit', t'auras un missile, hauts risques Si la vie est courte, rien ne sert de courir Niquer des mères, seul dans un navire Si tes yeuc sont pleines, ton frigo sera pas vide Le mal par le mal, y'a que ça qui attire Le mal par le mal, y'a que ça qui attire Baba m'a dit Faut que tu frappes fort pour les assommer Yemma me répète T'es la fierté de la son-mai P'tit gangster, besoin d'air, marre de zoner Bénéfices nets, vise la tête pour des lovés La té-ci m'a dit T'as dead ça, respect Et pour ceux qui ne suivent pas, laisse-les J'fais mes dièzes, j'ne compte pas rester Mais si tu comptes sur moi, respect La té-ci m'a dit T'as dead ça, respect Et pour ceux qui ne suivent pas, laisse-les J'fais mes dièzes et je ne compte pas rester Mais si tu comptes sur moi, respect Dead ça3</t>
+          <t>Côté passager mon pote pilote la choupette Calme est la fumette, cerveau scotché à l'appui-tête Que ça cherche des plans, personne est architecte Mets les gants, casque roof, bécane à vitesse Nos vies c'est réel, c'est pas un clip à 2 Chainz Fons-dé en club même le plus gros voyou fait sa p'tite dance On se vide la tête avec bouteille à un point On a conscience que chaque pêché a un poids On a rien à perdre et tout à prendre c'est bénef Pour aider son prochain tu sais bien qu'ici ça chenef Jamais rencontrer l'vét , écouté même à Genève Range ton couteau suisse devant l'équipe d'HLF On cherche le liquide, tu peux ranger ton chéquier Maman a pris des rides, fatiguée par les huissiers J'chantais pas ma peine, mais ma détermination J'suis pas là pour faire tiep', on est des mauvais garçons Donnez nous notre chance, on a des bâtiments sombres Plus fort dans la lumière quand t'as tout bâti dans l'ombre On a passé l'hiver à vouloir refaire le monde Peuf dans vaisseau sanguinaire je vous annonce Baba m'a dit Faut que tu frappes fort pour les assommer Yemma me répète T'es la fierté de la son-mai P'tit gangster, besoin d'air, marre de zoner Bénéfices nets, vise la tête pour des lovés La té-ci m'a dit T'as dead ça, respect Et pour ceux qui ne suivent pas, laisse-les J'fais mes dièzes, j'ne compte pas rester Mais si tu comptes sur moi, respect La té-ci m'a dit T'as dead ça, respect Et pour ceux qui ne suivent pas, laisse-les J'fais mes dièzes et je ne compte pas rester Mais si tu comptes sur moi, respect C'est pas ton gros cul qui va me faire dire Bébé j't'aime J'vide mon cur sur un 120 BPM Je sais qui je suis, et je sais avec qui je traîne Tout va vite, mais ça ralentit de finir à Fresnes J'suis dans lanonymat sur ma Donna Imma Mon chemin n'est pas droit, faut que je me rapproche d'un Imam J'ai fais du bien, mais on se souvient que du mal Montrer des litrons de peufs ça fait monter l'audimat J't'ai tendu l'bras, tu m'as coupé jusqu'à l'épaule P'tit frère essaye d'avoir l'bac, j'regrette d'avoir quitté l'école Nique la race humaine et vive la race à Snoopy Ça peut se recoudre l'hymen et faire la meuf toute jdid Bénéfice nets, t'auras la plus belle au lit Fons-dé dans l'Audi, que d'la peuf en olive Même en gros pit', t'auras un missile, hauts risques Si la vie est courte, rien ne sert de courir Niquer des mères, seul dans un navire Si tes yeuc sont pleines, ton frigo sera pas vide Le mal par le mal, y'a que ça qui attire Le mal par le mal, y'a que ça qui attire Baba m'a dit Faut que tu frappes fort pour les assommer Yemma me répète T'es la fierté de la son-mai P'tit gangster, besoin d'air, marre de zoner Bénéfices nets, vise la tête pour des lovés La té-ci m'a dit T'as dead ça, respect Et pour ceux qui ne suivent pas, laisse-les J'fais mes dièzes, j'ne compte pas rester Mais si tu comptes sur moi, respect La té-ci m'a dit T'as dead ça, respect Et pour ceux qui ne suivent pas, laisse-les J'fais mes dièzes et je ne compte pas rester Mais si tu comptes sur moi, respect Dead ça3</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Que d'la pe-fra, validé dans le tier-q' Tier-q', tier-q' Remonte ton legging, fais tourner nos têtes Têtes, têtes J'sais même plus t'es qui, j'ai envie d'te ken Ken, ken On sent les llets-bi juste à bout de zen Zen, zen J'sais pas parler aux filles, j'suis pas Abou Debeing Being, being Se-bai dans l'Audi, se-bai dans l'hôtel Tel, tel Que d'la re-pu, neuf-trois c'est crapuleux Peuf, peuf Tu sais que ça tue, fais confiance à Dieu Dieu, dieu J'veux la même que J.Lo même si son passé en dit long Non, non J'veux la même que J.Lo J.Lo, qu'on avance en binôme Non, non Allez, retiens bien nos têtes Têtes, têtes Allez découpe la 'quette Quette, quette Effrite de l'index Dex, dex Ça vient de la tess, pe-fra J'fume la peuf avec Hornet Yeah J'suis avec les zins' sur le corner Yeah J'suis dans la loc', je gère le reste Fais le, fais le, fais le, fais le Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la cons' Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses Yeah, yeah Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses You might also like Y a les amis, les ennemis, y a les putes Les michtonneuses qui racontent de la flûte On retrouve ton corps près du Luc J'ai des sapes italiennes, c'est du luxe J'écoute les rappels d'un frère mus' Que Dieu me guide, ouais, j'suis perdu J'suis concentré sur mon millefeuille Bébé, j't'aime plus que le tertus Viens dans mon coin, ça bibi quelques grammes de peuf Yeah, yeah J'suis à l'hôtel avec ta meuf, j'me démonte à la OG KushYeah, yeah J'ai pas changé, j'fume la frappe de Tanger J'suis au QG avec que des fils d'étrangers Trop tard pour s'ranger, des frères ont plongé Y a de l'argent à faire et ma petite sur est en danger, yeah J'fume la peuf avec Hornet Yeah J'suis avec les zins' sur le corner Yeah J'suis dans la loc', je gère le reste Fais le, fais le, fais le, fais le Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la cons' Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses Yeah, yeah Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses1</t>
+          <t>Que d'la pe-fra, validé dans le tier-q' Tier-q', tier-q' Remonte ton legging, fais tourner nos têtes Têtes, têtes J'sais même plus t'es qui, j'ai envie d'te ken Ken, ken On sent les llets-bi juste à bout de zen Zen, zen J'sais pas parler aux filles, j'suis pas Abou Debeing Being, being Se-bai dans l'Audi, se-bai dans l'hôtel Tel, tel Que d'la re-pu, neuf-trois c'est crapuleux Peuf, peuf Tu sais que ça tue, fais confiance à Dieu Dieu, dieu J'veux la même que J.Lo même si son passé en dit long Non, non J'veux la même que J.Lo J.Lo, qu'on avance en binôme Non, non Allez, retiens bien nos têtes Têtes, têtes Allez découpe la 'quette Quette, quette Effrite de l'index Dex, dex Ça vient de la tess, pe-fra J'fume la peuf avec Hornet Yeah J'suis avec les zins' sur le corner Yeah J'suis dans la loc', je gère le reste Fais le, fais le, fais le, fais le Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la cons' Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses Yeah, yeah Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses Y a les amis, les ennemis, y a les putes Les michtonneuses qui racontent de la flûte On retrouve ton corps près du Luc J'ai des sapes italiennes, c'est du luxe J'écoute les rappels d'un frère mus' Que Dieu me guide, ouais, j'suis perdu J'suis concentré sur mon millefeuille Bébé, j't'aime plus que le tertus Viens dans mon coin, ça bibi quelques grammes de peuf Yeah, yeah J'suis à l'hôtel avec ta meuf, j'me démonte à la OG KushYeah, yeah J'ai pas changé, j'fume la frappe de Tanger J'suis au QG avec que des fils d'étrangers Trop tard pour s'ranger, des frères ont plongé Y a de l'argent à faire et ma petite sur est en danger, yeah J'fume la peuf avec Hornet Yeah J'suis avec les zins' sur le corner Yeah J'suis dans la loc', je gère le reste Fais le, fais le, fais le, fais le Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la cons' Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses Yeah, yeah Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses1</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>N.I N.I, poto Poto C'est l'label, là C'est l'label, là, hein Hein Rec. 118, on t'a dit Rec. 118, on t'a dit Écurie d'bâtards Écurie d'bâtards Ah, ah, ah, ah Ah, ah, ah, ah, ah, ah, ah Binks, binks, binks Drr J'ai connu la hess, donc mille-deux, ça m'irait Drr, marrant d'dire ça dans un jean Amiri Fais pas d'signe de gang, vous êtes quatre adhérents, j'traîne dans des coins sombres, pas devant la mairie Ppe-fra La vodka est pure, j'avoue, ça m'écure, le contrôle est sûr, le pilote est beur Hey, hey Conso' dans les burnes, du coup, ça déborde, ça rntre des thunes sans plus fair d'efforts J'ai craché ma haine entre deux bes'-j, hein, je vois qu'ton ul-c d'puis qu't'as vu l'buzz, hein Niquer des mères, j'en avais besoin, juste pour un teh, on a mis deux joints Ppe-fra Les p'tits sur Btwin, les grands sous bibine, y a pas d'CBD, en face, ça bi'-bi' Encore l'appétit, encore la bite dure, encore à la mode, viens faire la picture C'est Mozart, Capitaine, Jackson Michael dans un 4Matic d'Allemagne Ah, skrt Que des frappes en lucarne quand j'arrive Une, deux, là, c'est noir, c'est le Nord, c'est la ue-r Une, deux Badaboum, badaboum, badaboum Badaboum, pour le respect du gang, on déboule Ah oui Ouais, c'est cool quand les kilos s'écoulent, c'est nous, les racailles dans le hall quand il caille Bah wesh Des streamings, des problèmes, des fusils à pompe, les gardiens de la paix qui cassent la porte Du te-shi, d'la be-her qui ti-par vite Ah, ah, ah, j'finis mon shopping Gucci, Louis Vui' J'met les sacs dans le coffre du Audi Skrt, skrt, skrt, skrt, skrt, les vitres sont teintées J'suis refait, on dirait qu'j'ai gagné au quinté, bang Double Bang You might also like J'sais même pas t'es qui J'sais même pas t'es qui Tu fais l'voyou, tu m'énerves Tu fais l'bandit, ça m'énerve Oh, oh, oh, oh Y a beaucoup d'thos-my, c'est pas avec tout l'monde qu'on parle affaires Nan, nan, nan, nan J'ai rêvé d'Miami Beach, j'me suis taillé J'me suis tiré On vend le shit mais on est très bien organisés J'me suis tiré Tout l'monde est payé, le bosseur est sociable La vie du binks Fucking binks, du fucking binks Fucking binks Eh, eh, eh Les paroles, elles sont pas trop mâchées, toujours on vendra la H C'est pas les mêmes dans leurs cités, y a des cousins aux Boullereaux Sans les tales, ils débouleront, faut nous éteindre si on s'fâche On s'connait depuis l'QD, on s'connait depuis l'lycée J'avais pas trop d'amis qui v'naient m'aider mais respecte les délais Et depuis longtemps depuis longtemps, moi, j'veux pas parler j'veux pas parler On tire sur tout l'monde, BK pourra piloter pourra piloter Et depuis enfant depuis enfant, j'veux être le plus fort être le plus fort J'fais l'tour du monde, BK pourra piloter Hôtel Hilton, grand folle obscène, grosse conne, grave belle, bombonne dans lzen Espace Schengen, les putes légales, bientôt, y aura même plus d' je t'aime Fini, j'détaille, vis comme Beckham, paye la bécane avec PayPal Une tonne, deux tonnes, trois tonnes de came vaudront jamais vingt et un grammes Location wouh, full options pour rotation sans caution ni approbation rien, rien Y a qu'deux pas entre sucer et l'unification, qu'un kilomètre entre le neuf et l'occasion waow TP, TP, TP TP, papa ou pas, j'vais venir péter péter Reprendre, péter l'X-ADV waw, waw, les mains pleines de Mixa bébé merde J'ai pris le 4Motion j'ai pris le 4Motion, le 4Motion full options le 4Motion full options Ils m'demandent pas d'caution ils m'demandent pas d'caution, rien, ils m'demandent pas d'caution ils m'demandent pas d'caution, rien J'ai pris le 4Motion j'ai pris le 4Motion, le 4Motion full options le 4Motion full options Ils m'demandent pas d'caution ils m'demandent pas d'caution, rien, ils m'demandent pas d'caution ils m'demandent pas d'caution, rien J'arrive en Louis Vuitton, j'arrive en full Dolce J'sais même plus combien j'ai mis, ça fait que d'dépenser Frrr J'arrive en Louis Vuitton, j'arrive en full Dolce J'sais même plus combien j'ai mis, ça fait que d'dépenser J'sais même pas t'es qui J'sais même pas t'es qui Tu fais l'voyou, tu m'énerves Tu fais l'bandit, ça m'énerve Oh, oh, oh, oh Y a beaucoup d'thos-my, c'est pas avec tout l'monde qu'on parle affaires Nan, nan, nan, nan J'ai rêvé d'Miami Beach, j'me suis taillé J'me suis tiré On vend le shit mais on est très bien organisés J'me suis tiré Tout l'monde est payé, le bosseur est sociable La vie du binks Fucking binks, du fucking binks Fucking binks Eh, eh, eh All-Stars, j'arrive en balle, on va manger du Gucci Mathafack Des pythons dans les hoodies Han et t'sais qu'on veut racheter la city Wouh, han, puta madre Il m'faut un HSE, il m'faut un H au sol, J.V.L.I.V.S. Han C'est le S, c'est le S, j'fais l'rap, fais l'reste Veste longue dans les guests, métaux dans les caisses Et j'recompte l'espèce Kilos d'blanche dans les presses, elle sait qu'dire Yes comme une American Express Chaque mot, c'est une touche-car, pull up, new extendo C'est Marseille sur les papelards, plaque allemande sur les radars, mathafack 'fack Binks, binks, binks, binks, binks Le label a sorti les gangs, plus brillant que des Cuban Link Sortez les guns, j'répète Binks, binks, binks, binks, binks Plus blindé que la famille Banks Le masque de Dalí devant ta banque, sors de ta planque Des cargaisons d'albums, j'en ai écoulé quelques kilos wouh Ça fantasme sur ma Sacem comme sur la dernière couv' de J. Lo Fais-toi petit comme Willow, hello, j'ai l'Omertà au bout du stylo J'ai le flow qui dénude le game comme la Vénus de Milo Ciao, c'était Sopra' dans son vaisseau J'arrive en Louis Vuitton, j'arrive en full Dolce J'sais même plus combien j'ai mis, ça fait que d'dépenser J'arrive en Louis Vuitton, j'arrive en full Dolce J'sais même plus combien j'ai mis, ça fait que d'dépenser J'sais même pas t'es qui J'sais même pas t'es qui Tu fais l'voyou, tu m'énerves Tu fais l'bandit, ça m'énerve Oh, oh, oh, oh Y a beaucoup d'thos-my, c'est pas avec tout l'monde qu'on parle affaires Nan, nan, nan, nan J'ai rêvé d'Miami Beach, j'me suis taillé J'me suis tiré On vend le shit mais on est très bien organisés J'me suis tiré Tout l'monde est payé, le bosseur est sociable La vie du binks Fucking binks, du fucking binks Fucking binks Eh, eh, eh2</t>
+          <t>N.I N.I, poto Poto C'est l'label, là C'est l'label, là, hein Hein Rec. 118, on t'a dit Rec. 118, on t'a dit Écurie d'bâtards Écurie d'bâtards Ah, ah, ah, ah Ah, ah, ah, ah, ah, ah, ah Binks, binks, binks Drr J'ai connu la hess, donc mille-deux, ça m'irait Drr, marrant d'dire ça dans un jean Amiri Fais pas d'signe de gang, vous êtes quatre adhérents, j'traîne dans des coins sombres, pas devant la mairie Ppe-fra La vodka est pure, j'avoue, ça m'écure, le contrôle est sûr, le pilote est beur Hey, hey Conso' dans les burnes, du coup, ça déborde, ça rntre des thunes sans plus fair d'efforts J'ai craché ma haine entre deux bes'-j, hein, je vois qu'ton ul-c d'puis qu't'as vu l'buzz, hein Niquer des mères, j'en avais besoin, juste pour un teh, on a mis deux joints Ppe-fra Les p'tits sur Btwin, les grands sous bibine, y a pas d'CBD, en face, ça bi'-bi' Encore l'appétit, encore la bite dure, encore à la mode, viens faire la picture C'est Mozart, Capitaine, Jackson Michael dans un 4Matic d'Allemagne Ah, skrt Que des frappes en lucarne quand j'arrive Une, deux, là, c'est noir, c'est le Nord, c'est la ue-r Une, deux Badaboum, badaboum, badaboum Badaboum, pour le respect du gang, on déboule Ah oui Ouais, c'est cool quand les kilos s'écoulent, c'est nous, les racailles dans le hall quand il caille Bah wesh Des streamings, des problèmes, des fusils à pompe, les gardiens de la paix qui cassent la porte Du te-shi, d'la be-her qui ti-par vite Ah, ah, ah, j'finis mon shopping Gucci, Louis Vui' J'met les sacs dans le coffre du Audi Skrt, skrt, skrt, skrt, skrt, les vitres sont teintées J'suis refait, on dirait qu'j'ai gagné au quinté, bang Double Bang J'sais même pas t'es qui J'sais même pas t'es qui Tu fais l'voyou, tu m'énerves Tu fais l'bandit, ça m'énerve Oh, oh, oh, oh Y a beaucoup d'thos-my, c'est pas avec tout l'monde qu'on parle affaires Nan, nan, nan, nan J'ai rêvé d'Miami Beach, j'me suis taillé J'me suis tiré On vend le shit mais on est très bien organisés J'me suis tiré Tout l'monde est payé, le bosseur est sociable La vie du binks Fucking binks, du fucking binks Fucking binks Eh, eh, eh Les paroles, elles sont pas trop mâchées, toujours on vendra la H C'est pas les mêmes dans leurs cités, y a des cousins aux Boullereaux Sans les tales, ils débouleront, faut nous éteindre si on s'fâche On s'connait depuis l'QD, on s'connait depuis l'lycée J'avais pas trop d'amis qui v'naient m'aider mais respecte les délais Et depuis longtemps depuis longtemps, moi, j'veux pas parler j'veux pas parler On tire sur tout l'monde, BK pourra piloter pourra piloter Et depuis enfant depuis enfant, j'veux être le plus fort être le plus fort J'fais l'tour du monde, BK pourra piloter Hôtel Hilton, grand folle obscène, grosse conne, grave belle, bombonne dans lzen Espace Schengen, les putes légales, bientôt, y aura même plus d' je t'aime Fini, j'détaille, vis comme Beckham, paye la bécane avec PayPal Une tonne, deux tonnes, trois tonnes de came vaudront jamais vingt et un grammes Location wouh, full options pour rotation sans caution ni approbation rien, rien Y a qu'deux pas entre sucer et l'unification, qu'un kilomètre entre le neuf et l'occasion waow TP, TP, TP TP, papa ou pas, j'vais venir péter péter Reprendre, péter l'X-ADV waw, waw, les mains pleines de Mixa bébé merde J'ai pris le 4Motion j'ai pris le 4Motion, le 4Motion full options le 4Motion full options Ils m'demandent pas d'caution ils m'demandent pas d'caution, rien, ils m'demandent pas d'caution ils m'demandent pas d'caution, rien J'ai pris le 4Motion j'ai pris le 4Motion, le 4Motion full options le 4Motion full options Ils m'demandent pas d'caution ils m'demandent pas d'caution, rien, ils m'demandent pas d'caution ils m'demandent pas d'caution, rien J'arrive en Louis Vuitton, j'arrive en full Dolce J'sais même plus combien j'ai mis, ça fait que d'dépenser Frrr J'arrive en Louis Vuitton, j'arrive en full Dolce J'sais même plus combien j'ai mis, ça fait que d'dépenser J'sais même pas t'es qui J'sais même pas t'es qui Tu fais l'voyou, tu m'énerves Tu fais l'bandit, ça m'énerve Oh, oh, oh, oh Y a beaucoup d'thos-my, c'est pas avec tout l'monde qu'on parle affaires Nan, nan, nan, nan J'ai rêvé d'Miami Beach, j'me suis taillé J'me suis tiré On vend le shit mais on est très bien organisés J'me suis tiré Tout l'monde est payé, le bosseur est sociable La vie du binks Fucking binks, du fucking binks Fucking binks Eh, eh, eh All-Stars, j'arrive en balle, on va manger du Gucci Mathafack Des pythons dans les hoodies Han et t'sais qu'on veut racheter la city Wouh, han, puta madre Il m'faut un HSE, il m'faut un H au sol, J.V.L.I.V.S. Han C'est le S, c'est le S, j'fais l'rap, fais l'reste Veste longue dans les guests, métaux dans les caisses Et j'recompte l'espèce Kilos d'blanche dans les presses, elle sait qu'dire Yes comme une American Express Chaque mot, c'est une touche-car, pull up, new extendo C'est Marseille sur les papelards, plaque allemande sur les radars, mathafack 'fack Binks, binks, binks, binks, binks Le label a sorti les gangs, plus brillant que des Cuban Link Sortez les guns, j'répète Binks, binks, binks, binks, binks Plus blindé que la famille Banks Le masque de Dalí devant ta banque, sors de ta planque Des cargaisons d'albums, j'en ai écoulé quelques kilos wouh Ça fantasme sur ma Sacem comme sur la dernière couv' de J. Lo Fais-toi petit comme Willow, hello, j'ai l'Omertà au bout du stylo J'ai le flow qui dénude le game comme la Vénus de Milo Ciao, c'était Sopra' dans son vaisseau J'arrive en Louis Vuitton, j'arrive en full Dolce J'sais même plus combien j'ai mis, ça fait que d'dépenser J'arrive en Louis Vuitton, j'arrive en full Dolce J'sais même plus combien j'ai mis, ça fait que d'dépenser J'sais même pas t'es qui J'sais même pas t'es qui Tu fais l'voyou, tu m'énerves Tu fais l'bandit, ça m'énerve Oh, oh, oh, oh Y a beaucoup d'thos-my, c'est pas avec tout l'monde qu'on parle affaires Nan, nan, nan, nan J'ai rêvé d'Miami Beach, j'me suis taillé J'me suis tiré On vend le shit mais on est très bien organisés J'me suis tiré Tout l'monde est payé, le bosseur est sociable La vie du binks Fucking binks, du fucking binks Fucking binks Eh, eh, eh2</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cherche la recette, pas les paillettes C'est vrai qu'à ied-p on caillait, j'voulais un Cayenne J'reviendrai toujours sur rue d'Marseille comme Payet Ceux qui nous baisent sont pas nés, mes frères sont pas nets On investit dans la gue-dro, envahit les maisons d'arrêts La rue c'est comme la fumette, c'est demain que t'arrêtes D'avoir son VIP en enfer, c'est pas carré J'pense aux frères qu'on enterre et qui faisaient pas le carême Nos daronnes nous allaitent et touchent les allocs On veut des gros salaires, on est pas des salopes On peut t'monter en l'air, c'est pas qu'des paroles On n'est pas que violent derrière le 5D Canon Ici c'est réel, faut un midi-minuit pour sa paire de TN L'espoir est mort, à peine 13 ans ils ont ton ADN Flash de Polia dans l'estomac, accroche la dounia l'enfer c'est pas l'sauna Faire des sse-lia, c'est passionant L'amour chez nous, c'est donnant-donnant Prendre des peines de violeur pour de la résine C'est normal que les frères perdent la raison Ça sort plus le calibre que ça sort de prison Il pleut des balles peut importe la saison, pe-fra Wesh igo Igo, j'ai besoin de prendre l'air Igo, posé en bas du bloc je gamberge Bigo éteint, je réponds à sonne-per J'sais plus, j'sais plus, j'sais plus comment faire J'ai bu, j'ai bu, j'ai bu plus d'un verre J'sais plus, j'sais plus, j'sais plus comment faire J'ai bu, j'ai bu, j'ai bu plus d'un verre J'sais plus, j'sais plus comment faire You might also like Que d'la peugeuf qu'on essaye de vi-ser Fini ton ter et rentre il se fait tard Ce qui nous fait croire que la vie est belle C'est ce mélange dans la Vittel La vengeance est crue, qui l'aurait crû Ça peut s'allumer pour une brune Ton meurtrier peut se lever le matin Boire son fé-ca normal et sans chagrin Petite beauté, yeux clair et cheveux châtains Si demain je coule, est-ce que tu t'échappes ? Tu voulais Channel, j'voulais ta chatte Donc je t'ai charmé t'as pas eu ton sac On prend des risques, on en a conscience Fonce-dé, 6 du mat à contre sens J'suis au fond de la boite j'veux pas qu'on crame ma tête J'suis en fond de sixième, jusqu'à je crame la boite J'me suis senti si seul face aux problèmes J'me suis senti si bien d'avoir besoin de personne Dans ma te-té c'est flou, dans la hess t'étais où ? Tout me dégoutte mais je reste debout Tu peux bosser les biceps, les triceps, les épaules Une balle dans la colonne et fin de l'épisode C'est le ter ter qui me valide, essaye pas de nous salir C'est réel et mortel, j'ai la haine c'est de la faute à Saïd Wesh igo Igo, j'ai besoin de prendre l'air Igo, posé en bas du bloc je gamberge Bigo éteint, je réponds à sonne-per J'sais plus, j'sais plus, j'sais plus comment faire J'ai bu, j'ai bu, j'ai bu plus d'un verre J'sais plus, j'sais plus, j'sais plus comment faire J'ai bu, j'ai bu, j'ai bu plus d'un verre J'sais plus, j'sais plus comment faire J'ai bu, j'ai bu, j'ai bu plus d'un verre J'sais plus, j'sais plus, j'sais plus comment faire J'ai bu, j'ai bu, j'ai bu plus d'un verre J'sais plus, j'sais plus comment faire Wesh, igo Igo, j'sais plus, j'sais plus comment faire J'sais plus, j'sais plus comment faire J'sais plus, j'sais plus comment faire</t>
+          <t>Cherche la recette, pas les paillettes C'est vrai qu'à ied-p on caillait, j'voulais un Cayenne J'reviendrai toujours sur rue d'Marseille comme Payet Ceux qui nous baisent sont pas nés, mes frères sont pas nets On investit dans la gue-dro, envahit les maisons d'arrêts La rue c'est comme la fumette, c'est demain que t'arrêtes D'avoir son VIP en enfer, c'est pas carré J'pense aux frères qu'on enterre et qui faisaient pas le carême Nos daronnes nous allaitent et touchent les allocs On veut des gros salaires, on est pas des salopes On peut t'monter en l'air, c'est pas qu'des paroles On n'est pas que violent derrière le 5D Canon Ici c'est réel, faut un midi-minuit pour sa paire de TN L'espoir est mort, à peine 13 ans ils ont ton ADN Flash de Polia dans l'estomac, accroche la dounia l'enfer c'est pas l'sauna Faire des sse-lia, c'est passionant L'amour chez nous, c'est donnant-donnant Prendre des peines de violeur pour de la résine C'est normal que les frères perdent la raison Ça sort plus le calibre que ça sort de prison Il pleut des balles peut importe la saison, pe-fra Wesh igo Igo, j'ai besoin de prendre l'air Igo, posé en bas du bloc je gamberge Bigo éteint, je réponds à sonne-per J'sais plus, j'sais plus, j'sais plus comment faire J'ai bu, j'ai bu, j'ai bu plus d'un verre J'sais plus, j'sais plus, j'sais plus comment faire J'ai bu, j'ai bu, j'ai bu plus d'un verre J'sais plus, j'sais plus comment faire Que d'la peugeuf qu'on essaye de vi-ser Fini ton ter et rentre il se fait tard Ce qui nous fait croire que la vie est belle C'est ce mélange dans la Vittel La vengeance est crue, qui l'aurait crû Ça peut s'allumer pour une brune Ton meurtrier peut se lever le matin Boire son fé-ca normal et sans chagrin Petite beauté, yeux clair et cheveux châtains Si demain je coule, est-ce que tu t'échappes ? Tu voulais Channel, j'voulais ta chatte Donc je t'ai charmé t'as pas eu ton sac On prend des risques, on en a conscience Fonce-dé, 6 du mat à contre sens J'suis au fond de la boite j'veux pas qu'on crame ma tête J'suis en fond de sixième, jusqu'à je crame la boite J'me suis senti si seul face aux problèmes J'me suis senti si bien d'avoir besoin de personne Dans ma te-té c'est flou, dans la hess t'étais où ? Tout me dégoutte mais je reste debout Tu peux bosser les biceps, les triceps, les épaules Une balle dans la colonne et fin de l'épisode C'est le ter ter qui me valide, essaye pas de nous salir C'est réel et mortel, j'ai la haine c'est de la faute à Saïd Wesh igo Igo, j'ai besoin de prendre l'air Igo, posé en bas du bloc je gamberge Bigo éteint, je réponds à sonne-per J'sais plus, j'sais plus, j'sais plus comment faire J'ai bu, j'ai bu, j'ai bu plus d'un verre J'sais plus, j'sais plus, j'sais plus comment faire J'ai bu, j'ai bu, j'ai bu plus d'un verre J'sais plus, j'sais plus comment faire J'ai bu, j'ai bu, j'ai bu plus d'un verre J'sais plus, j'sais plus, j'sais plus comment faire J'ai bu, j'ai bu, j'ai bu plus d'un verre J'sais plus, j'sais plus comment faire Wesh, igo Igo, j'sais plus, j'sais plus comment faire J'sais plus, j'sais plus comment faire J'sais plus, j'sais plus comment faire</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ft. DA Uzi, Landy Hornet La Frappe Marcelino Sous Marijuana, faut jamais la légaliser 9.3, c'est Tijuana, personne va nous canaliser Marcelino Midi-minuit, c'est mort, ça vend des barrettes au lycée Ça vient des cités d'or, ça marche en bande organisée Et sous Marijuana, faut jamais la légaliser 9.3, c'est Tijuana, personne va nous canaliser Midi-minuit, c'est mort, ça vend des barrettes au lycée Ça vient des cités d'or, ça marche en bande organisée Ne sois pas choqué, pour nous, tout est normal c'est la street J'la pe-cou à lhôtel, que d'la vente emportée, c'est rapide Toujours la même dégaine sacoche, jogging tout noir, paire d'Asics À l'heure pour faire d'l'oseille, en r'tard quand faut aller chez la Spip Sors ton parapluie, les balles vont pleuvoir, c'est réel, en sens interdit, on s'fait courser en TDM Les p'tits de la tess rha veulent tous dev'nir ssistes-gro rha, lunettes, siroc pêche, j'suis dans ma matrixe, igo Département ' plus criminel 93, faits divers parisiens, ouvre-le, tu vois ma tess Boboch Pas trop la tête aux 'tasses yeah, on fait tourner la puce, le tit-pe gère les basses Dans la drogue, dans les armes, dans nos âmes, tous banlieusards Y a des sommes, des soldats, 7.62, 11.43 pah, pah, pah, pah 9.3, faits divers, pas fini d'les visser, bats les couilles d'ton humeur, bats les couilles d'ta lumière Haut les mains, dans le sac, on pénètre dans le sas, kichta max sur le T-Max, eh, eh Et le guetteur crie Ça passe, v'là la descente de condés Faut qu'tu penses à nous khalass, c'est nous derrière les teintées You might also like Sous Marijuana, faut jamais la légaliser 9.3, c'est Tijuana, personne va nous canaliser Marcelino Midi-minuit, c'est mort, ça vend des barrettes au lycée Ça vient des cités d'or, ça marche en bande organisée Et sous Marijuana, faut jamais la légaliser 9.3, c'est Tijuana, personne va nous canaliser Midi-minuit, c'est mort, ça vend des barrettes au lycée Ça vient des cités d'or, ça marche en bande organisée J'ai connu le vide eh, yo j'ai volé, j'ai braqué, j'ai fini dans l'fond d'la cellule vrai de vrai Dans l'9.3, y a plein d'Avon Barksdale, l'argent éloignera les Partner Avant, j'vendais, maintenant, c'est mieux ouais, c'est mieux, vrai de vrai On est des vaillants, on fait avant d'parler C'est quoi qu'ils nous veulent ? Payer la verte, payer l'ouvreuse, Sevran, Trois tours, y a Carrefour à côté Des tirs et des morts, c'est Gotham pour de vrai, voisine en pleurs, y a des keufs cagoulés Peu d'issues nous où on va, j'tourne en rond comme un compas Tracé ma route et perdu des compères, j'ai gardé les vrais frères, c'est pour ça qu'j'suis content Pochton gonflé, ients-cli conquis midi-minuit C'est mort, l'bosseur doit rentrer, il est en condi' Petit revend celle qu'on tamponne Capuché, j'pillave dans mon coin, toi, t'es nia, tire sur mon joint La madre mia, j'en prends soin, eux, c'est des bizarres, j'les vois d'loin Familles nombreuses dans un taudis, l'daron pense qu'on est maudits La poukie n'oublie pas d'tout dire, Orgemont résonne dans l'talkie J'essuie mon canon-scié, go se donne pour moins d'dix balles J'entends qu'ils veulent m'assassiner, j'les attends, j'fume la médicale Sous Marijuana eh, yo, faut jamais la légaliser 9.3, c'est Tijuana eh, yo, personne va nous canaliser Marcelino Midi-minuit, c'est mort, ça vend des barrettes au lycée Ça vient des cités d'or, on marche en bande organisée Et sous Marijuana, faut jamais la légaliser 9.3, c'est Tijuana, personne va nous canaliser Midi-minuit, c'est mort, ça vend des barrettes au lycée Ça vient des cités d'or, ça marche en bande organisée2</t>
+          <t>ft. DA Uzi, Landy Hornet La Frappe Marcelino Sous Marijuana, faut jamais la légaliser 9.3, c'est Tijuana, personne va nous canaliser Marcelino Midi-minuit, c'est mort, ça vend des barrettes au lycée Ça vient des cités d'or, ça marche en bande organisée Et sous Marijuana, faut jamais la légaliser 9.3, c'est Tijuana, personne va nous canaliser Midi-minuit, c'est mort, ça vend des barrettes au lycée Ça vient des cités d'or, ça marche en bande organisée Ne sois pas choqué, pour nous, tout est normal c'est la street J'la pe-cou à lhôtel, que d'la vente emportée, c'est rapide Toujours la même dégaine sacoche, jogging tout noir, paire d'Asics À l'heure pour faire d'l'oseille, en r'tard quand faut aller chez la Spip Sors ton parapluie, les balles vont pleuvoir, c'est réel, en sens interdit, on s'fait courser en TDM Les p'tits de la tess rha veulent tous dev'nir ssistes-gro rha, lunettes, siroc pêche, j'suis dans ma matrixe, igo Département ' plus criminel 93, faits divers parisiens, ouvre-le, tu vois ma tess Boboch Pas trop la tête aux 'tasses yeah, on fait tourner la puce, le tit-pe gère les basses Dans la drogue, dans les armes, dans nos âmes, tous banlieusards Y a des sommes, des soldats, 7.62, 11.43 pah, pah, pah, pah 9.3, faits divers, pas fini d'les visser, bats les couilles d'ton humeur, bats les couilles d'ta lumière Haut les mains, dans le sac, on pénètre dans le sas, kichta max sur le T-Max, eh, eh Et le guetteur crie Ça passe, v'là la descente de condés Faut qu'tu penses à nous khalass, c'est nous derrière les teintées Sous Marijuana, faut jamais la légaliser 9.3, c'est Tijuana, personne va nous canaliser Marcelino Midi-minuit, c'est mort, ça vend des barrettes au lycée Ça vient des cités d'or, ça marche en bande organisée Et sous Marijuana, faut jamais la légaliser 9.3, c'est Tijuana, personne va nous canaliser Midi-minuit, c'est mort, ça vend des barrettes au lycée Ça vient des cités d'or, ça marche en bande organisée J'ai connu le vide eh, yo j'ai volé, j'ai braqué, j'ai fini dans l'fond d'la cellule vrai de vrai Dans l'9.3, y a plein d'Avon Barksdale, l'argent éloignera les Partner Avant, j'vendais, maintenant, c'est mieux ouais, c'est mieux, vrai de vrai On est des vaillants, on fait avant d'parler C'est quoi qu'ils nous veulent ? Payer la verte, payer l'ouvreuse, Sevran, Trois tours, y a Carrefour à côté Des tirs et des morts, c'est Gotham pour de vrai, voisine en pleurs, y a des keufs cagoulés Peu d'issues nous où on va, j'tourne en rond comme un compas Tracé ma route et perdu des compères, j'ai gardé les vrais frères, c'est pour ça qu'j'suis content Pochton gonflé, ients-cli conquis midi-minuit C'est mort, l'bosseur doit rentrer, il est en condi' Petit revend celle qu'on tamponne Capuché, j'pillave dans mon coin, toi, t'es nia, tire sur mon joint La madre mia, j'en prends soin, eux, c'est des bizarres, j'les vois d'loin Familles nombreuses dans un taudis, l'daron pense qu'on est maudits La poukie n'oublie pas d'tout dire, Orgemont résonne dans l'talkie J'essuie mon canon-scié, go se donne pour moins d'dix balles J'entends qu'ils veulent m'assassiner, j'les attends, j'fume la médicale Sous Marijuana eh, yo, faut jamais la légaliser 9.3, c'est Tijuana eh, yo, personne va nous canaliser Marcelino Midi-minuit, c'est mort, ça vend des barrettes au lycée Ça vient des cités d'or, on marche en bande organisée Et sous Marijuana, faut jamais la légaliser 9.3, c'est Tijuana, personne va nous canaliser Midi-minuit, c'est mort, ça vend des barrettes au lycée Ça vient des cités d'or, ça marche en bande organisée2</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tu parles trop Fais pas l'fou Fais pas l'chaud Toi, tu parles trop, tu mérites même un coquard À force de faire le gros, on va t'faire la totale C'est pour mes gangsters qui ferment la boca On apprend à s'taire, on laisse parler l'avocat Arrête de mytho, t'as jamais vendu d'coca Ici, c'est réel, faut parler à votre gars Pillon, beu-r, r dans le bocal Tu fumes de la merde, toi, tu fumes la loca J'suis dans l'club, je baise tout J'allume une clope, sous Grey Goose J'suis pas ton pote, tu dégoûtes Que des vrais à ma table, y'a pas d'doute Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye Contrôle d'identité, la conso, faut qu'tu la cales En ce moment mes idées, c'est de plier bagage Marre de la proc, de la juge, de la cage J'arrête la drogue, faut que je reprenne le large Le quartier va nous yet yet ta chute est brutale Toi, tu parles trop mais le silence est vital Ce soir, j'oublie tout comme si j'avais pas d'âme Je suis fonc-dé dans une boîte sur Paname You might also like J'suis dans l'club, je baise tout J'allume une clope, sous Grey Goose J'suis pas ton pote, tu dégoûtes Que des vrais à ma table y'a pas d'doute Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye VIP pour mes gars VIP pour mes gars Chic pour mes dames Chic pour mes dames Street pour les braves Street pour les braves Vie d'polygame Vie d'polygame Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye J'suis dans l'club, je baise tout J'allume une clope, sous Grey Goose J'suis pas ton pote, tu dégoûtes Que des vrais à ma table y'a pas d'doute J'suis dans l'club, je baise tout J'allume une clope, sous Grey Goose J'suis pas ton pote, tu dégoûtes Que des vrais à ma table y'a pas d'doute Et bye bye, bye bye Bye bye, bye bye1</t>
+          <t>Tu parles trop Fais pas l'fou Fais pas l'chaud Toi, tu parles trop, tu mérites même un coquard À force de faire le gros, on va t'faire la totale C'est pour mes gangsters qui ferment la boca On apprend à s'taire, on laisse parler l'avocat Arrête de mytho, t'as jamais vendu d'coca Ici, c'est réel, faut parler à votre gars Pillon, beu-r, r dans le bocal Tu fumes de la merde, toi, tu fumes la loca J'suis dans l'club, je baise tout J'allume une clope, sous Grey Goose J'suis pas ton pote, tu dégoûtes Que des vrais à ma table, y'a pas d'doute Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye Contrôle d'identité, la conso, faut qu'tu la cales En ce moment mes idées, c'est de plier bagage Marre de la proc, de la juge, de la cage J'arrête la drogue, faut que je reprenne le large Le quartier va nous yet yet ta chute est brutale Toi, tu parles trop mais le silence est vital Ce soir, j'oublie tout comme si j'avais pas d'âme Je suis fonc-dé dans une boîte sur Paname J'suis dans l'club, je baise tout J'allume une clope, sous Grey Goose J'suis pas ton pote, tu dégoûtes Que des vrais à ma table y'a pas d'doute Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye VIP pour mes gars VIP pour mes gars Chic pour mes dames Chic pour mes dames Street pour les braves Street pour les braves Vie d'polygame Vie d'polygame Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye Allez hop, allez hop, et bye bye J'suis dans l'club, je baise tout J'allume une clope, sous Grey Goose J'suis pas ton pote, tu dégoûtes Que des vrais à ma table y'a pas d'doute J'suis dans l'club, je baise tout J'allume une clope, sous Grey Goose J'suis pas ton pote, tu dégoûtes Que des vrais à ma table y'a pas d'doute Et bye bye, bye bye Bye bye, bye bye1</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tu sais quoi ? T'es un marrant toi Arrête de faire la mafia, t'as le corps à mon p'tit re-fré RS5 pour faire la balade, fonce-dé j'aime le piloter On a laissé des balafres sur des cranes, des balafres sur des torses Poto achète un gun, s'en bat les couilles de bosser l'torse On va te tirer les veuch, on va t'apprendre à faire ta yenne Boule à Z, dégradé blanc, que des têtes d'aliens Un jour ou l'autre on va s'croiser, on verra qui est qui Validé par Ice Cube ish ish il manque plus qu'P Diddy J'suis parano, c'est la base, si j'ai un doute j'envoi Si tu dois t'faire fumer, j'veux pas que ça soit devant moi J'ai ma place dans l'équipe, j'me dirige vers le parking C'est moi qui fais les plans, j'suis Verbal Kint Émeute à la Santé, ça chope des cartes vitales Remballe tes autoroutes, ça bloque des capitales Une rafale sur les quais, cadavre qui baigne dans l'texte 9.3. Blankok Street Nigga Bang dans l'tieks J'suis un gars d'chez toi et tu soutiens pas t'es un marrant toi Allez suicide toi ! J'suis un gars d'chez toi et tu soutiens pas t'es un marrant toi Allez suicide toi ! Je kicke, j'encaisse la hass, t'es un marrant Parle pas d'tess à vie, t'es un marrant Sur ta mère j'navigue, t'es un marrant Bonhomme comme mon père, Peuf, t'es un marrant Calibre dans l'jean en ville, t'es un marrant Mets les gants gangster, wesh, t'es un marrant C'est pour mes beur beur barbares, t'es un marrant Physio j'reviens bang bang, t'es un marrant You might also like Sur mes mains, j'ai encore de la poudre à canon Hors-la-loi, on respecte que celle du Talion Glock dans l'jean, belek au daron dans l'salon Que du sale ici qui s'annonce j'tire en l'air et que tout l'monde s'allonge Nique la race humaine je fais confiance qu'à mon pit' Arrête de faire du bruit si t'as tendu le canon, tire J'rêve de Bahamas, de cocotier quand j'lève la tête Caméra glock liloko, gros c'est mieux dans tête-à-tête Criblé de balles dans les rues de Tanger dans la rivière Es Sour T'as pris tellement de plombs dans l'corps, que la civière pèse lourd Man on pardonne personne, tu soupçonne le futur des gens Fais bisous à ta femme, à ta fille, j'suis encore sur les Champs Parle nous pas des risques de chute, sort en nous, on s'est tapés contre des gros jnouns sale fils de pute On reste entre DZ, on écoute pas tes sornettes Avant le R1 la R6 tu commences par un Hornet Je kicke, j'encaisse la hass, t'es un marrant Parle pas d'tess à vie, t'es un marrant Sur ta mère j'navigue, t'es un marrant Bonhomme comme mon père, Peuf, t'es un marrant Calibre dans l'jean en ville, t'es un marrant Mets les gants, gangster, wesh, t'es un marrant C'est pour mes beur beur barbares, t'es un marrant Physio j'reviens bang bang, t'es un marrant T'es un marrant Je visser, mec d'Epinay en France, on s'croise aux contrôles judiciaires Mets-les 15 piges, j'm'en ish, t'es un marrant Mets-les 15 piges, j'm'en ish, t'es un marrant On a connu la crise, aller barre ta carte grise Classe A en espèces, avec p'tite coupures de 10 Mets-les 15 piges, j'm'en Peuf, t'es un marrant Mets-les 15 piges, j'm'en Peuf, t'es un marrant Paw, Paw Je visser, mec d'Epinay en France, on s'croise aux contrôles judiciaires Mets-les 15 piges, j'm'en ish, t'es un marrant Mets-les 15 piges, j'm'en ish, t'es un marrant On a connu la crise, aller barre ta carte grise Classe A en espèces, avec p'tite coupures de 10 Mets-les 15 piges, j'm'en Peuf, t'es un marrant Mets-les 15 piges, j'm'en Peuf, t'es un marrant J'suis un gars d'chez toi et tu soutiens pas t'es un marrant toi Allez suicide toi ! J'suis un gars d'chez toi et tu soutiens pas t'es un marrant toi Allez suicide toi ! Je kicke, j'encaisse la hass, t'es un marrant Parle pas d'tess à vie, t'es un marrant Sur ta mère j'navigue, t'es un marrant Bonhomme comme mon père, Peuf, t'es un marrant Calibre dans l'jean en ville, t'es un marrant Met les gants gangster, wesh, t'es un marrant C'est pour mes beur beur barbares, t'es un marrant Physio j'reviens bang bang, t'es un marrant T'es un marrant toi T'es un marrant toi2</t>
+          <t>Tu sais quoi ? T'es un marrant toi Arrête de faire la mafia, t'as le corps à mon p'tit re-fré RS5 pour faire la balade, fonce-dé j'aime le piloter On a laissé des balafres sur des cranes, des balafres sur des torses Poto achète un gun, s'en bat les couilles de bosser l'torse On va te tirer les veuch, on va t'apprendre à faire ta yenne Boule à Z, dégradé blanc, que des têtes d'aliens Un jour ou l'autre on va s'croiser, on verra qui est qui Validé par Ice Cube ish ish il manque plus qu'P Diddy J'suis parano, c'est la base, si j'ai un doute j'envoi Si tu dois t'faire fumer, j'veux pas que ça soit devant moi J'ai ma place dans l'équipe, j'me dirige vers le parking C'est moi qui fais les plans, j'suis Verbal Kint Émeute à la Santé, ça chope des cartes vitales Remballe tes autoroutes, ça bloque des capitales Une rafale sur les quais, cadavre qui baigne dans l'texte 9.3. Blankok Street Nigga Bang dans l'tieks J'suis un gars d'chez toi et tu soutiens pas t'es un marrant toi Allez suicide toi ! J'suis un gars d'chez toi et tu soutiens pas t'es un marrant toi Allez suicide toi ! Je kicke, j'encaisse la hass, t'es un marrant Parle pas d'tess à vie, t'es un marrant Sur ta mère j'navigue, t'es un marrant Bonhomme comme mon père, Peuf, t'es un marrant Calibre dans l'jean en ville, t'es un marrant Mets les gants gangster, wesh, t'es un marrant C'est pour mes beur beur barbares, t'es un marrant Physio j'reviens bang bang, t'es un marrant Sur mes mains, j'ai encore de la poudre à canon Hors-la-loi, on respecte que celle du Talion Glock dans l'jean, belek au daron dans l'salon Que du sale ici qui s'annonce j'tire en l'air et que tout l'monde s'allonge Nique la race humaine je fais confiance qu'à mon pit' Arrête de faire du bruit si t'as tendu le canon, tire J'rêve de Bahamas, de cocotier quand j'lève la tête Caméra glock liloko, gros c'est mieux dans tête-à-tête Criblé de balles dans les rues de Tanger dans la rivière Es Sour T'as pris tellement de plombs dans l'corps, que la civière pèse lourd Man on pardonne personne, tu soupçonne le futur des gens Fais bisous à ta femme, à ta fille, j'suis encore sur les Champs Parle nous pas des risques de chute, sort en nous, on s'est tapés contre des gros jnouns sale fils de pute On reste entre DZ, on écoute pas tes sornettes Avant le R1 la R6 tu commences par un Hornet Je kicke, j'encaisse la hass, t'es un marrant Parle pas d'tess à vie, t'es un marrant Sur ta mère j'navigue, t'es un marrant Bonhomme comme mon père, Peuf, t'es un marrant Calibre dans l'jean en ville, t'es un marrant Mets les gants, gangster, wesh, t'es un marrant C'est pour mes beur beur barbares, t'es un marrant Physio j'reviens bang bang, t'es un marrant T'es un marrant Je visser, mec d'Epinay en France, on s'croise aux contrôles judiciaires Mets-les 15 piges, j'm'en ish, t'es un marrant Mets-les 15 piges, j'm'en ish, t'es un marrant On a connu la crise, aller barre ta carte grise Classe A en espèces, avec p'tite coupures de 10 Mets-les 15 piges, j'm'en Peuf, t'es un marrant Mets-les 15 piges, j'm'en Peuf, t'es un marrant Paw, Paw Je visser, mec d'Epinay en France, on s'croise aux contrôles judiciaires Mets-les 15 piges, j'm'en ish, t'es un marrant Mets-les 15 piges, j'm'en ish, t'es un marrant On a connu la crise, aller barre ta carte grise Classe A en espèces, avec p'tite coupures de 10 Mets-les 15 piges, j'm'en Peuf, t'es un marrant Mets-les 15 piges, j'm'en Peuf, t'es un marrant J'suis un gars d'chez toi et tu soutiens pas t'es un marrant toi Allez suicide toi ! J'suis un gars d'chez toi et tu soutiens pas t'es un marrant toi Allez suicide toi ! Je kicke, j'encaisse la hass, t'es un marrant Parle pas d'tess à vie, t'es un marrant Sur ta mère j'navigue, t'es un marrant Bonhomme comme mon père, Peuf, t'es un marrant Calibre dans l'jean en ville, t'es un marrant Met les gants gangster, wesh, t'es un marrant C'est pour mes beur beur barbares, t'es un marrant Physio j'reviens bang bang, t'es un marrant T'es un marrant toi T'es un marrant toi2</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C'est pas un crime, c'est par amour J't'la mets dans l'cur pour moins d'un lourd On descend pas d'l'or mais d'la tour Fais les trois singes au comico, bye-bye, bye-bye, bang Mon train d'vie fait parler les baltringues J'me souviens plus d'ton nom mais juste d'ton parfum J'veux joindre les deux bouts par le bas ou par l'flingue Parle pas ou parle fort, on porte les couilles, tu portes plainte Bébé, pas ton temps, j'préfère ma sse-lia sous l'drap Le cou du game est sous l'bras Y'a qu'les regrets qu'on pardonne Tu m'as trahi, ça t'coûtera Que des zéros par milliers Parle pas bilingue, parle billets On va pas s'priver, khey On va pas s'priver, khey Étoiles dans la Rolls, à droite, le canon scié Étoiles dans la Rolls, à droite, le canon scié Ils vendent de la cess, ça tartine comme à Rio Jefe de ma tess, dinero madre mia Étoiles dans la Rolls You might also like Jeunesse détaille, jeunesse mitraille J'remercie Dieu, j'ai vu la faille J'reviens dHawaï, j'pars à Dubaï Dix jours à 'kech, t'es sur la paille Millionnaire depuis longtemps Ce soir, j'dors pas sur le divan Ma Colombienne a peur du sang Son père s'est fait tuer devant T'sais, toi et moi, ça peut coller Hors du barrio, des fois, j'ai volé Yacht de quarante mètres, tu gardes ton voilier Dolce Gabanna devrait bien t'aller DZ, pas Corée, bang, bang, tu connais Général d'ma cité, tout le corps décoré On a l'bon modèle, le pare-balles perforé Pas de pointe dans la tête, mais reprise de volée, olé J'ai besoin d'un massage, tu sais qu'on a fait du sale On s'appelle drug dealer J'ai fait le vide dans ma life, j'ai mon équipe de chacals Yo soy tranquilo Oui, de la même ville, on a tous acheté une belle villa Oui, de la même ville, on a tous acheté une belle villa Étoiles dans la Rolls, à droite le canon scié Étoiles dans la Rolls, à droite le canon scié Ils vendent de la cess, ça tartine comme à Rio Jefe de ma tess, dinero madre mia Étoiles dans la Rolls, à droite le canon scié Étoiles dans la Rolls, à droite le canon scié Ils vendent de la cess, ça tartine comme à Rio Jefe de ma tess, dinero madre mia Étoiles dans la Rolls</t>
+          <t>C'est pas un crime, c'est par amour J't'la mets dans l'cur pour moins d'un lourd On descend pas d'l'or mais d'la tour Fais les trois singes au comico, bye-bye, bye-bye, bang Mon train d'vie fait parler les baltringues J'me souviens plus d'ton nom mais juste d'ton parfum J'veux joindre les deux bouts par le bas ou par l'flingue Parle pas ou parle fort, on porte les couilles, tu portes plainte Bébé, pas ton temps, j'préfère ma sse-lia sous l'drap Le cou du game est sous l'bras Y'a qu'les regrets qu'on pardonne Tu m'as trahi, ça t'coûtera Que des zéros par milliers Parle pas bilingue, parle billets On va pas s'priver, khey On va pas s'priver, khey Étoiles dans la Rolls, à droite, le canon scié Étoiles dans la Rolls, à droite, le canon scié Ils vendent de la cess, ça tartine comme à Rio Jefe de ma tess, dinero madre mia Étoiles dans la Rolls Jeunesse détaille, jeunesse mitraille J'remercie Dieu, j'ai vu la faille J'reviens dHawaï, j'pars à Dubaï Dix jours à 'kech, t'es sur la paille Millionnaire depuis longtemps Ce soir, j'dors pas sur le divan Ma Colombienne a peur du sang Son père s'est fait tuer devant T'sais, toi et moi, ça peut coller Hors du barrio, des fois, j'ai volé Yacht de quarante mètres, tu gardes ton voilier Dolce Gabanna devrait bien t'aller DZ, pas Corée, bang, bang, tu connais Général d'ma cité, tout le corps décoré On a l'bon modèle, le pare-balles perforé Pas de pointe dans la tête, mais reprise de volée, olé J'ai besoin d'un massage, tu sais qu'on a fait du sale On s'appelle drug dealer J'ai fait le vide dans ma life, j'ai mon équipe de chacals Yo soy tranquilo Oui, de la même ville, on a tous acheté une belle villa Oui, de la même ville, on a tous acheté une belle villa Étoiles dans la Rolls, à droite le canon scié Étoiles dans la Rolls, à droite le canon scié Ils vendent de la cess, ça tartine comme à Rio Jefe de ma tess, dinero madre mia Étoiles dans la Rolls, à droite le canon scié Étoiles dans la Rolls, à droite le canon scié Ils vendent de la cess, ça tartine comme à Rio Jefe de ma tess, dinero madre mia Étoiles dans la Rolls</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tous les bosseurs du terrain en tshirt Peufra, t'es sur le terrain glissant quand la misère te frappe Les keufs de chez moi veulent une photo, re-fré enlève ta commission et ton selfie se fera Dans la té-ci on apprécie le bon ien-cli, mais toi t'es pas crédible Pour un 10E tu parles comme si t'étais v'nu pécho toute la résine Wesh frère c'est un 10E casse toi Contrôle de hendek, c'est tendu, ça résiste, Épinay-Sur-Seine là où la violence réside HLF dans toutes les villes mec ça résonne, avant j'parlais seul, maintenant écouté jusqu'à l'Essonne Vécu d'ancien même si j'parais jeune, parais jeune, mais j'suis un rajel, perquis' à l'heure du fajr Menottes et gros molard sur fond du civil, de la rue à la cellule si vite Fils d'immigré, carte de séjour, pas très français, demande à Zemmour On a feinté la vie, giflé par les années qui passent, quarante ans, des barrettes dans la veste Adidas Roule un six feuilles comme ça c'est fait, midi-Minuit sur un CV, Midi-Minuit suffit pas pour un féfé Roule un six feuilles comme ça c'est fait, terrain glissant faut pas freiner Esquive le terrain si tu veux pas glisser, esquive le terrain si tu veux pas glisser Esquive le terrain si tu veux pas glisser, esquive le terrain si tu veux pas glisser Sauvagerie, Peufra, Gang Belek les terrains sont glissants Sauvage, Peufra, Sauvage, Peufra, Sauvage Belek les terrains sont glissants Esquive le terrain si tu veux pas glisser, esquive le terrain si tu veux pas glisser Esquive le terrain si tu veux pas glisser, esquive le terrain si tu veux pas glisser Sauvagerie, Peufra, Gang Belek les terrains sont glissants Sauvage, Peufra, Sauvage, Peufra, Sauvage Belek les terrains sont glissants Pas besoin d'avoir plusieurs ients-cli hey, quand t'en as un comme Gérard Depardieu gang Tous vos MC's sont gentils, mais j'les baise tous deux par deux J'suis sapé comme un parrain gang, la frappe est un imparable hey Ca vi-sser dans tout Panam', et les bicraveurs bé-tom un par un Wouuh J'vois la concurrence en rouge et noir, j'suis toujours à Sevran, Rougemont Les proches nous quittent sans dire au revoir, Épinay, Rue de Marseille, Orgemont Dans une équipe y'a toujours une salope, un te-trai, une poucave Sauvagerie Et la police n'a pas la solution pour arrêter la bicrave Hey Tout le quartier est sous commission, et on est pas à l'abri de la perquisition La jalousie pousse souvent à la trahison La jalousie pousse souvent à la trahison C'est toi qui parles, mais c'est nous qui prenons les décisions Kalash Crimi' à la passe D, Hornet la frappe à la finition You might also like Esquive le terrain si tu veux pas glisser, esquive le terrain si tu veux pas glisser Esquive le terrain si tu veux pas glisser, esquive le terrain si tu veux pas glisser Sauvagerie, Peufra, Gang Belek les terrains sont glissants Sauvage, Peufra, Sauvage, Peufra, Sauvage Belek les terrains sont glissants Esquive le terrain si tu veux pas glisser, esquive le terrain si tu veux pas glisser Esquive le terrain si tu veux pas glisser, esquive le terrain si tu veux pas glisser Sauvagerie, Peufra, Gang Belek les terrains sont glissants Sauvage, Peufra, Sauvage, Peufra, Sauvage Belek les terrains sont glissants Toi tu viens d'où ? Orgemont, toi tu viens d'où ? Rougemont Toi tu viens d'où ? Orgemont, toi tu viens d'où ? Rougemont Toi tu viens d'où ? Orgemont, toi tu viens d'où ? Rougemont Toi tu viens d'où ? Orgemont, toi tu viens d'où ? Rougemont Sauvagerie, Peufra, Gang Belek les terrains sont glissants Sauvage, Peufra, Sauvage, Peufra, Sauvage Belek les terrains sont glissants Gang Peufra3</t>
+          <t>Tous les bosseurs du terrain en tshirt Peufra, t'es sur le terrain glissant quand la misère te frappe Les keufs de chez moi veulent une photo, re-fré enlève ta commission et ton selfie se fera Dans la té-ci on apprécie le bon ien-cli, mais toi t'es pas crédible Pour un 10E tu parles comme si t'étais v'nu pécho toute la résine Wesh frère c'est un 10E casse toi Contrôle de hendek, c'est tendu, ça résiste, Épinay-Sur-Seine là où la violence réside HLF dans toutes les villes mec ça résonne, avant j'parlais seul, maintenant écouté jusqu'à l'Essonne Vécu d'ancien même si j'parais jeune, parais jeune, mais j'suis un rajel, perquis' à l'heure du fajr Menottes et gros molard sur fond du civil, de la rue à la cellule si vite Fils d'immigré, carte de séjour, pas très français, demande à Zemmour On a feinté la vie, giflé par les années qui passent, quarante ans, des barrettes dans la veste Adidas Roule un six feuilles comme ça c'est fait, midi-Minuit sur un CV, Midi-Minuit suffit pas pour un féfé Roule un six feuilles comme ça c'est fait, terrain glissant faut pas freiner Esquive le terrain si tu veux pas glisser, esquive le terrain si tu veux pas glisser Esquive le terrain si tu veux pas glisser, esquive le terrain si tu veux pas glisser Sauvagerie, Peufra, Gang Belek les terrains sont glissants Sauvage, Peufra, Sauvage, Peufra, Sauvage Belek les terrains sont glissants Esquive le terrain si tu veux pas glisser, esquive le terrain si tu veux pas glisser Esquive le terrain si tu veux pas glisser, esquive le terrain si tu veux pas glisser Sauvagerie, Peufra, Gang Belek les terrains sont glissants Sauvage, Peufra, Sauvage, Peufra, Sauvage Belek les terrains sont glissants Pas besoin d'avoir plusieurs ients-cli hey, quand t'en as un comme Gérard Depardieu gang Tous vos MC's sont gentils, mais j'les baise tous deux par deux J'suis sapé comme un parrain gang, la frappe est un imparable hey Ca vi-sser dans tout Panam', et les bicraveurs bé-tom un par un Wouuh J'vois la concurrence en rouge et noir, j'suis toujours à Sevran, Rougemont Les proches nous quittent sans dire au revoir, Épinay, Rue de Marseille, Orgemont Dans une équipe y'a toujours une salope, un te-trai, une poucave Sauvagerie Et la police n'a pas la solution pour arrêter la bicrave Hey Tout le quartier est sous commission, et on est pas à l'abri de la perquisition La jalousie pousse souvent à la trahison La jalousie pousse souvent à la trahison C'est toi qui parles, mais c'est nous qui prenons les décisions Kalash Crimi' à la passe D, Hornet la frappe à la finition Esquive le terrain si tu veux pas glisser, esquive le terrain si tu veux pas glisser Esquive le terrain si tu veux pas glisser, esquive le terrain si tu veux pas glisser Sauvagerie, Peufra, Gang Belek les terrains sont glissants Sauvage, Peufra, Sauvage, Peufra, Sauvage Belek les terrains sont glissants Esquive le terrain si tu veux pas glisser, esquive le terrain si tu veux pas glisser Esquive le terrain si tu veux pas glisser, esquive le terrain si tu veux pas glisser Sauvagerie, Peufra, Gang Belek les terrains sont glissants Sauvage, Peufra, Sauvage, Peufra, Sauvage Belek les terrains sont glissants Toi tu viens d'où ? Orgemont, toi tu viens d'où ? Rougemont Toi tu viens d'où ? Orgemont, toi tu viens d'où ? Rougemont Toi tu viens d'où ? Orgemont, toi tu viens d'où ? Rougemont Toi tu viens d'où ? Orgemont, toi tu viens d'où ? Rougemont Sauvagerie, Peufra, Gang Belek les terrains sont glissants Sauvage, Peufra, Sauvage, Peufra, Sauvage Belek les terrains sont glissants Gang Peufra3</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cité de Dieu, Cité de Dieu Cité, Cité de Dieu, peufra, peufra, peufra Cité, Cité de Dieu Mélange couleur urine dans ma Vittel Demain jarrête, mais demain j'mets replay J'ai pas de piston dans le monde de la musique J'reste dans mon coin, dans ma cuisine J'prépare moula wesh, peufra et la neige T'as fait, tu fais de la merde Tu feras de la merde, toujours de la merde Classique comme paquet 10, comme paire de gazelle Classique comme clip de Wu-Tang sur cassette Classique comme la scène du miroir à Cassel Pas de commentaires quand on m'enterre, amen Gobelet, codéiné, ramène Sur messagerie quand frère mus' fait un rappel H la frappe Chicago et le cartel Comme Moïse ta mère j'viens écarter J'suis dans ton cul j'me sens bien comme au quartier J'suis dans ton cul j'me sens bien comme au quartier Pas de bonheur pourtant dents écartées Pas de bonheur pourtant dents écartées J'vais les wet et les wet sans les rater J'vais les wet et les wet sans les rater De la Cité de Dieu, on sait bien que t'es radié You might also like Grandi comme on pouvait, grandi comme on pouvait J'suis bon je suis Bené, j'suis bon je suis Bené Trahi par ces pédé, trahi par ces pédé Du sale c'est ça l'idée, du sale c'est ça l'idée J'suis dans le sale, ils le savent J'suis dans le sale, ils le savent wesh, wesh J'suis dans le sale, ils le savent J'suis dans le sale, ils le savent wesh, wesh T'es dans le sape et le false T'es dans le sape et le false wesh, wesh J'suis dans le sale, ils le savent J'suis dans le sale, ils le savent wesh, wesh Indépendant pas de muselière J'suis sur le tec' j'fais mal comme la molaire J'suis de la frappe juste à l'odeur Tu pues de la, eh, juste à l'odeur Suffit un weekend en loca ML Pour te faire sauter l'hymen Les femmes ne dominent pas La seule femme qui domine est Dominicaine Compare pas à rebeu, j't'ai dis vénère début de semaine Sourire viendra jeudi comme si ce weekend j'allais être che-ri Cherche ton dernier stick, peufra Qui est tombé comme un trésor Ils nous donnent que l'SMIC pour vivre Donc on vendra d'la mort J'ai pris le mic j'avais 13 ans, hé Tarrêtes le rap t'avais raison, hé Villepinte les khey sont emprisonnés Quartier est vide ça fait bizarre, hé Faut de l'oseille, marre d'être locataire VDB m'a dit y a un truc à faire Battre le fer tant il est chaud Effrite le teh tant qu'il est chaud Grandi comme on pouvait, grandi comme on pouvait J'suis bon je suis Bené, j'suis bon je suis Bené Trahi par ces pédé, trahi par ces pédé Du sale c'est ça l'idée, du sale c'est ça l'idée J'suis dans le sale, ils le savent J'suis dans le sale, ils le savent wesh, wesh J'suis dans le sale, ils le savent J'suis dans le sale, ils le savent wesh, wesh T'es dans le sape et le false T'es dans le sape et le false wesh, wesh J'suis dans le sale, ils le savent J'suis dans le sale, ils le savent wesh, wesh J'viens d'en bas comme un high kick J'vais me relever comme Haïti Prenez Rami et Fékir On a Mahrez, Brahimi Y'a plus de petit, fais pas l'ancien Y'a plus de petit, fais pas l'ancien Cité de Dieu, Cité de Dieu Cité de Dieu, Cité de Dieu Cité de Dieu, peufra, peufra Woowoo Esh, esh, esh, esh, esh, esh, esh Ouh2</t>
+          <t>Cité de Dieu, Cité de Dieu Cité, Cité de Dieu, peufra, peufra, peufra Cité, Cité de Dieu Mélange couleur urine dans ma Vittel Demain jarrête, mais demain j'mets replay J'ai pas de piston dans le monde de la musique J'reste dans mon coin, dans ma cuisine J'prépare moula wesh, peufra et la neige T'as fait, tu fais de la merde Tu feras de la merde, toujours de la merde Classique comme paquet 10, comme paire de gazelle Classique comme clip de Wu-Tang sur cassette Classique comme la scène du miroir à Cassel Pas de commentaires quand on m'enterre, amen Gobelet, codéiné, ramène Sur messagerie quand frère mus' fait un rappel H la frappe Chicago et le cartel Comme Moïse ta mère j'viens écarter J'suis dans ton cul j'me sens bien comme au quartier J'suis dans ton cul j'me sens bien comme au quartier Pas de bonheur pourtant dents écartées Pas de bonheur pourtant dents écartées J'vais les wet et les wet sans les rater J'vais les wet et les wet sans les rater De la Cité de Dieu, on sait bien que t'es radié Grandi comme on pouvait, grandi comme on pouvait J'suis bon je suis Bené, j'suis bon je suis Bené Trahi par ces pédé, trahi par ces pédé Du sale c'est ça l'idée, du sale c'est ça l'idée J'suis dans le sale, ils le savent J'suis dans le sale, ils le savent wesh, wesh J'suis dans le sale, ils le savent J'suis dans le sale, ils le savent wesh, wesh T'es dans le sape et le false T'es dans le sape et le false wesh, wesh J'suis dans le sale, ils le savent J'suis dans le sale, ils le savent wesh, wesh Indépendant pas de muselière J'suis sur le tec' j'fais mal comme la molaire J'suis de la frappe juste à l'odeur Tu pues de la, eh, juste à l'odeur Suffit un weekend en loca ML Pour te faire sauter l'hymen Les femmes ne dominent pas La seule femme qui domine est Dominicaine Compare pas à rebeu, j't'ai dis vénère début de semaine Sourire viendra jeudi comme si ce weekend j'allais être che-ri Cherche ton dernier stick, peufra Qui est tombé comme un trésor Ils nous donnent que l'SMIC pour vivre Donc on vendra d'la mort J'ai pris le mic j'avais 13 ans, hé Tarrêtes le rap t'avais raison, hé Villepinte les khey sont emprisonnés Quartier est vide ça fait bizarre, hé Faut de l'oseille, marre d'être locataire VDB m'a dit y a un truc à faire Battre le fer tant il est chaud Effrite le teh tant qu'il est chaud Grandi comme on pouvait, grandi comme on pouvait J'suis bon je suis Bené, j'suis bon je suis Bené Trahi par ces pédé, trahi par ces pédé Du sale c'est ça l'idée, du sale c'est ça l'idée J'suis dans le sale, ils le savent J'suis dans le sale, ils le savent wesh, wesh J'suis dans le sale, ils le savent J'suis dans le sale, ils le savent wesh, wesh T'es dans le sape et le false T'es dans le sape et le false wesh, wesh J'suis dans le sale, ils le savent J'suis dans le sale, ils le savent wesh, wesh J'viens d'en bas comme un high kick J'vais me relever comme Haïti Prenez Rami et Fékir On a Mahrez, Brahimi Y'a plus de petit, fais pas l'ancien Y'a plus de petit, fais pas l'ancien Cité de Dieu, Cité de Dieu Cité de Dieu, Cité de Dieu Cité de Dieu, peufra, peufra Woowoo Esh, esh, esh, esh, esh, esh, esh Ouh2</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Faut qu'je fasse la diff, dédicace à Setif Alger Oran et la frappe du Rif Beubeu orange côté passager En leuleu j'la mange, j'remplis le sachet J'bois les rivières folles, des West Indies J'touches pas l'sol J'les baise quoi qu'ils disent J'suis pas ton idole rajoutes pas de péché Tonne de peuf, la concu c'est khené J'me taille en Asie départ CDG J'me vide les yeucs et j'voyage léger Omar Gambas parfait pour l'régime Jête nous l'il, dangereux pour la rétine J'tire sur la cible, j'pense à l'ennemi Arrête le rap t'as l'âge à 3emi Y'a pas de mystère il nous faut le llion-mi Nique le commissaire, nique l'économie Menace de mort, appel Anonyme Souffle coupé besoin d'ta ventoline J'vole dans les airs sous Kamas J'suis dans ton uc sous Cama Zerma Pablo, Montana Ça arrive à bateau, ça tombe pas d'un arbre J'ai la valeur d'l'oseille, galère sur l'bitume J'ai les pieds sur Terre et la tête sur Neptune Peufra ! You might also like Faut qu'j'fasse la diff, 2 fois plus qu'eux Courage et nif, 2 fois plus qu'eux Obligé d'faire du sale, plus qu'eux Je vais te faire du mal, plus que toi Dis moi qui t'as donné l'heure Toi plus moi De quoi j'aurais peur ? Moi le soir, je tourne dans l'secteur Toi le soir, t'es plutôt rêveur De fil en aiguille je recouds mes blessures Des fois j'me dis elle est trop hnina pour cer-su Deux verres de ciroc, changement du processus Que Dieu me pardonne, je m'en excuse J'ai monté la pente, j'l'ai descendu Tu presse la détente, les nerfs sont tendus T'as pris une frappe, t'es dans ta bulle On s'en bats les couilles d'ton rap, t'es dans l'abus Pas peur d'la vitesse à 130 à l'heure Tourne pas ta veste la rafale viens d'ailleurs Fusil mitrailleur coffré dans un tailleur Rappeur, producteur, j'sors mon gun comme Empire De père en fils Moi perso mon daron c'est un carreleur On a du charme On parle peu, on est pas des beaux parleurs Boum On est sur de nous y'a qu'la mettre sans pote-ca Tu peux nous voir douter Boum boum boum Ne crache pas dans l'plat que toi déjà tu voulais goûter Boum boum boum Rien dans la tête, tout dans les mains Rien nous arrête même pas l'humain J'mange avec des mecs qui peuvent donner un rein 1-2-1-2 même quand y'avait rien Faut qu'j'fasse la diff, 2 fois plus qu'eux Courage et nif, 2 fois plus qu'eux Obligé d'faire du sale, plus qu'eux Je vais te faire du mal, plus que toi Dis moi qui t'as donné l'heure Toi plus moi De quoi j'aurais peur ? Moi le soir, je tourne dans l'secteur Toi le soir, t'es plutôt rêveur 2 fois, 2 fois 2 fois, 2 fois 2 fois, 2 fois 2 fois, 2 fois Peufra ! 2 fois fois1</t>
+          <t>Faut qu'je fasse la diff, dédicace à Setif Alger Oran et la frappe du Rif Beubeu orange côté passager En leuleu j'la mange, j'remplis le sachet J'bois les rivières folles, des West Indies J'touches pas l'sol J'les baise quoi qu'ils disent J'suis pas ton idole rajoutes pas de péché Tonne de peuf, la concu c'est khené J'me taille en Asie départ CDG J'me vide les yeucs et j'voyage léger Omar Gambas parfait pour l'régime Jête nous l'il, dangereux pour la rétine J'tire sur la cible, j'pense à l'ennemi Arrête le rap t'as l'âge à 3emi Y'a pas de mystère il nous faut le llion-mi Nique le commissaire, nique l'économie Menace de mort, appel Anonyme Souffle coupé besoin d'ta ventoline J'vole dans les airs sous Kamas J'suis dans ton uc sous Cama Zerma Pablo, Montana Ça arrive à bateau, ça tombe pas d'un arbre J'ai la valeur d'l'oseille, galère sur l'bitume J'ai les pieds sur Terre et la tête sur Neptune Peufra ! Faut qu'j'fasse la diff, 2 fois plus qu'eux Courage et nif, 2 fois plus qu'eux Obligé d'faire du sale, plus qu'eux Je vais te faire du mal, plus que toi Dis moi qui t'as donné l'heure Toi plus moi De quoi j'aurais peur ? Moi le soir, je tourne dans l'secteur Toi le soir, t'es plutôt rêveur De fil en aiguille je recouds mes blessures Des fois j'me dis elle est trop hnina pour cer-su Deux verres de ciroc, changement du processus Que Dieu me pardonne, je m'en excuse J'ai monté la pente, j'l'ai descendu Tu presse la détente, les nerfs sont tendus T'as pris une frappe, t'es dans ta bulle On s'en bats les couilles d'ton rap, t'es dans l'abus Pas peur d'la vitesse à 130 à l'heure Tourne pas ta veste la rafale viens d'ailleurs Fusil mitrailleur coffré dans un tailleur Rappeur, producteur, j'sors mon gun comme Empire De père en fils Moi perso mon daron c'est un carreleur On a du charme On parle peu, on est pas des beaux parleurs Boum On est sur de nous y'a qu'la mettre sans pote-ca Tu peux nous voir douter Boum boum boum Ne crache pas dans l'plat que toi déjà tu voulais goûter Boum boum boum Rien dans la tête, tout dans les mains Rien nous arrête même pas l'humain J'mange avec des mecs qui peuvent donner un rein 1-2-1-2 même quand y'avait rien Faut qu'j'fasse la diff, 2 fois plus qu'eux Courage et nif, 2 fois plus qu'eux Obligé d'faire du sale, plus qu'eux Je vais te faire du mal, plus que toi Dis moi qui t'as donné l'heure Toi plus moi De quoi j'aurais peur ? Moi le soir, je tourne dans l'secteur Toi le soir, t'es plutôt rêveur 2 fois, 2 fois 2 fois, 2 fois 2 fois, 2 fois 2 fois, 2 fois Peufra ! 2 fois fois1</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Rap de bonhomme, litron de peufra' Camoufle l'odeur à l'eau de Cologne Reubeu fragile, chante du ke-zou Reubeu solide, vend des zes-dou J'ai galéré dans ma vie frère Tu m'as pas aidé, tu m'as vu faire J'gagne en confiance quand je perds Rien dans le bon sens tout l'inverse Montre moi que tu m'aimes toi Scène de crime tu la nettoies Pour le meilleur et le pire reufré' J'pense aux cocktails qu'on à sirotés, gros culs, fessées culottées Pocket, T-Max pilonné, sortie de te-boi j'suis phoné Jack D', Vodka, Chardonnay, haram, haram abonné Paname, Paname nous connait Du sale, du sale c'est l'idée Tout ça, tout ça, évité Mathusalem, VIP, Grosse Michtonneuse t'es virée Plus de chiennes que chez le vétérinaire Plus d'oseille dans le périmètre Pour vivre heureux des fois mec, faut souffrir Derrière la haine et la peine faux sourire Vie fermée, c'est dangereux faut sourire Faire des sous, et tout prendre puis partir You might also like Refré, refré, wesh ta gé-chan On s'fait plus confiance, c'pas méchant Dès fois je pense à toi, j'pense à nous c'pas terrible Pour du biff quelques meufs ça s'termine La misère divise, tirer sur les siens comme une guerre civile La bataille fut longue mais on t'enterre si vite J'ai vu t'es dans l'ombre, j't'ai laissé faire ta vie Posé en bas du bloc à rouler joint d'Amné Même en dehors on se sent condamné C'est souvent le plus proche qui t'la met Sur l'rain-té y'aura pas temps d'arrêts Casque roof, cagoulé, ganté Un vrai youv' n'aime pas se vanter Le mal par le mal tu gagneras la paix Bang, Bang, ça prend ton âme Prie Dieu pour que s'enraye son arme La vengeance sera d'saison hivernale La vengeance sera d'saison hivernale T'as gé-chan on m'a dit c'est la vie Tu deviens fou, tu parles seul la nuit C'est ta faute si tu perds tes amis, mais tu restes la miff T'as fait ton choix à écouter les envieux On faisait 5-5 sur un 10E Si Dieu le veut un jour tout ira mieux Mais je fais ce que je peux Pour vivre heureux des fois mec faut souffrir Derrière la haine et la peine faux sourire Vie fermée, c'est dangereux faut sourire Faire des sous, et tout prendre, puis partir Refré, refré, wesh ta gé-chan On s'fait plus confiance, c'est pas méchant Dès fois je pense à toi, j'pense à nous c'est pas terrible Pour du biff quelques meufs ça se termine..</t>
+          <t>Rap de bonhomme, litron de peufra' Camoufle l'odeur à l'eau de Cologne Reubeu fragile, chante du ke-zou Reubeu solide, vend des zes-dou J'ai galéré dans ma vie frère Tu m'as pas aidé, tu m'as vu faire J'gagne en confiance quand je perds Rien dans le bon sens tout l'inverse Montre moi que tu m'aimes toi Scène de crime tu la nettoies Pour le meilleur et le pire reufré' J'pense aux cocktails qu'on à sirotés, gros culs, fessées culottées Pocket, T-Max pilonné, sortie de te-boi j'suis phoné Jack D', Vodka, Chardonnay, haram, haram abonné Paname, Paname nous connait Du sale, du sale c'est l'idée Tout ça, tout ça, évité Mathusalem, VIP, Grosse Michtonneuse t'es virée Plus de chiennes que chez le vétérinaire Plus d'oseille dans le périmètre Pour vivre heureux des fois mec, faut souffrir Derrière la haine et la peine faux sourire Vie fermée, c'est dangereux faut sourire Faire des sous, et tout prendre puis partir Refré, refré, wesh ta gé-chan On s'fait plus confiance, c'pas méchant Dès fois je pense à toi, j'pense à nous c'pas terrible Pour du biff quelques meufs ça s'termine La misère divise, tirer sur les siens comme une guerre civile La bataille fut longue mais on t'enterre si vite J'ai vu t'es dans l'ombre, j't'ai laissé faire ta vie Posé en bas du bloc à rouler joint d'Amné Même en dehors on se sent condamné C'est souvent le plus proche qui t'la met Sur l'rain-té y'aura pas temps d'arrêts Casque roof, cagoulé, ganté Un vrai youv' n'aime pas se vanter Le mal par le mal tu gagneras la paix Bang, Bang, ça prend ton âme Prie Dieu pour que s'enraye son arme La vengeance sera d'saison hivernale La vengeance sera d'saison hivernale T'as gé-chan on m'a dit c'est la vie Tu deviens fou, tu parles seul la nuit C'est ta faute si tu perds tes amis, mais tu restes la miff T'as fait ton choix à écouter les envieux On faisait 5-5 sur un 10E Si Dieu le veut un jour tout ira mieux Mais je fais ce que je peux Pour vivre heureux des fois mec faut souffrir Derrière la haine et la peine faux sourire Vie fermée, c'est dangereux faut sourire Faire des sous, et tout prendre, puis partir Refré, refré, wesh ta gé-chan On s'fait plus confiance, c'est pas méchant Dès fois je pense à toi, j'pense à nous c'est pas terrible Pour du biff quelques meufs ça se termine..</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Peufra J'suis posé en bas, j'vois les condés qu'embarquent Dans les yeuks des recharges Donc le bosseur s'remplace Ca continue, la bibi est rentable Midi-minuit, la rue te donne rencard Pas de mythos, que des mecs du mitard P'tit Tropico accompagné de son tarp La rue c'est réel, ients-cli à la chaîne T'as pas la peuf, n'aie pas la haine On nique les keufs depuis la maternelle Ca respecte sonne-per, ient-cli tiens ta lamelle Rue de Marseille, ma deuxième demoiselle Ca charbonne l'hiver pour s'barrer au soleil Chacun sa limite, chacun sa frontière Si tu pètes le ient-cli, canon tu vas sentir Lève ta visière quand tu rentres dans la zone Le terrain est miné, y'a les condés qui rodent Le guetteur est posé, c'est lui qui dit ouais ça passe ! Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Et les guetteurs crient ouais ça passe ! Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Et les guetteurs crient ouais ça passe ! You might also like Le condé enquête, commission rogatoire Ca découpe, ça découpe, téma l'laboratoire Cache ta pe-cou, l'OPJ veut ta poire C'est ambiancé, le gérant paye à boire Casquette, capuché du matin au soir La sacoche faut bien la garder sur soi Ca crie ça passe jusquà s'casser la voix Si y'a descente, normal, ça met les voiles Toi t'es dans l'binks ? On connait pas ta pipe H-24 dans mon tieks et pas que dans mes clips Le guetteur a quitté son poste pour faire du i Je rappe la cité et tu connais les risques 96 heures, n'avoue pas le crime Si t'as pouki, ne reviens pas dans la ville Lève ta visière quand tu rentres dans la zone Le terrain est miné, ya les condés qui rodent Le guetteur est posé, c'est lui qui dit ouais ça passe ! Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Et les guetteurs crient ouais ça passe ! Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Et les guetteurs crient ouais ça passe ! Pose ta matraque, ton extinct Pose ta matraque, ton extinct Laisse ton flashball, ton pare-balle Laisse ton flashball, ton pare-balle Ouais ça passe ! Bibi la beuh-beuh aux bobos sur Paris Bibi la beuh-beuh aux bobos sur Paris Bibi la beuh-beuh aux bobos sur Paris Bibi la beuh-beuh aux bobos sur Paris Pose ta matraque, ton extinct Pose ta matraque, ton extinct Laisse ton flashball, ton pare-balle Laisse ton flashball, ton pare-balle Ouais ça passe ! Bibi la beuh-beuh aux bobos sur Paris Bibi la beuh-beuh aux bobos sur Paris Bibi la beuh-beuh aux bobos sur Paris Bibi la beuh-beuh aux bobos sur Paris Ouais ça passe ! Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Et les guetteurs crient ouais ça passe ! Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Et les guetteurs crient ouais ça passe ! Ouais, ça passe ! Ouais, ça passe !</t>
+          <t>Peufra J'suis posé en bas, j'vois les condés qu'embarquent Dans les yeuks des recharges Donc le bosseur s'remplace Ca continue, la bibi est rentable Midi-minuit, la rue te donne rencard Pas de mythos, que des mecs du mitard P'tit Tropico accompagné de son tarp La rue c'est réel, ients-cli à la chaîne T'as pas la peuf, n'aie pas la haine On nique les keufs depuis la maternelle Ca respecte sonne-per, ient-cli tiens ta lamelle Rue de Marseille, ma deuxième demoiselle Ca charbonne l'hiver pour s'barrer au soleil Chacun sa limite, chacun sa frontière Si tu pètes le ient-cli, canon tu vas sentir Lève ta visière quand tu rentres dans la zone Le terrain est miné, y'a les condés qui rodent Le guetteur est posé, c'est lui qui dit ouais ça passe ! Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Et les guetteurs crient ouais ça passe ! Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Et les guetteurs crient ouais ça passe ! Le condé enquête, commission rogatoire Ca découpe, ça découpe, téma l'laboratoire Cache ta pe-cou, l'OPJ veut ta poire C'est ambiancé, le gérant paye à boire Casquette, capuché du matin au soir La sacoche faut bien la garder sur soi Ca crie ça passe jusquà s'casser la voix Si y'a descente, normal, ça met les voiles Toi t'es dans l'binks ? On connait pas ta pipe H-24 dans mon tieks et pas que dans mes clips Le guetteur a quitté son poste pour faire du i Je rappe la cité et tu connais les risques 96 heures, n'avoue pas le crime Si t'as pouki, ne reviens pas dans la ville Lève ta visière quand tu rentres dans la zone Le terrain est miné, ya les condés qui rodent Le guetteur est posé, c'est lui qui dit ouais ça passe ! Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Et les guetteurs crient ouais ça passe ! Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Et les guetteurs crient ouais ça passe ! Pose ta matraque, ton extinct Pose ta matraque, ton extinct Laisse ton flashball, ton pare-balle Laisse ton flashball, ton pare-balle Ouais ça passe ! Bibi la beuh-beuh aux bobos sur Paris Bibi la beuh-beuh aux bobos sur Paris Bibi la beuh-beuh aux bobos sur Paris Bibi la beuh-beuh aux bobos sur Paris Pose ta matraque, ton extinct Pose ta matraque, ton extinct Laisse ton flashball, ton pare-balle Laisse ton flashball, ton pare-balle Ouais ça passe ! Bibi la beuh-beuh aux bobos sur Paris Bibi la beuh-beuh aux bobos sur Paris Bibi la beuh-beuh aux bobos sur Paris Bibi la beuh-beuh aux bobos sur Paris Ouais ça passe ! Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Et les guetteurs crient ouais ça passe ! Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Y'a les condés, y'a les shtars Et les guetteurs crient ouais ça passe ! Ouais, ça passe ! Ouais, ça passe !</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Trop gentil donc j'ai tendu le bras J'voulais faire le Gandhi j'voulais faire le bon brave T'es sorti en condi' on a payé l'avocat On à toujours attendu, toi t'étais un bon gars T'allongeais du pilon, t'allongeais de la Vodka Personne t'a dit non, mais t'as mis la rotte-ca Ils t'ont pété un matin parce que t'étais rodave Jugement passé, on a appris que t'as poukave T'as oublié les principes, t'as oublié la totale... Déménage ta famille, tu mérites des grosses claques T'étais le plus costaud, aujourd'hui plus respectable T'as donné des bon gars, connu au bac à sable Ça veut te faire des dégâts, te soulever dans tes draps Commission rogatoire, si y'a une balance y'a pas d'hasard J'suis sous rapta' j'suis sous bédave, ça veut te péta T'es vraiment un gros batard Ton heure viendra on se fait confiance Tu m'as trahi.., Tu m'as trahi.., Ton heure viendra on se fait confiance Tu m'as trahi.., Tu m'as trahi.., Poukie, mon ami m'a pouki, pour qui j'avais confiance J'espère que t'en as conscience, pourquoi tu m'as pouki Mon ami m'a pouki, pour qui j'avais confiance J'espère que t'en as conscience, pourquoi tu m'as poukie You might also like J'viens de cité, avec de l'avenir C'est dieu qui décide, arrête de mentir T'as poukie, t'as poukie tu peux pas te repentir Ta plus de garantie, impossible que tu t'en tires J'ai confiance en mes frères, j'espère pas me tromper Pour un violet et vert ça peut te la mettre dans le pied Cagoulés, gantés, on aime pas trop se vanter La rue nous enfante, on est très mal enfanté Voir ton reflet dans ma visière T'as du mal à ronfler quand la mort te visser Faut pas rester là, l'avenir est ailleurs Pas sûr de revenir, dis jamais à talheur Ont s'écarte du très haut, JeSuisTheo, JeSuisAdama Je suis des vôtres, dans la rue de mon tiek' la misère nous infecte Toute l'année en survet' malheureux en buvette Ton heure viendra on se fait confiance Tu m'as trahi.., Tu m'as trahi.., Ton heure viendra on se fait confiance Tu m'as trahi.., Tu m'as trahi.., Poukie, mon ami m'a poukie, pour qui j'avais confiance J'espère que t'en as conscience, pourquoi tu m'as.. Poukie, mon ami m'a poukie, pour qui j'avais confiance J'espère que t'en as conscience, pourquoi tu m'as poukie T'as fait tomber les tiens, t'as fait tomber les miens Aujourd'hui t'es lennemi, ta famille n'y est pour rien Ton petit reuf' est vaillant, vient de se faire niquer Il doit prendre tes patins ce n'est pas mérité Ça se lève le matin en espérant te croiser Glock dans la bouche, une envie de te crosser Rien dans la tête pour donner ton ami Assume les plaquettes vendues, akhi' T'as ves-qui le secteur, t'as pris ta meuf la petite tchoin Allez suce l'inspecteur et t'iras loin, on assume les mandats On assume les parloirs, t'as donné des noms j'arrive pas à y croire Tu mérites une cave, une chaise, à poil.. x4 Ton heure viendra on se fait confiance, tu m'as trahi.. Ton heure viendra on se fait confiance, tu m'as trahi.. Poukie, mon ami m'a poukie, pour qui j'avais confiance J'espère que t'en as conscience, pourquoi tu m'as.. Poukie, mon ami m'a poukie, pour qui j'avais confiance J'espère que t'en as conscience, pourquoi tu m'as poukie</t>
+          <t>Trop gentil donc j'ai tendu le bras J'voulais faire le Gandhi j'voulais faire le bon brave T'es sorti en condi' on a payé l'avocat On à toujours attendu, toi t'étais un bon gars T'allongeais du pilon, t'allongeais de la Vodka Personne t'a dit non, mais t'as mis la rotte-ca Ils t'ont pété un matin parce que t'étais rodave Jugement passé, on a appris que t'as poukave T'as oublié les principes, t'as oublié la totale... Déménage ta famille, tu mérites des grosses claques T'étais le plus costaud, aujourd'hui plus respectable T'as donné des bon gars, connu au bac à sable Ça veut te faire des dégâts, te soulever dans tes draps Commission rogatoire, si y'a une balance y'a pas d'hasard J'suis sous rapta' j'suis sous bédave, ça veut te péta T'es vraiment un gros batard Ton heure viendra on se fait confiance Tu m'as trahi.., Tu m'as trahi.., Ton heure viendra on se fait confiance Tu m'as trahi.., Tu m'as trahi.., Poukie, mon ami m'a pouki, pour qui j'avais confiance J'espère que t'en as conscience, pourquoi tu m'as pouki Mon ami m'a pouki, pour qui j'avais confiance J'espère que t'en as conscience, pourquoi tu m'as poukie J'viens de cité, avec de l'avenir C'est dieu qui décide, arrête de mentir T'as poukie, t'as poukie tu peux pas te repentir Ta plus de garantie, impossible que tu t'en tires J'ai confiance en mes frères, j'espère pas me tromper Pour un violet et vert ça peut te la mettre dans le pied Cagoulés, gantés, on aime pas trop se vanter La rue nous enfante, on est très mal enfanté Voir ton reflet dans ma visière T'as du mal à ronfler quand la mort te visser Faut pas rester là, l'avenir est ailleurs Pas sûr de revenir, dis jamais à talheur Ont s'écarte du très haut, JeSuisTheo, JeSuisAdama Je suis des vôtres, dans la rue de mon tiek' la misère nous infecte Toute l'année en survet' malheureux en buvette Ton heure viendra on se fait confiance Tu m'as trahi.., Tu m'as trahi.., Ton heure viendra on se fait confiance Tu m'as trahi.., Tu m'as trahi.., Poukie, mon ami m'a poukie, pour qui j'avais confiance J'espère que t'en as conscience, pourquoi tu m'as.. Poukie, mon ami m'a poukie, pour qui j'avais confiance J'espère que t'en as conscience, pourquoi tu m'as poukie T'as fait tomber les tiens, t'as fait tomber les miens Aujourd'hui t'es lennemi, ta famille n'y est pour rien Ton petit reuf' est vaillant, vient de se faire niquer Il doit prendre tes patins ce n'est pas mérité Ça se lève le matin en espérant te croiser Glock dans la bouche, une envie de te crosser Rien dans la tête pour donner ton ami Assume les plaquettes vendues, akhi' T'as ves-qui le secteur, t'as pris ta meuf la petite tchoin Allez suce l'inspecteur et t'iras loin, on assume les mandats On assume les parloirs, t'as donné des noms j'arrive pas à y croire Tu mérites une cave, une chaise, à poil.. x4 Ton heure viendra on se fait confiance, tu m'as trahi.. Ton heure viendra on se fait confiance, tu m'as trahi.. Poukie, mon ami m'a poukie, pour qui j'avais confiance J'espère que t'en as conscience, pourquoi tu m'as.. Poukie, mon ami m'a poukie, pour qui j'avais confiance J'espère que t'en as conscience, pourquoi tu m'as poukie</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Celui qui bouge, j'vais l'allumer, j'vais l'allumer Allumez-moi mon calumet, mon calumet Toute la cité est défoncée, est défoncée Allumez-moi mon calumet, mon calumet Jalousie, j'hallucine, la résine m'adoucit Avec elle, trop d'soucis, j'casse ma SIM et j'oublie En Gucci, c'est logique, dévalise les boutiques Faits divers, les gros titres, billets verts, j'négocie Veulent ma vie, eh, on a pris des risques J'suis sous mousse, on vend même des disques J'suis pas d'humeur nan, j'crois qu'j'suis mal-luné ouais Faut qu'j'm'en allume un, ramenez-moi mon calumet, eh Celui qui bouge, j'vais l'allumer, j'vais l'allumer Allumez-moi mon calumet, mon calumet Toute la cité est défoncée, est défoncée Allumez-moi mon calumet, mon calumet Celui qui bouge, j'vais l'allumer, j'vais l'allumer Allumez-moi mon calumet, mon calumet Toute la cité est défoncée, est défoncée Allumez-moi mon calumet, mon calumet You might also like J'pense à toi dans mon Audi Cab', j'suis calme, j'suis sous OG Kush J'compte cent mille en petite cale, nouvelle paire pour le p'tit reuf La cambrure de la brune m'a fusillé, j'pense qu'à mes thunes, j'dois l'oublier Morray, sans la mif, j'vais pas m'en tirer, j'marche qu'avec dix ans d'amitié À deux cents, à deux cents dans l'grand virage, j'pense même pas à l'atterrissage Cet hiver, moi, j'change de paysage, tu sais bien qu'on a vu que du sale J'suis pas d'humeur nan, j'crois qu'j'suis mal-luné ouais Faut qu'j'm'en allume un, ramenez-moi mon calumet, eh Celui qui bouge, j'vais l'allumer, j'vais l'allumer Allumez-moi mon calumet, mon calumet Toute la cité est défoncée, est défoncée Allumez-moi mon calumet, mon calumet Celui qui bouge, j'vais l'allumer, j'vais l'allumer Allumez-moi mon calumet, mon calumet Toute la cité est défoncée, est défoncée Allumez-moi mon calumet, mon calumet</t>
+          <t>Celui qui bouge, j'vais l'allumer, j'vais l'allumer Allumez-moi mon calumet, mon calumet Toute la cité est défoncée, est défoncée Allumez-moi mon calumet, mon calumet Jalousie, j'hallucine, la résine m'adoucit Avec elle, trop d'soucis, j'casse ma SIM et j'oublie En Gucci, c'est logique, dévalise les boutiques Faits divers, les gros titres, billets verts, j'négocie Veulent ma vie, eh, on a pris des risques J'suis sous mousse, on vend même des disques J'suis pas d'humeur nan, j'crois qu'j'suis mal-luné ouais Faut qu'j'm'en allume un, ramenez-moi mon calumet, eh Celui qui bouge, j'vais l'allumer, j'vais l'allumer Allumez-moi mon calumet, mon calumet Toute la cité est défoncée, est défoncée Allumez-moi mon calumet, mon calumet Celui qui bouge, j'vais l'allumer, j'vais l'allumer Allumez-moi mon calumet, mon calumet Toute la cité est défoncée, est défoncée Allumez-moi mon calumet, mon calumet J'pense à toi dans mon Audi Cab', j'suis calme, j'suis sous OG Kush J'compte cent mille en petite cale, nouvelle paire pour le p'tit reuf La cambrure de la brune m'a fusillé, j'pense qu'à mes thunes, j'dois l'oublier Morray, sans la mif, j'vais pas m'en tirer, j'marche qu'avec dix ans d'amitié À deux cents, à deux cents dans l'grand virage, j'pense même pas à l'atterrissage Cet hiver, moi, j'change de paysage, tu sais bien qu'on a vu que du sale J'suis pas d'humeur nan, j'crois qu'j'suis mal-luné ouais Faut qu'j'm'en allume un, ramenez-moi mon calumet, eh Celui qui bouge, j'vais l'allumer, j'vais l'allumer Allumez-moi mon calumet, mon calumet Toute la cité est défoncée, est défoncée Allumez-moi mon calumet, mon calumet Celui qui bouge, j'vais l'allumer, j'vais l'allumer Allumez-moi mon calumet, mon calumet Toute la cité est défoncée, est défoncée Allumez-moi mon calumet, mon calumet</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hornet La Frappe, Heuss L'enfoiré, ça vient du même secteur C'est pas du cinéma, nous, on baise l'inspecteur C'est pas des collégiens, on s'fait rares comme des Norvégiens, viens pas nous contredire On va rentrer en guerre, j'peux rentrer chez ta mère une histoire légendaire Ici, tout est carré comme le Nord d'la Corée Les keufs t'allument ta mère et ils s'font décorer Nique les balances ils ont collaboré J'organise un départ, tout seul dans la forêt, j'vais même pas la fourrer J'prends mon truc avec moi pour mieux l'inaugurer Maroqui 43, une Hiza-Guruma Tu sais qu'on est coriaces et surveille ton thorax Au placard, ça progresse Les coups d'filets qui passent, dix piges ou la relax Ils veulent nous baiser, au comico, les frères s'taisaient De rapper nos vies, c'est du freestyle Ils veulent nous baiser, au comico, les frères s'taisaient J'en rêvais d'l'oseille, maintenant, faut qu'j'taille Même secteur On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs You might also like ORG, Sablière, plus un gramme dans l'sablier On a perdu des frères en tirant, c'est les cités ou l'Iran ? Impact de balle dans l'épaule, couteau dans l'dos, j'en rigole J'suis un rappeur, pas une icône, j'incite pas à rouler l'cône Les rondes de bleus parasitent, la vente de beuh rassasie Pour l'bénéf, t'assassines, rafales sur Kawasaki Rue d'Marseille, 23 ans, j'fréquente les mêmes ganaches Plus d'sentiments, pas d'sentinelle, criminelle est la Kalash' Viens dans ma cité, c'est là j'me suis fait, j'ai les clés Comme des samouraïs, comme l'avait chanté Shurik'n Grosse émeute, 2005, ça 3amar le jerrican ORG, VLG, là, je sais qu'j'vais les ken Ils veulent nous baiser, au comico, les frères s'taisaient De rapper nos vies, c'est du freestyle Ils veulent nous baiser, au comico, les frères s'taisaient J'en rêvais d'l'oseille, maintenant, faut qu'j'taille Même secteur On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs J'suis dans mon secteur, c'est Medellín Cartel Bouyou m'appelle, j'finis à Orgemont sous Jack et Daniel Viens à la Sablière, et ça date pas d'hier Nous fais pas d'manières, on va t'niquer ta mère 86 billets et mon canon scié, j'sais comment l'manier Many m'a dit un jour qu'il fallait des billets pour toujours être à jour J'suis sur l'terrain tout comme Hakan ükür Artena !, ça court, cherche une issue d'secours Même secteur On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs Même secteur Même secteur Même secteur Même secteur</t>
+          <t>Hornet La Frappe, Heuss L'enfoiré, ça vient du même secteur C'est pas du cinéma, nous, on baise l'inspecteur C'est pas des collégiens, on s'fait rares comme des Norvégiens, viens pas nous contredire On va rentrer en guerre, j'peux rentrer chez ta mère une histoire légendaire Ici, tout est carré comme le Nord d'la Corée Les keufs t'allument ta mère et ils s'font décorer Nique les balances ils ont collaboré J'organise un départ, tout seul dans la forêt, j'vais même pas la fourrer J'prends mon truc avec moi pour mieux l'inaugurer Maroqui 43, une Hiza-Guruma Tu sais qu'on est coriaces et surveille ton thorax Au placard, ça progresse Les coups d'filets qui passent, dix piges ou la relax Ils veulent nous baiser, au comico, les frères s'taisaient De rapper nos vies, c'est du freestyle Ils veulent nous baiser, au comico, les frères s'taisaient J'en rêvais d'l'oseille, maintenant, faut qu'j'taille Même secteur On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs ORG, Sablière, plus un gramme dans l'sablier On a perdu des frères en tirant, c'est les cités ou l'Iran ? Impact de balle dans l'épaule, couteau dans l'dos, j'en rigole J'suis un rappeur, pas une icône, j'incite pas à rouler l'cône Les rondes de bleus parasitent, la vente de beuh rassasie Pour l'bénéf, t'assassines, rafales sur Kawasaki Rue d'Marseille, 23 ans, j'fréquente les mêmes ganaches Plus d'sentiments, pas d'sentinelle, criminelle est la Kalash' Viens dans ma cité, c'est là j'me suis fait, j'ai les clés Comme des samouraïs, comme l'avait chanté Shurik'n Grosse émeute, 2005, ça 3amar le jerrican ORG, VLG, là, je sais qu'j'vais les ken Ils veulent nous baiser, au comico, les frères s'taisaient De rapper nos vies, c'est du freestyle Ils veulent nous baiser, au comico, les frères s'taisaient J'en rêvais d'l'oseille, maintenant, faut qu'j'taille Même secteur On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs J'suis dans mon secteur, c'est Medellín Cartel Bouyou m'appelle, j'finis à Orgemont sous Jack et Daniel Viens à la Sablière, et ça date pas d'hier Nous fais pas d'manières, on va t'niquer ta mère 86 billets et mon canon scié, j'sais comment l'manier Many m'a dit un jour qu'il fallait des billets pour toujours être à jour J'suis sur l'terrain tout comme Hakan ükür Artena !, ça court, cherche une issue d'secours Même secteur On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs Même secteur Même secteur Même secteur Même secteur</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ah! gol l'mmi ka nebghiha Bel7e9 ila b9it hna, ma 3endi kifach ndir nerdiha Yeah yeah yeah! 7ta ila mchit tame3 gha nredd liha, yeah! Gol liha ma tkhafch chi nhar gha nerje3 bach neddiha Yeah, ka nebghiha Gol liha ra f 9elbi gha teb9a m3aya Bine 3ayni gha teb9a m3aya Gha neddi rejla, w rrda w Allah m3aya Ghir 7lami li ga3 ma khass teb9a hnaya Le7yat li keddaba, yeah! Serfe9ni lwa9i3 tiye7li Rassi mn fo9 s7aba, yeah! yeah! W ka nebghik ya lbabor, w 9ette3ni m3ak leb7our Hnaya b9it ghir ka ndor, w kherrejni ya lbabor Ah! 7lami mriskya f babor, w fine khle9t ra zehri safi mat 7ta men chbabi da3 fabor, wach fiha daba ila derbo l'mmaj La 9lebna l'b7er, ga3 9essana l'7out, khella gha l'ftat Ma b9a 7amelnach, 7ta sber ra ma kafinach 7ta l'hemm ma b9a baghinach W bla passeport ghadi w ma nerje3ch, kent 7alef ma gha neb9ach Ton histoire me touche re-frè Prendre le risque de s'en sortir, pour au final finir coffré Petit crime, ça vend du shit de qualité Ça s'allume dans le sous-terrain, loin du rêve tah l'américaine P'tit 3arbi s'enfuit, paire de yeuks dans son fut' Le passé fut dur pour être riche au futur Carte de séjour, on sait qui ont traversé les murs Millionnaire en dinars, ça rassure Mama compte sur la CAF mais son fils a la dalle La rue tue, brolic dans la cave Le SMIC ne suffit plus, j'en veux plus 3arbi d'ici ou d'ailleurs, on veut le monde en tailleur Wech ma blonde, je suis beur Tu t'effondres, j'vise le cur You might also like Ah! 7lami mriskya f babor, w fine khle9t ra zehri safi mat 7ta men chbabi da3 fabor, wach fiha daba ila derbo l'mmaj La 9lebna l'b7er, ga3 9essana l'7out, khella gha l'ftat Ma b9a 7amelnach, 7ta sber ra ma kafinach 7ta l'hemm ma b9a baghinach W bla passeport ghadi w ma nerje3ch, kent 7alef ma gha neb9ach Drari bghaw y3icho life, yeah yeah! Kolchi hnaya mtayef f had l7ayat Bine 3inihom kaychofo lghorba dayman Mizaw w galo rah 7el wa7ed li kayen Ki daro li 9bel menna, mchaw sauvaw l'hih Bla matel9a bnadem kayfekker f bateau yeddih Ma kaddoum 7ta 7aja, hadi bayna Chouf llor, yban lik tableau ki dayer Chkoun li yeskha b rasso w y'risquer l'mort Yeah! koun ma kanch bsse7 kayn chi problème À part la kan ma 3endo galb ykhelli mimto Welli mcha khella mimto Rebbi 3alem bih 7lami mriskya f babor 7ta men chbabi da3 fabor Ah! 7lami mriskya f babor, w fine khle9t ra zehri safi mat 7ta men chbabi da3 fabor, wach fiha daba ila derbo l'mmaj La 9lebna l'b7er, ga3 9essana l'7out, khella gha l'ftat Ma b9a 7amelnach, 7ta sber ra ma kafinach 7ta l'hemm ma b9a baghinach W bla passeport ghadi w ma nerje3ch, kent 7alef ma gha neb9ach3</t>
+          <t>Ah! gol l'mmi ka nebghiha Bel7e9 ila b9it hna, ma 3endi kifach ndir nerdiha Yeah yeah yeah! 7ta ila mchit tame3 gha nredd liha, yeah! Gol liha ma tkhafch chi nhar gha nerje3 bach neddiha Yeah, ka nebghiha Gol liha ra f 9elbi gha teb9a m3aya Bine 3ayni gha teb9a m3aya Gha neddi rejla, w rrda w Allah m3aya Ghir 7lami li ga3 ma khass teb9a hnaya Le7yat li keddaba, yeah! Serfe9ni lwa9i3 tiye7li Rassi mn fo9 s7aba, yeah! yeah! W ka nebghik ya lbabor, w 9ette3ni m3ak leb7our Hnaya b9it ghir ka ndor, w kherrejni ya lbabor Ah! 7lami mriskya f babor, w fine khle9t ra zehri safi mat 7ta men chbabi da3 fabor, wach fiha daba ila derbo l'mmaj La 9lebna l'b7er, ga3 9essana l'7out, khella gha l'ftat Ma b9a 7amelnach, 7ta sber ra ma kafinach 7ta l'hemm ma b9a baghinach W bla passeport ghadi w ma nerje3ch, kent 7alef ma gha neb9ach Ton histoire me touche re-frè Prendre le risque de s'en sortir, pour au final finir coffré Petit crime, ça vend du shit de qualité Ça s'allume dans le sous-terrain, loin du rêve tah l'américaine P'tit 3arbi s'enfuit, paire de yeuks dans son fut' Le passé fut dur pour être riche au futur Carte de séjour, on sait qui ont traversé les murs Millionnaire en dinars, ça rassure Mama compte sur la CAF mais son fils a la dalle La rue tue, brolic dans la cave Le SMIC ne suffit plus, j'en veux plus 3arbi d'ici ou d'ailleurs, on veut le monde en tailleur Wech ma blonde, je suis beur Tu t'effondres, j'vise le cur Ah! 7lami mriskya f babor, w fine khle9t ra zehri safi mat 7ta men chbabi da3 fabor, wach fiha daba ila derbo l'mmaj La 9lebna l'b7er, ga3 9essana l'7out, khella gha l'ftat Ma b9a 7amelnach, 7ta sber ra ma kafinach 7ta l'hemm ma b9a baghinach W bla passeport ghadi w ma nerje3ch, kent 7alef ma gha neb9ach Drari bghaw y3icho life, yeah yeah! Kolchi hnaya mtayef f had l7ayat Bine 3inihom kaychofo lghorba dayman Mizaw w galo rah 7el wa7ed li kayen Ki daro li 9bel menna, mchaw sauvaw l'hih Bla matel9a bnadem kayfekker f bateau yeddih Ma kaddoum 7ta 7aja, hadi bayna Chouf llor, yban lik tableau ki dayer Chkoun li yeskha b rasso w y'risquer l'mort Yeah! koun ma kanch bsse7 kayn chi problème À part la kan ma 3endo galb ykhelli mimto Welli mcha khella mimto Rebbi 3alem bih 7lami mriskya f babor 7ta men chbabi da3 fabor Ah! 7lami mriskya f babor, w fine khle9t ra zehri safi mat 7ta men chbabi da3 fabor, wach fiha daba ila derbo l'mmaj La 9lebna l'b7er, ga3 9essana l'7out, khella gha l'ftat Ma b9a 7amelnach, 7ta sber ra ma kafinach 7ta l'hemm ma b9a baghinach W bla passeport ghadi w ma nerje3ch, kent 7alef ma gha neb9ach3</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ouais, ouais, ouais Binks, binks Eh Elle voulait qu'j'ai une vie normale mais j'ai l'cur noirci par les dineros RS Q3, Audi, j'fais le tour de la French Riviera J'en ai trop vu le témoignage est vrai, j'ai vu la pluie, l'orage juste après Pour avoir le soleil, faudra bouger loin, dans les boîtes à chaussures, j'ai rangé des points Dans les boîtes à chaussures, j'ai rangé des points, pour avoir le soleil, faudra bouger loin Des armes, des tains-p', une vie de narco ouais, premier kilo, on était ados ouais Tavais peu de chance au départ mon petit, j'crois qu'j'ai même plus b'soin d'me répéter, cinq fois platine, rien à signaler Une montagne de moula mais j'suis resté passionné J'aurais pas toutes ces valeurs si j'avais pas zoné Un peu d'gasolina, j'vais jusqu'à Ketama J'ai des gars solides depuis la maternelle On a prit des risques, on s'croyait éternels Si tu veux des milliards, ils viendront le tin-ma L'ancien s'refait les chicots à force de croquer l'pavé 10K d'amitié, igo, j'verrais pas l'jnoun au parlu J'suis pas tout seul dans l'Viano, si t'aimes l'enfer, on s'allume Ils font référence à nous, ils nous aiment trop les sados J'prends pas l'bénéf' en solo, nouvel Hornet comme Komoko Vrai comme Richie et Golo', j'me repose sur mon potogo J'leur ai tous tendu la main, eux, tu m'la fais une fois mais pas deux Si j'mets les voiles, faut pas rappeler, c'est bien d'tirer, faut pas rater J'roule en teinté, tu sais qu'j'aime pas m'montrer J'étais d'ceux d'en bas qui rêvaient que d'monter C'était trois doses la dernière paire d'requins Dis-leur, N.I, toujours Tiens, tiens, retiens You might also like Une montagne de moula mais j'suis resté passionné J'aurais pas toutes ces valeurs si j'avais pas zoné Un peu d'gasolina, j'vais jusqu'à Ketama J'ai des gars solides depuis la maternelle On a prit des risques, on s'croyait éternels Si tu veux des milliards, ils viendront le tin-ma Une montagne de moula mais j'suis resté passionné J'aurais pas toutes ces valeurs si j'avais pas zoné Un peu d'gasolina, j'vais jusqu'à Ketama J'ai des gars solides depuis la maternelle On a prit des risques, on s'croyait éternels Si tu veux des milliards, ils viendront le tin-ma</t>
+          <t>Ouais, ouais, ouais Binks, binks Eh Elle voulait qu'j'ai une vie normale mais j'ai l'cur noirci par les dineros RS Q3, Audi, j'fais le tour de la French Riviera J'en ai trop vu le témoignage est vrai, j'ai vu la pluie, l'orage juste après Pour avoir le soleil, faudra bouger loin, dans les boîtes à chaussures, j'ai rangé des points Dans les boîtes à chaussures, j'ai rangé des points, pour avoir le soleil, faudra bouger loin Des armes, des tains-p', une vie de narco ouais, premier kilo, on était ados ouais Tavais peu de chance au départ mon petit, j'crois qu'j'ai même plus b'soin d'me répéter, cinq fois platine, rien à signaler Une montagne de moula mais j'suis resté passionné J'aurais pas toutes ces valeurs si j'avais pas zoné Un peu d'gasolina, j'vais jusqu'à Ketama J'ai des gars solides depuis la maternelle On a prit des risques, on s'croyait éternels Si tu veux des milliards, ils viendront le tin-ma L'ancien s'refait les chicots à force de croquer l'pavé 10K d'amitié, igo, j'verrais pas l'jnoun au parlu J'suis pas tout seul dans l'Viano, si t'aimes l'enfer, on s'allume Ils font référence à nous, ils nous aiment trop les sados J'prends pas l'bénéf' en solo, nouvel Hornet comme Komoko Vrai comme Richie et Golo', j'me repose sur mon potogo J'leur ai tous tendu la main, eux, tu m'la fais une fois mais pas deux Si j'mets les voiles, faut pas rappeler, c'est bien d'tirer, faut pas rater J'roule en teinté, tu sais qu'j'aime pas m'montrer J'étais d'ceux d'en bas qui rêvaient que d'monter C'était trois doses la dernière paire d'requins Dis-leur, N.I, toujours Tiens, tiens, retiens Une montagne de moula mais j'suis resté passionné J'aurais pas toutes ces valeurs si j'avais pas zoné Un peu d'gasolina, j'vais jusqu'à Ketama J'ai des gars solides depuis la maternelle On a prit des risques, on s'croyait éternels Si tu veux des milliards, ils viendront le tin-ma Une montagne de moula mais j'suis resté passionné J'aurais pas toutes ces valeurs si j'avais pas zoné Un peu d'gasolina, j'vais jusqu'à Ketama J'ai des gars solides depuis la maternelle On a prit des risques, on s'croyait éternels Si tu veux des milliards, ils viendront le tin-ma</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Peufra, ahlala Sale idée, ahlala Sale idée, ahlala Team Peufra Potion magique, j'oublie tout je vis wesh Faut que tu les wet' ont m'a toujours dit wesh Cherche réussite, malgré ton sortilège Tu me ralentis pas, nique ton shorty et tes mèches Ont veut des pavillons, nous propose maison d'arrêt Inspiration bre-som comme sénégalais On part poussière, la faucheuse passe le balai Ça fume la peuf' jusqu'à laisser sa vie tailler Peufra c'est carré, j'te niquerai pas ta reum que si c'est le carême Peufra détaillée 100 bénéf comme salaire à Karim Que d'la reu-pu on avance, ça recule Un frère en galère tu sais qu'on s'en occupe Les principes, les principes ne courent plus les rues Baisse ton slip, fais du rap tu feras des vues On veut le million, sabrer le Dom Pérignon Quitter la tess, quitter les environs La vie est courte, le vécu en dit long Sale idée You might also like Fuck la classe moyenne si t'es pauvre vole un riche Fuck la classe moyenne si t'es pauvre vole un riche Partout à l'aise quand tu viens d'une zone à risques Partout à l'aise quand tu viens d'une zone à risques Donne moi ma ce-chan, cliquez, faites du boucan J'kiffe les brunes caractère au loup qui roule du cul en boudant Tu me souhaites la prison, la mort, que des galères On te souhaite le bonheur d'aller niquer ta mère Je kiffe ton cul, ton teint, tes petites fossettes J'préfère cracher dans toi que cracher dans chausettes Hotel 5 étoiles, j'me balade en Golfette J'suis dans un film et le film c'est SAW 7 Faut faire de l'oseille, pas se noyer dans rivière Deux choses qu'il faut fuir, son ex et la misère J'ai le permis de niquer des mères Je te permets pas de me monter les nerfs Gros tar-pé, au bord d'un AMG CL Gros s'avance pour que mama allège ses dettes Aujourd'hui faire du sale tu sais que c'est dead Faut chanter lalala pour que salope bouge ses fesses On veut le million, sabrer le Dom Pérignon Quitter la tess, quitter les environs La vie est courte, le vécu en dit long Sale idée Fuck la classe moyenne si t'es pauvre vole un riche Fuck la classe moyenne si t'es pauvre vole un riche Partout à l'aise quand tu viens d'une zone à risques Partout à l'aise quand tu viens d'une zone à risques On veut le million, sabrer le Dom Pérignon Quitter la tess, quitter les environs La vie est courte, le vécu en dit long Sale idée</t>
+          <t>Peufra, ahlala Sale idée, ahlala Sale idée, ahlala Team Peufra Potion magique, j'oublie tout je vis wesh Faut que tu les wet' ont m'a toujours dit wesh Cherche réussite, malgré ton sortilège Tu me ralentis pas, nique ton shorty et tes mèches Ont veut des pavillons, nous propose maison d'arrêt Inspiration bre-som comme sénégalais On part poussière, la faucheuse passe le balai Ça fume la peuf' jusqu'à laisser sa vie tailler Peufra c'est carré, j'te niquerai pas ta reum que si c'est le carême Peufra détaillée 100 bénéf comme salaire à Karim Que d'la reu-pu on avance, ça recule Un frère en galère tu sais qu'on s'en occupe Les principes, les principes ne courent plus les rues Baisse ton slip, fais du rap tu feras des vues On veut le million, sabrer le Dom Pérignon Quitter la tess, quitter les environs La vie est courte, le vécu en dit long Sale idée Fuck la classe moyenne si t'es pauvre vole un riche Fuck la classe moyenne si t'es pauvre vole un riche Partout à l'aise quand tu viens d'une zone à risques Partout à l'aise quand tu viens d'une zone à risques Donne moi ma ce-chan, cliquez, faites du boucan J'kiffe les brunes caractère au loup qui roule du cul en boudant Tu me souhaites la prison, la mort, que des galères On te souhaite le bonheur d'aller niquer ta mère Je kiffe ton cul, ton teint, tes petites fossettes J'préfère cracher dans toi que cracher dans chausettes Hotel 5 étoiles, j'me balade en Golfette J'suis dans un film et le film c'est SAW 7 Faut faire de l'oseille, pas se noyer dans rivière Deux choses qu'il faut fuir, son ex et la misère J'ai le permis de niquer des mères Je te permets pas de me monter les nerfs Gros tar-pé, au bord d'un AMG CL Gros s'avance pour que mama allège ses dettes Aujourd'hui faire du sale tu sais que c'est dead Faut chanter lalala pour que salope bouge ses fesses On veut le million, sabrer le Dom Pérignon Quitter la tess, quitter les environs La vie est courte, le vécu en dit long Sale idée Fuck la classe moyenne si t'es pauvre vole un riche Fuck la classe moyenne si t'es pauvre vole un riche Partout à l'aise quand tu viens d'une zone à risques Partout à l'aise quand tu viens d'une zone à risques On veut le million, sabrer le Dom Pérignon Quitter la tess, quitter les environs La vie est courte, le vécu en dit long Sale idée</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>On pense a l'avenir , on pense a faire ses tunes Hlel de té-co comme petit enfant ça s'éduque Tu fume le benef tu dis qu'la bibi paye plus Si y'a plus de benef normal que baby baise plus Refuser un tête c'est comme refuser un grec Refuser un chèque c'est comme refuser une shnek La rue m'a valider sale est la mentalité J'extermine ton rappeur mais j'protège l'humanité Oui la vie est belle comme maman épanouie C'est quand je vide la teille que j'deviens épanouie Oui je suis sur les champs clio 3 et pas louer J'suis foncedé j'bois du Trois-Rivières sur un canoé J'baise le game et je brule des calories J'crache dans ta teusha pas dans la main qui m'a nourrit Trop d'principes c'est ça qui nous valorisent J'ai la même équipe depuis baggy , GameBoy colorie Ma famille je l'aime je la protège c'est moi l'ainé Si t'es belle et discrète je viendrais mettre l'henné J'ai les épaules larges j'ai bien était allaiter Viens pas quand sa marche dans le trou ta pas aider Parlez dans mon dos j'ai besoin de hassanette J'fais pas de photos petit Mounia n'est pas célèbre Mille ventes tu vendras plus même si tu fais 2 mois d'planète rap mais comme ça c'est net Dans ma tête c'est les States dans mon tieks c'est Chica Pour l'instant je freestyle je manges les miettes Petit polo coste-la ta main ne la poses pas Fréro gé-char le tos-ma je shoot ses mecs You might also like Là j'suis dans mon del je rêve d'Avenue Montaigne Faire des liasses sans compter peu-fra téma la dégaine Toi t'as pris des ailes en plus tu dois de l'oseille A la base on était zen mais pour d'l'oseille dis moi comment comment Comment refuser le tête ? Comment refuser le tête à tête ? Comment refuser le tête ? Les grosses salopes font les thug j'ai le seum Comment refuser le tête ? Comment refuser le tête à tête ? Comment refuser le tête ? Les grosses salopes font les thug j'ai le seum J'suis gramme de seum, t'es gramme de sel Quand y'a de l'oseille bah on prends des ailes J'te lache mes pit si tu m'laches des pic Mange un grec si y'a les keufs devient athlétique La rue selectionne j'suis dans l'équipe Le 9.3 ta tej comme une pute c'est triste J'reste le même même sous alcool fort T'es bonne on t'fait le boule comme une Ford Escort J'arrive en paire de requins dans ce monde de Némo Codéiné comme a Chica Rappeur sur billet de cinquante ta pas la nnai-mo? Mais dans tes clips ta du she-ca Ils te parlent de pésos , dollards , dinars , me-ar , bécane , cc , clochard ! Ils traînent pas dans leurs cités porte des lunettes noirs a cause des coquards Peufra j'remercie aux frères qui soutiennent Valider valider mais pas la bouche pleine HLF a grandis dans p'tit HLM Balance devant l'opj transpire comme un hammam Bloc de teu-shi coffré sous la semelle Tu vas fumer la peuf ouais toute la semaine Confonds pas ces reubeu fragiles ses zemels J'ai tué ma meuf au lit j'fais un crime passionel PEUFRA Là j'suis dans mon del je rêve d'Avenue Montaigne Faire des liasses sans compter peu-fra téma la dégaine Toi t'as pris des ailes en plus tu dois de l'oseille A la base on était zen mais pour d'l'oseille dis moi comment comment Comment refuser le tête ? Comment refuser le tête à tête ? Comment refuser le tête ? Les grosses salopes font les thug j'ai le seum Comment refuser le tête ? Comment refuser le tête à tête ? Comment refuser le tête ? Les grosses salopes font les thug j'ai le seum</t>
+          <t>On pense a l'avenir , on pense a faire ses tunes Hlel de té-co comme petit enfant ça s'éduque Tu fume le benef tu dis qu'la bibi paye plus Si y'a plus de benef normal que baby baise plus Refuser un tête c'est comme refuser un grec Refuser un chèque c'est comme refuser une shnek La rue m'a valider sale est la mentalité J'extermine ton rappeur mais j'protège l'humanité Oui la vie est belle comme maman épanouie C'est quand je vide la teille que j'deviens épanouie Oui je suis sur les champs clio 3 et pas louer J'suis foncedé j'bois du Trois-Rivières sur un canoé J'baise le game et je brule des calories J'crache dans ta teusha pas dans la main qui m'a nourrit Trop d'principes c'est ça qui nous valorisent J'ai la même équipe depuis baggy , GameBoy colorie Ma famille je l'aime je la protège c'est moi l'ainé Si t'es belle et discrète je viendrais mettre l'henné J'ai les épaules larges j'ai bien était allaiter Viens pas quand sa marche dans le trou ta pas aider Parlez dans mon dos j'ai besoin de hassanette J'fais pas de photos petit Mounia n'est pas célèbre Mille ventes tu vendras plus même si tu fais 2 mois d'planète rap mais comme ça c'est net Dans ma tête c'est les States dans mon tieks c'est Chica Pour l'instant je freestyle je manges les miettes Petit polo coste-la ta main ne la poses pas Fréro gé-char le tos-ma je shoot ses mecs Là j'suis dans mon del je rêve d'Avenue Montaigne Faire des liasses sans compter peu-fra téma la dégaine Toi t'as pris des ailes en plus tu dois de l'oseille A la base on était zen mais pour d'l'oseille dis moi comment comment Comment refuser le tête ? Comment refuser le tête à tête ? Comment refuser le tête ? Les grosses salopes font les thug j'ai le seum Comment refuser le tête ? Comment refuser le tête à tête ? Comment refuser le tête ? Les grosses salopes font les thug j'ai le seum J'suis gramme de seum, t'es gramme de sel Quand y'a de l'oseille bah on prends des ailes J'te lache mes pit si tu m'laches des pic Mange un grec si y'a les keufs devient athlétique La rue selectionne j'suis dans l'équipe Le 9.3 ta tej comme une pute c'est triste J'reste le même même sous alcool fort T'es bonne on t'fait le boule comme une Ford Escort J'arrive en paire de requins dans ce monde de Némo Codéiné comme a Chica Rappeur sur billet de cinquante ta pas la nnai-mo? Mais dans tes clips ta du she-ca Ils te parlent de pésos , dollards , dinars , me-ar , bécane , cc , clochard ! Ils traînent pas dans leurs cités porte des lunettes noirs a cause des coquards Peufra j'remercie aux frères qui soutiennent Valider valider mais pas la bouche pleine HLF a grandis dans p'tit HLM Balance devant l'opj transpire comme un hammam Bloc de teu-shi coffré sous la semelle Tu vas fumer la peuf ouais toute la semaine Confonds pas ces reubeu fragiles ses zemels J'ai tué ma meuf au lit j'fais un crime passionel PEUFRA Là j'suis dans mon del je rêve d'Avenue Montaigne Faire des liasses sans compter peu-fra téma la dégaine Toi t'as pris des ailes en plus tu dois de l'oseille A la base on était zen mais pour d'l'oseille dis moi comment comment Comment refuser le tête ? Comment refuser le tête à tête ? Comment refuser le tête ? Les grosses salopes font les thug j'ai le seum Comment refuser le tête ? Comment refuser le tête à tête ? Comment refuser le tête ? Les grosses salopes font les thug j'ai le seum</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C'est nos vies On a grandi, grandi, frère J'avance les deux pieds dans l'vide J't'ai déjà chanté T'as gé-chan, j't'ai déjà chanté T'as gé-chan, tu m'as pas répondu, khey J't'ai appelé plusieurs fois sur ton bigo, sans nouvelles, on est pas comme ça mon khey J'suis à l'album, j'continue, j'peux pas faire de parenthèses T'es pas heureux, tu simules tu veux m'voir en quarantaine Tous ces rageux veulent me coller Mon talent, moi, j'l'ai pas volé L'avenir n'est pas garanti J'suis dans mon bolide, j'pense Des fois, même, j'suis en transe et j'vois tout au ralenti De toute manière, y a un Dieu, y a tes voeux, y a mes souhaits Quand j'y pense, je m'en veux, ma réussite t'a fait échouer Eh, fils de pute, c'est la rue, face à ton calibre, j'souris, j'suis trop fier, t'as qu'à tirer Je sais qu'un jour sonnera mon heure donc je donne le meilleur, seul Dieu sait quand j'partirai Faites bellek à vos vies, votre ennemi attend juste le jour où vous partirez Eh, fils de pute, c'est la rue, face à ton calibre, j'souris, j'suis trop fier, t'as qu'à tirer Dans mon sommeil, j'parle de oi-t, j'apprécie pas qu'on parle mal, fais pas de bruit quand l'calme y est L'heure a sonné, prends mon âme, petit Sheitan que tu es avec ton plus beau barillet Pour ma carrière, j'pose mes lles-c' sur la prod' et va dire à la proc' que j'aime rimer Ça vient d'Marseille, ça vient d'Paris, ça vient du Sud, ça vient d'Alger, ça vient d'Tunis et même du Rif Quand on s'en prend à ta vie, c'est souvent proche que s'creuse le risque Dis-moi tout, dis-moi tout pour que ton cur se vide Garde rien pour toi Tu vas exploser un jour Mon cur se resserre, ma pupille se dilate, là, j'te dis dans les yeux Fils de pute, t'as qu'à tirer You might also like Eh, fils de pute, c'est la rue, face à ton calibre, j'souris, j'suis trop fier, t'as qu'à tirer Je sais qu'un jour sonnera mon heure donc je donne le meilleur, seul Dieu sait quand j'partirai Faites bellek à vos vies, votre ennemi attend juste le jour où vous partirez Eh, fils de pute, c'est la rue, face à ton calibre, j'souris, j'suis trop fier, t'as qu'à tirer T'as qu'à tirer, han T'as qu'à tirer, han T'as qu'à tirer, han T'as qu'à tirer, han T'as qu'à tirer, han T'as qu'à tirer, han T'as qu'à tirer, han T'as qu'à tirer</t>
+          <t>C'est nos vies On a grandi, grandi, frère J'avance les deux pieds dans l'vide J't'ai déjà chanté T'as gé-chan, j't'ai déjà chanté T'as gé-chan, tu m'as pas répondu, khey J't'ai appelé plusieurs fois sur ton bigo, sans nouvelles, on est pas comme ça mon khey J'suis à l'album, j'continue, j'peux pas faire de parenthèses T'es pas heureux, tu simules tu veux m'voir en quarantaine Tous ces rageux veulent me coller Mon talent, moi, j'l'ai pas volé L'avenir n'est pas garanti J'suis dans mon bolide, j'pense Des fois, même, j'suis en transe et j'vois tout au ralenti De toute manière, y a un Dieu, y a tes voeux, y a mes souhaits Quand j'y pense, je m'en veux, ma réussite t'a fait échouer Eh, fils de pute, c'est la rue, face à ton calibre, j'souris, j'suis trop fier, t'as qu'à tirer Je sais qu'un jour sonnera mon heure donc je donne le meilleur, seul Dieu sait quand j'partirai Faites bellek à vos vies, votre ennemi attend juste le jour où vous partirez Eh, fils de pute, c'est la rue, face à ton calibre, j'souris, j'suis trop fier, t'as qu'à tirer Dans mon sommeil, j'parle de oi-t, j'apprécie pas qu'on parle mal, fais pas de bruit quand l'calme y est L'heure a sonné, prends mon âme, petit Sheitan que tu es avec ton plus beau barillet Pour ma carrière, j'pose mes lles-c' sur la prod' et va dire à la proc' que j'aime rimer Ça vient d'Marseille, ça vient d'Paris, ça vient du Sud, ça vient d'Alger, ça vient d'Tunis et même du Rif Quand on s'en prend à ta vie, c'est souvent proche que s'creuse le risque Dis-moi tout, dis-moi tout pour que ton cur se vide Garde rien pour toi Tu vas exploser un jour Mon cur se resserre, ma pupille se dilate, là, j'te dis dans les yeux Fils de pute, t'as qu'à tirer Eh, fils de pute, c'est la rue, face à ton calibre, j'souris, j'suis trop fier, t'as qu'à tirer Je sais qu'un jour sonnera mon heure donc je donne le meilleur, seul Dieu sait quand j'partirai Faites bellek à vos vies, votre ennemi attend juste le jour où vous partirez Eh, fils de pute, c'est la rue, face à ton calibre, j'souris, j'suis trop fier, t'as qu'à tirer T'as qu'à tirer, han T'as qu'à tirer, han T'as qu'à tirer, han T'as qu'à tirer, han T'as qu'à tirer, han T'as qu'à tirer, han T'as qu'à tirer, han T'as qu'à tirer</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Traces de pneus dans l'virage d'ma vie, l'espoir par la vitre Vise les ovaires, j'veux un gosse rapide, sans pote-ca, ça tire Tu sais très bien qu'l'ennemi veut t'baiser, pourquoi tu tends la perche ? Le monde est moche, le monde te laisse à terre, faire la manche à perte Si seul face à mes défaites et c'est vrai, livreur d'pizza, l'CV L'être humain, un fils de pute, tu l'sais, j'ai pas lâché mes rêves Tout devient sombre quand mes pensées me rongent Mes veines qui coulent du son Battement du cur qui fait raisonner l'âme, qui fait raisonner l'âme Flash à la main, la vie d'ma mère, c'est dur La vie d'ma mère, c'est sûr Flash à la main, la vie d'ma mère, c'est dur La vie d'ma mère, c'est sûr J'vais chercher l'brolique, j'ai pas choisi J'vais te faire du mal, faut bien qu'j'te paralyse Ce soir, j'suis en danger, j'suis seul dans ma folie Presser la détente, soigner mon insomnie Mon ami m'a trahi, ce soir, j'ai pas sommeil Flash à la main, ce soir, j'ai pas sommeil Mon ami m'a trahi, ce soir, j'ai pas sommeil Flash à la main, ce soir, j'ai pas sommeil You might also like Un soir d'hiver, le froid dans l'dos t'caresse, vengeance au Tokarev Flash à la main, je n'ai plus aucun rêve, j'suis seul à comparaître Devant la juge à cause du vodka red, Karim fait plus l'carême J'suis dans la gov', à 260, j'oublie, avec la plus jolie Dégradé blanc, celui qui tas té-plan, celui qui bouge des grands J'prend soin des miens, j'ai déjà perdu des chers, mon cur qui fond l'dégel J'ai pris son num' en espérant la ken, elle est pas claquée J'ai double face, j'te présente laquelle? Celle qui est venu te draguer Flash à la main, la vie d'ma mère, c'est dur La vie d'ma mère, c'est sûr Flash à la main, la vie d'ma mère, c'est dur La vie d'ma mère, c'est sûr J'vais chercher l'brolique, j'ai pas choisi J'vais te faire du mal, faut bien qu'j'te paralyse Ce soir, j'suis en danger, j'suis seul dans ma folie Presser la détente, soigner mon insomnie Mon ami m'a trahi, ce soir, j'ai pas sommeil Flash à la main, ce soir, j'ai pas sommeil Mon ami m'a trahi, ce soir ,j'ai pas sommeil Flash à la main, ce soir, j'ai pas sommeil Bang, j'ai trop bu la 'teille, à deux doigts d'prendre un mur Bang, ça m'apprendra p't-être à vouloir faire le dur Bang, j'ai trop bu la 'teille, à deux doigts d'prendre un mur Bang, ça m'apprendra p't-être à vouloir faire le dur Bang, j'ai trop bu la 'teille, à deux doigts d'prendre un mur Bang, ça m'apprendra p't-être à vouloir faire le dur Bang, j'ai trop bu la 'teille, à deux doigts d'prendre un mur Bang, ça m'apprendra p't-être à vouloir faire le dur Tu sais très bien qu'l'ennemi veut t'baiser, pourquoi tu tends la perche ? Traces de pneus dans l'virage d'ma vie, l'espoir par la vitre Devant la juge à cause du vodka red, Karim ne fait plus l'carême Un soir d'hiver, le froid dans l'dos t'caresse, vengeance sur Tokarev Flash à la main la vie d'ma mère, c'est dur La vie d'ma mère, c'est sûr</t>
+          <t>Traces de pneus dans l'virage d'ma vie, l'espoir par la vitre Vise les ovaires, j'veux un gosse rapide, sans pote-ca, ça tire Tu sais très bien qu'l'ennemi veut t'baiser, pourquoi tu tends la perche ? Le monde est moche, le monde te laisse à terre, faire la manche à perte Si seul face à mes défaites et c'est vrai, livreur d'pizza, l'CV L'être humain, un fils de pute, tu l'sais, j'ai pas lâché mes rêves Tout devient sombre quand mes pensées me rongent Mes veines qui coulent du son Battement du cur qui fait raisonner l'âme, qui fait raisonner l'âme Flash à la main, la vie d'ma mère, c'est dur La vie d'ma mère, c'est sûr Flash à la main, la vie d'ma mère, c'est dur La vie d'ma mère, c'est sûr J'vais chercher l'brolique, j'ai pas choisi J'vais te faire du mal, faut bien qu'j'te paralyse Ce soir, j'suis en danger, j'suis seul dans ma folie Presser la détente, soigner mon insomnie Mon ami m'a trahi, ce soir, j'ai pas sommeil Flash à la main, ce soir, j'ai pas sommeil Mon ami m'a trahi, ce soir, j'ai pas sommeil Flash à la main, ce soir, j'ai pas sommeil Un soir d'hiver, le froid dans l'dos t'caresse, vengeance au Tokarev Flash à la main, je n'ai plus aucun rêve, j'suis seul à comparaître Devant la juge à cause du vodka red, Karim fait plus l'carême J'suis dans la gov', à 260, j'oublie, avec la plus jolie Dégradé blanc, celui qui tas té-plan, celui qui bouge des grands J'prend soin des miens, j'ai déjà perdu des chers, mon cur qui fond l'dégel J'ai pris son num' en espérant la ken, elle est pas claquée J'ai double face, j'te présente laquelle? Celle qui est venu te draguer Flash à la main, la vie d'ma mère, c'est dur La vie d'ma mère, c'est sûr Flash à la main, la vie d'ma mère, c'est dur La vie d'ma mère, c'est sûr J'vais chercher l'brolique, j'ai pas choisi J'vais te faire du mal, faut bien qu'j'te paralyse Ce soir, j'suis en danger, j'suis seul dans ma folie Presser la détente, soigner mon insomnie Mon ami m'a trahi, ce soir, j'ai pas sommeil Flash à la main, ce soir, j'ai pas sommeil Mon ami m'a trahi, ce soir ,j'ai pas sommeil Flash à la main, ce soir, j'ai pas sommeil Bang, j'ai trop bu la 'teille, à deux doigts d'prendre un mur Bang, ça m'apprendra p't-être à vouloir faire le dur Bang, j'ai trop bu la 'teille, à deux doigts d'prendre un mur Bang, ça m'apprendra p't-être à vouloir faire le dur Bang, j'ai trop bu la 'teille, à deux doigts d'prendre un mur Bang, ça m'apprendra p't-être à vouloir faire le dur Bang, j'ai trop bu la 'teille, à deux doigts d'prendre un mur Bang, ça m'apprendra p't-être à vouloir faire le dur Tu sais très bien qu'l'ennemi veut t'baiser, pourquoi tu tends la perche ? Traces de pneus dans l'virage d'ma vie, l'espoir par la vitre Devant la juge à cause du vodka red, Karim ne fait plus l'carême Un soir d'hiver, le froid dans l'dos t'caresse, vengeance sur Tokarev Flash à la main la vie d'ma mère, c'est dur La vie d'ma mère, c'est sûr</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mon cur est d'jà pris d'puis l'échographie Paire de requin, j'tire le penalty DZ comme Verratti, Cristiano, j'suis un vrai 3arbi J'perds l'équilibre, mes khôs sont là sont là Tête sur les épaules, j'me relâche relâche Si elle est skinny, jamais on la ken Bwada et Skinny fument des gros oints-j Ça marche au feeling, faudra t'habituer RS3, j'peux l'acheter mais ton il va m'tuer 3in hey Grosse frappe enroulée, tu tapes dans la C, fais pas l'mec enrhumé Demain, c'est loin l'mec qu'a monté son empire des deux mains, c'est moi wAllah, c'est moi On l'a fait nous-mêmes comme la Reine du Sud, Sinaloa Sinaloa Silex en main, les p'tits d'Orgemont pètent au feu même sous l'orage Baskets trouées, suffit plus d'être doués à leur âge en espérant que personne au comico passe à l'oral J'suis pour le Réal, pour le réel L'héritier d'Betancourt pour Loréal Hola chica, Hola qué tal? Chupa ma pinga sur ma bécane J'suis comme un Brésilien, ce soir obrigado, obrigado J'ai la plus bonne femme, c'est sûr bonita, bonita J'suis comme un Colombien, ce soir gracias muchas, gracias muchas J'bibi la meilleure came c'est sûr traficante, traficante You might also like T'avais la chance de me connaître, t'as fait la conne, conne Toute ma vie, on m'a poussé des grammes, j'impose la tonne, tonne Ils ont dénoncé mon frère, il vendait trop d'la bonne, bonne Ils ont dénoncé mon frère, il vendait trop d'la bonne, bonne Quatre-vingt-treize kilos, du poids, j'ai pris C'est derrière l'rideau que l'artiste est triste oh nan, nan J'préfère être de passage et investir que rester longtemps et me travestir Dans la rue, j'vois la drogue creuser des joues creuser des joues T'as perdu la tête, t'as croisé des jnouns S'en fout d'tes menaces, on sait qu't'agis pas Si t'as d'l'audace, on f'ra pleurer mère Rachida la mère Rachida Prise de conscience quand l'alcool redescend Est-ce que mourir d'une clope, c'est renaître de ses cendres ? Élevé à la dure, on m'demande d'être tendre demande d'être tendre J'presse la détente j'tire et je pointe, c'est pas la pétanque L'amour, c'est cinquante euros la fidélité, c'est cinquante ans F2 entassé avec cinq enfants cinq enfants Bellek, les terrains sont glissants, mon grand L'équipe est saoulée, l'équipe est sous Baileys L'équipe cagoulée te laisse aucun délai J'suis comme un Brésilien, ce soir obrigado, obrigado J'ai la plus bonne femme, c'est sûr bonita, bonita J'suis comme un Colombien, ce soir gracias muchas, gracias muchas J'bibi la meilleure came, c'est sûr traficante, traficante T'avais la chance de me connaître, t'as fait la conne, conne Toute ma vie, on m'a poussé des grammes, j'impose la tonne, tonne Ils ont dénoncé mon frère, il vendait trop d'la bonne, bonne Ils ont dénoncé mon frère, il vendait trop d'la bonne, bonne</t>
+          <t>Mon cur est d'jà pris d'puis l'échographie Paire de requin, j'tire le penalty DZ comme Verratti, Cristiano, j'suis un vrai 3arbi J'perds l'équilibre, mes khôs sont là sont là Tête sur les épaules, j'me relâche relâche Si elle est skinny, jamais on la ken Bwada et Skinny fument des gros oints-j Ça marche au feeling, faudra t'habituer RS3, j'peux l'acheter mais ton il va m'tuer 3in hey Grosse frappe enroulée, tu tapes dans la C, fais pas l'mec enrhumé Demain, c'est loin l'mec qu'a monté son empire des deux mains, c'est moi wAllah, c'est moi On l'a fait nous-mêmes comme la Reine du Sud, Sinaloa Sinaloa Silex en main, les p'tits d'Orgemont pètent au feu même sous l'orage Baskets trouées, suffit plus d'être doués à leur âge en espérant que personne au comico passe à l'oral J'suis pour le Réal, pour le réel L'héritier d'Betancourt pour Loréal Hola chica, Hola qué tal? Chupa ma pinga sur ma bécane J'suis comme un Brésilien, ce soir obrigado, obrigado J'ai la plus bonne femme, c'est sûr bonita, bonita J'suis comme un Colombien, ce soir gracias muchas, gracias muchas J'bibi la meilleure came c'est sûr traficante, traficante T'avais la chance de me connaître, t'as fait la conne, conne Toute ma vie, on m'a poussé des grammes, j'impose la tonne, tonne Ils ont dénoncé mon frère, il vendait trop d'la bonne, bonne Ils ont dénoncé mon frère, il vendait trop d'la bonne, bonne Quatre-vingt-treize kilos, du poids, j'ai pris C'est derrière l'rideau que l'artiste est triste oh nan, nan J'préfère être de passage et investir que rester longtemps et me travestir Dans la rue, j'vois la drogue creuser des joues creuser des joues T'as perdu la tête, t'as croisé des jnouns S'en fout d'tes menaces, on sait qu't'agis pas Si t'as d'l'audace, on f'ra pleurer mère Rachida la mère Rachida Prise de conscience quand l'alcool redescend Est-ce que mourir d'une clope, c'est renaître de ses cendres ? Élevé à la dure, on m'demande d'être tendre demande d'être tendre J'presse la détente j'tire et je pointe, c'est pas la pétanque L'amour, c'est cinquante euros la fidélité, c'est cinquante ans F2 entassé avec cinq enfants cinq enfants Bellek, les terrains sont glissants, mon grand L'équipe est saoulée, l'équipe est sous Baileys L'équipe cagoulée te laisse aucun délai J'suis comme un Brésilien, ce soir obrigado, obrigado J'ai la plus bonne femme, c'est sûr bonita, bonita J'suis comme un Colombien, ce soir gracias muchas, gracias muchas J'bibi la meilleure came, c'est sûr traficante, traficante T'avais la chance de me connaître, t'as fait la conne, conne Toute ma vie, on m'a poussé des grammes, j'impose la tonne, tonne Ils ont dénoncé mon frère, il vendait trop d'la bonne, bonne Ils ont dénoncé mon frère, il vendait trop d'la bonne, bonne</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ppe-fra Bibi l'après-m', j'suis sur un RM, le bruit des sirènes Yeah, HRNN to the top man, yeah La médicale, mon médicament, j'sors la bouteille de Jack, j'l'éclate dans ton crâne Pas-pas de shlag parmi nous, va taper plus loin ton gramme Bibi l'après-m', j'suis sur un RM, le bruit des sirènes, sont à la traîne La paire de TN, ves-qui la PN, laisse pas d'ADN, j't'appelle après Ouais, la rue, c'est nous c'est nous, crois pas qu'on simule simule J'crois plus en ces clowns, ça casse nos serrures, à treize piges sous CR Je débite avec Leto d'PSO Thug, RK du 77 roule un blunt J'ai les flics aux pattes, faut plus qu'je faute, j'prends l'bénéf' et j'me casse au bled C'est la rue qui l'dit j'te l'dis, c'est la rue qui l'fait ok C'est la rue qui l'dit j'te l'dis, c'est la rue qui l'fait ok Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort eh, eh, eh, eh C'est la rue qui l'dit j'te l'dis, j'te l'dis, c'est la rue qui l'fait ok, ok C'est la rue qui l'dit j'te l'dis, j'te l'dis, c'est la rue qui l'fait ok, ok Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort You might also like C'est moi qui prends la recette, sur le rrain-te, j'suis toujours impliqué c'est moi T'es banni si tu pookies, quand ça re-ti, mon shooter s'applique costaud Un paquet d'bitchs sur le côté coté, tu vas payer ou j'te ligote 'gote Tu vas guetter, bicrave ou voler, t'as pas l'étoffe pour être le gérant nan Trop d'biff dans ton pif, c'est ma came trop d'biff, ennemis, badaboum, j'les dégomme badaboum C'est le gang-gang shit, j'crois qu'on fume trop d'shit, y a les schmitts qui nous pistent comme d'hab' pan, pan Elle a vu ma dégaine, elle est tombée love love, raconte pas ta vie si t'as pas de lovés lovés Comme à Baltimore, les bécanes sont levées, vroum, vroum, vroum C'est la rue qui l'dit j'te l'dis, c'est la rue qui l'fait ok C'est la rue qui l'dit j'te l'dis, c'est la rue qui l'fait ok Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort eh, eh, eh, eh C'est la rue qui l'dit j'te l'dis, j'te l'dis, c'est la rue qui l'fait ok, ok C'est la rue qui l'dit j'te l'dis, j'te l'dis, c'est la rue qui l'fait ok, ok Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort Ramène d'la fraîcheur, découpe la frappe au sécateur, fous-la dans l'pochtar, c'est carré J'vois que des acteurs, j'vois qu'y a personne qui va l'faire donc j'ai porté mes couilles et je l'ai fait Numéro seven, j'mets que des tempêtes de bâtard, HLF la fout dans la lucarne On tire et on repart, tu verras mon visage quand j'vais t'attraper et fouetter ceux qui séparent, eh J'suis entouré d'news, oh, t'as l'entourage louche donc piou, bah, venez tous et force à celui qui l'ouvre trop J'rentre, j'me faufile et ça passe crème vion, c't'année, j'ai sorti un Pack M vroum En Y, j'dis à ma pétasse Thanks, et en quelques années, j'ai graille tout l'game C'est la rue qui l'dit j'te l'dis, c'est la rue qui l'fait ok C'est la rue qui l'dit j'te l'dis, c'est la rue qui l'fait ok Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort eh, eh, eh, eh C'est la rue qui l'dit j'te l'dis, j'te l'dis, c'est la rue qui l'fait ok, ok C'est la rue qui l'dit j'te l'dis, j'te l'dis, c'est la rue qui l'fait ok, ok Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort Ppe-fra, c'est mort</t>
+          <t>Ppe-fra Bibi l'après-m', j'suis sur un RM, le bruit des sirènes Yeah, HRNN to the top man, yeah La médicale, mon médicament, j'sors la bouteille de Jack, j'l'éclate dans ton crâne Pas-pas de shlag parmi nous, va taper plus loin ton gramme Bibi l'après-m', j'suis sur un RM, le bruit des sirènes, sont à la traîne La paire de TN, ves-qui la PN, laisse pas d'ADN, j't'appelle après Ouais, la rue, c'est nous c'est nous, crois pas qu'on simule simule J'crois plus en ces clowns, ça casse nos serrures, à treize piges sous CR Je débite avec Leto d'PSO Thug, RK du 77 roule un blunt J'ai les flics aux pattes, faut plus qu'je faute, j'prends l'bénéf' et j'me casse au bled C'est la rue qui l'dit j'te l'dis, c'est la rue qui l'fait ok C'est la rue qui l'dit j'te l'dis, c'est la rue qui l'fait ok Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort eh, eh, eh, eh C'est la rue qui l'dit j'te l'dis, j'te l'dis, c'est la rue qui l'fait ok, ok C'est la rue qui l'dit j'te l'dis, j'te l'dis, c'est la rue qui l'fait ok, ok Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort C'est moi qui prends la recette, sur le rrain-te, j'suis toujours impliqué c'est moi T'es banni si tu pookies, quand ça re-ti, mon shooter s'applique costaud Un paquet d'bitchs sur le côté coté, tu vas payer ou j'te ligote 'gote Tu vas guetter, bicrave ou voler, t'as pas l'étoffe pour être le gérant nan Trop d'biff dans ton pif, c'est ma came trop d'biff, ennemis, badaboum, j'les dégomme badaboum C'est le gang-gang shit, j'crois qu'on fume trop d'shit, y a les schmitts qui nous pistent comme d'hab' pan, pan Elle a vu ma dégaine, elle est tombée love love, raconte pas ta vie si t'as pas de lovés lovés Comme à Baltimore, les bécanes sont levées, vroum, vroum, vroum C'est la rue qui l'dit j'te l'dis, c'est la rue qui l'fait ok C'est la rue qui l'dit j'te l'dis, c'est la rue qui l'fait ok Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort eh, eh, eh, eh C'est la rue qui l'dit j'te l'dis, j'te l'dis, c'est la rue qui l'fait ok, ok C'est la rue qui l'dit j'te l'dis, j'te l'dis, c'est la rue qui l'fait ok, ok Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort Ramène d'la fraîcheur, découpe la frappe au sécateur, fous-la dans l'pochtar, c'est carré J'vois que des acteurs, j'vois qu'y a personne qui va l'faire donc j'ai porté mes couilles et je l'ai fait Numéro seven, j'mets que des tempêtes de bâtard, HLF la fout dans la lucarne On tire et on repart, tu verras mon visage quand j'vais t'attraper et fouetter ceux qui séparent, eh J'suis entouré d'news, oh, t'as l'entourage louche donc piou, bah, venez tous et force à celui qui l'ouvre trop J'rentre, j'me faufile et ça passe crème vion, c't'année, j'ai sorti un Pack M vroum En Y, j'dis à ma pétasse Thanks, et en quelques années, j'ai graille tout l'game C'est la rue qui l'dit j'te l'dis, c'est la rue qui l'fait ok C'est la rue qui l'dit j'te l'dis, c'est la rue qui l'fait ok Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort eh, eh, eh, eh C'est la rue qui l'dit j'te l'dis, j'te l'dis, c'est la rue qui l'fait ok, ok C'est la rue qui l'dit j'te l'dis, j'te l'dis, c'est la rue qui l'fait ok, ok Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort Ma vie sans mon tieks, c'est mort, ma vie sans mon tieks, c'est mort Ppe-fra, c'est mort</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SMR Beatmaking Han, habibti, dans le tier-quar, dans le noir, ça bibi Ça veut la zone, contrôler comme les Peaky J'roule un joint, j'fais ma potion, Siroc fruits rouges Sous Balenciaga, Fe-Fe, moula, cuir rouge J'crois qu'ils veulent mes couilles et ma teub ma teub J'vois qu'ils feraient tout pour m'atteindre m'atteindre Quand je vise le but, je l'atteins drr C'est rien100rien mais c'est anti-bâtard Akha les gendarmes, ça fait poursuite n jet-ski Y a le nord, le sud réunis dis-moi, on bais qui ? Chargé Guardia Civil, on paye, on v'-esqui Pourquoi le temps passe si vite, faut être vi-vif d'esprit Ouais ouais Issu des classes sociales les plus basses du coin coin Tu comprends quand on tape du poing Les trois-quarts d'ces tocards ne fument que du foin Faut en faire deux fois plus, boy, avant d'en faire moins oui Désolé d'être distant, les humains m'ont déçu Toujours en retrait comme si j'étais DC Tu sais, j'me remets facilement d'une blessure mais j'oublierai jamais celui qui m'a blessé nan, nan, nan, nan Ambidextre nan, la droite et la gauche partent en vitesse poh, poh J'sors du restau' en état d'ivresse, ça boit du Ruinart, pas d'la Guinness Toujours en finesse, c'est les pays d'l'Est, mental de baisé Pas d'paroles agressives, si j't'aime pas, j'te regarde pas, me force pas à t'blesser Y a un 9 m' auto' juste au dessus d'mon fessier, tah, tah, tah You might also like Une sacoche et du shit, jmen fais un en bas d'Notre-Dame J'ai un scooter de touriste, j'pourrais bander jusqu'à Paname Chicha devant la mer, elle m'fait la crise, elle m'piste à mort Elle m'demande si j'ai du feu, elle m'dit Tu es trop beau, tu as des yeux d'amour, eh On reprend, mets les gaz, mets le bénéf' dans la Grey Goose ah Appelle deux-trois pétasses, parce qu'ils ont les crocs, les cous' Moi, j'ai pas acheté la Rolex pour la montrer sur Snap' à toute la terre Le sancho, moi, j'suis comme toi, j'm'en bats les couilles d'être un rappeur ouais C'est la réalité, ils ont réalisé ouais En RS maquillée, à la rue, marié R-one, casque Araï, on fume, on fly, davaï, davaï Boxe thaï, sors le nine, ça va la gratter toute la night Par les bleus, les p'tits s'font courser, je tiens à demain comme un trophée Comme le champagne, j'le fais mousser, c'pas au même prix qu'on l'a touché PCS, monnaie dans le ciel, 4x4 avec les feux matriciels Sur l'boulevard, je roule en deuxième, la fumée méditerranéenne Dans l'vaisseau comme un alien, au début, j'étais 3ariane Prie le ciel, on tire les ficelles, ton p'tit réseau, on le démantèle J'ai mouillé mon pouce, j'comptais le biff, j'suis solide, j'tiens la boutique Seule solution me donner aux flics, j'fais des spliffs, j'fais des drifts J'ai pas appris à respecter les lois, j'fais une grille devant mon tarot Rolex au poing, dans tous les coups comme Mino Raiola Au-dessus des lois, incognito, j'coffre pour le parloir Rolex au poing, dans tous les coups comme Mino Raiola Quand je kicke, je boxe à la Bomaye Oh, grinta quand faut mailler Allez, stoppe tout, fini de racailler On pète le Chivas loin du palier Number one, tu peux parier parier On fait du bruit jusqu'à Paris-oh Marseille, on vise haut Reste sur le té-c', t'es au fond de l'eau J'suis à l'Exit ou au Beau Rivage J'bois la Get 27 avec mes sauvages Y a des tchoutchs mais j'suis marié, n'aie pas la rage J'en place une pour les frérots enfermés en cage ah, ah Fin d'charbon, j'rentre de mission, j'pense qu'aux kichtas, c'est le zoo Le 17, c'est jamais le sang, ah, fais vite, envoie mes sous C'est caliente, la me-ar dans le dos au cas où j'croise un coño drr Et sur les rrains-te, ça revend que la ppe-f', y a même des tactiques promo Jack Da', bolide, j'ai cramé l'chrono, trop chaud, elle, elle bouge le boule sur la sono Merco, on va pas rentrer, il est trop tôt, c'est costaud, aujourd'hui, j'ai pas dit d'gros mot Bécane, calibre, destin sali Fefe d'l'année, nostra cosa Kichta d'Tony, classe comme Many On va t'caner, fais pas l'Sossa Cartel, Cali, Marseille, Paris Si tu as trahi, rafale, Kala' Elle veut pas d'mari, elle veut s'marrer Cocktails, carré, soirée, balade Rafale sur un quatre-temps ou sur Vespa Pose pas d'question, essaie, qu'est-ce t'as ? Ouais, j'pars d'par terre mais j'suis partout Marseille, bébé, partir, j'peux pas C'est réel, ma ruelle, j'tourne sans phares J'ai mes kheys et mon compte encaisse des k Ah selem, j't'ai pas reconnu sous l'casque Le p'tit a pété les kisdés sur l'toit J'fais plus les fils, ça démarre sans contact J'fuis plus les flics, j'ai la carte dans l'Sportback Petite brune, j'aime trop son bon teint Vodka-litchi, dans la bouteille Badoit J'suis pas trop , cinq piges en Requins sur l'Piwi Maghrébin, KB9, Hakimi, elle aime mon flow, mes gimmicks J'suis pas trop , cinq piges en Requins sur l'Piwi Maghrébin, KB9, Hakimi, elle aime mon flow, mes gimmicks pe-fra C'est la réalité, ils ont réalisé ouais En RS maquillée, à la rue, marié R-one, casque Araï, on fume, on fly, davaï, davaï Boxe thaï, sors le nine, ça veut la gratter toute la night</t>
+          <t>SMR Beatmaking Han, habibti, dans le tier-quar, dans le noir, ça bibi Ça veut la zone, contrôler comme les Peaky J'roule un joint, j'fais ma potion, Siroc fruits rouges Sous Balenciaga, Fe-Fe, moula, cuir rouge J'crois qu'ils veulent mes couilles et ma teub ma teub J'vois qu'ils feraient tout pour m'atteindre m'atteindre Quand je vise le but, je l'atteins drr C'est rien100rien mais c'est anti-bâtard Akha les gendarmes, ça fait poursuite n jet-ski Y a le nord, le sud réunis dis-moi, on bais qui ? Chargé Guardia Civil, on paye, on v'-esqui Pourquoi le temps passe si vite, faut être vi-vif d'esprit Ouais ouais Issu des classes sociales les plus basses du coin coin Tu comprends quand on tape du poing Les trois-quarts d'ces tocards ne fument que du foin Faut en faire deux fois plus, boy, avant d'en faire moins oui Désolé d'être distant, les humains m'ont déçu Toujours en retrait comme si j'étais DC Tu sais, j'me remets facilement d'une blessure mais j'oublierai jamais celui qui m'a blessé nan, nan, nan, nan Ambidextre nan, la droite et la gauche partent en vitesse poh, poh J'sors du restau' en état d'ivresse, ça boit du Ruinart, pas d'la Guinness Toujours en finesse, c'est les pays d'l'Est, mental de baisé Pas d'paroles agressives, si j't'aime pas, j'te regarde pas, me force pas à t'blesser Y a un 9 m' auto' juste au dessus d'mon fessier, tah, tah, tah Une sacoche et du shit, jmen fais un en bas d'Notre-Dame J'ai un scooter de touriste, j'pourrais bander jusqu'à Paname Chicha devant la mer, elle m'fait la crise, elle m'piste à mort Elle m'demande si j'ai du feu, elle m'dit Tu es trop beau, tu as des yeux d'amour, eh On reprend, mets les gaz, mets le bénéf' dans la Grey Goose ah Appelle deux-trois pétasses, parce qu'ils ont les crocs, les cous' Moi, j'ai pas acheté la Rolex pour la montrer sur Snap' à toute la terre Le sancho, moi, j'suis comme toi, j'm'en bats les couilles d'être un rappeur ouais C'est la réalité, ils ont réalisé ouais En RS maquillée, à la rue, marié R-one, casque Araï, on fume, on fly, davaï, davaï Boxe thaï, sors le nine, ça va la gratter toute la night Par les bleus, les p'tits s'font courser, je tiens à demain comme un trophée Comme le champagne, j'le fais mousser, c'pas au même prix qu'on l'a touché PCS, monnaie dans le ciel, 4x4 avec les feux matriciels Sur l'boulevard, je roule en deuxième, la fumée méditerranéenne Dans l'vaisseau comme un alien, au début, j'étais 3ariane Prie le ciel, on tire les ficelles, ton p'tit réseau, on le démantèle J'ai mouillé mon pouce, j'comptais le biff, j'suis solide, j'tiens la boutique Seule solution me donner aux flics, j'fais des spliffs, j'fais des drifts J'ai pas appris à respecter les lois, j'fais une grille devant mon tarot Rolex au poing, dans tous les coups comme Mino Raiola Au-dessus des lois, incognito, j'coffre pour le parloir Rolex au poing, dans tous les coups comme Mino Raiola Quand je kicke, je boxe à la Bomaye Oh, grinta quand faut mailler Allez, stoppe tout, fini de racailler On pète le Chivas loin du palier Number one, tu peux parier parier On fait du bruit jusqu'à Paris-oh Marseille, on vise haut Reste sur le té-c', t'es au fond de l'eau J'suis à l'Exit ou au Beau Rivage J'bois la Get 27 avec mes sauvages Y a des tchoutchs mais j'suis marié, n'aie pas la rage J'en place une pour les frérots enfermés en cage ah, ah Fin d'charbon, j'rentre de mission, j'pense qu'aux kichtas, c'est le zoo Le 17, c'est jamais le sang, ah, fais vite, envoie mes sous C'est caliente, la me-ar dans le dos au cas où j'croise un coño drr Et sur les rrains-te, ça revend que la ppe-f', y a même des tactiques promo Jack Da', bolide, j'ai cramé l'chrono, trop chaud, elle, elle bouge le boule sur la sono Merco, on va pas rentrer, il est trop tôt, c'est costaud, aujourd'hui, j'ai pas dit d'gros mot Bécane, calibre, destin sali Fefe d'l'année, nostra cosa Kichta d'Tony, classe comme Many On va t'caner, fais pas l'Sossa Cartel, Cali, Marseille, Paris Si tu as trahi, rafale, Kala' Elle veut pas d'mari, elle veut s'marrer Cocktails, carré, soirée, balade Rafale sur un quatre-temps ou sur Vespa Pose pas d'question, essaie, qu'est-ce t'as ? Ouais, j'pars d'par terre mais j'suis partout Marseille, bébé, partir, j'peux pas C'est réel, ma ruelle, j'tourne sans phares J'ai mes kheys et mon compte encaisse des k Ah selem, j't'ai pas reconnu sous l'casque Le p'tit a pété les kisdés sur l'toit J'fais plus les fils, ça démarre sans contact J'fuis plus les flics, j'ai la carte dans l'Sportback Petite brune, j'aime trop son bon teint Vodka-litchi, dans la bouteille Badoit J'suis pas trop , cinq piges en Requins sur l'Piwi Maghrébin, KB9, Hakimi, elle aime mon flow, mes gimmicks J'suis pas trop , cinq piges en Requins sur l'Piwi Maghrébin, KB9, Hakimi, elle aime mon flow, mes gimmicks pe-fra C'est la réalité, ils ont réalisé ouais En RS maquillée, à la rue, marié R-one, casque Araï, on fume, on fly, davaï, davaï Boxe thaï, sors le nine, ça veut la gratter toute la night</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Eh, eh, eh Elle avait des formes d'Amérique Elle avait des formes, formes, formes d'Amérique J'ai mes torts j'ai mes torts mais j'la mérite J'ai mes torts, mes torts, mes torts mais j'la mérite Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba Je suis frais, dernière paire aux pieds, ça va plaire aux p'tits bang, bang La carrière OP s'est pas fait au pif bang, bang J'vise la carotide pour la garantie bang, bang J't'ouvre la porte d'mon cur pour la galanterie bang, bang Bi-billets colorés, pas b'soin d'plaire aux filles bang, bang Veulent me voir au bled, j'suis sur pilotis bang, bang J'ai fait gaffe aux traîtres, j'ai d'jà fait le tri bang, bang J'ai fait gaffe aux traîtres, j'ai d'jà fait le tri Discret et paro, j'tourne en bécane, j'suis loin de tout, j'aime quand c'est calme Diamant qui brille n'a pas de prix, j'y pense pas, j'bicrave les kil' You might also like Elle avait des formes d'Amérique Elle avait des formes, formes, formes d'Amérique d'Amérique J'ai mes torts j'ai mes torts mais j'la mérite mais j'la mérite J'ai mes torts, mes torts, mes torts mais j'la mérite Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba Toi et moi, c'est un casse-tête casse-tête Tu m'as fait comprendre que maintenant, plus rien t'achètes t'achètes Bébé, rembobine la cassette cassette Ils nous veulent du mal, faut qu'on s'aime en cachette cachette J'ai beau faire l'tour du monde du monde J'te laisse réfléchir mais tu sais qu'c'est long sais qu'c'est long Y a que toi qui m'dit non, wAllah y a que toi qui m'dit non Elle avait des formes d'Amérique Elle avait des formes, formes, formes d'Amérique d'Amérique J'ai mes torts j'ai mes torts mais j'la mérite mais j'la mérite J'ai mes torts, mes torts, mes torts mais j'la mérite Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba</t>
+          <t>Eh, eh, eh Elle avait des formes d'Amérique Elle avait des formes, formes, formes d'Amérique J'ai mes torts j'ai mes torts mais j'la mérite J'ai mes torts, mes torts, mes torts mais j'la mérite Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba Je suis frais, dernière paire aux pieds, ça va plaire aux p'tits bang, bang La carrière OP s'est pas fait au pif bang, bang J'vise la carotide pour la garantie bang, bang J't'ouvre la porte d'mon cur pour la galanterie bang, bang Bi-billets colorés, pas b'soin d'plaire aux filles bang, bang Veulent me voir au bled, j'suis sur pilotis bang, bang J'ai fait gaffe aux traîtres, j'ai d'jà fait le tri bang, bang J'ai fait gaffe aux traîtres, j'ai d'jà fait le tri Discret et paro, j'tourne en bécane, j'suis loin de tout, j'aime quand c'est calme Diamant qui brille n'a pas de prix, j'y pense pas, j'bicrave les kil' Elle avait des formes d'Amérique Elle avait des formes, formes, formes d'Amérique d'Amérique J'ai mes torts j'ai mes torts mais j'la mérite mais j'la mérite J'ai mes torts, mes torts, mes torts mais j'la mérite Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba Toi et moi, c'est un casse-tête casse-tête Tu m'as fait comprendre que maintenant, plus rien t'achètes t'achètes Bébé, rembobine la cassette cassette Ils nous veulent du mal, faut qu'on s'aime en cachette cachette J'ai beau faire l'tour du monde du monde J'te laisse réfléchir mais tu sais qu'c'est long sais qu'c'est long Y a que toi qui m'dit non, wAllah y a que toi qui m'dit non Elle avait des formes d'Amérique Elle avait des formes, formes, formes d'Amérique d'Amérique J'ai mes torts j'ai mes torts mais j'la mérite mais j'la mérite J'ai mes torts, mes torts, mes torts mais j'la mérite Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba Galouli kedaba, kedaba, kedaba</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Zeg P On Da Trax Bourgeoisie, bourgeoisie, bourgeoisie Famille nombreuse, famille pleine C'est vrai qu'la vie va vite mais j'veux vivre en paix À l'année, on peut fumer un kil' ou deux Mais fréro, j'te jure, ici, on fait c'qu'on peut on fait c'qu'on peut, gars On fait c'qu'on peut on fait c'qu'on peut, gars On fait c'qu'on peut parce que la vie nous a baisé baisé, rebaisé On fait c'qu'on peut, leurs matraques aiment nous caresser hein, ta mère HLM, on deviendra des Gucci men Gucci, Gucci Inscrit à la SACEM sans papiers français Meugi, Meugiwarano P'tit d'la cité, tu sais qu'il faut vivre tes rêves Reste pas bloqué dans le tieks Calibre chargé mais ça s'enraille T-max 520 sans frein Niquer des re-mes, ça sera sans fin Les grosses majors nous ont choisi Pour faire danser la bourgeoisie Sur les plateaux d'télé, l'rappeur, on s'fout d'sa gueule hé, hé, hé, hé En sachant qu'ils connaissent par cur son single Ici, c'est la rue, crois pas qu'on joue un rôle J'fais du rap pour éviter d'vendre dans un hall You might also like Au fond d'mon quartier, au fond d'mon quartier J'veux m'en sortir, comment faire ? J'veux m'en sortir, comment faire ? Au fond d'mon quartier, au fond d'mon quartier J'veux m'en sortir, comment faire ? Faire danser la bourgeoisie Bourgeoisie, faire danser la bourgeoisie hé, hé, hé, hé Bourgeoisie, faire danser la bourgeoisie hé, hé, hé, hé Bourgeoisie, faire danser la bourgeoisie hé, hé, hé, hé Bourgeoisie, faire danser la bourgeoisie hé, hé, hé, hé C'est chez nous qu'les condés pètent à la porte, six heures du mat' Et c'est sur nous qu'on enquête c'est sur nous qu'on fait des enquêtes Le jour de gloire est arrivé Vodka poire , dans l'square, c'est sombre Tu t'en sors avec du sursis Un outrage, tu r'pars en zonz' Les civils dans l'périmètre C'est pour ça qu'nos parents songent De père en fils, c'est la hess Demande pas de vivre avec non, jamais, fils de pute Dans Paris-centre, ça vend la cess Quand la bourgeoisie fait la fête J'encaisse, j'encaisse, j'ai qu'ça en tête qu'ça en tête, bâtard, bâtard De faire danser la bourgeoisie ta mère danse, ta mère danse Je rappe, je chante, prends pas la tête nan, nan Bénèf' du terrain, claque-le sur Rue Ponthieu Tu finis au D1 sans rien, frérot, maintenant, prie le bon Dieu Au fond d'mon quartier, au fond d'mon quartier J'veux m'en sortir, comment faire ? J'veux m'en sortir, comment faire ? Au fond d'mon quartier, au fond d'mon quartier J'veux m'en sortir, comment faire ? Faire danser la bourgeoisie Bourgeoisie, faire danser la bourgeoisie hé, hé, hé, hé Bourgeoisie, faire danser la bourgeoisie hé, hé, hé, hé Bourgeoisie, faire danser la bourgeoisie hé, hé, hé, hé Bourgeoisie, faire danser la bourgeoisie hé, hé, hé, hé J'ai grandi dans l'HLM hé, hé, hé, hé J'ai grandi dans l'HLM hé, hé, hé, hé J'ai grandi dans l'HLM hé, hé, hé, hé J'ai grandi dans l'HLM hé, hé, hé, hé</t>
+          <t>Zeg P On Da Trax Bourgeoisie, bourgeoisie, bourgeoisie Famille nombreuse, famille pleine C'est vrai qu'la vie va vite mais j'veux vivre en paix À l'année, on peut fumer un kil' ou deux Mais fréro, j'te jure, ici, on fait c'qu'on peut on fait c'qu'on peut, gars On fait c'qu'on peut on fait c'qu'on peut, gars On fait c'qu'on peut parce que la vie nous a baisé baisé, rebaisé On fait c'qu'on peut, leurs matraques aiment nous caresser hein, ta mère HLM, on deviendra des Gucci men Gucci, Gucci Inscrit à la SACEM sans papiers français Meugi, Meugiwarano P'tit d'la cité, tu sais qu'il faut vivre tes rêves Reste pas bloqué dans le tieks Calibre chargé mais ça s'enraille T-max 520 sans frein Niquer des re-mes, ça sera sans fin Les grosses majors nous ont choisi Pour faire danser la bourgeoisie Sur les plateaux d'télé, l'rappeur, on s'fout d'sa gueule hé, hé, hé, hé En sachant qu'ils connaissent par cur son single Ici, c'est la rue, crois pas qu'on joue un rôle J'fais du rap pour éviter d'vendre dans un hall Au fond d'mon quartier, au fond d'mon quartier J'veux m'en sortir, comment faire ? J'veux m'en sortir, comment faire ? Au fond d'mon quartier, au fond d'mon quartier J'veux m'en sortir, comment faire ? Faire danser la bourgeoisie Bourgeoisie, faire danser la bourgeoisie hé, hé, hé, hé Bourgeoisie, faire danser la bourgeoisie hé, hé, hé, hé Bourgeoisie, faire danser la bourgeoisie hé, hé, hé, hé Bourgeoisie, faire danser la bourgeoisie hé, hé, hé, hé C'est chez nous qu'les condés pètent à la porte, six heures du mat' Et c'est sur nous qu'on enquête c'est sur nous qu'on fait des enquêtes Le jour de gloire est arrivé Vodka poire , dans l'square, c'est sombre Tu t'en sors avec du sursis Un outrage, tu r'pars en zonz' Les civils dans l'périmètre C'est pour ça qu'nos parents songent De père en fils, c'est la hess Demande pas de vivre avec non, jamais, fils de pute Dans Paris-centre, ça vend la cess Quand la bourgeoisie fait la fête J'encaisse, j'encaisse, j'ai qu'ça en tête qu'ça en tête, bâtard, bâtard De faire danser la bourgeoisie ta mère danse, ta mère danse Je rappe, je chante, prends pas la tête nan, nan Bénèf' du terrain, claque-le sur Rue Ponthieu Tu finis au D1 sans rien, frérot, maintenant, prie le bon Dieu Au fond d'mon quartier, au fond d'mon quartier J'veux m'en sortir, comment faire ? J'veux m'en sortir, comment faire ? Au fond d'mon quartier, au fond d'mon quartier J'veux m'en sortir, comment faire ? Faire danser la bourgeoisie Bourgeoisie, faire danser la bourgeoisie hé, hé, hé, hé Bourgeoisie, faire danser la bourgeoisie hé, hé, hé, hé Bourgeoisie, faire danser la bourgeoisie hé, hé, hé, hé Bourgeoisie, faire danser la bourgeoisie hé, hé, hé, hé J'ai grandi dans l'HLM hé, hé, hé, hé J'ai grandi dans l'HLM hé, hé, hé, hé J'ai grandi dans l'HLM hé, hé, hé, hé J'ai grandi dans l'HLM hé, hé, hé, hé</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Baille Broliker Productions J'suis ton Clyde, t'es ma Bonnie J'ai l'écaille qu'il a, Tony Les écoute pas, ces thos-my Laisse-les parler, c'est gratuit Bonnie, cache mon brolique si j'me fais péter par les flics La rue n'avait rien à m'offrir, à part une plaquette que j'effrite Sous l'matelas, tu trouveras une sse-lia, t'iras t'habiller où tu veux J'sortirai du placard comme une sse-ma, on ira faire la guerre à deux Bébé, monte dans l'Audi, ça remplace le pilotis J'vais pas te dire que je t'aime mais j'te laisserai piloter Ma Bonnie m'a connu jeune quand je trainais dans la zone Y avait pas encore de love, j'me comportais comme un fauve Olala, ma Bonnie À deux dans la tchoppe, on va récidiver Promis J'calcule plus ces folles, c'est toi que j'ai visé Olala, ma Bonnie À deux dans la tchoppe, on va récidiver Promis J'ai payé la dot et tu l'as mérité You might also like Olala, ma Bonnie, Bonnie, Bonnie Bonnie, Bonnie, Bonnie Olala, ma Bonnie, Bonnie, Bonnie Bonnie, Bonnie, Bonnie Viens, on s'barre de là, sont bons qu'à faire des ronds à la chicha Viens, on s'barre de là, j'ai de vrais tuyaux vers Marbella Après, on ira où ça t'tente, j'ai deux casques Araï dans l'5.30 J'ai rangé le mauve dans la sacoche, j'te dirai des mots pour qu'ça t'touche Bébé, monte dans l'Audi, ça remplace le pilotis J'vais pas te dire que je t'aime mais j'te laisserai piloter Ma Bonnie m'a connu jeune quand je trainais dans la zone Y avait pas encore de love, j'me comportais comme un fauve Olala, ma Bonnie À deux dans la tchoppe, on va récidiver Promis J'calcule plus ces folles, c'est toi que j'ai visé Olala, ma Bonnie À deux dans la tchoppe, on va récidiver Promis J'ai payé la dot et tu l'as mérité Olala, ma Bonnie, Bonnie, Bonnie Bonnie, Bonnie, Bonnie Olala, ma Bonnie, Bonnie, Bonnie Bonnie, Bonnie, Bonnie J'suis ton Clyde, t'es ma Bonnie J'suis ton Clyde, t'es ma Bonnie J'suis ton Clyde, t'es ma Bonnie J'suis ton Clyde, t'es ma Bonnie</t>
+          <t>Baille Broliker Productions J'suis ton Clyde, t'es ma Bonnie J'ai l'écaille qu'il a, Tony Les écoute pas, ces thos-my Laisse-les parler, c'est gratuit Bonnie, cache mon brolique si j'me fais péter par les flics La rue n'avait rien à m'offrir, à part une plaquette que j'effrite Sous l'matelas, tu trouveras une sse-lia, t'iras t'habiller où tu veux J'sortirai du placard comme une sse-ma, on ira faire la guerre à deux Bébé, monte dans l'Audi, ça remplace le pilotis J'vais pas te dire que je t'aime mais j'te laisserai piloter Ma Bonnie m'a connu jeune quand je trainais dans la zone Y avait pas encore de love, j'me comportais comme un fauve Olala, ma Bonnie À deux dans la tchoppe, on va récidiver Promis J'calcule plus ces folles, c'est toi que j'ai visé Olala, ma Bonnie À deux dans la tchoppe, on va récidiver Promis J'ai payé la dot et tu l'as mérité Olala, ma Bonnie, Bonnie, Bonnie Bonnie, Bonnie, Bonnie Olala, ma Bonnie, Bonnie, Bonnie Bonnie, Bonnie, Bonnie Viens, on s'barre de là, sont bons qu'à faire des ronds à la chicha Viens, on s'barre de là, j'ai de vrais tuyaux vers Marbella Après, on ira où ça t'tente, j'ai deux casques Araï dans l'5.30 J'ai rangé le mauve dans la sacoche, j'te dirai des mots pour qu'ça t'touche Bébé, monte dans l'Audi, ça remplace le pilotis J'vais pas te dire que je t'aime mais j'te laisserai piloter Ma Bonnie m'a connu jeune quand je trainais dans la zone Y avait pas encore de love, j'me comportais comme un fauve Olala, ma Bonnie À deux dans la tchoppe, on va récidiver Promis J'calcule plus ces folles, c'est toi que j'ai visé Olala, ma Bonnie À deux dans la tchoppe, on va récidiver Promis J'ai payé la dot et tu l'as mérité Olala, ma Bonnie, Bonnie, Bonnie Bonnie, Bonnie, Bonnie Olala, ma Bonnie, Bonnie, Bonnie Bonnie, Bonnie, Bonnie J'suis ton Clyde, t'es ma Bonnie J'suis ton Clyde, t'es ma Bonnie J'suis ton Clyde, t'es ma Bonnie J'suis ton Clyde, t'es ma Bonnie</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Faut faire la guerre pour être dans d'beaux draps, j'suis sous un million d'étoiles, hein, mmh On s'connait depuis tits-pe, il fait partie de ma famille Même si les années passent et qu'mes amitiés ont fané Pour lui, j'pourrais rafaler sur l'ennemi parce que j'le valide Y aura des balles perdues comme dans le cartel de Cali bang, bang, bang, bang Un peu trop de grammes ici, une balle dans la cabeza, bébé, si t'es dans ma cible, t'es dans la merde Affaire classée, homicide, là, j'suis posé à la cité, schlag me passe un coup d'fil bang, bang, bang, bang Mes frères ont pris des années mes frères ont pris des années Nos peines, nos larmes sont salées nos peines, nos larmes sont salées Mes frères ont pris des années mes frères ont pris des années La moula cellophanée On restera deux frères avec un mental en béton Fleury ou Nanterre, y a que le ciel qui te répond J'ai assumé ta peine, j'ai pas trouvé ça embêtant Ma vie s'est arrêtée le jour de ton enterrement On restera deux frères avec un mental en béton Fleury ou Nanterre, y a que le ciel qui te répond J'ai assumé ta peine, j'ai pas trouvé ça embêtant Ma vie s'est arrêtée le jour de ton enterrement You might also like On restera des frères avant tout, tu t'rappelles, maman t'aimait trop Le passé mais tout m'rattrape, j'ai l'cur noyé dans les blèmes-pro J'vends plus ça, j'suis en hess, les p'tits graillent et m'ont dépassé J'suis trop là, j'ai pas un, j'suis à deux doigts d'faire une dinguerie Et qui pense à moi ? J'dois faire des sous, ma mère vieillit J'ai toutes les cartes en main mais j'sors du shtar et j'ai grandi T'es sur un autre chemin, on s'voit de loin, le cur est prêt J'fais des affaires mais y a des traîtres, les larmes couleront, demain, j'suis mort Mes frères ont pris des années mes frères ont pris des années Nos peines, nos larmes sont salées nos peines, nos larmes sont salées Mes frères ont pris des années mes frères ont pris des années La moula cellophanée On restera deux frères avec un mental en béton Fleury ou Nanterre, y a que le ciel qui te répond J'ai assumé ta peine, j'ai pas trouvé ça embêtant Ma vie s'est arrêtée le jour de ton enterrement On restera deux frères avec un mental en béton Fleury ou Nanterre, y a que le ciel qui te répond J'ai assumé ta peine, j'ai pas trouvé ça embêtant Ma vie s'est arrêtée le jour de ton enterrement On s'ra archi mieux demain, y a des vils-ci qui encaissent Celui qui l'dit qui encaisse, que des salopes à part entière J'peux faire le tour de la Terre, j'viendrais toujours faire le tour d'ma tess J'suis de la team fédérateur, loin de la team des faux rappeurs J'en laisserai même pour les autres, même si ils m'laissaient que les os Tu fais du bruit, ça résonne, c'est en silence que j't'assomme On fait comme si tout allait, j'ai checké l'ennemi tout à l'heure Et après, on passe à l'acte, bang, bang, bang, bang On restera deux frères avec un mental en béton Fleury ou Nanterre, y a que le ciel qui te répond J'ai assumé ta peine, j'ai pas trouvé ça embêtant Ma vie s'est arrêtée le jour de ton enterrement On restera deux frères avec un mental en béton Fleury ou Nanterre, y a que le ciel qui te répond J'ai assumé ta peine, j'ai pas trouvé ça embêtant Ma vie s'est arrêtée le jour de ton enterrement</t>
+          <t>Faut faire la guerre pour être dans d'beaux draps, j'suis sous un million d'étoiles, hein, mmh On s'connait depuis tits-pe, il fait partie de ma famille Même si les années passent et qu'mes amitiés ont fané Pour lui, j'pourrais rafaler sur l'ennemi parce que j'le valide Y aura des balles perdues comme dans le cartel de Cali bang, bang, bang, bang Un peu trop de grammes ici, une balle dans la cabeza, bébé, si t'es dans ma cible, t'es dans la merde Affaire classée, homicide, là, j'suis posé à la cité, schlag me passe un coup d'fil bang, bang, bang, bang Mes frères ont pris des années mes frères ont pris des années Nos peines, nos larmes sont salées nos peines, nos larmes sont salées Mes frères ont pris des années mes frères ont pris des années La moula cellophanée On restera deux frères avec un mental en béton Fleury ou Nanterre, y a que le ciel qui te répond J'ai assumé ta peine, j'ai pas trouvé ça embêtant Ma vie s'est arrêtée le jour de ton enterrement On restera deux frères avec un mental en béton Fleury ou Nanterre, y a que le ciel qui te répond J'ai assumé ta peine, j'ai pas trouvé ça embêtant Ma vie s'est arrêtée le jour de ton enterrement On restera des frères avant tout, tu t'rappelles, maman t'aimait trop Le passé mais tout m'rattrape, j'ai l'cur noyé dans les blèmes-pro J'vends plus ça, j'suis en hess, les p'tits graillent et m'ont dépassé J'suis trop là, j'ai pas un, j'suis à deux doigts d'faire une dinguerie Et qui pense à moi ? J'dois faire des sous, ma mère vieillit J'ai toutes les cartes en main mais j'sors du shtar et j'ai grandi T'es sur un autre chemin, on s'voit de loin, le cur est prêt J'fais des affaires mais y a des traîtres, les larmes couleront, demain, j'suis mort Mes frères ont pris des années mes frères ont pris des années Nos peines, nos larmes sont salées nos peines, nos larmes sont salées Mes frères ont pris des années mes frères ont pris des années La moula cellophanée On restera deux frères avec un mental en béton Fleury ou Nanterre, y a que le ciel qui te répond J'ai assumé ta peine, j'ai pas trouvé ça embêtant Ma vie s'est arrêtée le jour de ton enterrement On restera deux frères avec un mental en béton Fleury ou Nanterre, y a que le ciel qui te répond J'ai assumé ta peine, j'ai pas trouvé ça embêtant Ma vie s'est arrêtée le jour de ton enterrement On s'ra archi mieux demain, y a des vils-ci qui encaissent Celui qui l'dit qui encaisse, que des salopes à part entière J'peux faire le tour de la Terre, j'viendrais toujours faire le tour d'ma tess J'suis de la team fédérateur, loin de la team des faux rappeurs J'en laisserai même pour les autres, même si ils m'laissaient que les os Tu fais du bruit, ça résonne, c'est en silence que j't'assomme On fait comme si tout allait, j'ai checké l'ennemi tout à l'heure Et après, on passe à l'acte, bang, bang, bang, bang On restera deux frères avec un mental en béton Fleury ou Nanterre, y a que le ciel qui te répond J'ai assumé ta peine, j'ai pas trouvé ça embêtant Ma vie s'est arrêtée le jour de ton enterrement On restera deux frères avec un mental en béton Fleury ou Nanterre, y a que le ciel qui te répond J'ai assumé ta peine, j'ai pas trouvé ça embêtant Ma vie s'est arrêtée le jour de ton enterrement</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Affranchis Rebeu mat, DZ sur l'maillot, casquette bien baissée Rebeu mat, DZ sur l'maillot, casquette bien baissée Paire de Nike, et grosse paire de couilles, plus d'période d'essai Plus ton time, c'est l'93 dans l'coup, gorge profonde, décède Garde ton calme, ici tout l'monde est fou, le plus armé décide On t'fait du charme, p'tite beauté t'es belle, tu r'viens chargée des îles Faut d'l'oseille, le silence reste vital, tiens ta langue l'ami Comment veux-tu qu'on rêve ? C'est réel, le .357 sous un lit 25 piges, trois soces et tes rappeurs frustrés meurent d'anxiété Pas d'ancienneté, que du sang neuf, connu d'chienneté, avant sans leum Veulent nous ken, on le fera avant, tire le frein à main Prends le Glock de la boîte à gants, ils se barrent à 15 Peu-fra On a tout fait pour elle, elle veut pas devenir notre amie Tu la récolte en milliers, la nuit en te-Smar sur Paris Ouais, j'te parle bien du nerf, pour elle les nerfs à vif La maille, la maille On a tout fait pour elle, elle veut pas devenir notre amie Tu la récolte en milliers, la nuit en te-Smar sur Paris Ouais, j'te parle bien du nerf, pour elle les nerfs à vif La maille, la maille You might also like Bref, revenons à la ue-r J'suis Parisien, un d'mes potos fait la une Tu t'balades le tard-pé sous la ceinture Bécane et pleins phares et là tu vois qu'tout sature Tu sors de chez toi, t'as pas l'temps d'caler ça Les keufs sont déjà en train d'décélérer On est rusés, on a grandi comme des rats Dès qu'ils ouvrent la portière, tu fais comme les Cavaler, cavaler dans l'secteur Grillé partout dans la tess quand y a l'inspecteur Chez moi c'est la rue, gros chez moi ça bibi Donc tu veux ton cacheton comme dans The Wire Appel radio dans l'308 Refus d'obtempérer, tards-mo qui rappliquent T'es d'jà rentré chez toi, tu connais la suite T'es d'jà rentré chez toi tu snappes par la vitre ! Un peu silencieux, mais t'inquiètes ma caille Faut mettre des revers pour avoir la médaille Car au quartier c'est sombre comme des funérailles Du jour au lendemain, j'te vois plus c'est hallucinant Chez moi c'est pas un film, on appelle la police, pas Allociné On a tout fait pour elle, elle veut pas devenir notre amie Tu la récolte en milliers, la nuit en te-Smar sur Paris Ouais, j'te parle bien du nerf, pour elle les nerfs à vif La maille, la maille On a tout fait pour elle, elle veut pas devenir notre amie Tu la récolte en milliers, la nuit en te-Smar sur Paris Ouais, j'te parle bien du nerf, pour elle les nerfs à vif La maille, la maille Gang, gang On te passe le salam, salut, prend ça s'allume Et les p'tits frères s'amusent dans des coins insalubres Ton corps allongé dans l'SAMU C'est pour ton bien qu'j'te dis de rester tranquille On s'en bat les couilles d'ta vie et d'ton casier rempli Albinos était Broly, Algérien Végéta Ça tire à la Kalash ou ça tire au Beretta Ça t'efface facile, comme des écrits au Velleda Tu vas pas t'manger un coup, tu vas t'manger un coup d'État On a tout fait pour elle, elle veut pas devenir notre amie Tu la récolte en milliers, la nuit en te-Smar sur Paris Ouais, j'te parle bien du nerf, pour elle les nerfs à vif La maille, la maille On a tout fait pour elle, elle veut pas devenir notre amie Tu la récolte en milliers, la nuit en te-Smar sur Paris Ouais, j'te parle bien du nerf, pour elle les nerfs à vif La maille, la maille1</t>
+          <t>Affranchis Rebeu mat, DZ sur l'maillot, casquette bien baissée Rebeu mat, DZ sur l'maillot, casquette bien baissée Paire de Nike, et grosse paire de couilles, plus d'période d'essai Plus ton time, c'est l'93 dans l'coup, gorge profonde, décède Garde ton calme, ici tout l'monde est fou, le plus armé décide On t'fait du charme, p'tite beauté t'es belle, tu r'viens chargée des îles Faut d'l'oseille, le silence reste vital, tiens ta langue l'ami Comment veux-tu qu'on rêve ? C'est réel, le .357 sous un lit 25 piges, trois soces et tes rappeurs frustrés meurent d'anxiété Pas d'ancienneté, que du sang neuf, connu d'chienneté, avant sans leum Veulent nous ken, on le fera avant, tire le frein à main Prends le Glock de la boîte à gants, ils se barrent à 15 Peu-fra On a tout fait pour elle, elle veut pas devenir notre amie Tu la récolte en milliers, la nuit en te-Smar sur Paris Ouais, j'te parle bien du nerf, pour elle les nerfs à vif La maille, la maille On a tout fait pour elle, elle veut pas devenir notre amie Tu la récolte en milliers, la nuit en te-Smar sur Paris Ouais, j'te parle bien du nerf, pour elle les nerfs à vif La maille, la maille Bref, revenons à la ue-r J'suis Parisien, un d'mes potos fait la une Tu t'balades le tard-pé sous la ceinture Bécane et pleins phares et là tu vois qu'tout sature Tu sors de chez toi, t'as pas l'temps d'caler ça Les keufs sont déjà en train d'décélérer On est rusés, on a grandi comme des rats Dès qu'ils ouvrent la portière, tu fais comme les Cavaler, cavaler dans l'secteur Grillé partout dans la tess quand y a l'inspecteur Chez moi c'est la rue, gros chez moi ça bibi Donc tu veux ton cacheton comme dans The Wire Appel radio dans l'308 Refus d'obtempérer, tards-mo qui rappliquent T'es d'jà rentré chez toi, tu connais la suite T'es d'jà rentré chez toi tu snappes par la vitre ! Un peu silencieux, mais t'inquiètes ma caille Faut mettre des revers pour avoir la médaille Car au quartier c'est sombre comme des funérailles Du jour au lendemain, j'te vois plus c'est hallucinant Chez moi c'est pas un film, on appelle la police, pas Allociné On a tout fait pour elle, elle veut pas devenir notre amie Tu la récolte en milliers, la nuit en te-Smar sur Paris Ouais, j'te parle bien du nerf, pour elle les nerfs à vif La maille, la maille On a tout fait pour elle, elle veut pas devenir notre amie Tu la récolte en milliers, la nuit en te-Smar sur Paris Ouais, j'te parle bien du nerf, pour elle les nerfs à vif La maille, la maille Gang, gang On te passe le salam, salut, prend ça s'allume Et les p'tits frères s'amusent dans des coins insalubres Ton corps allongé dans l'SAMU C'est pour ton bien qu'j'te dis de rester tranquille On s'en bat les couilles d'ta vie et d'ton casier rempli Albinos était Broly, Algérien Végéta Ça tire à la Kalash ou ça tire au Beretta Ça t'efface facile, comme des écrits au Velleda Tu vas pas t'manger un coup, tu vas t'manger un coup d'État On a tout fait pour elle, elle veut pas devenir notre amie Tu la récolte en milliers, la nuit en te-Smar sur Paris Ouais, j'te parle bien du nerf, pour elle les nerfs à vif La maille, la maille On a tout fait pour elle, elle veut pas devenir notre amie Tu la récolte en milliers, la nuit en te-Smar sur Paris Ouais, j'te parle bien du nerf, pour elle les nerfs à vif La maille, la maille1</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Hein La peuf, la peuf, la peuf Hein On le fera nous-même, pas d'gourou dans l'équipe Ton bâton s'est cassé, la roue allait vite La vengeance sera comme un gout d'Aniki J'reviens au bout d'10ans comme le p'tit que t'as niqué Prends tes couilles avec toi, tu verras qu'c'est utile Jreste debout comme lîle d'Haïti J'kick partagé, jai pas de gros appétit J'te pousse un 100 G, pas b'soin de mapplaudir Cur sur la main, rien n'est encore acquis C'est l'bordel dans mon cur comme le sac d'la racli Bébé tu sais bien qu'les je t'aime sert à tchi C'est qu'un mot pour une levrette bien faite chère amie Reufré t'as pas mon level, j'boss 2 fois plus Jsuis frais, tes mauvais élève, non je n'abuse Jsuis sous l'bédo, bédo sous cellophane Ca résonne du 9-3 jusqu'à la Castellane Cet été jsuis posé, ptit cocktail en terrasse H la peuf, c'est réel, ouai la putain dta race Je rêve de gamos, de payer ma baguette en dollars Frappe de Carlos, frappe que fument les taulards Jvais tla mettre, y'a que 2 mon équipe Jsuis fidèle, le monde appartient à ceux qui prenne le ptit dej La peuf c'est Burton, la concu archi lej' Grigri autour d'la taille, bre-som le sortilège Evite la rafale comme dans matrix, c'est réel Fierté DZ, la vengeance est froide c'est l'dégel' Jvoulais jaune et vert, la misère la fuir J'ai dit je l'ai fait sans avoir ton avis, froid glacial cet hiver, tétais où mon ami ? Viens pas cet été pour manger la grillade, personne Marhez comme Ryad Diez Peufra mon propre label, jkick comme Ace, j'produis comme Khaled Jsuis ce p'tit qui t'douillais ton billet quand tu l'envoyais acheter, une p'tite canette Que d'la peu-geuf', que sur palette 9 milimetres s'en fout qu'tu sois balaise Personne Marhez comme Ryad, personne ne kick kima ana Je compte pas sur toi, je compte sur mes oids Allez rentre dans le cercle, type MMA Jsuis pas fan d'la haute couture Jme vois pas marcher dans mon salon HLM avec une paire à mille deux Ptetre quand j'pèterais l'million d'e Mama jsuis ton fils, oui je peux Que dla peu-geuf, ce qu'on veut You might also like Faire du liquide on l'a fait nous même Chacun son style, on la fait nous même Laisse ton legging on le fera nous même Bibi la peuf' on l'a fait nous même X2 On l'a fait nous même On l'a fait nous même On l'a fait nous même On l'a fait nous même H La Peufra le nouveau gros phénomène On l'a fait nous même On le fera nous même X5 PEUFRA !</t>
+          <t>Hein La peuf, la peuf, la peuf Hein On le fera nous-même, pas d'gourou dans l'équipe Ton bâton s'est cassé, la roue allait vite La vengeance sera comme un gout d'Aniki J'reviens au bout d'10ans comme le p'tit que t'as niqué Prends tes couilles avec toi, tu verras qu'c'est utile Jreste debout comme lîle d'Haïti J'kick partagé, jai pas de gros appétit J'te pousse un 100 G, pas b'soin de mapplaudir Cur sur la main, rien n'est encore acquis C'est l'bordel dans mon cur comme le sac d'la racli Bébé tu sais bien qu'les je t'aime sert à tchi C'est qu'un mot pour une levrette bien faite chère amie Reufré t'as pas mon level, j'boss 2 fois plus Jsuis frais, tes mauvais élève, non je n'abuse Jsuis sous l'bédo, bédo sous cellophane Ca résonne du 9-3 jusqu'à la Castellane Cet été jsuis posé, ptit cocktail en terrasse H la peuf, c'est réel, ouai la putain dta race Je rêve de gamos, de payer ma baguette en dollars Frappe de Carlos, frappe que fument les taulards Jvais tla mettre, y'a que 2 mon équipe Jsuis fidèle, le monde appartient à ceux qui prenne le ptit dej La peuf c'est Burton, la concu archi lej' Grigri autour d'la taille, bre-som le sortilège Evite la rafale comme dans matrix, c'est réel Fierté DZ, la vengeance est froide c'est l'dégel' Jvoulais jaune et vert, la misère la fuir J'ai dit je l'ai fait sans avoir ton avis, froid glacial cet hiver, tétais où mon ami ? Viens pas cet été pour manger la grillade, personne Marhez comme Ryad Diez Peufra mon propre label, jkick comme Ace, j'produis comme Khaled Jsuis ce p'tit qui t'douillais ton billet quand tu l'envoyais acheter, une p'tite canette Que d'la peu-geuf', que sur palette 9 milimetres s'en fout qu'tu sois balaise Personne Marhez comme Ryad, personne ne kick kima ana Je compte pas sur toi, je compte sur mes oids Allez rentre dans le cercle, type MMA Jsuis pas fan d'la haute couture Jme vois pas marcher dans mon salon HLM avec une paire à mille deux Ptetre quand j'pèterais l'million d'e Mama jsuis ton fils, oui je peux Que dla peu-geuf, ce qu'on veut Faire du liquide on l'a fait nous même Chacun son style, on la fait nous même Laisse ton legging on le fera nous même Bibi la peuf' on l'a fait nous même X2 On l'a fait nous même On l'a fait nous même On l'a fait nous même On l'a fait nous même H La Peufra le nouveau gros phénomène On l'a fait nous même On le fera nous même X5 PEUFRA !</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>J'suis en bas du block, les journées se défilent Rebeu tes proche du flop, j'parle de qui? Devine Petit jaloux, j'te fuck, en même temps j'te fume T'as pas donné de la force, on refuse le feat J'mets ma dame en cloque, j'veux un petit fils Bien dans mon époque, j'regrette pas les Stan Smith J'rentre dans le game pas pour faire ami-ami Zin' contre 1, Nos victoires, Solidaire avec les miens et la mif Drapeau vert, mais le reste du monde mon paradis J'vais les ué-t, j'reçois des vidéos d'détenus HLM, HLM, triste vécu.. j'suis plus bon que toi wesh fais pas le têtu Capuché, casquetté quand j'veux pas être vue être vu, Peufra J'ai pris le mic, pour les frères et pas les petites connes J'ai chanté, Gramme de peuf et pas la demi-tonne C'est la hess et ouais mon reuf' j'suis pas un mytho Fais pas le timide viens faire ta selfie kho Pas d'chichi ça monte sur BX et les vitrines On se déplace à trois, ouais, j'suis pas une victime J'ai vu des mecs en place taper dans la zipette Pas de numéro d'écrou mais numéro de SIRET Peufra J'braque la misère il me faut de l'argent J'braque la misère il me faut de l'argent J'braque la misère il me faut de l'argent J'braque la misère il me faut de l'argent Peufra You might also like Difficiles sont mes fins de mois, vivre ici moi j'en ai marre Les civils arrivent sans les phares, l'illicite je m'en sépare Difficiles sont mes fins de mois, vivre ici moi j'en ai marre Les civils arrivent sans les phares, l'illicite moi je m'en sépare Ça vient d'Espagne pas un sou en poche Fais pas faire le siste-gro comme tes rappeurs fauchés L'équipe veut que ça brasse des liasses par millier Les games comme les 'tasses on va leur mettre dans le ... L'été à la tess' t'as pas vu la mer La hess te tient en laisse toute l'année 2000 policiers, c'est la guerre mon p'tit gars On prend des risques, on prend pas en juda Croisette de Nice en petit bermuda Qu'est-ce que tu veux que j'te dise, la concu est tout bas Paire d'ass, t'as pigé, j'rentabilise tout ça Là où j'habite t'es heureux quand t'es tout die Va t'renseigner, j'm'arrête que si j'te vois saigner Chez nous y'a que le nif qui parle refré Au final c'est le traître qui reste en retrait Les bonhommes sont fiers, et les liens sont vrais Peufra J'braque la misère il me faut de l'argent J'braque la misère il me faut de l'argent J'braque la misère il me faut de l'argent J'braque la misère il me faut de l'argent Peufra Difficiles sont mes fins de mois, vivre ici moi j'en ai marre Les civils arrivent sans les phares, l'illicite je m'en sépare Difficiles sont mes fins de mois, vivre ici moi j'en ai marre Les civils arrivent sans les phares, l'illicite je m'en sépare</t>
+          <t>J'suis en bas du block, les journées se défilent Rebeu tes proche du flop, j'parle de qui? Devine Petit jaloux, j'te fuck, en même temps j'te fume T'as pas donné de la force, on refuse le feat J'mets ma dame en cloque, j'veux un petit fils Bien dans mon époque, j'regrette pas les Stan Smith J'rentre dans le game pas pour faire ami-ami Zin' contre 1, Nos victoires, Solidaire avec les miens et la mif Drapeau vert, mais le reste du monde mon paradis J'vais les ué-t, j'reçois des vidéos d'détenus HLM, HLM, triste vécu.. j'suis plus bon que toi wesh fais pas le têtu Capuché, casquetté quand j'veux pas être vue être vu, Peufra J'ai pris le mic, pour les frères et pas les petites connes J'ai chanté, Gramme de peuf et pas la demi-tonne C'est la hess et ouais mon reuf' j'suis pas un mytho Fais pas le timide viens faire ta selfie kho Pas d'chichi ça monte sur BX et les vitrines On se déplace à trois, ouais, j'suis pas une victime J'ai vu des mecs en place taper dans la zipette Pas de numéro d'écrou mais numéro de SIRET Peufra J'braque la misère il me faut de l'argent J'braque la misère il me faut de l'argent J'braque la misère il me faut de l'argent J'braque la misère il me faut de l'argent Peufra Difficiles sont mes fins de mois, vivre ici moi j'en ai marre Les civils arrivent sans les phares, l'illicite je m'en sépare Difficiles sont mes fins de mois, vivre ici moi j'en ai marre Les civils arrivent sans les phares, l'illicite moi je m'en sépare Ça vient d'Espagne pas un sou en poche Fais pas faire le siste-gro comme tes rappeurs fauchés L'équipe veut que ça brasse des liasses par millier Les games comme les 'tasses on va leur mettre dans le ... L'été à la tess' t'as pas vu la mer La hess te tient en laisse toute l'année 2000 policiers, c'est la guerre mon p'tit gars On prend des risques, on prend pas en juda Croisette de Nice en petit bermuda Qu'est-ce que tu veux que j'te dise, la concu est tout bas Paire d'ass, t'as pigé, j'rentabilise tout ça Là où j'habite t'es heureux quand t'es tout die Va t'renseigner, j'm'arrête que si j'te vois saigner Chez nous y'a que le nif qui parle refré Au final c'est le traître qui reste en retrait Les bonhommes sont fiers, et les liens sont vrais Peufra J'braque la misère il me faut de l'argent J'braque la misère il me faut de l'argent J'braque la misère il me faut de l'argent J'braque la misère il me faut de l'argent Peufra Difficiles sont mes fins de mois, vivre ici moi j'en ai marre Les civils arrivent sans les phares, l'illicite je m'en sépare Difficiles sont mes fins de mois, vivre ici moi j'en ai marre Les civils arrivent sans les phares, l'illicite je m'en sépare</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cette musique résume ma vie, mes galères Moi, j'ai plus de quarante balais J'ai connu les hauts, les bas, j'ai vendu, j'ai donné mon sang, mon âme, mon temps au quartier Le temps passe et la rue garantit pas l'bonheur J'paye mes pêchés sur terre J'ai quarante ans, toute ma vie dans l'stup' Treize condamnations, j'ai pas eu d'jeunesse Mon histoire c'est réel, regarde les creux d'mes joues, mes veines À vingt ans plein d'amis, jogging Lacoste, Tacchini La vie d'vant moi j'voulais l'argent facile J'braquais, deal, respecté dans tout l'tier-qu' Calibré, j'livrais zipette, trop gentil Bené, moi j'étais plus Zepek J'v-esqui poucaves et porc-épics, mais un matin, escorte, Fleury Les années passent, j'ressors avec l'envie d'récupérer la vie J'ai payé mes pêchés sur Terre, les mains sales Mes idées noires reviennent le soir, j'en dors mal Mon vécu reste légendaire, soldat sans grade Grandi sans repères, la rue m'a mis la bague J'ai dealé, volé, mais rien n'est arrivé Le temps passe, plus un grain dans mon sablier Quarante ans, la rue reste mon alliée Marié, marié, marié À la street, à la rue, moi, j'suis marié À la street, à la rue, moi, j'suis marié Au bitume comme au bloc, moi, j'suis marié Au ter-ter, au ter-ter, j'suis marié You might also like Chez nous, bicrave d'la zipette Du sale, prie pas pour moi si j'dead, compter 100 000 en p'tites liasses Neuf heures du mat', y'a plus d'H, héroïne, ouais, j'étais horrible, vraiment une vie d'chien d'la casse J'ai donné mon âme, mon sang à la ruelle Plus d'chicots, les ch'veux qui tombent, j'ai honte Il manque plus qu'les pompes funèbres P'tit Hornet, si j'te conseille, claque pas ton oseille, investis Et dis-toi qu'le bon Dieu nous surveille, ici J'ai payé mes pêchés sur Terre, les mains sales Mes idées noires reviennent le soir, j'en dors mal Mon vécu reste légendaire, soldat sans Graal Grandi sans repères, la rue m'a mis la bague J'ai dealé, volé, mais rien n'est arrivé Le temps passe, plus un grain dans mon sablier Quarante ans, la rue reste mon alliée Marié, marié, marié À la street, à la rue, moi, j'suis marié À la street, à la rue, moi, j'suis marié Au bitume comme au bloc, moi, j'suis marié Au ter-ter, au ter-ter, j'suis marié J'ai payé mes pêchés sur Terre j'ai payé, j'ai payé, j'ai payé, j'ai payé, j'ai payé Mes idées noires reviennent le soir mes idées noires reviennent le soir Mon vécu reste légendaire La rue m'a mis la bague Grandi sans repères, la rue1</t>
+          <t>Cette musique résume ma vie, mes galères Moi, j'ai plus de quarante balais J'ai connu les hauts, les bas, j'ai vendu, j'ai donné mon sang, mon âme, mon temps au quartier Le temps passe et la rue garantit pas l'bonheur J'paye mes pêchés sur terre J'ai quarante ans, toute ma vie dans l'stup' Treize condamnations, j'ai pas eu d'jeunesse Mon histoire c'est réel, regarde les creux d'mes joues, mes veines À vingt ans plein d'amis, jogging Lacoste, Tacchini La vie d'vant moi j'voulais l'argent facile J'braquais, deal, respecté dans tout l'tier-qu' Calibré, j'livrais zipette, trop gentil Bené, moi j'étais plus Zepek J'v-esqui poucaves et porc-épics, mais un matin, escorte, Fleury Les années passent, j'ressors avec l'envie d'récupérer la vie J'ai payé mes pêchés sur Terre, les mains sales Mes idées noires reviennent le soir, j'en dors mal Mon vécu reste légendaire, soldat sans grade Grandi sans repères, la rue m'a mis la bague J'ai dealé, volé, mais rien n'est arrivé Le temps passe, plus un grain dans mon sablier Quarante ans, la rue reste mon alliée Marié, marié, marié À la street, à la rue, moi, j'suis marié À la street, à la rue, moi, j'suis marié Au bitume comme au bloc, moi, j'suis marié Au ter-ter, au ter-ter, j'suis marié Chez nous, bicrave d'la zipette Du sale, prie pas pour moi si j'dead, compter 100 000 en p'tites liasses Neuf heures du mat', y'a plus d'H, héroïne, ouais, j'étais horrible, vraiment une vie d'chien d'la casse J'ai donné mon âme, mon sang à la ruelle Plus d'chicots, les ch'veux qui tombent, j'ai honte Il manque plus qu'les pompes funèbres P'tit Hornet, si j'te conseille, claque pas ton oseille, investis Et dis-toi qu'le bon Dieu nous surveille, ici J'ai payé mes pêchés sur Terre, les mains sales Mes idées noires reviennent le soir, j'en dors mal Mon vécu reste légendaire, soldat sans Graal Grandi sans repères, la rue m'a mis la bague J'ai dealé, volé, mais rien n'est arrivé Le temps passe, plus un grain dans mon sablier Quarante ans, la rue reste mon alliée Marié, marié, marié À la street, à la rue, moi, j'suis marié À la street, à la rue, moi, j'suis marié Au bitume comme au bloc, moi, j'suis marié Au ter-ter, au ter-ter, j'suis marié J'ai payé mes pêchés sur Terre j'ai payé, j'ai payé, j'ai payé, j'ai payé, j'ai payé Mes idées noires reviennent le soir mes idées noires reviennent le soir Mon vécu reste légendaire La rue m'a mis la bague Grandi sans repères, la rue1</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Les anciens, béret, mocassins, street-crédibilité écoutent du Joe Dassin, impossible d'imiter Paire de TN, jean Dsquared Té-ma la dégaine qui sort du square Cartonne la BM, ils ont pris l'ADN, bombarde, y a la PM triste histoire Dégaine le pistolet, crossée la victime Arrête de faire l'ancien, wesh, ton père le viking Que des gueules d'Africains, pas d'chantage affectif On va t'crosser, crosser jusqu'à trouver de l'or Remettre de l'ordre dans c'game de shmet J'vais coffrer des dollars dans l'meuble de chevet Dédicace aux taulards qui se portent bien Des tractions et des dips, pas besoin du porte-clé Écoute mon album, j'donne la force aux frères Solide comme la tombe quand la porte se ferme La frappe à Gareth, la frappe à Seedorf L'Afrique a subi, l'Europe a ses torts Pefra Descendant d'Boumédiène, faut y aller pour m'atteindre Pas d'représailles, j'vise le haut du bassin Les anciens, béret, mocassins, street-crédibilité écoutent du Joe Dassin, impossible d'imiter You might also like Y a qu'dans ta tête que t'es un you-voi dans ta tête que t'es un you-voi Y a qu'dans ta tête que t'es un you-voi dans ta tête que t'es un you-voi Pas d'boucan, pas d'boucan, pas d'boucan paw, paw Pas d'boucan, pas d'boucan, pas d'boucan paw, paw Au fond du tier-quar, whisky sec, tes cartes On a traîné si tard, on a traîné ces putes J'suis au fond du van, j'étais au fond du trou J'remercie mes fans qui me portent secours T'es pas crédible, j'ai d'la frappe et l'dribble J'ai grave fait l'tri pour démasquer ces traîtres Sur moi, j'ai pris sur moi, j'mets l'prix Pas ton âge, petit, comment refuser l'té-c' ? J'investis d'la pierre et en boîte de nuit, j'te laisse faire la guerre, hein allez, ma gueule J'ai un quart de siècle, j'veux fonder ma mif', fuck ton belvédère, hein fuck, fuck Pas là pour plaire ni pour perdre, mais faire tourner l'terrain Paire de TN, dégaine, voyou, en roue air libre sur un R1, R1, R1 Descendant d'Boumédiène, faut y aller pour m'atteindre Pas d'représailles, j'vise le haut du bassin Les anciens, béret, mocassins, street-crédibilité écoutent du Joe Dassin, impossible d'imiter Y a qu'dans ta tête que t'es un you-voi dans ta tête que t'es un you-voi Y a qu'dans ta tête que t'es un you-voi dans ta tête que t'es un you-voi Pas d'boucan, pas d'boucan, pas d'boucan paw, paw Pas d'boucan, pas d'boucan, pas d'boucan paw, paw Grosse caille-ra, béret, mocassins grosse caille-ra, béret, mocassins J'suis sur les Champs, j'écoute Joe Dassin j'suis sur les Champs, j'écoute Joe Dassin Grosse caille-ra, béret, mocassins grosse caille-ra, béret, mocassins J'suis sur les Champs, j'écoute Joe Dassin j'suis sur les Champs, j'écoute Joe Dassin Grosse caille-ra, béret, mocassins grosse caille-ra, béret, mocassins J'suis sur les Champs, j'écoute Joe Dassin j'suis sur les Champs, j'écoute Joe Dassin Grosse caille-ra, béret, mocassins grosse caille-ra, béret, mocassins J'suis sur les Champs, j'écoute Joe Dassin j'suis sur les Champs, j'écoute Joe Dassin</t>
+          <t>Les anciens, béret, mocassins, street-crédibilité écoutent du Joe Dassin, impossible d'imiter Paire de TN, jean Dsquared Té-ma la dégaine qui sort du square Cartonne la BM, ils ont pris l'ADN, bombarde, y a la PM triste histoire Dégaine le pistolet, crossée la victime Arrête de faire l'ancien, wesh, ton père le viking Que des gueules d'Africains, pas d'chantage affectif On va t'crosser, crosser jusqu'à trouver de l'or Remettre de l'ordre dans c'game de shmet J'vais coffrer des dollars dans l'meuble de chevet Dédicace aux taulards qui se portent bien Des tractions et des dips, pas besoin du porte-clé Écoute mon album, j'donne la force aux frères Solide comme la tombe quand la porte se ferme La frappe à Gareth, la frappe à Seedorf L'Afrique a subi, l'Europe a ses torts Pefra Descendant d'Boumédiène, faut y aller pour m'atteindre Pas d'représailles, j'vise le haut du bassin Les anciens, béret, mocassins, street-crédibilité écoutent du Joe Dassin, impossible d'imiter Y a qu'dans ta tête que t'es un you-voi dans ta tête que t'es un you-voi Y a qu'dans ta tête que t'es un you-voi dans ta tête que t'es un you-voi Pas d'boucan, pas d'boucan, pas d'boucan paw, paw Pas d'boucan, pas d'boucan, pas d'boucan paw, paw Au fond du tier-quar, whisky sec, tes cartes On a traîné si tard, on a traîné ces putes J'suis au fond du van, j'étais au fond du trou J'remercie mes fans qui me portent secours T'es pas crédible, j'ai d'la frappe et l'dribble J'ai grave fait l'tri pour démasquer ces traîtres Sur moi, j'ai pris sur moi, j'mets l'prix Pas ton âge, petit, comment refuser l'té-c' ? J'investis d'la pierre et en boîte de nuit, j'te laisse faire la guerre, hein allez, ma gueule J'ai un quart de siècle, j'veux fonder ma mif', fuck ton belvédère, hein fuck, fuck Pas là pour plaire ni pour perdre, mais faire tourner l'terrain Paire de TN, dégaine, voyou, en roue air libre sur un R1, R1, R1 Descendant d'Boumédiène, faut y aller pour m'atteindre Pas d'représailles, j'vise le haut du bassin Les anciens, béret, mocassins, street-crédibilité écoutent du Joe Dassin, impossible d'imiter Y a qu'dans ta tête que t'es un you-voi dans ta tête que t'es un you-voi Y a qu'dans ta tête que t'es un you-voi dans ta tête que t'es un you-voi Pas d'boucan, pas d'boucan, pas d'boucan paw, paw Pas d'boucan, pas d'boucan, pas d'boucan paw, paw Grosse caille-ra, béret, mocassins grosse caille-ra, béret, mocassins J'suis sur les Champs, j'écoute Joe Dassin j'suis sur les Champs, j'écoute Joe Dassin Grosse caille-ra, béret, mocassins grosse caille-ra, béret, mocassins J'suis sur les Champs, j'écoute Joe Dassin j'suis sur les Champs, j'écoute Joe Dassin Grosse caille-ra, béret, mocassins grosse caille-ra, béret, mocassins J'suis sur les Champs, j'écoute Joe Dassin j'suis sur les Champs, j'écoute Joe Dassin Grosse caille-ra, béret, mocassins grosse caille-ra, béret, mocassins J'suis sur les Champs, j'écoute Joe Dassin j'suis sur les Champs, j'écoute Joe Dassin</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Y a qu'la misère et ma famille qui m'ont appris à d'venir plus fort Tends ton verre pour qu'j't'en remette avant qu'la bouteille parte en mer On va s'les faire on va s'les faire, faudra s'y faire faudra s'y faire J'sais pas si j't'aime j'sais pas si j't'aime, je reste si fier J'peux pas m'louper, précis comme Tchétchène, RS, l'appuie-tête, j'caresse la plus belle Marseille, ma ruelle, j'rêvais d'm'en tirer quand j'étais sous miel Confiance en mon équipe, je mets tapis direct Couleur des sirènes, bleu comme le ciel, très noire la cellule Veulent te voir manger mais jamais plus qu'eux J'sors même pas l'RS, j'risque de les brusquer C'est sans foi ni loi, j't'ai cramé de loin de loin, on m'a rien donné, j'mets les deux points deux points On s'marrait de moi dans mon p'tit coin, personne va m'voir arriver comme Le Pingouin Gotham Ta vie tient qu'à mon index pah, pour la famille qu'on l'a fait vrai Personne m'arrête et de toute manière, tête cramée se f'ra pas relaxer ppe-fra Y a qu'la misère et ma famille qui m'ont appris à d'venir plus fort Tends ton verre pour qu'j't'en remette avant qu'la bouteille parte en mer On va s'les faire on va s'les faire, faudra s'y faire faudra s'y faire J'sais pas si j't'aime j'sais pas si j't'aime, je reste si fier You might also like Oh oh, oh oh, j'augmente l'économie Oh oh, oh oh, j'te l'dis rien nous nie Oh oh, oh oh, j'augmente l'économie Oh oh, oh oh, j'te l'dis heneni C'est plus des lol, c'est même plus l'même épisode, désormais, ça fait des sommes Qui j'déteste le plus ? Celui qu'est v'nu mettre les menottes ou la pookie qu'a trahi mon pote ? Pour papa, grosse tre-mon, j'sors de garde à v', c'est la te-hon, j'rentrais khabat le week-end J'finis minuit pile, quand j'étais minot, wesh la meute, y a pas d'marche solitaire J'aiguise l'épée, déguisé, j'sors la guitare, bien conseillé, j'écris sans médiser Les mains liées, nos curs, c'est la grisaille, j'aime encaisser, on assure la détaille Même en hiver, j'ai traîné, traîné tard tard, j'ai pesé, pesé l'teh teh J'compte même plus ceux qu'on a baisé baisé, toujours nous-mêmes, les mêmes qu'au départ Oh oh, oh oh, j'augmente l'économie Oh oh, oh oh, j'te l'dis rien nous nie Oh oh, oh oh, j'augmente l'économie Oh oh, oh oh, j'te l'dis rien nous nie Y a qu'la misère et ma famille qui m'ont appris à d'venir plus fort Tends ton verre pour qu'j't'en remette avant qu'la bouteille parte en mer On va s'les faire faudra s'y faire J'sais pas si j't'aime, je reste si fier Oh oh, oh oh, j'augmente l'économie Oh oh, oh oh, j'te l'dis rien nous nie Oh oh, oh oh, j'augmente l'économie Oh oh, oh oh, j'te l'dis rien nous nie</t>
+          <t>Y a qu'la misère et ma famille qui m'ont appris à d'venir plus fort Tends ton verre pour qu'j't'en remette avant qu'la bouteille parte en mer On va s'les faire on va s'les faire, faudra s'y faire faudra s'y faire J'sais pas si j't'aime j'sais pas si j't'aime, je reste si fier J'peux pas m'louper, précis comme Tchétchène, RS, l'appuie-tête, j'caresse la plus belle Marseille, ma ruelle, j'rêvais d'm'en tirer quand j'étais sous miel Confiance en mon équipe, je mets tapis direct Couleur des sirènes, bleu comme le ciel, très noire la cellule Veulent te voir manger mais jamais plus qu'eux J'sors même pas l'RS, j'risque de les brusquer C'est sans foi ni loi, j't'ai cramé de loin de loin, on m'a rien donné, j'mets les deux points deux points On s'marrait de moi dans mon p'tit coin, personne va m'voir arriver comme Le Pingouin Gotham Ta vie tient qu'à mon index pah, pour la famille qu'on l'a fait vrai Personne m'arrête et de toute manière, tête cramée se f'ra pas relaxer ppe-fra Y a qu'la misère et ma famille qui m'ont appris à d'venir plus fort Tends ton verre pour qu'j't'en remette avant qu'la bouteille parte en mer On va s'les faire on va s'les faire, faudra s'y faire faudra s'y faire J'sais pas si j't'aime j'sais pas si j't'aime, je reste si fier Oh oh, oh oh, j'augmente l'économie Oh oh, oh oh, j'te l'dis rien nous nie Oh oh, oh oh, j'augmente l'économie Oh oh, oh oh, j'te l'dis heneni C'est plus des lol, c'est même plus l'même épisode, désormais, ça fait des sommes Qui j'déteste le plus ? Celui qu'est v'nu mettre les menottes ou la pookie qu'a trahi mon pote ? Pour papa, grosse tre-mon, j'sors de garde à v', c'est la te-hon, j'rentrais khabat le week-end J'finis minuit pile, quand j'étais minot, wesh la meute, y a pas d'marche solitaire J'aiguise l'épée, déguisé, j'sors la guitare, bien conseillé, j'écris sans médiser Les mains liées, nos curs, c'est la grisaille, j'aime encaisser, on assure la détaille Même en hiver, j'ai traîné, traîné tard tard, j'ai pesé, pesé l'teh teh J'compte même plus ceux qu'on a baisé baisé, toujours nous-mêmes, les mêmes qu'au départ Oh oh, oh oh, j'augmente l'économie Oh oh, oh oh, j'te l'dis rien nous nie Oh oh, oh oh, j'augmente l'économie Oh oh, oh oh, j'te l'dis rien nous nie Y a qu'la misère et ma famille qui m'ont appris à d'venir plus fort Tends ton verre pour qu'j't'en remette avant qu'la bouteille parte en mer On va s'les faire faudra s'y faire J'sais pas si j't'aime, je reste si fier Oh oh, oh oh, j'augmente l'économie Oh oh, oh oh, j'te l'dis rien nous nie Oh oh, oh oh, j'augmente l'économie Oh oh, oh oh, j'te l'dis rien nous nie</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Secret, refré Secret, refré J'arrive dans l'game, j'mets les p'tits pédés mal Chaque projet, j'me démarque, j'sortais d'nulle part Première mixtape lucarne premier album, j't'éteins J'leur avais dit J'me vengerai plus tard quand j'fumais des culs d'teh, bourré au fond du square Ça m'prenait pour un shlag, j'étais du-per J'parle pas beaucoup et j'garde tout en moi J'te laisse imaginer sortir du trou avec Heussine, le soir, ça s'mettait à chiner J'ai pas d'amis, j'ai que des frères, ici, avec qui j'ai signé J'avais la haine avec mes larmes, refré, j'remplissais des cahiers La haine qu'on reflète sent pas bon, comme nos cages d'escaliers Respecte que le daron qui s'casse le dos à huit heures sur l'chantier J'en rêvais du Cayenne, toi, tu m'taillais, khey hein tu m'taillais Aujourd'hui, tu d'mandes mon t-shirt en taille L allez tiens, refré J'te pardonne mais j'oublie as-p, des fois, ça aide Quand tu crois qu'ça y est, j'reviens fort en Saiyan La rue apprend mais laisse de lourdes séquelles Tu veux qu'je crosse lequel ? Mon pire ennemi ou mon ami ? Qu'il checke les deux, ça reste des traîtres Grandi dans un F2, la daronne pleurait dans l'bureau du maire On n'est pas la famille qu'on aidait mais celle qu'on laisse dans la merde J'm'accroche au rap, paye des clips de ma poche en espérant qu'ça paye J'ai pas de boss, Diez Peufra label, on visera bien la tête J'suis pas ton sang, tu m'checkes par intérêt Toi, t'es qu'une perte, comme le sang des règles, premier à tirer le jour où ça pète Le taf, normal qu'on s'y mette, signer des gros chèques Sortir d'la maison d'disques, sourire aux lèvres, pourquoi tu veux qu'j'me retienne ? Tu veux ma chute, tu parles dans mon dos, tes couteaux sont plantés J'montre pas ma thune, j'viens d'une famille pauvre j'pourrai pas m'en vanter Connu les 6 du mois à la poste, caddie à peine rempli J'suis pas celui qui parle mais celui qui frappe, j'espère qu't'as compris La prod', j'lui casse les os, j'pousse la chansonnette On est pas comme eux pas comme eux, on est pas comme eux La prod', j'lui casse les os, j'pousse la chansonnette On est pas comme eux, on est pas comme eux You might also like Ma vie, des coups bas J'aurai toujours la tête du coupable Bronzé, mat, la victime est toute pâle Échec ou mat tu goûteras même la douche froide Y a pas d'secrets, secrets y a pas d'secrets Soit tu t'accroches, reufré Y a pas d'secrets, secrets Ou tu t'feras crever ah bosser dur frère Ma vie, des coups bas secret J'aurai toujours la tête du coupable refré Bronzé, mat, la victime est toute pâle secret Échec ou mat tu goûteras même la douche froide refré Y a pas d'secrets, secrets tu bosses frère Soit tu t'accroches, reufré deux fois plus qu'eux Y a pas d'secrets, secrets dix fois plus qu'eux Ou tu t'feras crever Peufra1</t>
+          <t>Secret, refré Secret, refré J'arrive dans l'game, j'mets les p'tits pédés mal Chaque projet, j'me démarque, j'sortais d'nulle part Première mixtape lucarne premier album, j't'éteins J'leur avais dit J'me vengerai plus tard quand j'fumais des culs d'teh, bourré au fond du square Ça m'prenait pour un shlag, j'étais du-per J'parle pas beaucoup et j'garde tout en moi J'te laisse imaginer sortir du trou avec Heussine, le soir, ça s'mettait à chiner J'ai pas d'amis, j'ai que des frères, ici, avec qui j'ai signé J'avais la haine avec mes larmes, refré, j'remplissais des cahiers La haine qu'on reflète sent pas bon, comme nos cages d'escaliers Respecte que le daron qui s'casse le dos à huit heures sur l'chantier J'en rêvais du Cayenne, toi, tu m'taillais, khey hein tu m'taillais Aujourd'hui, tu d'mandes mon t-shirt en taille L allez tiens, refré J'te pardonne mais j'oublie as-p, des fois, ça aide Quand tu crois qu'ça y est, j'reviens fort en Saiyan La rue apprend mais laisse de lourdes séquelles Tu veux qu'je crosse lequel ? Mon pire ennemi ou mon ami ? Qu'il checke les deux, ça reste des traîtres Grandi dans un F2, la daronne pleurait dans l'bureau du maire On n'est pas la famille qu'on aidait mais celle qu'on laisse dans la merde J'm'accroche au rap, paye des clips de ma poche en espérant qu'ça paye J'ai pas de boss, Diez Peufra label, on visera bien la tête J'suis pas ton sang, tu m'checkes par intérêt Toi, t'es qu'une perte, comme le sang des règles, premier à tirer le jour où ça pète Le taf, normal qu'on s'y mette, signer des gros chèques Sortir d'la maison d'disques, sourire aux lèvres, pourquoi tu veux qu'j'me retienne ? Tu veux ma chute, tu parles dans mon dos, tes couteaux sont plantés J'montre pas ma thune, j'viens d'une famille pauvre j'pourrai pas m'en vanter Connu les 6 du mois à la poste, caddie à peine rempli J'suis pas celui qui parle mais celui qui frappe, j'espère qu't'as compris La prod', j'lui casse les os, j'pousse la chansonnette On est pas comme eux pas comme eux, on est pas comme eux La prod', j'lui casse les os, j'pousse la chansonnette On est pas comme eux, on est pas comme eux Ma vie, des coups bas J'aurai toujours la tête du coupable Bronzé, mat, la victime est toute pâle Échec ou mat tu goûteras même la douche froide Y a pas d'secrets, secrets y a pas d'secrets Soit tu t'accroches, reufré Y a pas d'secrets, secrets Ou tu t'feras crever ah bosser dur frère Ma vie, des coups bas secret J'aurai toujours la tête du coupable refré Bronzé, mat, la victime est toute pâle secret Échec ou mat tu goûteras même la douche froide refré Y a pas d'secrets, secrets tu bosses frère Soit tu t'accroches, reufré deux fois plus qu'eux Y a pas d'secrets, secrets dix fois plus qu'eux Ou tu t'feras crever Peufra1</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>T'aimes plaire aux keufs, on sait que tu fais l'perroquet Numéro 9, j'ai mis ma plus belle paire aux pieds J'aime piloter, les condés veulent me faire au frais Sourire aux lèvres, la ppe-f' te fait tourner la Tête, tê-tê-tê-tête La ppe-f' te fait tourner la tête, tê-tê-tê-tête Je débite, j'fais du biff et j'me la pète, pè'-pè'-pè'-pète La ppe-f' te fait tourner la tête, tê-tê-tê-tête La ppe-f' te fait tourner la tête Ils savent que j'gère la mélodie, grammes de ppe-f' ou un lo-ki J'pense toujours à toi dans l'Audi, personne comprend ma folie P'tit, t'arrives même pas à ma cheville, tu penses encore à m'achever Encore un verre pour ma chérie, un dernier plan pour m'enchérir C'est un pour les charmes du ghetto oh, j'ai encore des frères qui cantinent oh, ah Y a drah, j'ai ramené le métaux oh, on aime quand les liasses s'empilent, c'est la ppe-f' Un peu d'salade pour l'insomnie, on a cramé tout ton ce-vi Jack coupé Coca-cerise, j'prends l'p'tit reuf, j'le fais sourire You might also like T'aimes plaire aux keufs, on sait que tu fais l'perroquet Numéro 9, j'ai mis ma plus belle paire aux pieds J'aime piloter, les condés veulent me faire au frais Sourire aux lèvres, la ppe-f' te fait tourner la Tête, tê-tê-tê-tête La ppe-f' te fait tourner la tête, tê-tê-tê-tête Je débite, j'fais du biff et j'me la pète, pè'-pè'-pè'-pète La ppe-f' te fait tourner la tête, tê-tê-tê-tête La ppe-f' te fait tourner la tête C'est toujours l'même qui paye, j'suis c'mec blindé qui tourne en Clio Même deux-trois leum sur l'té-c', j'passerai toujours dans l'barrio J'étais celui qu'on négligeait, le temps passe, faudra s'y faire C'est pas cette vie qu'on visait mais la vie nous a visser J'fais du sale, faut du biff, biff, laisse faire pépère, frère, c'est la big mif' woah J'ai un cur, j'suis affectif, si t'es mon frère, ouais, j'viendrai rer-ti Un peu d'salade pour l'insomnie, on a cramé tout ton ce-vi Jack coupé Coca-cerise, j'prends l'p'tit reuf, j'le fais sourire Tête, tê-tê-tê-tête La ppe-f' te fait tourner la tête, tê-tê-tê-tête Je débite, j'fais du biff et j'me la pète, pè'-pè'-pè'-pète La ppe-f' te fait tourner la tête, tê-tê-tê-tête La ppe-f' te fait tourner la tête Tê-tê-tê-tête Tourner la tête, tê-tê-tê-tête Et j'me la pète, pè'-pè'-pè'-pète Tourner la tête, tê-tê-tê-tête La ppe-f' te fait tourner la tête</t>
+          <t>T'aimes plaire aux keufs, on sait que tu fais l'perroquet Numéro 9, j'ai mis ma plus belle paire aux pieds J'aime piloter, les condés veulent me faire au frais Sourire aux lèvres, la ppe-f' te fait tourner la Tête, tê-tê-tê-tête La ppe-f' te fait tourner la tête, tê-tê-tê-tête Je débite, j'fais du biff et j'me la pète, pè'-pè'-pè'-pète La ppe-f' te fait tourner la tête, tê-tê-tê-tête La ppe-f' te fait tourner la tête Ils savent que j'gère la mélodie, grammes de ppe-f' ou un lo-ki J'pense toujours à toi dans l'Audi, personne comprend ma folie P'tit, t'arrives même pas à ma cheville, tu penses encore à m'achever Encore un verre pour ma chérie, un dernier plan pour m'enchérir C'est un pour les charmes du ghetto oh, j'ai encore des frères qui cantinent oh, ah Y a drah, j'ai ramené le métaux oh, on aime quand les liasses s'empilent, c'est la ppe-f' Un peu d'salade pour l'insomnie, on a cramé tout ton ce-vi Jack coupé Coca-cerise, j'prends l'p'tit reuf, j'le fais sourire T'aimes plaire aux keufs, on sait que tu fais l'perroquet Numéro 9, j'ai mis ma plus belle paire aux pieds J'aime piloter, les condés veulent me faire au frais Sourire aux lèvres, la ppe-f' te fait tourner la Tête, tê-tê-tê-tête La ppe-f' te fait tourner la tête, tê-tê-tê-tête Je débite, j'fais du biff et j'me la pète, pè'-pè'-pè'-pète La ppe-f' te fait tourner la tête, tê-tê-tê-tête La ppe-f' te fait tourner la tête C'est toujours l'même qui paye, j'suis c'mec blindé qui tourne en Clio Même deux-trois leum sur l'té-c', j'passerai toujours dans l'barrio J'étais celui qu'on négligeait, le temps passe, faudra s'y faire C'est pas cette vie qu'on visait mais la vie nous a visser J'fais du sale, faut du biff, biff, laisse faire pépère, frère, c'est la big mif' woah J'ai un cur, j'suis affectif, si t'es mon frère, ouais, j'viendrai rer-ti Un peu d'salade pour l'insomnie, on a cramé tout ton ce-vi Jack coupé Coca-cerise, j'prends l'p'tit reuf, j'le fais sourire Tête, tê-tê-tê-tête La ppe-f' te fait tourner la tête, tê-tê-tê-tête Je débite, j'fais du biff et j'me la pète, pè'-pè'-pè'-pète La ppe-f' te fait tourner la tête, tê-tê-tê-tête La ppe-f' te fait tourner la tête Tê-tê-tê-tête Tourner la tête, tê-tê-tê-tête Et j'me la pète, pè'-pè'-pè'-pète Tourner la tête, tê-tê-tê-tête La ppe-f' te fait tourner la tête</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Baille Broliker Productions Han Pilon frappe dans la tête, penalty, j'remplis mon verre pour un peu d'inspi' J'démarre au vert dans l'Ferrari, j'suis pas d'humeur donc fais-moi rire Wesh, rebeu, t'as pris des pec', tu parles mal avec ton bec T'as la vingtaine, fais pas l'ancêtre, j'te ferai du sale, t'iras m'balancer C'est de la ppe-f', les ients-cli l'disent, j'frappe tes sses-f' juste pour une dis' Je te plais mais tu résistes, dans tes yeux, je vois qu'j'existe Pluie d'oseille sans parapluie, j'remplis les poches et celles d'la mille-f' Rolex avant vingt-cinq ans, j'ai mis tapis et je double la mise J'fume plus, j'ai arrêté l'bédo, ça m'a matrixé J'fume plus, j'ai arrêté l'bédo, ça m'a matrixé J'fume plus, j'ai arrêté l'bédo, ça m'a matrixé J'fume plus, j'ai arrêté l'bédo, ça m'a matrixé Billets violets, verts, j'ai changé ma routine J'ai toujours d'la verte calée pour les groupies Billets violets, verts, j'ai changé ma routine J'ai toujours d'la verte calée pour les groupies J'parle pas pour rien, j'parle de prison, j'parle de tess J'parle de bibi, j'parle de milli', parle de cess J'perds la tête parce que je fume, j'perds la tête parce que je fume Lève la tête quand tu me suces, grosses paires de fesses, on assume Tu t'souviens le p'tit rebeu qui galérait seul sous un porche ? À six heures du matin, levé par une brigade et la torche Roule un bédo dans la rue, j'ai pas une thune, c'est pas magique, paries-tu ? J'étais scotché sur l'bitume You might also like J'fume plus, j'ai arrêté l'bédo, ça m'a matrixé J'fume plus, j'ai arrêté l'bédo, ça m'a matrixé J'fume plus, j'ai arrêté l'bédo, ça m'a matrixé J'fume plus, j'ai arrêté l'bédo, ça m'a matrixé Billets violets, verts, j'ai changé ma routine J'ai toujours d'la verte calée pour les groupies Billets violets, verts, j'ai changé ma routine J'ai toujours d'la verte calée pour les groupies Billets violets, verts, j'ai changé ma routine J'ai toujours d'la verte calée pour les groupies Billets violets, verts, j'ai changé ma routine J'ai toujours d'la verte calée pour les groupies2</t>
+          <t>Baille Broliker Productions Han Pilon frappe dans la tête, penalty, j'remplis mon verre pour un peu d'inspi' J'démarre au vert dans l'Ferrari, j'suis pas d'humeur donc fais-moi rire Wesh, rebeu, t'as pris des pec', tu parles mal avec ton bec T'as la vingtaine, fais pas l'ancêtre, j'te ferai du sale, t'iras m'balancer C'est de la ppe-f', les ients-cli l'disent, j'frappe tes sses-f' juste pour une dis' Je te plais mais tu résistes, dans tes yeux, je vois qu'j'existe Pluie d'oseille sans parapluie, j'remplis les poches et celles d'la mille-f' Rolex avant vingt-cinq ans, j'ai mis tapis et je double la mise J'fume plus, j'ai arrêté l'bédo, ça m'a matrixé J'fume plus, j'ai arrêté l'bédo, ça m'a matrixé J'fume plus, j'ai arrêté l'bédo, ça m'a matrixé J'fume plus, j'ai arrêté l'bédo, ça m'a matrixé Billets violets, verts, j'ai changé ma routine J'ai toujours d'la verte calée pour les groupies Billets violets, verts, j'ai changé ma routine J'ai toujours d'la verte calée pour les groupies J'parle pas pour rien, j'parle de prison, j'parle de tess J'parle de bibi, j'parle de milli', parle de cess J'perds la tête parce que je fume, j'perds la tête parce que je fume Lève la tête quand tu me suces, grosses paires de fesses, on assume Tu t'souviens le p'tit rebeu qui galérait seul sous un porche ? À six heures du matin, levé par une brigade et la torche Roule un bédo dans la rue, j'ai pas une thune, c'est pas magique, paries-tu ? J'étais scotché sur l'bitume J'fume plus, j'ai arrêté l'bédo, ça m'a matrixé J'fume plus, j'ai arrêté l'bédo, ça m'a matrixé J'fume plus, j'ai arrêté l'bédo, ça m'a matrixé J'fume plus, j'ai arrêté l'bédo, ça m'a matrixé Billets violets, verts, j'ai changé ma routine J'ai toujours d'la verte calée pour les groupies Billets violets, verts, j'ai changé ma routine J'ai toujours d'la verte calée pour les groupies Billets violets, verts, j'ai changé ma routine J'ai toujours d'la verte calée pour les groupies Billets violets, verts, j'ai changé ma routine J'ai toujours d'la verte calée pour les groupies2</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>J'ai visé l'cur, j'l'ai eu, l'être humain est cru Une fois entre tes jambes, plus d'marche arrière, nique les barrières d'péage, fuck la dot T'étais où toi quand je grattais des clopes, quand j'fumais des spliff, quand c'était d'la comm', quand j'avais l'angoisse aux rebeus des ardoises ? Plus d'flèches à mon arc, plus d'sapes dans larmoire Le taureau par les cornes, l'aigle par les plumes L'homme par les couilles, la femme par les thunes Faut pas que je doute, faut qu'j'avance, mets les bouchées doubles avec les dents d'devant Seul dans ma bulle, flash Redbull fonce-dé, j'me balade malade au sens du vent Brosse-moi au sens qu'on brosse la bête Coup d'crosse, j'te casse l'os de la tête P'tit cassos compte le bénef d'la 'quette P'tit cassos compte le bénef d'la 'quette Brosse-moi au sens qu'on brosse la bête Coup d'crosse j'te casse l'os de la tête P'tit cassos compte le bénef d'la 'quette P'tit cassos compte le bénef d'la 'quette Ce matin, ce matin J'me dis qu'l'avenir m'appartient, c'est certain Ce matin, ce matin Tout est possible tant qu'le soleil s'lève enfin Ce matin, ce matin J'me dis qu'l'avenir m'appartient, c'est certain Ce matin, ce matin Tout est possible tant qu'le soleil s'lève enfin You might also like J'sors ma plume, j'vide mon cur Un jour ou l'autre, tu payes Un jour ou l'autre, tu meurs Connaissance d'une heure veut m'connaitre, j'me livre pas pour tout dire, j'ai du mal avec l'être humain pour être honnête J'irai frapper plus fort pour qu'ils comprennent J'irai vider leur sang, du moins tout ce qu'ils contiennent Tendu du talon pour ne pas qu'ils reviennent Fierté du daron qui coulera dans mes veines C'matin, j'vais changer, j'vais devenir un homme meilleur Plus m'prendre la tête, j'écoute pas les gens, j'fais partie des meneurs Pas de ceux qui s'la pètent Brosse-moi au sens qu'on brosse la bête Coup d'crosse, j'te casse l'os de la tête P'tit cassos compte le bénef d'la 'quette P'tit cassos compte le bénef d'la 'quette Brosse-moi au sens qu'on brosse la bête Coup d'crosse j'te casse l'os de la tête P'tit cassos compte le bénef d'la 'quette P'tit cassos compte le bénef d'la 'quette Ce matin, ce matin J'me dis qu'l'avenir m'appartient, c'est certain Ce matin, ce matin Tout est possible tant qu'le soleil s'lève enfin Ce matin, ce matin J'me dis qu'l'avenir m'appartient, c'est certain Ce matin, ce matin Tout est possible tant qu'le soleil s'lève enfin Pas d'barrière, faut qu'je frappe pour qu'ils s'en souviennent Pas d'barrière, faut qu'je frappe pour qu'ils s'en souviennent Pas d'barrière, je voyage, amour rien ne s'en mêle Pas d'barrière, je voyage, amour rien ne s'en mêle</t>
+          <t>J'ai visé l'cur, j'l'ai eu, l'être humain est cru Une fois entre tes jambes, plus d'marche arrière, nique les barrières d'péage, fuck la dot T'étais où toi quand je grattais des clopes, quand j'fumais des spliff, quand c'était d'la comm', quand j'avais l'angoisse aux rebeus des ardoises ? Plus d'flèches à mon arc, plus d'sapes dans larmoire Le taureau par les cornes, l'aigle par les plumes L'homme par les couilles, la femme par les thunes Faut pas que je doute, faut qu'j'avance, mets les bouchées doubles avec les dents d'devant Seul dans ma bulle, flash Redbull fonce-dé, j'me balade malade au sens du vent Brosse-moi au sens qu'on brosse la bête Coup d'crosse, j'te casse l'os de la tête P'tit cassos compte le bénef d'la 'quette P'tit cassos compte le bénef d'la 'quette Brosse-moi au sens qu'on brosse la bête Coup d'crosse j'te casse l'os de la tête P'tit cassos compte le bénef d'la 'quette P'tit cassos compte le bénef d'la 'quette Ce matin, ce matin J'me dis qu'l'avenir m'appartient, c'est certain Ce matin, ce matin Tout est possible tant qu'le soleil s'lève enfin Ce matin, ce matin J'me dis qu'l'avenir m'appartient, c'est certain Ce matin, ce matin Tout est possible tant qu'le soleil s'lève enfin J'sors ma plume, j'vide mon cur Un jour ou l'autre, tu payes Un jour ou l'autre, tu meurs Connaissance d'une heure veut m'connaitre, j'me livre pas pour tout dire, j'ai du mal avec l'être humain pour être honnête J'irai frapper plus fort pour qu'ils comprennent J'irai vider leur sang, du moins tout ce qu'ils contiennent Tendu du talon pour ne pas qu'ils reviennent Fierté du daron qui coulera dans mes veines C'matin, j'vais changer, j'vais devenir un homme meilleur Plus m'prendre la tête, j'écoute pas les gens, j'fais partie des meneurs Pas de ceux qui s'la pètent Brosse-moi au sens qu'on brosse la bête Coup d'crosse, j'te casse l'os de la tête P'tit cassos compte le bénef d'la 'quette P'tit cassos compte le bénef d'la 'quette Brosse-moi au sens qu'on brosse la bête Coup d'crosse j'te casse l'os de la tête P'tit cassos compte le bénef d'la 'quette P'tit cassos compte le bénef d'la 'quette Ce matin, ce matin J'me dis qu'l'avenir m'appartient, c'est certain Ce matin, ce matin Tout est possible tant qu'le soleil s'lève enfin Ce matin, ce matin J'me dis qu'l'avenir m'appartient, c'est certain Ce matin, ce matin Tout est possible tant qu'le soleil s'lève enfin Pas d'barrière, faut qu'je frappe pour qu'ils s'en souviennent Pas d'barrière, faut qu'je frappe pour qu'ils s'en souviennent Pas d'barrière, je voyage, amour rien ne s'en mêle Pas d'barrière, je voyage, amour rien ne s'en mêle</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Veulent gâcher nos vies, que d'la frappe à long terme Peufra Que d'la frappe à long La peuf, c'est casquette à l'envers la sacoche LV, là j'suis pas d'humeur, j'peux te parler sous Belvé' Le baqueux parle pas, il m'appelle nous palper, pas l'time, j'fais mes bails baïda en taïdé Orgemont, c'est dans nos gènes, ouais, menace l'flic, cramé sur nos gueules, pas très joli selfie Tu sais bien qu'c'est l'feu ici, c'est Philadelphie, les frères, j'suis heureux, j'imaginais pas cette vie Deux fois plus d'espoir, deux fois plus despèce, dans un coupé sport, elle avale gouttes de sperme Vie de chien disent-ils, viens d'changer d'SIM, c'est au fil du temps qu'tu vois qui s'défile J'suis un enfant du bled, un rappeur d'ici, tu l'aimes ou tu la quittes, faudra qu'on s'décide La raison revient à ceux qu'ont la bonne résine, c'est la street mon sos' dans l'top des streams Ça bibi taga dans sur une chaise qui s'plie et devant la SPIP, faudra avoir d'l'inspi' Sur la route d'Espagne, ça vesqui les porcs, dis pas qu'c'est l'destin, c'est un mauvais sort Toi, t'es faux ça s'voit, pour l'savoir, j'le vois dans tes yeux j'l'entends dans ta voix Ils s'moquaient d'ma soif, j'leur paye à boire, vodka poire, allez force à toi J'ai pas le choix, mon reuf que d'la frappe à long terme J'garde tout près d'moi mon 9 que d'la frappe à long terme L'histoire s'répète, rien d'neuf que d'la frappe à long terme J'vais leur faire du mal, mon reuf que d'la frappe à long terme Veulent gâcher nos vies, libérez nos frères Olala, que d'la frappe à long terme Veulent gâcher nos vies, libérez nos frères Olala, que d'la frappe à long terme You might also like L'équipe, c'est la même que la photo d'classe, il est temps qu'on s'casse mais la rue nous r'tient C'est la course au cash, il faut qu'tout me r'vienne, soit ils portent le plâtre, soit ils portent plainte Toi, t'es mort dans l'film, ça mérite l'Oscar, t'es pas Escobar, t'es qu'un escroc d'bar Depuis l'époque du stunt et la feuille de blunt, j'pense qu'à faire du blé, ils pensent à faire du bluff Le terrain, c'est pas durable, les condés mettent des cartons, laisse-les faire du bruit, on a percé dans l'son Famille pauvre dans l'compte mais riche dans l'fond, principe et valeur, le reste qu'est-c'j'm'en fous ? On s'est fait seul frère, à qui j'donne l'heure, dans la hess chez qui j'dormais J'en ai souffert, y'a qu'aujourd'hui qu'j'm'en remets, toujours le sourire quand la misère m'formait Toi, t'es faux, ça s'voit, pour l'savoir, j'le vois dans tes yeux j'l'entends dans ta voix Ils s'moquaient d'ma soif, j'leur paye à boire, vodka poire, allez force à toi J'ai pas le choix, mon reuf que d'la frappe à long terme J'garde tout près d'moi mon 9 que d'la frappe à long terme L'histoire s'répète, rien d'neuf que d'la frappe à long terme J'vais leur faire du mal, mon reuf que d'la frappe à long terme Veulent gâcher nos vies, libérez nos frères Olala, que d'la frappe à long terme Veulent gâcher nos vies, libérez nos frères Olala, que d'la frappe à long terme Veulent gâcher nos vies, libérez nos frères Olala, que d'la frappe à long terme Veulent gâcher nos vies, libérez nos frères Olala, que d'la frappe à long terme</t>
+          <t>Veulent gâcher nos vies, que d'la frappe à long terme Peufra Que d'la frappe à long La peuf, c'est casquette à l'envers la sacoche LV, là j'suis pas d'humeur, j'peux te parler sous Belvé' Le baqueux parle pas, il m'appelle nous palper, pas l'time, j'fais mes bails baïda en taïdé Orgemont, c'est dans nos gènes, ouais, menace l'flic, cramé sur nos gueules, pas très joli selfie Tu sais bien qu'c'est l'feu ici, c'est Philadelphie, les frères, j'suis heureux, j'imaginais pas cette vie Deux fois plus d'espoir, deux fois plus despèce, dans un coupé sport, elle avale gouttes de sperme Vie de chien disent-ils, viens d'changer d'SIM, c'est au fil du temps qu'tu vois qui s'défile J'suis un enfant du bled, un rappeur d'ici, tu l'aimes ou tu la quittes, faudra qu'on s'décide La raison revient à ceux qu'ont la bonne résine, c'est la street mon sos' dans l'top des streams Ça bibi taga dans sur une chaise qui s'plie et devant la SPIP, faudra avoir d'l'inspi' Sur la route d'Espagne, ça vesqui les porcs, dis pas qu'c'est l'destin, c'est un mauvais sort Toi, t'es faux ça s'voit, pour l'savoir, j'le vois dans tes yeux j'l'entends dans ta voix Ils s'moquaient d'ma soif, j'leur paye à boire, vodka poire, allez force à toi J'ai pas le choix, mon reuf que d'la frappe à long terme J'garde tout près d'moi mon 9 que d'la frappe à long terme L'histoire s'répète, rien d'neuf que d'la frappe à long terme J'vais leur faire du mal, mon reuf que d'la frappe à long terme Veulent gâcher nos vies, libérez nos frères Olala, que d'la frappe à long terme Veulent gâcher nos vies, libérez nos frères Olala, que d'la frappe à long terme L'équipe, c'est la même que la photo d'classe, il est temps qu'on s'casse mais la rue nous r'tient C'est la course au cash, il faut qu'tout me r'vienne, soit ils portent le plâtre, soit ils portent plainte Toi, t'es mort dans l'film, ça mérite l'Oscar, t'es pas Escobar, t'es qu'un escroc d'bar Depuis l'époque du stunt et la feuille de blunt, j'pense qu'à faire du blé, ils pensent à faire du bluff Le terrain, c'est pas durable, les condés mettent des cartons, laisse-les faire du bruit, on a percé dans l'son Famille pauvre dans l'compte mais riche dans l'fond, principe et valeur, le reste qu'est-c'j'm'en fous ? On s'est fait seul frère, à qui j'donne l'heure, dans la hess chez qui j'dormais J'en ai souffert, y'a qu'aujourd'hui qu'j'm'en remets, toujours le sourire quand la misère m'formait Toi, t'es faux, ça s'voit, pour l'savoir, j'le vois dans tes yeux j'l'entends dans ta voix Ils s'moquaient d'ma soif, j'leur paye à boire, vodka poire, allez force à toi J'ai pas le choix, mon reuf que d'la frappe à long terme J'garde tout près d'moi mon 9 que d'la frappe à long terme L'histoire s'répète, rien d'neuf que d'la frappe à long terme J'vais leur faire du mal, mon reuf que d'la frappe à long terme Veulent gâcher nos vies, libérez nos frères Olala, que d'la frappe à long terme Veulent gâcher nos vies, libérez nos frères Olala, que d'la frappe à long terme Veulent gâcher nos vies, libérez nos frères Olala, que d'la frappe à long terme Veulent gâcher nos vies, libérez nos frères Olala, que d'la frappe à long terme</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Affranchis Banlieue Nord, on prend les flows de la West Coast Au fond du bloc, c'est sombre mais ils voudraient qu'on reste pauvres Les ients-cli font la file, c'est de la peuf, pas de ristourne Linge sale en famille mais faut pas que ta veste tourne Wha wha wha what? C'est ma street, c'est ma biz', mon économie Je lève le I, je ferai feu sur mes ennemis Frappe ça, général, all eyes on me C'est Fianso, c'est Makaveli w ras ommi Ça vient du binks, fume la beuh d'A-dam sur le macadam Guerre de tess, j'marche sur son cadavre, bois le sein de ta femme Je les baise en mode polygame, j'ai des jolies armes Et des jolies femmes, bref ça tire ça braque et ça craque Ça craque, il commence à faire chaud Ça bicrave sur Crenshaw L'équipe get the strap, ça mitraille comme à la télé Affranchis, c'est Death Row You might also like Mais c'est quoi le délire ? Mais c'est quoi le délire ? Un calibre, deux calibres, et j'suis mort de rire Mais c'est quoi le délire ? Mais c'est quoi le délire ? Un calibre, deux calibres, et j'suis mort de rire 93 Coast, 93 Coast, 93 Coast, 93 Coast Wha wha wha what? Wha wha wha what? Y a pas de boss ici, que des grosses équipes Mes rebeus, ça vend de la résine, le bigot grisé Veulent ma peau, j'ai la peau rigide, dis-moi, gros, c'est qui ? J'ai un pote, d'humeur Joe Pesci, d'humeur Joe Pesci Ça craque, il commence à faire chaud Ça bicrave sur Crenshaw L'équipe get the strap, ça mitraille comme à la télé Affranchis, c'est Death Row Mais c'est quoi le délire ? Mais c'est quoi le délire ? Un calibre, deux calibres, et j'suis mort de rire Mais c'est quoi le délire ? Mais c'est quoi le délire ? Un calibre, deux calibres, et j'suis mort de rire 93 Coast, 93 Coast, 93 Coast, 93 Coast Wha wha wha what? Wha wha wha what? Ça craque, il commence à faire chaud Ça bicrave sur Crenshaw L'équipe get the strap, ça mitraille comme à la télé Affranchis, c'est Death Row</t>
+          <t>Affranchis Banlieue Nord, on prend les flows de la West Coast Au fond du bloc, c'est sombre mais ils voudraient qu'on reste pauvres Les ients-cli font la file, c'est de la peuf, pas de ristourne Linge sale en famille mais faut pas que ta veste tourne Wha wha wha what? C'est ma street, c'est ma biz', mon économie Je lève le I, je ferai feu sur mes ennemis Frappe ça, général, all eyes on me C'est Fianso, c'est Makaveli w ras ommi Ça vient du binks, fume la beuh d'A-dam sur le macadam Guerre de tess, j'marche sur son cadavre, bois le sein de ta femme Je les baise en mode polygame, j'ai des jolies armes Et des jolies femmes, bref ça tire ça braque et ça craque Ça craque, il commence à faire chaud Ça bicrave sur Crenshaw L'équipe get the strap, ça mitraille comme à la télé Affranchis, c'est Death Row Mais c'est quoi le délire ? Mais c'est quoi le délire ? Un calibre, deux calibres, et j'suis mort de rire Mais c'est quoi le délire ? Mais c'est quoi le délire ? Un calibre, deux calibres, et j'suis mort de rire 93 Coast, 93 Coast, 93 Coast, 93 Coast Wha wha wha what? Wha wha wha what? Y a pas de boss ici, que des grosses équipes Mes rebeus, ça vend de la résine, le bigot grisé Veulent ma peau, j'ai la peau rigide, dis-moi, gros, c'est qui ? J'ai un pote, d'humeur Joe Pesci, d'humeur Joe Pesci Ça craque, il commence à faire chaud Ça bicrave sur Crenshaw L'équipe get the strap, ça mitraille comme à la télé Affranchis, c'est Death Row Mais c'est quoi le délire ? Mais c'est quoi le délire ? Un calibre, deux calibres, et j'suis mort de rire Mais c'est quoi le délire ? Mais c'est quoi le délire ? Un calibre, deux calibres, et j'suis mort de rire 93 Coast, 93 Coast, 93 Coast, 93 Coast Wha wha wha what? Wha wha wha what? Ça craque, il commence à faire chaud Ça bicrave sur Crenshaw L'équipe get the strap, ça mitraille comme à la télé Affranchis, c'est Death Row</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>The danger, the danger, the danger The danger, the danger, the danger Charbonneur au sang man italien, toute sa vie, a détaillé Tu sais combien fallait vendre de barrettes pour s'barrer un été Farceur dans l'âme, vendeur à la sauvette, parle pas de PGP Au fond du VIP, renverse du champagne sur ta fausse Rolex Avenue Montaigne, la vendeuse serre un verre, liasses de 500 eu' Finie l'époque où tu m'prêtais 20 eu', t'en parlais à toute la terre J'connais la rue, même joué au jeu d'la pièce, la fumette reste un piège 23 ans, déjà t'as plus la pêche, j'gratte même le cul d'la vieille Wesh l'ancien, tu m'regardes de travers, t'as p't-être pas bu ta bière Prends pas le seum, t'auras ton rail de C, raye pas ma carrosserie Mais qui sont-ils ? J'les laisse saliver, du sale sera l'idée L'oseille divise, demande aux Hallyday, parle-moi pas d'amitié J'sors mon album, besoin de votre soutien La peuf chaude dans l'bout d'joint J'te marque à vie pour qu'de moi, tu t'souviennes C'est du 9-3 d'où j'viens Cette année, j'ai coffré trente showcases, les 3ayners sont choqués À six heures, ma porte va plus sauter, le pe-ra m'a sauvé Mais qui sont-ils ? J'les laisse saliver, du sale sera l'idée L'oseille divise, demande aux Hallyday, parle-moi pas d'amitié J'sors mon album, besoin de votre soutien La peuf chaude dans l'bout d'joint J'te marque à vie pour qu'de moi, tu t'souviennes C'est du 9-3 d'où j'viens Comme dans La Haine, on fait pas crédit, khey, faut du cash everyday Toi, tu suces, même dans un Clio 4, tu veux qu'je vienne en cab Bosser dur, un peu comme Vegeta, la victoire par étape Roule un oint-j, dans l'quartier, c'est légal, les condés s'arrêtent pas Sens interdit mais j'reste avant-gardiste, pleins phares dans les yeux 21 septembre, je sors mon album la re-pu vient des DOM Sens interdit mais j'reste avant-gardiste, pleins phares dans les yeux 21 septembre, je sors mon album la re-pu vient des DOM Rue d'Marseille, ça court après les sommes Dans les yeux, tu reconnais les hommes Rue d'Marseille, ça court après les sommes Dans les yeux, tu reconnais les hommesYou might also like</t>
+          <t>The danger, the danger, the danger The danger, the danger, the danger Charbonneur au sang man italien, toute sa vie, a détaillé Tu sais combien fallait vendre de barrettes pour s'barrer un été Farceur dans l'âme, vendeur à la sauvette, parle pas de PGP Au fond du VIP, renverse du champagne sur ta fausse Rolex Avenue Montaigne, la vendeuse serre un verre, liasses de 500 eu' Finie l'époque où tu m'prêtais 20 eu', t'en parlais à toute la terre J'connais la rue, même joué au jeu d'la pièce, la fumette reste un piège 23 ans, déjà t'as plus la pêche, j'gratte même le cul d'la vieille Wesh l'ancien, tu m'regardes de travers, t'as p't-être pas bu ta bière Prends pas le seum, t'auras ton rail de C, raye pas ma carrosserie Mais qui sont-ils ? J'les laisse saliver, du sale sera l'idée L'oseille divise, demande aux Hallyday, parle-moi pas d'amitié J'sors mon album, besoin de votre soutien La peuf chaude dans l'bout d'joint J'te marque à vie pour qu'de moi, tu t'souviennes C'est du 9-3 d'où j'viens Cette année, j'ai coffré trente showcases, les 3ayners sont choqués À six heures, ma porte va plus sauter, le pe-ra m'a sauvé Mais qui sont-ils ? J'les laisse saliver, du sale sera l'idée L'oseille divise, demande aux Hallyday, parle-moi pas d'amitié J'sors mon album, besoin de votre soutien La peuf chaude dans l'bout d'joint J'te marque à vie pour qu'de moi, tu t'souviennes C'est du 9-3 d'où j'viens Comme dans La Haine, on fait pas crédit, khey, faut du cash everyday Toi, tu suces, même dans un Clio 4, tu veux qu'je vienne en cab Bosser dur, un peu comme Vegeta, la victoire par étape Roule un oint-j, dans l'quartier, c'est légal, les condés s'arrêtent pas Sens interdit mais j'reste avant-gardiste, pleins phares dans les yeux 21 septembre, je sors mon album la re-pu vient des DOM Sens interdit mais j'reste avant-gardiste, pleins phares dans les yeux 21 septembre, je sors mon album la re-pu vient des DOM Rue d'Marseille, ça court après les sommes Dans les yeux, tu reconnais les hommes Rue d'Marseille, ça court après les sommes Dans les yeux, tu reconnais les hommes</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Wahia Oh, oh Ça vient des quartiers nord de Paname ça vient des quartiers Ça fait du sale pour sortir madame ça vient des quartiers T'as plus de chance de t'prendre une rafale que d'glisser sur une banane C'est les quartiers nord de Paname Oh, oh Uzi Israélien vise raëlien, allez, viens, j'pilote notre espace aérien coréen, bats les reins piou Avc deux-trois galériens, même modérés, déférés, qu pour la revente de produits prohibés Modifiés oui, tout c'qu'on veut, c'est être en p'tit comité, profiter oui, voir un jour les quartiers défavorisés dominer Voir un jour les quartiers défavorisés dominer oh, oh Olivier veut per-cho de la pure oui, ils s'en fout de la ue-r oui, il préfère les montagnes oui C'est dommage que j'sois plus dans l'business, j'arrivais bien plus vite que les livreurs d'Amazon Prime nion J'ai l'casque wow, mon pote wow, ma génération est dans les frasques ouh Et comment tu veux qu'ils portent le masque comment ? ? Ils arrêtent pas d'baiser sans capote ouh, ouh Ils veulent le taureau sur la camionnette Urus La recette 0.7, la pesette wow Les jeunettes sous zipette, les soirées polémiques, les requêtes des vedettes sans limite suce Le lendemain, rebelotte les salopes, les Moët jusqu'à c'qu'on t'passe les menottes suce Z., H., S., Rec. 118 nous, budget sans limite You might also like Oh, oh Ça vient des quartiers nord de Paname ça vient des quartiers Ça fait du sale pour sortir madame ça vient des quartiers T'as plus de chance de t'prendre une rafale que d'glisser sur une banane C'est les quartiers nord de Paname Oh, oh Ça vient des quartiers nord de Paname ça vient des quartiers Ça fait du sale pour sortir madame ça vient des quartiers T'as plus de chance de t'prendre une rafale que d'glisser sur une banane C'est les quartiers nord de Paname Oh, oh Hein On leur mettait dans les narines, nous, pour faire des vacances à la Marina Viens dans la zone, y a la meilleure beuh, la cité d'en face, j's'rai jamais l'un d'eux T'as vu la p'tite blonde dans la Fiat ah, ah ? Elle te poussera p't-être à la faute ah, ah Elle a des fossettes et un fiak ah, ah, j'la fiancie pas je la fuck Galante, t'as jamais rien fait sur aucun rrain-te, tu viendrais d'chez nous, t'aurais pas rappé On rentre dans ta tess, on opère à pieds J'recompte le bénèf' dans la 45, toi, tu mérites le kil' à 45 Grossistes de chez nous sont d'apparence simple, qu'est-ce que tu peux faire à part faire l'ancien ? Faire l'ancien J'ai passé l'âge de mentir aux p'tits, vends pas où tu veux, rien n'est garanti La balle est partie dans la carotide, c'est dans les gênes d'faire la guerre aux schmitts Audemars Piguet, pas de Cerruti, shlags de zipette dans mon 06 Touche pas à la mif', aux affaires aussi, 93, c'est la terre hostile Peufra Oh, oh Ça vient des quartiers nord de Paname ça vient des quartiers Ça fait du sale pour sortir madame ça vient des quartiers T'as plus de chance de t'prendre une rafale que d'glisser sur une banane C'est les quartiers nord de Paname Oh, oh Ça vient des quartiers nord de Paname ça vient des quartiers Ça fait du sale pour sortir madame ça vient des quartiers T'as plus de chance de t'prendre une rafale que d'glisser sur une banane C'est les quartiers nord de Paname Oh, oh C'est nous qui visons, haut les mains, ça consomme la lemon Tous ensemble dans le noir, la passion dans les morts Fait l'oseille dans les mots, j'attends ciel dans les monts ok J'aime pas les modes, j'trouve ma passion dans les ronces C'qui rapporte, c'est l'héro', j'ai bien trop galéré Le vent, l'aileron, y a plus qu'un round, plus d'un soldat dans les raids Rien à fêter comme un gosse mort-né, j'roule dans un costard neuf Une puce, la coke qu't'as mis, trop tard, il faut s'armer Bronzette vers Ko Samui, surveille ton four ou j'le refroidis J'lève mon verre, pas des haltères, l'écho d'la puce, ça nuit J'lève mon verre, j'me désaltère, j'aime quand ça rime, quand ça pète, pète en deux temps De temps en temps, c'est tendu C'est dans les pires moments qu'on t'enterrait dans les meilleurs qu'on t'envie Et dans le noir, j'ai trop serré les menottes, maman J'revends la mort, j'observe où la vie m'emmène Oh, oh Ça vient des quartiers nord de Paname ça vient des quartiers Ça fait du sale pour sortir madame ça vient des quartiers T'as plus de chance de t'prendre une rafale que d'glisser sur une banane C'est les quartiers nord de Paname Oh, oh Ça vient des quartiers nord de Paname ça vient des quartiers Ça fait du sale pour sortir madame ça vient des quartiers T'as plus de chance de t'prendre une rafale que d'glisser sur une banane C'est les quartiers nord de Paname Oh, oh</t>
+          <t>Wahia Oh, oh Ça vient des quartiers nord de Paname ça vient des quartiers Ça fait du sale pour sortir madame ça vient des quartiers T'as plus de chance de t'prendre une rafale que d'glisser sur une banane C'est les quartiers nord de Paname Oh, oh Uzi Israélien vise raëlien, allez, viens, j'pilote notre espace aérien coréen, bats les reins piou Avc deux-trois galériens, même modérés, déférés, qu pour la revente de produits prohibés Modifiés oui, tout c'qu'on veut, c'est être en p'tit comité, profiter oui, voir un jour les quartiers défavorisés dominer Voir un jour les quartiers défavorisés dominer oh, oh Olivier veut per-cho de la pure oui, ils s'en fout de la ue-r oui, il préfère les montagnes oui C'est dommage que j'sois plus dans l'business, j'arrivais bien plus vite que les livreurs d'Amazon Prime nion J'ai l'casque wow, mon pote wow, ma génération est dans les frasques ouh Et comment tu veux qu'ils portent le masque comment ? ? Ils arrêtent pas d'baiser sans capote ouh, ouh Ils veulent le taureau sur la camionnette Urus La recette 0.7, la pesette wow Les jeunettes sous zipette, les soirées polémiques, les requêtes des vedettes sans limite suce Le lendemain, rebelotte les salopes, les Moët jusqu'à c'qu'on t'passe les menottes suce Z., H., S., Rec. 118 nous, budget sans limite Oh, oh Ça vient des quartiers nord de Paname ça vient des quartiers Ça fait du sale pour sortir madame ça vient des quartiers T'as plus de chance de t'prendre une rafale que d'glisser sur une banane C'est les quartiers nord de Paname Oh, oh Ça vient des quartiers nord de Paname ça vient des quartiers Ça fait du sale pour sortir madame ça vient des quartiers T'as plus de chance de t'prendre une rafale que d'glisser sur une banane C'est les quartiers nord de Paname Oh, oh Hein On leur mettait dans les narines, nous, pour faire des vacances à la Marina Viens dans la zone, y a la meilleure beuh, la cité d'en face, j's'rai jamais l'un d'eux T'as vu la p'tite blonde dans la Fiat ah, ah ? Elle te poussera p't-être à la faute ah, ah Elle a des fossettes et un fiak ah, ah, j'la fiancie pas je la fuck Galante, t'as jamais rien fait sur aucun rrain-te, tu viendrais d'chez nous, t'aurais pas rappé On rentre dans ta tess, on opère à pieds J'recompte le bénèf' dans la 45, toi, tu mérites le kil' à 45 Grossistes de chez nous sont d'apparence simple, qu'est-ce que tu peux faire à part faire l'ancien ? Faire l'ancien J'ai passé l'âge de mentir aux p'tits, vends pas où tu veux, rien n'est garanti La balle est partie dans la carotide, c'est dans les gênes d'faire la guerre aux schmitts Audemars Piguet, pas de Cerruti, shlags de zipette dans mon 06 Touche pas à la mif', aux affaires aussi, 93, c'est la terre hostile Peufra Oh, oh Ça vient des quartiers nord de Paname ça vient des quartiers Ça fait du sale pour sortir madame ça vient des quartiers T'as plus de chance de t'prendre une rafale que d'glisser sur une banane C'est les quartiers nord de Paname Oh, oh Ça vient des quartiers nord de Paname ça vient des quartiers Ça fait du sale pour sortir madame ça vient des quartiers T'as plus de chance de t'prendre une rafale que d'glisser sur une banane C'est les quartiers nord de Paname Oh, oh C'est nous qui visons, haut les mains, ça consomme la lemon Tous ensemble dans le noir, la passion dans les morts Fait l'oseille dans les mots, j'attends ciel dans les monts ok J'aime pas les modes, j'trouve ma passion dans les ronces C'qui rapporte, c'est l'héro', j'ai bien trop galéré Le vent, l'aileron, y a plus qu'un round, plus d'un soldat dans les raids Rien à fêter comme un gosse mort-né, j'roule dans un costard neuf Une puce, la coke qu't'as mis, trop tard, il faut s'armer Bronzette vers Ko Samui, surveille ton four ou j'le refroidis J'lève mon verre, pas des haltères, l'écho d'la puce, ça nuit J'lève mon verre, j'me désaltère, j'aime quand ça rime, quand ça pète, pète en deux temps De temps en temps, c'est tendu C'est dans les pires moments qu'on t'enterrait dans les meilleurs qu'on t'envie Et dans le noir, j'ai trop serré les menottes, maman J'revends la mort, j'observe où la vie m'emmène Oh, oh Ça vient des quartiers nord de Paname ça vient des quartiers Ça fait du sale pour sortir madame ça vient des quartiers T'as plus de chance de t'prendre une rafale que d'glisser sur une banane C'est les quartiers nord de Paname Oh, oh Ça vient des quartiers nord de Paname ça vient des quartiers Ça fait du sale pour sortir madame ça vient des quartiers T'as plus de chance de t'prendre une rafale que d'glisser sur une banane C'est les quartiers nord de Paname Oh, oh</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Que de la peugeuf dans le 10 ème conteneur J'parle que de frappe, de la frappe Cantona Ancien sisste-gro t'attends que le RSA T'as plus de peuf mais repasse quand t'en a Chacun son assiette, j'fait la vaisselle avec un pompe sur lévier Bosse en silence, fait les choses dans la nuit Trop tard quand le monde se réveille Ça bibi avec un cache-nez sur le nez Pas cramé, capuchés même sous le sun Ça m'a boycotte mais s'est revenu cé-su Ce qu'on concocte fait moi confiance ces sûr J'ressors plus fort d'une défaite j'oublie rien y'a pas ili fat ili mat Faut des XXX, p'tit rosé, mon kérosène Mélange pas l'amitié, l'oseille jamais Tu sors du ballon grâce au culot de ton baveux Trop peur du canon pour que tu passes au aveux Tend pas ta main ça va se torcher avec Mon jean c'est Balmain j'me suis forcé à le mettre J'aime pas la mala j'suis pas dans l'artifice Dans ce game y'a que le daron qui peut mappeler fils Pas fan de Tony surtout quand il tape un G Bonnie Clyde bébé, qu'on ira plagier Dur de prendre la fuite quand j'suis pété Les keufs de chez nous roule en GTD J'ai plus de valeur que ton pépé Team KB9, nique la mère à valbué' Dur de prendre la fuite quand j'suis pété Les keufs de chez nous roule en GTD J'ai plus de valeur que ton pépé Team KB9, nique la mère à valbué' You might also like J'rentre dans la prod comme dans mâchoire de pouki' J'ai pas percé j'suis même pas encore booké J'suis la goûte du vase sur laquelle tu doutais La peuf' c'est la base c'est comme la deuxième bouteille J'suis sous le soleil, j'suis sous le soleil La concu assommé, la concu assommé Je pense à zoner, trouée était ma semelle Ami d'enfance pas ami de la semaine Téma la chronique tes rappeurs vont chromés J'suis dans la street, j't'autorise même à grogner J'suis un artiste faut-il chanter dans le tro-mé Pour te prouver ça fait un an que j'promet Chaque jour je pense jaune et vert Jusqu'à remuer ciel et terre Viens pas mettre ton nez dans mes affaires Quitte à tourner à prendre du ferme Allez baisse la vitre Carjacking au milieu de la ville En jogging c'est la faute à qui On braque ta mère ce n'est pas un film T'es stressé bah fume un teh T'es stressé bah fume un teh C'est d'la peuf' assume un peu C'est d'la peuf' assume un peu T'es stressé bah fume un teh T'es stressé bah fume un teh C'est d'la peuf' assume un peu C'est d'la peuf' assume un peu T'es stressé bah fume un teh T'es stressé bah fume un teh C'est d'la peuf' assume un peu C'est d'la peuf' assume un peu T'es stressé bah fume un teh T'es stressé bah fume un teh C'est d'la peuf' assume un peu C'est d'la peuf' assume un peu</t>
+          <t>Que de la peugeuf dans le 10 ème conteneur J'parle que de frappe, de la frappe Cantona Ancien sisste-gro t'attends que le RSA T'as plus de peuf mais repasse quand t'en a Chacun son assiette, j'fait la vaisselle avec un pompe sur lévier Bosse en silence, fait les choses dans la nuit Trop tard quand le monde se réveille Ça bibi avec un cache-nez sur le nez Pas cramé, capuchés même sous le sun Ça m'a boycotte mais s'est revenu cé-su Ce qu'on concocte fait moi confiance ces sûr J'ressors plus fort d'une défaite j'oublie rien y'a pas ili fat ili mat Faut des XXX, p'tit rosé, mon kérosène Mélange pas l'amitié, l'oseille jamais Tu sors du ballon grâce au culot de ton baveux Trop peur du canon pour que tu passes au aveux Tend pas ta main ça va se torcher avec Mon jean c'est Balmain j'me suis forcé à le mettre J'aime pas la mala j'suis pas dans l'artifice Dans ce game y'a que le daron qui peut mappeler fils Pas fan de Tony surtout quand il tape un G Bonnie Clyde bébé, qu'on ira plagier Dur de prendre la fuite quand j'suis pété Les keufs de chez nous roule en GTD J'ai plus de valeur que ton pépé Team KB9, nique la mère à valbué' Dur de prendre la fuite quand j'suis pété Les keufs de chez nous roule en GTD J'ai plus de valeur que ton pépé Team KB9, nique la mère à valbué' J'rentre dans la prod comme dans mâchoire de pouki' J'ai pas percé j'suis même pas encore booké J'suis la goûte du vase sur laquelle tu doutais La peuf' c'est la base c'est comme la deuxième bouteille J'suis sous le soleil, j'suis sous le soleil La concu assommé, la concu assommé Je pense à zoner, trouée était ma semelle Ami d'enfance pas ami de la semaine Téma la chronique tes rappeurs vont chromés J'suis dans la street, j't'autorise même à grogner J'suis un artiste faut-il chanter dans le tro-mé Pour te prouver ça fait un an que j'promet Chaque jour je pense jaune et vert Jusqu'à remuer ciel et terre Viens pas mettre ton nez dans mes affaires Quitte à tourner à prendre du ferme Allez baisse la vitre Carjacking au milieu de la ville En jogging c'est la faute à qui On braque ta mère ce n'est pas un film T'es stressé bah fume un teh T'es stressé bah fume un teh C'est d'la peuf' assume un peu C'est d'la peuf' assume un peu T'es stressé bah fume un teh T'es stressé bah fume un teh C'est d'la peuf' assume un peu C'est d'la peuf' assume un peu T'es stressé bah fume un teh T'es stressé bah fume un teh C'est d'la peuf' assume un peu C'est d'la peuf' assume un peu T'es stressé bah fume un teh T'es stressé bah fume un teh C'est d'la peuf' assume un peu C'est d'la peuf' assume un peu</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Zin, cest pas la chute qui compte, cest latterrissage Tu rappes mal ton album est périssable Elle a les couilles de Mendoza Thérésa Pour un rien ça te sort un Beretta On a fait des billets, ils ont dormi, ils ont fait des triplés On a grandi sans repères, on sait gérer les affaires Le zin je peux te faire une passe à ras-de-terre Bénéfice et viles-ci, zin, la muerta ou tchitchi Le Sheytan shabille en Gucci Tout est prémédité, tu vas finir comme Lady Di Jdéfends mes rheyous comme Mendy J'ai RDV avec Sbah après minuit On la fait nous-mêmes, je lai fait seul Je te fais mieux lamour que lui, vas-y dis-lui Je tai vu défoncé, comment est-ce possible ? Tes tombé dans lhéro Écoute la Peuf, jtemmène dans ma putain dmélo Que des grosses cailles-ra dans ltieks igo Que des grosses cailles-ra dans ltieks igo Wesh Larry Hoover, Larry Hoover Jme sens bien jme sens comme Hoover, Larry Hoover Jsuis en pleine forme comme Dadinho Jsuis dans mon bolide jsuis à Rio Jme sens bien jme sens comme Hoover, Larry Hoover Jsuis en pleine forme comme Dadinho Jsuis dans mon bolide jsuis à Rio You might also like Jrentre dans la prod comme la chatte de la proc Audi RS bien sûr qucest rentable la drogue Jai payé la dot, jrécupère ma beauté Peufra sur la casquette mec cest brodé Ya pas qumoi qui mange, mon pote vient droter Ça bibi taga dans ltrou et devant le D Trouve-moi dans ma rue ou Marseille tu sais Jsuis dans lVGS, dans lvagin et tu saignes Jsuis toujours le même, le Jack et le Miel Chaque semaine gros tas vu où ça nous mène Bébé reviens je faisais lidiot Jai peur de Dieu, jveux pas quon midolâtre Avant dniquer ta reum attend jtire deux lattes Là jsuis sous rhum et jsuis pas adorable Le rap mon sérum, faut pas que jme rate Cest pour mes rats, mes gars qui se font rares Larry Hoover Je tai vu défoncé, comment est-ce possible ? Tes tombé dans lhéro Écoute la Peuf, jtemmène dans ma putain dmélo Que des grosses cailles-ra dans ltieks igo Que des grosses cailles-ra dans ltieks igo Wesh Larry Hoover, Larry Hoover Jme sens bien jme sens comme Hoover, Larry Hoover Jsuis en pleine forme comme Dadinho Jsuis dans mon bolide jsuis à Rio Jme sens bien jme sens comme Hoover, Larry Hoover Jsuis en pleine forme comme Dadinho Jsuis dans mon bolide jsuis à Rio Jsuis dans mon bolide jsuis à Rio Wesh Larry Hoover Jsuis dans mon bolide jsuis à Rio Wesh Larry Hoover</t>
+          <t>Zin, cest pas la chute qui compte, cest latterrissage Tu rappes mal ton album est périssable Elle a les couilles de Mendoza Thérésa Pour un rien ça te sort un Beretta On a fait des billets, ils ont dormi, ils ont fait des triplés On a grandi sans repères, on sait gérer les affaires Le zin je peux te faire une passe à ras-de-terre Bénéfice et viles-ci, zin, la muerta ou tchitchi Le Sheytan shabille en Gucci Tout est prémédité, tu vas finir comme Lady Di Jdéfends mes rheyous comme Mendy J'ai RDV avec Sbah après minuit On la fait nous-mêmes, je lai fait seul Je te fais mieux lamour que lui, vas-y dis-lui Je tai vu défoncé, comment est-ce possible ? Tes tombé dans lhéro Écoute la Peuf, jtemmène dans ma putain dmélo Que des grosses cailles-ra dans ltieks igo Que des grosses cailles-ra dans ltieks igo Wesh Larry Hoover, Larry Hoover Jme sens bien jme sens comme Hoover, Larry Hoover Jsuis en pleine forme comme Dadinho Jsuis dans mon bolide jsuis à Rio Jme sens bien jme sens comme Hoover, Larry Hoover Jsuis en pleine forme comme Dadinho Jsuis dans mon bolide jsuis à Rio Jrentre dans la prod comme la chatte de la proc Audi RS bien sûr qucest rentable la drogue Jai payé la dot, jrécupère ma beauté Peufra sur la casquette mec cest brodé Ya pas qumoi qui mange, mon pote vient droter Ça bibi taga dans ltrou et devant le D Trouve-moi dans ma rue ou Marseille tu sais Jsuis dans lVGS, dans lvagin et tu saignes Jsuis toujours le même, le Jack et le Miel Chaque semaine gros tas vu où ça nous mène Bébé reviens je faisais lidiot Jai peur de Dieu, jveux pas quon midolâtre Avant dniquer ta reum attend jtire deux lattes Là jsuis sous rhum et jsuis pas adorable Le rap mon sérum, faut pas que jme rate Cest pour mes rats, mes gars qui se font rares Larry Hoover Je tai vu défoncé, comment est-ce possible ? Tes tombé dans lhéro Écoute la Peuf, jtemmène dans ma putain dmélo Que des grosses cailles-ra dans ltieks igo Que des grosses cailles-ra dans ltieks igo Wesh Larry Hoover, Larry Hoover Jme sens bien jme sens comme Hoover, Larry Hoover Jsuis en pleine forme comme Dadinho Jsuis dans mon bolide jsuis à Rio Jme sens bien jme sens comme Hoover, Larry Hoover Jsuis en pleine forme comme Dadinho Jsuis dans mon bolide jsuis à Rio Jsuis dans mon bolide jsuis à Rio Wesh Larry Hoover Jsuis dans mon bolide jsuis à Rio Wesh Larry Hoover</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>On m'a laissé à l'écart dans le gouffre, tout seul, ça allait pas J'me prépare à tout niquer comme une vierge qui fait l'grand écart J'ai la haine, j'ai pas la flemme, ça ralenti d'finir à Fresnes Dans la galette d'la rue, y a que les schlags qui auront la fève Par ici, ça kicke, ah, par là, ça pipe, le rap de gay, le rap de gay qu'sur Internet te parle de street Tu fais la meuf qui cher-mar vite mais on t'a tourné comme un clip La routine nous brise la patience à force d'attendre la réussite Ça sent la rue et le plastique, me-ca, beuh, héro', zetla J'viens d'citer les quatre fantastiques, j'viens d'une cité plus que magique Vodka-Redbull donne des couilles, sous alcool, ça s'agite Mais la tise, tise te rouille jusqu'à qu'le salut s'invite On te laisse, laisse parler allez, on sait qu'le sang salit T'es une grosse merde dans l'atmosphère, comment oses-tu faire ta vie ? Hein ? Tout brûler, c'est super simple, oxygéné par un coup d'extinct' J'ai vingt piges, on t'regarde pas comme la cinq Le matin, levé par un cops, nous, dans l'9.3, c'est les poulets Les p'tits frères bicravent la coke, les grands, t'as des grammes dans la foulée Normal, c'est la routine, ORG, si tu passes, passes en footing Normal, c'est la routine, RDM, si tu passes, fais pas de shooting Un, deux, trois, quatre, cinq, six, les portes sont closes alors j'insiste A86, vroum, vroum, j'rejoins la A10 Deux, trois, quatre, cinq, six, deux, trois, quatre, cinq, six Vroum, vroum, j'rejoins la A10, deux, trois, quatre, cinq, six yeah Un, deux, trois, quatre, cinq, six, les portes sont closes alors j'insiste A86, vroum, vroum, j'rejoins la A10 Deux, trois, quatre, cinq, six, deux, trois, quatre, cinq, six Vroum, vroum, j'rejoins la A10, deux, trois, quatre, cinq, six You might also like Mon, mon, mon équipe en LV, Gucci, DG, prête à bouger Wesh les BG, j'vais vous baiser, j'ai plus la cote qu'un boucher Bouche bée, j'les laisse baver, t'es bof comme Lior de Bovi J'suis beau, elles veulent me to-ph' et veulent m'étouffer Poussez-vous, j'ai b'soin d'air, la vie, j'lui nique sa mère J'ai pas grandi avec mon père mais avec ma mère, on fait la paire Avec ma mère, on fait la paire, on perd des frères sur le ter-ter On demande la paix, ils veulent la guerre, ferme ta gueule, on t'nique ta mère, hein Grandi dans la sère-mi, RSA, RMI, barre sur les T et les points sur mon permis Mon train de vie te fait sauter du quai, on t'hagar, tu donnes et tu t'tais Ça fait mal, j'me sens persécuté, ça fait mal mais j'vais percer, tu sais ORG, y a d'la coke perchée, trop d'moutons pour si peu d'bergers Wesh berger, tu as des moutons ? J'suis trop bon, j'vais les égorger Comme un prénom pakistanais, ah, on va t'écorcher T'es rempli de chtars, c'est pas un visage, c'est les quais d'Orsay c'est les quais d'Orsay Un, deux, trois, quatre, cinq, six, les portes sont closes alors j'insiste A86, vroum, vroum, j'rejoins la A10 Deux, trois, quatre, cinq, six, deux, trois, quatre, cinq, six Vroum, vroum, j'rejoins la A10, deux, trois, quatre, cinq, six yeah Un, deux, trois, quatre, cinq, six, les portes sont closes alors j'insiste A86, vroum, vroum, j'rejoins la A10 Deux, trois, quatre, cinq, six, deux, trois, quatre, cinq, six Vroum, vroum, j'rejoins la A10, deux, trois, quatre, cinq, six</t>
+          <t>On m'a laissé à l'écart dans le gouffre, tout seul, ça allait pas J'me prépare à tout niquer comme une vierge qui fait l'grand écart J'ai la haine, j'ai pas la flemme, ça ralenti d'finir à Fresnes Dans la galette d'la rue, y a que les schlags qui auront la fève Par ici, ça kicke, ah, par là, ça pipe, le rap de gay, le rap de gay qu'sur Internet te parle de street Tu fais la meuf qui cher-mar vite mais on t'a tourné comme un clip La routine nous brise la patience à force d'attendre la réussite Ça sent la rue et le plastique, me-ca, beuh, héro', zetla J'viens d'citer les quatre fantastiques, j'viens d'une cité plus que magique Vodka-Redbull donne des couilles, sous alcool, ça s'agite Mais la tise, tise te rouille jusqu'à qu'le salut s'invite On te laisse, laisse parler allez, on sait qu'le sang salit T'es une grosse merde dans l'atmosphère, comment oses-tu faire ta vie ? Hein ? Tout brûler, c'est super simple, oxygéné par un coup d'extinct' J'ai vingt piges, on t'regarde pas comme la cinq Le matin, levé par un cops, nous, dans l'9.3, c'est les poulets Les p'tits frères bicravent la coke, les grands, t'as des grammes dans la foulée Normal, c'est la routine, ORG, si tu passes, passes en footing Normal, c'est la routine, RDM, si tu passes, fais pas de shooting Un, deux, trois, quatre, cinq, six, les portes sont closes alors j'insiste A86, vroum, vroum, j'rejoins la A10 Deux, trois, quatre, cinq, six, deux, trois, quatre, cinq, six Vroum, vroum, j'rejoins la A10, deux, trois, quatre, cinq, six yeah Un, deux, trois, quatre, cinq, six, les portes sont closes alors j'insiste A86, vroum, vroum, j'rejoins la A10 Deux, trois, quatre, cinq, six, deux, trois, quatre, cinq, six Vroum, vroum, j'rejoins la A10, deux, trois, quatre, cinq, six Mon, mon, mon équipe en LV, Gucci, DG, prête à bouger Wesh les BG, j'vais vous baiser, j'ai plus la cote qu'un boucher Bouche bée, j'les laisse baver, t'es bof comme Lior de Bovi J'suis beau, elles veulent me to-ph' et veulent m'étouffer Poussez-vous, j'ai b'soin d'air, la vie, j'lui nique sa mère J'ai pas grandi avec mon père mais avec ma mère, on fait la paire Avec ma mère, on fait la paire, on perd des frères sur le ter-ter On demande la paix, ils veulent la guerre, ferme ta gueule, on t'nique ta mère, hein Grandi dans la sère-mi, RSA, RMI, barre sur les T et les points sur mon permis Mon train de vie te fait sauter du quai, on t'hagar, tu donnes et tu t'tais Ça fait mal, j'me sens persécuté, ça fait mal mais j'vais percer, tu sais ORG, y a d'la coke perchée, trop d'moutons pour si peu d'bergers Wesh berger, tu as des moutons ? J'suis trop bon, j'vais les égorger Comme un prénom pakistanais, ah, on va t'écorcher T'es rempli de chtars, c'est pas un visage, c'est les quais d'Orsay c'est les quais d'Orsay Un, deux, trois, quatre, cinq, six, les portes sont closes alors j'insiste A86, vroum, vroum, j'rejoins la A10 Deux, trois, quatre, cinq, six, deux, trois, quatre, cinq, six Vroum, vroum, j'rejoins la A10, deux, trois, quatre, cinq, six yeah Un, deux, trois, quatre, cinq, six, les portes sont closes alors j'insiste A86, vroum, vroum, j'rejoins la A10 Deux, trois, quatre, cinq, six, deux, trois, quatre, cinq, six Vroum, vroum, j'rejoins la A10, deux, trois, quatre, cinq, six</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>On s'est compris, t'sais qu'on drill Oh my god Ramène ta prod, d'la drill, ramène ta prod, j'la drill Ramène la prod, j'la drill J'fais d'la drill, j'ai la prise comme J'fais d'la drill ouais, d'la drill, tête mée-cra comme Krilin bang, bang, bang Dans mon coin, j'observe, j'te baise, j'écoute pas tout c'qu'on m'dit, non jamais, nan La poucave à l'aise à l'aise, ma gueule, mon bigo qui résonne eh, ouais Veulent l'identité du rebeu qui conduit l'RS3 toujours cramé Y a plus d'conso' hein, t'as pas su gérer l'olive On, on n'a plus l'âge d'fumer d'la calle Riches et jeunes qui baisent des MILF J'demande plus l'prix, juste ma taille Qu du Jack, c'est le Diable qui t'assur bang Casquetté pour l'été, pas d'teinture Pas d'jaloux, je m'en fous qu'on m'la prenne Elle est bonne, je la baise même l'après-m' Hor-Hornet, Ashe, 6.9.9.3 eh Tu sais qu'on fait tache, que des têtes mées-cra Déter' comme les Corses et oui, ma gueule J'sais qu'ils m'détestent aussi, hein Hor-Hornet, Ashe, 6.9.9.3 Tu sais qu'on fait tache, que des têtes mées-cra Déter' comme les Corses Peufra Gang J'sais qu'ils m'détestent aussi, hein brr You might also like J'suis pas d'la hype, nan, nan, j'suis bien d'la ue-r hey Ça vend du shit pour rouler en grosse voiture hey Famille nombreuse élevée au coup d'ceinture On tient l'terrain, faut qu'ça dure, on tient l'terrain, faut qu'ça dure hey J'suis pas d'la hype, nan, nan, j'suis bien d'la ue-r hey Ça vend du shit pour rouler en grosse voiture hey Famille nombreuse élevée au coup d'ceinture On tient l'terrain, faut qu'ça dure, on tient l'terrain, faut qu'ça dure Tu connais l'pedigree, PDP, que des fils d'immigrés hey, hey La selha est pure, la selha est dure, j'baraude dans la ville, j'visser en voiture Ils m'ont eu, sa mère la pute, pute, pute, j'ai essuyé plus d'200 filatures hey, hey Et sur le rrain-te, j'mets l'but, but, but, elle veut payer la selha en nature bitch J'lui dis C'est impossible hey, au comico, j'suis pris pour cible À la ratte, j'fumais des pét' dans la coursive brr, projection, j'finis ivre hey, hey Dehors ou dedans dedans, on sait comment vivre Si y a un p'tit pépin, comme une bougie, j'l'éteins splash Et toutes ces salopes, salopes, salopes, j'les vois comme des tains-p' hey J'suis au quartier toute la night hey, j'ai d'la white hey et j'la revends hey, hey Les p'tits sur les cross quand y a les cops, que ça les nargue en levant J'me suis envoyé hi ah, je rentre tard, j'me couche au soleil levant eh, eh, grr J'suis pas d'la hype, nan, nan, j'suis bien d'la ue-r hey Ça vend du shit pour rouler en grosse voiture hey Famille nombreuse élevée au coup d'ceinture On tient l'terrain, faut qu'ça dure, on tient l'terrain, faut qu'ça dure hey J'suis pas d'la hype, nan, nan, j'suis bien d'la ue-r hey Ça vend du shit pour rouler en grosse voiture hey Famille nombreuse élevée au coup d'ceinture On tient l'terrain, faut qu'ça dure, on tient l'terrain, faut qu'ça dure J'suis pas d'la hype, nan, nan, j'suis bien d'la ue-r hey Ça vend du shit pour rouler en grosse voiture hey Famille nombreuse élevée au coup d'ceinture On tient l'terrain, faut qu'ça dure, on tient l'terrain, faut qu'ça dure hey Hey, hey Hey, hey 6.9.9.3 6.9.9.3</t>
+          <t>On s'est compris, t'sais qu'on drill Oh my god Ramène ta prod, d'la drill, ramène ta prod, j'la drill Ramène la prod, j'la drill J'fais d'la drill, j'ai la prise comme J'fais d'la drill ouais, d'la drill, tête mée-cra comme Krilin bang, bang, bang Dans mon coin, j'observe, j'te baise, j'écoute pas tout c'qu'on m'dit, non jamais, nan La poucave à l'aise à l'aise, ma gueule, mon bigo qui résonne eh, ouais Veulent l'identité du rebeu qui conduit l'RS3 toujours cramé Y a plus d'conso' hein, t'as pas su gérer l'olive On, on n'a plus l'âge d'fumer d'la calle Riches et jeunes qui baisent des MILF J'demande plus l'prix, juste ma taille Qu du Jack, c'est le Diable qui t'assur bang Casquetté pour l'été, pas d'teinture Pas d'jaloux, je m'en fous qu'on m'la prenne Elle est bonne, je la baise même l'après-m' Hor-Hornet, Ashe, 6.9.9.3 eh Tu sais qu'on fait tache, que des têtes mées-cra Déter' comme les Corses et oui, ma gueule J'sais qu'ils m'détestent aussi, hein Hor-Hornet, Ashe, 6.9.9.3 Tu sais qu'on fait tache, que des têtes mées-cra Déter' comme les Corses Peufra Gang J'sais qu'ils m'détestent aussi, hein brr J'suis pas d'la hype, nan, nan, j'suis bien d'la ue-r hey Ça vend du shit pour rouler en grosse voiture hey Famille nombreuse élevée au coup d'ceinture On tient l'terrain, faut qu'ça dure, on tient l'terrain, faut qu'ça dure hey J'suis pas d'la hype, nan, nan, j'suis bien d'la ue-r hey Ça vend du shit pour rouler en grosse voiture hey Famille nombreuse élevée au coup d'ceinture On tient l'terrain, faut qu'ça dure, on tient l'terrain, faut qu'ça dure Tu connais l'pedigree, PDP, que des fils d'immigrés hey, hey La selha est pure, la selha est dure, j'baraude dans la ville, j'visser en voiture Ils m'ont eu, sa mère la pute, pute, pute, j'ai essuyé plus d'200 filatures hey, hey Et sur le rrain-te, j'mets l'but, but, but, elle veut payer la selha en nature bitch J'lui dis C'est impossible hey, au comico, j'suis pris pour cible À la ratte, j'fumais des pét' dans la coursive brr, projection, j'finis ivre hey, hey Dehors ou dedans dedans, on sait comment vivre Si y a un p'tit pépin, comme une bougie, j'l'éteins splash Et toutes ces salopes, salopes, salopes, j'les vois comme des tains-p' hey J'suis au quartier toute la night hey, j'ai d'la white hey et j'la revends hey, hey Les p'tits sur les cross quand y a les cops, que ça les nargue en levant J'me suis envoyé hi ah, je rentre tard, j'me couche au soleil levant eh, eh, grr J'suis pas d'la hype, nan, nan, j'suis bien d'la ue-r hey Ça vend du shit pour rouler en grosse voiture hey Famille nombreuse élevée au coup d'ceinture On tient l'terrain, faut qu'ça dure, on tient l'terrain, faut qu'ça dure hey J'suis pas d'la hype, nan, nan, j'suis bien d'la ue-r hey Ça vend du shit pour rouler en grosse voiture hey Famille nombreuse élevée au coup d'ceinture On tient l'terrain, faut qu'ça dure, on tient l'terrain, faut qu'ça dure J'suis pas d'la hype, nan, nan, j'suis bien d'la ue-r hey Ça vend du shit pour rouler en grosse voiture hey Famille nombreuse élevée au coup d'ceinture On tient l'terrain, faut qu'ça dure, on tient l'terrain, faut qu'ça dure hey Hey, hey Hey, hey 6.9.9.3 6.9.9.3</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Dictateur mais pas autodidacte Après le dernier Roi d'Écosse, voici le premier du 9-3 800 Trop de diques-sa, trop de XXX Trop de cistes-ra, trop de poucaves dans le, dans le 9-3 800 P'tit d'la tess, le vécu d'un soldat J'ai fait les quatre-cents coups, et appris qu'la prison m'attendra 9-3 800 9-3 plaque de malade, mise à l'amende Solidaire avec les G'z de la bande 9-3 800 J'ai des potes dans les quatre coins d'la ville J'y suis né, j'y ai grandi, mec c'st ma vie 9-3 800 Les lames, ls armes font couler nos larmes Marre des drames, faites sonner l'alarme 9-3 800 Le rap c'est pas ma vie et les ports d'armes sont fréquents Les malades se soignent au shit et sans médecin traitant 9-3 800 La main sur le cur pour dédicacer l'son Pour ceux qui vivent en deuil les quatre saisons 9-3 800 You might also like On a perdu des potes, on a perdu des proches La main sur le cur tout en mettant la main dans la poche 9-3 800 Y a de la bonne mais les barrettes diminuent 93, tu peux tout gagner ou perdre en dix minutes 9-3 800 Original quartier, c'est pas une copie Si mon tier-quar nique ta rue, c'est parce que c'est sa copine 9-3 800 93 gère toutes les tés-ci Les boys et les girls, c'est les guns qu'ils apprécient 9-3 800 Hey yo, mes pensées n'ont jamais quitté le 93 Violences, voitures volées, dealers et frites merguez C'est mon 9-3 800 Hey yo, Cité Blanche, Orgemont, XXX Les Presles, les Écondeaux, la Source et la Justice 9-3 800 Hey yo, rue d'Marseille, rue d'Lyon, rue d'Lille, rue Dumas Louise-Michel, Jean Vigo, en sac à dos Lafuma 9-3 800 Hey yo, meurtres sous les caméras, deals sous les caméras C'est comme ça de sept à soixante-dix-sept ans, caille-ra 9-3 800 Hey yo, couscous, tajine, mafé, colombo Pizza, que-grè, agneau sauce gombo 9-3 800 Hey yo, Sénégal, Mali, Côte d'Ivoire, Martinique Guadeloupe, Réunion, Haïti, Algérie 9-3 800 Hey yo, Didier, Komi, Ludo, Bacary Bouba, Samuel, une pensée pour leur famille 9-3 800 Y en a qui rappent y en a qui rappent Y en a qui jouent au foot y en a qui jouent au foot Y en a qui dealent y en a qui dealent D'autres qu'en ont rien à foutre Respecte mon département Respecte mon département Y en a qui bossent y en a qui bossent Y en a qui vont en cours y en a qui vont en cours Y en a qui forcent y en a qui forcent Leur destin car y a plus d'amour Respecte mon département Respecte mon département</t>
+          <t>Dictateur mais pas autodidacte Après le dernier Roi d'Écosse, voici le premier du 9-3 800 Trop de diques-sa, trop de XXX Trop de cistes-ra, trop de poucaves dans le, dans le 9-3 800 P'tit d'la tess, le vécu d'un soldat J'ai fait les quatre-cents coups, et appris qu'la prison m'attendra 9-3 800 9-3 plaque de malade, mise à l'amende Solidaire avec les G'z de la bande 9-3 800 J'ai des potes dans les quatre coins d'la ville J'y suis né, j'y ai grandi, mec c'st ma vie 9-3 800 Les lames, ls armes font couler nos larmes Marre des drames, faites sonner l'alarme 9-3 800 Le rap c'est pas ma vie et les ports d'armes sont fréquents Les malades se soignent au shit et sans médecin traitant 9-3 800 La main sur le cur pour dédicacer l'son Pour ceux qui vivent en deuil les quatre saisons 9-3 800 On a perdu des potes, on a perdu des proches La main sur le cur tout en mettant la main dans la poche 9-3 800 Y a de la bonne mais les barrettes diminuent 93, tu peux tout gagner ou perdre en dix minutes 9-3 800 Original quartier, c'est pas une copie Si mon tier-quar nique ta rue, c'est parce que c'est sa copine 9-3 800 93 gère toutes les tés-ci Les boys et les girls, c'est les guns qu'ils apprécient 9-3 800 Hey yo, mes pensées n'ont jamais quitté le 93 Violences, voitures volées, dealers et frites merguez C'est mon 9-3 800 Hey yo, Cité Blanche, Orgemont, XXX Les Presles, les Écondeaux, la Source et la Justice 9-3 800 Hey yo, rue d'Marseille, rue d'Lyon, rue d'Lille, rue Dumas Louise-Michel, Jean Vigo, en sac à dos Lafuma 9-3 800 Hey yo, meurtres sous les caméras, deals sous les caméras C'est comme ça de sept à soixante-dix-sept ans, caille-ra 9-3 800 Hey yo, couscous, tajine, mafé, colombo Pizza, que-grè, agneau sauce gombo 9-3 800 Hey yo, Sénégal, Mali, Côte d'Ivoire, Martinique Guadeloupe, Réunion, Haïti, Algérie 9-3 800 Hey yo, Didier, Komi, Ludo, Bacary Bouba, Samuel, une pensée pour leur famille 9-3 800 Y en a qui rappent y en a qui rappent Y en a qui jouent au foot y en a qui jouent au foot Y en a qui dealent y en a qui dealent D'autres qu'en ont rien à foutre Respecte mon département Respecte mon département Y en a qui bossent y en a qui bossent Y en a qui vont en cours y en a qui vont en cours Y en a qui forcent y en a qui forcent Leur destin car y a plus d'amour Respecte mon département Respecte mon département</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Rancunier vient d'fumer en perm La frappe c'est rentable à long terme J'règle mes problèmes, j'viens en pers' Filmé fausse me-ar, c'est la perte Ça fait juste bien Ecoute les conseils de l'ancêtre, si tu veux gonfler la r'cette La suite je l'aime pas il le sait Sans parler il sent Ca rêvait de toucher du seum Pour voir un bout d'plat j'ai dû seul Facile de m'aimer Une fois dans la lumière faudra m'dire quand elle voudra même plus s'allumer Redbull, Hennessy, quand j'ai fini déçu Toujours dans ma té-ci, le p'tit monde s'appréciait On na pas cé-su pour finir rassasié Connu la misère, les fins d'mois une mission Connu les 3 singes le jour de l'audition Casquette bien baissée mais j'perds pas la vision J'pensais qu'le temps qui passait pouvait m'assagir Y a que les vrais côté passager J'fais la guerre comme si j'avais rien à perdre Pourtant j'ai d'ja mis famille à l'abri J'pensais qu'le temps qui passait pouvait m'assagir Y a que les vrais côté passager J'fais la guerre comme si j'avais rien à perdre Pourtant j'ai d'ja mis famille à l'abri You might also like Faut ves-qui Satan ne pas finir sans tal' Juste d'en parler j'ai mon cur qui s'emballe Pas avec n'importe qui, qu'on boit du champagne Poto dis-moi t'es qui?, j'connais mes semblables Quand j'sors cheval cabré j'porte pas d'Ralph Lauren J'fais l'tour del mundo là je reviens d'Floride Le chant des loups symphonie, ghettoïsé, pas choisi A deux sur un che-fla on a fait du ch'min J'suis près d'ma sse-lia, sous cello c'est scellé Tu veux me faire mais t'es très mal renseigné P'tit Mounir représente sa ville, mais sa ville est en guerre avec sa rue J'suis plus un p'tit moi j'te salue Faut faire d'l'oseille, y a pas un pour quon salut Sortir la daronne du bâtiment in-salubre J'pensais qu'le temps qui passait pouvait m'assagir Y a que les vrais côté passager J'fais la guerre comme si j'avais rien à perdre Pourtant j'ai d'ja mis famille à l'abri J'pensais qu'le temps qui passait pouvait m'assagir Y a que les vrais côté passager J'fais la guerre comme si j'avais rien à perdre Pourtant j'ai d'ja mis famille à l'abri</t>
+          <t>Rancunier vient d'fumer en perm La frappe c'est rentable à long terme J'règle mes problèmes, j'viens en pers' Filmé fausse me-ar, c'est la perte Ça fait juste bien Ecoute les conseils de l'ancêtre, si tu veux gonfler la r'cette La suite je l'aime pas il le sait Sans parler il sent Ca rêvait de toucher du seum Pour voir un bout d'plat j'ai dû seul Facile de m'aimer Une fois dans la lumière faudra m'dire quand elle voudra même plus s'allumer Redbull, Hennessy, quand j'ai fini déçu Toujours dans ma té-ci, le p'tit monde s'appréciait On na pas cé-su pour finir rassasié Connu la misère, les fins d'mois une mission Connu les 3 singes le jour de l'audition Casquette bien baissée mais j'perds pas la vision J'pensais qu'le temps qui passait pouvait m'assagir Y a que les vrais côté passager J'fais la guerre comme si j'avais rien à perdre Pourtant j'ai d'ja mis famille à l'abri J'pensais qu'le temps qui passait pouvait m'assagir Y a que les vrais côté passager J'fais la guerre comme si j'avais rien à perdre Pourtant j'ai d'ja mis famille à l'abri Faut ves-qui Satan ne pas finir sans tal' Juste d'en parler j'ai mon cur qui s'emballe Pas avec n'importe qui, qu'on boit du champagne Poto dis-moi t'es qui?, j'connais mes semblables Quand j'sors cheval cabré j'porte pas d'Ralph Lauren J'fais l'tour del mundo là je reviens d'Floride Le chant des loups symphonie, ghettoïsé, pas choisi A deux sur un che-fla on a fait du ch'min J'suis près d'ma sse-lia, sous cello c'est scellé Tu veux me faire mais t'es très mal renseigné P'tit Mounir représente sa ville, mais sa ville est en guerre avec sa rue J'suis plus un p'tit moi j'te salue Faut faire d'l'oseille, y a pas un pour quon salut Sortir la daronne du bâtiment in-salubre J'pensais qu'le temps qui passait pouvait m'assagir Y a que les vrais côté passager J'fais la guerre comme si j'avais rien à perdre Pourtant j'ai d'ja mis famille à l'abri J'pensais qu'le temps qui passait pouvait m'assagir Y a que les vrais côté passager J'fais la guerre comme si j'avais rien à perdre Pourtant j'ai d'ja mis famille à l'abri</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>On s'fait contrôler dès l'sbar, y a les condés à l'affût J'sais pas si j'vais rentrer tard, j'suis déjà fonce-dé à la fume Ce monde ne peut pas m'ber-ba, moi, j'suis élevé à la dure La mentale depuis l'départ, dis-leur que c'est nous la ue-r On s'fait contrôler dès l'sbar, y a les condés à l'affût J'sais pas si j'vais rentrer tard, j'suis déjà fonce-dé à la fume Ce monde ne peut pas m'ber-ba, moi, j'suis élevé à la dure La mentale depuis l'départ, dis-leur que c'est nous la ue-r J'me fais palper par ces dales-pé, j'suis trop cramé dans la ville J'ai mes papiers, j'ai du papier, toujours un pied dans la street Bébé, j'ai mon tard-pé, on ne perdra pas la vie Une vie, une seule équipe, je garderai mes amis Les tits-pe aiment s'défoncer l'crâne, les anciens rêvent de toucher l'quinté Y a plus d'avenir dans l'détail, j'mets tout mon TP dans l'Belve' Y a plus d'bénéf', on décale et mon cassier, rien qu'il grossit Comment s'refaire au D4 ? Y a plus qu'deux-trois têtes qui t'assistent Au bord d'un fer, j'suis miné, TP sans art, c'est miné Je vais pas m'faire éliminer même si la go est mignonne Au bord d'un fer, j'suis miné, TP sans art, c'est miné Je veux pas m'faire éliminer même si la go est mignonne You might also like On s'fait contrôler dès l'sbar, y a les condés à l'affût J'sais pas si j'vais rentrer tard, j'suis déjà fonce-dé à la fume Ce monde ne peut pas m'ber-ba, moi, j'suis élevé à la dure La mentale depuis l'départ, dis-leur que c'est nous la ue-r Ça pète la mañana, ça pète la mañana La détaille en patate, j'la distribue sur un Max-T Ça pète la mañana, ça pète la mañana La détaille en patate, j'la distribue sur un Max-T Des missions à droite, à gauche, des porcs qui tournent, deux-trois kichtas dans la bre-ch L'argent est sale mais lave tous mes remords dès lors qu'on l'a pas fait pour une tte-ch' Coup d'lampe torche après minuit sous l'porche, BAC navigue dans l'tieks Faut pas qu'j'm'endorme, dans l'sang, j'ai tellement d'alcool, j'sais même plus à quelle heure, ça pète C'qui y a dans l'cellophane m'a fait jeté mon 'phone À défaut, des millions d'phone, j'ai connu des millions d'fous Dans l'tieks, la police bloque en bas, la daronne pleure en haut, haut, haut J'peux pas finir là-bas, j'leur ai promis qu'on quitterait l'tieks Mais faut des sommes, ouais, faut des sommes Avant qu'le réseau vienne me descendre J'ai pas encore fait tout c'qu'il faut Pour l'instant, j'dois rester encore à la maison On s'fait contrôler dès l'sbar, y a les condés à l'affût J'sais pas si j'vais rentrer tard, j'suis déjà fonce-dé à la fume Ce monde ne peut pas m'ber-ba, moi, j'suis élevé à la dure La mentale depuis l'départ, dis-leur que c'est nous la ue-r Ça pète la mañana, ça pète la mañana La détaille en patate, j'la distribue sur un Max-T Ça pète la mañana, ça pète la mañana La détaille en patate, j'la distribue sur un Max-T Ça pète la mañana, mañana Baille Broliker Production La détaille en patate, sur un Max-T</t>
+          <t>On s'fait contrôler dès l'sbar, y a les condés à l'affût J'sais pas si j'vais rentrer tard, j'suis déjà fonce-dé à la fume Ce monde ne peut pas m'ber-ba, moi, j'suis élevé à la dure La mentale depuis l'départ, dis-leur que c'est nous la ue-r On s'fait contrôler dès l'sbar, y a les condés à l'affût J'sais pas si j'vais rentrer tard, j'suis déjà fonce-dé à la fume Ce monde ne peut pas m'ber-ba, moi, j'suis élevé à la dure La mentale depuis l'départ, dis-leur que c'est nous la ue-r J'me fais palper par ces dales-pé, j'suis trop cramé dans la ville J'ai mes papiers, j'ai du papier, toujours un pied dans la street Bébé, j'ai mon tard-pé, on ne perdra pas la vie Une vie, une seule équipe, je garderai mes amis Les tits-pe aiment s'défoncer l'crâne, les anciens rêvent de toucher l'quinté Y a plus d'avenir dans l'détail, j'mets tout mon TP dans l'Belve' Y a plus d'bénéf', on décale et mon cassier, rien qu'il grossit Comment s'refaire au D4 ? Y a plus qu'deux-trois têtes qui t'assistent Au bord d'un fer, j'suis miné, TP sans art, c'est miné Je vais pas m'faire éliminer même si la go est mignonne Au bord d'un fer, j'suis miné, TP sans art, c'est miné Je veux pas m'faire éliminer même si la go est mignonne On s'fait contrôler dès l'sbar, y a les condés à l'affût J'sais pas si j'vais rentrer tard, j'suis déjà fonce-dé à la fume Ce monde ne peut pas m'ber-ba, moi, j'suis élevé à la dure La mentale depuis l'départ, dis-leur que c'est nous la ue-r Ça pète la mañana, ça pète la mañana La détaille en patate, j'la distribue sur un Max-T Ça pète la mañana, ça pète la mañana La détaille en patate, j'la distribue sur un Max-T Des missions à droite, à gauche, des porcs qui tournent, deux-trois kichtas dans la bre-ch L'argent est sale mais lave tous mes remords dès lors qu'on l'a pas fait pour une tte-ch' Coup d'lampe torche après minuit sous l'porche, BAC navigue dans l'tieks Faut pas qu'j'm'endorme, dans l'sang, j'ai tellement d'alcool, j'sais même plus à quelle heure, ça pète C'qui y a dans l'cellophane m'a fait jeté mon 'phone À défaut, des millions d'phone, j'ai connu des millions d'fous Dans l'tieks, la police bloque en bas, la daronne pleure en haut, haut, haut J'peux pas finir là-bas, j'leur ai promis qu'on quitterait l'tieks Mais faut des sommes, ouais, faut des sommes Avant qu'le réseau vienne me descendre J'ai pas encore fait tout c'qu'il faut Pour l'instant, j'dois rester encore à la maison On s'fait contrôler dès l'sbar, y a les condés à l'affût J'sais pas si j'vais rentrer tard, j'suis déjà fonce-dé à la fume Ce monde ne peut pas m'ber-ba, moi, j'suis élevé à la dure La mentale depuis l'départ, dis-leur que c'est nous la ue-r Ça pète la mañana, ça pète la mañana La détaille en patate, j'la distribue sur un Max-T Ça pète la mañana, ça pète la mañana La détaille en patate, j'la distribue sur un Max-T Ça pète la mañana, mañana Baille Broliker Production La détaille en patate, sur un Max-T</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Iélelelela lelela lelela Elle me dit, j'suis trop ghetto Allô ? C'est les cités Tu connais le phénomène J'les vois tous flous sous miel J'me prend pour Räikkönen Y'a plus de réseau sous le tunnel J'm'enroule un beldia Avec une très belle 3arbiya Un peu ghetto, un peu niya Un peu comme elle était Elvira Ça vient d'Alger Tizi et Sétif On va tous les faire bssif J'ai les oreilles qui sifflnt Toi-même tu sais qu'on siffle Ça joue d'la guitare, pas du violon Les petits sont devenus violents On s'est fait seuls en volant 9-3, plus rien d'étonnant You might also like Iélelelela lelela lelela Elle me dit, j'suis trop ghetto Allô ? C'est les cités Iélelelela lelela lelela Elle me dit, j'suis trop ghetto Allô ? C'est les cités Trop l'sang chaud, j'pourrais pas faire l'fragile Que du business, comme l'Afrique, la Chine Sort l'pe-pom, met le sur le front d'un loux-ja Laisse ça, j'sais que t'es pris d'panique H24, flics au pattes Un destin d'psychopathe J'ai dos-ma mais tu mérites le plâtre En plus toi tu portes plainte Ça joue d'la guitare, pas du violon Les petits sont devenus violents On s'est fait seuls en volant 9-3, plus rien d'étonnant Iélelelela lelela lelela Elle me dit, j'suis trop ghetto Allô ? C'est les cités Iélelelela lelela lelela Elle me dit, j'suis trop ghetto Allô ? C'est les cités Iélelelela lelela lelela Elle me dit, j'suis trop ghetto Allô ? C'est les cités Iélelelela lelela lelela Elle me dit, j'suis trop ghetto Allô ? C'est les cités Iélelelela lelela lelela Allô ? C'est les cités Allô ? C'est les cités</t>
+          <t>Iélelelela lelela lelela Elle me dit, j'suis trop ghetto Allô ? C'est les cités Tu connais le phénomène J'les vois tous flous sous miel J'me prend pour Räikkönen Y'a plus de réseau sous le tunnel J'm'enroule un beldia Avec une très belle 3arbiya Un peu ghetto, un peu niya Un peu comme elle était Elvira Ça vient d'Alger Tizi et Sétif On va tous les faire bssif J'ai les oreilles qui sifflnt Toi-même tu sais qu'on siffle Ça joue d'la guitare, pas du violon Les petits sont devenus violents On s'est fait seuls en volant 9-3, plus rien d'étonnant Iélelelela lelela lelela Elle me dit, j'suis trop ghetto Allô ? C'est les cités Iélelelela lelela lelela Elle me dit, j'suis trop ghetto Allô ? C'est les cités Trop l'sang chaud, j'pourrais pas faire l'fragile Que du business, comme l'Afrique, la Chine Sort l'pe-pom, met le sur le front d'un loux-ja Laisse ça, j'sais que t'es pris d'panique H24, flics au pattes Un destin d'psychopathe J'ai dos-ma mais tu mérites le plâtre En plus toi tu portes plainte Ça joue d'la guitare, pas du violon Les petits sont devenus violents On s'est fait seuls en volant 9-3, plus rien d'étonnant Iélelelela lelela lelela Elle me dit, j'suis trop ghetto Allô ? C'est les cités Iélelelela lelela lelela Elle me dit, j'suis trop ghetto Allô ? C'est les cités Iélelelela lelela lelela Elle me dit, j'suis trop ghetto Allô ? C'est les cités Iélelelela lelela lelela Elle me dit, j'suis trop ghetto Allô ? C'est les cités Iélelelela lelela lelela Allô ? C'est les cités Allô ? C'est les cités</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Peufra Amana, Amanagoye Team Peufra Woooo On fête ta mort, on t'allume pour Halloween Sous coke lambel, t'es belle comme Campbell Naomi Litrons de shit cellophanés comme la momie T'es tout fané, c'est fini mec, c'est l'agonie J'kiffe le Brésil, j'voyageais dans des îles J't'ai d'jà baisé, pour toi j'ai plus de désir On aime le réel pas la fantaisie Aucune valeur, ton ML mec c'est un leasing Petit jaloux, le rap c'est pas la vraie vie Chargeur vide, détale le marabout à Fifty Demain c'est pas loin, c'est juste après minuit J'prend des nouvelles de mes ennemis, quoi de neuf Milli Coup d'schlass sur la joue, t'as le pansement à Nelly J'vais partir un jour, ouais Nelly Nelly Coup d'schlass sur la joue, t'as le pansement à Nelly J'vais partir un jour, ouais Nelly Nelly J'suis dans ma gova, j'mets v'la le gros son dans le poste J'suis dans l'anonymat, j'suis sûrement l'futur boss J'reste dans mon coin, j'suis pas dans la fosse Ma parole est vraie, laisse-moi faire les choses You might also like La nourrice s'est fait péter Amanagoye Y'a plus rien à fêter Amanagoye On as cartonné le féfé Amanagoye Amana, Amana, Amanagoye Toujours à la cité Amanagoye On va finir par serrer Amanagoye Jamais dans la défaite Amanagoye Comment refuser le tête? Comment, comment Bien mieux qu'oi-t dans le fond et la forme Amanagoye, j'te doigte dans le fond c'est hardcore Faut qu'tu fasses du squat pour monter à bord Faut qu'j'arrête le rap pour payer la dot Sous-estime pas les bonhommes qu'on estime Paire de Louis Vuitton mais te parle de modestie Nique la race humaine, vive la race à Snoopy Si j'te dis Je t'aime, c'est qu't'es ma prochaine victime Y'a qu'à Bruxelles qu'on fait du lèche-vitrine On reste entre nous comme les villages vikings J'ai la même équipe depuis l'époque du big deal On lève les bécanes et Nicki comme Meek Mill J'ai trop d'avance, j'me demande Quelle heure est-il? Fonce-dé, j'sors ma bite comme un reptile J'les baise deux fois, wesh que m'arrive t-il? J'les baise deux fois, wesh que m'arrive t-il? J'suis dans ma gova, j'met v'la le gro son dans le poste J'suis dans l'anonymat, j'suis sûrement l'futur boss J'reste dans mon coin, j'suis pas dans la fosse Ma parole est vraie, laisse-moi faire les choses La nourrice s'est fait péter Amanagoye Y'a plus rien à fêter Amanagoye On a cartonné le féfé Amanagoye Amana, Amana, Amanagoye Toujours à la cité Amanagoye On va finir par serrer Amanagoye Jamais dans la défaite Amanagoye Comment refuser le tête? Comment, comment J'suis dans ma gova, j'mets v'la le gros son dans le poste J'suis dans l'anonymat, j'suis sûrement l'futur boss J'reste dans mon coin, j'suis pas dans la fosse Ma parole est vraie, laisse-moi faire les choses Amanagoye goye, goye, goye, goye Amanagoye goye, goye, goye, goye Amanagoye goye, goye, goye, goye Amanagoye goye, goye, goye, goye, yé-é</t>
+          <t>Peufra Amana, Amanagoye Team Peufra Woooo On fête ta mort, on t'allume pour Halloween Sous coke lambel, t'es belle comme Campbell Naomi Litrons de shit cellophanés comme la momie T'es tout fané, c'est fini mec, c'est l'agonie J'kiffe le Brésil, j'voyageais dans des îles J't'ai d'jà baisé, pour toi j'ai plus de désir On aime le réel pas la fantaisie Aucune valeur, ton ML mec c'est un leasing Petit jaloux, le rap c'est pas la vraie vie Chargeur vide, détale le marabout à Fifty Demain c'est pas loin, c'est juste après minuit J'prend des nouvelles de mes ennemis, quoi de neuf Milli Coup d'schlass sur la joue, t'as le pansement à Nelly J'vais partir un jour, ouais Nelly Nelly Coup d'schlass sur la joue, t'as le pansement à Nelly J'vais partir un jour, ouais Nelly Nelly J'suis dans ma gova, j'mets v'la le gros son dans le poste J'suis dans l'anonymat, j'suis sûrement l'futur boss J'reste dans mon coin, j'suis pas dans la fosse Ma parole est vraie, laisse-moi faire les choses La nourrice s'est fait péter Amanagoye Y'a plus rien à fêter Amanagoye On as cartonné le féfé Amanagoye Amana, Amana, Amanagoye Toujours à la cité Amanagoye On va finir par serrer Amanagoye Jamais dans la défaite Amanagoye Comment refuser le tête? Comment, comment Bien mieux qu'oi-t dans le fond et la forme Amanagoye, j'te doigte dans le fond c'est hardcore Faut qu'tu fasses du squat pour monter à bord Faut qu'j'arrête le rap pour payer la dot Sous-estime pas les bonhommes qu'on estime Paire de Louis Vuitton mais te parle de modestie Nique la race humaine, vive la race à Snoopy Si j'te dis Je t'aime, c'est qu't'es ma prochaine victime Y'a qu'à Bruxelles qu'on fait du lèche-vitrine On reste entre nous comme les villages vikings J'ai la même équipe depuis l'époque du big deal On lève les bécanes et Nicki comme Meek Mill J'ai trop d'avance, j'me demande Quelle heure est-il? Fonce-dé, j'sors ma bite comme un reptile J'les baise deux fois, wesh que m'arrive t-il? J'les baise deux fois, wesh que m'arrive t-il? J'suis dans ma gova, j'met v'la le gro son dans le poste J'suis dans l'anonymat, j'suis sûrement l'futur boss J'reste dans mon coin, j'suis pas dans la fosse Ma parole est vraie, laisse-moi faire les choses La nourrice s'est fait péter Amanagoye Y'a plus rien à fêter Amanagoye On a cartonné le féfé Amanagoye Amana, Amana, Amanagoye Toujours à la cité Amanagoye On va finir par serrer Amanagoye Jamais dans la défaite Amanagoye Comment refuser le tête? Comment, comment J'suis dans ma gova, j'mets v'la le gros son dans le poste J'suis dans l'anonymat, j'suis sûrement l'futur boss J'reste dans mon coin, j'suis pas dans la fosse Ma parole est vraie, laisse-moi faire les choses Amanagoye goye, goye, goye, goye Amanagoye goye, goye, goye, goye Amanagoye goye, goye, goye, goye Amanagoye goye, goye, goye, goye, yé-é</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Baille Broliker Production Ça vient du zoo, c'est Carbozo Ça vient du zoo, c'est Carbozo Han-han Ana wyek Ana wyek , j'ai d'jà v'-esqui la balayette, j'apprends qu'lahuiss veut pas nous uer-t Il fait la bringue dans Paris huit Paris huit, rebeu contrôlé dans l'Cayenne, j'fais plus de stream qu'la variét' T'es pas d'ici, t'as pas à y être Pas à y être, bébé veut du champagne, paillettes J'ai pris la suite, dernier étage, vue sur tout Paname, du hayette Du hayette, eh-eh Faut voir le p'tit tour du tail-dé, l'équipe te parle en litron, du pilon, t'en as pas idée Y a du cke-Ja bien glacé Y a du cke-Ja, y a du pilon bien tassé Y a du pilon Leur jalousie m'agace Leur jalousie, oh ma gadji, ma gâtée Oh ma gadji Ana wyek, j'viens te récupérer soir-ce Ana wyek, tu sais que le mélange est corsé Ana wyek, pas de place pour les ragazza Ana wyek, tout pour la zone, eh Ana wyek, j'viens te récupérer soir-ce Ana wyek, tu sais que le mélange est corsé Ana wyek, pas de place pour les ragazza Ana wyek, tout pour la zone, eh You might also like Dix heures du mat', tous les jours, c'est la même chanson Va plante, des mafés, trente degrés, ça fait les ptes-com Oh Bibi au quartier, j'me cher-ca devant les dés-con Deux-trois dineros, ah-hi Elle m'a tapé, la go voulait me faire les ligaments Oh J'suis Mbappé, j'suis indécis mais j'vais rester chez moi J'passe chez le receleur, j'suis à se-l'ai, wAllah J'ai baigné dans l'illégal mais j'avais pas le choix Baby mama, tout doux, tout doux Tout doux Le cur y est, la poche y a tout, tout, tout, tout Et pour le bonheur, j'me fais pas prier Pas prier Le compte est lourd comme le casier, starfoullah Y a du cke-Ja bien glacé Y a du cke-Ja, y a du pilon bien tassé Y a du pilon Leur jalousie m'agace Leur jalousie, oh ma gadji, ma gâtée Oh ma gadji Ana wyek, j'viens te récupérer soir-ce Ana wyek, tu sais que le mélange est corsé Ana wyek, pas de place pour les ragazza Ana wyek, tout pour la zone, eh Ana wyek, j'viens te récupérer soir-ce Ana wyek, tu sais que le mélange est corsé Ana wyek, pas de place pour les ragazza Ana wyek, tout pour la zone, eh No stress Quatre-vingt treize et l'treize No stress, no stress Quatre-vingt treize et l'treize Bicrave eh yo les gars avec du charme eh ouais les gars , Bicrave eh yo les gars Oh, eh</t>
+          <t>Baille Broliker Production Ça vient du zoo, c'est Carbozo Ça vient du zoo, c'est Carbozo Han-han Ana wyek Ana wyek , j'ai d'jà v'-esqui la balayette, j'apprends qu'lahuiss veut pas nous uer-t Il fait la bringue dans Paris huit Paris huit, rebeu contrôlé dans l'Cayenne, j'fais plus de stream qu'la variét' T'es pas d'ici, t'as pas à y être Pas à y être, bébé veut du champagne, paillettes J'ai pris la suite, dernier étage, vue sur tout Paname, du hayette Du hayette, eh-eh Faut voir le p'tit tour du tail-dé, l'équipe te parle en litron, du pilon, t'en as pas idée Y a du cke-Ja bien glacé Y a du cke-Ja, y a du pilon bien tassé Y a du pilon Leur jalousie m'agace Leur jalousie, oh ma gadji, ma gâtée Oh ma gadji Ana wyek, j'viens te récupérer soir-ce Ana wyek, tu sais que le mélange est corsé Ana wyek, pas de place pour les ragazza Ana wyek, tout pour la zone, eh Ana wyek, j'viens te récupérer soir-ce Ana wyek, tu sais que le mélange est corsé Ana wyek, pas de place pour les ragazza Ana wyek, tout pour la zone, eh Dix heures du mat', tous les jours, c'est la même chanson Va plante, des mafés, trente degrés, ça fait les ptes-com Oh Bibi au quartier, j'me cher-ca devant les dés-con Deux-trois dineros, ah-hi Elle m'a tapé, la go voulait me faire les ligaments Oh J'suis Mbappé, j'suis indécis mais j'vais rester chez moi J'passe chez le receleur, j'suis à se-l'ai, wAllah J'ai baigné dans l'illégal mais j'avais pas le choix Baby mama, tout doux, tout doux Tout doux Le cur y est, la poche y a tout, tout, tout, tout Et pour le bonheur, j'me fais pas prier Pas prier Le compte est lourd comme le casier, starfoullah Y a du cke-Ja bien glacé Y a du cke-Ja, y a du pilon bien tassé Y a du pilon Leur jalousie m'agace Leur jalousie, oh ma gadji, ma gâtée Oh ma gadji Ana wyek, j'viens te récupérer soir-ce Ana wyek, tu sais que le mélange est corsé Ana wyek, pas de place pour les ragazza Ana wyek, tout pour la zone, eh Ana wyek, j'viens te récupérer soir-ce Ana wyek, tu sais que le mélange est corsé Ana wyek, pas de place pour les ragazza Ana wyek, tout pour la zone, eh No stress Quatre-vingt treize et l'treize No stress, no stress Quatre-vingt treize et l'treize Bicrave eh yo les gars avec du charme eh ouais les gars , Bicrave eh yo les gars Oh, eh</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>J'ai l'seum, qu'est-ce qu'ils veulent ces zeubs ? Si seul, clef de sol me console Même au sol j'fais pas pitié Moi au sol j'tape la coupole J'lève ma tête, même fatigué BAC de nuit m'attrape au col Whiskey, p'tit cke-sti deu-spee J'reste vrai, pas d'ceux qui s'déguisent J't'explique, mes tirs sont précis J'vise le cur pour mieux qu'j'le brise C'est la merde j'quitte pas l'quartier Cristaline couleur vessie Les femmes, les flammes te désirent Trop tard quand tu te décide Fume des teh en Perse, étouffe-toi avec la fumée d'beuh Le calme avant tempête, où t'étais, ouais avant qu'on perce ? T'aurais aimé qu'on s'loupe, t'aurais aimé qu'on souffre J'suis en showcase en Thaï, t'es choqué 7atay J'peux mettre tapis dans l'black, plier ta team en quatre Rappelle-toi, c'est moi, la famille pauvre du bâtiment quatre Souviens-toi d'ma tête, mais d'la tienne j'm'en tape You might also like Si, personne m'enlèvera le sourire Avec des si Plus jamais bosser pour mille Avec des si Cent-mille albums, Peufra platine Avec des si Petit frère devient solide Avec des si Solide, solide, solide Si, solide, solide, solide Si, petit frère devient solide Avec des si Plus jamais bosser pour mille Avec des si, j'suis dans ton cul Avec des mots, j'reste dans ton cur Pas d'peine d'amour, que des pannes d'oseille Prends soin des femmes, pense à ta sur Lâche mon équipe, tu pues la poisse Kalash Crimi', on s'fait la passe 93 sur la plaque du Golf Contrôlé à chaque limitrophe T'as tout claqué, même pas tu coffres Jean plaqué, re-fré innove Jogging Nike, flow Molotov Toujours humble pour la tof Avec des si, j'envoie des signes, je m'adoucis Mais souffrir ça suffit pour s'endurcir Rappelle-toi, c'est moi, la famille pauvre du bâtiment quatre Souviens-toi d'ma tête, mais d'la tienne j'm'en tape Si, personne m'enlèvera le sourire Avec des si Plus jamais bosser pour mille Avec des si Cent-mille albums, Peufra platine Avec des si Petit frère devient solide Avec des si Solide, solide, solide Si, solide, solide, solide Si, petit frère devient solide Avec des si Plus jamais bosser pour mille Devient solide, reste solide Devient solide, reste solide Devient solide, reste solide</t>
+          <t>J'ai l'seum, qu'est-ce qu'ils veulent ces zeubs ? Si seul, clef de sol me console Même au sol j'fais pas pitié Moi au sol j'tape la coupole J'lève ma tête, même fatigué BAC de nuit m'attrape au col Whiskey, p'tit cke-sti deu-spee J'reste vrai, pas d'ceux qui s'déguisent J't'explique, mes tirs sont précis J'vise le cur pour mieux qu'j'le brise C'est la merde j'quitte pas l'quartier Cristaline couleur vessie Les femmes, les flammes te désirent Trop tard quand tu te décide Fume des teh en Perse, étouffe-toi avec la fumée d'beuh Le calme avant tempête, où t'étais, ouais avant qu'on perce ? T'aurais aimé qu'on s'loupe, t'aurais aimé qu'on souffre J'suis en showcase en Thaï, t'es choqué 7atay J'peux mettre tapis dans l'black, plier ta team en quatre Rappelle-toi, c'est moi, la famille pauvre du bâtiment quatre Souviens-toi d'ma tête, mais d'la tienne j'm'en tape Si, personne m'enlèvera le sourire Avec des si Plus jamais bosser pour mille Avec des si Cent-mille albums, Peufra platine Avec des si Petit frère devient solide Avec des si Solide, solide, solide Si, solide, solide, solide Si, petit frère devient solide Avec des si Plus jamais bosser pour mille Avec des si, j'suis dans ton cul Avec des mots, j'reste dans ton cur Pas d'peine d'amour, que des pannes d'oseille Prends soin des femmes, pense à ta sur Lâche mon équipe, tu pues la poisse Kalash Crimi', on s'fait la passe 93 sur la plaque du Golf Contrôlé à chaque limitrophe T'as tout claqué, même pas tu coffres Jean plaqué, re-fré innove Jogging Nike, flow Molotov Toujours humble pour la tof Avec des si, j'envoie des signes, je m'adoucis Mais souffrir ça suffit pour s'endurcir Rappelle-toi, c'est moi, la famille pauvre du bâtiment quatre Souviens-toi d'ma tête, mais d'la tienne j'm'en tape Si, personne m'enlèvera le sourire Avec des si Plus jamais bosser pour mille Avec des si Cent-mille albums, Peufra platine Avec des si Petit frère devient solide Avec des si Solide, solide, solide Si, solide, solide, solide Si, petit frère devient solide Avec des si Plus jamais bosser pour mille Devient solide, reste solide Devient solide, reste solide Devient solide, reste solide</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Yeah Baille Broliker Yeah La peufra, yeah Il veut gratter par intérêt, c'est pas ton gars Pour gonfler dchiffres, j'arrête la tise, j'bosse à temps plein Jai pris des sous, t'en garderas, bien pas d'Lanvin J'suis un charo, paire de Nike Air comme en temps plein C'était pour l'peuple et la patrie, le ballon d'or Veulent rien savoir qui dit 3arbi, dit attentat Deux cagoulés, on t'pull-up là où tu mattends pas Elle veut son keuss, srefaire le cul, elle attendra Viens dans mon coin, y a des me-ar et d'quoi bedave Pas dparasites autour de moi, j'ai fait l'ménage C'était pour lpeuple et la patrie, le ballon d'or Veulent rien savoir qui dit 3arbi, dit attentat Viens dans mon coin, y a des me-ar et d'quoi bedave Pas d'parasites autour de moi, j'ai fait l'ménage C'était pour l'peuple et la patrie, le ballon d'or Veulent rien savoir qui dit 3arbi, dit attentat You might also like Blue Arabic sur le poignet, les p'tits t'rodave Demain matin, ça t'soulèvera, il a poucave Pas d'sentiments, j'étais comme un vendeur tapis J'préfère être pauvre que faire partie d'ceux qui tapinent J'viens des montagnes, jamais échouer d'vant les képis Faut un baveux qui nique la juge, j'suis convoqué, j'viens en damier Une pute c'est une pute, une sheitana va pas s'ranger Tu veux d'la peuf, c'est ODM, j'mélange contrôle, j'pars en BM Viens dans mon coin, y a des me-ar et d'quoi bedave C'était pour l'peuple et la patrie, le ballon d'or Veulent rien savoir qui dit 3arbi, dit attentat Viens dans mon coin, y a des me-ar et d'quoi bedave Pas d'parasites autour de moi, j'ai fait l'ménage C'était pour l'peuple et la patrie, le ballon d'or Veulent rien savoir qui dit 3arbi, dit attentat C'était pour l'peuple et la patrie, le ballon d'or Veulent rien savoir qui dit 3arbi, dit attentat</t>
+          <t>Yeah Baille Broliker Yeah La peufra, yeah Il veut gratter par intérêt, c'est pas ton gars Pour gonfler dchiffres, j'arrête la tise, j'bosse à temps plein Jai pris des sous, t'en garderas, bien pas d'Lanvin J'suis un charo, paire de Nike Air comme en temps plein C'était pour l'peuple et la patrie, le ballon d'or Veulent rien savoir qui dit 3arbi, dit attentat Deux cagoulés, on t'pull-up là où tu mattends pas Elle veut son keuss, srefaire le cul, elle attendra Viens dans mon coin, y a des me-ar et d'quoi bedave Pas dparasites autour de moi, j'ai fait l'ménage C'était pour lpeuple et la patrie, le ballon d'or Veulent rien savoir qui dit 3arbi, dit attentat Viens dans mon coin, y a des me-ar et d'quoi bedave Pas d'parasites autour de moi, j'ai fait l'ménage C'était pour l'peuple et la patrie, le ballon d'or Veulent rien savoir qui dit 3arbi, dit attentat Blue Arabic sur le poignet, les p'tits t'rodave Demain matin, ça t'soulèvera, il a poucave Pas d'sentiments, j'étais comme un vendeur tapis J'préfère être pauvre que faire partie d'ceux qui tapinent J'viens des montagnes, jamais échouer d'vant les képis Faut un baveux qui nique la juge, j'suis convoqué, j'viens en damier Une pute c'est une pute, une sheitana va pas s'ranger Tu veux d'la peuf, c'est ODM, j'mélange contrôle, j'pars en BM Viens dans mon coin, y a des me-ar et d'quoi bedave C'était pour l'peuple et la patrie, le ballon d'or Veulent rien savoir qui dit 3arbi, dit attentat Viens dans mon coin, y a des me-ar et d'quoi bedave Pas d'parasites autour de moi, j'ai fait l'ménage C'était pour l'peuple et la patrie, le ballon d'or Veulent rien savoir qui dit 3arbi, dit attentat C'était pour l'peuple et la patrie, le ballon d'or Veulent rien savoir qui dit 3arbi, dit attentat</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Qu'est-ce t'as à faire, le bandit ? Qu'est-ce t'as à faire, le bandit ? Je sais que t'es gentil On sait que t'es gentil Qu'est-ce t'as à faire, le bandit ? Qu'est-ce t'as à faire, le bandit ? Je sais que t'es gentil On sait que t'es gentil J'les vois faire la mafia dans l'VIP chiche Ça lève la bouteille comme en Amérique hé Sur l'fauteuil ça twerke twerke Tasse-pé en Louboutin, pas très pudique PP, Gucci et la paire, c'est Dolce La richesse à Poutine, hein, pour la noche Et ta re-mé a du mal pour le loyer Et tu remets une bouteille pour les noyer, hein Rien à prouver, pute, j'consomme mon verre au bar Sans faire exprès, ma Rolex, sous la rodav ouh Tu sais qu'on pèse plus qu'eux et qu'j'vends des disques Même pas besoin de disquettes pour que tu viennes twerker au bar sale pute Ils sont tous à fond, me connaît même pas au quart Arrête de faire le bandit, vends du shit même pas rentable Tu marches la tête haute parce que t'as pris deux balles en cash Frérot, t'as trente ans, tu dors encore chez tes rents-pa Peufra You might also like Qu'est-ce t'as à faire, le bandit ? Qu'est-ce t'as à faire, le bandit ? Je sais que t'es gentil On sait que t'es gentil Qu'est-ce t'as à faire, le bandit ? Qu'est-ce t'as à faire, le bandit ? Je sais que t'es gentil On sait que t'es gentil On aime les frères scred', les bonhommes qui assument encore Pourquoi tu fais le fou ? Passe la soirée et viens, on sort Arrête de te montrer et t'aura d'la barraca et en plus de ça, aucune meufs bonnes à la table Fin d'te-boî, tes meufs se barrent en Heetch Tu vas rentrer bredouille, c'est garanti Phuket, Marrakech, chaque année, tu mets le prix Et t'as pris du bide dans la hess, wesh, bois du cidre hein Ouais, simple, tu vas zebet' la plus mignonne Miskine, gros train de vie mais pas l'million On va bosser dur pour la CB all black, pour la CB all black On fera pas d'mala, wesh, gardez votre calme Et si tu crois qu'on blague, on mettra le double à vos tables Tu lèves le magnum et la grosse folle observe Elle s'est faite tourner de Seine-Saint-Denis à Hauts-de-Seine Peufra Qu'est-ce t'as à faire, le bandit ? Qu'est-ce t'as à faire, le bandit ? Je sais que t'es gentil On sait que t'es gentil Qu'est-ce t'as à faire, le bandit ? Qu'est-ce t'as à faire, le bandit ? Je sais que t'es gentil On sait que t'es gentil Que d'la mala dans l'carré Pour impressionner les femelles Que d'la mala dans l'carré On sait que t'es gentil Que d'la mala dans l'carré Pour impressionner les femelles Que d'la mala dans l'carré On sait que t'es gentil</t>
+          <t>Qu'est-ce t'as à faire, le bandit ? Qu'est-ce t'as à faire, le bandit ? Je sais que t'es gentil On sait que t'es gentil Qu'est-ce t'as à faire, le bandit ? Qu'est-ce t'as à faire, le bandit ? Je sais que t'es gentil On sait que t'es gentil J'les vois faire la mafia dans l'VIP chiche Ça lève la bouteille comme en Amérique hé Sur l'fauteuil ça twerke twerke Tasse-pé en Louboutin, pas très pudique PP, Gucci et la paire, c'est Dolce La richesse à Poutine, hein, pour la noche Et ta re-mé a du mal pour le loyer Et tu remets une bouteille pour les noyer, hein Rien à prouver, pute, j'consomme mon verre au bar Sans faire exprès, ma Rolex, sous la rodav ouh Tu sais qu'on pèse plus qu'eux et qu'j'vends des disques Même pas besoin de disquettes pour que tu viennes twerker au bar sale pute Ils sont tous à fond, me connaît même pas au quart Arrête de faire le bandit, vends du shit même pas rentable Tu marches la tête haute parce que t'as pris deux balles en cash Frérot, t'as trente ans, tu dors encore chez tes rents-pa Peufra Qu'est-ce t'as à faire, le bandit ? Qu'est-ce t'as à faire, le bandit ? Je sais que t'es gentil On sait que t'es gentil Qu'est-ce t'as à faire, le bandit ? Qu'est-ce t'as à faire, le bandit ? Je sais que t'es gentil On sait que t'es gentil On aime les frères scred', les bonhommes qui assument encore Pourquoi tu fais le fou ? Passe la soirée et viens, on sort Arrête de te montrer et t'aura d'la barraca et en plus de ça, aucune meufs bonnes à la table Fin d'te-boî, tes meufs se barrent en Heetch Tu vas rentrer bredouille, c'est garanti Phuket, Marrakech, chaque année, tu mets le prix Et t'as pris du bide dans la hess, wesh, bois du cidre hein Ouais, simple, tu vas zebet' la plus mignonne Miskine, gros train de vie mais pas l'million On va bosser dur pour la CB all black, pour la CB all black On fera pas d'mala, wesh, gardez votre calme Et si tu crois qu'on blague, on mettra le double à vos tables Tu lèves le magnum et la grosse folle observe Elle s'est faite tourner de Seine-Saint-Denis à Hauts-de-Seine Peufra Qu'est-ce t'as à faire, le bandit ? Qu'est-ce t'as à faire, le bandit ? Je sais que t'es gentil On sait que t'es gentil Qu'est-ce t'as à faire, le bandit ? Qu'est-ce t'as à faire, le bandit ? Je sais que t'es gentil On sait que t'es gentil Que d'la mala dans l'carré Pour impressionner les femelles Que d'la mala dans l'carré On sait que t'es gentil Que d'la mala dans l'carré Pour impressionner les femelles Que d'la mala dans l'carré On sait que t'es gentil</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>RJacks Keybee on the track Oh, oh, oh Oh, oh, oh Oh, oh, oh Oh, oh, oh Dans leurs culs ou dans les archives peu importe, peu importe, j'serais dans les anales peu importe, j'serais dans les anales Si tu payes pas, y a bémol bémol, bavure policière devient banale c'est banal On m'a dit Si tu donnes ton cur dans l'amour ou l'amitié faut pas, ça finira très mal faut pas Du coup, j'me protège de ces zemels vaut mieux sinon, la chute sera fatale sinon la chute sera fatale Bang, bang bang, bang, bang bang, personne s'en tire vins, viens per-cho ta résine Tu l'as snti mon sceau dans ta tête qui soigne ta tumeur tumeur À deux secondes près, tu s'rais mort tu s'rais mort J'ai emmagasiné trop d'haine, un peu colérique sur les bords bords Y a plusieurs substances dans l'appart', j'aperçois les condés, faut qu'je parte, nan, nan Broliqué, pour la parlote, plus le temps, nan, nan Everyday, mon bigo sonne, y a le voisin d'en face qui veut d'la kush kush, kush J'vais le visser, c'est la dèche dèche, dèche Il fait tard, putain, il fait tard donc j'vais en deux-deux You might also like Toujours dans l'bâtiment 'timent, le guetteur m'alerte en criant criant Et c'est dans l'bâtiment que j'ai zoné de lundi à dimanche Pour du cash, évidemment, j'ai préféré m'orienter dans la finance Fais tes bails en finesse, si tu te trompes, les jaloux qui dansent Un schlag bien visser, ça rappelle un schlag bien visser, ça rappelle Rembourse tes dettes, y a pas d'sang de la veine rembourse tes dettes, y a pas d'sang de la veine Celui qui a la frappe est le prince de la ville prince de, prince de la ville J'ai qu'un seul but, c'est faire plus que la veille qu'un seul but, kho J'ai pas mis mon gilet gilet Tu m'touches pas par magie, l'bout-mara a géré géré, géré J'roule en Sport, bien fait d'pas écouter c'Billy Billy J'ressors de l'alim', flash à la main, solo, je m'abîme solo, je m'abîme Dis-moi c'qui m'arrive dis-moi c'qui m'arrive Claquer dix balles en boîte, c'est pas pour acheter nan, nan, nan J'te ken, j'te te-j', y aura pas de Versace olala Claquer dix balles en boîte, c'est pas pour acheter nan, nan, nan J'fumais d'la ppe-f', caché dans mes escaliers C'est pas d'la frappe, c'est d'l'argile, banane du siècle, c'est logique Villepinte, Fleury, Bois d'Arcy, enfermé, ton cur s'noircit Les temps sont durs ces temps-ci, bonheur, dis-moi quand t'arrives Pendant qu'les p'tits du tier-quar sifflent boycotté d'puis nos racines Toujours dans l'bâtiment 'timent, le guetteur m'alerte en criant criant Et c'est dans l'bâtiment que j'ai zoné de lundi à dimanche Pour du cash, évidemment, j'ai préféré m'orienter dans la finance Fais tes bails en finesse, si tu te trompes, les jaloux qui dansent Un schlag bien visser, ça rappelle un schlag bien visser, ça rappelle Rembourse tes dettes, y a pas d'sang de la veine rembourse tes dettes, y a pas d'sang de la veine Celui qui a la frappe est le prince de la ville prince de, prince de la ville J'ai qu'un seul but, c'est faire plus que la veille qu'un seul but, kho</t>
+          <t>RJacks Keybee on the track Oh, oh, oh Oh, oh, oh Oh, oh, oh Oh, oh, oh Dans leurs culs ou dans les archives peu importe, peu importe, j'serais dans les anales peu importe, j'serais dans les anales Si tu payes pas, y a bémol bémol, bavure policière devient banale c'est banal On m'a dit Si tu donnes ton cur dans l'amour ou l'amitié faut pas, ça finira très mal faut pas Du coup, j'me protège de ces zemels vaut mieux sinon, la chute sera fatale sinon la chute sera fatale Bang, bang bang, bang, bang bang, personne s'en tire vins, viens per-cho ta résine Tu l'as snti mon sceau dans ta tête qui soigne ta tumeur tumeur À deux secondes près, tu s'rais mort tu s'rais mort J'ai emmagasiné trop d'haine, un peu colérique sur les bords bords Y a plusieurs substances dans l'appart', j'aperçois les condés, faut qu'je parte, nan, nan Broliqué, pour la parlote, plus le temps, nan, nan Everyday, mon bigo sonne, y a le voisin d'en face qui veut d'la kush kush, kush J'vais le visser, c'est la dèche dèche, dèche Il fait tard, putain, il fait tard donc j'vais en deux-deux Toujours dans l'bâtiment 'timent, le guetteur m'alerte en criant criant Et c'est dans l'bâtiment que j'ai zoné de lundi à dimanche Pour du cash, évidemment, j'ai préféré m'orienter dans la finance Fais tes bails en finesse, si tu te trompes, les jaloux qui dansent Un schlag bien visser, ça rappelle un schlag bien visser, ça rappelle Rembourse tes dettes, y a pas d'sang de la veine rembourse tes dettes, y a pas d'sang de la veine Celui qui a la frappe est le prince de la ville prince de, prince de la ville J'ai qu'un seul but, c'est faire plus que la veille qu'un seul but, kho J'ai pas mis mon gilet gilet Tu m'touches pas par magie, l'bout-mara a géré géré, géré J'roule en Sport, bien fait d'pas écouter c'Billy Billy J'ressors de l'alim', flash à la main, solo, je m'abîme solo, je m'abîme Dis-moi c'qui m'arrive dis-moi c'qui m'arrive Claquer dix balles en boîte, c'est pas pour acheter nan, nan, nan J'te ken, j'te te-j', y aura pas de Versace olala Claquer dix balles en boîte, c'est pas pour acheter nan, nan, nan J'fumais d'la ppe-f', caché dans mes escaliers C'est pas d'la frappe, c'est d'l'argile, banane du siècle, c'est logique Villepinte, Fleury, Bois d'Arcy, enfermé, ton cur s'noircit Les temps sont durs ces temps-ci, bonheur, dis-moi quand t'arrives Pendant qu'les p'tits du tier-quar sifflent boycotté d'puis nos racines Toujours dans l'bâtiment 'timent, le guetteur m'alerte en criant criant Et c'est dans l'bâtiment que j'ai zoné de lundi à dimanche Pour du cash, évidemment, j'ai préféré m'orienter dans la finance Fais tes bails en finesse, si tu te trompes, les jaloux qui dansent Un schlag bien visser, ça rappelle un schlag bien visser, ça rappelle Rembourse tes dettes, y a pas d'sang de la veine rembourse tes dettes, y a pas d'sang de la veine Celui qui a la frappe est le prince de la ville prince de, prince de la ville J'ai qu'un seul but, c'est faire plus que la veille qu'un seul but, kho</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Yeah J'suis c'petit jeune de banlieue de banlieue, y a qu'au tier-quar que je me sens mieux me sens mieux Pour être d'l'équipe faut être hargneux être hargneux, j'suis trop cramé devant les bacqueux d'vant les bacqueux Casquette baissée, la course au khaliss, le vécu d'une paire d'Asics, F2 entassé à six, depuis tit-pe, on résiste Ma daronne passe le balai, rien ne sert d'faire des manif's, ballon d'or c'était pour Mané, ils f'ront toujours des manières Fait bellek quand les loups s'agitent, dans ce monde où tout s'achète Prendre du ferme sans être en panique, le maton rentre la plaquette Boulette de coke dans le baggy, j'démarre vite comme un buggy à cause d'une petite pookie, combien de vrais sont partis ? C'est les banlieues qui binks, binks, binks, ils veulent nous voir au hebs, hebs, hebs J'fais d'la moula, tout est binks, binks, binks, posé au fond du binks, binks, binks Le terrain fait du K, la Rolex fait dix K, toute la nuit j'fais du K, j'vois son gros ul-c, j'faiblis pas Le terrain fait du K, la Rolex fait dix K, toute la nuit j'fais du K, j'vois son gros ul-c, j'faiblis pas Marre de parler de la merde de la merde, j'ai terrasse avec vision sur la mer sur la mer Ouais, ouais, t'as pas c'que j'ai, t'as le mort t'as le mort, j'déboule, T-Max, vroum, j'suis dans l'angle mort pa-pa-pa-pa Hé, sort pas ta Rolex à dix balles, mes reufs ont l'pétard caché dans l'survêt' Adidas olala, olala Paraît qu'y a la meilleure par ici ouais, ma chérie vient prendre ta cons' et mets tes bas résilles olala, olala Hé, tu veux mon cash, tu vas finir avec un trou dans le casque pa-pa-pa-pa J'donne pas à petite conne mais à mon tieks ouais, ouais, ouais, J'cris pas pour une p'tite somme, tu sais c'qu'on encaisse ouais, tu sais c'qu'on encaisse ouais, ouais You might also like C'est les banlieues qui binks, binks, binks, ils veulent nous voir au hebs, hebs, hebs J'fais d'la moula, tout est binks, binks, binks, posé au fond du binks, binks, binks Le terrain fait du K, la Rolex fait dix K, toute la nuit j'fais du K, j'vois son gros ul-c, j'faiblis pas Le terrain fait du K, la Rolex fait dix K, toute la nuit j'fais du K, j'vois son gros ul-c, j'faiblis pas Eh, eh, eh Eh, eh, eh Le terrain fait du K, la Rolex fait dix K, toute la nuit j'fais du K, j'vois son gros ul-c, j'faiblis pas Le terrain fait du K, la Rolex fait dix K, toute la nuit j'fais du K, j'vois son gros ul-c, j'faiblis pas K, K, cash, cash, K, K, cash, cash</t>
+          <t>Yeah J'suis c'petit jeune de banlieue de banlieue, y a qu'au tier-quar que je me sens mieux me sens mieux Pour être d'l'équipe faut être hargneux être hargneux, j'suis trop cramé devant les bacqueux d'vant les bacqueux Casquette baissée, la course au khaliss, le vécu d'une paire d'Asics, F2 entassé à six, depuis tit-pe, on résiste Ma daronne passe le balai, rien ne sert d'faire des manif's, ballon d'or c'était pour Mané, ils f'ront toujours des manières Fait bellek quand les loups s'agitent, dans ce monde où tout s'achète Prendre du ferme sans être en panique, le maton rentre la plaquette Boulette de coke dans le baggy, j'démarre vite comme un buggy à cause d'une petite pookie, combien de vrais sont partis ? C'est les banlieues qui binks, binks, binks, ils veulent nous voir au hebs, hebs, hebs J'fais d'la moula, tout est binks, binks, binks, posé au fond du binks, binks, binks Le terrain fait du K, la Rolex fait dix K, toute la nuit j'fais du K, j'vois son gros ul-c, j'faiblis pas Le terrain fait du K, la Rolex fait dix K, toute la nuit j'fais du K, j'vois son gros ul-c, j'faiblis pas Marre de parler de la merde de la merde, j'ai terrasse avec vision sur la mer sur la mer Ouais, ouais, t'as pas c'que j'ai, t'as le mort t'as le mort, j'déboule, T-Max, vroum, j'suis dans l'angle mort pa-pa-pa-pa Hé, sort pas ta Rolex à dix balles, mes reufs ont l'pétard caché dans l'survêt' Adidas olala, olala Paraît qu'y a la meilleure par ici ouais, ma chérie vient prendre ta cons' et mets tes bas résilles olala, olala Hé, tu veux mon cash, tu vas finir avec un trou dans le casque pa-pa-pa-pa J'donne pas à petite conne mais à mon tieks ouais, ouais, ouais, J'cris pas pour une p'tite somme, tu sais c'qu'on encaisse ouais, tu sais c'qu'on encaisse ouais, ouais C'est les banlieues qui binks, binks, binks, ils veulent nous voir au hebs, hebs, hebs J'fais d'la moula, tout est binks, binks, binks, posé au fond du binks, binks, binks Le terrain fait du K, la Rolex fait dix K, toute la nuit j'fais du K, j'vois son gros ul-c, j'faiblis pas Le terrain fait du K, la Rolex fait dix K, toute la nuit j'fais du K, j'vois son gros ul-c, j'faiblis pas Eh, eh, eh Eh, eh, eh Le terrain fait du K, la Rolex fait dix K, toute la nuit j'fais du K, j'vois son gros ul-c, j'faiblis pas Le terrain fait du K, la Rolex fait dix K, toute la nuit j'fais du K, j'vois son gros ul-c, j'faiblis pas K, K, cash, cash, K, K, cash, cash</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Des sses-lia, des sses-lia, des sses-lia, moi, j'en ai toujours voulu Le rrain-te, le rrain-te, le Akha, le bosseur a couru Des sses-lia, des sses-lia, des sses-lia, moi, j'en ai toujours voulu Le rrain-te, le rrain-te, le Akha, le guetteur a tout vu D'mande pas pourquoi j'm'éloigne, trop d'tes-traî dans l'paysage Laisse-moi faire mes lards, j'suis d'ceux qu'avancent, pas d'ceux qui ragent Toujours l'joint qui est là, j'connais la route d'la Jonquera Fais pas la bella Oh, oh, oh 3.5.7 dans la boîte à gant, j'vais plus jamais m'froisser Sur l'terrain, t'es pas attaquant, on t'a jamais croisé J'reste polie, j'vais t'mettre à l'amende, viens pas menacer Le bolide est déjà allemand donc parle-moi français 3.5.7 dans la boîte à gant, j'vais plus jamais m'froisser Sur l'terrain, t'es pas attaquant, on t'a jamais croisé J'reste polie, j'vais t'mettre à l'amende, viens pas menacer Le bolide est déjà allemand donc parle-moi français Du lundi au lundi, c'est méchant, c'est miné, tout en noir, j'suis vêtu Sous bracelet, en Patek, au quartier, woh, l'ennemi s'est rendu T'as parlé, t'as parlé, t'as parlé mais j'ai rien entendu J'repars en i, la chaîne du KTM est tendue Tu parles de moi en mal, tu vas m'ralentir J'investis sur mon cheval, tu peux pas l'ralentir Tu connais l'blase d'ma cité, armé, 3.5.7 Toujours caché dans l'froc, triste époque comme à l'ancienne You might also like 3.5.7 dans la boîte à gant, j'vais plus jamais m'froisser Sur l'terrain, t'es pas attaquant, on t'a jamais croisé J'reste polie, j'vais t'mettre à l'amende, viens pas menacer Le bolide est déjà allemand donc parle-moi français 3.5.7 dans la boîte à gant, j'vais plus jamais m'froisser Sur l'terrain, t'es pas attaquant, on t'a jamais croisé J'reste polie, j'vais t'mettre à l'amende, viens pas menacer Le bolide est déjà allemand donc parle-moi français</t>
+          <t>Des sses-lia, des sses-lia, des sses-lia, moi, j'en ai toujours voulu Le rrain-te, le rrain-te, le Akha, le bosseur a couru Des sses-lia, des sses-lia, des sses-lia, moi, j'en ai toujours voulu Le rrain-te, le rrain-te, le Akha, le guetteur a tout vu D'mande pas pourquoi j'm'éloigne, trop d'tes-traî dans l'paysage Laisse-moi faire mes lards, j'suis d'ceux qu'avancent, pas d'ceux qui ragent Toujours l'joint qui est là, j'connais la route d'la Jonquera Fais pas la bella Oh, oh, oh 3.5.7 dans la boîte à gant, j'vais plus jamais m'froisser Sur l'terrain, t'es pas attaquant, on t'a jamais croisé J'reste polie, j'vais t'mettre à l'amende, viens pas menacer Le bolide est déjà allemand donc parle-moi français 3.5.7 dans la boîte à gant, j'vais plus jamais m'froisser Sur l'terrain, t'es pas attaquant, on t'a jamais croisé J'reste polie, j'vais t'mettre à l'amende, viens pas menacer Le bolide est déjà allemand donc parle-moi français Du lundi au lundi, c'est méchant, c'est miné, tout en noir, j'suis vêtu Sous bracelet, en Patek, au quartier, woh, l'ennemi s'est rendu T'as parlé, t'as parlé, t'as parlé mais j'ai rien entendu J'repars en i, la chaîne du KTM est tendue Tu parles de moi en mal, tu vas m'ralentir J'investis sur mon cheval, tu peux pas l'ralentir Tu connais l'blase d'ma cité, armé, 3.5.7 Toujours caché dans l'froc, triste époque comme à l'ancienne 3.5.7 dans la boîte à gant, j'vais plus jamais m'froisser Sur l'terrain, t'es pas attaquant, on t'a jamais croisé J'reste polie, j'vais t'mettre à l'amende, viens pas menacer Le bolide est déjà allemand donc parle-moi français 3.5.7 dans la boîte à gant, j'vais plus jamais m'froisser Sur l'terrain, t'es pas attaquant, on t'a jamais croisé J'reste polie, j'vais t'mettre à l'amende, viens pas menacer Le bolide est déjà allemand donc parle-moi français</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Baille Broliker Productions J'pensais qu'on devenait riche en claquant des doigts ah, ah J'cours, j'vais chercher mon dû parce que c'monde me le doit Pourquoi j'suis conçu ? Péché pour d'l'oseille Le poids de mes erreurs sont lourds donc pardonnez-moi Dans tes ovaires j'y planterai ma graine, pour fleurir mon empire Je te veux, déclarer ma flamme, j'sais pas comment l'dire Je me lève, j'repars du bon ied-p, j'suis sulement balafré Mes souvnirs pour que j'me rappelle tout ce mal qu'on m'a fait Ils ont trop le seum, laisse-les faire les sommes Faut du temps pour s'en r'mettre Normal qu'ils m'en veulent, j'ai pris mon envol Faut du temps pour s'en r'mettre Demain, je me lève, j'repars du bon pied Demain, je me lève, j'repars du bon, bon pied Demain, je me lève, j'repars du bon pied Demain, je me lève, j'repars du bon, bon pied Ils veulent ma vie sans les soucis, mais j'en ai plein la tête Les aider pour qu'ils oublient, ça n'en vaut pas la peine Ma vie sans les soucis, mais j'en ai plein la tête Les aider pour qu'ils oublient, ça n'en vaut pas la peine You might also like Ils veulent ma vie sans mes soucis, sans mes nuits blanches Oui, sans les coups de lame que je cache sous ma manche Les prises de bec, les prises de tête du lundi au dimanche Les sacrifices pour n'jamais voir ma famille faire la manche Mes tatouages du ghetto se voient sur les plateaux télé J'suis plus en chien mais toujours pas domestiqué ni piqué Les ratatata d'la cité, fallait les quitter Pour la tranquillité de la daronne, préserver sa santé Ils ont trop le seum, laisse-les faire les sommes Faut du temps pour s'en r'mettre Normal qu'ils m'en veulent qu'ils m'en veulent, j'ai pris mon envol Faut du temps pour s'en r'mettre Demain, je me lève, j'repars du bon pied Demain, je me lève, j'repars du bon, bon pied Demain, je me lève, j'repars du bon pied Demain, je me lève, j'repars du bon, bon pied Ils veulent ma vie sans les soucis, mais j'en ai plein la tête Les aider pour qu'ils oublient, ça n'en vaut pas la peine Ma vie sans les soucis, mais j'en ai plein la tête Les aider pour qu'ils oublient, ça n'en vaut pas la peine La Frappe, la m'Baba 9.3, 1.3 Rah</t>
+          <t>Baille Broliker Productions J'pensais qu'on devenait riche en claquant des doigts ah, ah J'cours, j'vais chercher mon dû parce que c'monde me le doit Pourquoi j'suis conçu ? Péché pour d'l'oseille Le poids de mes erreurs sont lourds donc pardonnez-moi Dans tes ovaires j'y planterai ma graine, pour fleurir mon empire Je te veux, déclarer ma flamme, j'sais pas comment l'dire Je me lève, j'repars du bon ied-p, j'suis sulement balafré Mes souvnirs pour que j'me rappelle tout ce mal qu'on m'a fait Ils ont trop le seum, laisse-les faire les sommes Faut du temps pour s'en r'mettre Normal qu'ils m'en veulent, j'ai pris mon envol Faut du temps pour s'en r'mettre Demain, je me lève, j'repars du bon pied Demain, je me lève, j'repars du bon, bon pied Demain, je me lève, j'repars du bon pied Demain, je me lève, j'repars du bon, bon pied Ils veulent ma vie sans les soucis, mais j'en ai plein la tête Les aider pour qu'ils oublient, ça n'en vaut pas la peine Ma vie sans les soucis, mais j'en ai plein la tête Les aider pour qu'ils oublient, ça n'en vaut pas la peine Ils veulent ma vie sans mes soucis, sans mes nuits blanches Oui, sans les coups de lame que je cache sous ma manche Les prises de bec, les prises de tête du lundi au dimanche Les sacrifices pour n'jamais voir ma famille faire la manche Mes tatouages du ghetto se voient sur les plateaux télé J'suis plus en chien mais toujours pas domestiqué ni piqué Les ratatata d'la cité, fallait les quitter Pour la tranquillité de la daronne, préserver sa santé Ils ont trop le seum, laisse-les faire les sommes Faut du temps pour s'en r'mettre Normal qu'ils m'en veulent qu'ils m'en veulent, j'ai pris mon envol Faut du temps pour s'en r'mettre Demain, je me lève, j'repars du bon pied Demain, je me lève, j'repars du bon, bon pied Demain, je me lève, j'repars du bon pied Demain, je me lève, j'repars du bon, bon pied Ils veulent ma vie sans les soucis, mais j'en ai plein la tête Les aider pour qu'ils oublient, ça n'en vaut pas la peine Ma vie sans les soucis, mais j'en ai plein la tête Les aider pour qu'ils oublient, ça n'en vaut pas la peine La Frappe, la m'Baba 9.3, 1.3 Rah</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Hé, Many, paraît que tu voulais me parler ? Je suis là. Le 21 septembre, dans les yeux, face à face, tu me le dis. Faut pas bégayer Eh, ptit con, j'veux pas d'tes pâtes aux thon, jveux la boîte auto, Booska-P Eh, ptit con, garde tes pâtes aux thon, jveux la boîte auto Menotté, les mains sales au tieks, jai pas fait lodo La concu' demandera laumône, il passera pas l'automne J'viens de stif avec un gramme de ppe-f', j'en ai fait la tonne Tu parles de qui quand tu dis qu'c'est leg' ? Tu parles du pochon d'disques ? Tu parles de qui quand tu dis qu'c'est leg' ? Tu parles du pochon d'disques ? Parle pas aux keufs, le plan va échouer, pour gagner, faut jouer Fais-moi confiance, regarde dans les yeux, calibre qui frotte le zeub' Tu fous la rage, j'te supporte plus, y a que toi qui chenef Ouais, tu suces ou tu rentres en bus ? Respecte HLF Chiro pompe, pas sûr qu'ils répondent ma bande fait peur aux blondes Chicots cassées, on restera dans l'ombre à leur revendre la C Nous, on l'fait Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Nous, on l'fait Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Nous, on l'fait Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Nous, on l'fait Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies You might also like Si ça paye pas, j'irai revendre la C avec Koba LaD J'fais mes lacets, j'ressors de G.À.V d'mes galères, j'ai appris Hé, raciste, j'roule en RSI, j'touche même le RSA Fais pas l'grossiste, t'as juste poussé l'demi, fais pas l'con, l'2000 L'ancien m'a dit Gel automatique, j'les allume même dans l'noir J'prends parti, j'suis pour KB9, moi, j'suis Merengue Paire de fesses qui passent dans le tieks, tout l'monde à l'affût Jaune et vert, pourrit nos veaux-cer, le bénèf', la fume Dix ans d'hebs, ça fait VTC, la rue te coupe les ailes Liasses de cent avec les taches de sang Pas d'aide, faut qu'tu payes hein, faut qu'tu paies, ma gueule Pas d'aide, faut qu'tu payes faut qu'tu paies, enfoiré En jogging, casquette à l'envers, la rue m'a inspi' Nous, on l'fait Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Nous, on l'fait Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Nous, on l'fait Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Nous, on l'fait Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies On les malmène Premier album dans les bacs les malmène Tu t'souviens c'qu'on leur a fait à nous-mêmes On les malmène Premier album dans les bacs les malmène Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Dans les yeux Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Dans les yeux Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Dans les yeux Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Dans les yeux On les malmène Premier album, Dans Les Yeux Peufra, 93800</t>
+          <t>Hé, Many, paraît que tu voulais me parler ? Je suis là. Le 21 septembre, dans les yeux, face à face, tu me le dis. Faut pas bégayer Eh, ptit con, j'veux pas d'tes pâtes aux thon, jveux la boîte auto, Booska-P Eh, ptit con, garde tes pâtes aux thon, jveux la boîte auto Menotté, les mains sales au tieks, jai pas fait lodo La concu' demandera laumône, il passera pas l'automne J'viens de stif avec un gramme de ppe-f', j'en ai fait la tonne Tu parles de qui quand tu dis qu'c'est leg' ? Tu parles du pochon d'disques ? Tu parles de qui quand tu dis qu'c'est leg' ? Tu parles du pochon d'disques ? Parle pas aux keufs, le plan va échouer, pour gagner, faut jouer Fais-moi confiance, regarde dans les yeux, calibre qui frotte le zeub' Tu fous la rage, j'te supporte plus, y a que toi qui chenef Ouais, tu suces ou tu rentres en bus ? Respecte HLF Chiro pompe, pas sûr qu'ils répondent ma bande fait peur aux blondes Chicots cassées, on restera dans l'ombre à leur revendre la C Nous, on l'fait Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Nous, on l'fait Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Nous, on l'fait Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Nous, on l'fait Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Si ça paye pas, j'irai revendre la C avec Koba LaD J'fais mes lacets, j'ressors de G.À.V d'mes galères, j'ai appris Hé, raciste, j'roule en RSI, j'touche même le RSA Fais pas l'grossiste, t'as juste poussé l'demi, fais pas l'con, l'2000 L'ancien m'a dit Gel automatique, j'les allume même dans l'noir J'prends parti, j'suis pour KB9, moi, j'suis Merengue Paire de fesses qui passent dans le tieks, tout l'monde à l'affût Jaune et vert, pourrit nos veaux-cer, le bénèf', la fume Dix ans d'hebs, ça fait VTC, la rue te coupe les ailes Liasses de cent avec les taches de sang Pas d'aide, faut qu'tu payes hein, faut qu'tu paies, ma gueule Pas d'aide, faut qu'tu payes faut qu'tu paies, enfoiré En jogging, casquette à l'envers, la rue m'a inspi' Nous, on l'fait Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Nous, on l'fait Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Nous, on l'fait Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Nous, on l'fait Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies On les malmène Premier album dans les bacs les malmène Tu t'souviens c'qu'on leur a fait à nous-mêmes On les malmène Premier album dans les bacs les malmène Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Dans les yeux Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Dans les yeux Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Dans les yeux Toi, tu bégaies, toi, tu bégaies, toi, tu bégaies Dans les yeux On les malmène Premier album, Dans Les Yeux Peufra, 93800</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Bibi la peuf sous la caméra de Booska-P Booska Nous Mêmes Peufra - Salut Hornet, ça va ? - Ca va et toi ? - Cool ? - Ouais tranquille fréro - J'voulais qu'tu m'expliques ton concept Nous Mêmes Nique sa mère la réinsertion Blindé comme CR7 Zepeck vole ces R9 Faire des ronds en air-lib Ca roule anti-stone Dans des ruelles sombres J'me suis fait seul viens pas donner des leçons J'ai le sens de la musique t'as validé la clé d'sol Y'a six mois j'taffais à l'usine aujourd'hui je dead ça On le fera nous même faut pas qu't'aies les oreilles sales Viens pas niquer mes rêves j'suis en bord de mer en RS 5 J'monte mon label, j'te laisse ton label cinq Tu réponds plus au tel quand tu dois d'l'oseille, zinc Fais pas l'mec hautain t'as coulé comme Calvin Klein Paire de Requin va t'enculer Philipp Plein Avec les miettes miettes on va te faire un bout d'pain J'vais les wet wet j'ai la recette des ricains C'est la faute à qui c'est la faute à qui encaisse Rien n'est encore acquis on s'nourrit avec les restes J'traine sur Epinay dans la saccoche une arme de l'est J'te laisse te dandiner, j'prends un billet, Los Angeles Personne va nous piner t'es chez l'kiné j'suis dans l'Guinness Oui le rap français plus prometteur que le rap US La rafale vient d'ailleurs tu peux tourner ta veste Fais pas la mafia si tu connais mon adresse Tu m'as connu hier, tu vas m'connaître à vie Tu m'as connu cette nuit, ça sera sans lendemain J'suis seul face à la mer, j'provoque le tsunami Me suis sorti d'la merde, Hornet qui ne valait rien J'suis toujours dans la street, ici que j'gamberge A force de pomper mon style tu vas t'la manger dans l'derch Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P You might also like Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Le 29 septembre j'vais sortir mon projet Et je sais qu'la team Peufra va booster On reste nous mêmes, depuis des années Le 29 septembre j'vais sortir mon projet Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Le 29 septembre j'vais sortir mon projet Et je sais qu'la team Peufra va booster On reste nous mêmes, depuis des années Le 29 septembre j'vais sortir mon projet</t>
+          <t>Bibi la peuf sous la caméra de Booska-P Booska Nous Mêmes Peufra - Salut Hornet, ça va ? - Ca va et toi ? - Cool ? - Ouais tranquille fréro - J'voulais qu'tu m'expliques ton concept Nous Mêmes Nique sa mère la réinsertion Blindé comme CR7 Zepeck vole ces R9 Faire des ronds en air-lib Ca roule anti-stone Dans des ruelles sombres J'me suis fait seul viens pas donner des leçons J'ai le sens de la musique t'as validé la clé d'sol Y'a six mois j'taffais à l'usine aujourd'hui je dead ça On le fera nous même faut pas qu't'aies les oreilles sales Viens pas niquer mes rêves j'suis en bord de mer en RS 5 J'monte mon label, j'te laisse ton label cinq Tu réponds plus au tel quand tu dois d'l'oseille, zinc Fais pas l'mec hautain t'as coulé comme Calvin Klein Paire de Requin va t'enculer Philipp Plein Avec les miettes miettes on va te faire un bout d'pain J'vais les wet wet j'ai la recette des ricains C'est la faute à qui c'est la faute à qui encaisse Rien n'est encore acquis on s'nourrit avec les restes J'traine sur Epinay dans la saccoche une arme de l'est J'te laisse te dandiner, j'prends un billet, Los Angeles Personne va nous piner t'es chez l'kiné j'suis dans l'Guinness Oui le rap français plus prometteur que le rap US La rafale vient d'ailleurs tu peux tourner ta veste Fais pas la mafia si tu connais mon adresse Tu m'as connu hier, tu vas m'connaître à vie Tu m'as connu cette nuit, ça sera sans lendemain J'suis seul face à la mer, j'provoque le tsunami Me suis sorti d'la merde, Hornet qui ne valait rien J'suis toujours dans la street, ici que j'gamberge A force de pomper mon style tu vas t'la manger dans l'derch Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Le 29 septembre j'vais sortir mon projet Et je sais qu'la team Peufra va booster On reste nous mêmes, depuis des années Le 29 septembre j'vais sortir mon projet Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Bibi la peuf sous la caméra d'Booska-P Le 29 septembre j'vais sortir mon projet Et je sais qu'la team Peufra va booster On reste nous mêmes, depuis des années Le 29 septembre j'vais sortir mon projet</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Oh, oh, oh J'suis pas là, pas là, pas là, pas là Booska Palala RS sur Calanques, grandi sans câlin Des frères sont à l'ombre, pourtant, sont malins Piercing sur ta langue, c'est ton seul talent On r'met la , Mbappé-Haaland J'ai l'bras long, des ballons, j'ai monté les tarots Concu' vole pas haut, crochet K.O J'ai ché-cra, j'suis pas love, en chette-ca, j'suis pas J'attendais les alloc' ou ients-cli à Calibre dans l'étui, paluches, on essuie Y a qu'pour mon équipe qu'je donne les bons tuyaux Des gras, des blancs, y a tout dans l' Toujours type noir, cainfri dans l'talkie En Gucci, Louis Vui', même en Toujours les mêmes, mélange pas Enfant maudit, nonante-trois T'es pas crédibl pour qu'on t' You might also like J'suis pas là, pas là, pas là, pas là J'ai le cur balafré han Mes balafres, balafrs, par ci, par là Personne m'a raté han J'suis pas là, pas là, pas là, pas là J'ai le cur balafré han Mes balafres, balafres, par ci, par là Personne m'a raté han J'rappe comme si j'voulais cer-per avec lacets défaits ok Guitarisé comme ACDC Et sur pépé, faudra plus mettre pépé Y a des gens, j'peux les voir que quand j'suis pété han Une, une puce SFR et j'en fais des verts Normalement, quand t'es père, tu fais plus l'TP Ça te laisse en hiver et ça t'enferme l'été Tu connais tes sourates, t'as fini à la rate Tu voulais des sous vite, le Sheitan t'a souri Génération , j'voulais l'Piwi Génération Bériz, ils v'naient per-cho d'la weed On en a pris des risques, juste pour avoir des rides En Gucci, Louis Vui', même en Toujours les mêmes, mélange pas Enfant maudit, nonante-trois T'es pas crédible pour qu'on t' J'suis pas là, pas là, pas là, pas là J'ai le cur balafré han Mes balafres, balafres, par ci, par là Personne m'a raté han J'suis pas là, pas là, pas là, pas là J'ai le cur balafré han Mes balafres, balafres, par ci, par là Personne m'a raté han J'suis pas là, pas là, pas là, pas là Booska Palala Mes balafres, balafres, par ci, par là Personne m'a raté han J'suis pas là, pas là, pas là, pas là Booska Palala Mes balafres, balafres, par ci, par là Personne m'a raté han</t>
+          <t>Oh, oh, oh J'suis pas là, pas là, pas là, pas là Booska Palala RS sur Calanques, grandi sans câlin Des frères sont à l'ombre, pourtant, sont malins Piercing sur ta langue, c'est ton seul talent On r'met la , Mbappé-Haaland J'ai l'bras long, des ballons, j'ai monté les tarots Concu' vole pas haut, crochet K.O J'ai ché-cra, j'suis pas love, en chette-ca, j'suis pas J'attendais les alloc' ou ients-cli à Calibre dans l'étui, paluches, on essuie Y a qu'pour mon équipe qu'je donne les bons tuyaux Des gras, des blancs, y a tout dans l' Toujours type noir, cainfri dans l'talkie En Gucci, Louis Vui', même en Toujours les mêmes, mélange pas Enfant maudit, nonante-trois T'es pas crédibl pour qu'on t' J'suis pas là, pas là, pas là, pas là J'ai le cur balafré han Mes balafres, balafrs, par ci, par là Personne m'a raté han J'suis pas là, pas là, pas là, pas là J'ai le cur balafré han Mes balafres, balafres, par ci, par là Personne m'a raté han J'rappe comme si j'voulais cer-per avec lacets défaits ok Guitarisé comme ACDC Et sur pépé, faudra plus mettre pépé Y a des gens, j'peux les voir que quand j'suis pété han Une, une puce SFR et j'en fais des verts Normalement, quand t'es père, tu fais plus l'TP Ça te laisse en hiver et ça t'enferme l'été Tu connais tes sourates, t'as fini à la rate Tu voulais des sous vite, le Sheitan t'a souri Génération , j'voulais l'Piwi Génération Bériz, ils v'naient per-cho d'la weed On en a pris des risques, juste pour avoir des rides En Gucci, Louis Vui', même en Toujours les mêmes, mélange pas Enfant maudit, nonante-trois T'es pas crédible pour qu'on t' J'suis pas là, pas là, pas là, pas là J'ai le cur balafré han Mes balafres, balafres, par ci, par là Personne m'a raté han J'suis pas là, pas là, pas là, pas là J'ai le cur balafré han Mes balafres, balafres, par ci, par là Personne m'a raté han J'suis pas là, pas là, pas là, pas là Booska Palala Mes balafres, balafres, par ci, par là Personne m'a raté han J'suis pas là, pas là, pas là, pas là Booska Palala Mes balafres, balafres, par ci, par là Personne m'a raté han</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>J'entends qu'ça prend des peines, la juge est sans pitié sans pitié, refré, avant d'être pisté, pense à changer d'numéro eh Je traîne avec les mêmes, dis-moi c'qui m'arriverait m'arriverait, même plus blindé qu'toi, frérot, j'ferais pas l'dinero Mon ami d'enfance ressort d'une peine du Brésil du Brésil, le prix du ballon va doubler si tu passes l'Espagne l'Espagne J'rêvais de faire du blé parce que c'est légitime légitime, j'arrive en vol plané sur le game sans faire d'escale La ppe-f', c'est comment ? Toujours sur Booska-P Déconnecté des réseaux, j'tourne en puce cassée J'avais zéro dans les poches, j'étais capuché J'reviens plus fort qu'à l'époque, plus l'temps d'se cacher Ici, personne te coco on s'connait pas Arrête de faire le Totò Totò Riina Ici, personne te coco on s'connait pas Arrête de faire le Totò Totò Riina J'm'arrête, je mets du coco dans l'hornet, j'vais barauder Mes khos, en bas du bloc, bicravent coco, baïda J'm'arrête, je mets du coco dans l'hornet, j'vais barauder Mes khos, en bas du bloc, bicravent coco, baïda Envie de tous les ken mais l'équipe m'a dit douc'ment, j'écris la misère sur mon tél' qui vaut plus d'un point L'histoire se répète, j'prends mon pét', miser sur moi-même, déjà surmonté la hess, maintenant, mec, il reste quoi ? Ça bibi taga, be-tom, c'lui qui parle, on l'tabasse, les p'tits viennent braquer l'tabac, quinze ans, fume déjà des kamas M'ont laissé , veulent niquer mon plaisir, c'est moi qu'ai raison, j'ai la plus bonne résine You might also like La ppe-f', c'est comment ? Toujours sur Booska-P Déconnecté des réseaux, j'tourne en puce cassée J'avais zéro dans les poches, j'étais capuché J'reviens plus fort qu'à l'époque, plus l'temps d'se cacher Ici, personne te coco on s'connait pas Arrête de faire le Totò Totò Riina Ici, personne te coco on s'connait pas Arrête de faire le Totò Totò Riina J'm'arrête, je mets du coco dans l'hornet, j'vais barauder Mes khos, en bas du bloc, bicravent coco, baïda J'm'arrête, je mets du coco dans l'hornet, j'vais barauder Mes khos, en bas du bloc, bicravent coco, baïda Ici, personne te coco on s'connait pas Arrête de faire le Totò Totò Riina Ici, personne te coco on s'connait pas Arrête de faire le Totò Totò Riina J'm'arrête, je mets du coco dans l'hornet, j'vais barauder Mes khos, en bas du bloc, bicravent coco, baïda J'm'arrête, je mets du coco dans l'hornet, j'vais barauder Mes khos, en bas du bloc, bicravent coco, baïda</t>
+          <t>J'entends qu'ça prend des peines, la juge est sans pitié sans pitié, refré, avant d'être pisté, pense à changer d'numéro eh Je traîne avec les mêmes, dis-moi c'qui m'arriverait m'arriverait, même plus blindé qu'toi, frérot, j'ferais pas l'dinero Mon ami d'enfance ressort d'une peine du Brésil du Brésil, le prix du ballon va doubler si tu passes l'Espagne l'Espagne J'rêvais de faire du blé parce que c'est légitime légitime, j'arrive en vol plané sur le game sans faire d'escale La ppe-f', c'est comment ? Toujours sur Booska-P Déconnecté des réseaux, j'tourne en puce cassée J'avais zéro dans les poches, j'étais capuché J'reviens plus fort qu'à l'époque, plus l'temps d'se cacher Ici, personne te coco on s'connait pas Arrête de faire le Totò Totò Riina Ici, personne te coco on s'connait pas Arrête de faire le Totò Totò Riina J'm'arrête, je mets du coco dans l'hornet, j'vais barauder Mes khos, en bas du bloc, bicravent coco, baïda J'm'arrête, je mets du coco dans l'hornet, j'vais barauder Mes khos, en bas du bloc, bicravent coco, baïda Envie de tous les ken mais l'équipe m'a dit douc'ment, j'écris la misère sur mon tél' qui vaut plus d'un point L'histoire se répète, j'prends mon pét', miser sur moi-même, déjà surmonté la hess, maintenant, mec, il reste quoi ? Ça bibi taga, be-tom, c'lui qui parle, on l'tabasse, les p'tits viennent braquer l'tabac, quinze ans, fume déjà des kamas M'ont laissé , veulent niquer mon plaisir, c'est moi qu'ai raison, j'ai la plus bonne résine La ppe-f', c'est comment ? Toujours sur Booska-P Déconnecté des réseaux, j'tourne en puce cassée J'avais zéro dans les poches, j'étais capuché J'reviens plus fort qu'à l'époque, plus l'temps d'se cacher Ici, personne te coco on s'connait pas Arrête de faire le Totò Totò Riina Ici, personne te coco on s'connait pas Arrête de faire le Totò Totò Riina J'm'arrête, je mets du coco dans l'hornet, j'vais barauder Mes khos, en bas du bloc, bicravent coco, baïda J'm'arrête, je mets du coco dans l'hornet, j'vais barauder Mes khos, en bas du bloc, bicravent coco, baïda Ici, personne te coco on s'connait pas Arrête de faire le Totò Totò Riina Ici, personne te coco on s'connait pas Arrête de faire le Totò Totò Riina J'm'arrête, je mets du coco dans l'hornet, j'vais barauder Mes khos, en bas du bloc, bicravent coco, baïda J'm'arrête, je mets du coco dans l'hornet, j'vais barauder Mes khos, en bas du bloc, bicravent coco, baïda</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Toi, t'es un vendu, t'as jamais vendu, mais t'as attendu l'pain J'ressors d'un cambu, les grands sont tendus, n'ont pas vendu un Toi, t'es un vendu, t'as jamais vendu, mais t'as attendu l'pain J'te mets un tendu, les nerfs sont tendus, les nerfs sont tendus grave La cité est pilonnée wesh, j'vais pas épiloguer han Les p'tits savent piloter nion, revendre les kilos d'thé oh D'vant la juge, culotté quoi ?, la sauce a mijoté han On veut l'terrain mieux noté han sans finir menotté Si-Sidi', han J'sors de la cité sans être assisté, beuguh ficelée dans la sacoche à quatr chiffres J'sais plus sur qui miser ou sur qui viser, vois la vie en rouge derrière mes yeux plissés no Bombarde à fond, j'm'arrête même pas pour pisser nion Que les kich', pas d'autres rêves à réaliser no Pas d'justice, pas d'paix à la cité no, que des armes et des drapeaux noirs à hisser no, bin-binks Toi, t'es un vendu, t'as jamais vendu, mais t'as attendu l'pain quoi ? J'ressors d'un cambu, les grands sont tendus, n'ont pas vendu un Si-Sidi' Toi, t'es un vendu, t'as jamais vendu, mais t'as attendu l'pain bin-binks J'te mets un tendu, les nerfs sont tendus, les nerfs sont tendus grave hey Dégaine de briganté hey, j'tourne dans la ville entière hey J'sais plus sur qui compter hey, j'vais finir ma vie ganté hey Dégaine de briganté hey, j'tourne dans la ville entière hey J'sais plus sur qui compter hey, j'vais finir ma vie ganté hey You might also like Dégaine de briguant, d'puis p'tit, on bicrave nous, j'vole des cagoules à Décathlon J'vais faire un p'tit plan, j'sais bien qu'ils poucavent tous, cest à cause d'eux, on tourne à mort J'ai l'cur en lambeaux, j'viens prendre des sous et pas trop flamber J'ai vendu, y a qu'les CD que j'pourrais compter vrai Malette Hilti caisse fer braqués pour y aller tas coupé ton bracelet 4x4 couleur Cappuccino, dans la came, ty es, técoules à la mort Le dernier d'la classe investit dans l'immo', bah ouais quc'est cool, hartchounimek Paraît qu'j'suis fou mais j'ai placé les billes, baby, suis-moi, j'te fuis direct J'viens d'Sevran, j'suis pas P. Diddy hi, grosse caisse bien garée Toi, t'es un vendu, t'as jamais vendu, mais t'as attendu l'pain quoi ? J'ressors d'un cambu, les grands sont tendus, n'ont pas vendu un Si-Sidi' Toi, t'es un vendu, t'as jamais vendu, mais t'as attendu l'pain bin-binks J'te mets un tendu, les nerfs sont tendus, les nerfs sont tendus grave hey Dégaine de briganté hey, j'tourne dans la ville entière hey J'sais plus sur qui compter hey, j'vais finir ma vie ganté hey Dégaine de briganté hey, j'tourne dans la ville entière hey J'sais plus sur qui compter hey, j'vais finir ma vie ganté hey J'suis pas ton 7adem, j'ai d'jà ma Patek, j'ai beaucoup souffert même si j'en n'ai pas l'air La cité est bénie, je sors mon calibre, j'me crois à Palerme, j'suis trop une galère Ma rue, c'est Prison Break, y a de l'abus d'Heineken, écoute du Wu-Tang Clan Nous mettent des putains d'peines, du cash, pas d'bulletins d'paye On a connu la rue si tôt, bâtard, j'appelle un pote en visio au placard Pénurie, j'ramène que du bon taga, ce qu'on appelle une remontada Tous les terrains de chez moi ont d'jà fini dans la presse Tous les litrons de ppe-fra ont d'jà fini sous la presse ah Toi, t'es un vendu, t'as jamais vendu, mais t'as attendu l'pain quoi ? J'ressors d'un cambu, les grands sont tendus, n'ont pas vendu un Si-Sidi' Toi, t'es un vendu, t'as jamais vendu, mais t'as attendu l'pain bin-binks J'te mets un tendu, les nerfs sont tendus, les nerfs sont tendus grave hey Dégaine de briganté hey, j'tourne dans la ville entière hey J'sais plus sur qui compter hey, j'vais finir ma vie ganté hey Dégaine de briganté hey, j'tourne dans la ville entière hey J'sais plus sur qui compter hey, j'vais finir ma vie ganté hey</t>
+          <t>Toi, t'es un vendu, t'as jamais vendu, mais t'as attendu l'pain J'ressors d'un cambu, les grands sont tendus, n'ont pas vendu un Toi, t'es un vendu, t'as jamais vendu, mais t'as attendu l'pain J'te mets un tendu, les nerfs sont tendus, les nerfs sont tendus grave La cité est pilonnée wesh, j'vais pas épiloguer han Les p'tits savent piloter nion, revendre les kilos d'thé oh D'vant la juge, culotté quoi ?, la sauce a mijoté han On veut l'terrain mieux noté han sans finir menotté Si-Sidi', han J'sors de la cité sans être assisté, beuguh ficelée dans la sacoche à quatr chiffres J'sais plus sur qui miser ou sur qui viser, vois la vie en rouge derrière mes yeux plissés no Bombarde à fond, j'm'arrête même pas pour pisser nion Que les kich', pas d'autres rêves à réaliser no Pas d'justice, pas d'paix à la cité no, que des armes et des drapeaux noirs à hisser no, bin-binks Toi, t'es un vendu, t'as jamais vendu, mais t'as attendu l'pain quoi ? J'ressors d'un cambu, les grands sont tendus, n'ont pas vendu un Si-Sidi' Toi, t'es un vendu, t'as jamais vendu, mais t'as attendu l'pain bin-binks J'te mets un tendu, les nerfs sont tendus, les nerfs sont tendus grave hey Dégaine de briganté hey, j'tourne dans la ville entière hey J'sais plus sur qui compter hey, j'vais finir ma vie ganté hey Dégaine de briganté hey, j'tourne dans la ville entière hey J'sais plus sur qui compter hey, j'vais finir ma vie ganté hey Dégaine de briguant, d'puis p'tit, on bicrave nous, j'vole des cagoules à Décathlon J'vais faire un p'tit plan, j'sais bien qu'ils poucavent tous, cest à cause d'eux, on tourne à mort J'ai l'cur en lambeaux, j'viens prendre des sous et pas trop flamber J'ai vendu, y a qu'les CD que j'pourrais compter vrai Malette Hilti caisse fer braqués pour y aller tas coupé ton bracelet 4x4 couleur Cappuccino, dans la came, ty es, técoules à la mort Le dernier d'la classe investit dans l'immo', bah ouais quc'est cool, hartchounimek Paraît qu'j'suis fou mais j'ai placé les billes, baby, suis-moi, j'te fuis direct J'viens d'Sevran, j'suis pas P. Diddy hi, grosse caisse bien garée Toi, t'es un vendu, t'as jamais vendu, mais t'as attendu l'pain quoi ? J'ressors d'un cambu, les grands sont tendus, n'ont pas vendu un Si-Sidi' Toi, t'es un vendu, t'as jamais vendu, mais t'as attendu l'pain bin-binks J'te mets un tendu, les nerfs sont tendus, les nerfs sont tendus grave hey Dégaine de briganté hey, j'tourne dans la ville entière hey J'sais plus sur qui compter hey, j'vais finir ma vie ganté hey Dégaine de briganté hey, j'tourne dans la ville entière hey J'sais plus sur qui compter hey, j'vais finir ma vie ganté hey J'suis pas ton 7adem, j'ai d'jà ma Patek, j'ai beaucoup souffert même si j'en n'ai pas l'air La cité est bénie, je sors mon calibre, j'me crois à Palerme, j'suis trop une galère Ma rue, c'est Prison Break, y a de l'abus d'Heineken, écoute du Wu-Tang Clan Nous mettent des putains d'peines, du cash, pas d'bulletins d'paye On a connu la rue si tôt, bâtard, j'appelle un pote en visio au placard Pénurie, j'ramène que du bon taga, ce qu'on appelle une remontada Tous les terrains de chez moi ont d'jà fini dans la presse Tous les litrons de ppe-fra ont d'jà fini sous la presse ah Toi, t'es un vendu, t'as jamais vendu, mais t'as attendu l'pain quoi ? J'ressors d'un cambu, les grands sont tendus, n'ont pas vendu un Si-Sidi' Toi, t'es un vendu, t'as jamais vendu, mais t'as attendu l'pain bin-binks J'te mets un tendu, les nerfs sont tendus, les nerfs sont tendus grave hey Dégaine de briganté hey, j'tourne dans la ville entière hey J'sais plus sur qui compter hey, j'vais finir ma vie ganté hey Dégaine de briganté hey, j'tourne dans la ville entière hey J'sais plus sur qui compter hey, j'vais finir ma vie ganté hey</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>J'fais du mal pour le papier Elle veut lire dans mon âme, je veux la déshabiller Les sentiments sont sous sellé C'est fou qu'elle me rend faible sans jamais forcer, oh Toujours dans ma tête comme une mélodie Je voulais que les poches soient pleine, que le cur reste vide Je fais des fautes quand j'dis je t'aime car beaucoup d'ennemis Si t'es bénie, ma chérie sache que l'on est maudit Peut être qu'on doit se dire tant pis Ma belle je te dirais bye bye, bye bye, bye bye Avant que ça devienne toxique Et qu'on s'écrase comme Cena, Cena, Cena ouh ouh ouh ouh Laisse les parler c'est qu'des commentaires ouh ouh ouh ouh T'es mon paradis au goût d'enfer ouh ouh ouh ouh Je préfère rester soul à tes pieds oh oh oh oh Toi et moi c'est die, die Les mains sales, mais j'voulais bien faire J'te ferais bye bye bye Les mains sales, mais j'voulais bien faire Toi et moi c'est die, die T'es maléfique avec un cur de pierre J'peux plus réparer bye bye Tu restes ma femme, même en temps de guerre You might also like J'ai voulu conduire dans son cur, j'ai plus d'mis-per Et dans ses yeux je me perds et dans ces yeux je me perds J'ai voulu conduire dans son cur, j'ai plus d'mis-per Et dans ses yeux je me perds Sans mis-per c'est illicite, prison ferme tu me rendra visite Perquis', grosse cale saisit, pourtant tout ça on m'l'avait dis Je bois trop, je pense beaucoup, j'suis dans le fer Je lui mets son coup j'dois m'enfuir Phucket-Salou, si on fleurte Petite tis-mé en curli, elle a trise-mai le contouring devant son cur comme un deur-vi J't'avais déjà dit interdit, extensions, faux cils, viens pas test cousine Elle veut que l'jaune et vert, on ne négocie Toi et moi c'est die, die Les mains sales, mais j'voulais bien faire J'te ferais bye bye bye Les mains sales, mais j'voulais bien faire Toi et moi c'est die, die T'es maléfique avec un cur de pierre J'peux plus réparer bye bye Tu restes ma femme, même en temps de guerre J'ai voulu conduire dans son cur, j'ai plus d'mis-per Et dans ses yeux je me perds et dans ces yeux je me perds J'ai voulu conduire dans son cur, j'ai plus d'mis-per Et dans ses yeux je me perds Les mains sales, mais j'voulais bien faire Les mains sales, mais j'voulais bien faire T'es maléfique avec un cur de pierre Tu restes ma femme, même en temps de guerre C'est Hiro et tu sais déjà</t>
+          <t>J'fais du mal pour le papier Elle veut lire dans mon âme, je veux la déshabiller Les sentiments sont sous sellé C'est fou qu'elle me rend faible sans jamais forcer, oh Toujours dans ma tête comme une mélodie Je voulais que les poches soient pleine, que le cur reste vide Je fais des fautes quand j'dis je t'aime car beaucoup d'ennemis Si t'es bénie, ma chérie sache que l'on est maudit Peut être qu'on doit se dire tant pis Ma belle je te dirais bye bye, bye bye, bye bye Avant que ça devienne toxique Et qu'on s'écrase comme Cena, Cena, Cena ouh ouh ouh ouh Laisse les parler c'est qu'des commentaires ouh ouh ouh ouh T'es mon paradis au goût d'enfer ouh ouh ouh ouh Je préfère rester soul à tes pieds oh oh oh oh Toi et moi c'est die, die Les mains sales, mais j'voulais bien faire J'te ferais bye bye bye Les mains sales, mais j'voulais bien faire Toi et moi c'est die, die T'es maléfique avec un cur de pierre J'peux plus réparer bye bye Tu restes ma femme, même en temps de guerre J'ai voulu conduire dans son cur, j'ai plus d'mis-per Et dans ses yeux je me perds et dans ces yeux je me perds J'ai voulu conduire dans son cur, j'ai plus d'mis-per Et dans ses yeux je me perds Sans mis-per c'est illicite, prison ferme tu me rendra visite Perquis', grosse cale saisit, pourtant tout ça on m'l'avait dis Je bois trop, je pense beaucoup, j'suis dans le fer Je lui mets son coup j'dois m'enfuir Phucket-Salou, si on fleurte Petite tis-mé en curli, elle a trise-mai le contouring devant son cur comme un deur-vi J't'avais déjà dit interdit, extensions, faux cils, viens pas test cousine Elle veut que l'jaune et vert, on ne négocie Toi et moi c'est die, die Les mains sales, mais j'voulais bien faire J'te ferais bye bye bye Les mains sales, mais j'voulais bien faire Toi et moi c'est die, die T'es maléfique avec un cur de pierre J'peux plus réparer bye bye Tu restes ma femme, même en temps de guerre J'ai voulu conduire dans son cur, j'ai plus d'mis-per Et dans ses yeux je me perds et dans ces yeux je me perds J'ai voulu conduire dans son cur, j'ai plus d'mis-per Et dans ses yeux je me perds Les mains sales, mais j'voulais bien faire Les mains sales, mais j'voulais bien faire T'es maléfique avec un cur de pierre Tu restes ma femme, même en temps de guerre C'est Hiro et tu sais déjà</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>So le Flem Back to the future Depuis tit-pe, ils veulent j'fasse des études pour servir l'PDG Gri-gri-pah Mais trop têtu, j'voulais faire comme les grands allumer l'PGP Gri-pah Sur le chantier, Papa se casse le dos pour nourrir ses mômes Pendant que son fils trainait dehors, pensait qu'à rouler des cônes On n'a pas l'bonheur avec aides de la CAF Rien n'a changé, on demande toujours mes faffes Sauf que maintenant j'peux choisir mon bavux Il m'fait sortir plus vite de chez ls cops Cops, cops A la barre, la juge étonnée, le gérant du four à le bac Pah, pah A la barre, la juge étonnée, le gérant du four à le bac Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Rah You might also like On a trop souffert étant petits On voulait becqueter mais les grands ont tout pris Toi, t'es un schlag vu tes pupilles Pour un bon , j'veux tu supplies Souffre en silence, soit pas bruyant Nan Tu feras du bouquant en brillant Ouais On ne tire pas sur l'ambulance Nan Mais ces fils de pute ont plus honte Ouais Dégaines de bandit, les trois quarts sont maudits Pas d'bâton dans les roues, j'ai cassé ton bambou 5K chez LV, t'inquiète j'ai bon goût Mon reuf a changé, sa meuf fait du vaudou Toi j't'ai défendu, aujourd'hui fait l'tendu J'te laisse parler, j't'ai dit, j'tire pas sur l'ambu Peufra, peufra, peufra, peufra J'te laisse parler, j't'ai dit, j'tire pas sur l'ambu A la barre, la juge étonnée, le gérant du four à le bac A la barre, la juge étonnée, le gérant du four à le bac Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Rah comme un mec de Paname Travaille sans mecs de Paname comme un mec de Paname sans mecs de Paname comme un mec de Paname Travaille sans mecs de Paname Je gère la comme un mec de Paname Elle a kiffé sur les mecs de Paname</t>
+          <t>So le Flem Back to the future Depuis tit-pe, ils veulent j'fasse des études pour servir l'PDG Gri-gri-pah Mais trop têtu, j'voulais faire comme les grands allumer l'PGP Gri-pah Sur le chantier, Papa se casse le dos pour nourrir ses mômes Pendant que son fils trainait dehors, pensait qu'à rouler des cônes On n'a pas l'bonheur avec aides de la CAF Rien n'a changé, on demande toujours mes faffes Sauf que maintenant j'peux choisir mon bavux Il m'fait sortir plus vite de chez ls cops Cops, cops A la barre, la juge étonnée, le gérant du four à le bac Pah, pah A la barre, la juge étonnée, le gérant du four à le bac Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Rah On a trop souffert étant petits On voulait becqueter mais les grands ont tout pris Toi, t'es un schlag vu tes pupilles Pour un bon , j'veux tu supplies Souffre en silence, soit pas bruyant Nan Tu feras du bouquant en brillant Ouais On ne tire pas sur l'ambulance Nan Mais ces fils de pute ont plus honte Ouais Dégaines de bandit, les trois quarts sont maudits Pas d'bâton dans les roues, j'ai cassé ton bambou 5K chez LV, t'inquiète j'ai bon goût Mon reuf a changé, sa meuf fait du vaudou Toi j't'ai défendu, aujourd'hui fait l'tendu J'te laisse parler, j't'ai dit, j'tire pas sur l'ambu Peufra, peufra, peufra, peufra J'te laisse parler, j't'ai dit, j'tire pas sur l'ambu A la barre, la juge étonnée, le gérant du four à le bac A la barre, la juge étonnée, le gérant du four à le bac Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Rah comme un mec de Paname Travaille sans mecs de Paname comme un mec de Paname sans mecs de Paname comme un mec de Paname Travaille sans mecs de Paname Je gère la comme un mec de Paname Elle a kiffé sur les mecs de Paname</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Baille Broliker Production À l'époque ,j'voulais d'jà la paire d'TN, j'étais pauvre, tu m'allumais sur l'taman C'est d'la ppe-f', viens per-cho, c'est dans cello', c'est la hess, j'tenais pas la fin d'semaine Magnétoscope, j'met les tubes de Kriss Kross, j'étais c'microbe mais t'inquiète, le p'tit t'crosse Polo coste-La troué, fallait pas qu'on s'plaigne, c'est la crise grave, c'est la course à l'espèce Tu vas être choqué, tu vois que l'showcase, j'maîtrise mon art de la tête aux pieds J'aiguise mon shlass, allez, viens m'sauter, p'tite beauté, toi, j'peux t'doter Pe-ra, j'l'ai dans l'sang, j'baigne dans l'sang, j'veux l'appart sur Paris avec vue d'ensemble Ta racli, elle m'kiffe, je sais qu'elle m'kiffe, son cur, j'l'ai rafistolé avec quelques sons J'suis bientôt dans mon quatrième album, l'équipe, c'est la même que les Dalton Bats les couilles, 10k d'amitié par pote, ça bouge pas, j'découpe les couplets au scalpel La rue m'a appris les ficelles, y a les filles sales, les filles simples, officielles J'fais des photos, moi qui voulais une vie simple, on a les mains crades avec tout c'qu'on a visser Non, n'appelle pas le 17 pow pow, j'rappe avec poils hérissés pow pow Non, n'appelle pas les quisdés, j'ai le flow du premier suspect Je sais que maintenant tu sais sais, fallait bien que tu l'saches l'saches J'ai deux fois plus de succès, j'ai deux fois plus de cash cash Qui t'a sucé dans l'passé, rien que sur moi tu craches J'ai deux fois plus de succès, j'ai deux fois plus de cash cash You might also like C'est plus la même qu'avant, RS sur la Calande, la ppe-f' sur la balance, on est bien tant qu'ça rentre Ne crois pas qu'on t'arrange, même si j'ai le bras long, me sers pas la phalange, même si j'ai le bras long J'ai fait passer mon liquide et j'ai même payé le douanier, tu peux parler sur moi, ce soir, j'm'endors dans un étoilé Que ça parle de Kalash', mais poto, t'as pas l'âge, la rue, on maîtrise, dans le biz, pas de paresse, hein, hein La ppe-f sait pas rapper, y a qu'sur longue vie qu'j'me suis raté Fils de pute, t'es baraqué, j't'allume ta mère, on parle après La pegueuf est dans l'sac, dans l'coffre, dans l'cab', j'sais c'est qui les putes qui veulent pas me voir monter J'leur ferait du sale jusqu'à c'que mon cur arrête de battre, à qui se fier quand la mort n'est pas rentable ? Peufra La rue m'a appris les ficelles, y a les filles sales, les filles simples, officielles J'fais des photos, moi qui voulait une vie simple, on a les mains crades avec tout c'qu'on a visser Non, n'appelle pas le 17 pow pow, j'rappe avec poils hérissés pow pow Non, n'appelle pas les quisdés, j'ai le flow du premier suspect Je sais que maintenant tu sais sais, fallait bien que tu l'saches l'saches J'ai deux fois plus de succès, j'ai deux fois plus de cash cash Qui t'a sucé dans l'passé, rien que sur moi tu craches J'ai deux fois plus de succès, j'ai deux fois plus de cash cash Je sais que maintenant tu sais sais, fallait bien que tu l'saches l'saches J'ai deux fois plus de succès, j'ai deux fois plus de cash cash Qui t'a sucé dans l'passé, rien que sur moi tu craches J'ai deux fois plus de succès, j'ai deux fois plus de cash cash J'ai deux fois plus de succès, j'ai deux fois plus de cash cash J'ai deux fois plus de succès, j'ai deux fois plus de cash cash</t>
+          <t>Baille Broliker Production À l'époque ,j'voulais d'jà la paire d'TN, j'étais pauvre, tu m'allumais sur l'taman C'est d'la ppe-f', viens per-cho, c'est dans cello', c'est la hess, j'tenais pas la fin d'semaine Magnétoscope, j'met les tubes de Kriss Kross, j'étais c'microbe mais t'inquiète, le p'tit t'crosse Polo coste-La troué, fallait pas qu'on s'plaigne, c'est la crise grave, c'est la course à l'espèce Tu vas être choqué, tu vois que l'showcase, j'maîtrise mon art de la tête aux pieds J'aiguise mon shlass, allez, viens m'sauter, p'tite beauté, toi, j'peux t'doter Pe-ra, j'l'ai dans l'sang, j'baigne dans l'sang, j'veux l'appart sur Paris avec vue d'ensemble Ta racli, elle m'kiffe, je sais qu'elle m'kiffe, son cur, j'l'ai rafistolé avec quelques sons J'suis bientôt dans mon quatrième album, l'équipe, c'est la même que les Dalton Bats les couilles, 10k d'amitié par pote, ça bouge pas, j'découpe les couplets au scalpel La rue m'a appris les ficelles, y a les filles sales, les filles simples, officielles J'fais des photos, moi qui voulais une vie simple, on a les mains crades avec tout c'qu'on a visser Non, n'appelle pas le 17 pow pow, j'rappe avec poils hérissés pow pow Non, n'appelle pas les quisdés, j'ai le flow du premier suspect Je sais que maintenant tu sais sais, fallait bien que tu l'saches l'saches J'ai deux fois plus de succès, j'ai deux fois plus de cash cash Qui t'a sucé dans l'passé, rien que sur moi tu craches J'ai deux fois plus de succès, j'ai deux fois plus de cash cash C'est plus la même qu'avant, RS sur la Calande, la ppe-f' sur la balance, on est bien tant qu'ça rentre Ne crois pas qu'on t'arrange, même si j'ai le bras long, me sers pas la phalange, même si j'ai le bras long J'ai fait passer mon liquide et j'ai même payé le douanier, tu peux parler sur moi, ce soir, j'm'endors dans un étoilé Que ça parle de Kalash', mais poto, t'as pas l'âge, la rue, on maîtrise, dans le biz, pas de paresse, hein, hein La ppe-f sait pas rapper, y a qu'sur longue vie qu'j'me suis raté Fils de pute, t'es baraqué, j't'allume ta mère, on parle après La pegueuf est dans l'sac, dans l'coffre, dans l'cab', j'sais c'est qui les putes qui veulent pas me voir monter J'leur ferait du sale jusqu'à c'que mon cur arrête de battre, à qui se fier quand la mort n'est pas rentable ? Peufra La rue m'a appris les ficelles, y a les filles sales, les filles simples, officielles J'fais des photos, moi qui voulait une vie simple, on a les mains crades avec tout c'qu'on a visser Non, n'appelle pas le 17 pow pow, j'rappe avec poils hérissés pow pow Non, n'appelle pas les quisdés, j'ai le flow du premier suspect Je sais que maintenant tu sais sais, fallait bien que tu l'saches l'saches J'ai deux fois plus de succès, j'ai deux fois plus de cash cash Qui t'a sucé dans l'passé, rien que sur moi tu craches J'ai deux fois plus de succès, j'ai deux fois plus de cash cash Je sais que maintenant tu sais sais, fallait bien que tu l'saches l'saches J'ai deux fois plus de succès, j'ai deux fois plus de cash cash Qui t'a sucé dans l'passé, rien que sur moi tu craches J'ai deux fois plus de succès, j'ai deux fois plus de cash cash J'ai deux fois plus de succès, j'ai deux fois plus de cash cash J'ai deux fois plus de succès, j'ai deux fois plus de cash cash</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Stunt sans plaque, dégaine de bandit, l'ambiance est tendue Dans l'Sud ça descend, cabre, Marbe' en hess, ça a d'ja fait des cambu C'est l'9-3 faut pas qu'les porcs s'invitent Pousse-toi, tais-toi, tes poches sont vides La beuh d'Hollande débite trop vite L'ancien c'est plus un p'tit l'2000 C'est d'la peuf filtrée trois fois J'suis en RS tout droit sur trois voies la nuit Des frères qui font les cents pas, j'envoie l'colis Trois bigos, du bédo, d'la weed Mélange clair dans la Cristalline Plus d'crédit c'est comme à l'alim' On put t'faire p't'être un prix d'ami Si tu prends pour tout ta mif Ça vient d'passer dans la Passat, souvent la gueule d'ange qu'est pas sage Fais pas ci, fais pas ça, c'est pas facile de s'attacher Et cousine, donne ton Snap', j'en ai d'ja marre de Natacha Mort, pété, dans l'FeFe, t'façon c'est moi qui est passager J'connais plein d'gens, dans l'foot, dans l'rap, dans l'biz, c'est des talents gâchés On va rien lâcher, au mic, que des talents fâchés J'm'en branle de c'qu'ils pensent, c'qu'ils disent sur moi, ouais faut qu'vous l'sachiez Toute l'année ça chôme, ça chante, ça fait les macs et ça part s'cacher J'suis pas kalashé gros, vu l'âge que j'ai Fallait faire un choix, temps plein au mic ou en GAV, hein Le cur passe avant, les sous passent après P'tit bâtard, y'a pas qu'le champagne qu'on va sabrer You might also like Grosse logistique, full stone comme les Paoli Dans les années 90, j'avais fait des Brinks J'fais à l'ancienne comme les pogs, indémodable comme le tapin Comme d'hab c'est la cata et les pimpons ils ont trop faim Quand tu montes, on t'suce, quand tu coules, on t'glisse Après deux trois je t'aime, ils vont J'suis scié mais j'remets mon tablier Né pour briller après faudra m'oublier Ça vire au drame C'est le grand classico, sonne l'alarme De Marseille à Paris Ça vire au drame C'est le grand classico, sonne l'alarme De Marseille à Paris Pop pop pop pop Pop pop pop pop pop pop Pop pop pop pop Pop pop pop pop pop pop S.o. Marseille j'ai mes moinama Qui guitarise d'vant ta mama Monte au cachet sur Panama On va t'traquer jusqu'à la mort On t'pardonne pas même en kamis C'est des enchères aux assises Sur l'bolide, y a la balise Quand le poto m'livrait valise La tête quittant les ? dans les schnecs Ne m'appelle pas le S, t'es sonne-per dans ton tieks Invité par le J, le rap une maladie J'baise ces rappeurs, que des parodies Wesh ma lope-sa qué pasa ?, t'es rancunier comme Sosa Parti pour la remontada, tout baiser sans états d'âme Elle la veut dans l'anus, à l'arrière de l'Urus Ne viens pas parler russe, on laisse pas trainer nos paluches J'suis dans le four, j'cuisine ma kich', kich', on en veut toujours plus, plus Quand ça tombe, personne est riche, riche, les rafales ça use, use J'suis dans l'binks, j'ai bien calé ça J'suis dans la zone à risques avec mes sosas J'aime sa démarche, j'me dois d'la casser Quand elle met son jean, elle est compressée Les Go-Fast ont mordut l'équipe, ces batards nous ont tout saisi J'change de meuf toutes les saisons, j'suis amer comme l'euthanasie La balle sort de la bre-cham, j'fais bosser la scientifique Numéro 10 qui s'laisse pas faire comme Okocha j'suis trop technique les billets faut caresser Ya des décès comme ma gâchette j'suis pressé Trop d'beaux parleurs, de j'ai fait ci, j'ai fait ça Que ça fait l'hoss à Melissa, de c'est comme ci, c'est comme ça Toujours fuck le 17 17, j'veux l'or des Qatari, , haut mauve Le J dans la tchop depuis dans mon tel Guette comme on déboule, ils savent qu'on les baise Gentil à la base mais la base n'accepte plus les chèques Si tu rends pas l'seille-o, je pull up comme Marleau dans la série Marseille si tu payes , ça se bat tous les jours Je leur ai tout donné pourtant, ils veulent pas me voir béni T'en fais pas pour moi mama, ils disent que j'suis futur génie Concentration, pression j'la sif au bar, léger les g C'est Paris, c'est Marseille, c'est danger, danger Fini la disette, j'fais mes diezs, me prend pas la tête Y a d'la pe-f' qui fait colmater, y'a d'quoi devenir Il faut un stand assorti à ma ma gueule J'prends les virages à bloc comme le p'tit cous' sur le stunt, eh Faut bosser tard, personne n'va t'payer tes blondes c'est mieux C'est mieux d'être rare pas bon quand tu connais tout le monde La vie de ma mère, nique polizia, fuck les schtars, à bout de nerfs Pas d'PCS, attend frangin tu fais l'rappeur Milles et un problème, la veille, demain c'est l'heure Grrr, Paw, Paw Diego Ça vire au drame C'est le grand classico, sonne l'alarme De Marseille à Paris Ça vire au drame C'est le grand classico, sonne l'alarme De Marseille à Paris Pop pop pop pop Pop pop pop pop pop pop Pop pop pop pop Pop pop pop pop pop pop Pop pop pop pop Pop pop pop pop pop pop Pop pop pop pop Pop pop pop pop pop pop</t>
+          <t>Stunt sans plaque, dégaine de bandit, l'ambiance est tendue Dans l'Sud ça descend, cabre, Marbe' en hess, ça a d'ja fait des cambu C'est l'9-3 faut pas qu'les porcs s'invitent Pousse-toi, tais-toi, tes poches sont vides La beuh d'Hollande débite trop vite L'ancien c'est plus un p'tit l'2000 C'est d'la peuf filtrée trois fois J'suis en RS tout droit sur trois voies la nuit Des frères qui font les cents pas, j'envoie l'colis Trois bigos, du bédo, d'la weed Mélange clair dans la Cristalline Plus d'crédit c'est comme à l'alim' On put t'faire p't'être un prix d'ami Si tu prends pour tout ta mif Ça vient d'passer dans la Passat, souvent la gueule d'ange qu'est pas sage Fais pas ci, fais pas ça, c'est pas facile de s'attacher Et cousine, donne ton Snap', j'en ai d'ja marre de Natacha Mort, pété, dans l'FeFe, t'façon c'est moi qui est passager J'connais plein d'gens, dans l'foot, dans l'rap, dans l'biz, c'est des talents gâchés On va rien lâcher, au mic, que des talents fâchés J'm'en branle de c'qu'ils pensent, c'qu'ils disent sur moi, ouais faut qu'vous l'sachiez Toute l'année ça chôme, ça chante, ça fait les macs et ça part s'cacher J'suis pas kalashé gros, vu l'âge que j'ai Fallait faire un choix, temps plein au mic ou en GAV, hein Le cur passe avant, les sous passent après P'tit bâtard, y'a pas qu'le champagne qu'on va sabrer Grosse logistique, full stone comme les Paoli Dans les années 90, j'avais fait des Brinks J'fais à l'ancienne comme les pogs, indémodable comme le tapin Comme d'hab c'est la cata et les pimpons ils ont trop faim Quand tu montes, on t'suce, quand tu coules, on t'glisse Après deux trois je t'aime, ils vont J'suis scié mais j'remets mon tablier Né pour briller après faudra m'oublier Ça vire au drame C'est le grand classico, sonne l'alarme De Marseille à Paris Ça vire au drame C'est le grand classico, sonne l'alarme De Marseille à Paris Pop pop pop pop Pop pop pop pop pop pop Pop pop pop pop Pop pop pop pop pop pop S.o. Marseille j'ai mes moinama Qui guitarise d'vant ta mama Monte au cachet sur Panama On va t'traquer jusqu'à la mort On t'pardonne pas même en kamis C'est des enchères aux assises Sur l'bolide, y a la balise Quand le poto m'livrait valise La tête quittant les ? dans les schnecs Ne m'appelle pas le S, t'es sonne-per dans ton tieks Invité par le J, le rap une maladie J'baise ces rappeurs, que des parodies Wesh ma lope-sa qué pasa ?, t'es rancunier comme Sosa Parti pour la remontada, tout baiser sans états d'âme Elle la veut dans l'anus, à l'arrière de l'Urus Ne viens pas parler russe, on laisse pas trainer nos paluches J'suis dans le four, j'cuisine ma kich', kich', on en veut toujours plus, plus Quand ça tombe, personne est riche, riche, les rafales ça use, use J'suis dans l'binks, j'ai bien calé ça J'suis dans la zone à risques avec mes sosas J'aime sa démarche, j'me dois d'la casser Quand elle met son jean, elle est compressée Les Go-Fast ont mordut l'équipe, ces batards nous ont tout saisi J'change de meuf toutes les saisons, j'suis amer comme l'euthanasie La balle sort de la bre-cham, j'fais bosser la scientifique Numéro 10 qui s'laisse pas faire comme Okocha j'suis trop technique les billets faut caresser Ya des décès comme ma gâchette j'suis pressé Trop d'beaux parleurs, de j'ai fait ci, j'ai fait ça Que ça fait l'hoss à Melissa, de c'est comme ci, c'est comme ça Toujours fuck le 17 17, j'veux l'or des Qatari, , haut mauve Le J dans la tchop depuis dans mon tel Guette comme on déboule, ils savent qu'on les baise Gentil à la base mais la base n'accepte plus les chèques Si tu rends pas l'seille-o, je pull up comme Marleau dans la série Marseille si tu payes , ça se bat tous les jours Je leur ai tout donné pourtant, ils veulent pas me voir béni T'en fais pas pour moi mama, ils disent que j'suis futur génie Concentration, pression j'la sif au bar, léger les g C'est Paris, c'est Marseille, c'est danger, danger Fini la disette, j'fais mes diezs, me prend pas la tête Y a d'la pe-f' qui fait colmater, y'a d'quoi devenir Il faut un stand assorti à ma ma gueule J'prends les virages à bloc comme le p'tit cous' sur le stunt, eh Faut bosser tard, personne n'va t'payer tes blondes c'est mieux C'est mieux d'être rare pas bon quand tu connais tout le monde La vie de ma mère, nique polizia, fuck les schtars, à bout de nerfs Pas d'PCS, attend frangin tu fais l'rappeur Milles et un problème, la veille, demain c'est l'heure Grrr, Paw, Paw Diego Ça vire au drame C'est le grand classico, sonne l'alarme De Marseille à Paris Ça vire au drame C'est le grand classico, sonne l'alarme De Marseille à Paris Pop pop pop pop Pop pop pop pop pop pop Pop pop pop pop Pop pop pop pop pop pop Pop pop pop pop Pop pop pop pop pop pop Pop pop pop pop Pop pop pop pop pop pop</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Toute la journée je traîne en bas Belek les condés sont là C'est moi le gérant je fais les comptes Le petit frère a encore fait des trous Loyer payé grâce au charbon Fiston brasse plus que le daron Type nord-africain dans l'talkie Nom de famille dans bouche de pouki Commission rogatoire, on est suivi Mais y'a pas showfa, que ça bibi Il y a la stup' dans le périmètre On s'en fout de ton boule il est périmé Il t'a hagar tu l'as vu naître Aujourd'hui le boss te fait allumer Les boloss sont contaminés Six heures du mat' je saute par la fenêtre Envie de me pointer mais c'est trop miné Un bastos et des morts sur l'appuie-tête Toute la journée je traîne en bas, les voisins disent j'ai raté ma vie Belek les condés sont là, mais je peux pas laisser le terrain vide Toute la journée je traîne en bas, les voisins disent j'ai raté ma vie Belek les condés sont là, mais je peux pas laisser le terrain vide You might also likeCharbonneur, ne laisse pas le terrain vide Charbonneur, j'ai failli y laisser ma vie Charbonneur, ne laisse pas le terrain vide Charbonneur, j'ai failli y laisser ma vie J'ai vu les larmes de maman c'est honteux J'ai investi un kilo pour en faire deux La juge attend un faux pas Mais les allers-retours ne me font pas peur Si vous voulez savoir le pire Je prends ma part en écoulant la pure Il y a qu'avec mes gants que j'ai fait la paire Même s'ils sont rôtis j'aime pas les porcs Je suis dans mon Clio 3 Société La rue, la faute, c'est plus ce que c'était Petit, on est devenu grand Les grand ne peuvent plus nous enseigner Moi j'ai rien à foutre de ta morale J'ai des frères au trou à assumer Dans mon délire je suis dans Gomorra Parfois je vais dire je suis assimilé Assimilé, il y a pas de similaire Faire une semaine avec nous c'est un séminaire J'suis charbonneur, la pause n'existe pas Même si le terrain d'un bâtiment devient miné Toute la journée je traîne en bas, les voisins disent j'ai raté ma vie Belek les condés sont là, mais je peux pas laisser le terrain vide Toute la journée je traîne en bas, les voisins disent j'ai raté ma vie Belek les condés sont là, mais je peux pas laisser le terrain vide Je suis dans les affaires Trop d'moula, j'sais plus comment faire On s'en bat les couilles de ce que tu penses et de tes commentaires Neuf milli je sais comment t'faire Je vais retrouver mes terres près des miens Je veux que ce soit là qu'on m'enterre Soufflage, rallume un ter J'aime pas les menteurs, j'suis sur le périph je vesqui les motards V6 sous le moteur Un contrat sur ta tête et mes gars seront deux sur la moto Toute la journée je traîne en bas, les voisins disent j'ai raté ma vie Belek les condés sont là, mais je peux pas laisser le terrain vide Toute la journée je traîne en bas, les voisins disent j'ai raté ma vie Belek les condés sont là, mais je peux pas laisser le terrain vide Charbonneur, ne laisse pas le terrain vide Charbonneur, j'ai failli y laisser ma vie Charbonneur, ne laisse pas le terrain vide Charbonneur, j'ai failli y laisser ma vie Charbonneur, ne laisse pas le terrain vide Charbonneur, ne laisse pas le terrain vide</t>
+          <t>Toute la journée je traîne en bas Belek les condés sont là C'est moi le gérant je fais les comptes Le petit frère a encore fait des trous Loyer payé grâce au charbon Fiston brasse plus que le daron Type nord-africain dans l'talkie Nom de famille dans bouche de pouki Commission rogatoire, on est suivi Mais y'a pas showfa, que ça bibi Il y a la stup' dans le périmètre On s'en fout de ton boule il est périmé Il t'a hagar tu l'as vu naître Aujourd'hui le boss te fait allumer Les boloss sont contaminés Six heures du mat' je saute par la fenêtre Envie de me pointer mais c'est trop miné Un bastos et des morts sur l'appuie-tête Toute la journée je traîne en bas, les voisins disent j'ai raté ma vie Belek les condés sont là, mais je peux pas laisser le terrain vide Toute la journée je traîne en bas, les voisins disent j'ai raté ma vie Belek les condés sont là, mais je peux pas laisser le terrain vide Charbonneur, ne laisse pas le terrain vide Charbonneur, j'ai failli y laisser ma vie Charbonneur, ne laisse pas le terrain vide Charbonneur, j'ai failli y laisser ma vie J'ai vu les larmes de maman c'est honteux J'ai investi un kilo pour en faire deux La juge attend un faux pas Mais les allers-retours ne me font pas peur Si vous voulez savoir le pire Je prends ma part en écoulant la pure Il y a qu'avec mes gants que j'ai fait la paire Même s'ils sont rôtis j'aime pas les porcs Je suis dans mon Clio 3 Société La rue, la faute, c'est plus ce que c'était Petit, on est devenu grand Les grand ne peuvent plus nous enseigner Moi j'ai rien à foutre de ta morale J'ai des frères au trou à assumer Dans mon délire je suis dans Gomorra Parfois je vais dire je suis assimilé Assimilé, il y a pas de similaire Faire une semaine avec nous c'est un séminaire J'suis charbonneur, la pause n'existe pas Même si le terrain d'un bâtiment devient miné Toute la journée je traîne en bas, les voisins disent j'ai raté ma vie Belek les condés sont là, mais je peux pas laisser le terrain vide Toute la journée je traîne en bas, les voisins disent j'ai raté ma vie Belek les condés sont là, mais je peux pas laisser le terrain vide Je suis dans les affaires Trop d'moula, j'sais plus comment faire On s'en bat les couilles de ce que tu penses et de tes commentaires Neuf milli je sais comment t'faire Je vais retrouver mes terres près des miens Je veux que ce soit là qu'on m'enterre Soufflage, rallume un ter J'aime pas les menteurs, j'suis sur le périph je vesqui les motards V6 sous le moteur Un contrat sur ta tête et mes gars seront deux sur la moto Toute la journée je traîne en bas, les voisins disent j'ai raté ma vie Belek les condés sont là, mais je peux pas laisser le terrain vide Toute la journée je traîne en bas, les voisins disent j'ai raté ma vie Belek les condés sont là, mais je peux pas laisser le terrain vide Charbonneur, ne laisse pas le terrain vide Charbonneur, j'ai failli y laisser ma vie Charbonneur, ne laisse pas le terrain vide Charbonneur, j'ai failli y laisser ma vie Charbonneur, ne laisse pas le terrain vide Charbonneur, ne laisse pas le terrain vide</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Baille Broliker Productions La daronne prend des rides, p'tit reuf en dérive J'ai bu des litres, j'dors dans une porte du périph' J'ai donné d'la force à des mecs, veulent m'enterrer Comment m'en tirer ? J'sais plus sur qui tirer J'ai craché ma haine entre deux bes-j', hein, bébé, j'suis sauvage, j'en ai besoin J'recompte jaunes et verts, j'compte pas c'que j'dépense, on sait qui est qui juste en Île-de-France Ne sois pas jaloux, il a bossé, l'type, t'as pas b'soin d'ces culs, dis-moi, gros, c'est qui ? Petit DZ va pas baisser l'g'nou, j'suis l'fils de , pas d'n'importe qui Mon cur va périr, j'aurais pas cé-per, j'aurais fini mal Charcleur en série, y a plus rien à faire Ils s'vantent de la guerre même si ils la perdent, ces mecs sont finis J'ai sorti les crocs, les vrais sous écrou donc le terrain s'écroule nan, nan, nan C'est l'histoire de khos, pour une histoire d'sous, l'un d'eux s'écroule J'ai plus l'âge de zoner, ni d'être consolé J'dormais sans sommier, j'avais pas sommeil Vécu censuré tellement qu'c'est réel Vécu censuré tellement qu'c'est réel You might also like Un charcleur, mon arme est noire tout comme leur cur Tu m'as fait du mal ce soir, c'est ton heure Un charcleur, mon arme est noire tout comme leur cur Tu m'as fait du mal ce soir, c'est ton heure Dans la tess, y a la volaille Menotté, j'fais la ola Dans la tess, y a la volaille Menotté, j'fais la ola, ouais, ouais Mon arme est noire tout comme leur cur Tu m'as fait du mal ce soir, c'est ton heure J'y vois plus clair, j'ai les Xenon, j'attendais ma chance, putain qu'c'est long J'ai posé l'Moët au Mabillon, des meufs comme mon ex, y en a millions Chaussures Louboutin pour Cendrillon, ma fille, j'l'aimais déjà embryon Ça r'garde que la montre, pas l'temps que j'ai mis pour m'l'acheter, personne m'a donné d'filon L'problème, c'est pas l'alcool, c'est finir pauvre, j'peux être chiffon si j'suis dans un Chiron L'esprit d'un gérant qu'on devient géant, c'est des farceurs, derrière l'néon, y a l'néant J'te connais par cur toi, t'as pas d'âme crois pas qu'on a peur d'voir un cadavre Surveille ton ardeur, y a la banal', j'appelle le charcleur, si t'as banane Un charcleur, mon arme est noire tout comme leur cur Tu m'as fait du mal ce soir, c'est ton heure Un charcleur, mon arme est noire tout comme leur cur Tu m'as fait du mal ce soir, c'est ton heure Dans la tess, y a la volaille Menotté, j'fais la ola Dans la tess, y a la volaille Menotté, j'fais la ola, ouais, ouais Mon arme est noire tout comme leur cur Tu m'as fait du mal ce soir, c'est ton heure Un charcleur</t>
+          <t>Baille Broliker Productions La daronne prend des rides, p'tit reuf en dérive J'ai bu des litres, j'dors dans une porte du périph' J'ai donné d'la force à des mecs, veulent m'enterrer Comment m'en tirer ? J'sais plus sur qui tirer J'ai craché ma haine entre deux bes-j', hein, bébé, j'suis sauvage, j'en ai besoin J'recompte jaunes et verts, j'compte pas c'que j'dépense, on sait qui est qui juste en Île-de-France Ne sois pas jaloux, il a bossé, l'type, t'as pas b'soin d'ces culs, dis-moi, gros, c'est qui ? Petit DZ va pas baisser l'g'nou, j'suis l'fils de , pas d'n'importe qui Mon cur va périr, j'aurais pas cé-per, j'aurais fini mal Charcleur en série, y a plus rien à faire Ils s'vantent de la guerre même si ils la perdent, ces mecs sont finis J'ai sorti les crocs, les vrais sous écrou donc le terrain s'écroule nan, nan, nan C'est l'histoire de khos, pour une histoire d'sous, l'un d'eux s'écroule J'ai plus l'âge de zoner, ni d'être consolé J'dormais sans sommier, j'avais pas sommeil Vécu censuré tellement qu'c'est réel Vécu censuré tellement qu'c'est réel Un charcleur, mon arme est noire tout comme leur cur Tu m'as fait du mal ce soir, c'est ton heure Un charcleur, mon arme est noire tout comme leur cur Tu m'as fait du mal ce soir, c'est ton heure Dans la tess, y a la volaille Menotté, j'fais la ola Dans la tess, y a la volaille Menotté, j'fais la ola, ouais, ouais Mon arme est noire tout comme leur cur Tu m'as fait du mal ce soir, c'est ton heure J'y vois plus clair, j'ai les Xenon, j'attendais ma chance, putain qu'c'est long J'ai posé l'Moët au Mabillon, des meufs comme mon ex, y en a millions Chaussures Louboutin pour Cendrillon, ma fille, j'l'aimais déjà embryon Ça r'garde que la montre, pas l'temps que j'ai mis pour m'l'acheter, personne m'a donné d'filon L'problème, c'est pas l'alcool, c'est finir pauvre, j'peux être chiffon si j'suis dans un Chiron L'esprit d'un gérant qu'on devient géant, c'est des farceurs, derrière l'néon, y a l'néant J'te connais par cur toi, t'as pas d'âme crois pas qu'on a peur d'voir un cadavre Surveille ton ardeur, y a la banal', j'appelle le charcleur, si t'as banane Un charcleur, mon arme est noire tout comme leur cur Tu m'as fait du mal ce soir, c'est ton heure Un charcleur, mon arme est noire tout comme leur cur Tu m'as fait du mal ce soir, c'est ton heure Dans la tess, y a la volaille Menotté, j'fais la ola Dans la tess, y a la volaille Menotté, j'fais la ola, ouais, ouais Mon arme est noire tout comme leur cur Tu m'as fait du mal ce soir, c'est ton heure Un charcleur</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Démo, Démo Peu-fra 93-800 Woo, Woo Compare pas à rebeu fragile Rap de chicha, rap de tajine Peu-fra, tu parles j'agis J'pense à ta teu-cha j'suis nostalgique J'ai l'flow qu'à du goût, arômes magiques T'as l'flow qui dégoûte, zifou sahbi Chabine j'suis pas Chabin Mais pour tes sse-fés j'ai du chagrin J'suis, J'suis sur le ter-ter gamin Jean Diesel comme Balmain Prends tes ailes comme Dabin Je suis Adama, Valls ta mère la pute, j'condamne Sse-fés en amande T'es bonne en un mot, j'kiffe ton cul, ton teint Voitures allemandes Chaussures Italiennes mais Français est le pain J'suis, j'suis culotté comme la s'maine des gle-rè Une semaine sans fin Quand j'suis pété, j'profite de la vie Comme si j'crevais demain Hooo Le buzz, vous l'avez Mais je suis navré, un freestyle j'peux vous laver Hooo H La Peu-fra, Epinay-Sur-Seine, 93-800 vrais Dé, Déter' sa mère, celui qui bouge, tu sais qu'on le couche Penses-tu vraiment qu'le boss du 9-3 fais des selfies d'douche Dé, Déter' sa mère, celui qui bouge, tu sais qu'on le couche Pen, Penses-tu vraiment qu'le boss du 9-3 fais des selfies d'douche Peu-fra You might also like x2 Ramène gobelet mama, je vais tous les ués-t Gobelet codéiné, peu-fra c'est les States Je n'ai pas ton temps, je me gonfle les pecs Si t'es pas content, j'suis prêt pour le tête Bé, Bécane en I comme Zépé Hoo On n'est pas chaud qu'en été Woo Donne-moi mon avance, donne-moi mes vacances Les vrais bonhommes ont l'épée Brr J'suis sur OKLM Mixtape, J'ai fais la fierté de ma cité Et sur ta face j'ai envie de Toi tu suce pour de la zipette Ta, Ta, Ta voulus allez plus vite que la 'sique Han! Tu t'es brisé l'flow C'est comme confondre de l'acide à une gorgée d'eau Aujourd'hui, c'est vrai j'suis dans l'ombre Les DA viendront m'sucer avec leurs dents longues T'as beau crier derrière l'mic' Moi c'est ma punch' qui fait ding-dong Rebeus, renois, babtous, si t'es un vrai, y'a pas de leurs-cou Raciste merci beaucoup, ta fille viendras sucer à genou Vulgaire mais je sais être polygame J'prend l'air avec une jolie dame Confonds pas gramme de C et doliprane J'ai pas une tête dure, j'ai un solide crâne x2 Ramène gobelet mama, je vais tous les ués-t Gobelet codéiné, peu-fra c'est les States Je n'ai pas ton temps, je me gonfle les pecs Si t'es pas content, j'suis prêt pour le tête Peu-fra</t>
+          <t>Démo, Démo Peu-fra 93-800 Woo, Woo Compare pas à rebeu fragile Rap de chicha, rap de tajine Peu-fra, tu parles j'agis J'pense à ta teu-cha j'suis nostalgique J'ai l'flow qu'à du goût, arômes magiques T'as l'flow qui dégoûte, zifou sahbi Chabine j'suis pas Chabin Mais pour tes sse-fés j'ai du chagrin J'suis, J'suis sur le ter-ter gamin Jean Diesel comme Balmain Prends tes ailes comme Dabin Je suis Adama, Valls ta mère la pute, j'condamne Sse-fés en amande T'es bonne en un mot, j'kiffe ton cul, ton teint Voitures allemandes Chaussures Italiennes mais Français est le pain J'suis, j'suis culotté comme la s'maine des gle-rè Une semaine sans fin Quand j'suis pété, j'profite de la vie Comme si j'crevais demain Hooo Le buzz, vous l'avez Mais je suis navré, un freestyle j'peux vous laver Hooo H La Peu-fra, Epinay-Sur-Seine, 93-800 vrais Dé, Déter' sa mère, celui qui bouge, tu sais qu'on le couche Penses-tu vraiment qu'le boss du 9-3 fais des selfies d'douche Dé, Déter' sa mère, celui qui bouge, tu sais qu'on le couche Pen, Penses-tu vraiment qu'le boss du 9-3 fais des selfies d'douche Peu-fra x2 Ramène gobelet mama, je vais tous les ués-t Gobelet codéiné, peu-fra c'est les States Je n'ai pas ton temps, je me gonfle les pecs Si t'es pas content, j'suis prêt pour le tête Bé, Bécane en I comme Zépé Hoo On n'est pas chaud qu'en été Woo Donne-moi mon avance, donne-moi mes vacances Les vrais bonhommes ont l'épée Brr J'suis sur OKLM Mixtape, J'ai fais la fierté de ma cité Et sur ta face j'ai envie de Toi tu suce pour de la zipette Ta, Ta, Ta voulus allez plus vite que la 'sique Han! Tu t'es brisé l'flow C'est comme confondre de l'acide à une gorgée d'eau Aujourd'hui, c'est vrai j'suis dans l'ombre Les DA viendront m'sucer avec leurs dents longues T'as beau crier derrière l'mic' Moi c'est ma punch' qui fait ding-dong Rebeus, renois, babtous, si t'es un vrai, y'a pas de leurs-cou Raciste merci beaucoup, ta fille viendras sucer à genou Vulgaire mais je sais être polygame J'prend l'air avec une jolie dame Confonds pas gramme de C et doliprane J'ai pas une tête dure, j'ai un solide crâne x2 Ramène gobelet mama, je vais tous les ués-t Gobelet codéiné, peu-fra c'est les States Je n'ai pas ton temps, je me gonfle les pecs Si t'es pas content, j'suis prêt pour le tête Peu-fra</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Clic clic boom, le rap j'viens d'le braquer J'suis sûr qu'tu bouges ta tête car sur mon flow tu viens d'craquer Bla-bla-bla, arrêtez de jacter Mes rimes c'est d'la bonne coke, faut que j'aille paqueter À vos marques, prêts feu rappez J'suis trop sec sur les prods, c'est du rap porn J'te fais mouiller ton froc, j'ai des cornes, c'est du rap gore À mon arc j'ai plusieurs cordes, un flow presque parfait Je rappe avec celui qu'a fait bouger tes rents-pa Tu kiffes, t'as bougé, mais le respect tu l'rends pas On n'est pas XXX, Bruce Lee ou Vandamme Bouscule la XXX, on est des gros vandales Tu seras dans un arbre mec, dès qu'on fait un clic Je baisse pas mon slip, moi, j'représente la street Rebeu 100 pourtant cainri le-sty Je fume ap, mais bon merci pour le stick C'est pour mes barjos et mes psychopathes Fêlés, baisés, toujours à gratter comme un Tac-O-Tac Postés sur le ter-ter, avec ou sans les flics aux pattes Hey yo, c'est l'heure de faire du seille-o Si tu veux y avait quatre zéros, tu peux garder la naie-mo Hello Mademoiselle, tu veux la crème de la crème Le flow d'Épinay-sur-Seine, la peur, l'appel de la haine T'as de la veine, de la chance ou de la chatte T'as toujours la main sur ton ventre comme Napoléon Bonaparte T'es bonne à partouzer, mais comme t'es consentante alors j'ai pas besoin d'te blouser J'ai d'jà le mic au doigt, c'est le hip-hop que j'ai épousé 93.8, brrra!You might also like</t>
+          <t>Clic clic boom, le rap j'viens d'le braquer J'suis sûr qu'tu bouges ta tête car sur mon flow tu viens d'craquer Bla-bla-bla, arrêtez de jacter Mes rimes c'est d'la bonne coke, faut que j'aille paqueter À vos marques, prêts feu rappez J'suis trop sec sur les prods, c'est du rap porn J'te fais mouiller ton froc, j'ai des cornes, c'est du rap gore À mon arc j'ai plusieurs cordes, un flow presque parfait Je rappe avec celui qu'a fait bouger tes rents-pa Tu kiffes, t'as bougé, mais le respect tu l'rends pas On n'est pas XXX, Bruce Lee ou Vandamme Bouscule la XXX, on est des gros vandales Tu seras dans un arbre mec, dès qu'on fait un clic Je baisse pas mon slip, moi, j'représente la street Rebeu 100 pourtant cainri le-sty Je fume ap, mais bon merci pour le stick C'est pour mes barjos et mes psychopathes Fêlés, baisés, toujours à gratter comme un Tac-O-Tac Postés sur le ter-ter, avec ou sans les flics aux pattes Hey yo, c'est l'heure de faire du seille-o Si tu veux y avait quatre zéros, tu peux garder la naie-mo Hello Mademoiselle, tu veux la crème de la crème Le flow d'Épinay-sur-Seine, la peur, l'appel de la haine T'as de la veine, de la chance ou de la chatte T'as toujours la main sur ton ventre comme Napoléon Bonaparte T'es bonne à partouzer, mais comme t'es consentante alors j'ai pas besoin d'te blouser J'ai d'jà le mic au doigt, c'est le hip-hop que j'ai épousé 93.8, brrra!</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Han Cowboy, boy, laisse-les faire les cowboy, boy HLF Je vois le monde en p'tit, j'suis d'la team fast-life bah, bah, bah J'dirais jamais c'que j'ai pas vu Enlève ta main d'l'épaule, rien à prouver, j'reste calme chut, tranquille J'suis pas d'humeur à parler J'leur ferai l'amour aux famas famas Il a pas dit bonjour, il va s'faire masser bang, bang Billets verts dans l'caba, j'ai ma Jessica Alba, j'ai laissé faire le time, j'passe l'hiver en Thaï' Et les fils de pute m'envient, j'suis encore en vie, dans un VIP, ivre Sur une île, petit miskine, mets les warnings oh Faut des thunes, thunes, thunes, thunes thunes, thunes Sur l'bitume, 'tume, 'tume, 'tume, 'tume bang, bang Faut des thunes, thunes, thunes, thunes thunes, thunes Sur l'bitume, 'tume, 'tume, 'tume, 'tume bang, bang Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy You might also like J'sors du bloc, Rolex à la main, j'suis à l'aise ici, j'fais la bise à tous mes anciens qui me félicitent Moi, la rue, c'est ma seule école, mes profs, c'est les potes À l'époque, jogging Lacoste, en i sur un stunt Du liquide, personne pistonne, taga, bigo qui sonne Pas d'argent facile, midi-minuit, c'est l'charbon qui donne HLF, les petits d'la tess s'élèvent, j'les vois déjà chenef, j'ai quitté l'HLM Et les fils de pute m'envient, j'suis encore en vie, dans un VIP, ivre Sur une île, petit miskine, mets les warnings oh Faut des thunes, thunes, thunes, thunes thunes, thunes Sur l'bitume, 'tume, 'tume, 'tume, 'tume bang, bang Faut des thunes, thunes, thunes, thunes thunes, thunes Sur l'bitume, 'tume, 'tume, 'tume, 'tume bang, bang Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Cowboy, cowboy Cowboy, cowboy Cowboy, cowboy Cowboy, cowboy Cowboy, cowboy Cowboy, cowboy Cowboy, cowboy Cowboy, cowboy</t>
+          <t>Han Cowboy, boy, laisse-les faire les cowboy, boy HLF Je vois le monde en p'tit, j'suis d'la team fast-life bah, bah, bah J'dirais jamais c'que j'ai pas vu Enlève ta main d'l'épaule, rien à prouver, j'reste calme chut, tranquille J'suis pas d'humeur à parler J'leur ferai l'amour aux famas famas Il a pas dit bonjour, il va s'faire masser bang, bang Billets verts dans l'caba, j'ai ma Jessica Alba, j'ai laissé faire le time, j'passe l'hiver en Thaï' Et les fils de pute m'envient, j'suis encore en vie, dans un VIP, ivre Sur une île, petit miskine, mets les warnings oh Faut des thunes, thunes, thunes, thunes thunes, thunes Sur l'bitume, 'tume, 'tume, 'tume, 'tume bang, bang Faut des thunes, thunes, thunes, thunes thunes, thunes Sur l'bitume, 'tume, 'tume, 'tume, 'tume bang, bang Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy J'sors du bloc, Rolex à la main, j'suis à l'aise ici, j'fais la bise à tous mes anciens qui me félicitent Moi, la rue, c'est ma seule école, mes profs, c'est les potes À l'époque, jogging Lacoste, en i sur un stunt Du liquide, personne pistonne, taga, bigo qui sonne Pas d'argent facile, midi-minuit, c'est l'charbon qui donne HLF, les petits d'la tess s'élèvent, j'les vois déjà chenef, j'ai quitté l'HLM Et les fils de pute m'envient, j'suis encore en vie, dans un VIP, ivre Sur une île, petit miskine, mets les warnings oh Faut des thunes, thunes, thunes, thunes thunes, thunes Sur l'bitume, 'tume, 'tume, 'tume, 'tume bang, bang Faut des thunes, thunes, thunes, thunes thunes, thunes Sur l'bitume, 'tume, 'tume, 'tume, 'tume bang, bang Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Laisse-les faire les cowboy, cowboy Cowboy, cowboy Cowboy, cowboy Cowboy, cowboy Cowboy, cowboy Cowboy, cowboy Cowboy, cowboy Cowboy, cowboy Cowboy, cowboy</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Skenawin Hey, yo, yo, yo J'suis dans l'putain d'bloc, avec le gang, on a quadrillé le terrain Ici, même les civils, ils ont des locks, plaqués au sol, genoux sur tes reins Le guetteur sur sa chaise, pas à l'affût, c'bâtard m'a raté le akha Du coup, la chaise, j'lui ai cassée sur sa tête et l'reste de sa paye, elle est pour moi J'vous entends rapper, parler d'shit et d'came, bande de mythos, cabrón sito et ton Vito n'arrête pas les balles, yah Nous, on bosse tard le soir wouh, ça va passer la frontière sku Et tu sais ce qu'on rêve de voir ? quoi ? C'est ton casier judiciaire ha ha ha ha Tu manges tes morts, c'est moi qui livre, pas b'soin d'appeler Uber Eats L'OPJ m'emboucane, me baratine, j'suis désolé, pute, mais j'fais pas de feat' Et j'ai des amis qui travaillent dans la zip', passent te servir beaucoup plus vite dans une Berline Regarde-moi ces schlags sous codéine, premier clip et y avait cocaïne J'déballe, j'découpe, j'débite ah, j'déballe, j'découpe, j'débite sku, sku Envoie l'argent et vite, j'déballe, j'découpe, j'débite ah J'déballe, j'découpe, j'débite sku, j'déballe, j'découpe, j'débite sku Envoie l'argent et vite sheesh, j'déballe, j'découpe, j'débite Tous les clin's à la queuleuleu ah, tous les clin's à la queuleuleu, ouais Tous les clin's à la queuleuleu tous, tous, j'déballe, j'découpe, j'débite Tous les clin's à la queuleuleu, tous les clin's à la queuleuleu, ouais ah Tous les clin's à la queuleuleu tous, tous, j'déballe, j'découpe, j'débite You might also like Tous les clin's à la queuleuleu, y a du bon shit qui s'effrite en deux-deux Tous les clin's à la queuleuleu, on t'met un fétiche dans chaque pochton d'beuh Pas d'hechma, c'est moi qui l'décide, coffre la selha chez la p'tite cousine Bénéf' pour H.L.F, on t'a che3el pour d'la peugeuf, hein Frappe de KB9, je suis moins étonné, j'suis pas Barcelonais Casquette à l'envers qu'encule gros bonnets, passe la frontière et les prix sont volés, ah Deux rebeus sombres sur un Gilera, les p'tits reufs, pas gérables mais déjà gérants Fils de pute, lâche le terrain, vétéran, on compte même plus toutes les sommes qu'on a trées-ren J'ai pisté le keum, on a fait son teum, crossé lequel quand c'est la merde Je vis dans le crime, la rue, c'est le thème, je vise la nuque, j'me casse en ML Faut des lovés, se lever, je l'ai fait, j'vais pilonner dans le hall en hiver Faut des lovés, se lever, je l'ai fait, moi, je pilote, Soso qui tient le fer Ppe-fra J'déballe, j'découpe, j'débite ah, j'déballe, j'découpe, j'débite sku, sku Envoie l'argent et vite, j'déballe, j'découpe, j'débite ah J'déballe, j'découpe, j'débite sku, j'déballe, j'découpe, j'débite sku Envoie l'argent et vite sheesh, j'déballe, j'découpe, j'débite Tous les clin's à la queuleuleu ah, tous les clin's à la queuleuleu, ouais Tous les clin's à la queuleuleu tous, tous, j'déballe, j'découpe, j'débite Tous les clin's à la queuleuleu, tous les clin's à la queuleuleu, ouais ah Tous les clin's à la queuleuleu tous, tous, j'déballe, j'découpe, j'débite</t>
+          <t>Skenawin Hey, yo, yo, yo J'suis dans l'putain d'bloc, avec le gang, on a quadrillé le terrain Ici, même les civils, ils ont des locks, plaqués au sol, genoux sur tes reins Le guetteur sur sa chaise, pas à l'affût, c'bâtard m'a raté le akha Du coup, la chaise, j'lui ai cassée sur sa tête et l'reste de sa paye, elle est pour moi J'vous entends rapper, parler d'shit et d'came, bande de mythos, cabrón sito et ton Vito n'arrête pas les balles, yah Nous, on bosse tard le soir wouh, ça va passer la frontière sku Et tu sais ce qu'on rêve de voir ? quoi ? C'est ton casier judiciaire ha ha ha ha Tu manges tes morts, c'est moi qui livre, pas b'soin d'appeler Uber Eats L'OPJ m'emboucane, me baratine, j'suis désolé, pute, mais j'fais pas de feat' Et j'ai des amis qui travaillent dans la zip', passent te servir beaucoup plus vite dans une Berline Regarde-moi ces schlags sous codéine, premier clip et y avait cocaïne J'déballe, j'découpe, j'débite ah, j'déballe, j'découpe, j'débite sku, sku Envoie l'argent et vite, j'déballe, j'découpe, j'débite ah J'déballe, j'découpe, j'débite sku, j'déballe, j'découpe, j'débite sku Envoie l'argent et vite sheesh, j'déballe, j'découpe, j'débite Tous les clin's à la queuleuleu ah, tous les clin's à la queuleuleu, ouais Tous les clin's à la queuleuleu tous, tous, j'déballe, j'découpe, j'débite Tous les clin's à la queuleuleu, tous les clin's à la queuleuleu, ouais ah Tous les clin's à la queuleuleu tous, tous, j'déballe, j'découpe, j'débite Tous les clin's à la queuleuleu, y a du bon shit qui s'effrite en deux-deux Tous les clin's à la queuleuleu, on t'met un fétiche dans chaque pochton d'beuh Pas d'hechma, c'est moi qui l'décide, coffre la selha chez la p'tite cousine Bénéf' pour H.L.F, on t'a che3el pour d'la peugeuf, hein Frappe de KB9, je suis moins étonné, j'suis pas Barcelonais Casquette à l'envers qu'encule gros bonnets, passe la frontière et les prix sont volés, ah Deux rebeus sombres sur un Gilera, les p'tits reufs, pas gérables mais déjà gérants Fils de pute, lâche le terrain, vétéran, on compte même plus toutes les sommes qu'on a trées-ren J'ai pisté le keum, on a fait son teum, crossé lequel quand c'est la merde Je vis dans le crime, la rue, c'est le thème, je vise la nuque, j'me casse en ML Faut des lovés, se lever, je l'ai fait, j'vais pilonner dans le hall en hiver Faut des lovés, se lever, je l'ai fait, moi, je pilote, Soso qui tient le fer Ppe-fra J'déballe, j'découpe, j'débite ah, j'déballe, j'découpe, j'débite sku, sku Envoie l'argent et vite, j'déballe, j'découpe, j'débite ah J'déballe, j'découpe, j'débite sku, j'déballe, j'découpe, j'débite sku Envoie l'argent et vite sheesh, j'déballe, j'découpe, j'débite Tous les clin's à la queuleuleu ah, tous les clin's à la queuleuleu, ouais Tous les clin's à la queuleuleu tous, tous, j'déballe, j'découpe, j'débite Tous les clin's à la queuleuleu, tous les clin's à la queuleuleu, ouais ah Tous les clin's à la queuleuleu tous, tous, j'déballe, j'découpe, j'débite</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Deux secondes, oh, oh Elle a l'regard qui tue avec les yeux bleus, j'la gère en deux secondes Nos têtes sont cramées, contrôlées par les bleus, toutes les deux secondes Tu peux passer d'la hess à un million d'eu' en moins de deux secondes T'as voulu faire l'malin, faut qu't'assumes, mon vieux, j'reviens dans deux secondes La confiance, c'est du baratin, il restera un fidèle être humain malsain Laissez-moi lui dire Sur Terre plus rien n'm'atteins, je dors que d'une oreille sur le sein d'ma tain-p' Cr-cramé dans la ville type nord-africain, on va défendre le terrain comme un mexicain Té-ma la dégaine qu'on a, j'sais qu't'apprécies bien, fais pas l'mec de tess, ton père est plus que plein J'ai fais des lovés, des lovés, des lovés, zoné, cagoulé, je volais chez vos mères J'ai fais des lovés, des lovés, des lovés, cherchez mon oseille, personne me l'a donné Elle a l'regard qui tue avec les yeux bleus, j'la gère en deux secondes Nos têtes sont cramées, contrôlées par les bleus, toutes les deux secondes Tu peux passer d'la hess à un million d'eu' en moins de deux secondes T'as voulu faire l'malin, faut qu't'assumes, mon vieux, j'reviens dans deux secondes You might also like Plus ça vend, plus ça va, t'as reconnu le rebeu tout en Balmain Le platine ouais, ouais, on l'a fait ouais, ils voulaient me voir échouer depuis gamin ouais Y a des gens, tu les next direct par dégoût, l'amitié n'a pas d'prix, poto, garde tes sous Ils ont le seum depuis que mon compte est full, t'as grave fait l'fou, allez, cassez-vous J'ai fais des lovés, des lovés, des lovés, zoné, cagoulé, je volais chez vos mères J'ai fais des lovés, des lovés, des lovés, cherchez mon oseille, personne me l'a donné Elle a l'regard qui tue avec les yeux bleus, j'la gère en deux secondes Nos têtes sont cramées, contrôlées par les bleus, toutes les deux secondes Tu peux passer d'la hess à un million d'eu' en moins de deux secondes T'as voulu faire l'malin, faut qu't'assumes, mon vieux, j'reviens dans deux secondes Elle a l'regard qui tue avec les yeux bleus, j'la gère en deux secondes Nos têtes sont cramées, contrôlées par les bleus, toutes les deux secondes Tu peux passer d'la hess à un million d'eu' en moins de deux secondes T'as voulu faire l'malin, faut qu't'assumes, mon vieux, j'reviens dans deux secondes Deux secondes, deux secondes, deux secondes</t>
+          <t>Deux secondes, oh, oh Elle a l'regard qui tue avec les yeux bleus, j'la gère en deux secondes Nos têtes sont cramées, contrôlées par les bleus, toutes les deux secondes Tu peux passer d'la hess à un million d'eu' en moins de deux secondes T'as voulu faire l'malin, faut qu't'assumes, mon vieux, j'reviens dans deux secondes La confiance, c'est du baratin, il restera un fidèle être humain malsain Laissez-moi lui dire Sur Terre plus rien n'm'atteins, je dors que d'une oreille sur le sein d'ma tain-p' Cr-cramé dans la ville type nord-africain, on va défendre le terrain comme un mexicain Té-ma la dégaine qu'on a, j'sais qu't'apprécies bien, fais pas l'mec de tess, ton père est plus que plein J'ai fais des lovés, des lovés, des lovés, zoné, cagoulé, je volais chez vos mères J'ai fais des lovés, des lovés, des lovés, cherchez mon oseille, personne me l'a donné Elle a l'regard qui tue avec les yeux bleus, j'la gère en deux secondes Nos têtes sont cramées, contrôlées par les bleus, toutes les deux secondes Tu peux passer d'la hess à un million d'eu' en moins de deux secondes T'as voulu faire l'malin, faut qu't'assumes, mon vieux, j'reviens dans deux secondes Plus ça vend, plus ça va, t'as reconnu le rebeu tout en Balmain Le platine ouais, ouais, on l'a fait ouais, ils voulaient me voir échouer depuis gamin ouais Y a des gens, tu les next direct par dégoût, l'amitié n'a pas d'prix, poto, garde tes sous Ils ont le seum depuis que mon compte est full, t'as grave fait l'fou, allez, cassez-vous J'ai fais des lovés, des lovés, des lovés, zoné, cagoulé, je volais chez vos mères J'ai fais des lovés, des lovés, des lovés, cherchez mon oseille, personne me l'a donné Elle a l'regard qui tue avec les yeux bleus, j'la gère en deux secondes Nos têtes sont cramées, contrôlées par les bleus, toutes les deux secondes Tu peux passer d'la hess à un million d'eu' en moins de deux secondes T'as voulu faire l'malin, faut qu't'assumes, mon vieux, j'reviens dans deux secondes Elle a l'regard qui tue avec les yeux bleus, j'la gère en deux secondes Nos têtes sont cramées, contrôlées par les bleus, toutes les deux secondes Tu peux passer d'la hess à un million d'eu' en moins de deux secondes T'as voulu faire l'malin, faut qu't'assumes, mon vieux, j'reviens dans deux secondes Deux secondes, deux secondes, deux secondes</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Han-han-han-han Key-Key-Keymi Han-han-han-han Daimo Beats Yeah Elle a l'teint mat, chevelure brune Mmh-mmh Elle a lteint mat, chevelure brune Chevelure brune, en plein phare dans la brume Dans la brume Elle a l'air tendue Elle a l'air tendue, cest pas les bleus, c'est l'ambu' Han-han J'ai fait la loc' du week-end, rassuré, j'mets la panenka C'est un talent ddébiter Comme jamais, sans oseille, elle te cala même pas Jaime aussi les formes de Pologne Pologne, flèche de Cupidon sur mon arc Bang, bang, bang Veut savoir combien j'fais semaine Ah ouais, cest d'la ppe-f', c'est pas dla semi Nan, nan, nan Elle m'DM mais j'l'ai pas cala, j'réponds pas, j'suis pas câlin, une sorcière comme Karaba Nan, nan, nan Elle m'DM mais j'l'ai pas cala, ouais, des fois, j'suis pas câlin, une sorcière comme Karaba Nan, nan, nan Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, elle faisait la diva Elle faisait la diva Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, elle faisait la diva Elle faisait la diva Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, p'tit côté latina P'tit côté latina Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, p'tit côté latina P'tit côté latina You might also like Elle a l'teint mat, chevelure brune Chevelure brune, en plein phare dans la brume En plein phare dans la brume Va falloir la cher-lâ Han-han-han, si j'veux faire Coachella Il pleut des balles, j'mets l'umbrella, -brella, -brella Croise-moi à L.A, Saint-Denis, Bréda Qu'est-ce qu'on en a mêlé des grandes sses-ma Paye-nous aujourd'hui parce que demain, c'est loin Ta copine voit si la police passe, j'ai réparé son cur avec un peu d'espèce À mes côtés quand ça part en chasse, elle a refait ses rêves, elle a refait ses fesses Refait ses fesses Elle m'DM mais j'l'ai pas cala, j'réponds pas, j'suis pas câlin, une sorcière comme Karaba Nan, nan, nan Elle m'DM mais j'l'ai pas cala, ouais, des fois, j'suis pas câlin, une sorcière comme Karaba Nan, nan, nan Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, elle faisait la diva Elle faisait la diva Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, elle faisait la diva Elle faisait la diva Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, p'tit côté latina P'tit côté latina Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, p'tit côté latina P'tit côté latina Elle m'DM mais j'l'ai pas cala, j'réponds pas, j'suis pas câlin, une sorcière comme Karaba Nan, nan, nan Elle m'DM mais j'l'ai pas cala, ouais, des fois, j'suis pas câlin, une sorcière comme Karaba Nan, nan, nan Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, elle faisait la diva La diva, la diva Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, elle faisait la diva La diva, la diva Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, p'tit côté latina Latina, latina Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, p'tit côté latina P'tit côté latina</t>
+          <t>Han-han-han-han Key-Key-Keymi Han-han-han-han Daimo Beats Yeah Elle a l'teint mat, chevelure brune Mmh-mmh Elle a lteint mat, chevelure brune Chevelure brune, en plein phare dans la brume Dans la brume Elle a l'air tendue Elle a l'air tendue, cest pas les bleus, c'est l'ambu' Han-han J'ai fait la loc' du week-end, rassuré, j'mets la panenka C'est un talent ddébiter Comme jamais, sans oseille, elle te cala même pas Jaime aussi les formes de Pologne Pologne, flèche de Cupidon sur mon arc Bang, bang, bang Veut savoir combien j'fais semaine Ah ouais, cest d'la ppe-f', c'est pas dla semi Nan, nan, nan Elle m'DM mais j'l'ai pas cala, j'réponds pas, j'suis pas câlin, une sorcière comme Karaba Nan, nan, nan Elle m'DM mais j'l'ai pas cala, ouais, des fois, j'suis pas câlin, une sorcière comme Karaba Nan, nan, nan Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, elle faisait la diva Elle faisait la diva Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, elle faisait la diva Elle faisait la diva Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, p'tit côté latina P'tit côté latina Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, p'tit côté latina P'tit côté latina Elle a l'teint mat, chevelure brune Chevelure brune, en plein phare dans la brume En plein phare dans la brume Va falloir la cher-lâ Han-han-han, si j'veux faire Coachella Il pleut des balles, j'mets l'umbrella, -brella, -brella Croise-moi à L.A, Saint-Denis, Bréda Qu'est-ce qu'on en a mêlé des grandes sses-ma Paye-nous aujourd'hui parce que demain, c'est loin Ta copine voit si la police passe, j'ai réparé son cur avec un peu d'espèce À mes côtés quand ça part en chasse, elle a refait ses rêves, elle a refait ses fesses Refait ses fesses Elle m'DM mais j'l'ai pas cala, j'réponds pas, j'suis pas câlin, une sorcière comme Karaba Nan, nan, nan Elle m'DM mais j'l'ai pas cala, ouais, des fois, j'suis pas câlin, une sorcière comme Karaba Nan, nan, nan Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, elle faisait la diva Elle faisait la diva Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, elle faisait la diva Elle faisait la diva Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, p'tit côté latina P'tit côté latina Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, p'tit côté latina P'tit côté latina Elle m'DM mais j'l'ai pas cala, j'réponds pas, j'suis pas câlin, une sorcière comme Karaba Nan, nan, nan Elle m'DM mais j'l'ai pas cala, ouais, des fois, j'suis pas câlin, une sorcière comme Karaba Nan, nan, nan Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, elle faisait la diva La diva, la diva Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, elle faisait la diva La diva, la diva Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, p'tit côté latina Latina, latina Elle voulait qu'j'la rier-ma, elle voulait son sac de marque, p'tit côté latina P'tit côté latina</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>La vie se brise quand t'as papa qui part, ses affaires dans l'cabas Toi, tu pleures en cachette sous un drap, faire moins mal à mama J'suis v'nu au monde, pensant rassembler mais tout se casse en deux Rester ensemble ? Autant faire semblant, juste pour que j'me sente mieux J'paye la sentence qui n'est pas méritée méritée, c'est la juge qui l'aura décidé décidé Services sociaux, éducatrice me suit, sans avenir, sans scolarité eh Reproche-moi pas d'être au bord des larmes au bord des larmes Je sais qu'papa m'protégera moins qu'une arme moins qu'une arme L'amour d'une mère, la même tête que mon père Cur d'enfant n'est pas fait que de pierre Oh papa oh papa, oh mama oh mama, je vous aime je vous aime, je vous aime Je me suis fait une raison, y aura plus d'amour à la maison Oh papa oh papa, oh mama oh mama, je vous aime je vous aime, je vous aime Je me suis fait une raison, y aura plus d'amour à la maison J'suis d'venu fort, j'vais pas vous laisser seuls vous laisser seuls J'suis le fruit d'une mauvaise époque d'une mauvaise époque C'est des erreurs qu'on fait quand on est jeune quand on est jeune C'est pas vous, c'est la faute des autres la faute des autres J'ai pris cette force que vous m'avez donné que vous m'avez donné On m'a fait mal, personne m'a raisonné m'a raisonné Je bois, je fume pour trouver l'sommeil trouver l'sommeil Je cherche toujours l'enfance qu'on m'a volé J'avais l'seum donc j'ai pris des risques, j'volais chez les riches J'suis souvent celui qu'on accuse, derrière la vitre, j'défile Donc j'me dis Là, j'suis près du trou, soit je be-tom pour J'suis dans l'four, personne m'donne un rond, sans repère, sans daron Heureusement que j'ai trouvé des potes qu'avaient la même vie qu'moi À qui la faute quand l'enfant fait ses lois ? Quand les parents s'éloignent ? La nuit, j'rentre pas, je me vide la tête, soutenu par Houcine, j'finis en pleurs Je descends la 'teille, faut qu'je ralentisse J'ai peur d'en parler, une photo qui me rappelle où je vivais où je vivais J'avance en me disant que c'est du passé, j'ai tout gardé en moi, oui, j'en ai bavé You might also like Oh papa oh papa, oh mama oh mama, je vous aime je vous aime, je vous aime Je me suis fait une raison, y aura plus d'amour à la maison Oh papa oh papa, oh mama oh mama, je vous aime je vous aime, je vous aime Je me suis fait une raison, y aura plus d'amour à la maison</t>
+          <t>La vie se brise quand t'as papa qui part, ses affaires dans l'cabas Toi, tu pleures en cachette sous un drap, faire moins mal à mama J'suis v'nu au monde, pensant rassembler mais tout se casse en deux Rester ensemble ? Autant faire semblant, juste pour que j'me sente mieux J'paye la sentence qui n'est pas méritée méritée, c'est la juge qui l'aura décidé décidé Services sociaux, éducatrice me suit, sans avenir, sans scolarité eh Reproche-moi pas d'être au bord des larmes au bord des larmes Je sais qu'papa m'protégera moins qu'une arme moins qu'une arme L'amour d'une mère, la même tête que mon père Cur d'enfant n'est pas fait que de pierre Oh papa oh papa, oh mama oh mama, je vous aime je vous aime, je vous aime Je me suis fait une raison, y aura plus d'amour à la maison Oh papa oh papa, oh mama oh mama, je vous aime je vous aime, je vous aime Je me suis fait une raison, y aura plus d'amour à la maison J'suis d'venu fort, j'vais pas vous laisser seuls vous laisser seuls J'suis le fruit d'une mauvaise époque d'une mauvaise époque C'est des erreurs qu'on fait quand on est jeune quand on est jeune C'est pas vous, c'est la faute des autres la faute des autres J'ai pris cette force que vous m'avez donné que vous m'avez donné On m'a fait mal, personne m'a raisonné m'a raisonné Je bois, je fume pour trouver l'sommeil trouver l'sommeil Je cherche toujours l'enfance qu'on m'a volé J'avais l'seum donc j'ai pris des risques, j'volais chez les riches J'suis souvent celui qu'on accuse, derrière la vitre, j'défile Donc j'me dis Là, j'suis près du trou, soit je be-tom pour J'suis dans l'four, personne m'donne un rond, sans repère, sans daron Heureusement que j'ai trouvé des potes qu'avaient la même vie qu'moi À qui la faute quand l'enfant fait ses lois ? Quand les parents s'éloignent ? La nuit, j'rentre pas, je me vide la tête, soutenu par Houcine, j'finis en pleurs Je descends la 'teille, faut qu'je ralentisse J'ai peur d'en parler, une photo qui me rappelle où je vivais où je vivais J'avance en me disant que c'est du passé, j'ai tout gardé en moi, oui, j'en ai bavé Oh papa oh papa, oh mama oh mama, je vous aime je vous aime, je vous aime Je me suis fait une raison, y aura plus d'amour à la maison Oh papa oh papa, oh mama oh mama, je vous aime je vous aime, je vous aime Je me suis fait une raison, y aura plus d'amour à la maison</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Tu veux ma défaite, tu veux ma faillite Un moment, j'ai défait, putain, t'as failli Fais gaffe à tes amis, les trois quarts te salissent Ça me suçait la beuteu pour rentrer sur ma liste T'as perdu le jeu, poto, c'est fani Un mal-être dans ma tête qui m'envahit Un monde sans paillettes, très loin de Paris Baby mama, que deux places dans la 'Rari Brutal sans paraître, s'allume au Tokarev OTF, OTF, comme Nabil et Tarik Après l'avoir baisée, j'ai demandé son name Elle aime trop la fame, des fforts, la flemme J'allume mon th, allume la Play En attendant le jour, le jour de la paye La vitesse aux palettes, j'peux pas t'mettre des oigts-d J'ai pris soin d'un traître comme si c'était oim J'traîne sans bodyguard dans mon Audi noir Combien m'ont coupé l'brava? Grandi près du drama J'traîne sans bodyguard dans mon Audi noir Combien m'ont coupé l'brava? Grandi près du drama You might also like J'ai trop donné que pour frères, leur ai fait Va pas leur dire maintenant que tu t'es fait seul Fit comme un prisonnier, t'as reconnu l'équipe J'les allume pas, cramé sous mon bandana J'ai pas changé et j'ai pris des loves J'vais leur mettre profond, donc j'ai pris d'l'élan C'est dans le noir que l'on brille et ls faux, on les trie Et j'te niquerai ta mère dès qu'j'en aurai marre J'te parle avec un cur balafré Ça reste nous, les vainqueurs, on l'a fait Même après la rre-gue, y a pas la paix Même après la rre-gue, y a pas la paix J'te parle avec un cur balafré Ça reste nous, les vainqueurs, on l'a fait J'traîne sans bodyguard dans mon Audi noir Combien m'ont coupé l'brava? Grandi près du drama J'traîne sans bodyguard dans mon Audi noir Combien m'ont coupé l'brava? Grandi près du drama J'traîne sans bodyguard dans mon Audi noir Combien m'ont coupé l'brava? Grandi près du drama J'traîne sans bodyguard dans mon Audi noir Combien m'ont coupé l'brava? Grandi près du drama</t>
+          <t>Tu veux ma défaite, tu veux ma faillite Un moment, j'ai défait, putain, t'as failli Fais gaffe à tes amis, les trois quarts te salissent Ça me suçait la beuteu pour rentrer sur ma liste T'as perdu le jeu, poto, c'est fani Un mal-être dans ma tête qui m'envahit Un monde sans paillettes, très loin de Paris Baby mama, que deux places dans la 'Rari Brutal sans paraître, s'allume au Tokarev OTF, OTF, comme Nabil et Tarik Après l'avoir baisée, j'ai demandé son name Elle aime trop la fame, des fforts, la flemme J'allume mon th, allume la Play En attendant le jour, le jour de la paye La vitesse aux palettes, j'peux pas t'mettre des oigts-d J'ai pris soin d'un traître comme si c'était oim J'traîne sans bodyguard dans mon Audi noir Combien m'ont coupé l'brava? Grandi près du drama J'traîne sans bodyguard dans mon Audi noir Combien m'ont coupé l'brava? Grandi près du drama J'ai trop donné que pour frères, leur ai fait Va pas leur dire maintenant que tu t'es fait seul Fit comme un prisonnier, t'as reconnu l'équipe J'les allume pas, cramé sous mon bandana J'ai pas changé et j'ai pris des loves J'vais leur mettre profond, donc j'ai pris d'l'élan C'est dans le noir que l'on brille et ls faux, on les trie Et j'te niquerai ta mère dès qu'j'en aurai marre J'te parle avec un cur balafré Ça reste nous, les vainqueurs, on l'a fait Même après la rre-gue, y a pas la paix Même après la rre-gue, y a pas la paix J'te parle avec un cur balafré Ça reste nous, les vainqueurs, on l'a fait J'traîne sans bodyguard dans mon Audi noir Combien m'ont coupé l'brava? Grandi près du drama J'traîne sans bodyguard dans mon Audi noir Combien m'ont coupé l'brava? Grandi près du drama J'traîne sans bodyguard dans mon Audi noir Combien m'ont coupé l'brava? Grandi près du drama J'traîne sans bodyguard dans mon Audi noir Combien m'ont coupé l'brava? Grandi près du drama</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Baille Broliker Productions J'ai dit des choses qu'ont blessé des fois dur d'encaisser, plus d'nouvelles de l'ennemi, ça m'inquiète 'quiète Tu crois j'suis stressé pour ton vice d'épicier, tu sais que j'peux te dévisser ta tête tête Sous rhum antillais dans un an ty es, pour l'instant, tu fais qu'bibi à perte perte J'ai donné nia, tu peux pas nier, y a qu'ma liée au label C'est la routine dans le bloc, premier texte dans un Punto, j'l'écris L'art de la rue, c'est l'vécu qu'on maitrise S'attendent que ma chute, que ma kichta maigrisse J't'ai d'jà niqué ta mère, maintenant, allez, peace Chez nous, pas d'couleur, pas d'ethnie la devise J'ai mon frère qui pleure son père à l'église J'laisserai des loves, pas d'followers à mes fils Tu vois c'que ça fait d'essayer d'aller vite Choisis ton camp, rien à foutre, ça divise, plus l'temps de faire semblant, mode bâtard activé Depuis l'départ, c'était sans artifice, j'ai pas sorti l'gamos pour pas t'faire saliver Même équipe, six du mat' qui pue la tise, pourtant, l'heure du fajr, daron en qamis Baveux , deux dans l'abdomen, ressort sans problème, les reufs s'organisent Perdu des gens, j'étais grave attaché Juste la santé, on va v'-esqui la crise Juste une raison, on viendra t'attaquer Déjà ganté, t'es l'prochain sur la liste J'parle à cur ouvert, plus rien à te cher-ca Contrat sur moi, j'parle pas d'contrat d'artiste Viendront m'venger si m'enlèves la vida Toi, tu veux manger, cpour ça qu'tu m'fais la bise You might also like Choisis ton camp, rien à foutre, ça divise, plus l'temps de faire semblant, mode bâtard activé Depuis l'départ, c'était sans artifice, j'ai pas sorti l'gamos pour pas t'faire saliver Même équipe, six du mat' qui pue la tise, pourtant, l'heure du fajr, daron en qamis Baveux , deux dans l'abdomen, ressort sans problème, les reufs s'organisent Famille Diallo Kébé est témoin d'la rue d'Marseille, j'étais jamais très loin Pensait devenir riche dans bédo, l'bédoin, j'ai rien volé, moi j'ai tout fait d'mes mains Garde cité, on est venus pour te briser les reins, pas d'mendicité, midi sur l'terrain Fin d'mois, serrés à plusieurs dans l'T1, allez leur dire qu'il est fêlé, l'félin J'ai rendu service avec six bras, l'ingrat veut pas qu'un gramme te coupe le bras, se sauve avec Rater son RDV à cause du filtré, galette de crack, gue-shla aura la fève J'ai rien volé, j'ai juste kické, eh J'sors la plume sans rature, j'parle de rue d'un trait J'sors la plume sans rature, j'parle de rue d'un trait</t>
+          <t>Baille Broliker Productions J'ai dit des choses qu'ont blessé des fois dur d'encaisser, plus d'nouvelles de l'ennemi, ça m'inquiète 'quiète Tu crois j'suis stressé pour ton vice d'épicier, tu sais que j'peux te dévisser ta tête tête Sous rhum antillais dans un an ty es, pour l'instant, tu fais qu'bibi à perte perte J'ai donné nia, tu peux pas nier, y a qu'ma liée au label C'est la routine dans le bloc, premier texte dans un Punto, j'l'écris L'art de la rue, c'est l'vécu qu'on maitrise S'attendent que ma chute, que ma kichta maigrisse J't'ai d'jà niqué ta mère, maintenant, allez, peace Chez nous, pas d'couleur, pas d'ethnie la devise J'ai mon frère qui pleure son père à l'église J'laisserai des loves, pas d'followers à mes fils Tu vois c'que ça fait d'essayer d'aller vite Choisis ton camp, rien à foutre, ça divise, plus l'temps de faire semblant, mode bâtard activé Depuis l'départ, c'était sans artifice, j'ai pas sorti l'gamos pour pas t'faire saliver Même équipe, six du mat' qui pue la tise, pourtant, l'heure du fajr, daron en qamis Baveux , deux dans l'abdomen, ressort sans problème, les reufs s'organisent Perdu des gens, j'étais grave attaché Juste la santé, on va v'-esqui la crise Juste une raison, on viendra t'attaquer Déjà ganté, t'es l'prochain sur la liste J'parle à cur ouvert, plus rien à te cher-ca Contrat sur moi, j'parle pas d'contrat d'artiste Viendront m'venger si m'enlèves la vida Toi, tu veux manger, cpour ça qu'tu m'fais la bise Choisis ton camp, rien à foutre, ça divise, plus l'temps de faire semblant, mode bâtard activé Depuis l'départ, c'était sans artifice, j'ai pas sorti l'gamos pour pas t'faire saliver Même équipe, six du mat' qui pue la tise, pourtant, l'heure du fajr, daron en qamis Baveux , deux dans l'abdomen, ressort sans problème, les reufs s'organisent Famille Diallo Kébé est témoin d'la rue d'Marseille, j'étais jamais très loin Pensait devenir riche dans bédo, l'bédoin, j'ai rien volé, moi j'ai tout fait d'mes mains Garde cité, on est venus pour te briser les reins, pas d'mendicité, midi sur l'terrain Fin d'mois, serrés à plusieurs dans l'T1, allez leur dire qu'il est fêlé, l'félin J'ai rendu service avec six bras, l'ingrat veut pas qu'un gramme te coupe le bras, se sauve avec Rater son RDV à cause du filtré, galette de crack, gue-shla aura la fève J'ai rien volé, j'ai juste kické, eh J'sors la plume sans rature, j'parle de rue d'un trait J'sors la plume sans rature, j'parle de rue d'un trait</t>
         </is>
       </c>
     </row>
@@ -2008,11 +2008,7 @@
           <t>En Mieux</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2027,7 +2023,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>J'ai coupé les ponts, en c'moment faut que j'les laisse en plan J'ai trop donné, j'crois quavec moi ils font semblant Opposés s'attirent, j'pensais pas qu'on pouvait s'entendre Sans prise de tête, j'vais t'connaître, dis-moi qu'est-ce t'en penses ? J'écoute pas les gens, t'façon quand y a des problèmes, ils sont pas là Tu sais qu'j'apprécie trop comment t'es, on s'est juste regardés, moi ça va Eyes, eyes, eyes contact, eyes, eyes contact, eyes, eyes contact J'crois bien qu'y a eu un Eyes, eyes, eyes contact, eyes, eyes contact, eyes, eyes contact J'crois bien qu'y a eu J't'ai té-ma, tu m'as té-ma t'façon, j't'ai déjà rodave En rée-soi, j'peux pas pénave, donne-moi juste l'arobase P'tite passe dé j'fais, aucun regret, des fois j'suis en retrait Les trois quarts sont des tes-traî J'écoute pas les gens, t'façon quand y a des problèmes, ils sont pas là Tu sais qu'j'apprécie trop comment t'es, on s'est juste regardés, moi ça va You might also like Eyes, eyes, eyes contact, eyes, eyes contact, eyes, eyes contact J'crois bien qu'y a eu un Eyes, eyes, eyes contact, eyes, eyes contact, eyes, eyes contact J'crois bien qu'y a eu J'ai pris trop sur moi donc c'que tu peux dire tu sais qu'ça m'atteint pas Le cur brisé, j'peux que tiser jusqu'au tin-ma J'écoute pas les gens, t'façon quand y a des problèmes, ils sont pas là Tu sais qu'j'apprécie trop comment t'es, on s'est juste regardés, moi ça va Eyes, eyes, eyes contact, eyes, eyes contact, eyes, eyes contact J'crois bien qu'y a eu un Eyes, eyes, eyes contact, eyes, eyes contact, eyes, eyes contact J'crois bien qu'y a eu</t>
+          <t>J'ai coupé les ponts, en c'moment faut que j'les laisse en plan J'ai trop donné, j'crois quavec moi ils font semblant Opposés s'attirent, j'pensais pas qu'on pouvait s'entendre Sans prise de tête, j'vais t'connaître, dis-moi qu'est-ce t'en penses ? J'écoute pas les gens, t'façon quand y a des problèmes, ils sont pas là Tu sais qu'j'apprécie trop comment t'es, on s'est juste regardés, moi ça va Eyes, eyes, eyes contact, eyes, eyes contact, eyes, eyes contact J'crois bien qu'y a eu un Eyes, eyes, eyes contact, eyes, eyes contact, eyes, eyes contact J'crois bien qu'y a eu J't'ai té-ma, tu m'as té-ma t'façon, j't'ai déjà rodave En rée-soi, j'peux pas pénave, donne-moi juste l'arobase P'tite passe dé j'fais, aucun regret, des fois j'suis en retrait Les trois quarts sont des tes-traî J'écoute pas les gens, t'façon quand y a des problèmes, ils sont pas là Tu sais qu'j'apprécie trop comment t'es, on s'est juste regardés, moi ça va Eyes, eyes, eyes contact, eyes, eyes contact, eyes, eyes contact J'crois bien qu'y a eu un Eyes, eyes, eyes contact, eyes, eyes contact, eyes, eyes contact J'crois bien qu'y a eu J'ai pris trop sur moi donc c'que tu peux dire tu sais qu'ça m'atteint pas Le cur brisé, j'peux que tiser jusqu'au tin-ma J'écoute pas les gens, t'façon quand y a des problèmes, ils sont pas là Tu sais qu'j'apprécie trop comment t'es, on s'est juste regardés, moi ça va Eyes, eyes, eyes contact, eyes, eyes contact, eyes, eyes contact J'crois bien qu'y a eu un Eyes, eyes, eyes contact, eyes, eyes contact, eyes, eyes contact J'crois bien qu'y a eu</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2040,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>C'est Hornet, le fennec donc remballe tes gars ridés J'suis un rappeur de qualité et pas un beurre de karité La varièt' Johnny Hallyday par la blanche est animée C'est la guerre, ça y est, donc range ton calumet Combien d'colos se sont fait allumer donc faut les réanimer O.R.G né pour dealer, trois-cents E pour cantiner Hornet pour combiner, le reste c'est abîmé Pas sur scène mais sur Épinay t'es passé mais on t'a d'jà piné Bah ces cons disaient qu j'allais m'mettre à tiser Bah lur meuf si c'est un cheval, c'est passé dans l'bêtisier Je vais pas m'excuser, ton équipe finit muselée C'est pas une rue mais un musée, pas là pour m'amuser J'ai le flow un peu Uzi, t'as le flow un peu usé Tu veux du son c'est par ici, t'inquiète le vrai il sait ha! Avant détesté, puis maintenant sucé Épinay coupé-décalé même ma ville est en train d'caner Hornet a.k.a. Féfé-féfé Fenek Chico a.k.a. Féfé-féfé Fenek Hornet a.k.a. Féféfé-féfé Fenek Le rap est là depuis qu'ma daronne m'a fait naître Hornet a.k.a. Féfé-féfé Fenek Chico a.k.a. Féféfé-féfé Fenek Hornet a.k.a. Féfé-féfé Fenek Le p'tit Rebeu est chaud donc fais-fais-fais belek You might also like Pas d'école, pas d'job mais au mic j'te mets à l'amende Voiture française, j'te baise en attendant l'allemande Je préfère manger une mise à mort qu'une mise à l'amende Je suis pas galant négro, j'fais pas d'bise à la demande J'suis un bon d'après ma bande, j'ai pas un rond d'après ma banque Une grosse balle dans ta tempe, c'est plus Hornet, c'est un tank Tant que j'suis ton oncle qui baise ta tante En featuring donc faut qu't'attendes Viens m'clasher si ça te tente Appelle-moi bang face à ton gang Une kalash et un gant et ça fera un gang-bang En deux mesures tu bandes, avec les fils du mic j'te pends Sur toutes les broches j'te prends, après t'avoir violé j'te rends Aïe, tu connais la vibe C'est H.O.R.Net Hornet ma gueule Viens pas tester le fennec Tu vas passer par la fenêtre, Michael Hornet a.k.a. Féfé-féfé Fenek Chico a.k.a. Féfé-féfé Fenek Hornet a.k.a. Féféfé-féfé Fenek Le rap est là depuis qu'ma daronne m'a fait naître Hornet a.k.a. Féfé-féfé Fenek Chico a.k.a. Féféfé-féfé Fenek Hornet a.k.a. Féfé-féfé Fenek Le p'tit Rebeu est chaud donc fais-fais-fais belek Ils critiquaient la techno, maintenant négro ils en font tous Pour qu'la banane du siècle rentre dans ton cul faut qu'tu tousses Au micro j'te fais peur, pourtant ma voix est douce T'as le corps d'un skater, négro il faut qu'tu pousses Y a la blonde, la brune, mais comme t'es claqué t'as la rousse Comme t'écoutes du Hornet, biatche t'as la rose Filmé dans ma rue putain, faut qu'tu tapes la pose 9-3.8, voilà le flow pour la dose Mon rap devient une drogue, gros, pour la dope À force de chercher la merde, belek aux taupes J'ai jamais pensé à rapper pour les go, heu Issu du trafic illégal, yeah Aïe, tu connais la vibe C'est H.O.R.Net Hornet ma gueule Viens pas tester le fennec Tu vas passer par la fenêtre, Michael Hornet a.k.a. Féfé-féfé Fenek Chico a.k.a. Féfé-féfé Fenek Hornet a.k.a. Féféfé-féfé Fenek Le rap est là depuis qu'ma daronne m'a fait naître Hornet a.k.a. Féfé-féfé Fenek Chico a.k.a. Féféfé-féfé Fenek Hornet a.k.a. Féfé-féfé Fenek Le p'tit Rebeu est chaud donc fais-fais-fais belek Féfé-féfé Fenek Féfé-féfé Fenek Féféfé-féfé Fenek Le rap est là depuis qu'ma daronne m'a fait naître Féfé-féfé Fenek Féféfé-féfé Fenek Féfé-féfé Fenek Le p'tit Rebeu est chaud donc fais-fais-fais belek</t>
+          <t>C'est Hornet, le fennec donc remballe tes gars ridés J'suis un rappeur de qualité et pas un beurre de karité La varièt' Johnny Hallyday par la blanche est animée C'est la guerre, ça y est, donc range ton calumet Combien d'colos se sont fait allumer donc faut les réanimer O.R.G né pour dealer, trois-cents E pour cantiner Hornet pour combiner, le reste c'est abîmé Pas sur scène mais sur Épinay t'es passé mais on t'a d'jà piné Bah ces cons disaient qu j'allais m'mettre à tiser Bah lur meuf si c'est un cheval, c'est passé dans l'bêtisier Je vais pas m'excuser, ton équipe finit muselée C'est pas une rue mais un musée, pas là pour m'amuser J'ai le flow un peu Uzi, t'as le flow un peu usé Tu veux du son c'est par ici, t'inquiète le vrai il sait ha! Avant détesté, puis maintenant sucé Épinay coupé-décalé même ma ville est en train d'caner Hornet a.k.a. Féfé-féfé Fenek Chico a.k.a. Féfé-féfé Fenek Hornet a.k.a. Féféfé-féfé Fenek Le rap est là depuis qu'ma daronne m'a fait naître Hornet a.k.a. Féfé-féfé Fenek Chico a.k.a. Féféfé-féfé Fenek Hornet a.k.a. Féfé-féfé Fenek Le p'tit Rebeu est chaud donc fais-fais-fais belek Pas d'école, pas d'job mais au mic j'te mets à l'amende Voiture française, j'te baise en attendant l'allemande Je préfère manger une mise à mort qu'une mise à l'amende Je suis pas galant négro, j'fais pas d'bise à la demande J'suis un bon d'après ma bande, j'ai pas un rond d'après ma banque Une grosse balle dans ta tempe, c'est plus Hornet, c'est un tank Tant que j'suis ton oncle qui baise ta tante En featuring donc faut qu't'attendes Viens m'clasher si ça te tente Appelle-moi bang face à ton gang Une kalash et un gant et ça fera un gang-bang En deux mesures tu bandes, avec les fils du mic j'te pends Sur toutes les broches j'te prends, après t'avoir violé j'te rends Aïe, tu connais la vibe C'est H.O.R.Net Hornet ma gueule Viens pas tester le fennec Tu vas passer par la fenêtre, Michael Hornet a.k.a. Féfé-féfé Fenek Chico a.k.a. Féfé-féfé Fenek Hornet a.k.a. Féféfé-féfé Fenek Le rap est là depuis qu'ma daronne m'a fait naître Hornet a.k.a. Féfé-féfé Fenek Chico a.k.a. Féféfé-féfé Fenek Hornet a.k.a. Féfé-féfé Fenek Le p'tit Rebeu est chaud donc fais-fais-fais belek Ils critiquaient la techno, maintenant négro ils en font tous Pour qu'la banane du siècle rentre dans ton cul faut qu'tu tousses Au micro j'te fais peur, pourtant ma voix est douce T'as le corps d'un skater, négro il faut qu'tu pousses Y a la blonde, la brune, mais comme t'es claqué t'as la rousse Comme t'écoutes du Hornet, biatche t'as la rose Filmé dans ma rue putain, faut qu'tu tapes la pose 9-3.8, voilà le flow pour la dose Mon rap devient une drogue, gros, pour la dope À force de chercher la merde, belek aux taupes J'ai jamais pensé à rapper pour les go, heu Issu du trafic illégal, yeah Aïe, tu connais la vibe C'est H.O.R.Net Hornet ma gueule Viens pas tester le fennec Tu vas passer par la fenêtre, Michael Hornet a.k.a. Féfé-féfé Fenek Chico a.k.a. Féfé-féfé Fenek Hornet a.k.a. Féféfé-féfé Fenek Le rap est là depuis qu'ma daronne m'a fait naître Hornet a.k.a. Féfé-féfé Fenek Chico a.k.a. Féféfé-féfé Fenek Hornet a.k.a. Féfé-féfé Fenek Le p'tit Rebeu est chaud donc fais-fais-fais belek Féfé-féfé Fenek Féfé-féfé Fenek Féféfé-féfé Fenek Le rap est là depuis qu'ma daronne m'a fait naître Féfé-féfé Fenek Féféfé-féfé Fenek Féfé-féfé Fenek Le p'tit Rebeu est chaud donc fais-fais-fais belek</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2057,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>H, H Hornet la ppe-Fra Mets-toi bien, cousin, le RSA, c'est cadeau Mais mets-toi bien, cousin, le RSA, c'est cadeau Mets-toi bien, cousin, le RSA, c'est cadeau Mais mets-toi bien, cousin, le RSA, c'est cadeau Faut du seille-o à la mort, faut du seille-o à la mort Faut du seille-o à la mort, faut du seille-o à la mort Du biff, du khaliss, du biff, du khaliss Du biff, du khaliss, du biff, du khaliss Faut du seille-o à la mort, faut du seille-o à la mort Faut du seille-o à la mort, faut du seille-o à la mort Du biff, du khaliss, du biff, du khaliss Du biff, du khaliss, du biff, du khaliss Faut du seille-o à la mort Mets-toi bien, cousin, le RSA, c'est cadeau À côté, bicrave de la coke dans l'seizième, ravitaille ces ados Qui n'ont pas de soucis de seille-o, qui connaissent pas la rue sans lové Roulent en Porsche, parlent en wesh, parlant yacht, parlant yacht Gardent la pêche aux portes de Saint-Trop', c'est la desh à mort, t'es sans clope Marrakech, pour nous, c'est Saint-Trop', c'est la desh, nous reste que d'la drogue Alors on drogue, on a pas le choix, nos larmes trouent nos mouchoirs T'essuies tes larmes dans la soie, tu prends des Belvédères quand t'as soif Seille-o résonne dans la tête, quitte à aller à l'autre bout d'la Terre Prendre des risques, c'est savoir tout perdre, vendre des disques, c'est savoir tout faire Toi, tes thunes vient par ton père, nous, notre shit vient par la mer Je veux percer, lâcher des carrières, on saute des meufs, on saute des barrières Tahia, tahia djazaïri, le glock dans ton pe-sli Tu tires dans des pes-cli mais face à Orgemont, t'es petit La frappe s'est mise en colère, les MC sont pas mes collègues Du seille-o font mes rebeus, nègres, de l'euro, pas 1000 euros net L'euro restera le meilleur, le winner parmi les remèdes Même mineur, je voulais de l'oseille, poto, dis-leur, c'est la rue d'Marseille Qui gère le buis', qui gère les finances, pas d'repos, t'vi-ser le dimanche Baise ta mère qui branle ton re-pè, on cause des teilles, tu tends ton rre-ve Je vais faire du sale, mets-toi en retrait, te faire du mal, ça sera sans regret La frappe, c'est lourd, ça rentre sans toquer, bastos dans le pied, ça rentre sur l'côté Les aguicheuses voudront détrôner, leur boule t'appelle, faut pas s'retourner Même ta hlal peut se faire retourner quand c'est l'Sheitan qui paye sa tournée J'vais vous la mettre, je vais bien vous bourrer, j'suis en Hornet, pourquoi vous courrez ? J'vais vous la mettre, je vais bien vous bourrer, j'suis en Hornet, pourquoi vous courrez ? You might also like Faut du seille-o à la mort, faut du seille-o à la mort Faut du seille-o à la mort, faut du seille-o à la mort Du biff, du khaliss, du biff, du khaliss Du biff, du khaliss, du biff, du khaliss Faut du seille-o à la mort, faut du seille-o à la mort Faut du seille-o à la mort, faut du seille-o à la mort Du biff, du khaliss, du biff, du khaliss Du biff, du khaliss, du biff, du khaliss Faut du seille-o à la mort</t>
+          <t>H, H Hornet la ppe-Fra Mets-toi bien, cousin, le RSA, c'est cadeau Mais mets-toi bien, cousin, le RSA, c'est cadeau Mets-toi bien, cousin, le RSA, c'est cadeau Mais mets-toi bien, cousin, le RSA, c'est cadeau Faut du seille-o à la mort, faut du seille-o à la mort Faut du seille-o à la mort, faut du seille-o à la mort Du biff, du khaliss, du biff, du khaliss Du biff, du khaliss, du biff, du khaliss Faut du seille-o à la mort, faut du seille-o à la mort Faut du seille-o à la mort, faut du seille-o à la mort Du biff, du khaliss, du biff, du khaliss Du biff, du khaliss, du biff, du khaliss Faut du seille-o à la mort Mets-toi bien, cousin, le RSA, c'est cadeau À côté, bicrave de la coke dans l'seizième, ravitaille ces ados Qui n'ont pas de soucis de seille-o, qui connaissent pas la rue sans lové Roulent en Porsche, parlent en wesh, parlant yacht, parlant yacht Gardent la pêche aux portes de Saint-Trop', c'est la desh à mort, t'es sans clope Marrakech, pour nous, c'est Saint-Trop', c'est la desh, nous reste que d'la drogue Alors on drogue, on a pas le choix, nos larmes trouent nos mouchoirs T'essuies tes larmes dans la soie, tu prends des Belvédères quand t'as soif Seille-o résonne dans la tête, quitte à aller à l'autre bout d'la Terre Prendre des risques, c'est savoir tout perdre, vendre des disques, c'est savoir tout faire Toi, tes thunes vient par ton père, nous, notre shit vient par la mer Je veux percer, lâcher des carrières, on saute des meufs, on saute des barrières Tahia, tahia djazaïri, le glock dans ton pe-sli Tu tires dans des pes-cli mais face à Orgemont, t'es petit La frappe s'est mise en colère, les MC sont pas mes collègues Du seille-o font mes rebeus, nègres, de l'euro, pas 1000 euros net L'euro restera le meilleur, le winner parmi les remèdes Même mineur, je voulais de l'oseille, poto, dis-leur, c'est la rue d'Marseille Qui gère le buis', qui gère les finances, pas d'repos, t'vi-ser le dimanche Baise ta mère qui branle ton re-pè, on cause des teilles, tu tends ton rre-ve Je vais faire du sale, mets-toi en retrait, te faire du mal, ça sera sans regret La frappe, c'est lourd, ça rentre sans toquer, bastos dans le pied, ça rentre sur l'côté Les aguicheuses voudront détrôner, leur boule t'appelle, faut pas s'retourner Même ta hlal peut se faire retourner quand c'est l'Sheitan qui paye sa tournée J'vais vous la mettre, je vais bien vous bourrer, j'suis en Hornet, pourquoi vous courrez ? J'vais vous la mettre, je vais bien vous bourrer, j'suis en Hornet, pourquoi vous courrez ? Faut du seille-o à la mort, faut du seille-o à la mort Faut du seille-o à la mort, faut du seille-o à la mort Du biff, du khaliss, du biff, du khaliss Du biff, du khaliss, du biff, du khaliss Faut du seille-o à la mort, faut du seille-o à la mort Faut du seille-o à la mort, faut du seille-o à la mort Du biff, du khaliss, du biff, du khaliss Du biff, du khaliss, du biff, du khaliss Faut du seille-o à la mort</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2074,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Heezy Lee, Heezy Lee J'voulais te l'dire Thanks, t'es qu'un obstacle dans mon parcours J'suis binks, où t'étais quand y avait moins d'sous ? Kaméha dans l'plexus, un milliard pour qu'un jour, j't'excuse Oui, l'animal est blessé, j'attends ma prochaine proie pour me consoler L'avenir ici, c'est d'détailler du taga d'qualité couleur marron On sort, on repart au placard, pour les rents-pa, j'crois qu'c'est moins marrant Sheitan te félicite, violence et illicite, juste un temps que j'me range Si je pars, priez pour moi, j'voulais juste briller dans l'noir briller dans l'noir, briller dans l'noir Qu'est-ce tu f'rais pour un million d'euros ? ah Ferais-tu la même chose par amour ? ah Juste un mot pour disparaître un jour ah Adios Impossible d'être comme vous tous, tous On a galéré en bas d'la tour, tour, tour Tout pour le papier, quitte à en devenir fou, fou, fou On a galéré en bas d'la tour, tour, tour Tout pour le papier, va falloir qu'on s'barre un jour You might also like Encore un qui parle sur moi encore J'lui réponds pas, j'suis dans d'beaux draps, crève de soif Encore un qui parle sur moi encore, encore Jalousé d'tout-par, des faux J'reste le même, j'évolue, j'ai voulu faire un tri, t'es qu'un figurant Ma mission sur Terre est excitante, per-cho la fille du boss, j'ai du cran Papa taffe à l'usine, maman fait la cuisine, grâce à eux qu'j'suis un homme Aujourd'hui, j'suis en Versace, ma réussite, j'la dois à ma daronne Qu'est-ce tu f'rais pour un million d'euros ? ah Ferais-tu la même chose par amour ? ah Juste un mot pour disparaître un jour ah Adios Impossible d'être comme vous tous, tous On a galéré en bas d'la tour, tour, tour Tout pour le papier, quitte à en devenir fou, fou, fou On a galéré en bas d'la tour, tour, tour Tout pour le papier, va falloir qu'on s'barre un jour</t>
+          <t>Heezy Lee, Heezy Lee J'voulais te l'dire Thanks, t'es qu'un obstacle dans mon parcours J'suis binks, où t'étais quand y avait moins d'sous ? Kaméha dans l'plexus, un milliard pour qu'un jour, j't'excuse Oui, l'animal est blessé, j'attends ma prochaine proie pour me consoler L'avenir ici, c'est d'détailler du taga d'qualité couleur marron On sort, on repart au placard, pour les rents-pa, j'crois qu'c'est moins marrant Sheitan te félicite, violence et illicite, juste un temps que j'me range Si je pars, priez pour moi, j'voulais juste briller dans l'noir briller dans l'noir, briller dans l'noir Qu'est-ce tu f'rais pour un million d'euros ? ah Ferais-tu la même chose par amour ? ah Juste un mot pour disparaître un jour ah Adios Impossible d'être comme vous tous, tous On a galéré en bas d'la tour, tour, tour Tout pour le papier, quitte à en devenir fou, fou, fou On a galéré en bas d'la tour, tour, tour Tout pour le papier, va falloir qu'on s'barre un jour Encore un qui parle sur moi encore J'lui réponds pas, j'suis dans d'beaux draps, crève de soif Encore un qui parle sur moi encore, encore Jalousé d'tout-par, des faux J'reste le même, j'évolue, j'ai voulu faire un tri, t'es qu'un figurant Ma mission sur Terre est excitante, per-cho la fille du boss, j'ai du cran Papa taffe à l'usine, maman fait la cuisine, grâce à eux qu'j'suis un homme Aujourd'hui, j'suis en Versace, ma réussite, j'la dois à ma daronne Qu'est-ce tu f'rais pour un million d'euros ? ah Ferais-tu la même chose par amour ? ah Juste un mot pour disparaître un jour ah Adios Impossible d'être comme vous tous, tous On a galéré en bas d'la tour, tour, tour Tout pour le papier, quitte à en devenir fou, fou, fou On a galéré en bas d'la tour, tour, tour Tout pour le papier, va falloir qu'on s'barre un jour</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2091,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galère après galère mais jme dis Cest ça, la vie Leurs yeux rivés sur mon bénéfice à mon avis Un peu solo, un peu saoulé de tout cqui marrive Un peu trop sous les projecteurs, jai perdu la vue Jreste calme et janalyse Lhumain et sa ruse Jreste calme et janalyse Lhumain et sa ruse C'est fou, là ouais Pourquoi tu me filmes, ya mahboula ? ouais La moula ouais, ils vont me boire si je coule ouais On est ensemble mais tu t'transformes Tu mparles en sommes, jsuis mieux tout seul Jen ai assez, tout ce passé, je men suis lassé Tu sais, maintenant, je vis dans une zone à risques Paraît quils en veulent à ma vie Jpense que jles dérange à mon avis Ils sont étranges, je les ai vus Ouais, ouais, ouais, ouais Galère après galère mais jme dis Cest ça, la vie Leurs yeux rivés sur mon bénéfice à mon avis Un peu solo, un peu saoulé de tout cqui marrive Un peu trop sous les projecteurs, jai perdu la vue Jreste calme et janalyse Lhumain et sa ruse Jreste calme et janalyse Lhumain et sa ruse You might also like Jpeux pas tout tdire, on sest faits seuls juste en tartinant Triste avenir, létau sresserre sur nos sentiments Une place dans ma vie pour quon meure ensemble La misère, jveux la fuir, jveux pas quelle me malmène Veulent ma somme sans travail colossal À chacune dmes stories, je sais quon me surveille Rebeu, jte flaire, tu veux ma paire et mon fer Et pour ses formes, il en faut peu pour te perdre Jai trop souffert pour leur donner dmes nouvelles Toi qui pensais quon passerait même pas lhiver Galère après galère mais jme dis Cest ça, la vie Leurs yeux rivés sur mon bénéfice à mon avis Un peu solo, un peu saoulé de tout cqui marrive Un peu trop sous les projecteurs, jai perdu la vue Jreste calme et janalyse Lhumain et sa ruse Jreste calme et janalyse Lhumain et sa ruse Galère après galère mais jme dis Cest ça, la vie Leurs yeux rivés sur mon bénéfice à mon avis Un peu solo, un peu saoulé de tout cqui marrive Un peu trop sous les projecteurs, jai perdu la vue Jreste calme et janalyse Lhumain et sa ruse Jreste calme et janalyse Lhumain et sa ruse</t>
+          <t>Galère après galère mais jme dis Cest ça, la vie Leurs yeux rivés sur mon bénéfice à mon avis Un peu solo, un peu saoulé de tout cqui marrive Un peu trop sous les projecteurs, jai perdu la vue Jreste calme et janalyse Lhumain et sa ruse Jreste calme et janalyse Lhumain et sa ruse C'est fou, là ouais Pourquoi tu me filmes, ya mahboula ? ouais La moula ouais, ils vont me boire si je coule ouais On est ensemble mais tu t'transformes Tu mparles en sommes, jsuis mieux tout seul Jen ai assez, tout ce passé, je men suis lassé Tu sais, maintenant, je vis dans une zone à risques Paraît quils en veulent à ma vie Jpense que jles dérange à mon avis Ils sont étranges, je les ai vus Ouais, ouais, ouais, ouais Galère après galère mais jme dis Cest ça, la vie Leurs yeux rivés sur mon bénéfice à mon avis Un peu solo, un peu saoulé de tout cqui marrive Un peu trop sous les projecteurs, jai perdu la vue Jreste calme et janalyse Lhumain et sa ruse Jreste calme et janalyse Lhumain et sa ruse Jpeux pas tout tdire, on sest faits seuls juste en tartinant Triste avenir, létau sresserre sur nos sentiments Une place dans ma vie pour quon meure ensemble La misère, jveux la fuir, jveux pas quelle me malmène Veulent ma somme sans travail colossal À chacune dmes stories, je sais quon me surveille Rebeu, jte flaire, tu veux ma paire et mon fer Et pour ses formes, il en faut peu pour te perdre Jai trop souffert pour leur donner dmes nouvelles Toi qui pensais quon passerait même pas lhiver Galère après galère mais jme dis Cest ça, la vie Leurs yeux rivés sur mon bénéfice à mon avis Un peu solo, un peu saoulé de tout cqui marrive Un peu trop sous les projecteurs, jai perdu la vue Jreste calme et janalyse Lhumain et sa ruse Jreste calme et janalyse Lhumain et sa ruse Galère après galère mais jme dis Cest ça, la vie Leurs yeux rivés sur mon bénéfice à mon avis Un peu solo, un peu saoulé de tout cqui marrive Un peu trop sous les projecteurs, jai perdu la vue Jreste calme et janalyse Lhumain et sa ruse Jreste calme et janalyse Lhumain et sa ruse</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2108,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Baille Broliker Productions P'tit teh au bout du bec, on s'réveille au bruit du bep Parle pas d'être solidaire, on t'a pas vu d'tout l'hiver Pas d'ceux qui parlent trop, j'te laisse faire l'intéressant Coups d'couteau dans l'dos, j'compte ma liasse en guérissant Guerre de tess, un p'tit qui cane, le commissaire se tape des barres se tape des barres, se tape des barres Au fond d'lui s'cache un p'tit Zemmour Plus d'vingt ans dans l'même palier, argent sale, propre dans l'même panier dans l'même panier, dans l'même panier Avenir plus clair en phares xénon Y a d'la blanche de Montréal dans les narines de Tory Lanez Y a d'la frappe en bas d'mon hall pour les bobos de Paris-Centre Ça jette l'il dans l'périmètre, j'te checke plus, t'es périmé J'vais désaouler sous Perrier, c'est pas de l'eau, l'Dom Pérignon Maman, ce soir, je ne rentre pas eh, j'm'endors en garde à v' eh Je ne rentre pas eh, j'm'endors en garde à v' eh Maman, ce soir, je ne rentre pas eh, j'm'endors en garde à v' eh Je ne rentre pas eh, j'm'endors en garde à v' L'Afrique est sur écoute, l'OPJ est sur tes côtes Le daron est sous tension mais l'p'tit bonhomme assure les dettes Il charbonne sur le terrain, trop fier pour demander de l'aide Ses baskets sont plus trouées, p'tit sourire dans l'Audi louée Tu veux nous voir chômer à vie ? Tu veux la ppe-f' ? Bah, c'est ghali bah, c'est ghali, bah, c'est ghali Grandi dans un secteur, hami Même dans l'Bronks, à l'aise, l'ami, j'ai de l'amour pour mes deux Pit' pour mes deux Pit', pour mes deux Pit' L'humain n'est qu'un suceur de chh You might also like Maman, ce soir, je ne rentre pas eh, j'm'endors en garde à v' eh Je ne rentre pas eh, j'm'endors en garde à v' eh Maman, ce soir, je ne rentre pas eh, j'm'endors en garde à v' eh Je ne rentre pas eh, j'm'endors en garde à v' J'ai fait ma place parmi les loups Je ne rentre pas, j'm'endors en garde à v' Je ne rentre pas, j'm'endors en garde à v' J'ai fait ma place parmi les loups Je ne rentre pas, j'm'endors en garde à v' Je ne rentre pas eh Maman, ce soir, je ne rentre pas eh, j'm'endors en garde à v' eh Je ne rentre pas eh, j'm'endors en garde à v' eh Maman, ce soir, je ne rentre pas eh, j'm'endors en garde à v' eh Je ne rentre pas eh, j'm'endors en garde à v'</t>
+          <t>Baille Broliker Productions P'tit teh au bout du bec, on s'réveille au bruit du bep Parle pas d'être solidaire, on t'a pas vu d'tout l'hiver Pas d'ceux qui parlent trop, j'te laisse faire l'intéressant Coups d'couteau dans l'dos, j'compte ma liasse en guérissant Guerre de tess, un p'tit qui cane, le commissaire se tape des barres se tape des barres, se tape des barres Au fond d'lui s'cache un p'tit Zemmour Plus d'vingt ans dans l'même palier, argent sale, propre dans l'même panier dans l'même panier, dans l'même panier Avenir plus clair en phares xénon Y a d'la blanche de Montréal dans les narines de Tory Lanez Y a d'la frappe en bas d'mon hall pour les bobos de Paris-Centre Ça jette l'il dans l'périmètre, j'te checke plus, t'es périmé J'vais désaouler sous Perrier, c'est pas de l'eau, l'Dom Pérignon Maman, ce soir, je ne rentre pas eh, j'm'endors en garde à v' eh Je ne rentre pas eh, j'm'endors en garde à v' eh Maman, ce soir, je ne rentre pas eh, j'm'endors en garde à v' eh Je ne rentre pas eh, j'm'endors en garde à v' L'Afrique est sur écoute, l'OPJ est sur tes côtes Le daron est sous tension mais l'p'tit bonhomme assure les dettes Il charbonne sur le terrain, trop fier pour demander de l'aide Ses baskets sont plus trouées, p'tit sourire dans l'Audi louée Tu veux nous voir chômer à vie ? Tu veux la ppe-f' ? Bah, c'est ghali bah, c'est ghali, bah, c'est ghali Grandi dans un secteur, hami Même dans l'Bronks, à l'aise, l'ami, j'ai de l'amour pour mes deux Pit' pour mes deux Pit', pour mes deux Pit' L'humain n'est qu'un suceur de chh Maman, ce soir, je ne rentre pas eh, j'm'endors en garde à v' eh Je ne rentre pas eh, j'm'endors en garde à v' eh Maman, ce soir, je ne rentre pas eh, j'm'endors en garde à v' eh Je ne rentre pas eh, j'm'endors en garde à v' J'ai fait ma place parmi les loups Je ne rentre pas, j'm'endors en garde à v' Je ne rentre pas, j'm'endors en garde à v' J'ai fait ma place parmi les loups Je ne rentre pas, j'm'endors en garde à v' Je ne rentre pas eh Maman, ce soir, je ne rentre pas eh, j'm'endors en garde à v' eh Je ne rentre pas eh, j'm'endors en garde à v' eh Maman, ce soir, je ne rentre pas eh, j'm'endors en garde à v' eh Je ne rentre pas eh, j'm'endors en garde à v'</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2125,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Baille Broliker Productions J'suis à la cité, j'suis sur Google Maps Par nécessité, tu viens nous la mmh Batterie pleine, un pénave, j'liquide jusqu'à demain J'suis d'vant quali, l'équipe est sous flash à la main J'suis à la cité, j'suis sur Google Maps Par nécessité, tu viens nous la mmh Batterie pleine, un pénave, j'liquide jusqu'à demain J'suis d'vant quali, l'équipe est sous flash à la main J'propose, j'm'arrache, j'fais les cinquante pas Refré, t'as plus l'âge de faire le chouf sur le terrain Perquis', pe-stu, Épi-Épinay, platines, pas celles du DJ Laisse-les encore méditer Les plans sont manigancés, les p'tits te feront danser Chez nous, pas de pique-assiette, banni si tu piques la r'cette Les plans sont manigancés, les p'tits te feront danser Chez nous, pas de pique-assiette, banni si tu piques la r'cette You might also like J'suis à la cité, j'suis sur Google Maps Par nécessité, tu viens nous la mmh Batterie pleine, un pénave, j'liquide jusqu'à demain J'suis d'vant quali, l'équipe est sous flash à la main J'suis à la cité, j'suis sur Google Maps Par nécessité, tu viens nous la mmh Batterie pleine, un pénave, j'liquide jusqu'à demain J'suis d'vant quali, l'équipe est sous flash à la main T'auras plus mes paluches, on fait ça gantés Depuis tits-pe, on traine en meute comme des félins Excellent d'passer d'vant eux en séquentielle Pour eux, c'est dur ces temps-ci et c'est sur nous qu'ils s'renseignent Les plans sont manigancés, les p'tits te feront danser Chez nous, pas de pique-assiette, banni si tu piques la r'cette Les plans sont manigancés, les p'tits te feront danser Chez nous, pas de pique-assiette, banni si tu piques la r'cette J'suis à la cité, j'suis sur Google Maps Par nécessité, tu viens nous la mmh Batterie pleine, un pénave, j'liquide jusqu'à demain J'suis d'vant quali, l'équipe est sous flash à la main J'suis à la cité, j'suis sur Google Maps Par nécessité, tu viens nous la mmh Batterie pleine, un pénave, j'liquide jusqu'à demain J'suis d'vant quali, l'équipe est sous flash à la main1</t>
+          <t>Baille Broliker Productions J'suis à la cité, j'suis sur Google Maps Par nécessité, tu viens nous la mmh Batterie pleine, un pénave, j'liquide jusqu'à demain J'suis d'vant quali, l'équipe est sous flash à la main J'suis à la cité, j'suis sur Google Maps Par nécessité, tu viens nous la mmh Batterie pleine, un pénave, j'liquide jusqu'à demain J'suis d'vant quali, l'équipe est sous flash à la main J'propose, j'm'arrache, j'fais les cinquante pas Refré, t'as plus l'âge de faire le chouf sur le terrain Perquis', pe-stu, Épi-Épinay, platines, pas celles du DJ Laisse-les encore méditer Les plans sont manigancés, les p'tits te feront danser Chez nous, pas de pique-assiette, banni si tu piques la r'cette Les plans sont manigancés, les p'tits te feront danser Chez nous, pas de pique-assiette, banni si tu piques la r'cette J'suis à la cité, j'suis sur Google Maps Par nécessité, tu viens nous la mmh Batterie pleine, un pénave, j'liquide jusqu'à demain J'suis d'vant quali, l'équipe est sous flash à la main J'suis à la cité, j'suis sur Google Maps Par nécessité, tu viens nous la mmh Batterie pleine, un pénave, j'liquide jusqu'à demain J'suis d'vant quali, l'équipe est sous flash à la main T'auras plus mes paluches, on fait ça gantés Depuis tits-pe, on traine en meute comme des félins Excellent d'passer d'vant eux en séquentielle Pour eux, c'est dur ces temps-ci et c'est sur nous qu'ils s'renseignent Les plans sont manigancés, les p'tits te feront danser Chez nous, pas de pique-assiette, banni si tu piques la r'cette Les plans sont manigancés, les p'tits te feront danser Chez nous, pas de pique-assiette, banni si tu piques la r'cette J'suis à la cité, j'suis sur Google Maps Par nécessité, tu viens nous la mmh Batterie pleine, un pénave, j'liquide jusqu'à demain J'suis d'vant quali, l'équipe est sous flash à la main J'suis à la cité, j'suis sur Google Maps Par nécessité, tu viens nous la mmh Batterie pleine, un pénave, j'liquide jusqu'à demain J'suis d'vant quali, l'équipe est sous flash à la main1</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2142,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Pont Codéiné Gobelet codéiné Couplet 1 De la pure, de la pure Pédicure, manucure sur les Champs ! Pute de nature, paye en nature T'aime les voitures mais t'as jamais d'essence Attendu comme le 6 du Mois RSA, RSA ! RDM comment rester simple ? J'suis fais pour le bitume comme le RS5 On aime la fraîche, la vie la vraie On aime les fesses, les filles les vraies On aime l'ivresse les'teilles, les verres Mathusalem, bulve d'air Carré VIP on est sé-po, la Beurette veut du Moet Ramené-lui un verre d'Selecto Mère XXX joue la XXX De la pure, de la pure, de la Cristaline Triste fin comme le Titanic ! Epinay là où tout commence Orgemont là où tout s'termine ! La concu' c'est fini c'est XXX Faut mieux avoir son petit Gobelet perso Que la plus grosse des 'tasses ta h'lel de té-cô fait la pute t'en fasses You might also likePont Condéiné, sortez, sortez les Gobelets ! Sous codéine comme à Chichago Pour un bon k.o c'est le geste qui compte Comme un vieux cadeau ou le geste d'un Pompe Sous codéine comme à Chigago Pour un bon k.o c'est le geste qui compte Comme un vieux ou le geste d'un Pompe Sous codéine comme à Chica Sous codéine comme à Chicago Sous codéine comme à Chica Sous codéine comme à Chicago Chica, Chicago ! Sous codéine comme à Chica Sous codéine comme à Chicago Pont Gobelet Codéiné Codéiné Gobelet Codéiné Couplet 2 Reubeu, renoi te passe le salam Une XXX trois ! Ceci à Charles-De-Gaules Qu'es ce qu'ils sont chaud les sistes-gros de Paname Salade, carotte, banane Vas-y salope, galope, avale Shit, glope, flash Sa monte sur Paname On se fache pour un grec salade XXX n'a pas trouvé les lettres donc ils nous ont pendu Sadam Toi t'es ronde, c'est ton mal-être en Levrette Ton cul passe le salam Rencontre sur l'ordi, normal que parfois entre nous sa rame ! T'as des gros boules dans tes clips, attend que j'appel l'équipe à Sarah ! Epinay, on vient d'piner et XXX Maintenant on s'arrache Vous dealez la Came, la Frappe, la Bonne Vous lui mettez un barrage mais wallah s't'année j'vous arraches Hornet sur route jamais au garage Rue De Marseille, sa sort la Kalach Vis ta vie, pas la mienne tu veux la même la putain d'ta race ! Pont</t>
+          <t>Pont Codéiné Gobelet codéiné Couplet 1 De la pure, de la pure Pédicure, manucure sur les Champs ! Pute de nature, paye en nature T'aime les voitures mais t'as jamais d'essence Attendu comme le 6 du Mois RSA, RSA ! RDM comment rester simple ? J'suis fais pour le bitume comme le RS5 On aime la fraîche, la vie la vraie On aime les fesses, les filles les vraies On aime l'ivresse les'teilles, les verres Mathusalem, bulve d'air Carré VIP on est sé-po, la Beurette veut du Moet Ramené-lui un verre d'Selecto Mère XXX joue la XXX De la pure, de la pure, de la Cristaline Triste fin comme le Titanic ! Epinay là où tout commence Orgemont là où tout s'termine ! La concu' c'est fini c'est XXX Faut mieux avoir son petit Gobelet perso Que la plus grosse des 'tasses ta h'lel de té-cô fait la pute t'en fasses Pont Condéiné, sortez, sortez les Gobelets ! Sous codéine comme à Chichago Pour un bon k.o c'est le geste qui compte Comme un vieux cadeau ou le geste d'un Pompe Sous codéine comme à Chigago Pour un bon k.o c'est le geste qui compte Comme un vieux ou le geste d'un Pompe Sous codéine comme à Chica Sous codéine comme à Chicago Sous codéine comme à Chica Sous codéine comme à Chicago Chica, Chicago ! Sous codéine comme à Chica Sous codéine comme à Chicago Pont Gobelet Codéiné Codéiné Gobelet Codéiné Couplet 2 Reubeu, renoi te passe le salam Une XXX trois ! Ceci à Charles-De-Gaules Qu'es ce qu'ils sont chaud les sistes-gros de Paname Salade, carotte, banane Vas-y salope, galope, avale Shit, glope, flash Sa monte sur Paname On se fache pour un grec salade XXX n'a pas trouvé les lettres donc ils nous ont pendu Sadam Toi t'es ronde, c'est ton mal-être en Levrette Ton cul passe le salam Rencontre sur l'ordi, normal que parfois entre nous sa rame ! T'as des gros boules dans tes clips, attend que j'appel l'équipe à Sarah ! Epinay, on vient d'piner et XXX Maintenant on s'arrache Vous dealez la Came, la Frappe, la Bonne Vous lui mettez un barrage mais wallah s't'année j'vous arraches Hornet sur route jamais au garage Rue De Marseille, sa sort la Kalach Vis ta vie, pas la mienne tu veux la même la putain d'ta race ! Pont</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2159,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>J'sors du hanoute, une 'teille de Jack, pas d'teille de Polia' J'sors du hanoute, une 'teille de Jack, pas d'teille de Polia' J'éclate bouteille pleine dans l'crâne du kedheb Parle pas bouche pleine, parle pas tout court, khey La route est longue, zéro à cent à la s'conde Trop d'refrés finissent en zonz' On salit nos pères, pleurer nos mères Seul en cellule, sur l'terrain, on est onze Trois féfés dans l'clip, j'les vois faire dans l'slip Pas d'mala dans l'VIP, pas d'argent dans l'vide Regarde mes yeux, regarde mes cernes On l'a fait nous-mêmes, plat au dessert Le sang est vert mec comme un DZ Crache dans la tte-cha, la chaussette, comme ça, c'est chose faite Respecte mes consignes, depuis que j'suis la peuf', j'suis grave ton style J'rappe, j'débite, tu crois qu'j'débute Platine mixtape, toi, tu suces des bites J'suis à la Rue d'Marseille, j'fais des selfies, rien n'a changé à part qu'dans l'compte, c'est l'feu J'fais c'que j'veux, baisse ta main, amitié d'plus d'vingt ans, dans l'testament J'sors du hanoute une teille de Jack, pas d'teille de Polia' C'est l'ghetto hood, faut qu'tu khalass, on aime les payeurs Bord du fer, je gamberge Pour un verre, elle donne même son derch Fils de pute, j'suis faya, t'ié fada, t'ia fané, feuille J'sors du hanoute une teille de Jack, pas d'teille de Polia' C'est l'ghetto hood, faut qu'tu khalass, on aime les payeurs Bord du fer, je gamberge Pour un verre, elle donne même son derch Fils de pute, j'suis faya, t'ié fada, t'ia fané, feyeh You might also like L'ancien sous Heineken pense au dernier coup À faire rentrer d'la pure dans l'espace Shengen Mon calibre parle tchétchène Casquette à l'envers, j'dégaine La concu' parle Tchang On nique ta reum de suite On laisse pas faire le temps Frappe le sac de shit jusqu'à extraire le zit Tirer un sac au feu, frérot, démarre le Zip Faire confiance aux Français, c'est faire confiance aux flics poukie Je crois qu'dans l'sarcophage, il y a Sarkozy L'aîné d'la mif, j'assume enfant d'sixième, j'reviens Sur l'féfé, devin Sur pépé, j't'éteins Sur pépé, j't'éteins Toujours plus haut, ça vient d'en-d'ssous Toujours plus loin, tu m'vois dans l'flou La concu' est morte, je sens plus l'pouls Les jeux sont faits, je suis dans l'coup J'sors du hanoute une teille de Jack, pas d'teille de Polia' C'est l'ghetto hood, faut qu'tu khalass, on aime les payeurs Bord du fer, je gamberge Pour un verre, elle donne même son derch Fils de pute, j'suis faya, t'ié fada, t'ia fané, feuille J'sors du hanoute une teille de Jack, pas d'teille de Polia' C'est l'ghetto hood, faut qu'tu khalass, on aime les payeurs Bord du fer, je gamberge Pour un verre, elle donne même son derch Fils de pute, j'suis faya, t'ié fada, t'ia fané, feyeh</t>
+          <t>J'sors du hanoute, une 'teille de Jack, pas d'teille de Polia' J'sors du hanoute, une 'teille de Jack, pas d'teille de Polia' J'éclate bouteille pleine dans l'crâne du kedheb Parle pas bouche pleine, parle pas tout court, khey La route est longue, zéro à cent à la s'conde Trop d'refrés finissent en zonz' On salit nos pères, pleurer nos mères Seul en cellule, sur l'terrain, on est onze Trois féfés dans l'clip, j'les vois faire dans l'slip Pas d'mala dans l'VIP, pas d'argent dans l'vide Regarde mes yeux, regarde mes cernes On l'a fait nous-mêmes, plat au dessert Le sang est vert mec comme un DZ Crache dans la tte-cha, la chaussette, comme ça, c'est chose faite Respecte mes consignes, depuis que j'suis la peuf', j'suis grave ton style J'rappe, j'débite, tu crois qu'j'débute Platine mixtape, toi, tu suces des bites J'suis à la Rue d'Marseille, j'fais des selfies, rien n'a changé à part qu'dans l'compte, c'est l'feu J'fais c'que j'veux, baisse ta main, amitié d'plus d'vingt ans, dans l'testament J'sors du hanoute une teille de Jack, pas d'teille de Polia' C'est l'ghetto hood, faut qu'tu khalass, on aime les payeurs Bord du fer, je gamberge Pour un verre, elle donne même son derch Fils de pute, j'suis faya, t'ié fada, t'ia fané, feuille J'sors du hanoute une teille de Jack, pas d'teille de Polia' C'est l'ghetto hood, faut qu'tu khalass, on aime les payeurs Bord du fer, je gamberge Pour un verre, elle donne même son derch Fils de pute, j'suis faya, t'ié fada, t'ia fané, feyeh L'ancien sous Heineken pense au dernier coup À faire rentrer d'la pure dans l'espace Shengen Mon calibre parle tchétchène Casquette à l'envers, j'dégaine La concu' parle Tchang On nique ta reum de suite On laisse pas faire le temps Frappe le sac de shit jusqu'à extraire le zit Tirer un sac au feu, frérot, démarre le Zip Faire confiance aux Français, c'est faire confiance aux flics poukie Je crois qu'dans l'sarcophage, il y a Sarkozy L'aîné d'la mif, j'assume enfant d'sixième, j'reviens Sur l'féfé, devin Sur pépé, j't'éteins Sur pépé, j't'éteins Toujours plus haut, ça vient d'en-d'ssous Toujours plus loin, tu m'vois dans l'flou La concu' est morte, je sens plus l'pouls Les jeux sont faits, je suis dans l'coup J'sors du hanoute une teille de Jack, pas d'teille de Polia' C'est l'ghetto hood, faut qu'tu khalass, on aime les payeurs Bord du fer, je gamberge Pour un verre, elle donne même son derch Fils de pute, j'suis faya, t'ié fada, t'ia fané, feuille J'sors du hanoute une teille de Jack, pas d'teille de Polia' C'est l'ghetto hood, faut qu'tu khalass, on aime les payeurs Bord du fer, je gamberge Pour un verre, elle donne même son derch Fils de pute, j'suis faya, t'ié fada, t'ia fané, feyeh</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2176,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>J'voulais pas m'faire façonner, fallait l'faire soi-même J'voulais tous les assommer, y a rien d'personnel Whisky sec, sensationnel, le thème d'la soirée Si c'est ma faute, j'ai plus mes kheys, j'irais m'faire soigner J'pense qu'à faire du ffe-bi, grand, renvoyer l'ascenseur Le terrain, faut l'faire débiter pour qu'la ne-zo s'en sorte Crois pas qu'j'vais rentrer dans les rangs, prie pour qu'le 9 s'enraye Arrête de m'parler de ton grand, j'viens d'passer la trentaine Derrière l'sourire, posé, j'écoute du Hasni quand c'est pas joli Bon qu'à parler mais laisse-les, on sait qu'c'est pas solide Sur nos visages, la hess se lit, ça, c'est pas joli Et j'pense bien qu'y aura que l'oseille qui pourra m'rajeunir Posé, j'écoute du Hasni quand c'est pas joli Bon qu'à parler mais laisse-les, on sait qu'c'est pas solide Sur nos visages, la hess se lit, ça, c'est pas joli Et j'pense bien qu'y aura que l'oseille qui pourra m'rajeunir Faut parler en lourd, le love, ça tue, sa copine lui dira d'prendre toute sa tune Le coeur abîmé mais pas l'ossature, en mode 6.6.7, pas les lois d'Satan J'ai loupé l'bonheur, il repassera quand ? Ça parle sur toi quand tu passes la porte Le p'tit de la zone rêve du 4.50, le shlag d'héro' vient d'faire une syncope Tu voulais des tales dans la sacoche, mon kho, t'es parti pour quatre, cinq ans On vient t'chercher même pour un scala, la vengeance est froide, c'est une bonne salade pour faire l'six feuilles, sur le terrain, j'entends balles siffler T'es pas d'la rue, toi, t'es falsifié, sors pas le 9, juste une baffe suffit, ppe-Fra You might also like Derrière l'sourire, posé, j'écoute du Hasni quand c'est pas joli Bon qu'à parler mais laisse-les, on sait qu'c'est pas solide Sur nos visages, la hess se lit, ça, c'est pas joli Et j'pense bien qu'y aura que l'oseille qui pourra m'rajeunir Posé, j'écoute du Hasni quand c'est pas joli Bon qu'à parler mais laisse-les, on sait qu'c'est pas solide Sur nos visages, la hess se lit, ça, c'est pas joli Et j'pense bien qu'y aura que l'oseille qui pourra m'rajeunir</t>
+          <t>J'voulais pas m'faire façonner, fallait l'faire soi-même J'voulais tous les assommer, y a rien d'personnel Whisky sec, sensationnel, le thème d'la soirée Si c'est ma faute, j'ai plus mes kheys, j'irais m'faire soigner J'pense qu'à faire du ffe-bi, grand, renvoyer l'ascenseur Le terrain, faut l'faire débiter pour qu'la ne-zo s'en sorte Crois pas qu'j'vais rentrer dans les rangs, prie pour qu'le 9 s'enraye Arrête de m'parler de ton grand, j'viens d'passer la trentaine Derrière l'sourire, posé, j'écoute du Hasni quand c'est pas joli Bon qu'à parler mais laisse-les, on sait qu'c'est pas solide Sur nos visages, la hess se lit, ça, c'est pas joli Et j'pense bien qu'y aura que l'oseille qui pourra m'rajeunir Posé, j'écoute du Hasni quand c'est pas joli Bon qu'à parler mais laisse-les, on sait qu'c'est pas solide Sur nos visages, la hess se lit, ça, c'est pas joli Et j'pense bien qu'y aura que l'oseille qui pourra m'rajeunir Faut parler en lourd, le love, ça tue, sa copine lui dira d'prendre toute sa tune Le coeur abîmé mais pas l'ossature, en mode 6.6.7, pas les lois d'Satan J'ai loupé l'bonheur, il repassera quand ? Ça parle sur toi quand tu passes la porte Le p'tit de la zone rêve du 4.50, le shlag d'héro' vient d'faire une syncope Tu voulais des tales dans la sacoche, mon kho, t'es parti pour quatre, cinq ans On vient t'chercher même pour un scala, la vengeance est froide, c'est une bonne salade pour faire l'six feuilles, sur le terrain, j'entends balles siffler T'es pas d'la rue, toi, t'es falsifié, sors pas le 9, juste une baffe suffit, ppe-Fra Derrière l'sourire, posé, j'écoute du Hasni quand c'est pas joli Bon qu'à parler mais laisse-les, on sait qu'c'est pas solide Sur nos visages, la hess se lit, ça, c'est pas joli Et j'pense bien qu'y aura que l'oseille qui pourra m'rajeunir Posé, j'écoute du Hasni quand c'est pas joli Bon qu'à parler mais laisse-les, on sait qu'c'est pas solide Sur nos visages, la hess se lit, ça, c'est pas joli Et j'pense bien qu'y aura que l'oseille qui pourra m'rajeunir</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2193,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Po-po-po-poh Dava-va-vai Po-po-po-poh Et ça fait po-po-po-poh J'suis sous vo'-vo', vo'-vo' J'v'-esqui la po'-po', po'-po' Laisse-moi bronzer sous l'soleil Et ça fait po-po-po-poh J'suis sous vo'-vo', vo'-vo' J'v'-esqui la po'-po', po'-po' Laisse-moi bronzer sous l'soleil Il y a, problèmes, il y a J'démarre la caisse, A7, Marsiglia J'suis trop bien, nan, j'peux pas nier Elle est trop nia, elle, c'est ma poupiya T'as mis du time, t'es plus de taille, j'aime son côté métissé J'leur ferai la guerre, ça f'ra l'affaire tant qu'y a la punchline aiguisée Je tue l'ennui, j'ai qu'une envie d'arrêter l'RS pour pisser J'ai pas sommeil, combien m'salissent ? Toi, t'es mon frère c'que tu m'disais You might also like Go, go, go, go, go, go, c'est les cités d'or, c'est pas Cali Go, go, go, go, go, go, Gorilla que j'grille m'endort la nuit Go, go, go, go, go, go, avec une bombe latine, j'éteins ma SIM Go, go, go, go, go, go, j'ai fait les comptes, il m'reste peu d'amis Et ça fait po-po-po-poh J'suis sous vo'-vo', vo'-vo' J'v'-esqui la po'-po', po'-po' Laisse-moi bronzer sous l'soleil Et ça fait po-po-po-poh J'suis sous vo'-vo', vo'-vo' J'v'-esqui la po'-po', po'-po' Laisse-moi bronzer sous l'soleil Il y a, problèmes, il y a J'démarre la caisse, A7, Marsiglia J'suis trop bien, nan, j'peux pas nier Elle est trop nia, elle, c'est ma poupiya Si t'es un vrai, j'fais la collab', j'sais pas t'es qui, pas d'accolade Rebeu, renoi ou bien toubab, tu fais l'bandit que sous cool-al J'suis sympa l'temps d'jouer un rôle, descend pas l'frère d'vant la folle Talent gâché bosse la coke, cramer l'bénéf' sur la côte Go, go, go, go, go, go, c'est les cités d'or, c'est pas Cali Go, go, go, go, go, go, Gorilla que j'grille m'endort la nuit Go, go, go, go, go, go, avec une bombe latine, j'éteins ma SIM Go, go, go, go, go, go, j'ai fait les comptes, il m'reste peu d'amis Et ça fait po-po-po-poh J'suis sous vo'-vo', vo'-vo' J'v'-esqui la po'-po', po'-po' Laisse-moi bronzer sous l'soleil Et ça fait po-po-po-poh J'suis sous vo'-vo', vo'-vo' J'v'-esqui la po'-po', po'-po' Laisse-moi bronzer sous l'soleil Il y a, problèmes, il y a J'démarre la caisse, A7, Marsiglia J'suis trop bien, nan, j'peux pas nier Elle est trop nia, elle, c'est ma poupiya Il y a, problèmes, il y a J'démarre la caisse, A7, Marsiglia J'suis trop bien, nan, j'peux pas nier Elle est trop nia, elle, c'est ma poupiya Go, go, go, go, go, go Go, go, go, go, go, go Go, go, go, go, go, go Go, go, go, go, go, go</t>
+          <t>Po-po-po-poh Dava-va-vai Po-po-po-poh Et ça fait po-po-po-poh J'suis sous vo'-vo', vo'-vo' J'v'-esqui la po'-po', po'-po' Laisse-moi bronzer sous l'soleil Et ça fait po-po-po-poh J'suis sous vo'-vo', vo'-vo' J'v'-esqui la po'-po', po'-po' Laisse-moi bronzer sous l'soleil Il y a, problèmes, il y a J'démarre la caisse, A7, Marsiglia J'suis trop bien, nan, j'peux pas nier Elle est trop nia, elle, c'est ma poupiya T'as mis du time, t'es plus de taille, j'aime son côté métissé J'leur ferai la guerre, ça f'ra l'affaire tant qu'y a la punchline aiguisée Je tue l'ennui, j'ai qu'une envie d'arrêter l'RS pour pisser J'ai pas sommeil, combien m'salissent ? Toi, t'es mon frère c'que tu m'disais Go, go, go, go, go, go, c'est les cités d'or, c'est pas Cali Go, go, go, go, go, go, Gorilla que j'grille m'endort la nuit Go, go, go, go, go, go, avec une bombe latine, j'éteins ma SIM Go, go, go, go, go, go, j'ai fait les comptes, il m'reste peu d'amis Et ça fait po-po-po-poh J'suis sous vo'-vo', vo'-vo' J'v'-esqui la po'-po', po'-po' Laisse-moi bronzer sous l'soleil Et ça fait po-po-po-poh J'suis sous vo'-vo', vo'-vo' J'v'-esqui la po'-po', po'-po' Laisse-moi bronzer sous l'soleil Il y a, problèmes, il y a J'démarre la caisse, A7, Marsiglia J'suis trop bien, nan, j'peux pas nier Elle est trop nia, elle, c'est ma poupiya Si t'es un vrai, j'fais la collab', j'sais pas t'es qui, pas d'accolade Rebeu, renoi ou bien toubab, tu fais l'bandit que sous cool-al J'suis sympa l'temps d'jouer un rôle, descend pas l'frère d'vant la folle Talent gâché bosse la coke, cramer l'bénéf' sur la côte Go, go, go, go, go, go, c'est les cités d'or, c'est pas Cali Go, go, go, go, go, go, Gorilla que j'grille m'endort la nuit Go, go, go, go, go, go, avec une bombe latine, j'éteins ma SIM Go, go, go, go, go, go, j'ai fait les comptes, il m'reste peu d'amis Et ça fait po-po-po-poh J'suis sous vo'-vo', vo'-vo' J'v'-esqui la po'-po', po'-po' Laisse-moi bronzer sous l'soleil Et ça fait po-po-po-poh J'suis sous vo'-vo', vo'-vo' J'v'-esqui la po'-po', po'-po' Laisse-moi bronzer sous l'soleil Il y a, problèmes, il y a J'démarre la caisse, A7, Marsiglia J'suis trop bien, nan, j'peux pas nier Elle est trop nia, elle, c'est ma poupiya Il y a, problèmes, il y a J'démarre la caisse, A7, Marsiglia J'suis trop bien, nan, j'peux pas nier Elle est trop nia, elle, c'est ma poupiya Go, go, go, go, go, go Go, go, go, go, go, go Go, go, go, go, go, go Go, go, go, go, go, go</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2210,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Wesh, y a combien, ma gueule ? J'sais pas, eh, tu veux combien, frère ? Moi, à la base, j'étais venu et l'autre, il a roulé La vie d'ma mère, j'vendais d'la drogue, t'étais même pas prêt frère Eh, nique ta mère Han Wesh, t'as vu des sommes, t'as vu des trucs, frère, t'es fou Et la vie d'ma mère, j'ai jamais fait ça pour l'image, frère Aujourd'hui, des mecs qui bicravent, frère, tu sais très bien pourquoi Ils veulent juste dire Allez, c'est la ue-r, nous, frèr, on avait faim, ma gueule T'es fou, la s'main de TP, on l'sentait, mon gars, tu vois ce que je veux dire J'ai jamais fait pour l'image, kho, moi, j'avais faim en effet j'avais Ces chiens veulent me faire à la Death Row donc j'ouvre moi-même mon label Diez Peufra Je porte mes galères comme un fardeau, heureux que le jour de la paie ba-bang Connu la rue, l'Kärcher à Sarko, c'est moi l'bougnoule qu'on appelle c'est moi Toi, tu fais ça pour l'image, toi, c'est juste pour plaire aux meufs Tu fais l'indic' et tu snappes, en vrai, c'est qu'du buzz Pas d'belle avenir au détail, y a nos parents à l'étage Quand je chante Grammes 2 Peuf Grammes 2 Peuf, ouh Tu connais pas ma vie, je ne montre pas, réel depuis l'départ J'v'-esqui la chute, pas de paresse, on le savait dix fois plus, pas l'temps nehess J'suis dans l'circuit, faut pas qu'j'm'arrête, c'est pas d'la farine qu'il vend, le p'tit Farès Parents divorcégués, fallait vendre dix g' On sait qu'en face, il va paygué, en vrai, la vrai, j'suis qu'c'est dégun You might also like J'ai jamais fait pour l'image, kho, moi, j'avais faim en effet j'avais Ces chiens veulent me faire à la Death Row donc j'ouvre moi-même mon label Diez Peufra Je porte mes galères comme un fardeau, heureux que le jour de la paie ba-bang Connu la rue, l'Kärcher à Sarko, c'est moi le bougnoule qu'on appelle c'est moi J'ai tourné sur Paname, j'vendais la beuh, les rues de Paname sont mon terrain d'jeu J'marche pas seul, on s'enterre à deux, étoiles dans la Rolls, laisse-moi faire un vu Jamais d'ma vie je n'serai l'un d'eux nan Va bien leur dire qu'on leur doit rien à ces rageux ces rageux Désolé d'les vexer, on les baise par excès Eux, ils font semblant, n'ont pas choisi leur camp ba-ba-bang Pour-pour-pour rien, ça ré-ti, des grands appétits, combien sont partis vu du ciel ? J'suis d'jà dans l'Audi, j'avais pas d'doobie et moins je t'en dis, plus t'en sais Fumer la gandja pour commencer, les bobos, les bandits, j'fais danser En vrai, c'est léger, sors pas ton CV, personne te connaît, t'fais l'ancêtre, han Du bon vieux temps, on gardera que les bons moments bons moments J'ai jamais fait pour l'image, kho, moi, j'avais faim en effet j'avais Ces chiens veulent me faire à la Death Row donc j'ouvre moi-même mon label Diez Peufra Je porte mes galères comme un fardeau, heureux que le jour de la paie ba-bang Connu la rue, l'Kärcher à Sarko, c'est moi l'bougnoule qu'on appelle c'est moi J'ai tourné sur Paname, j'vendais la beuh, les rues de Paname sont mon terrain d'jeu J'marche pas tout seul, on s'enterre à deux, étoiles dans la Rolls, laisse-moi faire un vu Jamais d'ma vie je n'serai l'un deux nan Va bien leur dire qu'on leur doit rien, ces rageux ces rageux Va, va bien leur dire</t>
+          <t>Wesh, y a combien, ma gueule ? J'sais pas, eh, tu veux combien, frère ? Moi, à la base, j'étais venu et l'autre, il a roulé La vie d'ma mère, j'vendais d'la drogue, t'étais même pas prêt frère Eh, nique ta mère Han Wesh, t'as vu des sommes, t'as vu des trucs, frère, t'es fou Et la vie d'ma mère, j'ai jamais fait ça pour l'image, frère Aujourd'hui, des mecs qui bicravent, frère, tu sais très bien pourquoi Ils veulent juste dire Allez, c'est la ue-r, nous, frèr, on avait faim, ma gueule T'es fou, la s'main de TP, on l'sentait, mon gars, tu vois ce que je veux dire J'ai jamais fait pour l'image, kho, moi, j'avais faim en effet j'avais Ces chiens veulent me faire à la Death Row donc j'ouvre moi-même mon label Diez Peufra Je porte mes galères comme un fardeau, heureux que le jour de la paie ba-bang Connu la rue, l'Kärcher à Sarko, c'est moi l'bougnoule qu'on appelle c'est moi Toi, tu fais ça pour l'image, toi, c'est juste pour plaire aux meufs Tu fais l'indic' et tu snappes, en vrai, c'est qu'du buzz Pas d'belle avenir au détail, y a nos parents à l'étage Quand je chante Grammes 2 Peuf Grammes 2 Peuf, ouh Tu connais pas ma vie, je ne montre pas, réel depuis l'départ J'v'-esqui la chute, pas de paresse, on le savait dix fois plus, pas l'temps nehess J'suis dans l'circuit, faut pas qu'j'm'arrête, c'est pas d'la farine qu'il vend, le p'tit Farès Parents divorcégués, fallait vendre dix g' On sait qu'en face, il va paygué, en vrai, la vrai, j'suis qu'c'est dégun J'ai jamais fait pour l'image, kho, moi, j'avais faim en effet j'avais Ces chiens veulent me faire à la Death Row donc j'ouvre moi-même mon label Diez Peufra Je porte mes galères comme un fardeau, heureux que le jour de la paie ba-bang Connu la rue, l'Kärcher à Sarko, c'est moi le bougnoule qu'on appelle c'est moi J'ai tourné sur Paname, j'vendais la beuh, les rues de Paname sont mon terrain d'jeu J'marche pas seul, on s'enterre à deux, étoiles dans la Rolls, laisse-moi faire un vu Jamais d'ma vie je n'serai l'un d'eux nan Va bien leur dire qu'on leur doit rien à ces rageux ces rageux Désolé d'les vexer, on les baise par excès Eux, ils font semblant, n'ont pas choisi leur camp ba-ba-bang Pour-pour-pour rien, ça ré-ti, des grands appétits, combien sont partis vu du ciel ? J'suis d'jà dans l'Audi, j'avais pas d'doobie et moins je t'en dis, plus t'en sais Fumer la gandja pour commencer, les bobos, les bandits, j'fais danser En vrai, c'est léger, sors pas ton CV, personne te connaît, t'fais l'ancêtre, han Du bon vieux temps, on gardera que les bons moments bons moments J'ai jamais fait pour l'image, kho, moi, j'avais faim en effet j'avais Ces chiens veulent me faire à la Death Row donc j'ouvre moi-même mon label Diez Peufra Je porte mes galères comme un fardeau, heureux que le jour de la paie ba-bang Connu la rue, l'Kärcher à Sarko, c'est moi l'bougnoule qu'on appelle c'est moi J'ai tourné sur Paname, j'vendais la beuh, les rues de Paname sont mon terrain d'jeu J'marche pas tout seul, on s'enterre à deux, étoiles dans la Rolls, laisse-moi faire un vu Jamais d'ma vie je n'serai l'un deux nan Va bien leur dire qu'on leur doit rien, ces rageux ces rageux Va, va bien leur dire</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2227,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>J'ai pris le mic' pour m'vider la te-tê, j'ai vu des mecs blindés, j'ai vu des mecs plantés pour un cque-gre J'ai pris le mic' pour changer la donne, j'ai vu des mecs songer dans l'alcool, des hommes changer pour une conne J'ai pris le mic' sans forcer, j'ai vu mes parents s'aimer, mes parents divorcer J'ai pris le mic' un soir d'hiver, tout seul, sans grand-frère, juste moi et mes textes de gangster J'ai pris le mic' très jeune, j'ai vu des poulets qui cognent, sois t'es McChicken ou Myke Tyson J'ai pris le mic' direct, la rue, c'est comme une pute, ça fait que d'tirer sur toi ou à la tirette J'ai pris le mic' pour cer-per, pour l'ouvrir sans se taire Si tu m'dis qu'la roue tourne, j'te dis qu'elle tourne comme cette Terre J'ai pris le mic' pour les smicards, les mecs au mitard, frère, ici, y a tout à détruire, y a tout à r'faire tout à r'faire J'ai pris le mic' par les couilles, j'lui fais comprendre par l'écoute Pour simplifier la recherche quand j'parle de putes, j'parle de vous J'ai pris le mic' pour le 9 et l'3, j'ai vu des mecs essayer mais personne fait l'poids Je l'ai pris, tu l'as pris, moi, j'suis dans l'ombre, toi, tu brilles J'ai les dents longues, toi, tu triches, tu parles de nous dans tes disques J'ai pris le mic' à ta place, t'avais le tracataca, moi, j'suis déjà loin, je fais pas de tagadaga J'ai pris le mic' en solo, un groupe, c'est bien, c'est fun mais seul, c'est mieux pour le portefeuille J'ai pris le mic' pour ma rue, rue d'Marseille, Orgemont Si t'es blanche, arrête la blanche, surtout si t'es daron J'ai pris le mic' sans pitié, gardien d'la paix, garde bien tes cages, petit filet, on t'a buté J'ai pris le mic' pour kicker, tu nous allumes, tu tournes de main en main Dis-moi, toi, t'es une femme ou un briquet ? T'es une femme ou un briquet ?You might also like</t>
+          <t>J'ai pris le mic' pour m'vider la te-tê, j'ai vu des mecs blindés, j'ai vu des mecs plantés pour un cque-gre J'ai pris le mic' pour changer la donne, j'ai vu des mecs songer dans l'alcool, des hommes changer pour une conne J'ai pris le mic' sans forcer, j'ai vu mes parents s'aimer, mes parents divorcer J'ai pris le mic' un soir d'hiver, tout seul, sans grand-frère, juste moi et mes textes de gangster J'ai pris le mic' très jeune, j'ai vu des poulets qui cognent, sois t'es McChicken ou Myke Tyson J'ai pris le mic' direct, la rue, c'est comme une pute, ça fait que d'tirer sur toi ou à la tirette J'ai pris le mic' pour cer-per, pour l'ouvrir sans se taire Si tu m'dis qu'la roue tourne, j'te dis qu'elle tourne comme cette Terre J'ai pris le mic' pour les smicards, les mecs au mitard, frère, ici, y a tout à détruire, y a tout à r'faire tout à r'faire J'ai pris le mic' par les couilles, j'lui fais comprendre par l'écoute Pour simplifier la recherche quand j'parle de putes, j'parle de vous J'ai pris le mic' pour le 9 et l'3, j'ai vu des mecs essayer mais personne fait l'poids Je l'ai pris, tu l'as pris, moi, j'suis dans l'ombre, toi, tu brilles J'ai les dents longues, toi, tu triches, tu parles de nous dans tes disques J'ai pris le mic' à ta place, t'avais le tracataca, moi, j'suis déjà loin, je fais pas de tagadaga J'ai pris le mic' en solo, un groupe, c'est bien, c'est fun mais seul, c'est mieux pour le portefeuille J'ai pris le mic' pour ma rue, rue d'Marseille, Orgemont Si t'es blanche, arrête la blanche, surtout si t'es daron J'ai pris le mic' sans pitié, gardien d'la paix, garde bien tes cages, petit filet, on t'a buté J'ai pris le mic' pour kicker, tu nous allumes, tu tournes de main en main Dis-moi, toi, t'es une femme ou un briquet ? T'es une femme ou un briquet ?</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2244,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Eh, eh, eh, eh Mais t'sais que c'est Farsenne Eh, eh, oh, oh J'marche avec mes couilles et mon 9 millimètres millimètres J'donne que d'l'amour à celle qui m'a vu naître m'a vu naître Le reste d'mes sentiments s'envole par la fenêtre par la fenêtre C'est souvent comme ça, entouré de traîtres Dès que j'fais cinq millions eh, t'inquiète pas, on se barre Fallait juste patienter, deux ans après, on s'sépare J'te mens pas, j'ai flashé la première fois que j't'ai vu J'ai mis du cur dans notre relation, au final, j'en ai plus J'ai quitté le ghetto uh, cinq millions sur l'té-cô uh Au volant d'la Merco uh, on s'reverra plus, on se dit à bientôt uh J'ai quitté le ghetto que du sale, sale, sale, cinq millions sur l'té-cô ça fait mal, mal Au volant d'la Merco illégal, 'gal, on s'reverra plus, on se dit à bientôt J'suis pas d'ceux qui en font trop, ma tête est remplie de souvenirs J'refuse jamais le tête-à-tête, gros tête-à-tête, plutôt mourir que de fuir l'ennemi J'fais l'tour de la ville, ici, les sentiments sont scellés Pas d'Maserati, mais seulement lunettes de soleil Sale Sonorités, c'est Death Row Sevran, c'est la hess, kho, ouh, oh, oh J'veux pas d'ton love mais le monopole, Kalash Criminel You might also like J'ai quitté le ghetto uh, cinq millions sur l'té-cô uh Au volant d'la Merco uh, on s'reverra plus, on se dit à bientôt uh J'ai quitté le ghetto que du sale, sale, sale, cinq millions sur l'té-cô ça fait mal, mal Au volant d'la Merco illégal, 'gal, on s'reverra plus, on se dit à bientôt J'ai pas quitté mon bled, le ghetto en double-appel J'ai mérité ma paie, moi, j'suis pas celui qu'on applaudit J'ressors d'gàv en fin d'après-m', j'ai v'-esqui Fleury, Fresnes On a traîné en bolide, fait l'tour de la street J'recomptais mon bénéf', ne tient plus dans l'élastique J'voulais la vie de Tony, mais rien ne m'fascine Bébé, tu s'ras ma Bonnie, j'sais qu'ton cur est fragile J'ai quitté le ghetto uh, cinq millions sur l'té-cô uh Au volant d'la Merco uh, on s'reverra plus, on se dit à bientôt uh J'ai quitté le ghetto que du sale, sale, sale, cinq millions sur l'té-cô ça fait mal, mal Au volant d'la Merco illégal, 'gal, on s'reverra plus, on se dit à bientôt Je me rappelle, ouais, je me fous du monde, depuis, ton nom me manque J'ai mal et j'en ai perdu ma rime L'impression d'être enfermé, j'réponds par la force car je n'ai plus les mots J'ai quitté le ghetto uh, cinq millions sur l'té-cô cinq millions du l'té-cô, uh Au volant d'la Merco au volant d'la Merco, uh, on s'reverra plus, on se dit à bientôt uh J'ai quitté le ghetto que du sale, sale, sale, cinq millions sur l'té-cô ça fait mal, mal Au volant d'la Merco illégal, 'gal, on s'reverra plus, on se dit à bientôt</t>
+          <t>Eh, eh, eh, eh Mais t'sais que c'est Farsenne Eh, eh, oh, oh J'marche avec mes couilles et mon 9 millimètres millimètres J'donne que d'l'amour à celle qui m'a vu naître m'a vu naître Le reste d'mes sentiments s'envole par la fenêtre par la fenêtre C'est souvent comme ça, entouré de traîtres Dès que j'fais cinq millions eh, t'inquiète pas, on se barre Fallait juste patienter, deux ans après, on s'sépare J'te mens pas, j'ai flashé la première fois que j't'ai vu J'ai mis du cur dans notre relation, au final, j'en ai plus J'ai quitté le ghetto uh, cinq millions sur l'té-cô uh Au volant d'la Merco uh, on s'reverra plus, on se dit à bientôt uh J'ai quitté le ghetto que du sale, sale, sale, cinq millions sur l'té-cô ça fait mal, mal Au volant d'la Merco illégal, 'gal, on s'reverra plus, on se dit à bientôt J'suis pas d'ceux qui en font trop, ma tête est remplie de souvenirs J'refuse jamais le tête-à-tête, gros tête-à-tête, plutôt mourir que de fuir l'ennemi J'fais l'tour de la ville, ici, les sentiments sont scellés Pas d'Maserati, mais seulement lunettes de soleil Sale Sonorités, c'est Death Row Sevran, c'est la hess, kho, ouh, oh, oh J'veux pas d'ton love mais le monopole, Kalash Criminel J'ai quitté le ghetto uh, cinq millions sur l'té-cô uh Au volant d'la Merco uh, on s'reverra plus, on se dit à bientôt uh J'ai quitté le ghetto que du sale, sale, sale, cinq millions sur l'té-cô ça fait mal, mal Au volant d'la Merco illégal, 'gal, on s'reverra plus, on se dit à bientôt J'ai pas quitté mon bled, le ghetto en double-appel J'ai mérité ma paie, moi, j'suis pas celui qu'on applaudit J'ressors d'gàv en fin d'après-m', j'ai v'-esqui Fleury, Fresnes On a traîné en bolide, fait l'tour de la street J'recomptais mon bénéf', ne tient plus dans l'élastique J'voulais la vie de Tony, mais rien ne m'fascine Bébé, tu s'ras ma Bonnie, j'sais qu'ton cur est fragile J'ai quitté le ghetto uh, cinq millions sur l'té-cô uh Au volant d'la Merco uh, on s'reverra plus, on se dit à bientôt uh J'ai quitté le ghetto que du sale, sale, sale, cinq millions sur l'té-cô ça fait mal, mal Au volant d'la Merco illégal, 'gal, on s'reverra plus, on se dit à bientôt Je me rappelle, ouais, je me fous du monde, depuis, ton nom me manque J'ai mal et j'en ai perdu ma rime L'impression d'être enfermé, j'réponds par la force car je n'ai plus les mots J'ai quitté le ghetto uh, cinq millions sur l'té-cô cinq millions du l'té-cô, uh Au volant d'la Merco au volant d'la Merco, uh, on s'reverra plus, on se dit à bientôt uh J'ai quitté le ghetto que du sale, sale, sale, cinq millions sur l'té-cô ça fait mal, mal Au volant d'la Merco illégal, 'gal, on s'reverra plus, on se dit à bientôt</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2261,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Baille Broliker Productions J'ai pas joué un rôle qu'était pas l'mien, toi qui disais qu'j'irais pas loin J'ai goûté l'vrai biff, j'voulais sentir même le jasmin, la dounia m'a eu, j'crois bien Mai toujours c'gars simple, on est que d'passage Personne veut s'marier, bah ouais, y a qu'du cassage Tellement facile d'faire un facial, et si t'es plate, on te façonne T'façon, j'pense pas qu'on peut faire sans La clé d'ton cur, c'est un Facom si c'est pas chez moi, bah, j'fais comme J'aime les voitures qui viennent du pays d'Adolf Depuis qu'j'ai du biff, bah, j'trouv qu'on m'adore Fais pas d'dou'a pour que ça passe à Nador La luxur en veux-tu en voilà, Dubaï, de moins en moins d'voilées Mère au foyer qui garde la moula, c'est grâce à ça qu'elle a payé l'loyer La rose est fanée, l'addition reste salée Avant, j'attendais l'bus, maintenant, j'cherche le valet Presque millionnaire le p'tit que tu vannais vannais Le rap m'a donné tout c'qu'il fallait J'préfère ma ruelle que Bruel, pas d'variét' Grâce au mariage forcé, ouais, qu'on m'a vu naître Demain, j'arrête de t'aimer, pas la fumette Devenus bien meilleurs de c'qu'on aurait dû être You might also like Ça pue la rue, pas le jasmin Les années passent, ils font qu'on fasse le bien Sois pas la goutte si le vase est plein En vrai, j'sais même pas c'que j'vais être demain Ça pue la rue, pas le jasmin Les années passent, ils font qu'on fasse le bien Sois pas la goutte si le vase est plein En vrai, j'sais même pas c'que j'vais être demain J'ai pas joué de rôle même en Rolex La vovo est russe comme la roulette Tu prends des nouvelles quand t'as besoin d'moi Si mon verre est vide, j'vais m'en remettre J'ai pas joué de rôle même en Rolex La vovo est russe comme la roulette Tu prends des nouvelles quand t'as besoin d'moi Si mon verre est vide, j'vais m'en remettre J'rentrais bourré à l'heure où sortait l'furet T'as collé la p'tite, même ge-vier, tu l'as fourrée J'ai tonne-car la vie sans assurance Plus de bruit en gardant l'silence C'est pas censuré, le chant des sirènes Numéro d'écrou ou numéro d'SIRET Hornet La Frappe est du six mètres J'suis bien la fierté d'mon ciment Tu-tu vois, le monde n'est pas si grand J'vais t'apprendre à rembourser avant mille ans hein Mes disques de roro tiennent même plus sur la photo J'crois qu'pour tout mettre, il en faut deux Chez nous, c'est d'la chance de finir dans un fauteuil fauteuil Un été à Villepinte sans monoï sans monoï Récupère l'rrain-te comme au Monop' au Monop' Aux pookies qu'on desserre les menottes Ça pue la rue, pas le jasmin Les années passent, ils font qu'on fasse le bien Sois pas la goutte si le vase est plein En vrai, j'sais même pas c'que j'vais être demain Ça pue la rue, pas le jasmin Les années passent, ils font qu'on fasse le bien Sois pas la goutte si le vase est plein En vrai, j'sais même pas c'que j'vais être demain J'ai pas joué de rôle même en Rolex La vovo est russe comme la roulette Tu prends des nouvelles quand t'as besoin d'moi Si mon verre est vide, j'vais m'en remettre J'ai pas joué de rôle même en Rolex La vovo est russe comme la roulette Tu prends des nouvelles quand t'as besoin d'moi Si mon verre est vide, j'vais m'en remettre</t>
+          <t>Baille Broliker Productions J'ai pas joué un rôle qu'était pas l'mien, toi qui disais qu'j'irais pas loin J'ai goûté l'vrai biff, j'voulais sentir même le jasmin, la dounia m'a eu, j'crois bien Mai toujours c'gars simple, on est que d'passage Personne veut s'marier, bah ouais, y a qu'du cassage Tellement facile d'faire un facial, et si t'es plate, on te façonne T'façon, j'pense pas qu'on peut faire sans La clé d'ton cur, c'est un Facom si c'est pas chez moi, bah, j'fais comme J'aime les voitures qui viennent du pays d'Adolf Depuis qu'j'ai du biff, bah, j'trouv qu'on m'adore Fais pas d'dou'a pour que ça passe à Nador La luxur en veux-tu en voilà, Dubaï, de moins en moins d'voilées Mère au foyer qui garde la moula, c'est grâce à ça qu'elle a payé l'loyer La rose est fanée, l'addition reste salée Avant, j'attendais l'bus, maintenant, j'cherche le valet Presque millionnaire le p'tit que tu vannais vannais Le rap m'a donné tout c'qu'il fallait J'préfère ma ruelle que Bruel, pas d'variét' Grâce au mariage forcé, ouais, qu'on m'a vu naître Demain, j'arrête de t'aimer, pas la fumette Devenus bien meilleurs de c'qu'on aurait dû être Ça pue la rue, pas le jasmin Les années passent, ils font qu'on fasse le bien Sois pas la goutte si le vase est plein En vrai, j'sais même pas c'que j'vais être demain Ça pue la rue, pas le jasmin Les années passent, ils font qu'on fasse le bien Sois pas la goutte si le vase est plein En vrai, j'sais même pas c'que j'vais être demain J'ai pas joué de rôle même en Rolex La vovo est russe comme la roulette Tu prends des nouvelles quand t'as besoin d'moi Si mon verre est vide, j'vais m'en remettre J'ai pas joué de rôle même en Rolex La vovo est russe comme la roulette Tu prends des nouvelles quand t'as besoin d'moi Si mon verre est vide, j'vais m'en remettre J'rentrais bourré à l'heure où sortait l'furet T'as collé la p'tite, même ge-vier, tu l'as fourrée J'ai tonne-car la vie sans assurance Plus de bruit en gardant l'silence C'est pas censuré, le chant des sirènes Numéro d'écrou ou numéro d'SIRET Hornet La Frappe est du six mètres J'suis bien la fierté d'mon ciment Tu-tu vois, le monde n'est pas si grand J'vais t'apprendre à rembourser avant mille ans hein Mes disques de roro tiennent même plus sur la photo J'crois qu'pour tout mettre, il en faut deux Chez nous, c'est d'la chance de finir dans un fauteuil fauteuil Un été à Villepinte sans monoï sans monoï Récupère l'rrain-te comme au Monop' au Monop' Aux pookies qu'on desserre les menottes Ça pue la rue, pas le jasmin Les années passent, ils font qu'on fasse le bien Sois pas la goutte si le vase est plein En vrai, j'sais même pas c'que j'vais être demain Ça pue la rue, pas le jasmin Les années passent, ils font qu'on fasse le bien Sois pas la goutte si le vase est plein En vrai, j'sais même pas c'que j'vais être demain J'ai pas joué de rôle même en Rolex La vovo est russe comme la roulette Tu prends des nouvelles quand t'as besoin d'moi Si mon verre est vide, j'vais m'en remettre J'ai pas joué de rôle même en Rolex La vovo est russe comme la roulette Tu prends des nouvelles quand t'as besoin d'moi Si mon verre est vide, j'vais m'en remettre</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2278,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Hadouken Raconte pas trop ta vie aux gens T'façon, c'est plus comme avant Laisse-les s'enculer entre eux T'façon, les vrais sont pas nombreux Les loups s'repèrent à la lune Et les plus déter d'entre eux font la une Enfant d'la street et ses lacunes Kiffé par la blonde et la brune Le BBL, lui, va très bien pour attirer les rats Pour un peu de liquide, sugar daddy abuse des femmes Roule un six-feuilles, ce monde-là Je peux le voir seulement quand j'suis die T'as pas mon level, j'fais pas semblant d'être froid T'auras pas d'dédicace, t'es un fou qu'j'dois baiser Tu t'fais pousser des ailes quand tu viens taper l'rail Tri sélectif et le cur est apaisé Personne met la pression Je suis pas seul dans ma tête, je le sais Et j'accuse mon ex pour l'intrusion Tri sélectif et le cur est apaisé Personne met la pression Je suis pas seul dans ma tête, je le sais Et j'accuse mon ex pour l'intrusion You might also like Tout est jdid, tout est jdid Un peu blessé mais tout est jdid, tout est jdid J'donne plus d'nouvelles, j'crois qu'tout est dit, tout est dit Plus besoin d'parler, j'crois qu'tout est dit, tout est dit J'regarde plus derrière, j'leur mets des soufflettes, j'suis loin J'regarde plus derrière, j'leur mets des soufflettes, j'suis loin Alors qu'pour eux, de base, j'déplacerai des montagnes Un peu blessé mais tout est jdid, tout est jdid Temps additionnel, j'dois faire gagner l'équipe Deux fois plus sans répit, savent même pas les plans qu'j'élabore Veulent pas payer, veulent un chrome Respectez celui qui se lève pour charbonne Niquer des mères, c'est la crise Vont rien faire, à part donner leur avis en comm' Que j'attends qu'ils saignent J'ai gé-chat le Q7, j'ai déjà mis la gomme On va les mettre à l'amande La rue sent pas la lavande Y a plus d'bénef dans la vente À part si tu touches le prix du litron des dom-tom Les loups s'repèrent à la lune Et les plus déter d'entre eux font la une Enfant d'la street et ses lacunes Kiffé par la blonde et la brune Tout est jdid, tout est jdid Un peu blessé mais tout est jdid, tout est jdid J'donne plus d'nouvelles, j'crois qu'tout est dit, tout est dit Plus besoin d'parler, j'crois qu'tout est dit, tout est dit J'regarde plus derrière, j'leur mets des soufflettes, j'suis loin J'regarde plus derrière, j'leur mets des soufflettes, j'suis loin Alors qu'pour eux, de base, j'déplacerai des montagnes Un peu blessé mais tout est jdid, tout est jdid</t>
+          <t>Hadouken Raconte pas trop ta vie aux gens T'façon, c'est plus comme avant Laisse-les s'enculer entre eux T'façon, les vrais sont pas nombreux Les loups s'repèrent à la lune Et les plus déter d'entre eux font la une Enfant d'la street et ses lacunes Kiffé par la blonde et la brune Le BBL, lui, va très bien pour attirer les rats Pour un peu de liquide, sugar daddy abuse des femmes Roule un six-feuilles, ce monde-là Je peux le voir seulement quand j'suis die T'as pas mon level, j'fais pas semblant d'être froid T'auras pas d'dédicace, t'es un fou qu'j'dois baiser Tu t'fais pousser des ailes quand tu viens taper l'rail Tri sélectif et le cur est apaisé Personne met la pression Je suis pas seul dans ma tête, je le sais Et j'accuse mon ex pour l'intrusion Tri sélectif et le cur est apaisé Personne met la pression Je suis pas seul dans ma tête, je le sais Et j'accuse mon ex pour l'intrusion Tout est jdid, tout est jdid Un peu blessé mais tout est jdid, tout est jdid J'donne plus d'nouvelles, j'crois qu'tout est dit, tout est dit Plus besoin d'parler, j'crois qu'tout est dit, tout est dit J'regarde plus derrière, j'leur mets des soufflettes, j'suis loin J'regarde plus derrière, j'leur mets des soufflettes, j'suis loin Alors qu'pour eux, de base, j'déplacerai des montagnes Un peu blessé mais tout est jdid, tout est jdid Temps additionnel, j'dois faire gagner l'équipe Deux fois plus sans répit, savent même pas les plans qu'j'élabore Veulent pas payer, veulent un chrome Respectez celui qui se lève pour charbonne Niquer des mères, c'est la crise Vont rien faire, à part donner leur avis en comm' Que j'attends qu'ils saignent J'ai gé-chat le Q7, j'ai déjà mis la gomme On va les mettre à l'amande La rue sent pas la lavande Y a plus d'bénef dans la vente À part si tu touches le prix du litron des dom-tom Les loups s'repèrent à la lune Et les plus déter d'entre eux font la une Enfant d'la street et ses lacunes Kiffé par la blonde et la brune Tout est jdid, tout est jdid Un peu blessé mais tout est jdid, tout est jdid J'donne plus d'nouvelles, j'crois qu'tout est dit, tout est dit Plus besoin d'parler, j'crois qu'tout est dit, tout est dit J'regarde plus derrière, j'leur mets des soufflettes, j'suis loin J'regarde plus derrière, j'leur mets des soufflettes, j'suis loin Alors qu'pour eux, de base, j'déplacerai des montagnes Un peu blessé mais tout est jdid, tout est jdid</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2295,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Exi Marcelino Billets couleur Kawasaki, course poursuite, Yamakasi Des fois, pour rien, dahwa, ça tire, quand j'suis khabat, là tu m'attires Et comme la rue, tu m'fais du charme Toi, t'es trop fraîche, tu d'vrais t'faire un compte OnlyFans, ouais, ouais Billets couleur Kawasaki, course poursuite, Yamakasi Des fois, pour rien, dahwa, ça tire, quand j'suis khabat, là tu m'attires Et comme la rue, tu m'fais du charme Toi, t'es trop fraîche, tu d'vrais t'faire un compte OnlyFans, ouais, ouais J'vais pas t'flatter dans l'sens du poil, jeunesse du rap, j'suis pas poète Cur dur comme la white, tombé d'dans comme Mickey Cohen La ss-lia est balaise, dernièr collection Louis Vui' Grandi sur un T-Max, j'te fais en pleine après-midi La routine dans le bloc Trois fois filtré fait pas grossir Souvent ceux qu't'aimes ceux qui déconnent, j'ai un date qui va m'adoucir J'vais découper comme Gattuso ou bien les Yakuza Showcase j'ramène tout l'zoo, t'façon, j'suis là pour ça You might also like Billets couleur Kawasaki, course poursuite, Yamakasi Des fois, pour rien, dahwa, ça tire, quand j'suis khabat, là tu m'attires Et comme la rue, tu m'fais du charme Toi, t'es trop fraîche, tu d'vrais t'faire un compte OnlyFans, ouais, ouais Billets couleur Kawasaki, course poursuite, Yamakasi Des fois, pour rien, dahwa, ça tire, quand j'suis khabat, là tu m'attires Et comme la rue, tu m'fais du charme Toi, t'es trop fraîche, tu d'vrais t'faire un compte OnlyFans, ouais, ouais Comme une envie d'être loin d'ici, ce soir, j'finis au Babinski La SACEM, j'la réinvestis, y a qu'les vrais qu'on apprécie J'te jette ma puce, t'auras du bénéf' Bénéf' J'suis avec ma mmh, elle veut d'la Belvé' Oh-oh Cheval cabré en i sur l'gamos Ouh-ouh J'récup' des affaires tout droit d'chez les chicanos Affaires À deux doigts d'plonger, mandât d'dépôt, les condés Tu parles la langue d'à-côté, c'est vrai qu'la miss est chargée Oh-oh-oh Billets couleur Kawasaki, course poursuite, Yamakasi Des fois, pour rien, dahwa, ça tire, quand j'suis khabat, là tu m'attires Et comme la rue, tu m'fais du charme Toi, t'es trop fraîche, tu d'vrais t'faire un compte OnlyFans, ouais, ouais Billets couleur Kawasaki, course poursuite, Yamakasi Des fois, pour rien, dahwa, ça tire, quand j'suis khabat, là tu m'attires Et comme la rue, tu m'fais du charme Toi, t'es trop fraîche, tu d'vrais t'faire un compte OnlyFans, ouais, ouais Ouh-ouh</t>
+          <t>Exi Marcelino Billets couleur Kawasaki, course poursuite, Yamakasi Des fois, pour rien, dahwa, ça tire, quand j'suis khabat, là tu m'attires Et comme la rue, tu m'fais du charme Toi, t'es trop fraîche, tu d'vrais t'faire un compte OnlyFans, ouais, ouais Billets couleur Kawasaki, course poursuite, Yamakasi Des fois, pour rien, dahwa, ça tire, quand j'suis khabat, là tu m'attires Et comme la rue, tu m'fais du charme Toi, t'es trop fraîche, tu d'vrais t'faire un compte OnlyFans, ouais, ouais J'vais pas t'flatter dans l'sens du poil, jeunesse du rap, j'suis pas poète Cur dur comme la white, tombé d'dans comme Mickey Cohen La ss-lia est balaise, dernièr collection Louis Vui' Grandi sur un T-Max, j'te fais en pleine après-midi La routine dans le bloc Trois fois filtré fait pas grossir Souvent ceux qu't'aimes ceux qui déconnent, j'ai un date qui va m'adoucir J'vais découper comme Gattuso ou bien les Yakuza Showcase j'ramène tout l'zoo, t'façon, j'suis là pour ça Billets couleur Kawasaki, course poursuite, Yamakasi Des fois, pour rien, dahwa, ça tire, quand j'suis khabat, là tu m'attires Et comme la rue, tu m'fais du charme Toi, t'es trop fraîche, tu d'vrais t'faire un compte OnlyFans, ouais, ouais Billets couleur Kawasaki, course poursuite, Yamakasi Des fois, pour rien, dahwa, ça tire, quand j'suis khabat, là tu m'attires Et comme la rue, tu m'fais du charme Toi, t'es trop fraîche, tu d'vrais t'faire un compte OnlyFans, ouais, ouais Comme une envie d'être loin d'ici, ce soir, j'finis au Babinski La SACEM, j'la réinvestis, y a qu'les vrais qu'on apprécie J'te jette ma puce, t'auras du bénéf' Bénéf' J'suis avec ma mmh, elle veut d'la Belvé' Oh-oh Cheval cabré en i sur l'gamos Ouh-ouh J'récup' des affaires tout droit d'chez les chicanos Affaires À deux doigts d'plonger, mandât d'dépôt, les condés Tu parles la langue d'à-côté, c'est vrai qu'la miss est chargée Oh-oh-oh Billets couleur Kawasaki, course poursuite, Yamakasi Des fois, pour rien, dahwa, ça tire, quand j'suis khabat, là tu m'attires Et comme la rue, tu m'fais du charme Toi, t'es trop fraîche, tu d'vrais t'faire un compte OnlyFans, ouais, ouais Billets couleur Kawasaki, course poursuite, Yamakasi Des fois, pour rien, dahwa, ça tire, quand j'suis khabat, là tu m'attires Et comme la rue, tu m'fais du charme Toi, t'es trop fraîche, tu d'vrais t'faire un compte OnlyFans, ouais, ouais Ouh-ouh</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2312,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ma 7edd rwayed taydouro, taybanouli sardine B7al Dolce Gabbana, la3eb l9oddam Zidane Zineddine Ana moul chi Elissa, 3afak Khouya sekkernak n3esti, fe9ti l9iti fik dick Kbar bezzaf ntouma sghar, kbir 3likom had le3b F bezzoult mok melli kounti 3add Zbet wesst derb Galihom, lbab kayt7ell kollo ta3 derb Trafique w f zen9a khoufi khellak wast dar Une idée, Ketama malaga c'est validé La kenna tanbanou fel fanidi, facchino bach tchouf chghal ki dayer Chghal ki dayer, f jacuzzi tanberber, 3lach fikom had 3la jalousie Nzerbou 3lik ki zerbou 3la Sarkozy, 3afakom 3aytouli 3la ba lwzir Drift kmaya tassa w safi, mais je sais ana ach kandir f ma vie Ga3 ma l9itha wajda kbert gha bel khobza l7afi, Tflow ga3 l3alam 7ar fih Tflow , kayt9aren m3aya w howa gha 7moussa f la soupe T9il fihom , nikinak yallah call the cops Nari nari nari nari, j'ai coffré l'bénéf' sous l'seddari Nari nari nari nari, j'ai vndu d'la drogue à tout Bériz Nari nari nari nari, j'ai coffré l'bénéf' sous l'seddari Nari nari nari nari, j'ai représenté oulad bladi You might also like J'ai la frappe de Ketama, j'ai la frappe de Ketama J'ai la frappe de Ketama, j'ai la frappe de Ketama J'ai plus l'temps d'dealer, plus l'temps d'dealer, je la touche indirecte, touche indirecte J'ai plus l'temps d'dealer, plus l'temps d'dealer, je la touche indirecte, touche indirecte J'ai pété l'contact qui va relancer la tess J'ai pété l'contact et je donnerai pas l'adresse J'ai toujours les crocs, parle-moi pas en litrons Minimum la nne-to coffrée dans un Vitto Ppe-fra, bang, j'ai des vrais gars à moi qui purgent des longues peines Le terrain d'en face n'a pas la ppe-f', faudrait qu'ils comprennent Personne m'a rien poussé quand j'étais en panne Poto, t'es khené, j'crois qu't'as fait ton time Y a des tonnes sous scellées, à la fin, faudra assumer, la guardia, faudra la semer Au péage, ça sent la sueur, le pilote n'est pas d'humeur, 200 kilomètres, ça les tape en moins d'une heure Audi RS3, j'suis dans l'roc-Ma, j'ai pris des risques, maman, je rentre pas Je roule sans collage, p'tit charbonneur frappe le sac de moula pour goûter au bonheur, ppe-fra Nari nari nari nari, j'ai coffré l'bénéf' sous l'seddari Nari nari nari nari, j'ai vendu d'la drogue à tout Bériz Nari nari nari nari, j'ai coffré l'bénéf' sous l'seddari Nari nari nari nari, j'ai représenté oulad bladi J'ai la frappe de Ketama, j'ai la frappe de Ketama J'ai la frappe de Ketama, j'ai la frappe de Ketama J'ai plus l'temps d'dealer, plus l'temps d'dealer, je la touche indirecte, touche indirecte J'ai plus l'temps d'dealer, plus l'temps d'dealer, je la touche indirecte, touche indirecte J'ai la frappe de Ketama, j'ai la frappe de Ketama J'ai la frappe de Ketama, j'ai la frappe de Ketama J'ai plus l'temps d'dealer, plus l'temps d'dealer, je la touche indirecte, touche indirecte J'ai plus l'temps d'dealer, plus l'temps d'dealer, je la touche indirecte, touche indirecte</t>
+          <t>Ma 7edd rwayed taydouro, taybanouli sardine B7al Dolce Gabbana, la3eb l9oddam Zidane Zineddine Ana moul chi Elissa, 3afak Khouya sekkernak n3esti, fe9ti l9iti fik dick Kbar bezzaf ntouma sghar, kbir 3likom had le3b F bezzoult mok melli kounti 3add Zbet wesst derb Galihom, lbab kayt7ell kollo ta3 derb Trafique w f zen9a khoufi khellak wast dar Une idée, Ketama malaga c'est validé La kenna tanbanou fel fanidi, facchino bach tchouf chghal ki dayer Chghal ki dayer, f jacuzzi tanberber, 3lach fikom had 3la jalousie Nzerbou 3lik ki zerbou 3la Sarkozy, 3afakom 3aytouli 3la ba lwzir Drift kmaya tassa w safi, mais je sais ana ach kandir f ma vie Ga3 ma l9itha wajda kbert gha bel khobza l7afi, Tflow ga3 l3alam 7ar fih Tflow , kayt9aren m3aya w howa gha 7moussa f la soupe T9il fihom , nikinak yallah call the cops Nari nari nari nari, j'ai coffré l'bénéf' sous l'seddari Nari nari nari nari, j'ai vndu d'la drogue à tout Bériz Nari nari nari nari, j'ai coffré l'bénéf' sous l'seddari Nari nari nari nari, j'ai représenté oulad bladi J'ai la frappe de Ketama, j'ai la frappe de Ketama J'ai la frappe de Ketama, j'ai la frappe de Ketama J'ai plus l'temps d'dealer, plus l'temps d'dealer, je la touche indirecte, touche indirecte J'ai plus l'temps d'dealer, plus l'temps d'dealer, je la touche indirecte, touche indirecte J'ai pété l'contact qui va relancer la tess J'ai pété l'contact et je donnerai pas l'adresse J'ai toujours les crocs, parle-moi pas en litrons Minimum la nne-to coffrée dans un Vitto Ppe-fra, bang, j'ai des vrais gars à moi qui purgent des longues peines Le terrain d'en face n'a pas la ppe-f', faudrait qu'ils comprennent Personne m'a rien poussé quand j'étais en panne Poto, t'es khené, j'crois qu't'as fait ton time Y a des tonnes sous scellées, à la fin, faudra assumer, la guardia, faudra la semer Au péage, ça sent la sueur, le pilote n'est pas d'humeur, 200 kilomètres, ça les tape en moins d'une heure Audi RS3, j'suis dans l'roc-Ma, j'ai pris des risques, maman, je rentre pas Je roule sans collage, p'tit charbonneur frappe le sac de moula pour goûter au bonheur, ppe-fra Nari nari nari nari, j'ai coffré l'bénéf' sous l'seddari Nari nari nari nari, j'ai vendu d'la drogue à tout Bériz Nari nari nari nari, j'ai coffré l'bénéf' sous l'seddari Nari nari nari nari, j'ai représenté oulad bladi J'ai la frappe de Ketama, j'ai la frappe de Ketama J'ai la frappe de Ketama, j'ai la frappe de Ketama J'ai plus l'temps d'dealer, plus l'temps d'dealer, je la touche indirecte, touche indirecte J'ai plus l'temps d'dealer, plus l'temps d'dealer, je la touche indirecte, touche indirecte J'ai la frappe de Ketama, j'ai la frappe de Ketama J'ai la frappe de Ketama, j'ai la frappe de Ketama J'ai plus l'temps d'dealer, plus l'temps d'dealer, je la touche indirecte, touche indirecte J'ai plus l'temps d'dealer, plus l'temps d'dealer, je la touche indirecte, touche indirecte</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2329,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Yeah, hein J'ai commencé seul, dans ma MJC, prod' sur MPC J'représente l'équipe, y a pas d'biff, fallait cotiser Jamais faire semblant, y aura des dents cassées Quand on s'déplaçait, guerre d'cités J'crois qu'c'est contagieux, le seum qu'on avait Tu m'connais pas, gros, j'te l'ai pas dit Demande à l'équipe, j'ai jamais rappé pour l'magot Kegré, on est 13, on est prêts, on est vaillants Y a ceux qui négligent, t'façon, ouais, on est plus qu'eux Aujourd'hui, j'leur mets des soufflettes, faut pas qu't'oublies P'tit, c'est dans la tête, t'es pas qu'une caille-ra juste en survêt' Diamant brut, c'est bien l'vécu qui parle, fallait mettre lucarne Qui je crains à part le Créateur qui bonifie nos âmes ? Vie d'galère, ouais la rue, pour ma rue, j'ai d'l'amour Tout l'secteur dans mon cur mais je crois qu'j'ai fait l'tour Vie d'galère, ouais la rue, pour ma rue, j'ai d'l'amour Tout l'secteur dans mon cur mais je crois qu'j'ai fait l'tour Ppe-Fra You might also like Viens donc vivre nos vies de lossa On a le charme, la rue, demande à Rosa Ça fume la peuf et les condés m'ont rodave J'me casse d'ici, on s'pète à Meuda Mais tout ça, on l'savait Mais tout ça, on l'savait, mon kho Mais tout ça, on l'savait Mais quelle époque Mais tout ça, on l'savait Mais quelle époque, fallait qu'j'te l'rappelle, la lune au bout d'l'index J'ai le truc, j'suis même chez RedBull, j'crois bien qu'c'est la routine Tu sais bien qu'on n'est pas v'nu au pif, tu sais bien qu'on n'est pas v'nu au pif J'ai pas été élevé pour fuir, fallait qu'on saffirme, laisse-nous faire nos affaires La roche ou l'saphir, faire gonfler la SACEM, on sait l'faire Toujours le même, aucun membre d'l'équipe que j'mettrai sur l'côté Mes amitiés sont d'l'antiquité, t'auras beau critiquer Fallait manger, gros, faut plus 10 balles Qu'est-ce tu veux qu'je perde mon temps ? Bloqué dans mon agenda Quand je compte, c'est pas en baht, en silence qu'on parle en plaques J'me déplace avec le p'tit reuf', on l'attaque, hein La jolie dame matte un joli corps, faut pas qu'je dorme, faut bien qu'je la torde Le Audi Cup était haut de gamme, j'vais rester calme juste en bas du bât' Viens donc vivre nos vies de lossa On a le charme, la rue, demande à Rosa Ça fume la peuf et les condés m'ont rodave J'me casse d'ici, on s'pète à Meuda Mais tout ça, on l'savait Mais tout ça, on l'savait mon kho Mais tout ça, on l'savait Mais tout ça, on l'savait</t>
+          <t>Yeah, hein J'ai commencé seul, dans ma MJC, prod' sur MPC J'représente l'équipe, y a pas d'biff, fallait cotiser Jamais faire semblant, y aura des dents cassées Quand on s'déplaçait, guerre d'cités J'crois qu'c'est contagieux, le seum qu'on avait Tu m'connais pas, gros, j'te l'ai pas dit Demande à l'équipe, j'ai jamais rappé pour l'magot Kegré, on est 13, on est prêts, on est vaillants Y a ceux qui négligent, t'façon, ouais, on est plus qu'eux Aujourd'hui, j'leur mets des soufflettes, faut pas qu't'oublies P'tit, c'est dans la tête, t'es pas qu'une caille-ra juste en survêt' Diamant brut, c'est bien l'vécu qui parle, fallait mettre lucarne Qui je crains à part le Créateur qui bonifie nos âmes ? Vie d'galère, ouais la rue, pour ma rue, j'ai d'l'amour Tout l'secteur dans mon cur mais je crois qu'j'ai fait l'tour Vie d'galère, ouais la rue, pour ma rue, j'ai d'l'amour Tout l'secteur dans mon cur mais je crois qu'j'ai fait l'tour Ppe-Fra Viens donc vivre nos vies de lossa On a le charme, la rue, demande à Rosa Ça fume la peuf et les condés m'ont rodave J'me casse d'ici, on s'pète à Meuda Mais tout ça, on l'savait Mais tout ça, on l'savait, mon kho Mais tout ça, on l'savait Mais quelle époque Mais tout ça, on l'savait Mais quelle époque, fallait qu'j'te l'rappelle, la lune au bout d'l'index J'ai le truc, j'suis même chez RedBull, j'crois bien qu'c'est la routine Tu sais bien qu'on n'est pas v'nu au pif, tu sais bien qu'on n'est pas v'nu au pif J'ai pas été élevé pour fuir, fallait qu'on saffirme, laisse-nous faire nos affaires La roche ou l'saphir, faire gonfler la SACEM, on sait l'faire Toujours le même, aucun membre d'l'équipe que j'mettrai sur l'côté Mes amitiés sont d'l'antiquité, t'auras beau critiquer Fallait manger, gros, faut plus 10 balles Qu'est-ce tu veux qu'je perde mon temps ? Bloqué dans mon agenda Quand je compte, c'est pas en baht, en silence qu'on parle en plaques J'me déplace avec le p'tit reuf', on l'attaque, hein La jolie dame matte un joli corps, faut pas qu'je dorme, faut bien qu'je la torde Le Audi Cup était haut de gamme, j'vais rester calme juste en bas du bât' Viens donc vivre nos vies de lossa On a le charme, la rue, demande à Rosa Ça fume la peuf et les condés m'ont rodave J'me casse d'ici, on s'pète à Meuda Mais tout ça, on l'savait Mais tout ça, on l'savait mon kho Mais tout ça, on l'savait Mais tout ça, on l'savait</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2346,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Baille Broliker Productions Dans ma tête, c'est le chaos, dans ma tête, c'est le chaos Y a quelqu'chose qui tourne pas rond et c'est toujours la même qu'hier Dans ma tête, c'est le chaos, dans ma tête, c'est le chaos Y a quelqu'chose qui tourne pas rond et c'est toujours la même qu'hier J'prends sur moi mais j'vais plus tenir, les faux amis marchent par intérêt Ils sont là que pour ma paye donc j'réponds plus quand ils m'appellent T'es trop belle pour être fidèle, j'vais finir seul J'roule ma peine dans ma feuille et je les ken Ce monde est faux, ça m'a vénère, j'ai d'la peine, j'vide la 'teille comme un dingue Dans ma tête, c'est le chaos, dans ma tête, c'est le chaos Y a quelqu'chose qui tourne pas rond et c'est toujours la même qu'hier Dans ma tête, c'est le chaos, dans ma tête, c'est le chaos Y a quelqu'chose qui tourne pas rond et c'est toujours la même qu'hier À chaque décision qu'j'prends, moi, je frôle la mort, je bosse dans le calme, j'reste un hors-la-loi Le passé, j'vais l'abattre, sauter des étapes, j'irai jamais en cage, personne me remplace Ici, je respecterai que l'daron, j'reviens de loin mais j'ai un tour d'avance J'suis pas seul, j'suis suivi d'tout là-haut, si seulement j'voyais la vie en rose Tu crois qu'on restera dans l'quartier ? On va chercher l'or avec l'assiette Le lendemain, je serai meilleur, avant qu'la Faucheuse vienne me chercher You might also like On a connu la paille Juste un million, j'me calme On a connu la paille Juste un million, j'me taille Dans ma tête, c'est le chaos, dans ma tête, c'est le chaos Y a quelqu'chose qui tourne pas rond et c'est toujours la même qu'hier Dans ma tête, c'est le chaos, dans ma tête, c'est le chaos Y a quelqu'chose qui tourne pas rond et c'est toujours la même qu'hier</t>
+          <t>Baille Broliker Productions Dans ma tête, c'est le chaos, dans ma tête, c'est le chaos Y a quelqu'chose qui tourne pas rond et c'est toujours la même qu'hier Dans ma tête, c'est le chaos, dans ma tête, c'est le chaos Y a quelqu'chose qui tourne pas rond et c'est toujours la même qu'hier J'prends sur moi mais j'vais plus tenir, les faux amis marchent par intérêt Ils sont là que pour ma paye donc j'réponds plus quand ils m'appellent T'es trop belle pour être fidèle, j'vais finir seul J'roule ma peine dans ma feuille et je les ken Ce monde est faux, ça m'a vénère, j'ai d'la peine, j'vide la 'teille comme un dingue Dans ma tête, c'est le chaos, dans ma tête, c'est le chaos Y a quelqu'chose qui tourne pas rond et c'est toujours la même qu'hier Dans ma tête, c'est le chaos, dans ma tête, c'est le chaos Y a quelqu'chose qui tourne pas rond et c'est toujours la même qu'hier À chaque décision qu'j'prends, moi, je frôle la mort, je bosse dans le calme, j'reste un hors-la-loi Le passé, j'vais l'abattre, sauter des étapes, j'irai jamais en cage, personne me remplace Ici, je respecterai que l'daron, j'reviens de loin mais j'ai un tour d'avance J'suis pas seul, j'suis suivi d'tout là-haut, si seulement j'voyais la vie en rose Tu crois qu'on restera dans l'quartier ? On va chercher l'or avec l'assiette Le lendemain, je serai meilleur, avant qu'la Faucheuse vienne me chercher On a connu la paille Juste un million, j'me calme On a connu la paille Juste un million, j'me taille Dans ma tête, c'est le chaos, dans ma tête, c'est le chaos Y a quelqu'chose qui tourne pas rond et c'est toujours la même qu'hier Dans ma tête, c'est le chaos, dans ma tête, c'est le chaos Y a quelqu'chose qui tourne pas rond et c'est toujours la même qu'hier</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2363,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Hein ? Ah, ah, ah, ah Calibré, p'tit jeune Ah, ah Calibré, p'tit jeune Calibré, p'tit jeune, j'voulais des gros chiffres, touche pas l'teum ou j'te mets des grosses giffles Je sais qui dépannait quand j'avais pas un dans l'jean, je sais qui m'aime, pour le reste, j'suis tranquille J'régale, j'mets l'prix, carré VIP, ramenez-moi tout c'qui brille Grosse kich', parlez-moi pas d'coti', j'ai qu'une équipe comme Francesco Tutti Holà chica cómo estás? Que d'la peugeuf, elles veulent des dédicaces J'me brise le cou, j'regarde que des cavus, celle en legging, elle est gang, est-ce que t'as vu ? Sapé comme à Kinshasa, comme à Kinshasa, j'ai ma kichta là, j'ai ma kichta là Ne raconte pas tes salades, j'ai que des skalapes, s'appellent toutes Sarah, gentilles incha'Allah J'suis pas née pour dépanner, tu n'fais que parler, parler Quand la facture est salée, personne pour donner, donner J'suis pas née pour dépanner, tu n'fais que parler, parler Quand la facture est salée, j'régale C'est la big mif, c'est la big mif, c'est la big mif, c'est la big mif Ouais, c'est la big mif, c'est la big mif, c'est la big mif, c'est la big mif Ouais, c'est la big mif, c'est la big mif, c'est la big mif, c'est la big mif Ouais, c'est la big mif, c'est la big mif, c'est la big mif, c'est la big mif Ouais, c'est la big mif You might also like Moi sans ma team, imagine, que du plata et platine Moi sans ma team, imagine, Zaho, La Peuf, c'est magique, yeah J'suis au volant du dernier bolide, on arrive, l'équipe est solide J'prends les paris, j'mets all in, normal, c'est la big mif Té-ma les stories, la folie, ce soir, appelle-moi Bonnie J'fais des stricks comme au bowling, normal, on fait la diff' Tu ne tiens plus debout, t'es quillé, amigo qué pasa ? Les vigils et les gos t'ont grillé, nashave Sapé comme à Kinshasa, comme à Kinshasa, j'ai ma kichta là, j'ai ma kichta là Ne raconte pas tes salades, j'ai que des skalapes, s'appellent toutes Sarah, gentilles incha'Allah J'suis pas née pour dépanner, tu n'fais que parler, parler Quand la facture est salée, personne pour donner, donner J'suis pas née pour dépanner, tu n'fais que parler, parler Quand la facture est salée, j'régale C'est la big mif, c'est la big mif, c'est la big mif, c'est la big mif Ouais, c'est la big mif, c'est la big mif, c'est la big mif, c'est la big mif Ouais, c'est la big mif, c'est la big mif, c'est la big mif, c'est la big mif Ouais, c'est la big mif, c'est la big mif, c'est la big mif, c'est la big mif Ouais, c'est la big mif Moi sans ma team, imagine, que du plata et platine Moi sans ma team, imagine, Zaho, La Peuf, c'est magique, yeah J'suis pas née pour dépanner, tu n'fais que parler, parler Quand la facture est salée, c'est la big mif J'suis pas née pour dépanner, tu n'fais que parler, parler Quand la facture est salée, j'régale C'est la big mif</t>
+          <t>Hein ? Ah, ah, ah, ah Calibré, p'tit jeune Ah, ah Calibré, p'tit jeune Calibré, p'tit jeune, j'voulais des gros chiffres, touche pas l'teum ou j'te mets des grosses giffles Je sais qui dépannait quand j'avais pas un dans l'jean, je sais qui m'aime, pour le reste, j'suis tranquille J'régale, j'mets l'prix, carré VIP, ramenez-moi tout c'qui brille Grosse kich', parlez-moi pas d'coti', j'ai qu'une équipe comme Francesco Tutti Holà chica cómo estás? Que d'la peugeuf, elles veulent des dédicaces J'me brise le cou, j'regarde que des cavus, celle en legging, elle est gang, est-ce que t'as vu ? Sapé comme à Kinshasa, comme à Kinshasa, j'ai ma kichta là, j'ai ma kichta là Ne raconte pas tes salades, j'ai que des skalapes, s'appellent toutes Sarah, gentilles incha'Allah J'suis pas née pour dépanner, tu n'fais que parler, parler Quand la facture est salée, personne pour donner, donner J'suis pas née pour dépanner, tu n'fais que parler, parler Quand la facture est salée, j'régale C'est la big mif, c'est la big mif, c'est la big mif, c'est la big mif Ouais, c'est la big mif, c'est la big mif, c'est la big mif, c'est la big mif Ouais, c'est la big mif, c'est la big mif, c'est la big mif, c'est la big mif Ouais, c'est la big mif, c'est la big mif, c'est la big mif, c'est la big mif Ouais, c'est la big mif Moi sans ma team, imagine, que du plata et platine Moi sans ma team, imagine, Zaho, La Peuf, c'est magique, yeah J'suis au volant du dernier bolide, on arrive, l'équipe est solide J'prends les paris, j'mets all in, normal, c'est la big mif Té-ma les stories, la folie, ce soir, appelle-moi Bonnie J'fais des stricks comme au bowling, normal, on fait la diff' Tu ne tiens plus debout, t'es quillé, amigo qué pasa ? Les vigils et les gos t'ont grillé, nashave Sapé comme à Kinshasa, comme à Kinshasa, j'ai ma kichta là, j'ai ma kichta là Ne raconte pas tes salades, j'ai que des skalapes, s'appellent toutes Sarah, gentilles incha'Allah J'suis pas née pour dépanner, tu n'fais que parler, parler Quand la facture est salée, personne pour donner, donner J'suis pas née pour dépanner, tu n'fais que parler, parler Quand la facture est salée, j'régale C'est la big mif, c'est la big mif, c'est la big mif, c'est la big mif Ouais, c'est la big mif, c'est la big mif, c'est la big mif, c'est la big mif Ouais, c'est la big mif, c'est la big mif, c'est la big mif, c'est la big mif Ouais, c'est la big mif, c'est la big mif, c'est la big mif, c'est la big mif Ouais, c'est la big mif Moi sans ma team, imagine, que du plata et platine Moi sans ma team, imagine, Zaho, La Peuf, c'est magique, yeah J'suis pas née pour dépanner, tu n'fais que parler, parler Quand la facture est salée, c'est la big mif J'suis pas née pour dépanner, tu n'fais que parler, parler Quand la facture est salée, j'régale C'est la big mif</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2380,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>9.3, pas de balance, vacances à toi et tous tes shabs 9.3, si tu balances, phalange pée-cou à la cisa' Laissez place, on a la recette, la lune est pleine, fils de loup Tiens ta go pendant qu'elle accouche, qu'elle accouche d'un fils de nous Je persévère, j'te fouette le derrière comme un père sévère ou un proxénète Déter' sa mère pour un gros salaire, on déterre ton père qui rembourse tes dettes Toute la Terre va à Budapest, quitta ma Terre de toute manière Juste ma rue baise toute ta tess, pour un cul devant, tu retournes ta veste Faut maîtrise la guerre gentiment, on te nique ta mère sans sentiment HLM, galère, pâtes au gruyère, c'est la hess, c'est l'Afrique comme mon continent Je les termine, vermine, salat janaza, Amin 9.3 maîtrise les armes mais les noirs et les arabes en guerre Surette, souhaite-moi une bonne année, déter' et affamé La rue va s'enflammer, c'est pesé et emballé La frappe arrive sur ris-Pa, la frappe arrive sur ris-Pa Surette, souhaite-moi une bonne année, déter' et affamé La rue va s'enflammer, c'est pesé et emballé La frappe arrive sur ris-Pa, la frappe arrive sur ris-Pa La frappe, ça sent l'avenir, on débarque avec un sourire Voir les sous, les soucis venir, rester pauvre et s'en souvenir Oui, t'inquiète, on va tout raser, taille des pipes à vous, ah ouais ? Ne joue pas à l'aigle royal si tu t'confies au poulailler You might also like La frappe, ça sent l'avenir, on débarque avec un sourire Voir les sous, les soucis venir, rester pauvre et s'en souvenir Oui, t'inquiète, on va tout raser, taille des pipes à vous, ah ouais ? Ne joue pas à l'aigle royal si tu t'confies au poulailler Ton rap de merde passe en radio, notre rap de guerre te casse le bras Ça parle de beuh, ça parle d'héro' mais tu fumes la frappe juste à Meuda T'es pas ma femme si t'es trop bonne et mon ennemi voudra te baiser Et si tu craques, tu me feras couler, j'suis aussi vrai qu'un sapeur congolais Surette, souhaite-moi une bonne année, déter' et affamé La rue va s'enflammer, c'est pesé et emballé La frappe arrive sur ris-Pa, la frappe arrive sur ris-Pa Surette, souhaite-moi une bonne année, déter' et affamé La rue va s'enflammer, c'est pesé et emballé La frappe arrive sur ris-Pa, la frappe arrive sur ris-Pa Surette, souhaite-moi une bonne année, déter' et affamé La rue va s'enflammer, c'est pesé et emballé La frappe arrive sur ris-Pa, la frappe arrive sur ris-Pa</t>
+          <t>9.3, pas de balance, vacances à toi et tous tes shabs 9.3, si tu balances, phalange pée-cou à la cisa' Laissez place, on a la recette, la lune est pleine, fils de loup Tiens ta go pendant qu'elle accouche, qu'elle accouche d'un fils de nous Je persévère, j'te fouette le derrière comme un père sévère ou un proxénète Déter' sa mère pour un gros salaire, on déterre ton père qui rembourse tes dettes Toute la Terre va à Budapest, quitta ma Terre de toute manière Juste ma rue baise toute ta tess, pour un cul devant, tu retournes ta veste Faut maîtrise la guerre gentiment, on te nique ta mère sans sentiment HLM, galère, pâtes au gruyère, c'est la hess, c'est l'Afrique comme mon continent Je les termine, vermine, salat janaza, Amin 9.3 maîtrise les armes mais les noirs et les arabes en guerre Surette, souhaite-moi une bonne année, déter' et affamé La rue va s'enflammer, c'est pesé et emballé La frappe arrive sur ris-Pa, la frappe arrive sur ris-Pa Surette, souhaite-moi une bonne année, déter' et affamé La rue va s'enflammer, c'est pesé et emballé La frappe arrive sur ris-Pa, la frappe arrive sur ris-Pa La frappe, ça sent l'avenir, on débarque avec un sourire Voir les sous, les soucis venir, rester pauvre et s'en souvenir Oui, t'inquiète, on va tout raser, taille des pipes à vous, ah ouais ? Ne joue pas à l'aigle royal si tu t'confies au poulailler La frappe, ça sent l'avenir, on débarque avec un sourire Voir les sous, les soucis venir, rester pauvre et s'en souvenir Oui, t'inquiète, on va tout raser, taille des pipes à vous, ah ouais ? Ne joue pas à l'aigle royal si tu t'confies au poulailler Ton rap de merde passe en radio, notre rap de guerre te casse le bras Ça parle de beuh, ça parle d'héro' mais tu fumes la frappe juste à Meuda T'es pas ma femme si t'es trop bonne et mon ennemi voudra te baiser Et si tu craques, tu me feras couler, j'suis aussi vrai qu'un sapeur congolais Surette, souhaite-moi une bonne année, déter' et affamé La rue va s'enflammer, c'est pesé et emballé La frappe arrive sur ris-Pa, la frappe arrive sur ris-Pa Surette, souhaite-moi une bonne année, déter' et affamé La rue va s'enflammer, c'est pesé et emballé La frappe arrive sur ris-Pa, la frappe arrive sur ris-Pa Surette, souhaite-moi une bonne année, déter' et affamé La rue va s'enflammer, c'est pesé et emballé La frappe arrive sur ris-Pa, la frappe arrive sur ris-Pa</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2397,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Boulette sur le Balmain, j'traîne trop vers ici J'attends mon heure depuis gamin, charbonne sans répit Deux-trois places, deux chromes sur l'calepin, plus d'confiance, j'vérifie Tu fais bosser deux-trois tapins, fais pas l'gangster ici Sièges chauffants, on a misé l'confort, les autres sont pas contents J'les comprends, ils veulent croquer nos plans, mama s'inquiète autant Comment veux-tu que je reste quille-tran ? La misère qui m'étrangle Vêtu de noir, j'revendais la blanche, fallait s'remplir la panse Tu veux du sale ? Viens m'voir en vrai, lalalala Mélo' du cur te fait vibrer, lalalala La médicale fait méditer, lalalala J'crois qu'c'est vital de s'éviter, lalalala Tu veux du sale ? Viens m'voir en vrai, lalalala Mélo' du cur te fait vibrer, lalalala La médicale fait méditer, lalalala J'crois qu'c'est vital de s'éviter, lalalala J'crois qu'c'est vital de s'éviter, la médicale everyday, faut qu'j'enchaîne des semaines à 10K Pas d'pénurie, j'ravitaille, leur faire confiance, mauvaise idée, mon dos se tourne et v'là qu'ils parlent Les plus maigres sont calibrés, quantité comme qualité mais pour grimper, j'fais pas l'Ciro, on va t'laisser sans chicot Tu t'sens chaud sous Jack au frais, mon bénéfice est d'jà coffré, si j'fais la plonge, j'monte pas la pente Dis pas que j'me la raconte, comme le million, j'sais m'faire attendre You might also like Tu veux du sale ? Viens m'voir en vrai, lalalala Mélo' du cur te fait vibrer, lalalala La médicale fait méditer, lalalala J'crois qu'c'est vital de s'éviter, lalalala Tu veux du sale ? Viens m'voir en vrai, lalalala Mélo' du cur te fait vibrer, lalalala La médicale fait méditer, lalalala J'crois qu'c'est vital de s'éviter, lalalala Lalalala Lalalala Lalalala Lalalala</t>
+          <t>Boulette sur le Balmain, j'traîne trop vers ici J'attends mon heure depuis gamin, charbonne sans répit Deux-trois places, deux chromes sur l'calepin, plus d'confiance, j'vérifie Tu fais bosser deux-trois tapins, fais pas l'gangster ici Sièges chauffants, on a misé l'confort, les autres sont pas contents J'les comprends, ils veulent croquer nos plans, mama s'inquiète autant Comment veux-tu que je reste quille-tran ? La misère qui m'étrangle Vêtu de noir, j'revendais la blanche, fallait s'remplir la panse Tu veux du sale ? Viens m'voir en vrai, lalalala Mélo' du cur te fait vibrer, lalalala La médicale fait méditer, lalalala J'crois qu'c'est vital de s'éviter, lalalala Tu veux du sale ? Viens m'voir en vrai, lalalala Mélo' du cur te fait vibrer, lalalala La médicale fait méditer, lalalala J'crois qu'c'est vital de s'éviter, lalalala J'crois qu'c'est vital de s'éviter, la médicale everyday, faut qu'j'enchaîne des semaines à 10K Pas d'pénurie, j'ravitaille, leur faire confiance, mauvaise idée, mon dos se tourne et v'là qu'ils parlent Les plus maigres sont calibrés, quantité comme qualité mais pour grimper, j'fais pas l'Ciro, on va t'laisser sans chicot Tu t'sens chaud sous Jack au frais, mon bénéfice est d'jà coffré, si j'fais la plonge, j'monte pas la pente Dis pas que j'me la raconte, comme le million, j'sais m'faire attendre Tu veux du sale ? Viens m'voir en vrai, lalalala Mélo' du cur te fait vibrer, lalalala La médicale fait méditer, lalalala J'crois qu'c'est vital de s'éviter, lalalala Tu veux du sale ? Viens m'voir en vrai, lalalala Mélo' du cur te fait vibrer, lalalala La médicale fait méditer, lalalala J'crois qu'c'est vital de s'éviter, lalalala Lalalala Lalalala Lalalala Lalalala</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2414,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>50K, Game Over, Volume 2 Elle peut s'appeler Binta, Noxious Tchikita, Rosa, Bella Elle peut s'appeler Binta, Tchikita, Rosa, Bella Dans la boîte, cest la seule qui gère son body Attiré par son boule, donc jai déchiré son body Remplissant les poches, la dick est solide À la fin dla ré-soi jla fait monter dans le Audi À la base, je voulais pas me marier-marier Avec ses formes, je me suis allié-allié Elle pull-up le rôle même si tes fatigué, fatigué, hey J'me barre dans la nuit après tavoir dénudée Elle veut le Merco pas la Twingo Faire le tour du mundo Sortir du bendo Pars avec un autre Ça ta rendu loco Tavais pas les pesos Elle sest vé-sau You might also like Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Sur elle jai quelques dossiers elle aime le champagne rosé Carré VIP, devant Ferrari on va larroser Pas là pour tes beaux yeux, faut dépenser loseille Une teille, deux teilles, trois teilles, OK Paris, Marrakech, là où ya dla teuch Ici cest la dèche, jbombarde dans la tess Jai vendu ma CS, pas là pour la sieste Fais vite chez lhesses personne va rayer ma caisse, peufra Elle veut le Merco pas la Twingo Faire le tour du mundo Sortir du bendo Pars avec un autre Ça ta rendu loco Tavais pas les pesos Elle sest vé-sau Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Cest flou dans ma tête, flou dans ma tête Jpeux pas causer ma perte, causer ma perte Champagne, Greygoose, jabuse, jaime me noyer Moteur V12, jbombarde, jaime piloter Cest flou dans ma tête, flou dans ma tête Jpeux pas causer ma perte, causer ma perte Champagne, Greygoose, jabuse, jaime me noyer Moteur V12, jbombarde, jaime piloter Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle veut le Merco pas la Twingo Faire le tour du mundo Sortir du bendo Pars avec un autre Ça ta rendu loco Tavais pas les pesos Elle sest vé-sau Elle veut le Merco pas la Twingo Faire le tour du mundo Sortir du bendo Pars avec un autre Ça ta rendu loco Tavais pas les pesos Elle sest vé-sau 50K, Game Over, Volume 2 Gang, gang 50K, Game Over, Volume 2 Gang, gang, gang</t>
+          <t>50K, Game Over, Volume 2 Elle peut s'appeler Binta, Noxious Tchikita, Rosa, Bella Elle peut s'appeler Binta, Tchikita, Rosa, Bella Dans la boîte, cest la seule qui gère son body Attiré par son boule, donc jai déchiré son body Remplissant les poches, la dick est solide À la fin dla ré-soi jla fait monter dans le Audi À la base, je voulais pas me marier-marier Avec ses formes, je me suis allié-allié Elle pull-up le rôle même si tes fatigué, fatigué, hey J'me barre dans la nuit après tavoir dénudée Elle veut le Merco pas la Twingo Faire le tour du mundo Sortir du bendo Pars avec un autre Ça ta rendu loco Tavais pas les pesos Elle sest vé-sau Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Sur elle jai quelques dossiers elle aime le champagne rosé Carré VIP, devant Ferrari on va larroser Pas là pour tes beaux yeux, faut dépenser loseille Une teille, deux teilles, trois teilles, OK Paris, Marrakech, là où ya dla teuch Ici cest la dèche, jbombarde dans la tess Jai vendu ma CS, pas là pour la sieste Fais vite chez lhesses personne va rayer ma caisse, peufra Elle veut le Merco pas la Twingo Faire le tour du mundo Sortir du bendo Pars avec un autre Ça ta rendu loco Tavais pas les pesos Elle sest vé-sau Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Cest flou dans ma tête, flou dans ma tête Jpeux pas causer ma perte, causer ma perte Champagne, Greygoose, jabuse, jaime me noyer Moteur V12, jbombarde, jaime piloter Cest flou dans ma tête, flou dans ma tête Jpeux pas causer ma perte, causer ma perte Champagne, Greygoose, jabuse, jaime me noyer Moteur V12, jbombarde, jaime piloter Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle peut sappeler Binta, Tchikita, Rosa, Bella Mais cest toujours la même Elle veut le Merco pas la Twingo Faire le tour du mundo Sortir du bendo Pars avec un autre Ça ta rendu loco Tavais pas les pesos Elle sest vé-sau Elle veut le Merco pas la Twingo Faire le tour du mundo Sortir du bendo Pars avec un autre Ça ta rendu loco Tavais pas les pesos Elle sest vé-sau 50K, Game Over, Volume 2 Gang, gang 50K, Game Over, Volume 2 Gang, gang, gang</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2431,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>He he he Joshy Josh Cétait comme dans un rêve, jai fait des sous, jai pas dormi Jai vraiment pas sommeil, j'zone dans Paris quand je mennuie Jai chargé lTokarev tah, tah, tah, jai fait des sous, jai pas dormi R.A.S Les condés mbarrent la route sauvage, je sais où jvais finir la nuit Je sais où jvais finir la nuit tout seul dans ma gov Que ça menvie, jme suis fait dans lhall Quand tu t'en sors, ça dérange Plus la même quà lépoque, la galère nous a forgé Laissez-les faire les hommes, connaissent la rue depuis ctannée Jfaisais lchouf sur lcorner, jétais l'pire exemple Seul moment de tendresse en Espagne dans un bordel Tu sais que ce monde est mauvais Quand tout lmonde sendort Jécoute le calme de la noche Cétait comme dans un rêve, jai fait des sous, jai pas dormi Jai vraiment pas sommeil, j'zone dans Paris quand je mennuie Jai chargé lTokarev tah, tah, tah, jai fait des sous, jai pas dormi R.A.S Les condés mbarrent la route sauvage, je sais où jvais finir la nuit You might also like Jfais que drentrer la nuit pendant qumaman dort Je ramenais du cash, je ramenais de lor Jenfilais ma cagoule cagoule, cagoule, maintenant, ça rapporte cagoule Jme rappelle encore quon mfermait les portes Jai tout dans la tête, tête, tête, jsuis toujours à la te-te-tess Beaucoup de vice, beaucoup dients-cli donc on encai-cai-caisse Tas vu ma team, tas vu mon Glock, tas vu ma cai-cai-caisse Ceux qui parlent derrière nos dos, sache quon les bai-bai-baise Jai réussi parce que jy croyais shoot, le banquier fait que mvouvoyer R.A.S, R.A.S La black card peut tout payer woaw, les hommes politiques soudoyés fort Jachète une villa après un bâtiment, à part pour la mif, jai plus dsentiment Vient pas nous faire croire qutes fédérateur, ceux qui parlent le moins sont les meilleurs menteurs bon courage Tu sais que ce monde est mauvais Quand tout lmonde sendort Jécoute le calme de la noche Cétait comme dans un rêve, jai fait des sous, jai pas dormi Jai vraiment pas sommeil, j'zone dans Paris quand je mennuie Jai chargé lTokarev tah, tah, tah, jai fait des sous, jai pas dormi R.A.S Les condés mbarrent la route sauvage, je sais où jvais finir la nuit Jai tout dans la tête, tête, tête, jsuis toujours à la te-te-tess Beaucoup de vice, beaucoup dients-cli donc on encai-cai-caisse Tas vu ma team, tas vu mon glock, tas vu ma cai-cai-caisse Ceux qui parlent derrière nos dos, sache quon les bai-bai-baise</t>
+          <t>He he he Joshy Josh Cétait comme dans un rêve, jai fait des sous, jai pas dormi Jai vraiment pas sommeil, j'zone dans Paris quand je mennuie Jai chargé lTokarev tah, tah, tah, jai fait des sous, jai pas dormi R.A.S Les condés mbarrent la route sauvage, je sais où jvais finir la nuit Je sais où jvais finir la nuit tout seul dans ma gov Que ça menvie, jme suis fait dans lhall Quand tu t'en sors, ça dérange Plus la même quà lépoque, la galère nous a forgé Laissez-les faire les hommes, connaissent la rue depuis ctannée Jfaisais lchouf sur lcorner, jétais l'pire exemple Seul moment de tendresse en Espagne dans un bordel Tu sais que ce monde est mauvais Quand tout lmonde sendort Jécoute le calme de la noche Cétait comme dans un rêve, jai fait des sous, jai pas dormi Jai vraiment pas sommeil, j'zone dans Paris quand je mennuie Jai chargé lTokarev tah, tah, tah, jai fait des sous, jai pas dormi R.A.S Les condés mbarrent la route sauvage, je sais où jvais finir la nuit Jfais que drentrer la nuit pendant qumaman dort Je ramenais du cash, je ramenais de lor Jenfilais ma cagoule cagoule, cagoule, maintenant, ça rapporte cagoule Jme rappelle encore quon mfermait les portes Jai tout dans la tête, tête, tête, jsuis toujours à la te-te-tess Beaucoup de vice, beaucoup dients-cli donc on encai-cai-caisse Tas vu ma team, tas vu mon Glock, tas vu ma cai-cai-caisse Ceux qui parlent derrière nos dos, sache quon les bai-bai-baise Jai réussi parce que jy croyais shoot, le banquier fait que mvouvoyer R.A.S, R.A.S La black card peut tout payer woaw, les hommes politiques soudoyés fort Jachète une villa après un bâtiment, à part pour la mif, jai plus dsentiment Vient pas nous faire croire qutes fédérateur, ceux qui parlent le moins sont les meilleurs menteurs bon courage Tu sais que ce monde est mauvais Quand tout lmonde sendort Jécoute le calme de la noche Cétait comme dans un rêve, jai fait des sous, jai pas dormi Jai vraiment pas sommeil, j'zone dans Paris quand je mennuie Jai chargé lTokarev tah, tah, tah, jai fait des sous, jai pas dormi R.A.S Les condés mbarrent la route sauvage, je sais où jvais finir la nuit Jai tout dans la tête, tête, tête, jsuis toujours à la te-te-tess Beaucoup de vice, beaucoup dients-cli donc on encai-cai-caisse Tas vu ma team, tas vu mon glock, tas vu ma cai-cai-caisse Ceux qui parlent derrière nos dos, sache quon les bai-bai-baise</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2448,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Wesh l'ancien T'as vieillis depuis hier Tu dis bonjour chelou, regard froid Hé on t'as dépanné quand t'étais en chier ma gueule T'as oublié quand.. hein? T'as oublié, t'as oublié Hé tu sais quoi ? On va finir par te faire t'asseoir sur ta propre banane ma gueule Tu fais du bif, ok Tu sers des meufs, ok T'oublies tes reufs, ok Pour une paire de seuf, ok Dis-moi pourquoi tu fais l'an-ienc' Pourquoi tu fais l'an-ienc Dis-moi pourquoi tu fais l'an-ienc' Pourquoi tu fais l'an-ienc Y'a pas que les fesses qu'on claque Les gol' aussi, rap contact Rap d'enfoiré qui dit qu'il y est Rap d'enfoiré plus dix billets Qui sort de la che-po Je sors du ste-po pour un vieux bedot roulé hier Chante ta fausse vie rappeur de mes deux Toi et ta fausse vie je vous prends tous les deux Du sang dans la bouche des flammes dans les yeux Avant d'essayer de me mettre sur la touche Compter vos cartouches, mesdames et messieurs Flex Sta-bu Flex sta le gueux je te flex ta mère J'en ai rien à flex, t'inquiète pas ça gère On flex ta race toujours en nike air Oui c'est nous cette putain de bande d'enfoiré C'est pas nous que tu croiseras en soirée La caravane passe tu peux aboyer Fréquence Star, M6, Laurent Boyer T'es mort claqué, le moteur noyé On va te renvoyer dans tes charentaises Et mettre ta vie entre parenthèses Ça part en vrille ou ça part en baise Tu t'caches sous le lit quand tes parents baisent T'es mal élevé, je te mets mal à l'aise Slip noir et rouge à la milanaise T'es niqué l'an-ienc, c'est pas ce que t'avais prévu On s'en bat les bourses, on t'avais prévenu C'est moi l'avocat c'est toi le prévenu, vu ? You might also like Tu fais du bif, ok Tu sers des meufs, ok T'oublies tes reufs, ok Pour une paire de seuf, ok Dis-moi pourquoi tu fais l'an-ienc' Pourquoi tu fais l'an-ienc Dis-moi pourquoi tu fais l'an-ienc' Pourquoi tu fais l'an-ienc Assieds-toi, explique-moi, wesh pourquoi tu fais l'ancêtre Tu regardes mal, tu fais la caille, on va te crocheter comme un sac Lancel Coup de pression et coup de tesson, t'es dans un film ton père Luc Besson Tu bouffes tes ondes, nique ton oncle, j'suis attendu comme sorti de prison Tu tapes des grammes dans la tess c'est grave, on voit ta hainesous casque intégral T'es comme une pute qui cherche à té-gra, je te mets des baffes avec tes bras Flow déter' je rap pour les braves Faut des frères qui enterrent ces travs Dans les cités c'est les plus détestables mais pitié pire qu'une affaire d'état Beret sur la tête et pied sur table alors que t'as 25 piges t'assures pas Fais l'an-ienc mets-toi à la page Fais le fou en bas on te fume à l'étage Tu parles mal à Cassandra, nous ici on te casse un bras On te fume et on te passe un drap, les petits d'en bas sont vraiment pas sympa Rue de Marseille ça devient Sainte-Anne Rue de Marseille mais on est pour Zlatan Tes menaces on trouve ça calme Nique ta place pour que l'on s'installe Oui j'arrive coup de tête balayette On est là fallait pas y être 93800, Paris mec, tu parles mal juste par email Tu fais du bif, ok Tu sers des meufs, ok T'oublies tes reufs, ok Pour une paire de seuf, ok Dis-moi pourquoi tu fais l'an-ienc' Pourquoi tu fais l'an-ienc Dis-moi pourquoi tu fais l'an-ienc' Pourquoi tu fais l'an-ienc3</t>
+          <t>Wesh l'ancien T'as vieillis depuis hier Tu dis bonjour chelou, regard froid Hé on t'as dépanné quand t'étais en chier ma gueule T'as oublié quand.. hein? T'as oublié, t'as oublié Hé tu sais quoi ? On va finir par te faire t'asseoir sur ta propre banane ma gueule Tu fais du bif, ok Tu sers des meufs, ok T'oublies tes reufs, ok Pour une paire de seuf, ok Dis-moi pourquoi tu fais l'an-ienc' Pourquoi tu fais l'an-ienc Dis-moi pourquoi tu fais l'an-ienc' Pourquoi tu fais l'an-ienc Y'a pas que les fesses qu'on claque Les gol' aussi, rap contact Rap d'enfoiré qui dit qu'il y est Rap d'enfoiré plus dix billets Qui sort de la che-po Je sors du ste-po pour un vieux bedot roulé hier Chante ta fausse vie rappeur de mes deux Toi et ta fausse vie je vous prends tous les deux Du sang dans la bouche des flammes dans les yeux Avant d'essayer de me mettre sur la touche Compter vos cartouches, mesdames et messieurs Flex Sta-bu Flex sta le gueux je te flex ta mère J'en ai rien à flex, t'inquiète pas ça gère On flex ta race toujours en nike air Oui c'est nous cette putain de bande d'enfoiré C'est pas nous que tu croiseras en soirée La caravane passe tu peux aboyer Fréquence Star, M6, Laurent Boyer T'es mort claqué, le moteur noyé On va te renvoyer dans tes charentaises Et mettre ta vie entre parenthèses Ça part en vrille ou ça part en baise Tu t'caches sous le lit quand tes parents baisent T'es mal élevé, je te mets mal à l'aise Slip noir et rouge à la milanaise T'es niqué l'an-ienc, c'est pas ce que t'avais prévu On s'en bat les bourses, on t'avais prévenu C'est moi l'avocat c'est toi le prévenu, vu ? Tu fais du bif, ok Tu sers des meufs, ok T'oublies tes reufs, ok Pour une paire de seuf, ok Dis-moi pourquoi tu fais l'an-ienc' Pourquoi tu fais l'an-ienc Dis-moi pourquoi tu fais l'an-ienc' Pourquoi tu fais l'an-ienc Assieds-toi, explique-moi, wesh pourquoi tu fais l'ancêtre Tu regardes mal, tu fais la caille, on va te crocheter comme un sac Lancel Coup de pression et coup de tesson, t'es dans un film ton père Luc Besson Tu bouffes tes ondes, nique ton oncle, j'suis attendu comme sorti de prison Tu tapes des grammes dans la tess c'est grave, on voit ta hainesous casque intégral T'es comme une pute qui cherche à té-gra, je te mets des baffes avec tes bras Flow déter' je rap pour les braves Faut des frères qui enterrent ces travs Dans les cités c'est les plus détestables mais pitié pire qu'une affaire d'état Beret sur la tête et pied sur table alors que t'as 25 piges t'assures pas Fais l'an-ienc mets-toi à la page Fais le fou en bas on te fume à l'étage Tu parles mal à Cassandra, nous ici on te casse un bras On te fume et on te passe un drap, les petits d'en bas sont vraiment pas sympa Rue de Marseille ça devient Sainte-Anne Rue de Marseille mais on est pour Zlatan Tes menaces on trouve ça calme Nique ta place pour que l'on s'installe Oui j'arrive coup de tête balayette On est là fallait pas y être 93800, Paris mec, tu parles mal juste par email Tu fais du bif, ok Tu sers des meufs, ok T'oublies tes reufs, ok Pour une paire de seuf, ok Dis-moi pourquoi tu fais l'an-ienc' Pourquoi tu fais l'an-ienc Dis-moi pourquoi tu fais l'an-ienc' Pourquoi tu fais l'an-ienc3</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2465,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Qui m'appellent par mon prénom, -om, -om Peufra Peufra, Peufra Jinvite les mêmes à l'apéro, la même équipe depuis l'préau, ceux qui mappellent par mon prénom, -om, -om J'raconte pas ma vie, ça fait long, des grands d'chez moi ont pris l'héro', quand j'les vois, moi, j'ai plus les mots, -ots, -ots akha Toujours d'la peuf du toujours dla peuf du Ça vient dune meuf quand ça dit go c'est toutes ces putes qui donnent le go L'ancien qui vend même son vélo l'ancien qui vend même son vélo Jaurais dû chanter ah, ah Quand tu t'en sors, ouais, ça dérange quand tu t'en sors, ouais, ça dérange Je dis pas d'blase mais ça m'démange chut Sont bons qu'à sucer mecs d'ailleurs allez, sucer tous J'ai plus d'oseille, plus de valeurs tchoin, tchoin On les connaît, vont rien t'donner, j'ai tout pris, moi, sans rien voler Plus d'nouvelles à un moment donné ouh, ouh Co-coffré dans la street, on hiberne on hiberne, kho Y a qu'les vrais qu'on considère oh, oh J'invite les mêmes à l'apéro, la même équipe depuis l'préau, ceux qui m'appellent par mon prénom, -om, -om J'raconte pas ma vie, ça fait long, des grands d'chez moi ont pris l'héro', quand j'les vois, moi, j'ai plus les mots, -ots, -ots You might also like T'façon, y en a qui payeront t'façon, y en a qui payeront Le prix d'la peuf est té-mon le prix d'la peuf est té-mon J'passerais d'vant eux en Veyron j'passerais d'vant eux en Veyron Et ma caisse, ils la rayeront Flash à la main, l'impression qu'tout s'arrête qu'tout s'arrête Flash à la main, comme ça qu'la rue t'alète rue t'alète J'é-, j'é- j'étais tendu, j'avais b'soin d'p'tites caresses p'tites caresses Rond-point d'Auber', des punt' de Bucarest Bucarest J'suis un chien du rap ouais comme les Chienlari ouais AutoTune ou rap, comme l'humeur, des fois ça varie oh, oh J'suis un chien du rap ouais comme les Chienlari ouais J'ai déjà tout vu, j'ouvrais ma f'nêtre quand j'avais pas la rime eh J'ai mis du Jack dans l'Coca frais frais, crois pas, crois pas qu'j'suis fonce-dé J'ai juste pris un coup d'avance eh, j'suis l'acteur de ma vie et j'écris moi-même le syno' La rue m'a mis l'alliance, j'ai d'jà fait toutes mes classes, igo, peufra oh, oh J'invite les mêmes à l'apéro, la même équipe depuis l'préau, ceux qui m'appellent par mon prénom, -om, -om J'raconte pas ma vie, ça fait long, des grands d'chez moi ont pris l'héro', quand j'les vois, moi, j'ai plus les mots, -ots, -ots T'façon, y en a qui payeront t'façon, y en a qui payeront Le prix d'la peuf est té-mon le prix d'la peuf est té-mon J'passerais d'vant eux en Veyron j'passerais d'vant eux en Veyron Et ma caisse, ils la rayeront T'façon, y en a qui payeront t'façon, y en a qui payeront Le prix d'la peuf est té-mon le prix d'la peuf est té-mon J'passerais d'vant eux en Veyron j'passerais d'vant eux en Veyron Et ma caisse, ils la rayeront ouh, ouh, ouh, ouh</t>
+          <t>Qui m'appellent par mon prénom, -om, -om Peufra Peufra, Peufra Jinvite les mêmes à l'apéro, la même équipe depuis l'préau, ceux qui mappellent par mon prénom, -om, -om J'raconte pas ma vie, ça fait long, des grands d'chez moi ont pris l'héro', quand j'les vois, moi, j'ai plus les mots, -ots, -ots akha Toujours d'la peuf du toujours dla peuf du Ça vient dune meuf quand ça dit go c'est toutes ces putes qui donnent le go L'ancien qui vend même son vélo l'ancien qui vend même son vélo Jaurais dû chanter ah, ah Quand tu t'en sors, ouais, ça dérange quand tu t'en sors, ouais, ça dérange Je dis pas d'blase mais ça m'démange chut Sont bons qu'à sucer mecs d'ailleurs allez, sucer tous J'ai plus d'oseille, plus de valeurs tchoin, tchoin On les connaît, vont rien t'donner, j'ai tout pris, moi, sans rien voler Plus d'nouvelles à un moment donné ouh, ouh Co-coffré dans la street, on hiberne on hiberne, kho Y a qu'les vrais qu'on considère oh, oh J'invite les mêmes à l'apéro, la même équipe depuis l'préau, ceux qui m'appellent par mon prénom, -om, -om J'raconte pas ma vie, ça fait long, des grands d'chez moi ont pris l'héro', quand j'les vois, moi, j'ai plus les mots, -ots, -ots T'façon, y en a qui payeront t'façon, y en a qui payeront Le prix d'la peuf est té-mon le prix d'la peuf est té-mon J'passerais d'vant eux en Veyron j'passerais d'vant eux en Veyron Et ma caisse, ils la rayeront Flash à la main, l'impression qu'tout s'arrête qu'tout s'arrête Flash à la main, comme ça qu'la rue t'alète rue t'alète J'é-, j'é- j'étais tendu, j'avais b'soin d'p'tites caresses p'tites caresses Rond-point d'Auber', des punt' de Bucarest Bucarest J'suis un chien du rap ouais comme les Chienlari ouais AutoTune ou rap, comme l'humeur, des fois ça varie oh, oh J'suis un chien du rap ouais comme les Chienlari ouais J'ai déjà tout vu, j'ouvrais ma f'nêtre quand j'avais pas la rime eh J'ai mis du Jack dans l'Coca frais frais, crois pas, crois pas qu'j'suis fonce-dé J'ai juste pris un coup d'avance eh, j'suis l'acteur de ma vie et j'écris moi-même le syno' La rue m'a mis l'alliance, j'ai d'jà fait toutes mes classes, igo, peufra oh, oh J'invite les mêmes à l'apéro, la même équipe depuis l'préau, ceux qui m'appellent par mon prénom, -om, -om J'raconte pas ma vie, ça fait long, des grands d'chez moi ont pris l'héro', quand j'les vois, moi, j'ai plus les mots, -ots, -ots T'façon, y en a qui payeront t'façon, y en a qui payeront Le prix d'la peuf est té-mon le prix d'la peuf est té-mon J'passerais d'vant eux en Veyron j'passerais d'vant eux en Veyron Et ma caisse, ils la rayeront T'façon, y en a qui payeront t'façon, y en a qui payeront Le prix d'la peuf est té-mon le prix d'la peuf est té-mon J'passerais d'vant eux en Veyron j'passerais d'vant eux en Veyron Et ma caisse, ils la rayeront ouh, ouh, ouh, ouh</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2482,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Peufra La peuf six, six, han Mozilla La peuf six, six, han, han Faut plus qu'tu doutes, j'ai déjà prouvé, l'ami, ils nous laissaient que là pour déguster la mie Mais-Mais-Mais les rats t'examinent, viennent casqués pour t'arracher la vie Bah oui qu'les prix sont chers parce que l'pétage coûtera six ans ferme boxé comme ton daron si tu sens le teh Je suis sous rosé posé, grandi sans grand frère Ça vient toujours de la ue-r, j'suis pas hypé, plus tu tapais d'la pure, plus on palpait Gère la casquette pas cramé, j'ridais, j'emmène baby dans une gova pailletée Ça vient tout droit des quartiers sensibles, qu-qu-qu'on soit des vaillants, c'est l'essentiel On n'est pas pressé, que pour la quali qu'on met l'prix, qu'on soit des vaillants, c'est l'essentiel C'est des baltringues, tu les vois plus quand ça craint La bout-mara me vaille-tra, plus d'amitié, plus d'chagrin Y a plus d'pitié, j'les allume avec un 5.20 Y a, y a plus d'pitié, j'les allume avec un 5.20 J'suis dans un Audi full op', tu sais très bien qu'on pull up On l'a fait sans goût, on boit la 'teille au goulot goulot You might also like Y a plus d'empathie, akha, faut faire platine, on est déjà pluggés, on a déjà les planguans Deux jours, j'vais me planquer, rappelez juste mon plan cul Besoin d'décompresser, la zone, c'est trop tendu On connaît les failles de l'industrie, poto, t'es néfaste, faut qu'j'fasse le tri Ça parle de Dior, Gucci, Fendi mentent aux p'tits, on les voit jamais acheter dans les boutiques Faut faire du chiffre, j'avoue, la pratique théorie d'El Chapo Deux dans les bes-j', ça fait pas d'shadow, petit, c'est pas ton Quechua qui t'rend charo J'ai roulé ma bosse, la Fe-Fe' a frotté l'dos d'âne, pas là dans l'effort, veulent juste porter l'totem Idées sombres, trop corsé, l'cocktail, idées sombres, han, han C'est des baltringues, tu les vois plus quand ça craint La bout-mara me vaille-tra, plus d'amitié, plus d'chagrin Y a plus d'pitié, j'les allume avec un 5.20 Y a, y a plus d'pitié, j'les allume avec un 5.20 J'suis dans un Audi full op', tu sais très bien qu'on pull up On l'a fait sans goût, on boit la 'teille au goulot J'suis dans un Audi full op', tu sais très bien qu'on pull up On l'a fait sans goût, on boit la 'teille au goulot goulot</t>
+          <t>Peufra La peuf six, six, han Mozilla La peuf six, six, han, han Faut plus qu'tu doutes, j'ai déjà prouvé, l'ami, ils nous laissaient que là pour déguster la mie Mais-Mais-Mais les rats t'examinent, viennent casqués pour t'arracher la vie Bah oui qu'les prix sont chers parce que l'pétage coûtera six ans ferme boxé comme ton daron si tu sens le teh Je suis sous rosé posé, grandi sans grand frère Ça vient toujours de la ue-r, j'suis pas hypé, plus tu tapais d'la pure, plus on palpait Gère la casquette pas cramé, j'ridais, j'emmène baby dans une gova pailletée Ça vient tout droit des quartiers sensibles, qu-qu-qu'on soit des vaillants, c'est l'essentiel On n'est pas pressé, que pour la quali qu'on met l'prix, qu'on soit des vaillants, c'est l'essentiel C'est des baltringues, tu les vois plus quand ça craint La bout-mara me vaille-tra, plus d'amitié, plus d'chagrin Y a plus d'pitié, j'les allume avec un 5.20 Y a, y a plus d'pitié, j'les allume avec un 5.20 J'suis dans un Audi full op', tu sais très bien qu'on pull up On l'a fait sans goût, on boit la 'teille au goulot goulot Y a plus d'empathie, akha, faut faire platine, on est déjà pluggés, on a déjà les planguans Deux jours, j'vais me planquer, rappelez juste mon plan cul Besoin d'décompresser, la zone, c'est trop tendu On connaît les failles de l'industrie, poto, t'es néfaste, faut qu'j'fasse le tri Ça parle de Dior, Gucci, Fendi mentent aux p'tits, on les voit jamais acheter dans les boutiques Faut faire du chiffre, j'avoue, la pratique théorie d'El Chapo Deux dans les bes-j', ça fait pas d'shadow, petit, c'est pas ton Quechua qui t'rend charo J'ai roulé ma bosse, la Fe-Fe' a frotté l'dos d'âne, pas là dans l'effort, veulent juste porter l'totem Idées sombres, trop corsé, l'cocktail, idées sombres, han, han C'est des baltringues, tu les vois plus quand ça craint La bout-mara me vaille-tra, plus d'amitié, plus d'chagrin Y a plus d'pitié, j'les allume avec un 5.20 Y a, y a plus d'pitié, j'les allume avec un 5.20 J'suis dans un Audi full op', tu sais très bien qu'on pull up On l'a fait sans goût, on boit la 'teille au goulot J'suis dans un Audi full op', tu sais très bien qu'on pull up On l'a fait sans goût, on boit la 'teille au goulot goulot</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2499,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Gros niveau, tes limité, tas lseum Sujet tabou comme virginité dta sur Jme plains jamais, jme dis que jsuis pas lseul Fuck le rap, mélancolique ma gueule Pochette dalbum de leur mère dans un cercueil Ils sont prêts à tout pour le public et son accueil Jai dla chatte, je fais jamais la queue Jfais la une, je fais jamais la deux Jai la même équipe depuis lépoque des baggys Paire de Cortez, ensemble Sergio Tacchini Parlent de drive-by, en voiture, en moto Parlent de Kalach, de rafales à gogo Bande dacteurs, dans vos clips la farine remplace la coco Jécris mes textes au volant, boite de vitesses auto Claquée en vrai, pourtant violente sur photo Les beurettes font des UV, les renois mettes du tchoco Épinay-Sur-Seine, 93 ocho On te baise et rebaise, et on passe à autre chose Fatigué dla vie pourtant à peine la vingtaine Couleur diabolique dans la Vittel Tas la vie dtess mais tas pas la vie qutaime Tout ça en vitesse dans cette vie dchienne Tas la vie dtess mais tas pas la vie qutaime Tout ça en vitesse dans cette vie dchienne You might also like H La Frappe validé par les anciens Là tas lseum John Snow sest fait dead dans saison cinq Là tas lseum Plus dcons, plus dtunes, plus quen chien Là tas lseum Là tas lseum, là tas lseum H La Frappe validé par les anciens Là tas lseum John Snow sest fait dead dans saison cinq Là tas lseum Plus dcons, plus dtunes, plus quen chien Là tas lseum Là tas lseum, là tas lseum On cherche le liquide comme une femme-fontaine Fuck tomber du camion jveux dla sape dlavenue Montaigne On ma dit allume-le, si tu veux quil séteigne Aujourdhui on les met, demain cest plus qui cétait Dans ma vie ya pas dthème, ici peu de je taime Jveux celle qui me donne pas lenvie dla jetter Dans ma vie ya pas dtraîtres, peut-être jle ken Et lui donne lenvie dse mettre en retrait Nique sa mère, mets plus de vodka-Red Dans la boite Star Wars et la musique sarrête Nique sa mère, jveux pas dvos caresses Jte dis quje taime, cest pour mieux tla mettre Nique sa mère, mets plus de vodka-Red Dans la boite Star Wars et la musique sarrête Nique sa mère, jveux pas dvos caresses Jte dis quje taime, cest pour mieux tla mettre De la pure, de la pure, de la frappe salmec Tas des grosses prods mais tu trappes ça lég H La Frappe XXX faut quça yep Comme Walter White et toute sa meth Toi tes pas fidèle, ne jure pas la Mecque Si tas un gros pétard, jallumerai la mèche Toi tes pas fidèle, ne jure pas la Mecque Si tas un gros pétard, jallumerai la mèche H La Frappe validé par les anciens Là tas lseum John Snow sest fait dead dans saison cinq Là tas lseum Plus dcons, plus dtunes, plus quen chien Là tas lseum Là tas lseum, là tas lseum H La Frappe validé par les anciens Là tas lseum John Snow sest fait dead dans saison cinq Là tas lseum Plus dcons, plus dtunes, plus quen chien Là tas lseum Là tas lseum, là tas lseum Là tas lseum, là tas lseum H La Frappe validé par les anciens Là tas lseum John Snow sest fait dead dans saison cinq Là tas lseum Plus dcons, plus dtunes, plus quen chien Là tas lseum Là tas lseum, là tas lseum H La Frappe validé par les anciens Là tas lseum John Snow sest fait dead dans saison cinq Là tas lseum Plus dcons, plus dtunes, plus quen chien Là tas lseum Là tas lseum, là tas lseum Là tas lseum, 93 ocho H La Frappe Là tas lseum</t>
+          <t>Gros niveau, tes limité, tas lseum Sujet tabou comme virginité dta sur Jme plains jamais, jme dis que jsuis pas lseul Fuck le rap, mélancolique ma gueule Pochette dalbum de leur mère dans un cercueil Ils sont prêts à tout pour le public et son accueil Jai dla chatte, je fais jamais la queue Jfais la une, je fais jamais la deux Jai la même équipe depuis lépoque des baggys Paire de Cortez, ensemble Sergio Tacchini Parlent de drive-by, en voiture, en moto Parlent de Kalach, de rafales à gogo Bande dacteurs, dans vos clips la farine remplace la coco Jécris mes textes au volant, boite de vitesses auto Claquée en vrai, pourtant violente sur photo Les beurettes font des UV, les renois mettes du tchoco Épinay-Sur-Seine, 93 ocho On te baise et rebaise, et on passe à autre chose Fatigué dla vie pourtant à peine la vingtaine Couleur diabolique dans la Vittel Tas la vie dtess mais tas pas la vie qutaime Tout ça en vitesse dans cette vie dchienne Tas la vie dtess mais tas pas la vie qutaime Tout ça en vitesse dans cette vie dchienne H La Frappe validé par les anciens Là tas lseum John Snow sest fait dead dans saison cinq Là tas lseum Plus dcons, plus dtunes, plus quen chien Là tas lseum Là tas lseum, là tas lseum H La Frappe validé par les anciens Là tas lseum John Snow sest fait dead dans saison cinq Là tas lseum Plus dcons, plus dtunes, plus quen chien Là tas lseum Là tas lseum, là tas lseum On cherche le liquide comme une femme-fontaine Fuck tomber du camion jveux dla sape dlavenue Montaigne On ma dit allume-le, si tu veux quil séteigne Aujourdhui on les met, demain cest plus qui cétait Dans ma vie ya pas dthème, ici peu de je taime Jveux celle qui me donne pas lenvie dla jetter Dans ma vie ya pas dtraîtres, peut-être jle ken Et lui donne lenvie dse mettre en retrait Nique sa mère, mets plus de vodka-Red Dans la boite Star Wars et la musique sarrête Nique sa mère, jveux pas dvos caresses Jte dis quje taime, cest pour mieux tla mettre Nique sa mère, mets plus de vodka-Red Dans la boite Star Wars et la musique sarrête Nique sa mère, jveux pas dvos caresses Jte dis quje taime, cest pour mieux tla mettre De la pure, de la pure, de la frappe salmec Tas des grosses prods mais tu trappes ça lég H La Frappe XXX faut quça yep Comme Walter White et toute sa meth Toi tes pas fidèle, ne jure pas la Mecque Si tas un gros pétard, jallumerai la mèche Toi tes pas fidèle, ne jure pas la Mecque Si tas un gros pétard, jallumerai la mèche H La Frappe validé par les anciens Là tas lseum John Snow sest fait dead dans saison cinq Là tas lseum Plus dcons, plus dtunes, plus quen chien Là tas lseum Là tas lseum, là tas lseum H La Frappe validé par les anciens Là tas lseum John Snow sest fait dead dans saison cinq Là tas lseum Plus dcons, plus dtunes, plus quen chien Là tas lseum Là tas lseum, là tas lseum Là tas lseum, là tas lseum H La Frappe validé par les anciens Là tas lseum John Snow sest fait dead dans saison cinq Là tas lseum Plus dcons, plus dtunes, plus quen chien Là tas lseum Là tas lseum, là tas lseum H La Frappe validé par les anciens Là tas lseum John Snow sest fait dead dans saison cinq Là tas lseum Plus dcons, plus dtunes, plus quen chien Là tas lseum Là tas lseum, là tas lseum Là tas lseum, 93 ocho H La Frappe Là tas lseum</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2516,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Mmmh LeTempsDuPiano Nous deux, c'est mort mort Je traine dehors, je bois d'l'alcool je vois des folles Mon jardin secret l'téléphone que ça déconne Je sors en boîte, je tise, je baise je vis, je plane Nous deux, c'est mort, tu vas t'y faire il faut s'y faire Photo d'nous deux chez l'antiquaire chez l'antiquaire Chez toi, j'peux coffrer tout l'hiver et tout l'été J'ai plus besoin d'être assisté comme Giuseppe J'ai trop la flemme d'faire des efforts Ma tisse-mé, mmh, j'la trise-mai, mmh Matrixé, j'veux pas que tu retombes love Ma tisse-mé, mmh, j'la trise-mai, mmh Matrixé, j'veux pas que tu retombes love Elle fait semblant, j'sais qu'son cur est libre Couleur teint pêche avec des curly Elle met du shol dans les macaronis Elle est trop bonne, elle est machiavélique Elle fait semblant, j'sais qu'son cur est libre Couleur teint pêche avec des curly Elle met du shol dans les macaronis Elle est trop bonne, elle est machiavélique You might also likeNos deux prénoms écrits sur un cadenas qu'on avait jeté à la Seine à la Seine A-allez, va là-bas, toi qui disais que tu pouvais avoir tous les keumés à la chaîne à la chaîne T'es en Loubou, très pointilleuse, sur Bondy, eh Tout d'un coup, t'es plus ennuyeuse, c'est merveilleux Après ta soirée, j'passe te prendre, ton ex-dealer C'est moi ton meilleur attaquant, on s'est connus mineurs J'veux pas que tu retombes love Ma tisse-mé, mmh, j'la trise-mai, mmh Matrixé, j'veux pas que tu retombes love Ma tisse-mé, mmh, j'la trise-mai, mmh Matrixé, j'veux pas que tu retombes love Elle fait semblant, j'sais qu'son cur est libre Couleur teint pêche avec des curly Elle met du shol dans les macaronis Elle est trop bonne, elle est machiavélique Elle fait semblant, j'sais qu'son cur est libre Couleur teint pêche avec des curly Elle met du shol dans les macaronis Elle est trop bonne, elle est machiavélique Elle fait semblant, j'sais qu'son cur est libre Elle est trop bonne, elle est machiavélique J'veux pas que tu retombes love J'veux pas que tu retombes love J'veux pas que tu retombes love J'ai trop la flemme d'faire des efforts J'veux pas que tu retombes love J'veux pas que tu retombes love</t>
+          <t>Mmmh LeTempsDuPiano Nous deux, c'est mort mort Je traine dehors, je bois d'l'alcool je vois des folles Mon jardin secret l'téléphone que ça déconne Je sors en boîte, je tise, je baise je vis, je plane Nous deux, c'est mort, tu vas t'y faire il faut s'y faire Photo d'nous deux chez l'antiquaire chez l'antiquaire Chez toi, j'peux coffrer tout l'hiver et tout l'été J'ai plus besoin d'être assisté comme Giuseppe J'ai trop la flemme d'faire des efforts Ma tisse-mé, mmh, j'la trise-mai, mmh Matrixé, j'veux pas que tu retombes love Ma tisse-mé, mmh, j'la trise-mai, mmh Matrixé, j'veux pas que tu retombes love Elle fait semblant, j'sais qu'son cur est libre Couleur teint pêche avec des curly Elle met du shol dans les macaronis Elle est trop bonne, elle est machiavélique Elle fait semblant, j'sais qu'son cur est libre Couleur teint pêche avec des curly Elle met du shol dans les macaronis Elle est trop bonne, elle est machiavélique Nos deux prénoms écrits sur un cadenas qu'on avait jeté à la Seine à la Seine A-allez, va là-bas, toi qui disais que tu pouvais avoir tous les keumés à la chaîne à la chaîne T'es en Loubou, très pointilleuse, sur Bondy, eh Tout d'un coup, t'es plus ennuyeuse, c'est merveilleux Après ta soirée, j'passe te prendre, ton ex-dealer C'est moi ton meilleur attaquant, on s'est connus mineurs J'veux pas que tu retombes love Ma tisse-mé, mmh, j'la trise-mai, mmh Matrixé, j'veux pas que tu retombes love Ma tisse-mé, mmh, j'la trise-mai, mmh Matrixé, j'veux pas que tu retombes love Elle fait semblant, j'sais qu'son cur est libre Couleur teint pêche avec des curly Elle met du shol dans les macaronis Elle est trop bonne, elle est machiavélique Elle fait semblant, j'sais qu'son cur est libre Couleur teint pêche avec des curly Elle met du shol dans les macaronis Elle est trop bonne, elle est machiavélique Elle fait semblant, j'sais qu'son cur est libre Elle est trop bonne, elle est machiavélique J'veux pas que tu retombes love J'veux pas que tu retombes love J'veux pas que tu retombes love J'ai trop la flemme d'faire des efforts J'veux pas que tu retombes love J'veux pas que tu retombes love</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2533,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>J'aime trop ma cité mais un jour faut qu'j'aille voir ailleurs Un peu matrixés, les p'tits, ils ont l'fusil mitrailleur L'affaire est classée sans suite, la TN, y a du sang d'schmitt On sait que tu fais l'indic', tu nous f'ras tomber lundi Tu crois qu't'as percé dans l'VIP ? T'as juste gratté l'invit' Baby veut son sac Birkin, faudra v'-esqui la perquis' Ah Les problèmes, le ghetto, dans l'gamos, les palettes Ma mission, une maison, haute-couture italienne Vénissieux, Orgemont, partout ça tient l'corner Toi, t'es khéné, même pas Ciro, nous fais pas l'immortel J'aime trop ma cité mais un jour faut qu'j'aille voir ailleurs Un peu matrixés, les p'tits, ils ont l'fusil mitrailleur J'aime trop ma cité mais un jour faut qu'j'aille voir ailleurs Un peu matrixés, les p'tits, ils ont l'fusil mitrailleur J'aime trop ma cité mais un jour faut qu'j'aille voir ailleurs T'as trop insisté, t'as plus l'âge de faire l'bicraveur J'me suis perdu en chemin, j'ai sali mes deux mains J'ai rien caché chez moi, j'suis pété, c'est l'tin-ma Tu verras bien demain, j'vais tout quitter mama J'vais m'tailler vers la mer, Phuket ou Annaba Du shit dans la boca, six balles pour l'avocat Lacoste et les requins, Yamaha, deux bécanes Coup-franc dans la lunette, dans la mère à Beckham Mon frérot, impeccable, t'es sorti du B4 Nique sa mère les poucaves, les histoires de Toka' J'me barre à Bali, vodka, sirop d'pêche Juste à lever la tête pour voir les étoiles Le soleil me tape, poto, j'me tape une tête Un jour, on partira, bébé veut des bisous, moi, du papier J'irais chercher de partout c'que j'ai pas Au fond d'la boîte comme un traficanté You might also like J'aime trop ma cité mais un jour faut qu'j'aille voir ailleurs Un peu matrixés, les p'tits, ils ont l'fusil mitrailleur J'aime trop ma cité mais un jour faut qu'j'aille voir ailleurs Un peu matrixés, les p'tits, ils ont l'fusil mitrailleur J'aime trop ma cité mais un jour faut qu'j'aille voir ailleurs T'as trop insisté, t'as plus l'âge de faire l'bicraveur</t>
+          <t>J'aime trop ma cité mais un jour faut qu'j'aille voir ailleurs Un peu matrixés, les p'tits, ils ont l'fusil mitrailleur L'affaire est classée sans suite, la TN, y a du sang d'schmitt On sait que tu fais l'indic', tu nous f'ras tomber lundi Tu crois qu't'as percé dans l'VIP ? T'as juste gratté l'invit' Baby veut son sac Birkin, faudra v'-esqui la perquis' Ah Les problèmes, le ghetto, dans l'gamos, les palettes Ma mission, une maison, haute-couture italienne Vénissieux, Orgemont, partout ça tient l'corner Toi, t'es khéné, même pas Ciro, nous fais pas l'immortel J'aime trop ma cité mais un jour faut qu'j'aille voir ailleurs Un peu matrixés, les p'tits, ils ont l'fusil mitrailleur J'aime trop ma cité mais un jour faut qu'j'aille voir ailleurs Un peu matrixés, les p'tits, ils ont l'fusil mitrailleur J'aime trop ma cité mais un jour faut qu'j'aille voir ailleurs T'as trop insisté, t'as plus l'âge de faire l'bicraveur J'me suis perdu en chemin, j'ai sali mes deux mains J'ai rien caché chez moi, j'suis pété, c'est l'tin-ma Tu verras bien demain, j'vais tout quitter mama J'vais m'tailler vers la mer, Phuket ou Annaba Du shit dans la boca, six balles pour l'avocat Lacoste et les requins, Yamaha, deux bécanes Coup-franc dans la lunette, dans la mère à Beckham Mon frérot, impeccable, t'es sorti du B4 Nique sa mère les poucaves, les histoires de Toka' J'me barre à Bali, vodka, sirop d'pêche Juste à lever la tête pour voir les étoiles Le soleil me tape, poto, j'me tape une tête Un jour, on partira, bébé veut des bisous, moi, du papier J'irais chercher de partout c'que j'ai pas Au fond d'la boîte comme un traficanté J'aime trop ma cité mais un jour faut qu'j'aille voir ailleurs Un peu matrixés, les p'tits, ils ont l'fusil mitrailleur J'aime trop ma cité mais un jour faut qu'j'aille voir ailleurs Un peu matrixés, les p'tits, ils ont l'fusil mitrailleur J'aime trop ma cité mais un jour faut qu'j'aille voir ailleurs T'as trop insisté, t'as plus l'âge de faire l'bicraveur</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2550,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>C'est soit la goutte Soit la goutte tatouée sous l'il Yeah C'est soit la goutte tatouée sous l'il ou la marque sur l'front J'ai pas sommeil, bénéf' sous l'sommier, poto, rien d'personnel J'ai mis distances, t'as la langue qui pend, crache pas Dans la main qui s'tend, j'lâche pas Pour l'amour du son, j'abats Pour l'amour du son, j'prends soin des vrais Connaissent toute ma vie, mes faiblesses On s'aime pour de vrai, pas des histoires de putes qui t'baisent J'suis discret et simple, y a qu'la RS qui fait du bruit Fonce-dé, minuit cinq, j'vais m'faire lehess tout la nuit Casquette bien baissé, loin d'ici, Hennessy style Mes racines, le hazi, j'le résiste pas Pas d'minik, j'le mérite, on les mitraille L'Amérique, l'Algérie, j'ai mon visa C'est pas du rap de fils à pap', de la hess à la Visa Black Le p'tit d'banlieue qui fait ça propre, la plume se livre sous vodka-pomme Bébé s'endort sur l'pec' , avant midi, j'me pète J'm'attache pas, elle est trop fraîche et ça rend bête 25, rue d'Marseille l'adresse ça parle pas pour rien, ça abrège Ppe-fra sur la presse, faits divers mon quartier dans la presse L'OPJ enquête, les indic' font les délateurs Dans l'bureau des bleus, les pookies peuvent rouler un teh La cité sont CR, le bosseur passera pas l'automne La pookie ressort et la GÀV était plutôt bonne Un joint d'Marie-Jeanne ou de jaune, ça donne le réseau Chacun sa raison, longe les murs et rejoins les ombres Black, blanc, beurre, c'est bien ça, mon zoo Pas d'histoire d'ethnie, la sekra datni Plus l'impression d'être libre hein, ici, ça résiste, poto, ça résiste HLM délabré, hein, j'ai pas joué mes cartes cartes La paire d'as et ma paire de couilles couilles, continue à faire l'andouille continue Les allumeurs de mèche se branlent sur l'embrouille On se sert d'une main de fer, mais des fois, ça rouille You might also like Casquette bien baissée, loin d'ici, Hennessy style Mes racines, le hazi, j'le résiste pas Pas d'minik, j'le mérite, on les mitraille L'Amérique, l'Algérie, j'ai mon visa Casquette bien baissée, loin d'ici, Hennessy style Mes racines, le hazi, j'le résiste pas Pas d'minik, j'le mérite, on les mitraille L'Amérique, l'Algérie, j'ai mon visa C'est soit la goutte tatouée sous l'il ou la marque sur l'front Casquette bien baissée, loin d'ici, Hennessy style C'est soit la goutte tatouée sous l'il ou la marque sur l'front Mes racines, le hazi, j'le résiste pas On se sert d'une main de fer, mais des fois, ça rouille Pas d'minik, j'le mérite, on les mitraille On se sert d'une main de fer, mais des fois, ça rouille L'Amérique, l'Algérie, j'ai mon visa</t>
+          <t>C'est soit la goutte Soit la goutte tatouée sous l'il Yeah C'est soit la goutte tatouée sous l'il ou la marque sur l'front J'ai pas sommeil, bénéf' sous l'sommier, poto, rien d'personnel J'ai mis distances, t'as la langue qui pend, crache pas Dans la main qui s'tend, j'lâche pas Pour l'amour du son, j'abats Pour l'amour du son, j'prends soin des vrais Connaissent toute ma vie, mes faiblesses On s'aime pour de vrai, pas des histoires de putes qui t'baisent J'suis discret et simple, y a qu'la RS qui fait du bruit Fonce-dé, minuit cinq, j'vais m'faire lehess tout la nuit Casquette bien baissé, loin d'ici, Hennessy style Mes racines, le hazi, j'le résiste pas Pas d'minik, j'le mérite, on les mitraille L'Amérique, l'Algérie, j'ai mon visa C'est pas du rap de fils à pap', de la hess à la Visa Black Le p'tit d'banlieue qui fait ça propre, la plume se livre sous vodka-pomme Bébé s'endort sur l'pec' , avant midi, j'me pète J'm'attache pas, elle est trop fraîche et ça rend bête 25, rue d'Marseille l'adresse ça parle pas pour rien, ça abrège Ppe-fra sur la presse, faits divers mon quartier dans la presse L'OPJ enquête, les indic' font les délateurs Dans l'bureau des bleus, les pookies peuvent rouler un teh La cité sont CR, le bosseur passera pas l'automne La pookie ressort et la GÀV était plutôt bonne Un joint d'Marie-Jeanne ou de jaune, ça donne le réseau Chacun sa raison, longe les murs et rejoins les ombres Black, blanc, beurre, c'est bien ça, mon zoo Pas d'histoire d'ethnie, la sekra datni Plus l'impression d'être libre hein, ici, ça résiste, poto, ça résiste HLM délabré, hein, j'ai pas joué mes cartes cartes La paire d'as et ma paire de couilles couilles, continue à faire l'andouille continue Les allumeurs de mèche se branlent sur l'embrouille On se sert d'une main de fer, mais des fois, ça rouille Casquette bien baissée, loin d'ici, Hennessy style Mes racines, le hazi, j'le résiste pas Pas d'minik, j'le mérite, on les mitraille L'Amérique, l'Algérie, j'ai mon visa Casquette bien baissée, loin d'ici, Hennessy style Mes racines, le hazi, j'le résiste pas Pas d'minik, j'le mérite, on les mitraille L'Amérique, l'Algérie, j'ai mon visa C'est soit la goutte tatouée sous l'il ou la marque sur l'front Casquette bien baissée, loin d'ici, Hennessy style C'est soit la goutte tatouée sous l'il ou la marque sur l'front Mes racines, le hazi, j'le résiste pas On se sert d'une main de fer, mais des fois, ça rouille Pas d'minik, j'le mérite, on les mitraille On se sert d'une main de fer, mais des fois, ça rouille L'Amérique, l'Algérie, j'ai mon visa</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2567,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Laissez-moi compter mon oseille, j'ai pas l'temps d'compter sur les gens J'suis dans le sale, car j'sais pas faire différemment Dans l'habitacle, elle a snappé le fer allemand J'ai oublié, j'vais mieux, j'aurais dû l'faire avant Le cur en pièce, à défaut d'avoir des billets La bague au doigt, comme si j'avais les mains liées Etoile filante, ils veulent pas me laisser briller Ouais j'suis grillé, au charbon vi-sser les clients Y a des litrons, remontés dans un 6 litres 3 Prends-pas ma teille, moi j'aime que la facilité Y a des secrets, qu'il faut pas dire quand on est trois Reste loin de moi, tu m'es d'aucune utilité En c'moment parano, toujours un neuf sur moi J'voulais te fiancer mais y a trop d'oeils sur nous J'te laisse choisir ta route mais tu r'viendras vers moi La vie, une maladie, t'es mon médicament Le cur en pièce, à défaut d'avoir des billets La bague au doigt, comme si j'avais les mains liées Le cur en pièce, à défaut d'avoir des billets La bague au doigt, comme si j'avais les mains liées You might also like J'pensais finir dans l'ghetto à fumer toute la résine J'me souciais d'rien c'est l'mektoub Plutôt s'méfier du mec peace Grandi en manque d'affection Mais y a qu'le cash qui m'excite J'crois qu'avec toi j'ai fait l'con C'est trop d'la perte s'investir J'piave toute la noche Juste dans la rue d'à côté Elle veut qu'j'lui prenne du Dolce J'ai toute la miff à monter J'sais pas quel homme t'a menti Chez nous très peu d'galanterie A ton nom j'réserve l'hôtel J'partirai avant midi Y a des litrons, remontés dans un 6 litres 3 Prends-pas ma teille, moi j'aime que la facilité Y a des secrets, qu'il faut pas dire quand on est trois Reste loin de moi, tu m'es d'aucune utilité En c'moment parano, toujours un neuf sur moi J'voulais te fiancer mais y a trop d'oeils sur nous J'te laisse choisir ta route mais tu r'viendras vers moi La vie, une maladie, t'es mon médicament Le coeur en pièce, à défaut d'avoir des billets La bague au doigt, comme si j'avais les mains liées Le coeur en pièce, à défaut d'avoir des billets La bague au doigt, comme si j'avais les mains liées Y a des litrons, remontés dans un 6 litres 3 Prends-pas ma teille, moi j'aime que la facilité Y a des secrets, qu'il faut pas dire quand on est trois Reste loin de moi, tu m'es d'aucune utilité</t>
+          <t>Laissez-moi compter mon oseille, j'ai pas l'temps d'compter sur les gens J'suis dans le sale, car j'sais pas faire différemment Dans l'habitacle, elle a snappé le fer allemand J'ai oublié, j'vais mieux, j'aurais dû l'faire avant Le cur en pièce, à défaut d'avoir des billets La bague au doigt, comme si j'avais les mains liées Etoile filante, ils veulent pas me laisser briller Ouais j'suis grillé, au charbon vi-sser les clients Y a des litrons, remontés dans un 6 litres 3 Prends-pas ma teille, moi j'aime que la facilité Y a des secrets, qu'il faut pas dire quand on est trois Reste loin de moi, tu m'es d'aucune utilité En c'moment parano, toujours un neuf sur moi J'voulais te fiancer mais y a trop d'oeils sur nous J'te laisse choisir ta route mais tu r'viendras vers moi La vie, une maladie, t'es mon médicament Le cur en pièce, à défaut d'avoir des billets La bague au doigt, comme si j'avais les mains liées Le cur en pièce, à défaut d'avoir des billets La bague au doigt, comme si j'avais les mains liées J'pensais finir dans l'ghetto à fumer toute la résine J'me souciais d'rien c'est l'mektoub Plutôt s'méfier du mec peace Grandi en manque d'affection Mais y a qu'le cash qui m'excite J'crois qu'avec toi j'ai fait l'con C'est trop d'la perte s'investir J'piave toute la noche Juste dans la rue d'à côté Elle veut qu'j'lui prenne du Dolce J'ai toute la miff à monter J'sais pas quel homme t'a menti Chez nous très peu d'galanterie A ton nom j'réserve l'hôtel J'partirai avant midi Y a des litrons, remontés dans un 6 litres 3 Prends-pas ma teille, moi j'aime que la facilité Y a des secrets, qu'il faut pas dire quand on est trois Reste loin de moi, tu m'es d'aucune utilité En c'moment parano, toujours un neuf sur moi J'voulais te fiancer mais y a trop d'oeils sur nous J'te laisse choisir ta route mais tu r'viendras vers moi La vie, une maladie, t'es mon médicament Le coeur en pièce, à défaut d'avoir des billets La bague au doigt, comme si j'avais les mains liées Le coeur en pièce, à défaut d'avoir des billets La bague au doigt, comme si j'avais les mains liées Y a des litrons, remontés dans un 6 litres 3 Prends-pas ma teille, moi j'aime que la facilité Y a des secrets, qu'il faut pas dire quand on est trois Reste loin de moi, tu m'es d'aucune utilité</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2584,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Baille Broliker Production J'crois que tout mon tieks est monté en maison d'arrêt Tranquille, j'roule mon pét' et j'le pète en maison d'arrêt J'crois que tout mon tieks est monté en maison d'arrêt Tranquille, j'roule mon pét' et j'le pète en maison d'arrêt Pas confiance en eux, c'est moi qui détaille 'aille Souvent, les envieux, c'est ceux qu'tu dépannes 'panes J'tire pas sur ta beuh, elle est pas illégale 'gal J't'envoie mon p'tit reuf qui t ravitaille 'taille Kilos d'C passent par Honduras, est-ce que tu sais c'qu'on a enduré ? Si ça déraille, faudra qu'on s'y fasse, j'crois qu'c'est l'Gilera qui donne envie d'tirer Des millions de vux pour une seule étoile 'toile Villepinte et ry-Fleu, la daronne est pâle pâle J'connais bien ma rue, j'la prends en phares éteints Lahuiss, on l'verra plus une fois qu'il sera repeint J'crois que tout mon tieks est monté en maison d'arrêt Tranquille, j'roule mon pét' et j'le pète en maison d'arrêt J'crois que tout mon tieks est monté en maison d'arrêt Tranquille, j'roule mon pét' et j'le pète en maison d'arrêt You might also like Mon cur est noir, mes soucis s'empilent comme mes liasses J'salis mes mains, ça vend l'héro' comme Frank Lucas han, han J'fume le trois fois filtré, j'adoucis ma peine J'ai la Kalash' et la pelle, j'ai des labos et labels Trop d'fois dans l'bât', j'ai fini menotté J'enchaîne temps pleins, printemps, hiver, été Troisième étage, j'suis cagoulé, ganté J'crois que tout mon tieks est monté en maison d'arrêt Tranquille, j'roule mon pét' et j'le pète en maison d'arrêt J'crois que tout mon tieks est monté en maison d'arrêt Tranquille, j'roule mon pét' et j'le pète en maison d'arrêt</t>
+          <t>Baille Broliker Production J'crois que tout mon tieks est monté en maison d'arrêt Tranquille, j'roule mon pét' et j'le pète en maison d'arrêt J'crois que tout mon tieks est monté en maison d'arrêt Tranquille, j'roule mon pét' et j'le pète en maison d'arrêt Pas confiance en eux, c'est moi qui détaille 'aille Souvent, les envieux, c'est ceux qu'tu dépannes 'panes J'tire pas sur ta beuh, elle est pas illégale 'gal J't'envoie mon p'tit reuf qui t ravitaille 'taille Kilos d'C passent par Honduras, est-ce que tu sais c'qu'on a enduré ? Si ça déraille, faudra qu'on s'y fasse, j'crois qu'c'est l'Gilera qui donne envie d'tirer Des millions de vux pour une seule étoile 'toile Villepinte et ry-Fleu, la daronne est pâle pâle J'connais bien ma rue, j'la prends en phares éteints Lahuiss, on l'verra plus une fois qu'il sera repeint J'crois que tout mon tieks est monté en maison d'arrêt Tranquille, j'roule mon pét' et j'le pète en maison d'arrêt J'crois que tout mon tieks est monté en maison d'arrêt Tranquille, j'roule mon pét' et j'le pète en maison d'arrêt Mon cur est noir, mes soucis s'empilent comme mes liasses J'salis mes mains, ça vend l'héro' comme Frank Lucas han, han J'fume le trois fois filtré, j'adoucis ma peine J'ai la Kalash' et la pelle, j'ai des labos et labels Trop d'fois dans l'bât', j'ai fini menotté J'enchaîne temps pleins, printemps, hiver, été Troisième étage, j'suis cagoulé, ganté J'crois que tout mon tieks est monté en maison d'arrêt Tranquille, j'roule mon pét' et j'le pète en maison d'arrêt J'crois que tout mon tieks est monté en maison d'arrêt Tranquille, j'roule mon pét' et j'le pète en maison d'arrêt</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2601,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>J'allume le joint d'la veille le gérant qui m'appelle Hier c'était miné sa mère, aujourd'hui c'est double paye J'fais la moula pour ma mère comme Baby Gang Baby Mafia tu connais d'jà l'procédé Faut j'fourre mon tigné dans la Benz, monter l'carré comme Constant En grosse opération, en soum' j'khadem comme Casper Choqué le Maire entend les bastos D'puis qu'on vend la mache je veux du Louis Vui' pas du Lancaster Dans l'ombre j'peux t'régler ton compte, pour des billets comptants Mental garde la pèche c-t'anné j'leur provoque une hécatomb Mes charos sont balafrés comme ça qu'j'reconnais mes gars La routine nous a marbrés y'en qui ont pétés des câbles J'ai mélangé la crêpe j'ai mélangé la critical Deux plaies ensemble, ça sent la beuh dans tout l'étage On marche en meute mais des fois solitaires Sur l'terrain y avait des olivettes En survet' ça bossait tout l'hiver Deux qui rentrent, un qui se libère La Peuf du Rif remonte de malaga Déterminé, moi j'voulais d'jà ma part Toi qui disait que j'étais pas capable Les yeux pétés, j'm'enfume dans l'Porsche Macan La Peuf du Rif remonte de malaga Déterminé, moi j'voulais d'jà ma part Toi qui disait que j'étais pas capable Les yeux pétés, j'm'enfume dans l'Porsche Macan You might also like Fallait faire l'papier, inconscient même les grands j'barbais On rêvait d'Marbe', on descend avec des loc' le compteur tarté C'est H.LF des H.L.M toujours serein tu parles fort Y'a des mains à pas serrer, ah ouais l'humain c'est hardcore T'façons toi tu pues l'seum quand y en a un qui s'en sort T'as des problèmes mais poto t'es pas l'seul J'essaie de ramer dans l'bon sens Pour régler mes problèmes j'ai personne On sort pas de la merde en pionçant Prada pour les pe-sa Dur de compter tout c'qu'on a pochtonne Vaillant comme Calogero j'reste humble Même sous pression j'donne pas La Peuf du Rif remonte de malaga Déterminé, moi j'voulais d'jà ma part Toi qui disait que j'étais pas capable Les yeux pétés, j'm'enfume dans l'Porsche Macan La Peuf du Rif remonte de malaga Déterminé, moi j'voulais d'jà ma part Toi qui disait que j'étais pas capable Les yeux pétés, j'm'enfume dans l'Porsche Macan La Peuf du Rif remonte de malaga Déterminé, moi j'voulais d'jà ma part Toi qui disait que j'étais pas capable Les yeux pétés, j'm'enfume dans l'Porsche Macan La Peuf du Rif remonte de malaga Déterminé, moi j'voulais d'jà ma part Toi qui disait que j'étais pas capable Les yeux pétés, j'm'enfume dans l'Porsche Macan On marche en meute mais des fois solitaires Sur l'terrain y avait des olivettes En survet' ça bossait tout l'hiver Deux qui rentrent, un qui se libère</t>
+          <t>J'allume le joint d'la veille le gérant qui m'appelle Hier c'était miné sa mère, aujourd'hui c'est double paye J'fais la moula pour ma mère comme Baby Gang Baby Mafia tu connais d'jà l'procédé Faut j'fourre mon tigné dans la Benz, monter l'carré comme Constant En grosse opération, en soum' j'khadem comme Casper Choqué le Maire entend les bastos D'puis qu'on vend la mache je veux du Louis Vui' pas du Lancaster Dans l'ombre j'peux t'régler ton compte, pour des billets comptants Mental garde la pèche c-t'anné j'leur provoque une hécatomb Mes charos sont balafrés comme ça qu'j'reconnais mes gars La routine nous a marbrés y'en qui ont pétés des câbles J'ai mélangé la crêpe j'ai mélangé la critical Deux plaies ensemble, ça sent la beuh dans tout l'étage On marche en meute mais des fois solitaires Sur l'terrain y avait des olivettes En survet' ça bossait tout l'hiver Deux qui rentrent, un qui se libère La Peuf du Rif remonte de malaga Déterminé, moi j'voulais d'jà ma part Toi qui disait que j'étais pas capable Les yeux pétés, j'm'enfume dans l'Porsche Macan La Peuf du Rif remonte de malaga Déterminé, moi j'voulais d'jà ma part Toi qui disait que j'étais pas capable Les yeux pétés, j'm'enfume dans l'Porsche Macan Fallait faire l'papier, inconscient même les grands j'barbais On rêvait d'Marbe', on descend avec des loc' le compteur tarté C'est H.LF des H.L.M toujours serein tu parles fort Y'a des mains à pas serrer, ah ouais l'humain c'est hardcore T'façons toi tu pues l'seum quand y en a un qui s'en sort T'as des problèmes mais poto t'es pas l'seul J'essaie de ramer dans l'bon sens Pour régler mes problèmes j'ai personne On sort pas de la merde en pionçant Prada pour les pe-sa Dur de compter tout c'qu'on a pochtonne Vaillant comme Calogero j'reste humble Même sous pression j'donne pas La Peuf du Rif remonte de malaga Déterminé, moi j'voulais d'jà ma part Toi qui disait que j'étais pas capable Les yeux pétés, j'm'enfume dans l'Porsche Macan La Peuf du Rif remonte de malaga Déterminé, moi j'voulais d'jà ma part Toi qui disait que j'étais pas capable Les yeux pétés, j'm'enfume dans l'Porsche Macan La Peuf du Rif remonte de malaga Déterminé, moi j'voulais d'jà ma part Toi qui disait que j'étais pas capable Les yeux pétés, j'm'enfume dans l'Porsche Macan La Peuf du Rif remonte de malaga Déterminé, moi j'voulais d'jà ma part Toi qui disait que j'étais pas capable Les yeux pétés, j'm'enfume dans l'Porsche Macan On marche en meute mais des fois solitaires Sur l'terrain y avait des olivettes En survet' ça bossait tout l'hiver Deux qui rentrent, un qui se libère</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2618,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Je crois que les gars la faut y aller Le flow va vite, comme le Go Fast sur l'A 10 Je tchek les putes, ya qu'a mes frères je fais la bise Pas de Feat, MC venez pas me sucez la bite En boite c'est le Barca on joue a Domicile On pose des bouteilles de la taille de Messi Ça tire pour un nan, ça tire pour un oui Les petits ont grandis, t'allument sur un Piwi Les grands sont fanés, sont bourrés a midi Le flow s'adoucit, la saccoche est Gucci Un six coups ça suffit pour que ta mort le titre Sous codéine, sous bédo ou sous tise Mais au Do.Mac on reste fidèle au fish En boite au Crystal, laisse pas traîner ta fille Si tu veux pas qu'elle te ramène un fils J'arrive en Qamis, pour baiser ce game Je suis la dixième dans le corps a Fifty Tirée par The Game, bas les couilles de vos thèmes On cherche le liquide comme une femme fontaine Ma barbie, oui je t'aime Tu me trompe je te ken Ta cité c'est très calme Ma cité c'est Tekken T'es de la frappe oui t'es belle T'es la femme de mes rêves T'es en sang sur nous on te baise avec tes règles You might also likePaire de lunettes, gros gamos sur les champs Mama j'y vais Un soleil, une paire de Nike, un compet Mama j'y vais T'es une meuf bien, tu veux mon bien, prendre ta main Mama j'y vais Ces batards t'ont fait du mal, calibrés Mama j'y vais Ouais Ouais Ouais, Mama j'y vais Allume ton ther avec la flamme Olympique Mama j'y vais si le frigo c'est l'Afrique Grandi comme un roumain voilà ma vie Comme Moïse on écarte ta mère Que des pirates d'Orgemont dans le navire Tu veux mon mal, je te souhaite le Paradis Tu veux mon bien, je te fais vivre un Enfer Orgemont il y a de la frappe comme à Ampère Tu veux un homme droit, ouais daprès toi Dès le premier soir on te baise a l'envers Tu confonds Île-de-France avec île flottante Et le sperme avec crème à l'anglaise Bon les gars la richesse nous a feinté Il y a que la porte de nos HLM qui sont blindés La Frappe passe le salam au frères sur le rain.té Midi - minuit la paye est plus que méritée On traîne a 18 comme des niqués Normal que Mimi on tous la Mickey Que des gimmicks, c'est Chicago Je veux ma part du gâteaux mais celui à Sakho Le frère a changé radicale pour sa go Je lui en veux pas faut bien qu'il fasse sa vie Je suis pas ce mec jaloux du bonheur des autres, fréro c'est la bonne direction la Mairie Paire de lunettes, gros gamos sur les champs Mama j'y vais Un soleil, une paire de Nike, un compet Mama j'y vais T'es une meuf bien, tu veux mon bien, prendre ta main Mama j'y vais Ces batards t'ont fait du mal, calibrés Mama j'y vais Ouais Ouais Ouais, Mama j'y vais Je crois que les gars la faut y aller</t>
+          <t>Je crois que les gars la faut y aller Le flow va vite, comme le Go Fast sur l'A 10 Je tchek les putes, ya qu'a mes frères je fais la bise Pas de Feat, MC venez pas me sucez la bite En boite c'est le Barca on joue a Domicile On pose des bouteilles de la taille de Messi Ça tire pour un nan, ça tire pour un oui Les petits ont grandis, t'allument sur un Piwi Les grands sont fanés, sont bourrés a midi Le flow s'adoucit, la saccoche est Gucci Un six coups ça suffit pour que ta mort le titre Sous codéine, sous bédo ou sous tise Mais au Do.Mac on reste fidèle au fish En boite au Crystal, laisse pas traîner ta fille Si tu veux pas qu'elle te ramène un fils J'arrive en Qamis, pour baiser ce game Je suis la dixième dans le corps a Fifty Tirée par The Game, bas les couilles de vos thèmes On cherche le liquide comme une femme fontaine Ma barbie, oui je t'aime Tu me trompe je te ken Ta cité c'est très calme Ma cité c'est Tekken T'es de la frappe oui t'es belle T'es la femme de mes rêves T'es en sang sur nous on te baise avec tes règles Paire de lunettes, gros gamos sur les champs Mama j'y vais Un soleil, une paire de Nike, un compet Mama j'y vais T'es une meuf bien, tu veux mon bien, prendre ta main Mama j'y vais Ces batards t'ont fait du mal, calibrés Mama j'y vais Ouais Ouais Ouais, Mama j'y vais Allume ton ther avec la flamme Olympique Mama j'y vais si le frigo c'est l'Afrique Grandi comme un roumain voilà ma vie Comme Moïse on écarte ta mère Que des pirates d'Orgemont dans le navire Tu veux mon mal, je te souhaite le Paradis Tu veux mon bien, je te fais vivre un Enfer Orgemont il y a de la frappe comme à Ampère Tu veux un homme droit, ouais daprès toi Dès le premier soir on te baise a l'envers Tu confonds Île-de-France avec île flottante Et le sperme avec crème à l'anglaise Bon les gars la richesse nous a feinté Il y a que la porte de nos HLM qui sont blindés La Frappe passe le salam au frères sur le rain.té Midi - minuit la paye est plus que méritée On traîne a 18 comme des niqués Normal que Mimi on tous la Mickey Que des gimmicks, c'est Chicago Je veux ma part du gâteaux mais celui à Sakho Le frère a changé radicale pour sa go Je lui en veux pas faut bien qu'il fasse sa vie Je suis pas ce mec jaloux du bonheur des autres, fréro c'est la bonne direction la Mairie Paire de lunettes, gros gamos sur les champs Mama j'y vais Un soleil, une paire de Nike, un compet Mama j'y vais T'es une meuf bien, tu veux mon bien, prendre ta main Mama j'y vais Ces batards t'ont fait du mal, calibrés Mama j'y vais Ouais Ouais Ouais, Mama j'y vais Je crois que les gars la faut y aller</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2635,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>He he he Joshy Josh Son corps les a mis dans les vapes, moi, j'fais comme si c'était normal Son corps les a mis dans les vapes, du sale Igo, c'est ma racli ba-ba-ba-ba-ba, il faut que tu l'oublies c'est die, die, die, die, die Igo, c'est ma racli ba-ba-ba-ba-ba, il faut que tu l'oublies c'est die, die, die, die, die Igo, c'est ma racli ba-ba-ba-ba-ba, ma racli c'est die, die, die, die, die Igo, c'est ma racli ba-ba-ba-ba-ba, ma racli c'est die, die, die, die, die Poto, il faut un, deux, trois, quatre millions d'euros pour la madre J'vais te parler cash, tu vois les gens, c'qu'ils disent, moi, j'en ai plus rien à branler J'suis plus à la cité, j'ai fait des sous dans l'bât', traîné sur un terrain vague, j'ai vidé la 'teille en boîte pour m'sentir exister Monte avec moi, descends pas, j'vais gérer le pilotage et finir mon p'tit collage J'aime trop liquider mon cash cash, cash, j'évite ceux qui veulent me retarder J'aime trop liquider mon cash cash, cash, j'évite ceux qui veulent me retarder yeah, yeah, yeah, yeah Son corps les a mis dans les vapes, moi, j'fais comme si c'était normal Son corps les a mis dans les vapes, du sale You might also like Igo, c'est ma racli ba-ba-ba-ba-ba, il faut que tu l'oublies c'est die, die, die, die, die Igo, c'est ma racli ba-ba-ba-ba-ba, il faut que tu l'oublies c'est die, die, die, die, die Igo, c'est ma racli ba-ba-ba-ba-ba, ma racli ba-ba-ba-ba-ba Igo, c'est ma racli ba-ba-ba-ba-ba, ma racli ba-ba-ba-ba-ba J'tiens plus la sacoche dans l'bât', crois pas qu'j'ai fait un pacte, si j'le sors, c'est pah, pah La carrosserie est intacte, faut qu'je fasse gaffe, tous complètement khabat On va faire rentrer les sous par milliers, cent, deux cents par milliers Elle est bonne et même habillée, combien de curs elle a abîmé ? Son corps les a mis dans les vapes, moi, j'fais comme si c'était normal Son corps les a mis dans les vapes, du sale eh, oh, eh Igo, c'est ma racli ba-ba-ba-ba-ba, il faut que tu l'oublies c'est die, die, die, die, die Igo, c'est ma racli ba-ba-ba-ba-ba, il faut que tu l'oublies c'est die, die, die, die, die Igo, c'est ma racli ba-ba-ba-ba-ba, ma racli c'est die, die, die, die, die Igo, c'est ma racli ba-ba-ba-ba-ba, ma racli c'est die, die, die, die, die</t>
+          <t>He he he Joshy Josh Son corps les a mis dans les vapes, moi, j'fais comme si c'était normal Son corps les a mis dans les vapes, du sale Igo, c'est ma racli ba-ba-ba-ba-ba, il faut que tu l'oublies c'est die, die, die, die, die Igo, c'est ma racli ba-ba-ba-ba-ba, il faut que tu l'oublies c'est die, die, die, die, die Igo, c'est ma racli ba-ba-ba-ba-ba, ma racli c'est die, die, die, die, die Igo, c'est ma racli ba-ba-ba-ba-ba, ma racli c'est die, die, die, die, die Poto, il faut un, deux, trois, quatre millions d'euros pour la madre J'vais te parler cash, tu vois les gens, c'qu'ils disent, moi, j'en ai plus rien à branler J'suis plus à la cité, j'ai fait des sous dans l'bât', traîné sur un terrain vague, j'ai vidé la 'teille en boîte pour m'sentir exister Monte avec moi, descends pas, j'vais gérer le pilotage et finir mon p'tit collage J'aime trop liquider mon cash cash, cash, j'évite ceux qui veulent me retarder J'aime trop liquider mon cash cash, cash, j'évite ceux qui veulent me retarder yeah, yeah, yeah, yeah Son corps les a mis dans les vapes, moi, j'fais comme si c'était normal Son corps les a mis dans les vapes, du sale Igo, c'est ma racli ba-ba-ba-ba-ba, il faut que tu l'oublies c'est die, die, die, die, die Igo, c'est ma racli ba-ba-ba-ba-ba, il faut que tu l'oublies c'est die, die, die, die, die Igo, c'est ma racli ba-ba-ba-ba-ba, ma racli ba-ba-ba-ba-ba Igo, c'est ma racli ba-ba-ba-ba-ba, ma racli ba-ba-ba-ba-ba J'tiens plus la sacoche dans l'bât', crois pas qu'j'ai fait un pacte, si j'le sors, c'est pah, pah La carrosserie est intacte, faut qu'je fasse gaffe, tous complètement khabat On va faire rentrer les sous par milliers, cent, deux cents par milliers Elle est bonne et même habillée, combien de curs elle a abîmé ? Son corps les a mis dans les vapes, moi, j'fais comme si c'était normal Son corps les a mis dans les vapes, du sale eh, oh, eh Igo, c'est ma racli ba-ba-ba-ba-ba, il faut que tu l'oublies c'est die, die, die, die, die Igo, c'est ma racli ba-ba-ba-ba-ba, il faut que tu l'oublies c'est die, die, die, die, die Igo, c'est ma racli ba-ba-ba-ba-ba, ma racli c'est die, die, die, die, die Igo, c'est ma racli ba-ba-ba-ba-ba, ma racli c'est die, die, die, die, die</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2652,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Shiruken Music La routine dans le bloc, ça rend flocko J'perds pas mon temps, moi j'dois avancer Khabat, dans l'mood, parti trop tôt On était pas conscients à l'ancienne Dur d'arranger sur la photo Faire du détail, j'crois qu'c'est plus rentable Les prix sont à la hausse, poto On s'réunit, des moments uniques J'sais qu'on va pas loin solo On a fait midi, on a fait minuit Sauvé muni d'ma mélo Des petits délires pour s'embellir La mif allait faire des loves C'était prédit, j'leur avais dit Qu'la Peuf, c'était pas des lol J'suis serein dans ma ville J'connais les vrais d'la cité Dis-toi qu'le TP a niqué tellement de scolarités L'époque y a pas la crypto Puce de slhags était cryptée J'voulais l'bonheur, sauver l'honneur Comment c'est mal arrivé You might also like Tu finis mal, tu fais du mal Y a qu'pour le cash qu't'es matinal, t'es matinal T'es prêt à tout, tu finis mal, si près du nine Y a qu'pour le cash qu't'es matinal, t'es matinal Sans prises de tête, des fois ché-per J'fais vite deuspi, rien n'est garanti J'pensais qu'je changerais une fois qu'j'ai cé-per Chez nous, c'est BL, j'vais pas mentir J'suis dans mon del', dans ma DPL J'laisserai personne nous ralentir C'est pour la mif qu'on se démène Que tu résistes, ils ont tout saisi Et t'as fini main dans l'dos Que d'la te-per, ils veulent t'éteindre Te faire comme Manolo Que ça débite, poto évite Y a une CR, va molo C'était prédit, j'leur avais dit Qu'la Peuf, c'était pas des lol J'suis serein dans ma ville J'connais les vrais d'la cité Dis-toi qu'le TP a niqué tellement de scolarités L'époque y a pas la crypto Puce de slhags était cryptée J'voulais l'bonheur, sauver l'honneur Comment c'est mal arrivé Tu finis mal, tu fais du mal Y a qu'pour le cash qu't'es matinal, t'es matinal T'es prêt à tout, tu finis mal, si près du nine Y a qu'pour le cash qu't'es matinal, t'es matinal</t>
+          <t>Shiruken Music La routine dans le bloc, ça rend flocko J'perds pas mon temps, moi j'dois avancer Khabat, dans l'mood, parti trop tôt On était pas conscients à l'ancienne Dur d'arranger sur la photo Faire du détail, j'crois qu'c'est plus rentable Les prix sont à la hausse, poto On s'réunit, des moments uniques J'sais qu'on va pas loin solo On a fait midi, on a fait minuit Sauvé muni d'ma mélo Des petits délires pour s'embellir La mif allait faire des loves C'était prédit, j'leur avais dit Qu'la Peuf, c'était pas des lol J'suis serein dans ma ville J'connais les vrais d'la cité Dis-toi qu'le TP a niqué tellement de scolarités L'époque y a pas la crypto Puce de slhags était cryptée J'voulais l'bonheur, sauver l'honneur Comment c'est mal arrivé Tu finis mal, tu fais du mal Y a qu'pour le cash qu't'es matinal, t'es matinal T'es prêt à tout, tu finis mal, si près du nine Y a qu'pour le cash qu't'es matinal, t'es matinal Sans prises de tête, des fois ché-per J'fais vite deuspi, rien n'est garanti J'pensais qu'je changerais une fois qu'j'ai cé-per Chez nous, c'est BL, j'vais pas mentir J'suis dans mon del', dans ma DPL J'laisserai personne nous ralentir C'est pour la mif qu'on se démène Que tu résistes, ils ont tout saisi Et t'as fini main dans l'dos Que d'la te-per, ils veulent t'éteindre Te faire comme Manolo Que ça débite, poto évite Y a une CR, va molo C'était prédit, j'leur avais dit Qu'la Peuf, c'était pas des lol J'suis serein dans ma ville J'connais les vrais d'la cité Dis-toi qu'le TP a niqué tellement de scolarités L'époque y a pas la crypto Puce de slhags était cryptée J'voulais l'bonheur, sauver l'honneur Comment c'est mal arrivé Tu finis mal, tu fais du mal Y a qu'pour le cash qu't'es matinal, t'es matinal T'es prêt à tout, tu finis mal, si près du nine Y a qu'pour le cash qu't'es matinal, t'es matinal</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2669,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>J'ai besoin d'air j'ai besoin d'air les rho' Le container peut contenir d'l'hero' Relancer toute la mi-fa' ici-bas Mon couple a duré deux semaines comme les six balles Nique l'amour vive la pénétration vaginale Tes rappeurs ne me méritent pas comme Giroud Gignac On baise ta sur on lui fait des clés Prends l'ascenseur j'prends l'escalier j'arriverai musclé Rapper comme moi faut des années Le savoir est une arme qu'il faut savoir armer Rien de fou c'est que des mots Codéiné comme à Chicago Rien de fou c'est que des mômes Qui vendent du shit pas des p'tits gâteaux Minuit, Minuit, Minuit, poto reubeuh le Jack Daniel's est fini Les rappeurs à l'ancienne rappaient avec leur bite et couteau prêt à te batariser Aujourd'hui plein d'manis se prennent tous pour Many Derrière leurs ch'veux longs et leurs fer a lisser Grandit du mieux qu'on pouvait Sais-tu que sucer augmente le risque de s'étouffer J'reste dans mon coin camouflé T'es qu'un mytho qu'a tout fait Charlie a bien fini par être trouvé Pauvre Charlie s'est fait trouer, Pauvre Charlie s'est fait trouer You might also like Midi Minuit Midi Minuit Bicrave, Z la, dans la Tess Des rails, du plomb, dans ta tête Détaille, check la au millimètre Peufra, Peufra, fais la fête Chuis Rim'k t'es AP Chuis Omar t'es Fred Chuis Poutine t'es Hollande T'es pourri chuis frais 9-3 s'est tendu évitons d'se rendre Tu t'feras violer dans l'9 3 comme l'Islande Écouté à Lyon, écouté a Lille Casse-tête au frérot La frappe arrive Produit par moi-même Peufra mon label Chemise hawaïenne, Suce moi la bite Midi Minuit Midi Minuit Bicrave, Z la, dans la Tess Des rails, du plomb, dans ta tête Détaille, check là au millimètre Peufra, Peufra, fais la fête6</t>
+          <t>J'ai besoin d'air j'ai besoin d'air les rho' Le container peut contenir d'l'hero' Relancer toute la mi-fa' ici-bas Mon couple a duré deux semaines comme les six balles Nique l'amour vive la pénétration vaginale Tes rappeurs ne me méritent pas comme Giroud Gignac On baise ta sur on lui fait des clés Prends l'ascenseur j'prends l'escalier j'arriverai musclé Rapper comme moi faut des années Le savoir est une arme qu'il faut savoir armer Rien de fou c'est que des mots Codéiné comme à Chicago Rien de fou c'est que des mômes Qui vendent du shit pas des p'tits gâteaux Minuit, Minuit, Minuit, poto reubeuh le Jack Daniel's est fini Les rappeurs à l'ancienne rappaient avec leur bite et couteau prêt à te batariser Aujourd'hui plein d'manis se prennent tous pour Many Derrière leurs ch'veux longs et leurs fer a lisser Grandit du mieux qu'on pouvait Sais-tu que sucer augmente le risque de s'étouffer J'reste dans mon coin camouflé T'es qu'un mytho qu'a tout fait Charlie a bien fini par être trouvé Pauvre Charlie s'est fait trouer, Pauvre Charlie s'est fait trouer Midi Minuit Midi Minuit Bicrave, Z la, dans la Tess Des rails, du plomb, dans ta tête Détaille, check la au millimètre Peufra, Peufra, fais la fête Chuis Rim'k t'es AP Chuis Omar t'es Fred Chuis Poutine t'es Hollande T'es pourri chuis frais 9-3 s'est tendu évitons d'se rendre Tu t'feras violer dans l'9 3 comme l'Islande Écouté à Lyon, écouté a Lille Casse-tête au frérot La frappe arrive Produit par moi-même Peufra mon label Chemise hawaïenne, Suce moi la bite Midi Minuit Midi Minuit Bicrave, Z la, dans la Tess Des rails, du plomb, dans ta tête Détaille, check là au millimètre Peufra, Peufra, fais la fête6</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2686,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Wesh les mecs En Air Max ou quoi ? Eh Putain, eh, le but, il est lourd Ah En Air Max, ma gueule Toute la cité en Air Max Toute la France en Air Max Eh, TXT Production Réussir ou Mounir, y a plus l'choix Eh, l'but, il est lourd J'ai des choses à dire, écoute seulement Écoute, écoute, écoute J'en ai marre, j'veux prendre l'air mais l'État ne veut pas m'cher-lâ J'les baise dans tous les sens du sperme mais rapprochez-la J'ai grandi dans un F2, lit superposé là, studio pas très studieux, les stores pas posés là Pic et pic et colégram, mec, j'te parle en kil' là, pute et pute et polygame, meuf, j'te parle en kiffe là Je prends toute la money, j'vous laisse la pute de Lisa Beurette, on se connaît, fixe-moi tah Mona Lisa On m'dit de faire du sale sale, pas b'soin de votre salut Au moindre pique, on s'allume, à la moindre pute, on s'amuse Capitaine de quoi, re-frè ? J'te baffe, tu r'tires ton chasuble Capitale de quoi être refait mais on t'hagar, assumes Aïe, ça pète, au feu, à l'heure du pot-au-feu, aïe, te dire Ça gaze ?, hein, pauvre feuj Liberté d'expression va enfermer ta mère, les keufs nous mettent la pression, les meufs nous mettent la même You might also like Frère, tu défiles en fer, tu vas te faire uer-t La frappe est chère, toi tu n'arrêtes de faire l'mec Mon équipe en Air, mon équipe en Air Max Mon équipe en Air, mon équipe en Air Max Tout, tout, tout c'temps au labo, le Lambo', ça rend beau Tu marches vers le succès, moi je rappe, j'suis pas dans la rando TXT, 9.3, en vrai, tu connais le taro, ta meuf aime les fleurs, on lui offre et toi, on t'arrose Punchline a trois sens, S-Line a quatre jantes, Espagne, A5 ou Espagne, A50 T'espères de me teste, frère, j'suis déter' sur la terre ferme Hyper fier, uppercut, hypercane, elle est perfect J'vais faire ma place et mon oseille, j'me sens dedans comme à l'hôtel Vrai beurre, fierté, faux beurre, Faudel Ki-kicke même au dépôt dépôt, stickers dans le métro Fake step les States, respect à mon négro RDM si tu me cher-cher, montre-nous si tu sais faire Change de fe-meu, change de compte comme on change de puce SFR Frère, tu défiles en fer, tu vas te faire uer-t La frappe est chère, toi tu n'arrêtes de faire l'mec Mon équipe en Air, mon équipe en Air Max Mon équipe en Air, mon équipe en Air Max Frère, tu défiles en fer, tu vas te faire uer-t La frappe est chère, toi tu n'arrêtes de faire l'mec Mon équipe en Air mon équipe en Air, mon équipe en Air Max Mon équipe en Air mon équipe en Air, mon équipe en Air Max</t>
+          <t>Wesh les mecs En Air Max ou quoi ? Eh Putain, eh, le but, il est lourd Ah En Air Max, ma gueule Toute la cité en Air Max Toute la France en Air Max Eh, TXT Production Réussir ou Mounir, y a plus l'choix Eh, l'but, il est lourd J'ai des choses à dire, écoute seulement Écoute, écoute, écoute J'en ai marre, j'veux prendre l'air mais l'État ne veut pas m'cher-lâ J'les baise dans tous les sens du sperme mais rapprochez-la J'ai grandi dans un F2, lit superposé là, studio pas très studieux, les stores pas posés là Pic et pic et colégram, mec, j'te parle en kil' là, pute et pute et polygame, meuf, j'te parle en kiffe là Je prends toute la money, j'vous laisse la pute de Lisa Beurette, on se connaît, fixe-moi tah Mona Lisa On m'dit de faire du sale sale, pas b'soin de votre salut Au moindre pique, on s'allume, à la moindre pute, on s'amuse Capitaine de quoi, re-frè ? J'te baffe, tu r'tires ton chasuble Capitale de quoi être refait mais on t'hagar, assumes Aïe, ça pète, au feu, à l'heure du pot-au-feu, aïe, te dire Ça gaze ?, hein, pauvre feuj Liberté d'expression va enfermer ta mère, les keufs nous mettent la pression, les meufs nous mettent la même Frère, tu défiles en fer, tu vas te faire uer-t La frappe est chère, toi tu n'arrêtes de faire l'mec Mon équipe en Air, mon équipe en Air Max Mon équipe en Air, mon équipe en Air Max Tout, tout, tout c'temps au labo, le Lambo', ça rend beau Tu marches vers le succès, moi je rappe, j'suis pas dans la rando TXT, 9.3, en vrai, tu connais le taro, ta meuf aime les fleurs, on lui offre et toi, on t'arrose Punchline a trois sens, S-Line a quatre jantes, Espagne, A5 ou Espagne, A50 T'espères de me teste, frère, j'suis déter' sur la terre ferme Hyper fier, uppercut, hypercane, elle est perfect J'vais faire ma place et mon oseille, j'me sens dedans comme à l'hôtel Vrai beurre, fierté, faux beurre, Faudel Ki-kicke même au dépôt dépôt, stickers dans le métro Fake step les States, respect à mon négro RDM si tu me cher-cher, montre-nous si tu sais faire Change de fe-meu, change de compte comme on change de puce SFR Frère, tu défiles en fer, tu vas te faire uer-t La frappe est chère, toi tu n'arrêtes de faire l'mec Mon équipe en Air, mon équipe en Air Max Mon équipe en Air, mon équipe en Air Max Frère, tu défiles en fer, tu vas te faire uer-t La frappe est chère, toi tu n'arrêtes de faire l'mec Mon équipe en Air mon équipe en Air, mon équipe en Air Max Mon équipe en Air mon équipe en Air, mon équipe en Air Max</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2703,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Laisse-les croire que j'hiberne, rebeu est noir mais solidaire Laisse-les boire du cidre l'hiver, j'suis gé-char comme l'utilitaire Y a d'la taule, y a d'la hess, s'en sortir, prier Y a d'la go, y a d'la liasse pour sortir, briller Épinay, c'est ma terre, trophées pour ma mère J'suis trop frais, c'qui t'éblouit, c'qui t'fait jouir, c'est ma paire Vrai rebeu, vrai dégradé, j'suis heureux, j'vais t'éclater Vend d'la beuh, crache sur eux, c'est la guerre déclarée Des principes, on a pas les mêmes, pas les M Ton équipe sent le falche, sent la Chine, sent les nems La coca', la ppe-fra, t'es KO, t'es piqué La vodka, le cke-Ja et ta go nous a pipé Hood, hood, hood On court après le luxe, la routine après les billets T'as beau fait de la lutte, la frappe va te plier Je rappe car ça m'amuse, faire la diff', ça fait stylé J'aime traîner dans mon hood, hood, hood Crier dans mon hood, hood, hood J'vais traîner dans mon hood, hood, hood Prier dans mon hood, hood, hood Les plus connus, c'est les plus claqués, poussez-vous, ça va s'taper J'ai le flow, j'ai la rue, j'ai l'vécu, je l'avoue et Flex, ta beuh l'a constaté À l'époque, c'était pas ça, à l'école, j'étais pas sage Si la hess, la faim vous matraquent, en R1 pour un braquage Réussir sans mentir, t'inquiète, on peut le faire sans Dans ma rue, ça tire, y a plus de terrains que de commerçants Dans mon hood, c'est Bogotá, on crame tout, merci Total Les poucaves sont plutôt pâles, on t'bouillave, on t'fait ton pave Apparemment, t'es si chaud, t'écartes les jambes comme un ciseau Tu veux un feat' mais t'es skizo', j'vais t'recaler comme un physio' Tu pues la merde, t'as l'cul à l'air, tu parles de hood, mytho Père de famille, vrai ient-cli, tu t'fais vi-ser par un minot You might also like Hood, hood, hood On court après le luxe, la routine après les billets T'as beau fait de la lutte, la frappe va te plier Je rappe car ça m'amuse, faire la diff', ça fait stylé J'aime traîner dans mon hood, hood, hood Crier dans mon hood, hood, hood J'vais traîner dans mon hood, hood, hood Prier dans mon hood, hood, hood Tu fais des pompes, t'es balaise en tête-à-tête, t'es à l'aise Mais t'as que tes poings, seul dans un coin, Kalash' coucha la baleine Le hood, c'est chaud, on veut s'échapper, tu touches du bois, j'touche un chalet La vie te braque, tu portes plainte, la nuit, le crack, Porte d'la Chapelle Teste-moi, j'suis gavé, j'veux qu'tout ça cesse comme un camé J'ai plus d'un seize pour te caner, je suis plus VIP que ton carré La richesse veut pas faire signe, pas d'Lamborghini ici Vieilel caisse, c'est la hess, Clio 1, merci La beurette va te lâcher quand t'as plus d'oseille Ton Merco est loué, ton Louis Vuitton fête Noël WAllah que c'est la même c't'année, j'vais te crocheter comme Stanley Faites du business, vendez d'la cess mais arrêtez de stagner Hood, hood, hood On court après le luxe, la routine après les billets T'as beau fait de la lutte, la frappe va te plier Je rappe car ça m'amuse, faire la diff', ça fait stylé J'aime traîner dans mon hood, hood, hood Crier dans mon hood, hood, hood J'vais traîner dans mon hood, hood, hood Prier dans mon hood, hood, hood</t>
+          <t>Laisse-les croire que j'hiberne, rebeu est noir mais solidaire Laisse-les boire du cidre l'hiver, j'suis gé-char comme l'utilitaire Y a d'la taule, y a d'la hess, s'en sortir, prier Y a d'la go, y a d'la liasse pour sortir, briller Épinay, c'est ma terre, trophées pour ma mère J'suis trop frais, c'qui t'éblouit, c'qui t'fait jouir, c'est ma paire Vrai rebeu, vrai dégradé, j'suis heureux, j'vais t'éclater Vend d'la beuh, crache sur eux, c'est la guerre déclarée Des principes, on a pas les mêmes, pas les M Ton équipe sent le falche, sent la Chine, sent les nems La coca', la ppe-fra, t'es KO, t'es piqué La vodka, le cke-Ja et ta go nous a pipé Hood, hood, hood On court après le luxe, la routine après les billets T'as beau fait de la lutte, la frappe va te plier Je rappe car ça m'amuse, faire la diff', ça fait stylé J'aime traîner dans mon hood, hood, hood Crier dans mon hood, hood, hood J'vais traîner dans mon hood, hood, hood Prier dans mon hood, hood, hood Les plus connus, c'est les plus claqués, poussez-vous, ça va s'taper J'ai le flow, j'ai la rue, j'ai l'vécu, je l'avoue et Flex, ta beuh l'a constaté À l'époque, c'était pas ça, à l'école, j'étais pas sage Si la hess, la faim vous matraquent, en R1 pour un braquage Réussir sans mentir, t'inquiète, on peut le faire sans Dans ma rue, ça tire, y a plus de terrains que de commerçants Dans mon hood, c'est Bogotá, on crame tout, merci Total Les poucaves sont plutôt pâles, on t'bouillave, on t'fait ton pave Apparemment, t'es si chaud, t'écartes les jambes comme un ciseau Tu veux un feat' mais t'es skizo', j'vais t'recaler comme un physio' Tu pues la merde, t'as l'cul à l'air, tu parles de hood, mytho Père de famille, vrai ient-cli, tu t'fais vi-ser par un minot Hood, hood, hood On court après le luxe, la routine après les billets T'as beau fait de la lutte, la frappe va te plier Je rappe car ça m'amuse, faire la diff', ça fait stylé J'aime traîner dans mon hood, hood, hood Crier dans mon hood, hood, hood J'vais traîner dans mon hood, hood, hood Prier dans mon hood, hood, hood Tu fais des pompes, t'es balaise en tête-à-tête, t'es à l'aise Mais t'as que tes poings, seul dans un coin, Kalash' coucha la baleine Le hood, c'est chaud, on veut s'échapper, tu touches du bois, j'touche un chalet La vie te braque, tu portes plainte, la nuit, le crack, Porte d'la Chapelle Teste-moi, j'suis gavé, j'veux qu'tout ça cesse comme un camé J'ai plus d'un seize pour te caner, je suis plus VIP que ton carré La richesse veut pas faire signe, pas d'Lamborghini ici Vieilel caisse, c'est la hess, Clio 1, merci La beurette va te lâcher quand t'as plus d'oseille Ton Merco est loué, ton Louis Vuitton fête Noël WAllah que c'est la même c't'année, j'vais te crocheter comme Stanley Faites du business, vendez d'la cess mais arrêtez de stagner Hood, hood, hood On court après le luxe, la routine après les billets T'as beau fait de la lutte, la frappe va te plier Je rappe car ça m'amuse, faire la diff', ça fait stylé J'aime traîner dans mon hood, hood, hood Crier dans mon hood, hood, hood J'vais traîner dans mon hood, hood, hood Prier dans mon hood, hood, hood</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2720,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Mmmh 93800, Épinay 93800, Épinay 93800, Épinay 93800, Épinay P'tit corps squelette sous le gilet, ton sortilège, on l'a géré Hornet La Frappe, c'est l'Algérie J'fais pas l'concours, c'est moi l'jury C'est d'la street, c'est d'la pure, c'que tu veux Le poids d'mes pêchés contre un kilo d'beuh Ange ou démon, demande pas Ange ou démon, j'suis les deux Pisse du Diable, j'suis ténébreux Bolide, bolide, bolide, tête-à-queue Numéro un pour mes rebeux Solide, solide, solide, touche un peu Paire de TN, que des délinquants Pas d'trace d'ADN, j'ai la paire de gants Bouffée d'air intoxifiée Intoxifiée par le bang You might also like Ient-cli à la queue-leu-leu Ils se barrent, appelle-le Il est du-per, visser-le Bellek, y a les bleus-eus-eus Rebeu, renoi, babtou Ça crie, ça passe partout Mais quel drôle de parcours Peuf, peuf, peuf Keuf, keuf, keuf Y a d'la peuf, peuf, peuf Kush, kush, kush Vos surs s'cachent, cachent, cachent On est seuls à mailler Oui, il est seul à mailler Dans la cité, j'aime me poser même si je sais qu'c'est l'asile Y a pas d'triche, mec, c'est réel, aucun d'mes streams viennent de l'Asie C'est vrai qu'j'ai tout donné seulement pour t'la mettre dans l'boule L'équipe m'a dit Arrête les meufs, tous ces rappeurs coulent D'la peugeuf cellophanée dans les fesses d'la fille T'es bonne, t'es conne, t'es mignonne, mais fais ça vite Elle me répète que ma be-te a bon goût Parle pas Chinois mais fait du buis' à Guangzhou Ient-cli à la queue-leu-leu Ils se barrent, appelle-le Il est du-per, visser-le Bellek, y a les bleus-eus-eus Rebeu, renoi, babtou Ça crie, ça passe partout Mais quel drôle de parcours Peuf, peuf, peuf Keuf, keuf, keuf Y a d'la peuf, peuf, peuf Kush, kush, kush Vos surs s'cachent, cachent, cachent On est seuls à mailler Oui, il est seul à mailler Ient-cli à la queue-leu-leu Ils se barrent, appelle-le Il est du-per, visser-le Bellek, y a les bleus-eus-eus Rebeu, renoi, babtou Ça crie, ça passe partout Mais quel drôle de parcours Peuf, peuf, peuf Keuf, keuf, keuf Y a d'la peuf, peuf, peuf Kush, kush, kush Vos surs s'cachent, cachent, cachent On est seuls à mailler Oui, il est seul à mailler 93800, Épinay 93800, Épinay 93800, Épinay 93800, Épinay 93800, Épinay 93800, Épinay 93800, Épinay 93800, Épinay 93800, Épinay On est seuls à mailler Oui, il est seul à mailler</t>
+          <t>Mmmh 93800, Épinay 93800, Épinay 93800, Épinay 93800, Épinay P'tit corps squelette sous le gilet, ton sortilège, on l'a géré Hornet La Frappe, c'est l'Algérie J'fais pas l'concours, c'est moi l'jury C'est d'la street, c'est d'la pure, c'que tu veux Le poids d'mes pêchés contre un kilo d'beuh Ange ou démon, demande pas Ange ou démon, j'suis les deux Pisse du Diable, j'suis ténébreux Bolide, bolide, bolide, tête-à-queue Numéro un pour mes rebeux Solide, solide, solide, touche un peu Paire de TN, que des délinquants Pas d'trace d'ADN, j'ai la paire de gants Bouffée d'air intoxifiée Intoxifiée par le bang Ient-cli à la queue-leu-leu Ils se barrent, appelle-le Il est du-per, visser-le Bellek, y a les bleus-eus-eus Rebeu, renoi, babtou Ça crie, ça passe partout Mais quel drôle de parcours Peuf, peuf, peuf Keuf, keuf, keuf Y a d'la peuf, peuf, peuf Kush, kush, kush Vos surs s'cachent, cachent, cachent On est seuls à mailler Oui, il est seul à mailler Dans la cité, j'aime me poser même si je sais qu'c'est l'asile Y a pas d'triche, mec, c'est réel, aucun d'mes streams viennent de l'Asie C'est vrai qu'j'ai tout donné seulement pour t'la mettre dans l'boule L'équipe m'a dit Arrête les meufs, tous ces rappeurs coulent D'la peugeuf cellophanée dans les fesses d'la fille T'es bonne, t'es conne, t'es mignonne, mais fais ça vite Elle me répète que ma be-te a bon goût Parle pas Chinois mais fait du buis' à Guangzhou Ient-cli à la queue-leu-leu Ils se barrent, appelle-le Il est du-per, visser-le Bellek, y a les bleus-eus-eus Rebeu, renoi, babtou Ça crie, ça passe partout Mais quel drôle de parcours Peuf, peuf, peuf Keuf, keuf, keuf Y a d'la peuf, peuf, peuf Kush, kush, kush Vos surs s'cachent, cachent, cachent On est seuls à mailler Oui, il est seul à mailler Ient-cli à la queue-leu-leu Ils se barrent, appelle-le Il est du-per, visser-le Bellek, y a les bleus-eus-eus Rebeu, renoi, babtou Ça crie, ça passe partout Mais quel drôle de parcours Peuf, peuf, peuf Keuf, keuf, keuf Y a d'la peuf, peuf, peuf Kush, kush, kush Vos surs s'cachent, cachent, cachent On est seuls à mailler Oui, il est seul à mailler 93800, Épinay 93800, Épinay 93800, Épinay 93800, Épinay 93800, Épinay 93800, Épinay 93800, Épinay 93800, Épinay 93800, Épinay On est seuls à mailler Oui, il est seul à mailler</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2737,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Ppe-fra OKLM, nouvelle ppe-fra, ouh Bicrave la moula, remplis les narines à Cyril Hanouna J'ai marqué des points, les footeux, les politiciens nous font le coup du foulard Le scéna' est loin d'la sounah En lumière, le burkini Faut faire ses thunes et se barrer de là Ma frappe te fait voyager après deux lattes Pilon coffré dans les parties intimes Épinay-sur-Seine , quartier sensible Celle que j'aime demande plus que mon SMIC Celle qui m'aime demande juste qu'on s'tire Les moches d'hier aujourd'hui se révèlent J'te ken que si on est deux sur une île J'te ken que si ton dos se replie Bloqué ici, RSA et alloc' C'est nos tés-ci, on reste là et alors ? 9 millimètres, t'assures mieux qu'Cetelem Deux casques rouges, la Faucheuse, c'était elle Paye en liquide comme une femme fontaine T'as vu mes clips, j'suis pas avenue Montaigne J'suis dans la street, tu peux mener l'enquête J'suis dans la street, tu peux mener l'enquête You might also like Wesh, la ppe-fra, c'est l'prix d'juice, c'est l'index Ça pousse un kil' normal, on voit bien qu'c'est la té-c' Découpe moula dans une cuisine infecte Nouvelle ppe-fra te fait tourner la tête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Wesh, la ppe-fra, c'est l'prix d'juice, c'est l'index Ça pousse un kil' normal, on voit bien qu'c'est la té-c' Découpe moula dans une cuisine infecte Nouvelle ppe-fra te fait tourner la tête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Bats les couilles de la goutte qui fait déborder l'vase, j'veux piscine débordante, c'est la base Bats les couilles d'ton avis, de ton rap, ton anniv', j'suis OKLM, c'est la base Plante à billets jaunes et verts, pas besoin d'complément, sujet, verbe Plante à billets jaunes et verts, pas besoin d'complément, sujet, verbe Tout le monde te comprend, tout le monde t'aime Tout le monde te branle, tout le monde ken L'habit n'fait pas le moine, juste le prêtre Bon dieu, épargne-moi juste des traîtres À dix sur un mec jusqu'à dead, re-fré, mets-toi en boule, mémorise les têtes À dix sur un mec jusqu'à dead, re-fré, mets-toi en boule, mémorise les têtes Wesh, la ppe-fra, c'est l'prix d'juice, c'est l'index Ça pousse un kil' normal, on voit bien qu'c'est la té-c' Découpe moula dans une cuisine infecte Nouvelle ppe-fra te fait tourner la tête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Wesh, la ppe-fra, c'est l'prix d'juice, c'est l'index Ça pousse un kil' normal, on voit bien qu'c'est la té-c' Découpe moula dans une cuisine infecte Nouvelle ppe-fra te fait tourner la tête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête</t>
+          <t>Ppe-fra OKLM, nouvelle ppe-fra, ouh Bicrave la moula, remplis les narines à Cyril Hanouna J'ai marqué des points, les footeux, les politiciens nous font le coup du foulard Le scéna' est loin d'la sounah En lumière, le burkini Faut faire ses thunes et se barrer de là Ma frappe te fait voyager après deux lattes Pilon coffré dans les parties intimes Épinay-sur-Seine , quartier sensible Celle que j'aime demande plus que mon SMIC Celle qui m'aime demande juste qu'on s'tire Les moches d'hier aujourd'hui se révèlent J'te ken que si on est deux sur une île J'te ken que si ton dos se replie Bloqué ici, RSA et alloc' C'est nos tés-ci, on reste là et alors ? 9 millimètres, t'assures mieux qu'Cetelem Deux casques rouges, la Faucheuse, c'était elle Paye en liquide comme une femme fontaine T'as vu mes clips, j'suis pas avenue Montaigne J'suis dans la street, tu peux mener l'enquête J'suis dans la street, tu peux mener l'enquête Wesh, la ppe-fra, c'est l'prix d'juice, c'est l'index Ça pousse un kil' normal, on voit bien qu'c'est la té-c' Découpe moula dans une cuisine infecte Nouvelle ppe-fra te fait tourner la tête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Wesh, la ppe-fra, c'est l'prix d'juice, c'est l'index Ça pousse un kil' normal, on voit bien qu'c'est la té-c' Découpe moula dans une cuisine infecte Nouvelle ppe-fra te fait tourner la tête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Bats les couilles de la goutte qui fait déborder l'vase, j'veux piscine débordante, c'est la base Bats les couilles d'ton avis, de ton rap, ton anniv', j'suis OKLM, c'est la base Plante à billets jaunes et verts, pas besoin d'complément, sujet, verbe Plante à billets jaunes et verts, pas besoin d'complément, sujet, verbe Tout le monde te comprend, tout le monde t'aime Tout le monde te branle, tout le monde ken L'habit n'fait pas le moine, juste le prêtre Bon dieu, épargne-moi juste des traîtres À dix sur un mec jusqu'à dead, re-fré, mets-toi en boule, mémorise les têtes À dix sur un mec jusqu'à dead, re-fré, mets-toi en boule, mémorise les têtes Wesh, la ppe-fra, c'est l'prix d'juice, c'est l'index Ça pousse un kil' normal, on voit bien qu'c'est la té-c' Découpe moula dans une cuisine infecte Nouvelle ppe-fra te fait tourner la tête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Wesh, la ppe-fra, c'est l'prix d'juice, c'est l'index Ça pousse un kil' normal, on voit bien qu'c'est la té-c' Découpe moula dans une cuisine infecte Nouvelle ppe-fra te fait tourner la tête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête Tous les raclos connaissent le prix d'la quête</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2754,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>J'ai de la zik dans mes veines Les rappeurs, bah quils viennent En chair et en chienne Le Fenek il t'enchaîne Qui veut ma peau perdra la sienne Ramène ton flow, j'ramène ma pelle Oublie ma gueule oublie ma gueule Oublie ma gueule oublie ma gueule Oublie ma gueule mais noublie pas l label Tu joues la star avec un bodyguard blssé Le rap çais-fran est juste un petit gars à dresser Les gars veulent jouer aux V.I.P., garde baissée Rappeur tu veux clash mais j'suis un Mac, pas un PC Passe-moi le microphone, je le tiens comme une épée Découpe mes adversaires avant qu'ils aient l'temps d'épeler B.U.S.T.A., 9-3 T'as le job, t'as la maison, t'as la meuf, la voiture mais tas pas les clés Jsuis l'genre de MC plutôt impliqué Niqué du cerveau, demande à Demba ou à Ric-É Jsuis avec la p'tite équipe, on est là, t'inquiète Les flows tournent, les bédos tournent comme un tourniquet Rhino l'as des rappeurs XXX Kicke la face B, nous on vient du rain-té Viens pas tester, tes comme un kisdé qui s'déguise en guise de dealer Le rap mon kif, je kicke les rimes, je suis un kickeur killer Bien placé Pour décrasser Tes oreilles de crasseux, écoute ce rap surclassé T'as toujours pas eu d'autographe de Rhino, l'as désastre J'ai pris le mic, si j'dois briller, j'veux être auprès des astres Raf raf, on s'engrène, de la vie, on s'en crève Faites gaffe, on s'entraîne, la bataille est sans trêve Entre nous on s'entraide, sur 100, j'ai 113 Ça va, j't'embête, tu dois faire mieux, tu t'sens bêteYou might also like</t>
+          <t>J'ai de la zik dans mes veines Les rappeurs, bah quils viennent En chair et en chienne Le Fenek il t'enchaîne Qui veut ma peau perdra la sienne Ramène ton flow, j'ramène ma pelle Oublie ma gueule oublie ma gueule Oublie ma gueule oublie ma gueule Oublie ma gueule mais noublie pas l label Tu joues la star avec un bodyguard blssé Le rap çais-fran est juste un petit gars à dresser Les gars veulent jouer aux V.I.P., garde baissée Rappeur tu veux clash mais j'suis un Mac, pas un PC Passe-moi le microphone, je le tiens comme une épée Découpe mes adversaires avant qu'ils aient l'temps d'épeler B.U.S.T.A., 9-3 T'as le job, t'as la maison, t'as la meuf, la voiture mais tas pas les clés Jsuis l'genre de MC plutôt impliqué Niqué du cerveau, demande à Demba ou à Ric-É Jsuis avec la p'tite équipe, on est là, t'inquiète Les flows tournent, les bédos tournent comme un tourniquet Rhino l'as des rappeurs XXX Kicke la face B, nous on vient du rain-té Viens pas tester, tes comme un kisdé qui s'déguise en guise de dealer Le rap mon kif, je kicke les rimes, je suis un kickeur killer Bien placé Pour décrasser Tes oreilles de crasseux, écoute ce rap surclassé T'as toujours pas eu d'autographe de Rhino, l'as désastre J'ai pris le mic, si j'dois briller, j'veux être auprès des astres Raf raf, on s'engrène, de la vie, on s'en crève Faites gaffe, on s'entraîne, la bataille est sans trêve Entre nous on s'entraide, sur 100, j'ai 113 Ça va, j't'embête, tu dois faire mieux, tu t'sens bête</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2771,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Papa fait du sale, maman dit C'est pas la peine Y a d'l'amnesia, d'la kush, dis-moi, tu prendras laquelle ? On a rempli les sacs, on s'barre dans le Merco Benz J'ai pris deux-trois virages, elle a mouillé le cuir beige Papa fait du sale, maman dit C'est pas la peine Y a d'l'amnesia, d'la kush, dis-moi, tu prendras laquelle ? On a rempli les sacs, on s'barre dans le Merco Benz J'ai pris deux-trois virages, elle a mouillé le cuir beige J'suis défoncé, j'ai ls mains sur le volant oh la la Ma kishta dans la boite à gants oh la la Son boule m'attir comme un aimant oh la la Jolie, taillé comme un diamant oh la la J'traine dans les mêmes allées crades depuis la crèche depuis la crèche En tant que mec de tess', je n'pense qu'à faire l'espèce Ne prends pas la confiance négro, c'est pas la fête ah non Elle sait pas cuisiner, j'm'en fous tant qu'elle est fraiche yah yah J'tapais la pose pendant que les keufs prennent des photos-tos En bas du tieks, y a tous mes gars qui cabrent moto-to J'donne plus de confiance à cam qu'à certains potos-tos Pour en boite auto', semi-auto'-to'-to' Hey hey hey, tu deviens parano Bang bang bang, ouais ouais ouais ouais ouais C'est le ter', ter', ter', tu l'as fais sous l'influence de la teille', teille', teille' You might also like Papa fait du sale, maman dit C'est pas la peine Y a d'l'amnesia, d'la kush, dis-moi, tu prendras laquelle ? On a rempli les sacs, on s'barre dans le Merco Benz J'ai pris deux-trois virages, elle a mouillé le cuir beige J'suis défoncé, j'ai les mains sur le volant oh la la Ma kishta dans la boite à gants oh la la Son boule m'attire comme un aimant oh la la Jolie, taillé comme un diamant oh la la C'est de la peuf' qui nait-tour Lls savent où trouver l'four J'te demandais d'l'aide, tu faisais l'sourd Viens pas m'faire tes discours Faut de la thune, faut de la fume' Font de la peine c'temps-ci On fait la une, c'est nous la ue-r Tu sais qu'on baigne dans l'crime tu sais qu'on baigne dans l'crime 93 n'a jamais baissé le genou non jamais Prenez les faux, les vrais rendez-les nous que les vrais J'étais c'cassos, à la recherche de pesos Fils de pute on s'connait pas T'es ni mon frère, mon associé J'traine toujours dans un bloc qui sent la verte Tu pourras heurter en vol quand chez toi j'escaladais On est passé du stick à roulé sur la 'quette Parcours difficile, y en a qui manquent à l'appel Papa fait du sale, maman dit C'est pas la peine Y a d'l'amnesia, d'la kush, dis-moi, tu prendras laquelle ? On a rempli les sacs, on s'barre dans le Merco Benz J'ai pris deux-trois virages, elle a mouillé le cuir beige J'suis défoncé, j'ai les mains sur le volant oh la la Ma kishta dans la boite à gants oh la la Son boule m'attire comme un aimant oh la la Jolie, taillé comme un diamant oh la la, hey, hey, hey Oh la la Oh la la Elle a mouillé le cuir beige Oh la la Oh la la Elle a mouillé le cuir beige</t>
+          <t>Papa fait du sale, maman dit C'est pas la peine Y a d'l'amnesia, d'la kush, dis-moi, tu prendras laquelle ? On a rempli les sacs, on s'barre dans le Merco Benz J'ai pris deux-trois virages, elle a mouillé le cuir beige Papa fait du sale, maman dit C'est pas la peine Y a d'l'amnesia, d'la kush, dis-moi, tu prendras laquelle ? On a rempli les sacs, on s'barre dans le Merco Benz J'ai pris deux-trois virages, elle a mouillé le cuir beige J'suis défoncé, j'ai ls mains sur le volant oh la la Ma kishta dans la boite à gants oh la la Son boule m'attir comme un aimant oh la la Jolie, taillé comme un diamant oh la la J'traine dans les mêmes allées crades depuis la crèche depuis la crèche En tant que mec de tess', je n'pense qu'à faire l'espèce Ne prends pas la confiance négro, c'est pas la fête ah non Elle sait pas cuisiner, j'm'en fous tant qu'elle est fraiche yah yah J'tapais la pose pendant que les keufs prennent des photos-tos En bas du tieks, y a tous mes gars qui cabrent moto-to J'donne plus de confiance à cam qu'à certains potos-tos Pour en boite auto', semi-auto'-to'-to' Hey hey hey, tu deviens parano Bang bang bang, ouais ouais ouais ouais ouais C'est le ter', ter', ter', tu l'as fais sous l'influence de la teille', teille', teille' Papa fait du sale, maman dit C'est pas la peine Y a d'l'amnesia, d'la kush, dis-moi, tu prendras laquelle ? On a rempli les sacs, on s'barre dans le Merco Benz J'ai pris deux-trois virages, elle a mouillé le cuir beige J'suis défoncé, j'ai les mains sur le volant oh la la Ma kishta dans la boite à gants oh la la Son boule m'attire comme un aimant oh la la Jolie, taillé comme un diamant oh la la C'est de la peuf' qui nait-tour Lls savent où trouver l'four J'te demandais d'l'aide, tu faisais l'sourd Viens pas m'faire tes discours Faut de la thune, faut de la fume' Font de la peine c'temps-ci On fait la une, c'est nous la ue-r Tu sais qu'on baigne dans l'crime tu sais qu'on baigne dans l'crime 93 n'a jamais baissé le genou non jamais Prenez les faux, les vrais rendez-les nous que les vrais J'étais c'cassos, à la recherche de pesos Fils de pute on s'connait pas T'es ni mon frère, mon associé J'traine toujours dans un bloc qui sent la verte Tu pourras heurter en vol quand chez toi j'escaladais On est passé du stick à roulé sur la 'quette Parcours difficile, y en a qui manquent à l'appel Papa fait du sale, maman dit C'est pas la peine Y a d'l'amnesia, d'la kush, dis-moi, tu prendras laquelle ? On a rempli les sacs, on s'barre dans le Merco Benz J'ai pris deux-trois virages, elle a mouillé le cuir beige J'suis défoncé, j'ai les mains sur le volant oh la la Ma kishta dans la boite à gants oh la la Son boule m'attire comme un aimant oh la la Jolie, taillé comme un diamant oh la la, hey, hey, hey Oh la la Oh la la Elle a mouillé le cuir beige Oh la la Oh la la Elle a mouillé le cuir beige</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2788,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Han, hey, han, hey, hey Quand j'suis mort, jdémarre le Cayenne S, j'mets le plein, plus l'temps de sarrêter Plus d'une fois, j'repense aux taille-dé, jolie fille finit cocaïnée Toute la nuit, j'm'enfume au garrot, j'arrête le bédo, j'veux pas finir sur l'carreau Petit dort, je men vais mailler, on dort plus chez nous, le marchand dsable s'est taillé Rebeu solide les fra baliser coup d'crosse, famille pauvre y aura pas d'héritier charbonner C'est la hess depuis léternité kilo d'white, dans la tess ces shlags sont terrifiés pardonner À qui demander pardon quand t'es face au canon ? La, la, la À qui demander pardon quand t'es face au canon ? La, la, la Seulement d'la rue, j'suis héritier, la, la, la, c'est réel, j'te laisse vérifier, la, la, la On a pleuré nos RIP, la, la, la, seulement d'la rue, j'suis héritier, la, la, la Trop deu-spi pour être un paresseux han, trop vénère, j'm'endors sous caresse han Pardonner c'est vouloir l'paradis han, trahison atteint son paroxysme han La vie dans l'ghetto s'ra pas rose, à la hausse le prix d'un kilo, faut r'voir l'tarot han On apprend à se débrouiller han, il pleut des balles, le maillot sera bien mouillé han Face à l'agent, moi, j'baisse pas les yeux coup d'gaz, au bruit du compèt' qu'on se réveille trop d'gaz Dans l'quartier c'qu'on vit, t'as pas idée trop sale, tu t'feras jamais valider trop d'failles You might also like À qui demander pardon quand t'es face au canon ? La, la, la À qui demander pardon quand t'es face au canon ? La, la, la Seulement d'la rue, j'suis héritier, la, la, la, c'est réel, j'te laisse vérifier, la, la, la On a pleuré nos RIP, la, la, la, seulement d'la rue, j'suis héritier, la, la, la À qui demander pardon quand t'es face au canon ? La, la, la À qui demander pardon quand t'es face au canon ? La, la, la Seulement d'la rue, j'suis héritier, la, la, la, c'est réel, j'te laisse vérifier, la, la, la On a pleuré nos RIP, la, la, la, seulement d'la rue, j'suis héritier, la, la, la</t>
+          <t>Han, hey, han, hey, hey Quand j'suis mort, jdémarre le Cayenne S, j'mets le plein, plus l'temps de sarrêter Plus d'une fois, j'repense aux taille-dé, jolie fille finit cocaïnée Toute la nuit, j'm'enfume au garrot, j'arrête le bédo, j'veux pas finir sur l'carreau Petit dort, je men vais mailler, on dort plus chez nous, le marchand dsable s'est taillé Rebeu solide les fra baliser coup d'crosse, famille pauvre y aura pas d'héritier charbonner C'est la hess depuis léternité kilo d'white, dans la tess ces shlags sont terrifiés pardonner À qui demander pardon quand t'es face au canon ? La, la, la À qui demander pardon quand t'es face au canon ? La, la, la Seulement d'la rue, j'suis héritier, la, la, la, c'est réel, j'te laisse vérifier, la, la, la On a pleuré nos RIP, la, la, la, seulement d'la rue, j'suis héritier, la, la, la Trop deu-spi pour être un paresseux han, trop vénère, j'm'endors sous caresse han Pardonner c'est vouloir l'paradis han, trahison atteint son paroxysme han La vie dans l'ghetto s'ra pas rose, à la hausse le prix d'un kilo, faut r'voir l'tarot han On apprend à se débrouiller han, il pleut des balles, le maillot sera bien mouillé han Face à l'agent, moi, j'baisse pas les yeux coup d'gaz, au bruit du compèt' qu'on se réveille trop d'gaz Dans l'quartier c'qu'on vit, t'as pas idée trop sale, tu t'feras jamais valider trop d'failles À qui demander pardon quand t'es face au canon ? La, la, la À qui demander pardon quand t'es face au canon ? La, la, la Seulement d'la rue, j'suis héritier, la, la, la, c'est réel, j'te laisse vérifier, la, la, la On a pleuré nos RIP, la, la, la, seulement d'la rue, j'suis héritier, la, la, la À qui demander pardon quand t'es face au canon ? La, la, la À qui demander pardon quand t'es face au canon ? La, la, la Seulement d'la rue, j'suis héritier, la, la, la, c'est réel, j'te laisse vérifier, la, la, la On a pleuré nos RIP, la, la, la, seulement d'la rue, j'suis héritier, la, la, la</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2805,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Plus l'temps, plus l'temps Katrina Squad Plus l'temps Casquette bien baissée, j'fais le tour de la ville Rebeu sombre derrière vitre, 93, c'est la victoire Plus d'période d'essai, la mort en sachet Clicos qui défilent, gérant a l'vertige Casquette bien baissée, toujours nié les faits Assume la G.A.V, pookie en pas-chassé 10k d'amitié, depuis l'époque du Clio Solide, pas d'histoire d'clito, la misère au bout du bigo La misère au bout du bigo, soit la cellule, soit l'vito J'ai préféré les virer La misère au bout du bigo, soit la cellule, soit l'vito J'ai préféré les virer Eh, m'attends pas, on boit un verre sur l'toit d'la cité C'que font les p'tits, on l'a décidé Si le terrain tourne plus, remets d'la frappe, mon kho Eh, m'attends pas, on boit un verre sur l'toit d'la cité C'que font les p'tits, on l'a décidé Si le terrain tourne plus, remets d'la frappe, mon kho You might also like J'ai fait mon blase sur les bancs d'la tess, j'demande pas d'aide, j'préfère vendre d'la zeb Nique le benef', j'préfère partager, bateau d'ppe-f' vient du port d'Alger On assume la miff, on a tout sur l'dos, pas d'mandats donc ça compte sur l'cô' Grosse peine, les khos, ouais finissent clostro', quand les p'tits viennent, c'est pour crosser l'gros Parle-moi pas d'carrière, quand mon frère m'apelle, moi, j'déboule direct Même au bout d'la Terre, ouais, ça tire dans l'tas et c'est sauve qui peut, là, ça crie À l'aide Gyrophare et beuh, quand tu touches le deum, quand ça sent l'calibre C'est pas pour le fun, j'sais même plus c'qui m'arrive C'est sans réfléchir, pour mon frère, j'agis, j'pense à la daronne, j'voulais faire ma vie Eh, m'attends pas, on boit un verre sur l'toit d'la cité C'que font les p'tits, on l'a décidé Si le terrain tourne plus, remets d'la frappe, mon kho Eh, m'attends pas, on boit un verre sur l'toit d'la cité C'que font les p'tits, on l'a décidé Si le terrain tourne plus, remets d'la frappe, mon kho Remets d'la frappe, mon kho Eh, m'attends pas, on boit un verre sur l'toit d'la cité C'que font les p'tits, on l'a décidé Si le terrain tourne plus, remets d'la frappe, mon kho</t>
+          <t>Plus l'temps, plus l'temps Katrina Squad Plus l'temps Casquette bien baissée, j'fais le tour de la ville Rebeu sombre derrière vitre, 93, c'est la victoire Plus d'période d'essai, la mort en sachet Clicos qui défilent, gérant a l'vertige Casquette bien baissée, toujours nié les faits Assume la G.A.V, pookie en pas-chassé 10k d'amitié, depuis l'époque du Clio Solide, pas d'histoire d'clito, la misère au bout du bigo La misère au bout du bigo, soit la cellule, soit l'vito J'ai préféré les virer La misère au bout du bigo, soit la cellule, soit l'vito J'ai préféré les virer Eh, m'attends pas, on boit un verre sur l'toit d'la cité C'que font les p'tits, on l'a décidé Si le terrain tourne plus, remets d'la frappe, mon kho Eh, m'attends pas, on boit un verre sur l'toit d'la cité C'que font les p'tits, on l'a décidé Si le terrain tourne plus, remets d'la frappe, mon kho J'ai fait mon blase sur les bancs d'la tess, j'demande pas d'aide, j'préfère vendre d'la zeb Nique le benef', j'préfère partager, bateau d'ppe-f' vient du port d'Alger On assume la miff, on a tout sur l'dos, pas d'mandats donc ça compte sur l'cô' Grosse peine, les khos, ouais finissent clostro', quand les p'tits viennent, c'est pour crosser l'gros Parle-moi pas d'carrière, quand mon frère m'apelle, moi, j'déboule direct Même au bout d'la Terre, ouais, ça tire dans l'tas et c'est sauve qui peut, là, ça crie À l'aide Gyrophare et beuh, quand tu touches le deum, quand ça sent l'calibre C'est pas pour le fun, j'sais même plus c'qui m'arrive C'est sans réfléchir, pour mon frère, j'agis, j'pense à la daronne, j'voulais faire ma vie Eh, m'attends pas, on boit un verre sur l'toit d'la cité C'que font les p'tits, on l'a décidé Si le terrain tourne plus, remets d'la frappe, mon kho Eh, m'attends pas, on boit un verre sur l'toit d'la cité C'que font les p'tits, on l'a décidé Si le terrain tourne plus, remets d'la frappe, mon kho Remets d'la frappe, mon kho Eh, m'attends pas, on boit un verre sur l'toit d'la cité C'que font les p'tits, on l'a décidé Si le terrain tourne plus, remets d'la frappe, mon kho</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2822,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Mehsah à la prod' Mehsah à la prod' Faut qu'j'remette les bouchées, j'commence le match à deux-zéro La hess voulait nous ronger, j'écrase personne pour mon TO Mettre la mif' à l'abri, toi, perso', t'es pas des nôtres Que ça parle derrière mais ça veut VHR bon tel-hô Son latin, ça va pas quand j'suis sur béquille Cite pas d'nom, muet à la barre, fais pas cramer l'équipe Ça roule un cône, ça r'pense à l'époque, garder la même méthode J'm'en rappelle du vingt-sept, toujours la dalle, je dead ça Respect J'ai planté la récolte, j'veux ma part, y aura du bénéf' et bonne zlata Dans la drill et dans la rue, ça plante, rebeu tout en bas d'la pente, on va tout prendre, plus qu'avant Ce soir, on va retourner dans l'Sud, grave, j'ai deux-trois res-frè dans l'Sud, grave Tes mensonges font pas la pule-cra, pas dans l'm'as-tu vu, moi, j'mets la puche-ca Ce soir, on va retourner dans l'Sud, grave, j'ai deux-trois res-frè dans l'Sud, grave Tes mensonges font pas la pule-cra, pas dans l'm'as-tu vu, moi, j'mets la puche-ca J'suis full comme mon quatre anneaux, des fois parano, si j'veux ta peau, on passera par ta go Des fois sur un yacht, je frôle la côte, tellement galéré, ça d'vient lourd pour un dos Moi, quand j'aime, y a pas d'prix, si t'es faux, j'fais pas l'feat Tu t'crois chaud ? T'es pas l'pire, prends le .9, t'es poids plume Cla-cla-classique comme ma paire de Cartier, j'aime le calme, faut pas qu'ça 3ayet Trop-trop-trop d'bavures, pour ça qu'on les allume au mortier, fais ton biff scred, tu sais qu'ça 3ayen You might also like J'ai planté la récolte, j'veux ma part, y aura du bénéf' et bonne zlata Dans la drill et dans la rue, ça plante, rebeu tout en bas d'la pente, on va tout prendre, plus qu'avant Ce soir, on va retourner dans l'Sud, grave, j'ai deux-trois res-frè dans l'Sud, grave Tes mensonges font pas la pule-cra, pas dans l'm'as-tu vu, moi, j'mets la puche-ca Ce soir, on va retourner dans l'Sud, grave, j'ai deux-trois res-frè dans l'Sud, grave Tes mensonges font pas la pule-cra, pas dans l'm'as-tu vu, moi, j'mets la puche-ca Pas choisi d'connaître la voyoucratie, j'connais la rue et tous ses classiques Les cités d'or et la rue massive, ce soir, on va retourner dans l'Sud, grave, j'ai deux-trois res-frè dans l'Sud, grave Tes mensonges font pas la pule-cra, pas dans l'm'as-tu vu, moi, j'mets la puche-ca J'ai planté la récolte, j'veux ma part, y aura du bénéf' et bonne zlata Dans la drill et dans la rue, ça plante, rebeu tout en bas d'la pente, on va tout prendre, plus qu'avant</t>
+          <t>Mehsah à la prod' Mehsah à la prod' Faut qu'j'remette les bouchées, j'commence le match à deux-zéro La hess voulait nous ronger, j'écrase personne pour mon TO Mettre la mif' à l'abri, toi, perso', t'es pas des nôtres Que ça parle derrière mais ça veut VHR bon tel-hô Son latin, ça va pas quand j'suis sur béquille Cite pas d'nom, muet à la barre, fais pas cramer l'équipe Ça roule un cône, ça r'pense à l'époque, garder la même méthode J'm'en rappelle du vingt-sept, toujours la dalle, je dead ça Respect J'ai planté la récolte, j'veux ma part, y aura du bénéf' et bonne zlata Dans la drill et dans la rue, ça plante, rebeu tout en bas d'la pente, on va tout prendre, plus qu'avant Ce soir, on va retourner dans l'Sud, grave, j'ai deux-trois res-frè dans l'Sud, grave Tes mensonges font pas la pule-cra, pas dans l'm'as-tu vu, moi, j'mets la puche-ca Ce soir, on va retourner dans l'Sud, grave, j'ai deux-trois res-frè dans l'Sud, grave Tes mensonges font pas la pule-cra, pas dans l'm'as-tu vu, moi, j'mets la puche-ca J'suis full comme mon quatre anneaux, des fois parano, si j'veux ta peau, on passera par ta go Des fois sur un yacht, je frôle la côte, tellement galéré, ça d'vient lourd pour un dos Moi, quand j'aime, y a pas d'prix, si t'es faux, j'fais pas l'feat Tu t'crois chaud ? T'es pas l'pire, prends le .9, t'es poids plume Cla-cla-classique comme ma paire de Cartier, j'aime le calme, faut pas qu'ça 3ayet Trop-trop-trop d'bavures, pour ça qu'on les allume au mortier, fais ton biff scred, tu sais qu'ça 3ayen J'ai planté la récolte, j'veux ma part, y aura du bénéf' et bonne zlata Dans la drill et dans la rue, ça plante, rebeu tout en bas d'la pente, on va tout prendre, plus qu'avant Ce soir, on va retourner dans l'Sud, grave, j'ai deux-trois res-frè dans l'Sud, grave Tes mensonges font pas la pule-cra, pas dans l'm'as-tu vu, moi, j'mets la puche-ca Ce soir, on va retourner dans l'Sud, grave, j'ai deux-trois res-frè dans l'Sud, grave Tes mensonges font pas la pule-cra, pas dans l'm'as-tu vu, moi, j'mets la puche-ca Pas choisi d'connaître la voyoucratie, j'connais la rue et tous ses classiques Les cités d'or et la rue massive, ce soir, on va retourner dans l'Sud, grave, j'ai deux-trois res-frè dans l'Sud, grave Tes mensonges font pas la pule-cra, pas dans l'm'as-tu vu, moi, j'mets la puche-ca J'ai planté la récolte, j'veux ma part, y aura du bénéf' et bonne zlata Dans la drill et dans la rue, ça plante, rebeu tout en bas d'la pente, on va tout prendre, plus qu'avant</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2839,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Baille Broliker Production Bonbonnes de t-sh' dans le survêt', terrain d'enfance qui nous surveille Pas de vendeurs à la sauvette, y a mon akhteur qui te surveille Bonbonnes de t-sh' dans le survêt', terrain d'enfance qui nous surveille Pas de vendeurs à la sauvette, y a mon akhteur qui te surveille J't'ai jamais vu dans la tess, toi, midi-minuit sur la chaise J't'ai jamais vu dans la tess, toi, midi-minuit sur la chaise J'ai tout coffré dans la Quechua, j'ai même mis les clés dans la tess J'ai tout coffré dans la Quechua, j'ai même mis les clés dans la tess L'ensemble tout noir, pas de couleurs l'ensemble tout noir, pas de couleurs J'oublie les coups pas la douleur j'oublie les coups pas la douleur Mon 9 milli' sous l'accoudoir clic clic Le marabout est là pour voir, au revoir Au début du projet, on vendait la drogue, on a investi, on a fini l'album Viens qu'on en finisse, toi, t'es mon fils, j'connais tes vices, t'es chaud que sous alcool Laisses-les faire les comédiens, j'ai leur bénef' dans les mains Y a qu'si on perd, on est mal, j'ai appris à faire Pendant qu'ça grattait des You might also like Bonbonnes de t-sh' dans le survêt', terrain d'enfance qui nous surveille Pas de vendeurs à la sauvette, y a mon akhteur qui te surveille Bonbonnes de t-sh' dans le survêt', terrain d'enfance qui nous surveille Pas de vendeurs à la sauvette, y a mon akhteur qui te surveille J't'ai jamais vu dans la tess, toi, midi-minuit sur la chaise J't'ai jamais vu dans la tess, toi, midi-minuit sur la chaise J'ai tout coffré dans la Quechua, j'ai même mis les clés dans la tess J'ai tout coffré dans la Quechua, j'ai même mis les clés dans la tess Les condés font qu'passer, c'est pas saisonnier, à cause des pookies, ils nous connaissent tous J'ai vu l'pe-ra comme un trait d'espoir, j'voulais m'refaire comme l'entrée du square Tu parles de balles, tu veux pillave ? Compter mes 'tasses, t'es pas missionné J'ai d'jà la médaille, la ppe-f' au détail, j'sors mon pétard, t'as l'air étonné Dans l'appart' de la ville, les condés regardent c'qu'on brasse Mes anciens sont pleins, c'est chacun son pain, ils restent au bar Ça pénave, ça bédave, ça passe à la caisse, viens dans mon coin, ça bibi à la chaîne Putain d'journée dans mon 93 Bonbonnes de t-sh' dans le survêt', terrain d'enfance qui nous surveille Pas de vendeurs à la sauvette, y a mon akhteur qui te surveille Bonbonnes de t-sh' dans le survêt', terrain d'enfance qui nous surveille Pas de vendeurs à la sauvette, y a mon akhteur qui te surveille J't'ai jamais vu dans la tess, toi, midi-minuit sur la chaise J't'ai jamais vu dans la tess, toi, midi-minuit sur la chaise J'ai tout coffré dans la Quechua, j'ai même mis les clés dans la tess J'ai tout coffré dans la Quechua, j'ai même mis les clés dans la tess J'ai tout coffré dans la Quechua</t>
+          <t>Baille Broliker Production Bonbonnes de t-sh' dans le survêt', terrain d'enfance qui nous surveille Pas de vendeurs à la sauvette, y a mon akhteur qui te surveille Bonbonnes de t-sh' dans le survêt', terrain d'enfance qui nous surveille Pas de vendeurs à la sauvette, y a mon akhteur qui te surveille J't'ai jamais vu dans la tess, toi, midi-minuit sur la chaise J't'ai jamais vu dans la tess, toi, midi-minuit sur la chaise J'ai tout coffré dans la Quechua, j'ai même mis les clés dans la tess J'ai tout coffré dans la Quechua, j'ai même mis les clés dans la tess L'ensemble tout noir, pas de couleurs l'ensemble tout noir, pas de couleurs J'oublie les coups pas la douleur j'oublie les coups pas la douleur Mon 9 milli' sous l'accoudoir clic clic Le marabout est là pour voir, au revoir Au début du projet, on vendait la drogue, on a investi, on a fini l'album Viens qu'on en finisse, toi, t'es mon fils, j'connais tes vices, t'es chaud que sous alcool Laisses-les faire les comédiens, j'ai leur bénef' dans les mains Y a qu'si on perd, on est mal, j'ai appris à faire Pendant qu'ça grattait des Bonbonnes de t-sh' dans le survêt', terrain d'enfance qui nous surveille Pas de vendeurs à la sauvette, y a mon akhteur qui te surveille Bonbonnes de t-sh' dans le survêt', terrain d'enfance qui nous surveille Pas de vendeurs à la sauvette, y a mon akhteur qui te surveille J't'ai jamais vu dans la tess, toi, midi-minuit sur la chaise J't'ai jamais vu dans la tess, toi, midi-minuit sur la chaise J'ai tout coffré dans la Quechua, j'ai même mis les clés dans la tess J'ai tout coffré dans la Quechua, j'ai même mis les clés dans la tess Les condés font qu'passer, c'est pas saisonnier, à cause des pookies, ils nous connaissent tous J'ai vu l'pe-ra comme un trait d'espoir, j'voulais m'refaire comme l'entrée du square Tu parles de balles, tu veux pillave ? Compter mes 'tasses, t'es pas missionné J'ai d'jà la médaille, la ppe-f' au détail, j'sors mon pétard, t'as l'air étonné Dans l'appart' de la ville, les condés regardent c'qu'on brasse Mes anciens sont pleins, c'est chacun son pain, ils restent au bar Ça pénave, ça bédave, ça passe à la caisse, viens dans mon coin, ça bibi à la chaîne Putain d'journée dans mon 93 Bonbonnes de t-sh' dans le survêt', terrain d'enfance qui nous surveille Pas de vendeurs à la sauvette, y a mon akhteur qui te surveille Bonbonnes de t-sh' dans le survêt', terrain d'enfance qui nous surveille Pas de vendeurs à la sauvette, y a mon akhteur qui te surveille J't'ai jamais vu dans la tess, toi, midi-minuit sur la chaise J't'ai jamais vu dans la tess, toi, midi-minuit sur la chaise J'ai tout coffré dans la Quechua, j'ai même mis les clés dans la tess J'ai tout coffré dans la Quechua, j'ai même mis les clés dans la tess J'ai tout coffré dans la Quechua</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2856,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Le quartier l'appelle Raton, j'crois bien qu'ça fait serrer la taule Qu'est-ce tu veux qu'il t'raconte ? Vendre d'la hasch', détruit un homme La street veut plus l'aider, d'vant ses yeux, passait la tonne Tout l'monde a oublié, pourtant c'est lui qui a tout nié Et si j'ai plus les mots, et si j'fais plus d'efforts Et si, des fois, j'fais l'mort la street a fait tomber Raton Et si j'ai plus les mots, et si j'fais plus d'efforts Et si, des fois, j'fais l'mort la street a fait tomber Raton N'a pas connu le lycée, passait sa vie à visser Pour mission d'fuir la misère mais dans la rue, on s'y perd Première peine rempli d'peines, un schlag qui fait une OD Pas d'pitié, décrocher le 'phone, penser qu'à refaire des sommes Des longues peines pour d'la hasch', les médicaments l'calment Le mitard fait perdre espoir, t'es seul, il fait tout noir La malédiction parle jnoun, les p'tits l'insultent de fou Te parlent de ses anciens sous, la street s'souvient plus d'toi Le quartier l'appelle Raton, j'crois bien qu'ça fait serrer la taule Qu'est-ce tu veux qu'il t'raconte ? Vendre d'la hasch', détruit un homme La street veut plus l'aider, d'vant ses yeux, passait la tonne Tout l'monde a oublié, pourtant c'est lui qui a tout nié You might also like Et si j'ai plus les mots, et si j'fais plus d'efforts Et si, des fois, j'fais l'mort la street a fait tomber Raton Et si j'ai plus les mots, et si j'fais plus d'efforts Et si, des fois, j'fais l'mort la street a fait tomber Raton Vendre d'la hasch', à qui la faute ? À qui la faute ? Il sait c'que c'est de perdre un pote Il sait c'que c'est de perdre un pote C'est devenu dur d'refaire un mauve c'est devenu dur d'refaire un mauve Te parle du quartier à l'époque à l'époque et rien d'autre et rien d'autre Au quartier, on l'appelait Raton appelait Raton Que des bébés ratons bébés ratons, que des bébés ratons bébés ratons Histoire vraie, plus qu'un conte plus qu'un conte Plus qu'un conte, j'te raconte l'histoire d'Raton histoire d'Raton Le quartier l'appelle Raton, j'crois bien qu'ça fait serrer la taule Qu'est-ce tu veux qu'il t'raconte ? Vendre d'la hasch', détruit un homme La street veut plus l'aider, d'vant ses yeux, passait la tonne Tout l'monde a oublié, pourtant c'est lui qui a tout nié Et si j'ai plus les mots, et si j'fais plus d'efforts Et si, des fois, j'fais l'mort la street a fait tomber Raton Et si j'ai plus les mots, et si j'fais plus d'efforts Et si, des fois, j'fais l'mort la street a fait tomber Raton</t>
+          <t>Le quartier l'appelle Raton, j'crois bien qu'ça fait serrer la taule Qu'est-ce tu veux qu'il t'raconte ? Vendre d'la hasch', détruit un homme La street veut plus l'aider, d'vant ses yeux, passait la tonne Tout l'monde a oublié, pourtant c'est lui qui a tout nié Et si j'ai plus les mots, et si j'fais plus d'efforts Et si, des fois, j'fais l'mort la street a fait tomber Raton Et si j'ai plus les mots, et si j'fais plus d'efforts Et si, des fois, j'fais l'mort la street a fait tomber Raton N'a pas connu le lycée, passait sa vie à visser Pour mission d'fuir la misère mais dans la rue, on s'y perd Première peine rempli d'peines, un schlag qui fait une OD Pas d'pitié, décrocher le 'phone, penser qu'à refaire des sommes Des longues peines pour d'la hasch', les médicaments l'calment Le mitard fait perdre espoir, t'es seul, il fait tout noir La malédiction parle jnoun, les p'tits l'insultent de fou Te parlent de ses anciens sous, la street s'souvient plus d'toi Le quartier l'appelle Raton, j'crois bien qu'ça fait serrer la taule Qu'est-ce tu veux qu'il t'raconte ? Vendre d'la hasch', détruit un homme La street veut plus l'aider, d'vant ses yeux, passait la tonne Tout l'monde a oublié, pourtant c'est lui qui a tout nié Et si j'ai plus les mots, et si j'fais plus d'efforts Et si, des fois, j'fais l'mort la street a fait tomber Raton Et si j'ai plus les mots, et si j'fais plus d'efforts Et si, des fois, j'fais l'mort la street a fait tomber Raton Vendre d'la hasch', à qui la faute ? À qui la faute ? Il sait c'que c'est de perdre un pote Il sait c'que c'est de perdre un pote C'est devenu dur d'refaire un mauve c'est devenu dur d'refaire un mauve Te parle du quartier à l'époque à l'époque et rien d'autre et rien d'autre Au quartier, on l'appelait Raton appelait Raton Que des bébés ratons bébés ratons, que des bébés ratons bébés ratons Histoire vraie, plus qu'un conte plus qu'un conte Plus qu'un conte, j'te raconte l'histoire d'Raton histoire d'Raton Le quartier l'appelle Raton, j'crois bien qu'ça fait serrer la taule Qu'est-ce tu veux qu'il t'raconte ? Vendre d'la hasch', détruit un homme La street veut plus l'aider, d'vant ses yeux, passait la tonne Tout l'monde a oublié, pourtant c'est lui qui a tout nié Et si j'ai plus les mots, et si j'fais plus d'efforts Et si, des fois, j'fais l'mort la street a fait tomber Raton Et si j'ai plus les mots, et si j'fais plus d'efforts Et si, des fois, j'fais l'mort la street a fait tomber Raton</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2873,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Hein Petit menteur, hein Fire, fire, fire Depuis qu'j'suis monté, j'vois les gens changer d'rôles, c'est soit ils oublient ou ils s'droguent J'reste en entier, des fois, j'sais même pas c'qui m'prend, je casse le rap et je prends c'qu'il m'donne C'est d'la ppe-f', mes tracks, quand j'monte sur scène, j'étais pauvre, fallait leur mettre la blanche sous l'ze-n Le banquier m'appelle par mon nom sans l'écorcher, que du love, confiance en Dieu et pas l'sorcier J'étais gosse, d'puis cas soc', j'avais déjà mes soss, Levi Strauss, ça vend des meujs dans l'seize Alcootest, j'écoutais pas c'qu'on m'dit, j'bois corsé, t'inquiète, c'est moi j'conduis J'sais d'jà où ça mène, j'leur passerai plus l'salam, j'montais par l'escalier, l'ascenseur pue sa mère Sur l'réseau, j'v'-esqui l'clash, j'donne du respect aux vrais, m'connaissent tous, tu peux l'vérifier À l'instinct, j'y vais, j'reviens les choquer, que ça plaise ou pas, reste comme t'es Nous, on t'aime comme t'es, hein, reste comme t'es Hein, reste comme t'es, toi, reste comme t'es Parce que faut pas changer de masque, reste comme t'es Évite de faire des phases, reste comme t'es Quoi qui se passe, reste comme t'es Même si derrière ça parle, reste comme t'es You might also like Ils voulaient changer à la première mi-temps, j'suis resté l'même, l'oseille, même plus excitant J'ressens ma Benzema, dans l'caractère et dans l'goal, je ne fais qu'l'éteindre Réel, des frères qui purgent des peines, terrain tourne plus, y a trop d'chickens J'aime pas les dettes, qui cassent, qui payent, j'aime pas les traîtres, bois pas à ma 'teille, hein L'adversité, l'atrocité, j'suis trop cité, excité, j'le défonce jusqu'à c'qu'il m'paye Sur l'réseau, j'v'-esqui l'clash, j'donne du respect aux vrais, m'connaissent tous, tu peux l'vérifier À l'instinct, j'y vais, j'reviens les choquer, que ça plaise ou pas, reste comme t'es Nous, on t'aime comme t'es, hein, reste comme t'es Hein, reste comme t'es, toi, reste comme t'es Parce que faut pas changer de masque, reste comme t'es Évite de faire des phases, reste comme t'es Quoi qui se passe, reste comme t'es Même si derrière ça parle, reste comme t'es Nous, on t'aime comme t'es, hein, reste comme t'es Hein, reste comme t'es, toi, reste comme t'es Parce que faut pas changer de masque, reste comme t'es Évite de faire des phases, reste comme t'es Quoi qui se passe, reste comme t'es Même si derrière ça parle, reste comme t'es</t>
+          <t>Hein Petit menteur, hein Fire, fire, fire Depuis qu'j'suis monté, j'vois les gens changer d'rôles, c'est soit ils oublient ou ils s'droguent J'reste en entier, des fois, j'sais même pas c'qui m'prend, je casse le rap et je prends c'qu'il m'donne C'est d'la ppe-f', mes tracks, quand j'monte sur scène, j'étais pauvre, fallait leur mettre la blanche sous l'ze-n Le banquier m'appelle par mon nom sans l'écorcher, que du love, confiance en Dieu et pas l'sorcier J'étais gosse, d'puis cas soc', j'avais déjà mes soss, Levi Strauss, ça vend des meujs dans l'seize Alcootest, j'écoutais pas c'qu'on m'dit, j'bois corsé, t'inquiète, c'est moi j'conduis J'sais d'jà où ça mène, j'leur passerai plus l'salam, j'montais par l'escalier, l'ascenseur pue sa mère Sur l'réseau, j'v'-esqui l'clash, j'donne du respect aux vrais, m'connaissent tous, tu peux l'vérifier À l'instinct, j'y vais, j'reviens les choquer, que ça plaise ou pas, reste comme t'es Nous, on t'aime comme t'es, hein, reste comme t'es Hein, reste comme t'es, toi, reste comme t'es Parce que faut pas changer de masque, reste comme t'es Évite de faire des phases, reste comme t'es Quoi qui se passe, reste comme t'es Même si derrière ça parle, reste comme t'es Ils voulaient changer à la première mi-temps, j'suis resté l'même, l'oseille, même plus excitant J'ressens ma Benzema, dans l'caractère et dans l'goal, je ne fais qu'l'éteindre Réel, des frères qui purgent des peines, terrain tourne plus, y a trop d'chickens J'aime pas les dettes, qui cassent, qui payent, j'aime pas les traîtres, bois pas à ma 'teille, hein L'adversité, l'atrocité, j'suis trop cité, excité, j'le défonce jusqu'à c'qu'il m'paye Sur l'réseau, j'v'-esqui l'clash, j'donne du respect aux vrais, m'connaissent tous, tu peux l'vérifier À l'instinct, j'y vais, j'reviens les choquer, que ça plaise ou pas, reste comme t'es Nous, on t'aime comme t'es, hein, reste comme t'es Hein, reste comme t'es, toi, reste comme t'es Parce que faut pas changer de masque, reste comme t'es Évite de faire des phases, reste comme t'es Quoi qui se passe, reste comme t'es Même si derrière ça parle, reste comme t'es Nous, on t'aime comme t'es, hein, reste comme t'es Hein, reste comme t'es, toi, reste comme t'es Parce que faut pas changer de masque, reste comme t'es Évite de faire des phases, reste comme t'es Quoi qui se passe, reste comme t'es Même si derrière ça parle, reste comme t'es</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2890,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Baille Broliker Production La moula Loin de tout, j'ai quitté Bériz, ciel bleu, j'atterris Maman souffre, tes deux fils reviendront plus riches Dans la re-tou, tous les voisins sont d'jà complices Besoin de tout, j'me contenterai que de khaliss Fais pas l'moraliste, trace de coke dans les analyses Fin du mois serré, à deux doigts d'faire la buraliste J'comptais m'insérer mais j'ai grandi dans zone à risque Touche même pas l'p'tit reuf, ça peut finir en cour d'assisse Tête cassé sous la capuche, y a rien à fêter, mon ami Rich comme un Tuche, tire sur la kush, les mêmes qu'au départ, on a dit Tête cassée sous la capuche, y a rien à fêter, mon ami Riche comme un Tuche, tire sur la kush J'descends en Espagne, j'remonte des kilos J'ai connu des galères et des fois, des pertes BRS réveille la tess J'descends en Espagne, j'remonte des kilos J'ai connu des galères et des fois, des pertes BRS réveille la tess J'descends en Espagne, j'remonte des kilos You might also like J'les vois changer pour un 100 G', un pote qui laisse un autre à terre Tu es proche du ferme pour une ce-pu, tu ressors, t'as pas pour une canette Quatre-vingt treize, c'est mon emblème, j'fume l'amné', ça fait des bulles, ça adoucit ma 'teille J'ai vendu mmes-gra, mmes-gra, mmes-gra dans l'barrio, les res-fou d'chez moi ner-tour comme Rio Babylone, veut péter la tête le gros, c'est des démons, mon pote, parano Je monte depuis minot et ça, c'est pas nouveau, te-shi tout jaune, on a la qualité Noires, tragique, bre-som sont nos cités, maman a peur, le sale on fait Tête cassée sous la capuche, y a rien à fêter, mon ami Riche comme un Tuche, tire sur la kush, les mêmes qu'au départ, on a dit Tête cassée sous la capuche, y a rien à fêter, mon ami Riche comme un Tuche, tire sur la kush J'descends en Espagne, j'remonte des kilos J'ai connu des galères et des fois, des pertes BRS réveille la tess J'descends en Espagne, j'remonte des kilos J'ai connu des galères et des fois, des pertes BRS réveille la tess J'descends en Espagne, j'remonte des kilos Tête cassée sous la capuche Riche comme un Tuche, tire sur la kush Tête cassée sous la capuche Riche comme un Tuche, tire sur la kush</t>
+          <t>Baille Broliker Production La moula Loin de tout, j'ai quitté Bériz, ciel bleu, j'atterris Maman souffre, tes deux fils reviendront plus riches Dans la re-tou, tous les voisins sont d'jà complices Besoin de tout, j'me contenterai que de khaliss Fais pas l'moraliste, trace de coke dans les analyses Fin du mois serré, à deux doigts d'faire la buraliste J'comptais m'insérer mais j'ai grandi dans zone à risque Touche même pas l'p'tit reuf, ça peut finir en cour d'assisse Tête cassé sous la capuche, y a rien à fêter, mon ami Rich comme un Tuche, tire sur la kush, les mêmes qu'au départ, on a dit Tête cassée sous la capuche, y a rien à fêter, mon ami Riche comme un Tuche, tire sur la kush J'descends en Espagne, j'remonte des kilos J'ai connu des galères et des fois, des pertes BRS réveille la tess J'descends en Espagne, j'remonte des kilos J'ai connu des galères et des fois, des pertes BRS réveille la tess J'descends en Espagne, j'remonte des kilos J'les vois changer pour un 100 G', un pote qui laisse un autre à terre Tu es proche du ferme pour une ce-pu, tu ressors, t'as pas pour une canette Quatre-vingt treize, c'est mon emblème, j'fume l'amné', ça fait des bulles, ça adoucit ma 'teille J'ai vendu mmes-gra, mmes-gra, mmes-gra dans l'barrio, les res-fou d'chez moi ner-tour comme Rio Babylone, veut péter la tête le gros, c'est des démons, mon pote, parano Je monte depuis minot et ça, c'est pas nouveau, te-shi tout jaune, on a la qualité Noires, tragique, bre-som sont nos cités, maman a peur, le sale on fait Tête cassée sous la capuche, y a rien à fêter, mon ami Riche comme un Tuche, tire sur la kush, les mêmes qu'au départ, on a dit Tête cassée sous la capuche, y a rien à fêter, mon ami Riche comme un Tuche, tire sur la kush J'descends en Espagne, j'remonte des kilos J'ai connu des galères et des fois, des pertes BRS réveille la tess J'descends en Espagne, j'remonte des kilos J'ai connu des galères et des fois, des pertes BRS réveille la tess J'descends en Espagne, j'remonte des kilos Tête cassée sous la capuche Riche comme un Tuche, tire sur la kush Tête cassée sous la capuche Riche comme un Tuche, tire sur la kush</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2907,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>On s'en bats les yeuks, on arrive on est 213 On parle pas anglais, nous on baise la ligue anglaise Dégaine drapeau vert comme beubeuh hollandaise Dégaine drapeau vert comme beubeuh hollandaise Le 504 est chargé mais Même à la 90ème nous wAllah on y croit Dans les rues d'Alger comme dans les rues de Barbès Rebeu solide, elle veut zitoun, le3dess Dégradé blanc, t'as r'connu les 3arbis Jeune élégant, tu sais bien habibi Tu veux mon gramme, par ici ça bibi T'es pas un vrai gars, j'te fais pas la bi-bise Comme un DZ, mon rebeu Comme un DZ, mon rebeu Comme un DZ, mon rebeu Rien nous arrête comme Brahimi et Mahrez, ish ish Si vous êtes tarpin, j'sors le tarpé Si vous êtes tarpin, j'sors le tarpé Si vous êtes tarpin, j'sors le tarpé J'te mets des tartes, tu pourras dire qu'j'suis tarté Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez, Riyad Mahrez You might also like J'crois qu'on bicrave pas les mêmes t'chiz Donc pas les mêmes taros ouais Forcément y'a pas la même équipe qui barode Tu m'vois gentil mais dans ma tête c'est pas rond Gros t'es paro et on t'arrose pour du marron Et tes parents deviennent félo, et tes parents deviennent félo Sur le rain-té côté corner et j'tire les pénos La peuf tu dois la payer, le dealer encaisse son pognon Que tu pèses ou pas des kilos Gros j'sais pas l'heure qu'il est j'sais pas Mais j'sais qu'il y a tous mes potos sur le kil Paw paw paw Vous menez mais vous reculez, j'suis serein En cas d'embrouille on vous encule on vous baise ! on vous baise! Libérez nos taulards, ils débarquent que quand les akha sont trop tard J'técla mon pétard, j'recharge le pétard, et j'matte ton gros pétard Si vous êtes tarpin, j'sors le tarpé Si vous êtes tarpin, j'sors le tarpé Si vous êtes tarpin, j'sors le tarpé J'te mets des tartes, tu pourras dire qu'j'suis tarté Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez, Riyad Mahrez J'mets des feintes, carré rappuyé Tous les jours c'est l'5 juillet Calibre sous le drapeau caché Chaque match y'a des morts comme le Mouloudia d'Alger Cur en titane, tête de tzigane Passeport vert comme Feghouli et Zidane J'suis algérien comme Végéta, faut qu'le groupe tienne J'sors du four Aller-retour Orly-Boumédiène Et j'sens tous les 3eins qu'on attire Le sang des martyrs quand ça tire Plutôt s'unir que s'salir, mourir que trahir Nmout fel Djazaïr ! Comme un DZ, mon rebeu Comme un DZ, mon rebeu Comme un DZ, mon rebeu Rien nous arrête comme Brahimi et Mahrez, ish ish Si vous êtes tarpin, j'sors le tarpé Si vous êtes tarpin, j'sors le tarpé Si vous êtes tarpin, j'sors le tarpé J'te mets des tartes, tu pourras dire qu'j'suis tarté Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez, Riyad Mahrez1</t>
+          <t>On s'en bats les yeuks, on arrive on est 213 On parle pas anglais, nous on baise la ligue anglaise Dégaine drapeau vert comme beubeuh hollandaise Dégaine drapeau vert comme beubeuh hollandaise Le 504 est chargé mais Même à la 90ème nous wAllah on y croit Dans les rues d'Alger comme dans les rues de Barbès Rebeu solide, elle veut zitoun, le3dess Dégradé blanc, t'as r'connu les 3arbis Jeune élégant, tu sais bien habibi Tu veux mon gramme, par ici ça bibi T'es pas un vrai gars, j'te fais pas la bi-bise Comme un DZ, mon rebeu Comme un DZ, mon rebeu Comme un DZ, mon rebeu Rien nous arrête comme Brahimi et Mahrez, ish ish Si vous êtes tarpin, j'sors le tarpé Si vous êtes tarpin, j'sors le tarpé Si vous êtes tarpin, j'sors le tarpé J'te mets des tartes, tu pourras dire qu'j'suis tarté Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez, Riyad Mahrez J'crois qu'on bicrave pas les mêmes t'chiz Donc pas les mêmes taros ouais Forcément y'a pas la même équipe qui barode Tu m'vois gentil mais dans ma tête c'est pas rond Gros t'es paro et on t'arrose pour du marron Et tes parents deviennent félo, et tes parents deviennent félo Sur le rain-té côté corner et j'tire les pénos La peuf tu dois la payer, le dealer encaisse son pognon Que tu pèses ou pas des kilos Gros j'sais pas l'heure qu'il est j'sais pas Mais j'sais qu'il y a tous mes potos sur le kil Paw paw paw Vous menez mais vous reculez, j'suis serein En cas d'embrouille on vous encule on vous baise ! on vous baise! Libérez nos taulards, ils débarquent que quand les akha sont trop tard J'técla mon pétard, j'recharge le pétard, et j'matte ton gros pétard Si vous êtes tarpin, j'sors le tarpé Si vous êtes tarpin, j'sors le tarpé Si vous êtes tarpin, j'sors le tarpé J'te mets des tartes, tu pourras dire qu'j'suis tarté Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez, Riyad Mahrez J'mets des feintes, carré rappuyé Tous les jours c'est l'5 juillet Calibre sous le drapeau caché Chaque match y'a des morts comme le Mouloudia d'Alger Cur en titane, tête de tzigane Passeport vert comme Feghouli et Zidane J'suis algérien comme Végéta, faut qu'le groupe tienne J'sors du four Aller-retour Orly-Boumédiène Et j'sens tous les 3eins qu'on attire Le sang des martyrs quand ça tire Plutôt s'unir que s'salir, mourir que trahir Nmout fel Djazaïr ! Comme un DZ, mon rebeu Comme un DZ, mon rebeu Comme un DZ, mon rebeu Rien nous arrête comme Brahimi et Mahrez, ish ish Si vous êtes tarpin, j'sors le tarpé Si vous êtes tarpin, j'sors le tarpé Si vous êtes tarpin, j'sors le tarpé J'te mets des tartes, tu pourras dire qu'j'suis tarté Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez Personne m'arrête, RiyadMahrez, Riyad Mahrez1</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2924,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>RH LAS, RH, RH LAS Sale gosse, ça bosse La ppe-fra Sale gosse, ça bosse La ppe-fra Sale gosse, ça bosse La ppe-fra Sale gosse, ça bosse J'sors d'chez moi, fonce-dé d'la veille Bientôt j'bé-tom, c'est une indic' la vieille Pure flash de cke-Ja, suivi d'un Royal J'veux chanter Sapapaya en chemise hawaïenne Voyous, voyelles, que des vrais dans l'voilier Rien à fêter on va quand même s'envoyer Une 'teille chez l'rebeu, en équipe sur l'parking Sale gosse on est pas prêts d'partir On tient la cité à bout d'bras Au comico on n'avoue pas J'clippe dans la tess, ou j'clippe à Dubaï J'reste le même, de la frappe pas de la caille Elle a kiffé le charme de la tess, alors qu'jsuis naturel Rien d'exceptionnel Ce soir j'la péta à son adresse, la dégaine est gang J'l'avoue, j'ai plus sommeil You might also like Sale gosse, ça bosse Sale gosse, ça bosse Sale gosse, ça bosse Sale gosse, ça bosse Y a du pilon, pilon, en barrettes Y a du pilon, pilon, en barrettes J'veux être millionnaire J'veux être millionnaire Faut des litrons, litrons, pour s'barrer Faut des litrons, litrons, pour s'barrer J'veux être millionnaire J'veux être millionnaire Sale gosse, ça bosse C'est bien vi-ser, les iens-cli m'rappellent Faut recharger, le tit-pe ramène Ça pue l'oseille, j'me parfume à la recette Fais péter le larfeuille, le produit parle et il fait la diff' Le taro s'étend comme un élastique J'me fais péter, mais bon j'ressors libre Va-et-vient en taule, tranquille c'est la street Sale gosse, sale gosse, eh Bolosse m'accoste, eh La peuf l'a saucé, pas d'pilon, claqué Frappe de Cassius Clay ! Calibre dans l'jean j'passe sur l'té-cô J'suis bien ganté, pas d'empreintes sur les métaux Sale gosse qui rêve de villa à Rio Le vrai bénef' on l'prend pas sur un kilo RH LAS Y a du pilon, pilon, en barrettes Y a du pilon, pilon, en barrettes J'veux être millionnaire J'veux être millionnaire Faut des litrons, litrons, pour s'barrer Faut des litrons, litrons, pour s'barrer J'veux être millionnaire J'veux être millionnaire Y a du pilon, pilon, en barrettes Sale gosse, ça bosse J'veux être millionnaire J'veux être millionnaire Faut des litrons, litrons, pour s'barrer Sale gosse, ça bosse J'veux être millionnaire J'veux être millionnaire Sale gosse, ça bosse Sale gosse, ça bosse J'veux être millionnaire J'veux être millionnaire Sale gosse, ça bosse Sale gosse, ça bosse J'veux être millionnaire J'veux être millionnaire RH LAS Être millionnaire, être millionnaire RH LAS Sale gosse, ça bosse, sale gosse Être millionnaire, être millionnaire</t>
+          <t>RH LAS, RH, RH LAS Sale gosse, ça bosse La ppe-fra Sale gosse, ça bosse La ppe-fra Sale gosse, ça bosse La ppe-fra Sale gosse, ça bosse J'sors d'chez moi, fonce-dé d'la veille Bientôt j'bé-tom, c'est une indic' la vieille Pure flash de cke-Ja, suivi d'un Royal J'veux chanter Sapapaya en chemise hawaïenne Voyous, voyelles, que des vrais dans l'voilier Rien à fêter on va quand même s'envoyer Une 'teille chez l'rebeu, en équipe sur l'parking Sale gosse on est pas prêts d'partir On tient la cité à bout d'bras Au comico on n'avoue pas J'clippe dans la tess, ou j'clippe à Dubaï J'reste le même, de la frappe pas de la caille Elle a kiffé le charme de la tess, alors qu'jsuis naturel Rien d'exceptionnel Ce soir j'la péta à son adresse, la dégaine est gang J'l'avoue, j'ai plus sommeil Sale gosse, ça bosse Sale gosse, ça bosse Sale gosse, ça bosse Sale gosse, ça bosse Y a du pilon, pilon, en barrettes Y a du pilon, pilon, en barrettes J'veux être millionnaire J'veux être millionnaire Faut des litrons, litrons, pour s'barrer Faut des litrons, litrons, pour s'barrer J'veux être millionnaire J'veux être millionnaire Sale gosse, ça bosse C'est bien vi-ser, les iens-cli m'rappellent Faut recharger, le tit-pe ramène Ça pue l'oseille, j'me parfume à la recette Fais péter le larfeuille, le produit parle et il fait la diff' Le taro s'étend comme un élastique J'me fais péter, mais bon j'ressors libre Va-et-vient en taule, tranquille c'est la street Sale gosse, sale gosse, eh Bolosse m'accoste, eh La peuf l'a saucé, pas d'pilon, claqué Frappe de Cassius Clay ! Calibre dans l'jean j'passe sur l'té-cô J'suis bien ganté, pas d'empreintes sur les métaux Sale gosse qui rêve de villa à Rio Le vrai bénef' on l'prend pas sur un kilo RH LAS Y a du pilon, pilon, en barrettes Y a du pilon, pilon, en barrettes J'veux être millionnaire J'veux être millionnaire Faut des litrons, litrons, pour s'barrer Faut des litrons, litrons, pour s'barrer J'veux être millionnaire J'veux être millionnaire Y a du pilon, pilon, en barrettes Sale gosse, ça bosse J'veux être millionnaire J'veux être millionnaire Faut des litrons, litrons, pour s'barrer Sale gosse, ça bosse J'veux être millionnaire J'veux être millionnaire Sale gosse, ça bosse Sale gosse, ça bosse J'veux être millionnaire J'veux être millionnaire Sale gosse, ça bosse Sale gosse, ça bosse J'veux être millionnaire J'veux être millionnaire RH LAS Être millionnaire, être millionnaire RH LAS Sale gosse, ça bosse, sale gosse Être millionnaire, être millionnaire</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2941,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Danse pour moi ya Samira, juste toi et moi, ça ira Danse pour moi ya Samira Le, le, la Danse pour moi ya Samira, juste toi et moi, ça ira Danse pour moi ya Samira Le, le, la J'veux qu'tu portes mon nom d'vant le monde entier J'vais sécher tes larmes et te contempler J'connais tes valeurs et ton potentiel Le, le, la J'ai sorti l'bolide et la panoplie J'ai tiré l'gros lot comme à la loterie En story privée parce que y a l'OCRTIS Le T'façon les frères, j'vais la coffrer J'sais qu'elle est pas là que pour mes tales La Chtah, chtah, même si des fois je déconne La Pah, pah, personne va m'changer rani hagda Hagda Y a pas d'soucis, juste, arrête tes crises de jalousie La Tes copines te disent tu vas souffrir La Quand on est ensemble, on s'adoucit Danse pour moi ya Samira, juste toi et moi, ça ira Danse pour moi ya Samira Le, le, la Danse pour moi ya Samira, juste toi et moi, ça ira Danse pour moi ya Samira You might also like C'est toi que j'voulais à tout prix Le, le, la En disant rien, tu m'as tout dit Le, le, la C'est toi que j'voulais à tout prix Le, le, la En disant rien, tu m'as tout dit Le, le, la Ouais, la J'fais l'tour du monde quand j'ai plus d'inspi' Ou j'me pose à la tess et j'roule un stick Tout d'un coup, tout d'vient fantastique Combien de personnes voudraient bien qu'on s'quitte ? Un jour ou l'autre, faut lui mettre l'anneau Tu crois qu'elle est seule, elle est près d'un autre Elle aura son mariage le prix d'un loft Et on oublie pas son premier love J'récupère d'la plata qu'était cachée À la base, mon cur était cassé Et mon av'nir, il était gâché On est fait d'or, pas fait d'acier Danse pour moi ya Samira, juste toi et moi, ça ira Danse pour moi ya Samira Le, le, la Danse pour moi ya Samira, juste toi et moi, ça ira Danse pour moi ya Samira C'est toi que j'voulais à tout prix Le, le, la En disant rien, tu m'as tout dit Le, le, la C'est toi que j'voulais à tout prix Le, le, la En disant rien, tu m'as tout dit Le, le, la Ouais Danse pour moi ya Samira Le, le, le, le, ya Samira Le, le, le, le, ya Samira Le, le, le, le, la Danse pour moi ya Samira Le, le, le, le, ya Samira Le, le, le, le, ya Samira Le, le, le, le, la Danse pour moi ya Samira Le, le, le, le, ya Samira Le, le, le, le, ya Samira Le, le, le, le, la Danse pour moi ya Samira Le, le, le, le, ya Samira Le, le, le, le, ya Samira Le, le, le, le, la Le, le, la Le, le, la</t>
+          <t>Danse pour moi ya Samira, juste toi et moi, ça ira Danse pour moi ya Samira Le, le, la Danse pour moi ya Samira, juste toi et moi, ça ira Danse pour moi ya Samira Le, le, la J'veux qu'tu portes mon nom d'vant le monde entier J'vais sécher tes larmes et te contempler J'connais tes valeurs et ton potentiel Le, le, la J'ai sorti l'bolide et la panoplie J'ai tiré l'gros lot comme à la loterie En story privée parce que y a l'OCRTIS Le T'façon les frères, j'vais la coffrer J'sais qu'elle est pas là que pour mes tales La Chtah, chtah, même si des fois je déconne La Pah, pah, personne va m'changer rani hagda Hagda Y a pas d'soucis, juste, arrête tes crises de jalousie La Tes copines te disent tu vas souffrir La Quand on est ensemble, on s'adoucit Danse pour moi ya Samira, juste toi et moi, ça ira Danse pour moi ya Samira Le, le, la Danse pour moi ya Samira, juste toi et moi, ça ira Danse pour moi ya Samira C'est toi que j'voulais à tout prix Le, le, la En disant rien, tu m'as tout dit Le, le, la C'est toi que j'voulais à tout prix Le, le, la En disant rien, tu m'as tout dit Le, le, la Ouais, la J'fais l'tour du monde quand j'ai plus d'inspi' Ou j'me pose à la tess et j'roule un stick Tout d'un coup, tout d'vient fantastique Combien de personnes voudraient bien qu'on s'quitte ? Un jour ou l'autre, faut lui mettre l'anneau Tu crois qu'elle est seule, elle est près d'un autre Elle aura son mariage le prix d'un loft Et on oublie pas son premier love J'récupère d'la plata qu'était cachée À la base, mon cur était cassé Et mon av'nir, il était gâché On est fait d'or, pas fait d'acier Danse pour moi ya Samira, juste toi et moi, ça ira Danse pour moi ya Samira Le, le, la Danse pour moi ya Samira, juste toi et moi, ça ira Danse pour moi ya Samira C'est toi que j'voulais à tout prix Le, le, la En disant rien, tu m'as tout dit Le, le, la C'est toi que j'voulais à tout prix Le, le, la En disant rien, tu m'as tout dit Le, le, la Ouais Danse pour moi ya Samira Le, le, le, le, ya Samira Le, le, le, le, ya Samira Le, le, le, le, la Danse pour moi ya Samira Le, le, le, le, ya Samira Le, le, le, le, ya Samira Le, le, le, le, la Danse pour moi ya Samira Le, le, le, le, ya Samira Le, le, le, le, ya Samira Le, le, le, le, la Danse pour moi ya Samira Le, le, le, le, ya Samira Le, le, le, le, ya Samira Le, le, le, le, la Le, le, la Le, le, la</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2958,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Katrina Squad ! Ce monde m'écure mais j'fais semblant, j'ai crié ma haine, personne l'entend J'claque mon oseille, j'vis pas cent ans, ça reste mon problème, ça parle dans l'vent J'remue ciel et terre comme un dingo ahou mais c'est l'teh que je sais du bendo jamais Cocktail de rue que je sirote raconte, DZ du 93 c'que j'récolte c'est réel Eh eh, eh eh, mes blèmes-pro pèsent lourds sur mes épaules c'est trop J'ai perdu des vrais, un tri dans mes amis même après des années à cause des gos ah oui H.L.F hein ? J'me souviens toujours pas d'ton prénom fonce-dé Et toi, tu crois que je fais semblant toi aussi, j'crois qu'ton ul-c n'est même plus bandant Désormais, j'ai plus qu'eux, tu voulais m'voir mourir dans l'T2 misère C'est pas sous la pression qu'j'vais céder révise, mon nom dérange pas qu'sur la CB haha Sors pas ta Rolex, j'vais t'la piquer mh-mh, grandi comme le reste d'la cité cité Les grands du tier-quar m'ont enseigné oreillettes, ouais, j'crois bien qu'nos curs sont scellés Tellement vrai, on s'reconnaîtra devant eux, sans manières La même routine, la même galère, ghetto pas de barrières Tellement vrai, on s'reconnaîtra devant eux, sans manières La même routine, la même galère, ghetto pas de barrières You might also like On s'demande combien j'ai sur l'té-cô mais moi j'peux pas être précis cheh J'ai laissé Hornet sur la béquille mmh, m'ont pris un rein dans la saisie litron d'peuf Hein ? Je veux m'refaire, j'ai lhabitude, j'leur demande rien même en cellule, hein ? Ce monde m'écure mais j'fais semblant semblant, je plains déjà ma descendance hein ? Les faux souvent, ceux qu'on apprécie ah, j'crois pas qu'j'vais m'y faire, j'suis indécis je pense Après minuit, y a pas d'réseau gros, demande pas d'tête, on va t'ter-sau bang bang Bébé, j'peux pas t'aimer, tu vas pas tenir, pas l'temps d't'impressionner comme les autres izi Jamais d'la vie, j's'rais un camé, chez nous, on les bannis, un frère qui tape, nous on l'oublie deux secondes Wesh sale chien, un frère qui tape, nous on l'oublie Sors pas ta Rolex, j'vais t'la piquer mh-mh, grandis comme le reste d'la cité cité Les grands du tier-quar m'ont enseigné paw, ouais j'crois bien qu'nos curs sont scellés Tellement vrai, on s'reconnaîtra devant eux, sans manières La même routine, la même galère, ghetto pas de barrières Tellement vrai, on s'reconnaîtra devant eux, sans manières La même routine, la même galère, ghetto pas de barrières Tellement vrai, on s'reconnaîtra devant eux, sans manières La même routine, la même galère, ghetto pas de barrières Tellement vrai, on s'reconnaîtra devant eux, sans manières La même routine, la même galère, ghetto pas de barrières On s'demande combien j'ai sur l'té-cô mais moi j'peux pas être précis J'ai laissé Hornet sur la béquille, m'ont pris un rein dans la saisie Hein ? Je veux m'refaire, j'ai lhabitude, on manque de rien même en cellule, hein ? Tellement vrai, on s'reconnaîtra devant eux, sans manières La même routine, la même galère, ghetto pas de barrières Tellement vrai, on s'reconnaîtra devant eux, sans manières La même routine, la même galère, ghetto pas de barrières</t>
+          <t>Katrina Squad ! Ce monde m'écure mais j'fais semblant, j'ai crié ma haine, personne l'entend J'claque mon oseille, j'vis pas cent ans, ça reste mon problème, ça parle dans l'vent J'remue ciel et terre comme un dingo ahou mais c'est l'teh que je sais du bendo jamais Cocktail de rue que je sirote raconte, DZ du 93 c'que j'récolte c'est réel Eh eh, eh eh, mes blèmes-pro pèsent lourds sur mes épaules c'est trop J'ai perdu des vrais, un tri dans mes amis même après des années à cause des gos ah oui H.L.F hein ? J'me souviens toujours pas d'ton prénom fonce-dé Et toi, tu crois que je fais semblant toi aussi, j'crois qu'ton ul-c n'est même plus bandant Désormais, j'ai plus qu'eux, tu voulais m'voir mourir dans l'T2 misère C'est pas sous la pression qu'j'vais céder révise, mon nom dérange pas qu'sur la CB haha Sors pas ta Rolex, j'vais t'la piquer mh-mh, grandi comme le reste d'la cité cité Les grands du tier-quar m'ont enseigné oreillettes, ouais, j'crois bien qu'nos curs sont scellés Tellement vrai, on s'reconnaîtra devant eux, sans manières La même routine, la même galère, ghetto pas de barrières Tellement vrai, on s'reconnaîtra devant eux, sans manières La même routine, la même galère, ghetto pas de barrières On s'demande combien j'ai sur l'té-cô mais moi j'peux pas être précis cheh J'ai laissé Hornet sur la béquille mmh, m'ont pris un rein dans la saisie litron d'peuf Hein ? Je veux m'refaire, j'ai lhabitude, j'leur demande rien même en cellule, hein ? Ce monde m'écure mais j'fais semblant semblant, je plains déjà ma descendance hein ? Les faux souvent, ceux qu'on apprécie ah, j'crois pas qu'j'vais m'y faire, j'suis indécis je pense Après minuit, y a pas d'réseau gros, demande pas d'tête, on va t'ter-sau bang bang Bébé, j'peux pas t'aimer, tu vas pas tenir, pas l'temps d't'impressionner comme les autres izi Jamais d'la vie, j's'rais un camé, chez nous, on les bannis, un frère qui tape, nous on l'oublie deux secondes Wesh sale chien, un frère qui tape, nous on l'oublie Sors pas ta Rolex, j'vais t'la piquer mh-mh, grandis comme le reste d'la cité cité Les grands du tier-quar m'ont enseigné paw, ouais j'crois bien qu'nos curs sont scellés Tellement vrai, on s'reconnaîtra devant eux, sans manières La même routine, la même galère, ghetto pas de barrières Tellement vrai, on s'reconnaîtra devant eux, sans manières La même routine, la même galère, ghetto pas de barrières Tellement vrai, on s'reconnaîtra devant eux, sans manières La même routine, la même galère, ghetto pas de barrières Tellement vrai, on s'reconnaîtra devant eux, sans manières La même routine, la même galère, ghetto pas de barrières On s'demande combien j'ai sur l'té-cô mais moi j'peux pas être précis J'ai laissé Hornet sur la béquille, m'ont pris un rein dans la saisie Hein ? Je veux m'refaire, j'ai lhabitude, on manque de rien même en cellule, hein ? Tellement vrai, on s'reconnaîtra devant eux, sans manières La même routine, la même galère, ghetto pas de barrières Tellement vrai, on s'reconnaîtra devant eux, sans manières La même routine, la même galère, ghetto pas de barrières</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2975,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Baille Broliker Production RS Q3, RS6 j'sais piloter Ils veulent nous voir à terre, triste av'nir et menottés Y'a les keufs dans l'rétro, obligés de bombarder Banquette arrière, cargaison vient de Tanger Pourquoi j'l'ai fait sans permis ? Tout ça pour la belle vie Pour mettre la mif à l'abris, j'ai pris l'sens interdit Pourquoi j'l'ai fait sans permis ? Tout ça pour la belle vie Pour mettre la mif à l'abris, j'ai pris l'sens interdit J'ai tourné dans le bloc, kho, ça revendait la Gandhi C'est plus comme à l'époque, kho, ça paye plus d'être le gentil J'ai l'schlass dans la che-po, j'te r'fais l'visage à Chucky Faudra t'apprendre à pécho, tu forces à gratter l'keusti Coup d'coude, talkie j'suis plus là, nan je suis plus là J'suis sans mis-per et sous pillave, moi l'soucis c'est l'Ciroc J'ai rappé la haine de ma tess, j'ai fini populaire À force de rester là, je sers, j'suis mieux sur un scoot de mer Merci déjà à la street, j'v-esqui, sur moi j'ai du shit Merci d'avoir mis ce jean, deuspi j'm'arrête j'prends son num Merci on m'entend à l'antenne, toi qui voulais m'ralentir Treize piges, j'finis menotté, t'niquer c'était volontiers You might also like RS Q3, RS6 j'sais piloter Ils veulent nous voir à terre, triste av'nir et menottés Y'a les keufs dans l'rétro, obligés de bombarder Banquette arrière, cargaison vient de Tanger Pourquoi j'l'ai fait sans permis ? Tout ça pour la belle vie Pour mettre la mif à l'abris, j'ai pris l'sens interdit Pourquoi j'l'ai fait sans permis ? Tout ça pour la belle vie Pour mettre la mif à l'abris, j'ai pris l'sens interdit Mon shit dans la tête, ton nez dans la zipette On t'prend tout comme la B.A.C, tu finis tout mort comme Zepek J'arrive en 600 Hornet, j'men bats les couilles Tu reconnais la tess, y'a qu'des mehbouls sous la cagoule On fait tout c'qu'est pas permis, que des disjonctés On khabat à votre santé, à 2-30 dans l'GTD J'suis à l'affût comme le guetteur, tout l'réseau khaf à 6 heures Ça coupe des pains aux ciseaux et ça donne tout aux gratteurs Et ouais quand c'est la merde bah ça part de là Et 4 nourrices dans le bâtiment Y'a trop d'pélos bah c'est des chinois Ils sont pas d'chez moi, ils ont pas d'chez nous Dans les dépôts, ton ze-bla, ça poucave toute l'année Dans les ghettos, la peufra, elle né-tour toute l'année RS Q3, RS6 j'sais piloter Ils veulent nous voir à terre, triste av'nir et menottés Y'a les keufs dans l'rétro, obligés de bombarder Banquette arrière, cargaison vient de Tanger Pourquoi j'l'ai fait sans permis ? Tout ça pour la belle vie Pour mettre la mif à l'abris, j'ai pris l'sens interdit Pourquoi j'l'ai fait sans permis ? Tout ça pour la belle vie Pour mettre la mif à l'abris, j'ai pris l'sens interdit</t>
+          <t>Baille Broliker Production RS Q3, RS6 j'sais piloter Ils veulent nous voir à terre, triste av'nir et menottés Y'a les keufs dans l'rétro, obligés de bombarder Banquette arrière, cargaison vient de Tanger Pourquoi j'l'ai fait sans permis ? Tout ça pour la belle vie Pour mettre la mif à l'abris, j'ai pris l'sens interdit Pourquoi j'l'ai fait sans permis ? Tout ça pour la belle vie Pour mettre la mif à l'abris, j'ai pris l'sens interdit J'ai tourné dans le bloc, kho, ça revendait la Gandhi C'est plus comme à l'époque, kho, ça paye plus d'être le gentil J'ai l'schlass dans la che-po, j'te r'fais l'visage à Chucky Faudra t'apprendre à pécho, tu forces à gratter l'keusti Coup d'coude, talkie j'suis plus là, nan je suis plus là J'suis sans mis-per et sous pillave, moi l'soucis c'est l'Ciroc J'ai rappé la haine de ma tess, j'ai fini populaire À force de rester là, je sers, j'suis mieux sur un scoot de mer Merci déjà à la street, j'v-esqui, sur moi j'ai du shit Merci d'avoir mis ce jean, deuspi j'm'arrête j'prends son num Merci on m'entend à l'antenne, toi qui voulais m'ralentir Treize piges, j'finis menotté, t'niquer c'était volontiers RS Q3, RS6 j'sais piloter Ils veulent nous voir à terre, triste av'nir et menottés Y'a les keufs dans l'rétro, obligés de bombarder Banquette arrière, cargaison vient de Tanger Pourquoi j'l'ai fait sans permis ? Tout ça pour la belle vie Pour mettre la mif à l'abris, j'ai pris l'sens interdit Pourquoi j'l'ai fait sans permis ? Tout ça pour la belle vie Pour mettre la mif à l'abris, j'ai pris l'sens interdit Mon shit dans la tête, ton nez dans la zipette On t'prend tout comme la B.A.C, tu finis tout mort comme Zepek J'arrive en 600 Hornet, j'men bats les couilles Tu reconnais la tess, y'a qu'des mehbouls sous la cagoule On fait tout c'qu'est pas permis, que des disjonctés On khabat à votre santé, à 2-30 dans l'GTD J'suis à l'affût comme le guetteur, tout l'réseau khaf à 6 heures Ça coupe des pains aux ciseaux et ça donne tout aux gratteurs Et ouais quand c'est la merde bah ça part de là Et 4 nourrices dans le bâtiment Y'a trop d'pélos bah c'est des chinois Ils sont pas d'chez moi, ils ont pas d'chez nous Dans les dépôts, ton ze-bla, ça poucave toute l'année Dans les ghettos, la peufra, elle né-tour toute l'année RS Q3, RS6 j'sais piloter Ils veulent nous voir à terre, triste av'nir et menottés Y'a les keufs dans l'rétro, obligés de bombarder Banquette arrière, cargaison vient de Tanger Pourquoi j'l'ai fait sans permis ? Tout ça pour la belle vie Pour mettre la mif à l'abris, j'ai pris l'sens interdit Pourquoi j'l'ai fait sans permis ? Tout ça pour la belle vie Pour mettre la mif à l'abris, j'ai pris l'sens interdit</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2992,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Tu sais qu'on n'a pas trop le time, c'est d'abord on tire, on verra après Et quand ils verront qu'on se fâche en période de crise, ils voudront la paix Après minuit, j'ai la dalle et dans la voiture, j'me noie dans le miel La 'sique a remplacé les balles, maintenant, Dieu merci, je vois la lumière Tu veux d'la came ? Ma zone, c'est Rio Ma zone, c'est Rio J'mets pas dans l'ze-n, j'peux pas vriller J'peux pas vriller J'connais la suite, j'ai écris l'syno' J'ai écris l'syno' Tu veux ma plac ? Tu vas m'les cirer Tu vas m'les cirr Ils ont la critique facile, ils connaissent pas le bsahtek Ils connaissent pas le bsahtek Ils ont la critique facile, ils connaissent pas le bsahtek Nan, nan, nan, nan J'connais tout l'film, tout l'scénario, y a deux-trois blases que j'devrais rayer Pété sous tise au fond du Clio, ils veulent ma place, ils peuvent essayer Faut qu'tu restes fidèle comme mes clients, j'les ai éteint juste en brillant J'garde mon sang froid d'vant les gyros, j'connais tout l'film, tout l'scénario J'ai d'jà cassé la puce, le bénéf' j'l'ai doublé, pour les clins, y a G2B Dans l'double R, on s'met au vert, un qui sort, un écroué Plus d'sourire, y a plus d'salam, rien n'sert d'courir dans l'arène Jamais c't'année pour l'basané, la misère passe du cash après Vends pas la S si y a pas d'baraka Pas d'baraka J'tourne pas ma veste ajustée à ma taille Ajustée à ma taille J'ai pas fait d'hebs grâce aux douaas d'ma mère Aux douaas de ma mère J'en ai plein sur l'cur, j'suis sous Valentines You might also like Ils ont la critique facile, ils connaissent pas le bsahtek Ils connaissent pas le bsahtek Ils ont la critique facile, ils connaissent pas le bsahtek Nan, nan, nan, nan J'connais tout l'film, tout l'scénario, y a deux-trois blases que j'devrais rayer Pété sous tise au fond du Clio, ils veulent ma place, ils peuvent essayer Faut qu'tu restes fidèle comme mes clients, j'les ai éteint juste en brillant J'garde mon sang froid d'vant les gyros, j'connais tout l'film, tout l'scénario</t>
+          <t>Tu sais qu'on n'a pas trop le time, c'est d'abord on tire, on verra après Et quand ils verront qu'on se fâche en période de crise, ils voudront la paix Après minuit, j'ai la dalle et dans la voiture, j'me noie dans le miel La 'sique a remplacé les balles, maintenant, Dieu merci, je vois la lumière Tu veux d'la came ? Ma zone, c'est Rio Ma zone, c'est Rio J'mets pas dans l'ze-n, j'peux pas vriller J'peux pas vriller J'connais la suite, j'ai écris l'syno' J'ai écris l'syno' Tu veux ma plac ? Tu vas m'les cirer Tu vas m'les cirr Ils ont la critique facile, ils connaissent pas le bsahtek Ils connaissent pas le bsahtek Ils ont la critique facile, ils connaissent pas le bsahtek Nan, nan, nan, nan J'connais tout l'film, tout l'scénario, y a deux-trois blases que j'devrais rayer Pété sous tise au fond du Clio, ils veulent ma place, ils peuvent essayer Faut qu'tu restes fidèle comme mes clients, j'les ai éteint juste en brillant J'garde mon sang froid d'vant les gyros, j'connais tout l'film, tout l'scénario J'ai d'jà cassé la puce, le bénéf' j'l'ai doublé, pour les clins, y a G2B Dans l'double R, on s'met au vert, un qui sort, un écroué Plus d'sourire, y a plus d'salam, rien n'sert d'courir dans l'arène Jamais c't'année pour l'basané, la misère passe du cash après Vends pas la S si y a pas d'baraka Pas d'baraka J'tourne pas ma veste ajustée à ma taille Ajustée à ma taille J'ai pas fait d'hebs grâce aux douaas d'ma mère Aux douaas de ma mère J'en ai plein sur l'cur, j'suis sous Valentines Ils ont la critique facile, ils connaissent pas le bsahtek Ils connaissent pas le bsahtek Ils ont la critique facile, ils connaissent pas le bsahtek Nan, nan, nan, nan J'connais tout l'film, tout l'scénario, y a deux-trois blases que j'devrais rayer Pété sous tise au fond du Clio, ils veulent ma place, ils peuvent essayer Faut qu'tu restes fidèle comme mes clients, j'les ai éteint juste en brillant J'garde mon sang froid d'vant les gyros, j'connais tout l'film, tout l'scénario</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3009,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Han, han, han Le terrain, c'est minuit, on lsait Mais à la sauvette, c'était non-stop Le terrain, c'est minuit, on lsait Mais à la sauvette, c'était non-stop VDS, vendeur à la sauv', vécu, pas narration après l'oseille Le seul marathon, pour l'reste, j'prépare un pompe P'tit microbe qui vend sur Btwin, paro par habitude Le bosseur du terrain d'chez nous ressort de sport-études On nique nos rêves avec sourire aux lèvres Ça tourne en fausse Rolex jusquà la tienne Jpréfère coffrr au bled ou bien investir la pirre Un grand qui sort de perm' na pas vu le pire Il a perdu le terr', les p'tits sont trop déter' en face F2 quon s'entasse, tu veux qu'on s'entende ? Fonce-dé sous kamas, toujours consentant J'étais bon pour la casse, les doigts d'vant la cam' J'fais du sale au mic', j'étais bon pour la casse Le terrain, c'est minuit, on l'sait Mais à la sauvette, c'était non-stop Le terrain, c'est minuit, on l'sait Mais à la sauvette, c'était non-stop You might also like Bonbonne de te-shi dans l'Schott Toujours poursuivi par l'Ford Bonbonne de te-shi dans l'Schott Toujours poursuivi par l'Ford Bonbonne de te-shi dans l'Schott Toujours poursuivi par l'Ford Bonbonne de te-shi dans l'Schott Toujours poursuivi par l'Ford S'souvient du premier kil', s'souvient pas d'la première vrette-le Les p'tits vers l'feu, silex en main, demandent pas d'aide TN presto, tu m'connais, c'est la modestie J'partage festin, on repart et on investit Marocco, shit de Marocain, la peuf'' m'a repeint Pas d'balade, direct , c'est pas anodin J'note sur l'calpin si tu dois des thunes, t'en laisseras des plumes Pas d'escrime, coup d'shlass à la zeub Berbère vient des dunes, barbare vient des ZUP Sans conso', faut pas qu'on discute Loin des yeux, ouais, des fois, c'est mieux Vu ces fils de pute véreux, j'irai pas vers eux Vu ces fils de pute véreux, j'irai pas vers eux Le terrain, c'est minuit, on l'sait Mais à la sauvette, c'était non-stop Le terrain, c'est minuit, on l'sait Mais à la sauvette, c'était non-stop Bonbonne de te-shi dans l'Schott Toujours poursuivi par l'Ford Bonbonne de te-shi dans l'Schott Toujours poursuivi par l'Ford Bonbonne de te-shi dans l'Schott Toujours poursuivi par l'Ford Bonbonne de te-shi dans l'Schott Toujours poursuivi par l'Ford Han, han, han</t>
+          <t>Han, han, han Le terrain, c'est minuit, on lsait Mais à la sauvette, c'était non-stop Le terrain, c'est minuit, on lsait Mais à la sauvette, c'était non-stop VDS, vendeur à la sauv', vécu, pas narration après l'oseille Le seul marathon, pour l'reste, j'prépare un pompe P'tit microbe qui vend sur Btwin, paro par habitude Le bosseur du terrain d'chez nous ressort de sport-études On nique nos rêves avec sourire aux lèvres Ça tourne en fausse Rolex jusquà la tienne Jpréfère coffrr au bled ou bien investir la pirre Un grand qui sort de perm' na pas vu le pire Il a perdu le terr', les p'tits sont trop déter' en face F2 quon s'entasse, tu veux qu'on s'entende ? Fonce-dé sous kamas, toujours consentant J'étais bon pour la casse, les doigts d'vant la cam' J'fais du sale au mic', j'étais bon pour la casse Le terrain, c'est minuit, on l'sait Mais à la sauvette, c'était non-stop Le terrain, c'est minuit, on l'sait Mais à la sauvette, c'était non-stop Bonbonne de te-shi dans l'Schott Toujours poursuivi par l'Ford Bonbonne de te-shi dans l'Schott Toujours poursuivi par l'Ford Bonbonne de te-shi dans l'Schott Toujours poursuivi par l'Ford Bonbonne de te-shi dans l'Schott Toujours poursuivi par l'Ford S'souvient du premier kil', s'souvient pas d'la première vrette-le Les p'tits vers l'feu, silex en main, demandent pas d'aide TN presto, tu m'connais, c'est la modestie J'partage festin, on repart et on investit Marocco, shit de Marocain, la peuf'' m'a repeint Pas d'balade, direct , c'est pas anodin J'note sur l'calpin si tu dois des thunes, t'en laisseras des plumes Pas d'escrime, coup d'shlass à la zeub Berbère vient des dunes, barbare vient des ZUP Sans conso', faut pas qu'on discute Loin des yeux, ouais, des fois, c'est mieux Vu ces fils de pute véreux, j'irai pas vers eux Vu ces fils de pute véreux, j'irai pas vers eux Le terrain, c'est minuit, on l'sait Mais à la sauvette, c'était non-stop Le terrain, c'est minuit, on l'sait Mais à la sauvette, c'était non-stop Bonbonne de te-shi dans l'Schott Toujours poursuivi par l'Ford Bonbonne de te-shi dans l'Schott Toujours poursuivi par l'Ford Bonbonne de te-shi dans l'Schott Toujours poursuivi par l'Ford Bonbonne de te-shi dans l'Schott Toujours poursuivi par l'Ford Han, han, han</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3026,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Si j'vais en Thaï', c'est pour taffer mon coup d'coude Ils font banave mais au fond ils m'écoutent tous Fais belek, on sait pas c'qu'elle a mis dans son couscous Quand t'es dans la merde, bah y a personne à la rescousse Minuit dix, mon cerveau s'invente des rôles T'aurais pu croiser ton avec une épée et du Si on t'promet la guillotine, garde la tête sur les épaules Un craquage de plus et tu finis tes jours en taule Poto t'es cramé comme CR7 C'st ça la tess, ça vend du shit pour s'achetr un YZ La vie c'est rempli d'obstacles, la vie c'est rempli d'faux s7ab J'suis comme Salif équipé d'grosses battes au stade Passager dans un bolide deutsch, j'fume la Cali' d'Rotterdam Que d'la frappe T'es dans l'viseur comme Magali Berdah C'est bien à toi quand dehors il fait belda Quand tu ressors du shtar et qu'ça t'attend en Testarossa J'ai mis du filtré dans la mass', ça m'colle toujours les mano J'suis toujours dans les bons filons comme les 3arbi, les manouches Pour tous mes gars louches, pas ceux qui galochent que des grosses putes Dans l'stud', j'fais que midi-minuit, mon frérot on s'tue On connaît que l'excès, qu'ce soit l'shit, le casse, les ballons Paranoïaque quand y a l'T-Max, dans la vago tu t'allonges Sont rares les vrais qui prennent pas d'bénéf' sur toi, qui t'arrangent Qui chabent pas ta reuss et puis qui t'aiment à la longue Nique toutes les poucaves, faudrait leur couper la langue T'as disparu comme Jérémy Toulalan J'connais des mecs qui ont fait l'million avec une puce Lebara On s'confiera toujours à Dieu, nique leurs mères les bouts-mara You might also like J'ai connu la bicrave, à la base c'était pour s'habiller On rajouté des au casier, avec mon pote on s'parle plus pour du papier Il a mangé des coups d'schlass parce qu'il s'est permis d'croire qu'il devait pas payer Désolé les ratus, moi j'voulais pas briller J'vous l'avais dit, c'est sur moi qu'il faut parier Toute la journée dans mon dél', j'rappe des couplets dans ma tête Ça passe en comparution immédiate juste à cause d'un compèt' Quatre garo, deux barrettes, trois massa, c'est la fête Pas d'tennis pourtant on connaît très bien les raquettes Depuis gamin, on s'relève quand on bé-tom T'aimes trop la rue, tu t'accroches à son téton Coup d'gazeuse, grosse patate, mousqueton J'fais d'la 'sique, j'monte comme le prix d'l'essence J'vois mes sahbi sortir, moi j'vais rester khedem J'suis posé J'les connais ceux qui tournent leur veste, qui font les kheder Nique les hagar, force à tous mes harag' Tu connais la cité, tu peux t'faire shlasser comme un haraj Ça m'dit L'Allemand t'as pas percé, gros ça fait hami J'leur dis Mehlish tant qu'elle est fière de moi ma yemma Y a walou mais t'es jaloux khamsa fi ainek Cerveau défoncé à la frappe, c'est pas d'la ché-mâ J'ai connu la bicrave, à la base c'était pour s'habiller On rajouté des au casier, avec mon pote on s'parle plus pour du papier Il a mangé des coups d'schlass parce qu'il s'est permis d'croire qu'il devait pas payer Désolé les ratus, moi j'voulais pas briller J'vous l'avais dit, c'est sur moi qu'il faut parier On gratte sur tout c'qui bouge Là ça sent pas bon, à 100 y aura du grabuge J'rêvais d'une bij à taper J'ai fini sur Rapelite, Booska-P, tu t'rappelles ? Ils voulaient qu'Bandito meurt Il a pris du papier t'as peur Au soleil j'tabasse des gambas L'ange de la mort sur un traceur J'ai pas ton temps, téma l'poignet Dans l'appart' on a tout nettoyé Plusieurs domaines plusieurs employés Plusieurs entrées donc plusieurs loyers Qu'est c'qu'tu croyais J'suis bien dans la Rolls J'suis bien dans la 'Rari On connaît l'honneur, on connaît la cible, on connaît l'auteur À bout-portant, ouais C'est qu'une question d'temps, ouais On connaît le prix, on connaît le bruit, on connaît l'odeur Dans l'club, pas pour danser Un train d'vie tellement, tellement, tellement noir En bande organisée, tout est ficelé Un train d'vie tellement, tellement, tellement noir J'arrachais les touristes tu chantais les choristes Le p'tit crapuleux, c'est moi, le ouistiti qui braque les gorilles Trois mecs chez la nourrice 2-3 grammes pour Boris Ils font les voyous devant la caméra Zerma la s'mange des baffes dans les coulisses RS6 ABT mort pété Un pétard un pétou rien à fêter J'voulais aider, j'ai regretté Aucun associé dans la société Quatre sorties d'pot j'réveille toute la ciudad On accepte les virements on préfère les dessous d'table Léger, logique J'suis bien dans la Rolls J'suis bien dans la 'Rari On connaît l'honneur, on connaît la cible, on connaît l'auteur À bout-portant, ouais C'est qu'une question d'temps, ouais On connaît le prix, on connaît le bruit, on connaît l'odeur Dans l'club, pas pour danser Un train d'vie tellement, tellement, tellement noir En bande organisée, tout est ficelé Un train d'vie tellement, tellement, tellement noir J'ai activé l'mode sport, n'est-ce pas Dans l'trou d'balle du pe-ra j'vais cracher un mollard F47 3, j'reste calme Fourré dans un Cayenne avec des ex-taulards J'suis allergique aux balances aux bandeurs de meufs C'est important d'avoir du nif Empiler des tons-car pour neuf euros d'l'heure Rien qu'à entendre ça, j'ai envie d'vomir Welcome la clientèle, fais pas d'selfies 3ndek à ça canarde Comme Salahdine sans stress, j'lâcherai l'ness-bi quand j'serasi plâtré comme à Dallas Comme Lester, dans Los Angeles, on passe sous, les radars d'la police J'ai la tête dure, et les crocs comme Foden Déjà des années qu'j'ai perdu mon modèle Les gyros à fond dans l'aprèm' J'vais coffrer un peu chez ma belle Hélico' active recherche des palos Y a du shit à la pelle Les gyros à fond dans l'aprèm' J'vais coffrer un peu chez ma belle Hélico' active recherche des palos Y a du shit à la pelle T'sais qu'la rue on a causé des dommages Des reufs que j'revois que dans memories Guette l'avalanche du zipette, donne les tes leaders, présentateurs et humoristes S'entre-sucent comme des porcs, dans l'ouest de Paris, toute la semaine j'y allais guer-lar Et j' jusqu'au départ, quand j'fais mes valises, Dom Pérignon 20G d'quali' Dégaine de bolosse calibré qui t'allonge Tu l'prends pour un crick t'sais même pas qu'c'est un tireur Pour calmer ma haine suffit pas d'une garro' Donc avant d'parler fils de passe à la tirette C'est pas bon si on s'déplace, y a des boîtes à mettre en pièces Des apparts' de putes en Suisse J'ai pas l'temps d'te faire ta fête, on t'récupère si t'insiste Ça sent l'biff, c'est qu'c'est haram Laisse faire, tu vas finir dans l'canal J'les zigzag comme Mohammed Salah Zip-zip dans l'nif t'es une galère Va casser un tour, faut plus qu'une te-boî pour un million J'rappe ma vie j'fais pas l'dealeur C'est pas fini j'prépare l'4 encore plus profond dans leur tigné J'ai cramé ma tête, sans encore faire d'efforts J'laisse faire et j'observe, sur un freestyle j'éteins Crois pas qu'j'ai la flemme, quand on m'ordonne j'aime pas J'ai coffré ma paye, chez moi pas d'compte épargne J'suis bon qu'à rimer, à t'faire descendre J'rentre à six après la lune, j'dois faire des sommes J'laisse, faire si c'est miné, j'connais mes torts Ça t'l'a mise tu t'es pas remis, ça les paralyse J'suis bon qu'à rimer, à t'faire descendre J'rentre à six après la lune, j'dois faire des sommes J'laisse, faire si c'est miné, j'connais mes torts Ça t'l'a mise tu t'es pas remis, ça les paralyse Depuis tit-pe, ils veulent j'fasse des études pour servir l'PDG Gri-gri-pah Mais trop têtu, j'voulais faire comme les grands allumer l'PGP Gri-pah Sur le chantier, Papa se casse le dos pour nourrir ses mômes Pendant que son fils trainait dehors, pensait qu'à rouler des cônes On n'a pas l'bonheur avec aides de la CAF Rien n'a changé, on demande toujours mes faffes Sauf que maintenant j'peux choisir mon baveux Il m'fait sortir plus vite de chez les cops Cops, cops A la barre, la juge étonnée, le gérant du four à le bac Pah, pah A la barre, la juge étonnée, le gérant du four à le bac Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Rah On a trop souffert étant petits On voulait becqueter mais les grands ont tout pris Toi, t'es un schlag vu tes pupilles Pour un bon , j'veux tu supplies Souffre en silence, soit pas bruyant Nan Tu feras du bouquant en brillant Ouais On ne tire pas sur l'ambulance Nan Mais ces fils de pute ont plus honte Ouais Dégaines de bandit, les trois quarts sont maudits Pas d'bâton dans les roues, j'ai cassé ton bambou 5K chez LV, t'inquiète j'ai bon goût Mon reuf a changé, sa meuf fait du vaudou Toi j't'ai défendu, aujourd'hui fait l'tendu J'te laisse parler, j't'ai dit, j'tire pas sur l'ambu Peufra, peufra, peufra, peufra J'te laisse parler, j't'ai dit, j'tire pas sur l'ambu A la barre, la juge étonnée, le gérant du four à le bac A la barre, la juge étonnée, le gérant du four à le bac Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Rah</t>
+          <t>Si j'vais en Thaï', c'est pour taffer mon coup d'coude Ils font banave mais au fond ils m'écoutent tous Fais belek, on sait pas c'qu'elle a mis dans son couscous Quand t'es dans la merde, bah y a personne à la rescousse Minuit dix, mon cerveau s'invente des rôles T'aurais pu croiser ton avec une épée et du Si on t'promet la guillotine, garde la tête sur les épaules Un craquage de plus et tu finis tes jours en taule Poto t'es cramé comme CR7 C'st ça la tess, ça vend du shit pour s'achetr un YZ La vie c'est rempli d'obstacles, la vie c'est rempli d'faux s7ab J'suis comme Salif équipé d'grosses battes au stade Passager dans un bolide deutsch, j'fume la Cali' d'Rotterdam Que d'la frappe T'es dans l'viseur comme Magali Berdah C'est bien à toi quand dehors il fait belda Quand tu ressors du shtar et qu'ça t'attend en Testarossa J'ai mis du filtré dans la mass', ça m'colle toujours les mano J'suis toujours dans les bons filons comme les 3arbi, les manouches Pour tous mes gars louches, pas ceux qui galochent que des grosses putes Dans l'stud', j'fais que midi-minuit, mon frérot on s'tue On connaît que l'excès, qu'ce soit l'shit, le casse, les ballons Paranoïaque quand y a l'T-Max, dans la vago tu t'allonges Sont rares les vrais qui prennent pas d'bénéf' sur toi, qui t'arrangent Qui chabent pas ta reuss et puis qui t'aiment à la longue Nique toutes les poucaves, faudrait leur couper la langue T'as disparu comme Jérémy Toulalan J'connais des mecs qui ont fait l'million avec une puce Lebara On s'confiera toujours à Dieu, nique leurs mères les bouts-mara J'ai connu la bicrave, à la base c'était pour s'habiller On rajouté des au casier, avec mon pote on s'parle plus pour du papier Il a mangé des coups d'schlass parce qu'il s'est permis d'croire qu'il devait pas payer Désolé les ratus, moi j'voulais pas briller J'vous l'avais dit, c'est sur moi qu'il faut parier Toute la journée dans mon dél', j'rappe des couplets dans ma tête Ça passe en comparution immédiate juste à cause d'un compèt' Quatre garo, deux barrettes, trois massa, c'est la fête Pas d'tennis pourtant on connaît très bien les raquettes Depuis gamin, on s'relève quand on bé-tom T'aimes trop la rue, tu t'accroches à son téton Coup d'gazeuse, grosse patate, mousqueton J'fais d'la 'sique, j'monte comme le prix d'l'essence J'vois mes sahbi sortir, moi j'vais rester khedem J'suis posé J'les connais ceux qui tournent leur veste, qui font les kheder Nique les hagar, force à tous mes harag' Tu connais la cité, tu peux t'faire shlasser comme un haraj Ça m'dit L'Allemand t'as pas percé, gros ça fait hami J'leur dis Mehlish tant qu'elle est fière de moi ma yemma Y a walou mais t'es jaloux khamsa fi ainek Cerveau défoncé à la frappe, c'est pas d'la ché-mâ J'ai connu la bicrave, à la base c'était pour s'habiller On rajouté des au casier, avec mon pote on s'parle plus pour du papier Il a mangé des coups d'schlass parce qu'il s'est permis d'croire qu'il devait pas payer Désolé les ratus, moi j'voulais pas briller J'vous l'avais dit, c'est sur moi qu'il faut parier On gratte sur tout c'qui bouge Là ça sent pas bon, à 100 y aura du grabuge J'rêvais d'une bij à taper J'ai fini sur Rapelite, Booska-P, tu t'rappelles ? Ils voulaient qu'Bandito meurt Il a pris du papier t'as peur Au soleil j'tabasse des gambas L'ange de la mort sur un traceur J'ai pas ton temps, téma l'poignet Dans l'appart' on a tout nettoyé Plusieurs domaines plusieurs employés Plusieurs entrées donc plusieurs loyers Qu'est c'qu'tu croyais J'suis bien dans la Rolls J'suis bien dans la 'Rari On connaît l'honneur, on connaît la cible, on connaît l'auteur À bout-portant, ouais C'est qu'une question d'temps, ouais On connaît le prix, on connaît le bruit, on connaît l'odeur Dans l'club, pas pour danser Un train d'vie tellement, tellement, tellement noir En bande organisée, tout est ficelé Un train d'vie tellement, tellement, tellement noir J'arrachais les touristes tu chantais les choristes Le p'tit crapuleux, c'est moi, le ouistiti qui braque les gorilles Trois mecs chez la nourrice 2-3 grammes pour Boris Ils font les voyous devant la caméra Zerma la s'mange des baffes dans les coulisses RS6 ABT mort pété Un pétard un pétou rien à fêter J'voulais aider, j'ai regretté Aucun associé dans la société Quatre sorties d'pot j'réveille toute la ciudad On accepte les virements on préfère les dessous d'table Léger, logique J'suis bien dans la Rolls J'suis bien dans la 'Rari On connaît l'honneur, on connaît la cible, on connaît l'auteur À bout-portant, ouais C'est qu'une question d'temps, ouais On connaît le prix, on connaît le bruit, on connaît l'odeur Dans l'club, pas pour danser Un train d'vie tellement, tellement, tellement noir En bande organisée, tout est ficelé Un train d'vie tellement, tellement, tellement noir J'ai activé l'mode sport, n'est-ce pas Dans l'trou d'balle du pe-ra j'vais cracher un mollard F47 3, j'reste calme Fourré dans un Cayenne avec des ex-taulards J'suis allergique aux balances aux bandeurs de meufs C'est important d'avoir du nif Empiler des tons-car pour neuf euros d'l'heure Rien qu'à entendre ça, j'ai envie d'vomir Welcome la clientèle, fais pas d'selfies 3ndek à ça canarde Comme Salahdine sans stress, j'lâcherai l'ness-bi quand j'serasi plâtré comme à Dallas Comme Lester, dans Los Angeles, on passe sous, les radars d'la police J'ai la tête dure, et les crocs comme Foden Déjà des années qu'j'ai perdu mon modèle Les gyros à fond dans l'aprèm' J'vais coffrer un peu chez ma belle Hélico' active recherche des palos Y a du shit à la pelle Les gyros à fond dans l'aprèm' J'vais coffrer un peu chez ma belle Hélico' active recherche des palos Y a du shit à la pelle T'sais qu'la rue on a causé des dommages Des reufs que j'revois que dans memories Guette l'avalanche du zipette, donne les tes leaders, présentateurs et humoristes S'entre-sucent comme des porcs, dans l'ouest de Paris, toute la semaine j'y allais guer-lar Et j' jusqu'au départ, quand j'fais mes valises, Dom Pérignon 20G d'quali' Dégaine de bolosse calibré qui t'allonge Tu l'prends pour un crick t'sais même pas qu'c'est un tireur Pour calmer ma haine suffit pas d'une garro' Donc avant d'parler fils de passe à la tirette C'est pas bon si on s'déplace, y a des boîtes à mettre en pièces Des apparts' de putes en Suisse J'ai pas l'temps d'te faire ta fête, on t'récupère si t'insiste Ça sent l'biff, c'est qu'c'est haram Laisse faire, tu vas finir dans l'canal J'les zigzag comme Mohammed Salah Zip-zip dans l'nif t'es une galère Va casser un tour, faut plus qu'une te-boî pour un million J'rappe ma vie j'fais pas l'dealeur C'est pas fini j'prépare l'4 encore plus profond dans leur tigné J'ai cramé ma tête, sans encore faire d'efforts J'laisse faire et j'observe, sur un freestyle j'éteins Crois pas qu'j'ai la flemme, quand on m'ordonne j'aime pas J'ai coffré ma paye, chez moi pas d'compte épargne J'suis bon qu'à rimer, à t'faire descendre J'rentre à six après la lune, j'dois faire des sommes J'laisse, faire si c'est miné, j'connais mes torts Ça t'l'a mise tu t'es pas remis, ça les paralyse J'suis bon qu'à rimer, à t'faire descendre J'rentre à six après la lune, j'dois faire des sommes J'laisse, faire si c'est miné, j'connais mes torts Ça t'l'a mise tu t'es pas remis, ça les paralyse Depuis tit-pe, ils veulent j'fasse des études pour servir l'PDG Gri-gri-pah Mais trop têtu, j'voulais faire comme les grands allumer l'PGP Gri-pah Sur le chantier, Papa se casse le dos pour nourrir ses mômes Pendant que son fils trainait dehors, pensait qu'à rouler des cônes On n'a pas l'bonheur avec aides de la CAF Rien n'a changé, on demande toujours mes faffes Sauf que maintenant j'peux choisir mon baveux Il m'fait sortir plus vite de chez les cops Cops, cops A la barre, la juge étonnée, le gérant du four à le bac Pah, pah A la barre, la juge étonnée, le gérant du four à le bac Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Rah On a trop souffert étant petits On voulait becqueter mais les grands ont tout pris Toi, t'es un schlag vu tes pupilles Pour un bon , j'veux tu supplies Souffre en silence, soit pas bruyant Nan Tu feras du bouquant en brillant Ouais On ne tire pas sur l'ambulance Nan Mais ces fils de pute ont plus honte Ouais Dégaines de bandit, les trois quarts sont maudits Pas d'bâton dans les roues, j'ai cassé ton bambou 5K chez LV, t'inquiète j'ai bon goût Mon reuf a changé, sa meuf fait du vaudou Toi j't'ai défendu, aujourd'hui fait l'tendu J'te laisse parler, j't'ai dit, j'tire pas sur l'ambu Peufra, peufra, peufra, peufra J'te laisse parler, j't'ai dit, j'tire pas sur l'ambu A la barre, la juge étonnée, le gérant du four à le bac A la barre, la juge étonnée, le gérant du four à le bac Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Ça sort l'canon scié A la base, j'suis niya Le canon scié Allez, danse le Mia La routine m'ennuyait mais fallait faire du blé et là j'peux pas nier que maintenant bah c'est mieux Rah</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3043,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Pape Ppe-fra C'est le capo des capis, mame, 1.3-9.3 Ouh, ouh Fallait pas m'fréquenter eh, attends, j'vais m'présenter eh Double platine, bébé ouh, ouh, j'crois bien qu'j'ai percé eh Y a ta meuf qui m'écoute eh, j'te la laisse, elle m'dégoûte eh J'crois qu'ce monde est maudit eh, suce-moi dans l'Audi ouh, ouh J'mets les gants, j'suis des grands, élégant, j'fais mon temps j'laisse le four aux p'tits bang, bang J'ai les crocs, au dépôt, y a mon nom, que des faux j'crois qu'ça m'a pookie eh Y a rien d'personnel ouh, ouh, autant le faire soi-même ma gueule J'avais grave le seum eh, y avait pas de sommes eh J'sors du bloc, la Patek Philippe va leur donner l'heure Bébé, j'te ken juste après minuit, avant, j'suis pas d'humeur Ils ont le seum de notre réussite, n'écoute pas les rumeurs Chez nous, ça vend la plus bonne résine, celle qui fait fureur eh Ça tartine sa mère eh pour des gros salaires ouh, ouh Ça tartine sa mère eh pour des gros salaires ouh, ouh Ça tartine sa mère eh pour des gros salaires ouh, ouh Ça tartine sa mère eh pour des gros salaires ouh, ouh You might also like On devient bandit si tôt, mon 1.3, c'est Mexico On devient bandit si tôt, mon 9.3, c'est Mexico On devient bandit si tôt, mon 9.3, c'est Mexico On devient bandit si tôt, mon 1.3, c'est Mexico Suzuki chasse Honda eh, sur ta tête, y a contrat eh J'vérifie la compta', salope, que tu trahis la honda eh Je me lève pour faire sob eh, toi, t'as l'air de m'faire shour eh À la base, j'suis un mec cool eh, j'fais la guerre, c'est l'mektoub eh Illicites homicides, RS6, minuit six, ça ferme le fourneau J'la récup' pour les clips, elle est bonne, en liquide, toi, tu l'as follow Quechua est la polaire eh, j'fume le jaune, j'suis bipolaire eh Mode avion, j'suis dans les airs eh, j'parle mal, j'suis pas Baudelaire J'sors du bloc, la voisine est hnin, je l'encabe tout à l'heure Tu parles au tél', tu bes-tom pour sept piges, tu laisses ta mère en pleurs Ils ont le seum de notre réussite, n'écoute pas les rumeurs Aux Quartiers Nord, y a la plus bonne résine, celle qui fait fureur Ça tartine sa mère eh pour des gros salaires ouh, ouh Ça tartine sa mère eh pour des gros salaires ouh, ouh Ça tartine sa mère eh pour des gros salaires ouh, ouh Ça tartine sa mère eh pour des gros salaires ouh, ouh On devient bandit si tôt, mon 1.3, c'est Mexico On devient bandit si tôt, mon 9.3, c'est Mexico On revient bandit si tôt, mon 9.3, c'est Mexico On revient bandit si tôt, mon 1.3, c'est Mexico</t>
+          <t>Pape Ppe-fra C'est le capo des capis, mame, 1.3-9.3 Ouh, ouh Fallait pas m'fréquenter eh, attends, j'vais m'présenter eh Double platine, bébé ouh, ouh, j'crois bien qu'j'ai percé eh Y a ta meuf qui m'écoute eh, j'te la laisse, elle m'dégoûte eh J'crois qu'ce monde est maudit eh, suce-moi dans l'Audi ouh, ouh J'mets les gants, j'suis des grands, élégant, j'fais mon temps j'laisse le four aux p'tits bang, bang J'ai les crocs, au dépôt, y a mon nom, que des faux j'crois qu'ça m'a pookie eh Y a rien d'personnel ouh, ouh, autant le faire soi-même ma gueule J'avais grave le seum eh, y avait pas de sommes eh J'sors du bloc, la Patek Philippe va leur donner l'heure Bébé, j'te ken juste après minuit, avant, j'suis pas d'humeur Ils ont le seum de notre réussite, n'écoute pas les rumeurs Chez nous, ça vend la plus bonne résine, celle qui fait fureur eh Ça tartine sa mère eh pour des gros salaires ouh, ouh Ça tartine sa mère eh pour des gros salaires ouh, ouh Ça tartine sa mère eh pour des gros salaires ouh, ouh Ça tartine sa mère eh pour des gros salaires ouh, ouh On devient bandit si tôt, mon 1.3, c'est Mexico On devient bandit si tôt, mon 9.3, c'est Mexico On devient bandit si tôt, mon 9.3, c'est Mexico On devient bandit si tôt, mon 1.3, c'est Mexico Suzuki chasse Honda eh, sur ta tête, y a contrat eh J'vérifie la compta', salope, que tu trahis la honda eh Je me lève pour faire sob eh, toi, t'as l'air de m'faire shour eh À la base, j'suis un mec cool eh, j'fais la guerre, c'est l'mektoub eh Illicites homicides, RS6, minuit six, ça ferme le fourneau J'la récup' pour les clips, elle est bonne, en liquide, toi, tu l'as follow Quechua est la polaire eh, j'fume le jaune, j'suis bipolaire eh Mode avion, j'suis dans les airs eh, j'parle mal, j'suis pas Baudelaire J'sors du bloc, la voisine est hnin, je l'encabe tout à l'heure Tu parles au tél', tu bes-tom pour sept piges, tu laisses ta mère en pleurs Ils ont le seum de notre réussite, n'écoute pas les rumeurs Aux Quartiers Nord, y a la plus bonne résine, celle qui fait fureur Ça tartine sa mère eh pour des gros salaires ouh, ouh Ça tartine sa mère eh pour des gros salaires ouh, ouh Ça tartine sa mère eh pour des gros salaires ouh, ouh Ça tartine sa mère eh pour des gros salaires ouh, ouh On devient bandit si tôt, mon 1.3, c'est Mexico On devient bandit si tôt, mon 9.3, c'est Mexico On revient bandit si tôt, mon 9.3, c'est Mexico On revient bandit si tôt, mon 1.3, c'est Mexico</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3060,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>J'te parle d'un matin Matin comme y en a plein T'as su comment m'atteindre En amour, j'suis radin J'te tendrai la main Tant qu'la vie va bien Un jour, tu f'ras ta vie Laisse-moi faire ma vie Un jour, tu f'ras ta vie Laisse-moi faire ma vie Tu m'as dit Prends tes affaires, tu m'diras combien ça fait Pas comme si qu'j'perdais ma mère, j'ouvre la porte, j'sors d'dix ans fermes Bébé, reviens déjà, j'sais qu'tu t'ennuies déjà J'vais pas t'prendre dans mes bras D'ja une autre sous mes draps J'faisais pleuvoir n amour sur ton parapluie J'avais pas besoin d'faire l'tour, dis-moi, pour plair à qui ? Tu m'appelles, tu m'cherches partout, t'en dors pas la nuit Mais en vrai, j'demande pardon, t'es plus d'mon paradis You might also like Tous les jours, jours, jours, jours Que des pleurs, de l'amour, 'mour, 'mour, 'mour Qui t'effleure, j'ai fait tout pour nous, tout Mais c'est l'heure, j'ai fait tout pour nous, tout Mais c'est l'heure J'te parle d'un matin Matin comme y en a plein T'as su comment m'atteindre En amour, j'suis radin Je me rappelle tes messages comme je me rappelle ton visage Tu vois l'avenir en bizarre, j'suis plus d'ton paysage On apprend de nos erreurs, confiance qu'en mon oseille L'amour, y a plus de bénef' alors sors d'mon sommeil Hey, hey, hey, hey, hey, hey Sors d'mon sommeil Hey, hey, hey, hey, hey, hey Sors d'mon sommeil</t>
+          <t>J'te parle d'un matin Matin comme y en a plein T'as su comment m'atteindre En amour, j'suis radin J'te tendrai la main Tant qu'la vie va bien Un jour, tu f'ras ta vie Laisse-moi faire ma vie Un jour, tu f'ras ta vie Laisse-moi faire ma vie Tu m'as dit Prends tes affaires, tu m'diras combien ça fait Pas comme si qu'j'perdais ma mère, j'ouvre la porte, j'sors d'dix ans fermes Bébé, reviens déjà, j'sais qu'tu t'ennuies déjà J'vais pas t'prendre dans mes bras D'ja une autre sous mes draps J'faisais pleuvoir n amour sur ton parapluie J'avais pas besoin d'faire l'tour, dis-moi, pour plair à qui ? Tu m'appelles, tu m'cherches partout, t'en dors pas la nuit Mais en vrai, j'demande pardon, t'es plus d'mon paradis Tous les jours, jours, jours, jours Que des pleurs, de l'amour, 'mour, 'mour, 'mour Qui t'effleure, j'ai fait tout pour nous, tout Mais c'est l'heure, j'ai fait tout pour nous, tout Mais c'est l'heure J'te parle d'un matin Matin comme y en a plein T'as su comment m'atteindre En amour, j'suis radin Je me rappelle tes messages comme je me rappelle ton visage Tu vois l'avenir en bizarre, j'suis plus d'ton paysage On apprend de nos erreurs, confiance qu'en mon oseille L'amour, y a plus de bénef' alors sors d'mon sommeil Hey, hey, hey, hey, hey, hey Sors d'mon sommeil Hey, hey, hey, hey, hey, hey Sors d'mon sommeil</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3077,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Si demain, tout va bien Marcelino Ensemble, on fera notre chemin J'ai un pied dans le business, tu t'imagines ? Elle voulait la vie de rêve, sous beuh, sous weed sku, sku Eh, tic-toc, le temps passe mais j'ai pas changé Veulent qu'on reste droit dans nos bottes, veulent nous obliger no, no, no On les a bousillés, quasiment, laissés au sol, ils agonisaient Quelle vie fatiguante, on a v'-esqui l'école, appliqué tous les codes, on veut marquer l'époque Sourir aux lèvres, j'ai plus affaire aux cops oh, oh, oh, oh On m'avait dit de m méfier, les langues de pute, c'est le défilé 93, qui peut défier ? Ton ballon d'frappe, on l'a dévié C'est loin l'époque où on m'appelait tit-pe, y a qu'le camp adverse qui m'apprécie peu J'recompte 100K juste en billets bleus, j'ai v'-esqui mon ex et les p'tits haineux Si demain, tout va bien, j'viendrai demander ta main Ensemble, on fera notre chemin et nique la vie d'avant nique la vie d'avant J'ai un pied dans le business, tu t'imagines tu t'imagines ? Elle voulait la vie de rêve, sous beuh, sous weed sous beuh, sous weed You might also like J'ai fumé toute la weed weed, j'ai tourné toute la nuit nuit J'suis khabat dans mon Sportback, c'est d'la faute à qui ? à qui ? J'ai fumé toute la weed weed, j'ai tourné toute la nuit nuit J'suis khabat dans mon Sportback, c'est d'la faute à qui ? à qui ? J'suis khapta dans le Sportback, j'suis khapta dans le SportSi j'cours après elle, je m'en sors pas, si j'cours après elle, je m'en sors pas Me parle pas d'l'amour, j'suis pas seul, me parle pas d'l'amour, j'suis pas seul Elle veut mon argent, pas mon cur, elle préfère le bruit du moteur Ça remonte 10 kil' de Marbella mais le bolide s'est fait flasher Elle m'dit qelle veut une bague, moi, j'veux l'quatre anneaux pour cette année Côté passager, la miss est die mais si le frérot bé-tom, j'suis mal Le ventre est bien rempli mais sur un plavon, t'inquiète, j'suis à-l Sportback, transac', au calme, coupure de 10 dans un grand sac J'me barre en cances-va, l'poto s'fait péter pour port d'armes Oui, c'est vrai qu'on fait des sons dansant on sait aussi faire du pe-ra La chaleur empeste le bâtiment à cause de l'aquarium Depuis qu'elle a vu les nouveaux habillements, dans son ventre, elle dit qu'elle a des papillons HK Si demain, tout va bien, j'viendrai demander ta main Ensemble, on fera notre chemin et nique la vie d'avant nique la vie d'avant J'ai un pied dans le business, tu t'imagines tu t'imagines ? Elle voulait la vie de rêve, sous beuh, sous weed sous beuh, sous weed J'ai fumé toute la weed weed, j'ai tourné toute la nuit nuit J'suis khabat dans mon Sportback, c'est d'la faute à qui ? à qui ? J'ai fumé toute la weed weed, j'ai tourné toute la nuit nuit J'suis khabat dans mon Sportback, c'est d'la faute à qui ? à qui ? J'suis khapta dans le Sportback, j'suis khapta dans le Sport Si j'cours après elle, je m'en sors pas, si j'cours après elle, je m'en sors pas Me parle pas d'l'amour, j'suis pas seul, me parle pas d'l'amour, j'suis pas seul Elle veut mon argent, pas mon cur, elle préfère le bruit du moteur</t>
+          <t>Si demain, tout va bien Marcelino Ensemble, on fera notre chemin J'ai un pied dans le business, tu t'imagines ? Elle voulait la vie de rêve, sous beuh, sous weed sku, sku Eh, tic-toc, le temps passe mais j'ai pas changé Veulent qu'on reste droit dans nos bottes, veulent nous obliger no, no, no On les a bousillés, quasiment, laissés au sol, ils agonisaient Quelle vie fatiguante, on a v'-esqui l'école, appliqué tous les codes, on veut marquer l'époque Sourir aux lèvres, j'ai plus affaire aux cops oh, oh, oh, oh On m'avait dit de m méfier, les langues de pute, c'est le défilé 93, qui peut défier ? Ton ballon d'frappe, on l'a dévié C'est loin l'époque où on m'appelait tit-pe, y a qu'le camp adverse qui m'apprécie peu J'recompte 100K juste en billets bleus, j'ai v'-esqui mon ex et les p'tits haineux Si demain, tout va bien, j'viendrai demander ta main Ensemble, on fera notre chemin et nique la vie d'avant nique la vie d'avant J'ai un pied dans le business, tu t'imagines tu t'imagines ? Elle voulait la vie de rêve, sous beuh, sous weed sous beuh, sous weed J'ai fumé toute la weed weed, j'ai tourné toute la nuit nuit J'suis khabat dans mon Sportback, c'est d'la faute à qui ? à qui ? J'ai fumé toute la weed weed, j'ai tourné toute la nuit nuit J'suis khabat dans mon Sportback, c'est d'la faute à qui ? à qui ? J'suis khapta dans le Sportback, j'suis khapta dans le SportSi j'cours après elle, je m'en sors pas, si j'cours après elle, je m'en sors pas Me parle pas d'l'amour, j'suis pas seul, me parle pas d'l'amour, j'suis pas seul Elle veut mon argent, pas mon cur, elle préfère le bruit du moteur Ça remonte 10 kil' de Marbella mais le bolide s'est fait flasher Elle m'dit qelle veut une bague, moi, j'veux l'quatre anneaux pour cette année Côté passager, la miss est die mais si le frérot bé-tom, j'suis mal Le ventre est bien rempli mais sur un plavon, t'inquiète, j'suis à-l Sportback, transac', au calme, coupure de 10 dans un grand sac J'me barre en cances-va, l'poto s'fait péter pour port d'armes Oui, c'est vrai qu'on fait des sons dansant on sait aussi faire du pe-ra La chaleur empeste le bâtiment à cause de l'aquarium Depuis qu'elle a vu les nouveaux habillements, dans son ventre, elle dit qu'elle a des papillons HK Si demain, tout va bien, j'viendrai demander ta main Ensemble, on fera notre chemin et nique la vie d'avant nique la vie d'avant J'ai un pied dans le business, tu t'imagines tu t'imagines ? Elle voulait la vie de rêve, sous beuh, sous weed sous beuh, sous weed J'ai fumé toute la weed weed, j'ai tourné toute la nuit nuit J'suis khabat dans mon Sportback, c'est d'la faute à qui ? à qui ? J'ai fumé toute la weed weed, j'ai tourné toute la nuit nuit J'suis khabat dans mon Sportback, c'est d'la faute à qui ? à qui ? J'suis khapta dans le Sportback, j'suis khapta dans le Sport Si j'cours après elle, je m'en sors pas, si j'cours après elle, je m'en sors pas Me parle pas d'l'amour, j'suis pas seul, me parle pas d'l'amour, j'suis pas seul Elle veut mon argent, pas mon cur, elle préfère le bruit du moteur</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3094,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Plus Disponible Le son a été supprimé parce que Haristone ne fesait plus ses voixYou might also like</t>
+          <t>Plus Disponible Le son a été supprimé parce que Haristone ne fesait plus ses voix</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3111,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Tèj' moi ce téléphone, il va t'attirer qu'des emmerdes Raconte ça à d'autres, arrête de jurer sur ta mère J'calcule plus ces folles parce que c'est trop une sale affaire Seras-tu assez fort pour assumer toutes mes galères ? Ouais, faut qu'j'tèj' mon téléphone bip, bip, bip, bip Y a mon bigo qui sonne bip, bip, bip, bip Faut qu'j'fasse rentrer des sommes bip, bip, bip, bip Le réseau qui déconne bip, bip, bip, bip Faut qu'j'tèj' le téléphone Ce téléphone, téj'-moi ce téléphone, t'as pas d'sous sur ton compte mais tu as un SMIC dans la poche Elle est capable de fouiller quand tu dors donc mets un code Je charbonne tous les jours pour changer d'voiture comme de coque comme de coque Sur écoute, téj' l'iPhone, téléphone intraçable Pas d'Insta', pas de Snap', juste une puce Libara Lebara Ton phone-tél' est comme 6ix9ine, il peut faire tomber tes amis 'mis Tu crois qu't'as reçu un appel mais on a la même story Tèj' moi ce téléphone, il va t'attirer qu'des emmerdes Raconte ça à d'autres, arrête de jurer sur ta mère J'calcule plus ces folles parce que c'est trop une sale affaire Seras-tu assez fort pour assumer toutes mes galères ? You might also like Ouais, faut qu'j'tèj' mon téléphone bip, bip, bip, bip Y a mon bigo qui sonne bip, bip, bip, bip Faut qu'j'fasse rentrer des sommes bip, bip, bip, bip Le réseau qui déconne bip, bip, bip, bip Faut qu'j'tèj' le téléphone Le blunt, il va nier, c'est d'la peuf, j'vais pas nier Les condés sur l'palier, faudrait qu'j'v'-esqui la balayette Mec d'la tess intéresse qui ? Petite bourgeoise en bas résille S'attache à moi et ma résine, j'viens du 93, viens par ici Sur moi, j'ai les clés de la tess tess, je les marie depuis tout p'tit Akha, y a les bleus et la Break Break, un gramme de la barrette, t'es précis Chez moi, ça bicrave de la neige neige, la paire de TN comme après-ski Combien aimeraient allumer la mèche ? Mèche Mais quand ça pète, tout l'monde me v'-esqui Tèj' moi ce téléphone, il va t'attirer qu'des emmerdes Raconte ça à d'autres, arrête de jurer sur ta mère J'calcule plus ces folles parce que c'est trop une sale affaire Seras-tu assez fort pour assumer toutes mes galères ? Ouais, faut qu'j'tèj' mon téléphone bip, bip, bip, bip Y a mon bigo qui sonne bip, bip, bip, bip Faut qu'j'fasse rentrer des sommes bip, bip, bip, bip Le réseau qui déconne bip, bip, bip, bip Faut qu'j'tèj' le téléphone J'aime trop compter les sous, c'est pas des calculs qui m'saoulent Même si j'ai loupé des coups, ça me jette l'il, ça m'rend fou Contrôle en bas d'la tour, les souvenirs sont trop lourds Et la queue, je fais des coups, j'attends d'être dans le coup Ouais, faut qu'j'tèj' mon téléphone bip, bip, bip, bip Y a mon bigo qui sonne bip, bip, bip, bip Faut qu'j'fasse rentrer des sommes bip, bip, bip, bip Le réseau qui déconne bip, bip, bip, bip Faut qu'j'tèj' le téléphone</t>
+          <t>Tèj' moi ce téléphone, il va t'attirer qu'des emmerdes Raconte ça à d'autres, arrête de jurer sur ta mère J'calcule plus ces folles parce que c'est trop une sale affaire Seras-tu assez fort pour assumer toutes mes galères ? Ouais, faut qu'j'tèj' mon téléphone bip, bip, bip, bip Y a mon bigo qui sonne bip, bip, bip, bip Faut qu'j'fasse rentrer des sommes bip, bip, bip, bip Le réseau qui déconne bip, bip, bip, bip Faut qu'j'tèj' le téléphone Ce téléphone, téj'-moi ce téléphone, t'as pas d'sous sur ton compte mais tu as un SMIC dans la poche Elle est capable de fouiller quand tu dors donc mets un code Je charbonne tous les jours pour changer d'voiture comme de coque comme de coque Sur écoute, téj' l'iPhone, téléphone intraçable Pas d'Insta', pas de Snap', juste une puce Libara Lebara Ton phone-tél' est comme 6ix9ine, il peut faire tomber tes amis 'mis Tu crois qu't'as reçu un appel mais on a la même story Tèj' moi ce téléphone, il va t'attirer qu'des emmerdes Raconte ça à d'autres, arrête de jurer sur ta mère J'calcule plus ces folles parce que c'est trop une sale affaire Seras-tu assez fort pour assumer toutes mes galères ? Ouais, faut qu'j'tèj' mon téléphone bip, bip, bip, bip Y a mon bigo qui sonne bip, bip, bip, bip Faut qu'j'fasse rentrer des sommes bip, bip, bip, bip Le réseau qui déconne bip, bip, bip, bip Faut qu'j'tèj' le téléphone Le blunt, il va nier, c'est d'la peuf, j'vais pas nier Les condés sur l'palier, faudrait qu'j'v'-esqui la balayette Mec d'la tess intéresse qui ? Petite bourgeoise en bas résille S'attache à moi et ma résine, j'viens du 93, viens par ici Sur moi, j'ai les clés de la tess tess, je les marie depuis tout p'tit Akha, y a les bleus et la Break Break, un gramme de la barrette, t'es précis Chez moi, ça bicrave de la neige neige, la paire de TN comme après-ski Combien aimeraient allumer la mèche ? Mèche Mais quand ça pète, tout l'monde me v'-esqui Tèj' moi ce téléphone, il va t'attirer qu'des emmerdes Raconte ça à d'autres, arrête de jurer sur ta mère J'calcule plus ces folles parce que c'est trop une sale affaire Seras-tu assez fort pour assumer toutes mes galères ? Ouais, faut qu'j'tèj' mon téléphone bip, bip, bip, bip Y a mon bigo qui sonne bip, bip, bip, bip Faut qu'j'fasse rentrer des sommes bip, bip, bip, bip Le réseau qui déconne bip, bip, bip, bip Faut qu'j'tèj' le téléphone J'aime trop compter les sous, c'est pas des calculs qui m'saoulent Même si j'ai loupé des coups, ça me jette l'il, ça m'rend fou Contrôle en bas d'la tour, les souvenirs sont trop lourds Et la queue, je fais des coups, j'attends d'être dans le coup Ouais, faut qu'j'tèj' mon téléphone bip, bip, bip, bip Y a mon bigo qui sonne bip, bip, bip, bip Faut qu'j'fasse rentrer des sommes bip, bip, bip, bip Le réseau qui déconne bip, bip, bip, bip Faut qu'j'tèj' le téléphone</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3128,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Lil Lil Ben Ben Tu veux j'te parle de quoi ? Toujours la même histoire J'traîne en bas, sourire dans l'six litres 3, j'me contente plus d'mille trois, plus ton time Ton visage m'effraye, regard shaïtanisé, faut plus qu'on s'voit Ma peau qu'on tapisserait, j'veux plus sympathiser, c'est mon choix Je conduis, mes pensées sont loin, mes pensées sont noires Quand ils s'ennuient, ils font que parler sur moi, j'sais même plus qui croire Chacun sa vie, chacun son époque mais l'histoire se répète J'vais voir autre chose, la galère nous épaule alors qu'la vie est belle Faudrait qu'j'leur dise qu'un jour faudrait qu'j'aille voir ailleurs J'peux pas mentir, j'suis c'petit fils de tirailleur Faudrait qu'j'leur dise qu'un jour faudrait qu'j'aille voir ailleurs J'peux pas mentir, j'suis c'petit fils de tirailleur Petit jeune du tier-quar, je maigris, je m'égare, faut coffrer, faire sa vie, le temps passe, comment dire ? Endurci, j'm'en ressers, j'prends une cuite, j'me pète le crâne N'effacerons pas mes dettes mais retiendrons ma tête Ils m'ont négligé, j'crois, j'suis pas d'ceux qui déçoivent Voulaient m'voir finir dans l'square, très peu connaissent l'histoire Elles sont prêtes les cartouches pour ceux qui barrent mon parcours, j'crois qu'j'ai fait l'tour You might also like Faudrait qu'j'leur dise qu'un jour faudrait qu'j'aille voir ailleurs J'peux pas mentir, j'suis c'petit fils de tirailleur Faudrait qu'j'leur dise qu'un jour faudrait qu'j'aille voir ailleurs J'peux pas mentir, j'suis c'petit fils de tirailleur J'peux pas mentir, j'suis c'petit fils de tirailleur J'peux pas m'enfuir, j'suis c'petit fils de tirailleur</t>
+          <t>Lil Lil Ben Ben Tu veux j'te parle de quoi ? Toujours la même histoire J'traîne en bas, sourire dans l'six litres 3, j'me contente plus d'mille trois, plus ton time Ton visage m'effraye, regard shaïtanisé, faut plus qu'on s'voit Ma peau qu'on tapisserait, j'veux plus sympathiser, c'est mon choix Je conduis, mes pensées sont loin, mes pensées sont noires Quand ils s'ennuient, ils font que parler sur moi, j'sais même plus qui croire Chacun sa vie, chacun son époque mais l'histoire se répète J'vais voir autre chose, la galère nous épaule alors qu'la vie est belle Faudrait qu'j'leur dise qu'un jour faudrait qu'j'aille voir ailleurs J'peux pas mentir, j'suis c'petit fils de tirailleur Faudrait qu'j'leur dise qu'un jour faudrait qu'j'aille voir ailleurs J'peux pas mentir, j'suis c'petit fils de tirailleur Petit jeune du tier-quar, je maigris, je m'égare, faut coffrer, faire sa vie, le temps passe, comment dire ? Endurci, j'm'en ressers, j'prends une cuite, j'me pète le crâne N'effacerons pas mes dettes mais retiendrons ma tête Ils m'ont négligé, j'crois, j'suis pas d'ceux qui déçoivent Voulaient m'voir finir dans l'square, très peu connaissent l'histoire Elles sont prêtes les cartouches pour ceux qui barrent mon parcours, j'crois qu'j'ai fait l'tour Faudrait qu'j'leur dise qu'un jour faudrait qu'j'aille voir ailleurs J'peux pas mentir, j'suis c'petit fils de tirailleur Faudrait qu'j'leur dise qu'un jour faudrait qu'j'aille voir ailleurs J'peux pas mentir, j'suis c'petit fils de tirailleur J'peux pas mentir, j'suis c'petit fils de tirailleur J'peux pas m'enfuir, j'suis c'petit fils de tirailleur</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3145,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Non disponiblesYou might also like</t>
+          <t>Non disponibles</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3162,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>TxT Production Peufra Tous les wet, tous les wet Tous les wet, je vais tous les wet Tous les wet, tous les wet Tous les wet, je vais tous les wet Quand tu bougeais tes seufés, Twerk On se retourne tah The Voice, Garou Quand tu nous fais la se-bi T'aime la te-bi ça se voit, Avoue Fuck le cul du game en forme de se-frai La puissance vient du 80-Zeutrei T'as le même flow qu'un mouton sans te-tê 100 Djazair il parle sans couper La concurrence j'vais la défoncer pour rentrer dans le game Comme un canon sans c'est clé A 22 ans j'vie ma vie re-frè, j'veux aimer une meuf bien pour etre refait ! Y a celle ou j'propose un verre de Vodka, et celle ou j'propose un verre de Thé ! Toi j'te propose un petit Coca pour qu't'arrete le rap la putain d'ta re-mè ! Du matracage en radio, Sky Dans la voiture condamné, bloquer T'es textes dans la paie d'mes impots, enfoiré Bourrer en sortant de soirée, Crystal De la merde, tu t'la ferme et t'ecoute Mec c'est la guerre nique sa mère sert les couilles Les concurrents aucune forces ils sont ou ? Vient pas teste 93 800 Douilles ! You might also like Air max aux pieds, j'vais les wet Degrader blanc, j'vais les wet T-max aux pieds, j'vais les wet Si t'as des plans, j'vais les wet ! Dhaa dhaa, je vais tous les wet Quand t'as ton ex dans la tete, Hsroul Tu perds tu poid mon ami, Soucis Quand t'as oseille dans la tete, Deter' Là des exs mec t'en 1000, Peper La puissance vient du 80-Zeutrei J'repète 2 fois 9.3 dans la te-tê Les rappeurs la plupart tous des tes-trai Vivent de loin la street, mais clip de près La concurrence j'vais la wet Rebeux renois, delinquance melange acidulé Orgemont y a de la beuh, du shit, et de la blanche a te faire saigner du nez ! On rappe et on nique les keufs, Breh Et je suis bien fière de sa, Ghetto Toi qui rappe que pour les meufs, Pedale Tu vas peut-etre percer par chatte, Roulette Lache des freestyles sur le toit d'la costière, Mama j'y vais La seul personne qui pèse c'est ta grosse mère J'reste dans l'ombre pour vendre ma crème solaire Paire de Requin pour la rentrée scolaire J'vais tous les wet, comme la douleur molaire On va tous allez loin dans la gorge à vos mère Demain c'est pas loin c'est juste après minuit Defoncer, on se lève en fin d'après-midi ! Air max aux pieds, j'vais les wet Degrader blanc, j'vais les wet T-max aux pieds, j'vais les wet Si t'as des plans, j'vais les wet ! Dhaa dhaa, je vais tous les wet</t>
+          <t>TxT Production Peufra Tous les wet, tous les wet Tous les wet, je vais tous les wet Tous les wet, tous les wet Tous les wet, je vais tous les wet Quand tu bougeais tes seufés, Twerk On se retourne tah The Voice, Garou Quand tu nous fais la se-bi T'aime la te-bi ça se voit, Avoue Fuck le cul du game en forme de se-frai La puissance vient du 80-Zeutrei T'as le même flow qu'un mouton sans te-tê 100 Djazair il parle sans couper La concurrence j'vais la défoncer pour rentrer dans le game Comme un canon sans c'est clé A 22 ans j'vie ma vie re-frè, j'veux aimer une meuf bien pour etre refait ! Y a celle ou j'propose un verre de Vodka, et celle ou j'propose un verre de Thé ! Toi j'te propose un petit Coca pour qu't'arrete le rap la putain d'ta re-mè ! Du matracage en radio, Sky Dans la voiture condamné, bloquer T'es textes dans la paie d'mes impots, enfoiré Bourrer en sortant de soirée, Crystal De la merde, tu t'la ferme et t'ecoute Mec c'est la guerre nique sa mère sert les couilles Les concurrents aucune forces ils sont ou ? Vient pas teste 93 800 Douilles ! Air max aux pieds, j'vais les wet Degrader blanc, j'vais les wet T-max aux pieds, j'vais les wet Si t'as des plans, j'vais les wet ! Dhaa dhaa, je vais tous les wet Quand t'as ton ex dans la tete, Hsroul Tu perds tu poid mon ami, Soucis Quand t'as oseille dans la tete, Deter' Là des exs mec t'en 1000, Peper La puissance vient du 80-Zeutrei J'repète 2 fois 9.3 dans la te-tê Les rappeurs la plupart tous des tes-trai Vivent de loin la street, mais clip de près La concurrence j'vais la wet Rebeux renois, delinquance melange acidulé Orgemont y a de la beuh, du shit, et de la blanche a te faire saigner du nez ! On rappe et on nique les keufs, Breh Et je suis bien fière de sa, Ghetto Toi qui rappe que pour les meufs, Pedale Tu vas peut-etre percer par chatte, Roulette Lache des freestyles sur le toit d'la costière, Mama j'y vais La seul personne qui pèse c'est ta grosse mère J'reste dans l'ombre pour vendre ma crème solaire Paire de Requin pour la rentrée scolaire J'vais tous les wet, comme la douleur molaire On va tous allez loin dans la gorge à vos mère Demain c'est pas loin c'est juste après minuit Defoncer, on se lève en fin d'après-midi ! Air max aux pieds, j'vais les wet Degrader blanc, j'vais les wet T-max aux pieds, j'vais les wet Si t'as des plans, j'vais les wet ! Dhaa dhaa, je vais tous les wet</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3179,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>J'reste vrai, authentique Le bénéf' d'la plaquette suffit pas pour la Patek, j'avais la pâteuse pas un Mais j'demande pas d'aide, ve-esqui grosse peine très tôt l'matin Papa veut mon bien, Mama aussi, faut qu'jarrête de fumer, j'crois qu'c'est nocif J'ai pas attendu le lycée pour faire l'illicite et si la rue t'as baisé, c'était prévisible Y'a la BRI qui sonne, les condés qui zonent, le arter qui m'sauve pe-cho et décale J'suis cramé d'où j'viens, j'connais mon ethnie, gros sourire kabyle pour tous mes ennemis Orgemont, khey, j'écoute mon cur et pas les on dit Zikxo réel Bondy, pisse du Diable dans la vessie, ça pue la rue dans nos récits C'est du rap, mon khey, oh ah, j'suis dans un gros fer sans permis Tu m'dois du cash, on t'aura, prie Dieu tant qu't'es encore libre J'reste sur Paname cet été, midi-minuit pas d'CDD Le khey Yester s'est fait péter, tête cramée, coupable va plaider Ah ah, ça se relance avec kilos d'shit Ah ah, ça se relance avec kilos d'shit Tout l'temps, c'est TP, tout l'temps, c'est TP, olala Tout l'temps, c'est TP, tout l'temps, c'est TP, olala J'reste vrai authentique, j'sais qu'la frime ,ça tue J'pensais pas m'faire autant d'fric en bossant dans ma bulle J'reste vrai authentique, j'sais qu'la frime, ça tue J'pensais pas m'faire autant d'fric en bossant dans ma bulle You might also like J'ai capté l'truc, j'prends d'assaut ton navire, que des faux dans la ville qu'un assos dans la vie Tez-ma l'ascension tout seul, on l'a faite, trop d'freestyles, ça va vite, on a sucé personne Maint'nant, les rageux s'reposent sur ma bite pour faire des feats, désormais ça m'appelle Ils parlent de musique tout ceux qui f'sait la pute et compter le soir et l'oseille, ça m'apaise Des p'tis pédés restent bloqués sur la perf', ils ont pompé tout l'monde quand j'étouffais la peur J'suis tout l'contraire de tes rappeurs sa mère, le hasch' chez moi cousin, on va t'visère la ppe-f' Vrai jusqu'à ma cellule, vrai jusquà ma tombe sa mère J'fume du shit mais jai pas serré, jobserve le monde kiff mamène J'ramène pour la daronne du violet, j'respecte que la femme et mes voyous Jalterne à 18 et j'tourne en rond, des mecs pas trop vrais, jen ai tellement vus Hornet La Frappe, cest d'la 'sique qui t'visserr, on a connu la dèche, on a connu bisap On reste deux fois comme les mecs du 17, on a bloqué lappart' pour les keumés bizarres Ah ah, ça se relance avec kilos d'shit Ah ah, ça se relance avec kilos d'shit Tout l'temps, c'est TP, tout l'temps, c'est TP, olala Tout l'temps, c'est TP, tout l'temps, c'est TP, olala J'reste vrai authentique, j'sais qu'la frime ,ça tue J'pensais pas m'faire autant d'fric en bossant dans ma bulle J'reste vrai authentique, j'sais qu'la frime, ça tue J'pensais pas m'faire autant d'fric en bossant dans ma bulle</t>
+          <t>J'reste vrai, authentique Le bénéf' d'la plaquette suffit pas pour la Patek, j'avais la pâteuse pas un Mais j'demande pas d'aide, ve-esqui grosse peine très tôt l'matin Papa veut mon bien, Mama aussi, faut qu'jarrête de fumer, j'crois qu'c'est nocif J'ai pas attendu le lycée pour faire l'illicite et si la rue t'as baisé, c'était prévisible Y'a la BRI qui sonne, les condés qui zonent, le arter qui m'sauve pe-cho et décale J'suis cramé d'où j'viens, j'connais mon ethnie, gros sourire kabyle pour tous mes ennemis Orgemont, khey, j'écoute mon cur et pas les on dit Zikxo réel Bondy, pisse du Diable dans la vessie, ça pue la rue dans nos récits C'est du rap, mon khey, oh ah, j'suis dans un gros fer sans permis Tu m'dois du cash, on t'aura, prie Dieu tant qu't'es encore libre J'reste sur Paname cet été, midi-minuit pas d'CDD Le khey Yester s'est fait péter, tête cramée, coupable va plaider Ah ah, ça se relance avec kilos d'shit Ah ah, ça se relance avec kilos d'shit Tout l'temps, c'est TP, tout l'temps, c'est TP, olala Tout l'temps, c'est TP, tout l'temps, c'est TP, olala J'reste vrai authentique, j'sais qu'la frime ,ça tue J'pensais pas m'faire autant d'fric en bossant dans ma bulle J'reste vrai authentique, j'sais qu'la frime, ça tue J'pensais pas m'faire autant d'fric en bossant dans ma bulle J'ai capté l'truc, j'prends d'assaut ton navire, que des faux dans la ville qu'un assos dans la vie Tez-ma l'ascension tout seul, on l'a faite, trop d'freestyles, ça va vite, on a sucé personne Maint'nant, les rageux s'reposent sur ma bite pour faire des feats, désormais ça m'appelle Ils parlent de musique tout ceux qui f'sait la pute et compter le soir et l'oseille, ça m'apaise Des p'tis pédés restent bloqués sur la perf', ils ont pompé tout l'monde quand j'étouffais la peur J'suis tout l'contraire de tes rappeurs sa mère, le hasch' chez moi cousin, on va t'visère la ppe-f' Vrai jusqu'à ma cellule, vrai jusquà ma tombe sa mère J'fume du shit mais jai pas serré, jobserve le monde kiff mamène J'ramène pour la daronne du violet, j'respecte que la femme et mes voyous Jalterne à 18 et j'tourne en rond, des mecs pas trop vrais, jen ai tellement vus Hornet La Frappe, cest d'la 'sique qui t'visserr, on a connu la dèche, on a connu bisap On reste deux fois comme les mecs du 17, on a bloqué lappart' pour les keumés bizarres Ah ah, ça se relance avec kilos d'shit Ah ah, ça se relance avec kilos d'shit Tout l'temps, c'est TP, tout l'temps, c'est TP, olala Tout l'temps, c'est TP, tout l'temps, c'est TP, olala J'reste vrai authentique, j'sais qu'la frime ,ça tue J'pensais pas m'faire autant d'fric en bossant dans ma bulle J'reste vrai authentique, j'sais qu'la frime, ça tue J'pensais pas m'faire autant d'fric en bossant dans ma bulle</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3196,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>C'est pas l'homme qui font les couilles, ils ont dû l'penser T'es pas la famille, cherche quelqu'un d'autre pour t'avancer J'descends chez Lacoste pour le p'tit frère, j'vais dépenser Y a les poulets, faut tout coffrer, j'fais attention Et c'est pas par hasard, dieu merci, j'évite la zon-zon Sparta J'ai mon arme de poing qui frotte mon zizi ah ouais J'ai mon arme de poing qui frotte mon zizi en vrai La liberté pour tous les frangins, ça f'rait zizir Ou sav mwen trop fréquent, et qu'les spartas pas trop fréquentable Tranquille le sang, moi, j'ai toujours les deux pieds dans l'bât' Encore un mort, la cité est plongée dans l'noir Metté'y yo à l'amende, si jamais yo fey an faux pas Triste mélodie, ils essaient tous de raconter nos vies t'inquiète pas maman Triste mélodie, leur jalousie fait ronronner l'Audi t'inquiète pas maman Ça découpe, j'suis dans l'tieks, j'recompte mes ients-cli J'crois qu'ce monde m'inquiète, je sais même plus d'quoi j'ai envie Et maintenant, j'prends l'hôtel à quatre étoiles quand j'ai envie J'ai l'outil sous la couette, dis-moi qui veut m'ôter la vie You might also like Mélodie des Glock, faudra bien négocier Et si tu déconnes, j't'envoie mes renois locksés J'ai quitté l'école, p'tit, j'savais compter la détaille, mon cur est dur à dompter, le coup d'un soir, ça dépanne Contrôle d'identité, nikoumouk, desserre les menottes, j'récupère deux-trois litrons d'coke, j'vais refaire le monde J'viens du bloc, viens donc vérifier, la ppe-f' certifiée Ça vient des Antilles, du 9.3, plus qu'à débiter Efficacité, Madinina Gwada, les cités, j'te parle en qualité, assieds-toi despi, j'vais t'expliquer Ay niké manmanw, an bonda manmanw, rebeu sous l'bandana, pas de bande à part Faut qu'tu payes Triste mélodie, ils essaient tous de raconter nos vies t'inquiète pas maman Triste mélodie, leur jalousie fait ronronner l'Audi t'inquiète pas maman Ça découpe, j'suis dans l'tieks, j'recompte mes ients-cli J'crois qu'ce monde m'inquiète, je sais même plus d'quoi j'ai envie Et maintenant, j'prends l'hôtel à quatre étoiles quand j'ai envie J'ai l'outil sous la couette, dis-moi qui veut m'ôter la vie T'inquiète pas maman Ça découpe, j'suis dans l'tieks, j'recompte mes ients-cli J'crois qu'ce monde m'inquiète, je sais même plus d'quoi j'ai envie Et maintenant, j'prends l'hôtel à quatre étoiles quand j'ai envie J'ai l'outil sous la couette, dis-moi qui veut m'ôter la vie Triste mélodie, ils essaient tous de raconter nos vies t'inquiète pas maman Triste mélodie, leur jalousie fait ronronner l'Audi t'inquiète pas maman J'découpe, j'suis dans l'tieks, j'recompte mes ients-cli J'crois qu'ce monde m'inquiète, je sais même plus d'quoi j'ai envie Et maintenant, j'prends l'hôtel quatre étoiles quand j'ai envie J'ai l'outil sous la couette, dis-moi qui veut m'ôter la vie En vrai</t>
+          <t>C'est pas l'homme qui font les couilles, ils ont dû l'penser T'es pas la famille, cherche quelqu'un d'autre pour t'avancer J'descends chez Lacoste pour le p'tit frère, j'vais dépenser Y a les poulets, faut tout coffrer, j'fais attention Et c'est pas par hasard, dieu merci, j'évite la zon-zon Sparta J'ai mon arme de poing qui frotte mon zizi ah ouais J'ai mon arme de poing qui frotte mon zizi en vrai La liberté pour tous les frangins, ça f'rait zizir Ou sav mwen trop fréquent, et qu'les spartas pas trop fréquentable Tranquille le sang, moi, j'ai toujours les deux pieds dans l'bât' Encore un mort, la cité est plongée dans l'noir Metté'y yo à l'amende, si jamais yo fey an faux pas Triste mélodie, ils essaient tous de raconter nos vies t'inquiète pas maman Triste mélodie, leur jalousie fait ronronner l'Audi t'inquiète pas maman Ça découpe, j'suis dans l'tieks, j'recompte mes ients-cli J'crois qu'ce monde m'inquiète, je sais même plus d'quoi j'ai envie Et maintenant, j'prends l'hôtel à quatre étoiles quand j'ai envie J'ai l'outil sous la couette, dis-moi qui veut m'ôter la vie Mélodie des Glock, faudra bien négocier Et si tu déconnes, j't'envoie mes renois locksés J'ai quitté l'école, p'tit, j'savais compter la détaille, mon cur est dur à dompter, le coup d'un soir, ça dépanne Contrôle d'identité, nikoumouk, desserre les menottes, j'récupère deux-trois litrons d'coke, j'vais refaire le monde J'viens du bloc, viens donc vérifier, la ppe-f' certifiée Ça vient des Antilles, du 9.3, plus qu'à débiter Efficacité, Madinina Gwada, les cités, j'te parle en qualité, assieds-toi despi, j'vais t'expliquer Ay niké manmanw, an bonda manmanw, rebeu sous l'bandana, pas de bande à part Faut qu'tu payes Triste mélodie, ils essaient tous de raconter nos vies t'inquiète pas maman Triste mélodie, leur jalousie fait ronronner l'Audi t'inquiète pas maman Ça découpe, j'suis dans l'tieks, j'recompte mes ients-cli J'crois qu'ce monde m'inquiète, je sais même plus d'quoi j'ai envie Et maintenant, j'prends l'hôtel à quatre étoiles quand j'ai envie J'ai l'outil sous la couette, dis-moi qui veut m'ôter la vie T'inquiète pas maman Ça découpe, j'suis dans l'tieks, j'recompte mes ients-cli J'crois qu'ce monde m'inquiète, je sais même plus d'quoi j'ai envie Et maintenant, j'prends l'hôtel à quatre étoiles quand j'ai envie J'ai l'outil sous la couette, dis-moi qui veut m'ôter la vie Triste mélodie, ils essaient tous de raconter nos vies t'inquiète pas maman Triste mélodie, leur jalousie fait ronronner l'Audi t'inquiète pas maman J'découpe, j'suis dans l'tieks, j'recompte mes ients-cli J'crois qu'ce monde m'inquiète, je sais même plus d'quoi j'ai envie Et maintenant, j'prends l'hôtel quatre étoiles quand j'ai envie J'ai l'outil sous la couette, dis-moi qui veut m'ôter la vie En vrai</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3213,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>ft. Squadra Production, Hornet la frappe Squadra, 93, le liquide sera chef Tu paye ou pas, tu paye ou pas, tu paye ou pas, tu paye ou pas pas pas Les terriens nerveux comme Staline, absolu, vodka tas du cristalline, je ne donne pas damour la Kalash de caline, tu diras à ta sur quelle nest pas très maline Beleck ou tu marche on a posé des mines, overdose dans la street Fidéline, MKS te la dit à tes risque et péril, je vais me barrer dici aller loin sur une île Méthamphétaline, ta pas bonne mine, prends des vitamines, salope ton pote bine, si tes pas daccord je veux celui ta copine Coka protéine, cke-cra Héroïne shit jai pas de sous je tartine et puis quand jen ai je gère des bicia B Va falloir que je tallume negro si tu paye pas, jai du pilons la beuh qui viennent des Pays-Bas, sort le che-ca me parle pas de , si jte pointe le canon sur la tempe prie pour tu périr pas GP 800 je suis sur le périph, la Kalash est pleine cest à tes risque et péril, drive by Shooting Ratatata tu périme tomber cest le salaire,à ce bâtard de John Terry Tout mes negro son postiches sur le terrain, des murs des neiges coffret dans sous terrain, Broly la b ici valsant sous terriens, fume sur mon ter je tassure tu sera plus terrien Wesh rebeu tu dois des sous tu paye ou pas tu paye ou pas, midi minuit sur le rain-ter ça paye ou pas ça paye ou pas, au feu rouge tas les yeux rouges ça pète ou pas ça pète ou pas Hornet la frappe, Squadra gang on baisse ou pas Wesh renoi tu dois des sous tu paye ou pas tu paye ou pas, midi minuit sur le rain-ter ça paye ou pas ça paye ou pas, au feu rouge tas les yeux rouges ça pète ou pas ça pète ou pas Hornet la frappe, Squadra gang on baisse ou pas Cest moi tu cherche si tu crois que tu peux alors liquide moi han, comme la femme fontaine je veux autant liquide moi Plus de lo-ki danse, cest peut-être la seule capitol hill au moins, si il y a kill en moins bah faut killer le man ouais, faut peut-être que je lui casse la gueule pour montrer que jai la main, à bout temps moi bé-tom je serai toujours la pour lui tendre la main, si je prend un gros billet tiens je vois la mama, bitch tu passe à gamin cest juste avec toi jai mignard ma bitch Posé sur lallée tu nous vois avec miyama, poto tu sais pas rapper il me lance des piques piques tinquiète mama, je nique la mala, sort le cross je timpose, je peux faire un malheur atchoum Hornet feat Squadra les negro son déplacer, on refais on refait leur rouge sur le corps la balle faut la placer, on va sortir les magnums lembrouille elle est glacée, comme sur un terrain de foot il va en avoir des blessés Conte pas sur mon jo go jo go, jo go, Conte pas sur mon polo polo polo certes à 150 trop fâché negro rentre à Napolo, paraît quelle est vierge donc je vais lui mettre dans son tigné, bébé accepter de se faire ratatiner, déclasse pour dîner AK-47 sur ta face mes negro adhère la gaineda adhère la gaineda, AK-47 tu tire pas mes négros ils détestent la mala ils déteste la mala, sprite,sirop,codéine cest parti pour le ma lynx, après nous ya pas r, après près nous ya la R pour mailler mino malan You might also like Wesh rebeu tu dois des sous tu paye ou pas tu paye ou pas, midi minuit sur le rain-ter ça paye ou pas ça paye ou pas, au feu rouge tas les yeux rouges ça pète ou pas ça pète ou pas Hornet la frappe, Squadra gang on baisse ou pas Wesh renoi tu dois des sous tu paye ou pas tu paye ou pas, midi minuit sur le rain-ter ça paye ou pas ça paye ou pas, au feu rouge tas les yeux rouges ça pète ou pas ça pète ou pas Hornet la frappe, Squadra gang on baisse ou pas Le liquide sera chef, cest Louis Vuitton sur tas ssef, on baise des doubles poneys qui ne rentre pas dans une chaise, je fais des feat avec les reufs, tu fais des feat avec les keufs, rue de Marseille comment faire à part lâcher des commentaires, je rap la rue moi je ne vise pas la lune je te vise je tallume, je met de la frappe dans lallure, ça bibi dans la rue pour poser de ma thune, je suis déterre ou linter je pense aux frères sur la ter, jai grave besoin dairs je me casse à FR escale toi Ousmane linca booder, au feu tarrache le scooter, ta meuf ressemble à bouder tas mère ressemble à ton père, squadra Hornet hôtel, nous voilà pour notre oseille oseille, pétasse week-ends hôtel, webber Robert fadel Ya les mbila les mbila taupe alezane au dépôt je pense quà ma liberta, tu passe au ghetto au arrivant, tu passe des liasses au mandat, jen ai jamais fait mais jen parle tas jamais sucer mais ten bave, Drive by tu peux criblés de balles tes plus rien quun simple cadavre Le conte en beurre on fonce à table, on est broliquer on fonce adapte, je cherche que des bombes à Saïda, surprise à 4 pattes viennent on sarrange, la juge, ma bite saccroche, que des stupéfiants dans la sacoche elle a vu elle a vu, ya la BAC qui sapproche, ya la C et la À dans le pot , quand ça passe quand ça passe ça caillasse les porcs, pieds de biche, ter ter je tape sa porte, wesh tape sa porte Tu paye ou pas, tu paye ou pas, tu paye ou pas tu paye ou pas, ou pas Wesh rebeu tu dois des sous tu paye ou pas tu paye ou pas, midi minuit sur le rain-ter ça paye ou pas ça paye ou pas, au feu rouge tas les yeux rouges ça pète ou pas ça pète ou pas Hornet la frappe, Squadra gang on baisse ou pas Wesh renoi tu dois des sous tu paye ou pas tu paye ou pas, midi minuit sur le rain-ter ça paye ou pas ça paye ou pas, au feu rouge tas les yeux rouges ça pète ou pas ça pète ou pas Hornet la frappe, Squadra gang on baisse ou pas On paye ou pas wesh les mecs On paye ou pas, On paye ou pas wesh les mecs On paye ou pas, On paye ou pas wesh les mecs On paye ou pas, On paye ou pas wesh les mecs On paye ou pas On paye ou pas , eh il dit nimporte quoi je dit pas mais ça passe crème On paye ou pas</t>
+          <t>ft. Squadra Production, Hornet la frappe Squadra, 93, le liquide sera chef Tu paye ou pas, tu paye ou pas, tu paye ou pas, tu paye ou pas pas pas Les terriens nerveux comme Staline, absolu, vodka tas du cristalline, je ne donne pas damour la Kalash de caline, tu diras à ta sur quelle nest pas très maline Beleck ou tu marche on a posé des mines, overdose dans la street Fidéline, MKS te la dit à tes risque et péril, je vais me barrer dici aller loin sur une île Méthamphétaline, ta pas bonne mine, prends des vitamines, salope ton pote bine, si tes pas daccord je veux celui ta copine Coka protéine, cke-cra Héroïne shit jai pas de sous je tartine et puis quand jen ai je gère des bicia B Va falloir que je tallume negro si tu paye pas, jai du pilons la beuh qui viennent des Pays-Bas, sort le che-ca me parle pas de , si jte pointe le canon sur la tempe prie pour tu périr pas GP 800 je suis sur le périph, la Kalash est pleine cest à tes risque et péril, drive by Shooting Ratatata tu périme tomber cest le salaire,à ce bâtard de John Terry Tout mes negro son postiches sur le terrain, des murs des neiges coffret dans sous terrain, Broly la b ici valsant sous terriens, fume sur mon ter je tassure tu sera plus terrien Wesh rebeu tu dois des sous tu paye ou pas tu paye ou pas, midi minuit sur le rain-ter ça paye ou pas ça paye ou pas, au feu rouge tas les yeux rouges ça pète ou pas ça pète ou pas Hornet la frappe, Squadra gang on baisse ou pas Wesh renoi tu dois des sous tu paye ou pas tu paye ou pas, midi minuit sur le rain-ter ça paye ou pas ça paye ou pas, au feu rouge tas les yeux rouges ça pète ou pas ça pète ou pas Hornet la frappe, Squadra gang on baisse ou pas Cest moi tu cherche si tu crois que tu peux alors liquide moi han, comme la femme fontaine je veux autant liquide moi Plus de lo-ki danse, cest peut-être la seule capitol hill au moins, si il y a kill en moins bah faut killer le man ouais, faut peut-être que je lui casse la gueule pour montrer que jai la main, à bout temps moi bé-tom je serai toujours la pour lui tendre la main, si je prend un gros billet tiens je vois la mama, bitch tu passe à gamin cest juste avec toi jai mignard ma bitch Posé sur lallée tu nous vois avec miyama, poto tu sais pas rapper il me lance des piques piques tinquiète mama, je nique la mala, sort le cross je timpose, je peux faire un malheur atchoum Hornet feat Squadra les negro son déplacer, on refais on refait leur rouge sur le corps la balle faut la placer, on va sortir les magnums lembrouille elle est glacée, comme sur un terrain de foot il va en avoir des blessés Conte pas sur mon jo go jo go, jo go, Conte pas sur mon polo polo polo certes à 150 trop fâché negro rentre à Napolo, paraît quelle est vierge donc je vais lui mettre dans son tigné, bébé accepter de se faire ratatiner, déclasse pour dîner AK-47 sur ta face mes negro adhère la gaineda adhère la gaineda, AK-47 tu tire pas mes négros ils détestent la mala ils déteste la mala, sprite,sirop,codéine cest parti pour le ma lynx, après nous ya pas r, après près nous ya la R pour mailler mino malan Wesh rebeu tu dois des sous tu paye ou pas tu paye ou pas, midi minuit sur le rain-ter ça paye ou pas ça paye ou pas, au feu rouge tas les yeux rouges ça pète ou pas ça pète ou pas Hornet la frappe, Squadra gang on baisse ou pas Wesh renoi tu dois des sous tu paye ou pas tu paye ou pas, midi minuit sur le rain-ter ça paye ou pas ça paye ou pas, au feu rouge tas les yeux rouges ça pète ou pas ça pète ou pas Hornet la frappe, Squadra gang on baisse ou pas Le liquide sera chef, cest Louis Vuitton sur tas ssef, on baise des doubles poneys qui ne rentre pas dans une chaise, je fais des feat avec les reufs, tu fais des feat avec les keufs, rue de Marseille comment faire à part lâcher des commentaires, je rap la rue moi je ne vise pas la lune je te vise je tallume, je met de la frappe dans lallure, ça bibi dans la rue pour poser de ma thune, je suis déterre ou linter je pense aux frères sur la ter, jai grave besoin dairs je me casse à FR escale toi Ousmane linca booder, au feu tarrache le scooter, ta meuf ressemble à bouder tas mère ressemble à ton père, squadra Hornet hôtel, nous voilà pour notre oseille oseille, pétasse week-ends hôtel, webber Robert fadel Ya les mbila les mbila taupe alezane au dépôt je pense quà ma liberta, tu passe au ghetto au arrivant, tu passe des liasses au mandat, jen ai jamais fait mais jen parle tas jamais sucer mais ten bave, Drive by tu peux criblés de balles tes plus rien quun simple cadavre Le conte en beurre on fonce à table, on est broliquer on fonce adapte, je cherche que des bombes à Saïda, surprise à 4 pattes viennent on sarrange, la juge, ma bite saccroche, que des stupéfiants dans la sacoche elle a vu elle a vu, ya la BAC qui sapproche, ya la C et la À dans le pot , quand ça passe quand ça passe ça caillasse les porcs, pieds de biche, ter ter je tape sa porte, wesh tape sa porte Tu paye ou pas, tu paye ou pas, tu paye ou pas tu paye ou pas, ou pas Wesh rebeu tu dois des sous tu paye ou pas tu paye ou pas, midi minuit sur le rain-ter ça paye ou pas ça paye ou pas, au feu rouge tas les yeux rouges ça pète ou pas ça pète ou pas Hornet la frappe, Squadra gang on baisse ou pas Wesh renoi tu dois des sous tu paye ou pas tu paye ou pas, midi minuit sur le rain-ter ça paye ou pas ça paye ou pas, au feu rouge tas les yeux rouges ça pète ou pas ça pète ou pas Hornet la frappe, Squadra gang on baisse ou pas On paye ou pas wesh les mecs On paye ou pas, On paye ou pas wesh les mecs On paye ou pas, On paye ou pas wesh les mecs On paye ou pas, On paye ou pas wesh les mecs On paye ou pas On paye ou pas , eh il dit nimporte quoi je dit pas mais ça passe crème On paye ou pas</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3230,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Tu vas comprendre que t'as plus l'level T'aimerais voir mon cadavre entouré Tu fais semblant de prendre d'mes nouvelles Tu veux juste savoir si j'ai coulé Tu vas comprendre que t'as plus l'level T'aimerais voir mon cadavre entouré Tu fais semblant de prendre d'mes nouvelles Tu veux juste savoir si j'ai coulé Ça souhaite du bien mais quand tu l'as, ils sont pas ien-b Ils font les bons mais dans le fond ils sont pas humbles Ils sont prêts à faire des singries pour te banane Toujours pas assagi, sur coup d'têt, j'monte à 'Dam J'm'arrête à l'alim, khalé, c'est mon année Tu mérites qu'on t'allume mais flemme d'être condamné Ça vient d'les piner, moi j'avance pendant qu'ils stagnent Tout l'monde enfouraillé, tu verras, vraiment personne s'tape T'façon je vois que t'es par terre pas besoin d'parler T'façon je vois qu'tu sais pas t'taire t'aimes déballer Moi qui pensais qu't'étais v'là l'frère j'suis égaré Moi qui pensais qu't'étais v'là l'frère You might also like Tu vas comprendre que t'as plus l'level T'aimerais voir mon cadavre entouré Tu fais semblant de prendre d'mes nouvelles Tu veux juste savoir si j'ai coulé Tu vas comprendre que t'as plus l'level T'aimerais voir mon cadavre entouré Tu fais semblant de prendre d'mes nouvelles Tu veux juste savoir si j'ai coulé L'ennemi est souvent proche, souvent il tient la poche Il fait le bon que pour l'accroche Mérite que son front sur la cross Il veut t'éteindre sans trop savoir la cause Son cur noir le rend moche Il sourit jaune mais fais semblant d't'aimer Pourtant mange sans payer Il jalouse, y a personne parce que lui, c'est personne Pense qu'à lui comme si qu'on s'enterre seul Regard noir, il pue l'seum Haineux, t'as plus d'oseille Donne-lui plus de conseils Il dira qu'il s'est fait seul T'envoies qu'du mauvais il t'envoies qu'du mauvais il T'façon je vois que t'es par terre pas besoin d'parler T'façon je vois qu'tu sais pas t'taire t'aimes déballer Moi qui pensais qu't'étais v'là l'frère j'suis égaré Moi qui pensais qu't'étais v'là l'frère Tu vas comprendre que t'as plus l'level T'aimerais voir mon cadavre entouré Tu fais semblant de prendre d'mes nouvelles Tu veux juste savoir si j'ai coulé Tu vas comprendre que t'as plus l'level T'aimerais voir mon cadavre entouré Tu fais semblant de prendre d'mes nouvelles Tu veux juste savoir si j'ai coulé T'façon je vois que t'es par terre pas besoin d'parler T'façon je vois qu'tu sais pas t'taire t'aimes déballer Moi qui pensais qu't'étais v'là l'frère j'suis égaré Moi qui pensais qu't'étais v'là l'frère T'façon je vois que t'es par terre pas besoin d'parler T'façon je vois qu'tu sais pas t'taire t'aimes déballer Moi qui pensais qu't'étais v'là l'frère j'suis égaré Moi qui pensais qu't'étais v'là l'frère</t>
+          <t>Tu vas comprendre que t'as plus l'level T'aimerais voir mon cadavre entouré Tu fais semblant de prendre d'mes nouvelles Tu veux juste savoir si j'ai coulé Tu vas comprendre que t'as plus l'level T'aimerais voir mon cadavre entouré Tu fais semblant de prendre d'mes nouvelles Tu veux juste savoir si j'ai coulé Ça souhaite du bien mais quand tu l'as, ils sont pas ien-b Ils font les bons mais dans le fond ils sont pas humbles Ils sont prêts à faire des singries pour te banane Toujours pas assagi, sur coup d'têt, j'monte à 'Dam J'm'arrête à l'alim, khalé, c'est mon année Tu mérites qu'on t'allume mais flemme d'être condamné Ça vient d'les piner, moi j'avance pendant qu'ils stagnent Tout l'monde enfouraillé, tu verras, vraiment personne s'tape T'façon je vois que t'es par terre pas besoin d'parler T'façon je vois qu'tu sais pas t'taire t'aimes déballer Moi qui pensais qu't'étais v'là l'frère j'suis égaré Moi qui pensais qu't'étais v'là l'frère Tu vas comprendre que t'as plus l'level T'aimerais voir mon cadavre entouré Tu fais semblant de prendre d'mes nouvelles Tu veux juste savoir si j'ai coulé Tu vas comprendre que t'as plus l'level T'aimerais voir mon cadavre entouré Tu fais semblant de prendre d'mes nouvelles Tu veux juste savoir si j'ai coulé L'ennemi est souvent proche, souvent il tient la poche Il fait le bon que pour l'accroche Mérite que son front sur la cross Il veut t'éteindre sans trop savoir la cause Son cur noir le rend moche Il sourit jaune mais fais semblant d't'aimer Pourtant mange sans payer Il jalouse, y a personne parce que lui, c'est personne Pense qu'à lui comme si qu'on s'enterre seul Regard noir, il pue l'seum Haineux, t'as plus d'oseille Donne-lui plus de conseils Il dira qu'il s'est fait seul T'envoies qu'du mauvais il t'envoies qu'du mauvais il T'façon je vois que t'es par terre pas besoin d'parler T'façon je vois qu'tu sais pas t'taire t'aimes déballer Moi qui pensais qu't'étais v'là l'frère j'suis égaré Moi qui pensais qu't'étais v'là l'frère Tu vas comprendre que t'as plus l'level T'aimerais voir mon cadavre entouré Tu fais semblant de prendre d'mes nouvelles Tu veux juste savoir si j'ai coulé Tu vas comprendre que t'as plus l'level T'aimerais voir mon cadavre entouré Tu fais semblant de prendre d'mes nouvelles Tu veux juste savoir si j'ai coulé T'façon je vois que t'es par terre pas besoin d'parler T'façon je vois qu'tu sais pas t'taire t'aimes déballer Moi qui pensais qu't'étais v'là l'frère j'suis égaré Moi qui pensais qu't'étais v'là l'frère T'façon je vois que t'es par terre pas besoin d'parler T'façon je vois qu'tu sais pas t'taire t'aimes déballer Moi qui pensais qu't'étais v'là l'frère j'suis égaré Moi qui pensais qu't'étais v'là l'frère</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3247,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>J'me dis qu'faut pas che-la comme quand j'fais du gainage A 2.40 j'm'arrête pas j'mets du Tu voulais ma peau t'as juste enlevé mon pelage J'suis un loup d'en bas, pour eux j'reste une menace J'veux voir ton cur rien à foutre de l'emballage La vie en vrai sans botox ni maquillage Trop souvent solo apparemment c'est l'âge Mais jamais sous l'eau j'les baiserai tous ces lâches J'frappe le sac habilé tout en venum C'st moi l'ainé depuis mes 16 piges j fais l'homme La caille nous a appris à rester féroce Ça sirote le Siroc en sérum Plus les années passent plus on s'éloigne Les wesh, c'est quoi d'neuf qui en témoignent J'ai toujours vu loin Avec ou sans jumelles tout au fond du trou on a creusé un tunnel T'es sorti d'ma vie, maint'nant j'vois plus net J'étais gentil mais j'ai décidé de plus l'être Les p'tits qui contrôlent la tess, moi je les ai vu naître Combien de rêves brisés à cause de la fumette ? Font les malins mais leur équipe est si laide J'critique pas la paire de pompes que tu cirais J'attends pas ton ci-mer, pour les nôtres qu'on s'y met J'ai suivi les consignes et tout ce qu'on se disait Et puis tu connais chez nous c'est méchant Mais sous cali ces il manque la moitié sur la photo de sixième J'ai 2-3 têtes sûres pas besoin d'être une dizaine Chez nous c'est méchant mais sous cali ces Il manque la moitié sur la photo de sixième Regarde-pas mes gains, j'te dois rien mais tient En dépression, j'irais voir les miens Ma p'tite sur médecin, pourrait faire mes soins J'm'accroche, j'fais mes sons, toujours en mission J'peux pas che-la, pas comme ça chez moi J'recompte ma sse-lia, rappeur national Garde-la ta médaille, la gloire ça m'éteint J'ai vendu l'écaille, j'recomptais mes gains Et celui d'départ sont plus là à la fin L'héroïne c'est très grave, cha-crat sur les tiens Changer ma vie, prendre le bon train J'préfère être aimé, j'suis personne pour être craint J'mettais aujourd'hui j'mets du Céline J'crois qu'la bourgeoisie nous a tous séduites En nous on a tous un peu d' Surtout quand on entend le bruit des sirènes J'voulais le piwi en cadeau J'ai eu des platines, j'suis plus en péril Ça vient des banlieues, derrière le périf Là où c'est dangereux, pour rien on vérif' La caille en direct, y a pas de redif Ça passe par la douane, le chien nous renifle 2 grammes de vovo dans l'sang pour qu'on se livre 2 grammes de vovo dans l'sang pour qu'on se livre You might also like Parce quil est évident qu'il y a toute une génération de jeunes scénaristes qui est arrivée, de jeunes de Et qui ne peuvent pas écrire ce genre d'histoires, parce qu'ils ne connaissent pas la vie ils ne connaissent pas les hommes Ils font du parisianisme, ils font je ne sais pas quoi Ils n'ont pas roulé leur bosse, ils n'ont pas vécu, ils n'ont pas souffert Alors, comment voulez-vous qu'ils vous expliquent des histoires d'hommes? Et ceux qui connaissent les hommes d'un seul coup, petit à petit, disparaissent y en a plus beaucoup</t>
+          <t>J'me dis qu'faut pas che-la comme quand j'fais du gainage A 2.40 j'm'arrête pas j'mets du Tu voulais ma peau t'as juste enlevé mon pelage J'suis un loup d'en bas, pour eux j'reste une menace J'veux voir ton cur rien à foutre de l'emballage La vie en vrai sans botox ni maquillage Trop souvent solo apparemment c'est l'âge Mais jamais sous l'eau j'les baiserai tous ces lâches J'frappe le sac habilé tout en venum C'st moi l'ainé depuis mes 16 piges j fais l'homme La caille nous a appris à rester féroce Ça sirote le Siroc en sérum Plus les années passent plus on s'éloigne Les wesh, c'est quoi d'neuf qui en témoignent J'ai toujours vu loin Avec ou sans jumelles tout au fond du trou on a creusé un tunnel T'es sorti d'ma vie, maint'nant j'vois plus net J'étais gentil mais j'ai décidé de plus l'être Les p'tits qui contrôlent la tess, moi je les ai vu naître Combien de rêves brisés à cause de la fumette ? Font les malins mais leur équipe est si laide J'critique pas la paire de pompes que tu cirais J'attends pas ton ci-mer, pour les nôtres qu'on s'y met J'ai suivi les consignes et tout ce qu'on se disait Et puis tu connais chez nous c'est méchant Mais sous cali ces il manque la moitié sur la photo de sixième J'ai 2-3 têtes sûres pas besoin d'être une dizaine Chez nous c'est méchant mais sous cali ces Il manque la moitié sur la photo de sixième Regarde-pas mes gains, j'te dois rien mais tient En dépression, j'irais voir les miens Ma p'tite sur médecin, pourrait faire mes soins J'm'accroche, j'fais mes sons, toujours en mission J'peux pas che-la, pas comme ça chez moi J'recompte ma sse-lia, rappeur national Garde-la ta médaille, la gloire ça m'éteint J'ai vendu l'écaille, j'recomptais mes gains Et celui d'départ sont plus là à la fin L'héroïne c'est très grave, cha-crat sur les tiens Changer ma vie, prendre le bon train J'préfère être aimé, j'suis personne pour être craint J'mettais aujourd'hui j'mets du Céline J'crois qu'la bourgeoisie nous a tous séduites En nous on a tous un peu d' Surtout quand on entend le bruit des sirènes J'voulais le piwi en cadeau J'ai eu des platines, j'suis plus en péril Ça vient des banlieues, derrière le périf Là où c'est dangereux, pour rien on vérif' La caille en direct, y a pas de redif Ça passe par la douane, le chien nous renifle 2 grammes de vovo dans l'sang pour qu'on se livre 2 grammes de vovo dans l'sang pour qu'on se livre Parce quil est évident qu'il y a toute une génération de jeunes scénaristes qui est arrivée, de jeunes de Et qui ne peuvent pas écrire ce genre d'histoires, parce qu'ils ne connaissent pas la vie ils ne connaissent pas les hommes Ils font du parisianisme, ils font je ne sais pas quoi Ils n'ont pas roulé leur bosse, ils n'ont pas vécu, ils n'ont pas souffert Alors, comment voulez-vous qu'ils vous expliquent des histoires d'hommes? Et ceux qui connaissent les hommes d'un seul coup, petit à petit, disparaissent y en a plus beaucoup</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3264,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Han, han, han Les balles pleuvent comme certif' d'N.I, on rappe nos vies et nos délits Un rappeur c'est chiant, bébé, fuis, tout s'passe en DM, que du faux J'vais jamais m'en mettre dans l'naseau, ça risque de décevoir la zone J'viens du 9.3 comme Gazo, sous she-fla, c'est ma gasolina Toujours d'ceux qui font tâche, on gère la pression, l'pilotage Faut qu'j'soigne le style comme SCH, comme Jul, j'aime pas les BDH Mec de rue te f'ra d'la zumba, on sort direct du zoo, là Faut streamer comme Ozuna, prendre soin d'la mama c'est soûlent Souhaite moi la longévité d'Kopp mais faudra bannir tous les opps Et t'inquiètes pas pour le charisme, j'me mettrais l'clip Zoo de Kaaris On leur sortait le Tokarev, à la base, on a aucun rêve Avec Lacrim dans l'pays d'Pablo, les pompes finition Abloh Faut même pas toucher l'p'tit kho, ça pétera comme aux Pablos J'fais pas du rap pour tiagas, j'aime la mélo' comme Tiako' Mais un jour comme Werenoi, j'leur dirais tous Ciao P'tit frère, t'as rien si tu bosses pas, j'viens d'Orgemont comme Busta Et ouais, c'est nous les re-sta, et ouais, c'est nous les re-sta Cri d'guerre, c'est Yougataga, v'là l'taga dans l'boîte à gants J'traînais d'vant l'bar-tabac You might also like Pas toujours beau la vie d'artiste, faudra des couilles et prendre des risques L'ego te f'ra acheter des streams ou t'fra des histoires dans la street Pas toujours beau la vie d'artiste, faudra des couilles et prendre des risques L'ego te f'ra acheter des streams ou t'fra des histoires dans la street Tonton du Bled comme Rim'K, Pour Ceux comme K'1 Fry Mafia Y a des jours, on sourit peu, c'est pour Villepinte et ry-Fleu Vrai 2 vrai comme D.A, les p'tits sont dans Athéna Pense qu'à bédave, au fond, ça fait d'la peine Ça crée d'la paresse, dans l'RS, j'mets du Maes Tu connais bien nos ganaches mais pas celle du poto Kalash Rue d'Marseille c'était mon calage mais pour traîner, j'crois qu'j'ai plus l'âge Et ouais, poto, on a grandi, j'viens d'en bas d'chez moi comme Landy Pas toujours beau la vie d'artiste, faudra des couilles et prendre des risques L'ego te f'ra acheter des streams ou t'fra des histoires dans la street Pas toujours beau la vie d'artiste, faudra des couilles et prendre des risques L'ego te f'ra acheter des streams ou t'fra des histoires dans la street</t>
+          <t>Han, han, han Les balles pleuvent comme certif' d'N.I, on rappe nos vies et nos délits Un rappeur c'est chiant, bébé, fuis, tout s'passe en DM, que du faux J'vais jamais m'en mettre dans l'naseau, ça risque de décevoir la zone J'viens du 9.3 comme Gazo, sous she-fla, c'est ma gasolina Toujours d'ceux qui font tâche, on gère la pression, l'pilotage Faut qu'j'soigne le style comme SCH, comme Jul, j'aime pas les BDH Mec de rue te f'ra d'la zumba, on sort direct du zoo, là Faut streamer comme Ozuna, prendre soin d'la mama c'est soûlent Souhaite moi la longévité d'Kopp mais faudra bannir tous les opps Et t'inquiètes pas pour le charisme, j'me mettrais l'clip Zoo de Kaaris On leur sortait le Tokarev, à la base, on a aucun rêve Avec Lacrim dans l'pays d'Pablo, les pompes finition Abloh Faut même pas toucher l'p'tit kho, ça pétera comme aux Pablos J'fais pas du rap pour tiagas, j'aime la mélo' comme Tiako' Mais un jour comme Werenoi, j'leur dirais tous Ciao P'tit frère, t'as rien si tu bosses pas, j'viens d'Orgemont comme Busta Et ouais, c'est nous les re-sta, et ouais, c'est nous les re-sta Cri d'guerre, c'est Yougataga, v'là l'taga dans l'boîte à gants J'traînais d'vant l'bar-tabac Pas toujours beau la vie d'artiste, faudra des couilles et prendre des risques L'ego te f'ra acheter des streams ou t'fra des histoires dans la street Pas toujours beau la vie d'artiste, faudra des couilles et prendre des risques L'ego te f'ra acheter des streams ou t'fra des histoires dans la street Tonton du Bled comme Rim'K, Pour Ceux comme K'1 Fry Mafia Y a des jours, on sourit peu, c'est pour Villepinte et ry-Fleu Vrai 2 vrai comme D.A, les p'tits sont dans Athéna Pense qu'à bédave, au fond, ça fait d'la peine Ça crée d'la paresse, dans l'RS, j'mets du Maes Tu connais bien nos ganaches mais pas celle du poto Kalash Rue d'Marseille c'était mon calage mais pour traîner, j'crois qu'j'ai plus l'âge Et ouais, poto, on a grandi, j'viens d'en bas d'chez moi comme Landy Pas toujours beau la vie d'artiste, faudra des couilles et prendre des risques L'ego te f'ra acheter des streams ou t'fra des histoires dans la street Pas toujours beau la vie d'artiste, faudra des couilles et prendre des risques L'ego te f'ra acheter des streams ou t'fra des histoires dans la street</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3281,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Mignon l'rappeur qui les malmène C'est sous leurs lunettes qu'ils nous 3eyen P'tit frère, la bicrave, c'est galère C'est les poucaves qui arrêtent des carrières Moi, petit, j'voulais un Piwi, tu m'calmais avec Happy Meal Aujourd'hui, je veux un milli', fini le détail à l'opinel C'est moi qui dit quand c'est fini Pas d'grand frère pour venir me sauver J'me faisais masser à 8000, revenais avec un 9 mili' Revenu déter' dans leur cités comme j'suis rentré dans le rap français L'milieu du crâne sera ciblé, J'bois du Cristal à ta santé Eh, p'tit frère, c'est l'heure, faut qu'on s'taille Moi, j'te sauve, faut pas qu'tu revives mon drame Et ça sra fini quand jai décidé Jai décidé, jai décidé, poto Cest pour les vrais bonhommes des vraies cités Des vraies cités, des vraies cités poto Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais You might also like Beaucoup existent mais très peu vivent, mon cur ne fait que trembler Et si je pars, quand je vais revenir, serais-je un étranger ? Les gens ne taiment que quand tu saignes Ils te détestent quand tu rêves Moi je saigne en rêvant Seigneur, dis-moi qui maime ? Nos vies nsont pas les mêmes, depuis le démarrage Jdois libérer mon âme comme si cétait Bakhaw J'tourne en rond comme un détenu, jai mis ma vie en danger Maman, regarde cque jsuis devenu, cest tellement dur de changer Et ça sra fini quand jai décidé Jai décidé, jai décidé, poto Cest pour les vrais bonhommes des vraies cités Des vraies cités, des vraies cités poto Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Et jleur avais dit que jallais revenir Jleur avais dit Jme vengerai ouais, ouais, ouais, ouais Personne supporte personne va revenir Jai laissé le Diable entrer ouais, ouais, ouais, ouais Frérot, ta vie tient quà un oint-j Fais pas grimacer lsinge Plus damour sous les draps Que du fer caché sous les linges Gros y a plus personne à fumer Partage le calumet Zoom pas les surs des gens Poto, tu vas te faire allumer Y a que des cauchemars dans mes souvenirs Qui aurait dit jme rferais ? Poto, jveux tous les fours, jveux tout t'nir Faut sacheter des rêves en vrai poto Et ça sra fini quand jai décidé Jai décidé, jai décidé, poto Cest pour les vrais bonhommes des vraies cités Des vraies cités, des vraies cités poto Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais</t>
+          <t>Mignon l'rappeur qui les malmène C'est sous leurs lunettes qu'ils nous 3eyen P'tit frère, la bicrave, c'est galère C'est les poucaves qui arrêtent des carrières Moi, petit, j'voulais un Piwi, tu m'calmais avec Happy Meal Aujourd'hui, je veux un milli', fini le détail à l'opinel C'est moi qui dit quand c'est fini Pas d'grand frère pour venir me sauver J'me faisais masser à 8000, revenais avec un 9 mili' Revenu déter' dans leur cités comme j'suis rentré dans le rap français L'milieu du crâne sera ciblé, J'bois du Cristal à ta santé Eh, p'tit frère, c'est l'heure, faut qu'on s'taille Moi, j'te sauve, faut pas qu'tu revives mon drame Et ça sra fini quand jai décidé Jai décidé, jai décidé, poto Cest pour les vrais bonhommes des vraies cités Des vraies cités, des vraies cités poto Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Beaucoup existent mais très peu vivent, mon cur ne fait que trembler Et si je pars, quand je vais revenir, serais-je un étranger ? Les gens ne taiment que quand tu saignes Ils te détestent quand tu rêves Moi je saigne en rêvant Seigneur, dis-moi qui maime ? Nos vies nsont pas les mêmes, depuis le démarrage Jdois libérer mon âme comme si cétait Bakhaw J'tourne en rond comme un détenu, jai mis ma vie en danger Maman, regarde cque jsuis devenu, cest tellement dur de changer Et ça sra fini quand jai décidé Jai décidé, jai décidé, poto Cest pour les vrais bonhommes des vraies cités Des vraies cités, des vraies cités poto Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Et jleur avais dit que jallais revenir Jleur avais dit Jme vengerai ouais, ouais, ouais, ouais Personne supporte personne va revenir Jai laissé le Diable entrer ouais, ouais, ouais, ouais Frérot, ta vie tient quà un oint-j Fais pas grimacer lsinge Plus damour sous les draps Que du fer caché sous les linges Gros y a plus personne à fumer Partage le calumet Zoom pas les surs des gens Poto, tu vas te faire allumer Y a que des cauchemars dans mes souvenirs Qui aurait dit jme rferais ? Poto, jveux tous les fours, jveux tout t'nir Faut sacheter des rêves en vrai poto Et ça sra fini quand jai décidé Jai décidé, jai décidé, poto Cest pour les vrais bonhommes des vraies cités Des vraies cités, des vraies cités poto Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais Viens dans mon 93 ouais, ouais, ouais, ouais</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3298,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Oh oh, à plus de 220 sur l'auto Passe la vitesse, frérot, vas-y molo À plus de 220 sur l'auto Passe la vitesse, frérot, vas-y molo Avec Landy, on parle d'un fer allemand, prêt à tout pour dl'argent Moi, petit, aux shlagues j'mettais des douilles, j'leur vendais d'l'efferalgan Petit frère, t'auras ta paire de Nike, j'irai leur faire du mal Trop cramé, la juge mappelle Hornet La Frappe au tribunal La frappe est bien locale, liasse de cent la cale Du sale tous les jours, tu fais lfou à l'occas La vodka m'monte au crâne, j'repense à tes coups d'pute En bécane, impossible jrétrograde, j't'en mets une dans la nuque On sort en club à dix, le physio fait la bise Que des têtes cassées, dis-moi, faut plaire à qui ? Calibré dans l'Audi, c'est pas une parodie La plus bonne sera bien dans mon lit, j'la mettrais pas dans l'clip Oh oh, à plus de 220 sur l'auto' Passe la vitesse, frérot, vas-y molo À plus de 220 sur l'auto Passe la vitesse, frérot, vas-y molo Eh, frérot, on a grandi ici, tous entassés, c'est dur Faut bombarder sur le périphérique, ves-qui la procédure À six heures, les keufs reviennent en force pour casser ma serrure Eh, frérot, on a grandi ici, tous entassés, c'est dur Frérot, vas-y molo You might also like C'est dur d'élever un fils dans l'93 Jeune charmé par le V6 du S3 Tu m'tends ton verre d'eau, sais-tu à quel point j'ai soif ? Fais péter la sono, j'suis en feat avec Hornet La ppe-Fra Comme si j'sortais de prison, fais-moi une passe sur le rrain-té, j'ai envie d'placer un ciseau Ma skalape n'est pas rentrée, j'suis à deux doigts d'devenir schizo' T'inquiète pas, c'est d'la fraîche, j'viens d'la sortir du frigo Petit, j'volais déjà, j'ai pas b'soin d'ton aide Y'a qu'devant l'bureau d'la GAV, mes frérots promesses Tu veux chasser dans la jungle ? Faut les cojones Y'a deux places, on roule à quatre Avenue du Colonel x2 Oh oh, à plus de 220 sur l'auto' Passe la vitesse, frérot, vas-y molo À plus de 220 sur l'auto Passe la vitesse, frérot, vas-y molo Eh, frérot, on a grandi ici, tous entassés, c'est dur Faut bombarder sur le périphérique, ves-qui la procédure À six heures, les keufs reviennent en force pour casser ma serrure Eh, frérot, on a grandi ici, tous entassés, c'est dur Frérot, vas-y molo</t>
+          <t>Oh oh, à plus de 220 sur l'auto Passe la vitesse, frérot, vas-y molo À plus de 220 sur l'auto Passe la vitesse, frérot, vas-y molo Avec Landy, on parle d'un fer allemand, prêt à tout pour dl'argent Moi, petit, aux shlagues j'mettais des douilles, j'leur vendais d'l'efferalgan Petit frère, t'auras ta paire de Nike, j'irai leur faire du mal Trop cramé, la juge mappelle Hornet La Frappe au tribunal La frappe est bien locale, liasse de cent la cale Du sale tous les jours, tu fais lfou à l'occas La vodka m'monte au crâne, j'repense à tes coups d'pute En bécane, impossible jrétrograde, j't'en mets une dans la nuque On sort en club à dix, le physio fait la bise Que des têtes cassées, dis-moi, faut plaire à qui ? Calibré dans l'Audi, c'est pas une parodie La plus bonne sera bien dans mon lit, j'la mettrais pas dans l'clip Oh oh, à plus de 220 sur l'auto' Passe la vitesse, frérot, vas-y molo À plus de 220 sur l'auto Passe la vitesse, frérot, vas-y molo Eh, frérot, on a grandi ici, tous entassés, c'est dur Faut bombarder sur le périphérique, ves-qui la procédure À six heures, les keufs reviennent en force pour casser ma serrure Eh, frérot, on a grandi ici, tous entassés, c'est dur Frérot, vas-y molo C'est dur d'élever un fils dans l'93 Jeune charmé par le V6 du S3 Tu m'tends ton verre d'eau, sais-tu à quel point j'ai soif ? Fais péter la sono, j'suis en feat avec Hornet La ppe-Fra Comme si j'sortais de prison, fais-moi une passe sur le rrain-té, j'ai envie d'placer un ciseau Ma skalape n'est pas rentrée, j'suis à deux doigts d'devenir schizo' T'inquiète pas, c'est d'la fraîche, j'viens d'la sortir du frigo Petit, j'volais déjà, j'ai pas b'soin d'ton aide Y'a qu'devant l'bureau d'la GAV, mes frérots promesses Tu veux chasser dans la jungle ? Faut les cojones Y'a deux places, on roule à quatre Avenue du Colonel x2 Oh oh, à plus de 220 sur l'auto' Passe la vitesse, frérot, vas-y molo À plus de 220 sur l'auto Passe la vitesse, frérot, vas-y molo Eh, frérot, on a grandi ici, tous entassés, c'est dur Faut bombarder sur le périphérique, ves-qui la procédure À six heures, les keufs reviennent en force pour casser ma serrure Eh, frérot, on a grandi ici, tous entassés, c'est dur Frérot, vas-y molo</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3315,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>J'crois qu'mon cur a vrillé, j'pense qu'à faire mes billets J'crois qu'mon cur a vrillé, j'pense qu'à faire mes billets J'pense qu'à faire mes billets et faire le tour d'la tess J'sais pas où t'emmener dîner, j'connais aucune adresse C'est pas de l'eau, j'suis , quand je parle, je t'agresse Et nique sa mère, j'ai tisé, t'façon, y a qu'ça qui m'apaise J'respecte toutes les femmes même si j'en ai déçu plus d'une Une fois qu'j'ai touché tes formes, je fuis, c'est mon habitude Mon cur est menotté, mon vécu l'a déjà pillé Impossible de me lober, j'ai déjà la balle aux pieds J'crois qu'mon cur a vrillé, j'pense qu'à faire mes billets J'crois qu'mon cur a vrillé, j'pense qu'à faire mes billets J'crois qu'mon cur a fané, sentiments en faillite Ouais, le mal m'envahit, je fais que d'm'envoyer J'crois qu'mon cur a fané, sentiments en faillite Ouais, le mal m'envahit, je fais que d'm'envoyer You might also like J'ai d'jà fait sale boulot, la bouteille au goulot J'serai p't-être numéro uno, retiens bien ma tête L'Audi cabriolet, tu veux qu'je fasse des tonneaux Billets verts et violets, je dois remplir la caisse La vie va vite, mon khey, j'ai mis d'côté mes blèmes-pro L'pe-ra, c'était mon rêve, mon cur qui bat sur l'tempo J'les aime bien montées un peu simple, des fois, bimbo J'compte les inonder, j'suis toujours dans mon bendo J'crois qu'mon cur a vrillé, j'pense qu'à faire mes billets J'crois qu'mon cur a vrillé, j'pense qu'à faire mes billets J'crois qu'mon cur a vrillé, j'pense qu'à faire mes billets J'crois qu'mon cur a vrillé, j'pense qu'à faire mes billets J'crois qu'mon cur a fané, sentiment en faillite Ouais, le mal m'envahit, je fais que d'm'envoyer J'crois qu'mon cur a fané, sentiment en faillite Ouais, le mal m'envahit, je fais que d'm'envoyer Baille Broliker Production Deuzes</t>
+          <t>J'crois qu'mon cur a vrillé, j'pense qu'à faire mes billets J'crois qu'mon cur a vrillé, j'pense qu'à faire mes billets J'pense qu'à faire mes billets et faire le tour d'la tess J'sais pas où t'emmener dîner, j'connais aucune adresse C'est pas de l'eau, j'suis , quand je parle, je t'agresse Et nique sa mère, j'ai tisé, t'façon, y a qu'ça qui m'apaise J'respecte toutes les femmes même si j'en ai déçu plus d'une Une fois qu'j'ai touché tes formes, je fuis, c'est mon habitude Mon cur est menotté, mon vécu l'a déjà pillé Impossible de me lober, j'ai déjà la balle aux pieds J'crois qu'mon cur a vrillé, j'pense qu'à faire mes billets J'crois qu'mon cur a vrillé, j'pense qu'à faire mes billets J'crois qu'mon cur a fané, sentiments en faillite Ouais, le mal m'envahit, je fais que d'm'envoyer J'crois qu'mon cur a fané, sentiments en faillite Ouais, le mal m'envahit, je fais que d'm'envoyer J'ai d'jà fait sale boulot, la bouteille au goulot J'serai p't-être numéro uno, retiens bien ma tête L'Audi cabriolet, tu veux qu'je fasse des tonneaux Billets verts et violets, je dois remplir la caisse La vie va vite, mon khey, j'ai mis d'côté mes blèmes-pro L'pe-ra, c'était mon rêve, mon cur qui bat sur l'tempo J'les aime bien montées un peu simple, des fois, bimbo J'compte les inonder, j'suis toujours dans mon bendo J'crois qu'mon cur a vrillé, j'pense qu'à faire mes billets J'crois qu'mon cur a vrillé, j'pense qu'à faire mes billets J'crois qu'mon cur a vrillé, j'pense qu'à faire mes billets J'crois qu'mon cur a vrillé, j'pense qu'à faire mes billets J'crois qu'mon cur a fané, sentiment en faillite Ouais, le mal m'envahit, je fais que d'm'envoyer J'crois qu'mon cur a fané, sentiment en faillite Ouais, le mal m'envahit, je fais que d'm'envoyer Baille Broliker Production Deuzes</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3332,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Mets les warnings, mets les warnings, mets les warnings, mets les warnings Tu nous as pas vu venir, petit pédé, faut pas nier J'm'occupe de mon avenir, balaie devant ton palier J'écrase personne pour monter, j'ai vesqui ta balayette J'ai rappé toute ma rage, j'suis là où je dois y être Qui d'la cité sans repère à deux heures du mat' ? C'est moi Qui sèche lécole en gàv pour des vols ? C'est moi J'aime pas les meufs qui collent, j'préfère celles qui sucent sans les dents Oui, je suis vulgaire mais avant t'la mettre, j'reste élégant La vie de ma mère, j'suis timide, la vie d'ma mère, j'suis vexé J'vais tenchaîner les 6 litres j'vais finir tout éméché Tu connais pas ma vie, ouais, j'connais pas la tienne Bats les couilles d'ton carré VIP, j'ai grandi dans la merde J'ai dormi chez ma meuf donc j'ai vesqui la balayette Prévenu par un reuf donc j'ai vesqui la balayette Je vais faire plein d'oseille pour esquiver la balayette La concurrence est morte, je vais leurs mettre des balayettes Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings You might also like J'suis discret j'aime pas le bruit, j'aime pas lexcès Celui qui parle a tout va n'a plus rien dintéressant Ma parole vaut de l'or et mes chansons font le platine J'ai fait le bonheur d'maman en n'faisant pas confiance aux gens Mon petit cur va ter-sau, j'peux juste te tirer les cheveux Après un teh ou deux, ouais, j'suis paresseux Au fond du bloc aux salopes, on paye pas la dot Plus rien m'fait bander, remballe tes je t'aime à la mode Ton petit cur va sauter, tu crois qu'j'me la raconte ? Ici, personne est coké, on s'fout pas la honte À six heures, c'est venu toquer, c'est parti pour la ronde Attends-moi, ma beauté, je désamorce la bombe J'ai dormi chez ma meuf donc j'ai vesqui la balayette Prévenu par un reuf donc j'ai vesqui la balayette Je vais faire plein d'oseille pour esquiver la balayette La concurrence est morte, je vais leurs mettre des balayettes Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Ton petit cur va sauter, tu crois qu'j'me la raconte ? Ici, personne est coké, on s'fout pas la honte À six heures, c'est venu toquer, c'est parti pour la ronde Attends-moi, ma beauté, je désamorce la bombe Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings J'ai dormi chez ma meuf donc j'ai vesqui la balayette Prévenu par un reuf donc j'ai vesqui la balayette Je vais faire plein d'oseille pour esquiver la balayette La concurrence est morte, je vais leurs mettre des balayettes Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings1</t>
+          <t>Mets les warnings, mets les warnings, mets les warnings, mets les warnings Tu nous as pas vu venir, petit pédé, faut pas nier J'm'occupe de mon avenir, balaie devant ton palier J'écrase personne pour monter, j'ai vesqui ta balayette J'ai rappé toute ma rage, j'suis là où je dois y être Qui d'la cité sans repère à deux heures du mat' ? C'est moi Qui sèche lécole en gàv pour des vols ? C'est moi J'aime pas les meufs qui collent, j'préfère celles qui sucent sans les dents Oui, je suis vulgaire mais avant t'la mettre, j'reste élégant La vie de ma mère, j'suis timide, la vie d'ma mère, j'suis vexé J'vais tenchaîner les 6 litres j'vais finir tout éméché Tu connais pas ma vie, ouais, j'connais pas la tienne Bats les couilles d'ton carré VIP, j'ai grandi dans la merde J'ai dormi chez ma meuf donc j'ai vesqui la balayette Prévenu par un reuf donc j'ai vesqui la balayette Je vais faire plein d'oseille pour esquiver la balayette La concurrence est morte, je vais leurs mettre des balayettes Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings J'suis discret j'aime pas le bruit, j'aime pas lexcès Celui qui parle a tout va n'a plus rien dintéressant Ma parole vaut de l'or et mes chansons font le platine J'ai fait le bonheur d'maman en n'faisant pas confiance aux gens Mon petit cur va ter-sau, j'peux juste te tirer les cheveux Après un teh ou deux, ouais, j'suis paresseux Au fond du bloc aux salopes, on paye pas la dot Plus rien m'fait bander, remballe tes je t'aime à la mode Ton petit cur va sauter, tu crois qu'j'me la raconte ? Ici, personne est coké, on s'fout pas la honte À six heures, c'est venu toquer, c'est parti pour la ronde Attends-moi, ma beauté, je désamorce la bombe J'ai dormi chez ma meuf donc j'ai vesqui la balayette Prévenu par un reuf donc j'ai vesqui la balayette Je vais faire plein d'oseille pour esquiver la balayette La concurrence est morte, je vais leurs mettre des balayettes Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Ton petit cur va sauter, tu crois qu'j'me la raconte ? Ici, personne est coké, on s'fout pas la honte À six heures, c'est venu toquer, c'est parti pour la ronde Attends-moi, ma beauté, je désamorce la bombe Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings J'ai dormi chez ma meuf donc j'ai vesqui la balayette Prévenu par un reuf donc j'ai vesqui la balayette Je vais faire plein d'oseille pour esquiver la balayette La concurrence est morte, je vais leurs mettre des balayettes Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings Petit cur va sauter, mets tes warnings1</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3349,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Re-fré, j'suis khabat, jfais que penser à oi-t Re-fré, j'suis khabat, j'fais que penser à oi-t La racli hispanique, yeux verts, vert, brune On avait des bons goûts, juste on avait pas dthunes Pas besoin de sparring, regard baril, j'appuie l'feu On marchait qu'à deux, avec eux, on parlait peu Des soirées dans l'parking, têtes cramées qu'on interpelle Jamais l'un sans l'autre comme Stringer et Barksdale Nos têtes sur les clichés pendant qules autres révisaient Foncedé, les yeux plissés, avec eux, jflashais l'épicier Jai choisi l'rap, toi t'as continué dans l'stup Tourne en Gilera, paro, frérot tu dors plus Mais dans lillégal, pour durer, ouais, c'est tendu Coûte cher, la cavale, mon produit gagne toujours plus Y avait moins de sous, mais plus de sourires, mon ami Remplis de souvenirs, on faisait face au pire, prés des risques On tournait à deux, j'protégeais ton dos, j'élimine Re-fré, j'suis khabat, j'fais que penser à oi-t Re-fré, j'suis khabat, j'fais que penser à oi-t J'me rappelle d'l'époque où on fumait d'la wax J'aime trop ma té-ci, depuis tit-peu, j'la squatte Et quand pour toi, les sous rentrent, j'avais pas, tu m'relances Généreux, j'avais même pas besoin de d'mander On est pas d'ceux qui se ventent, pas besoin d'se voir souvent Nos délires d'avant risqueraient de me manquer You might also like Attiré par la ne-zo, ça vendait la résine Leur mettre dans le naseau, fallait du papel Tu m'as donné d'l'inspi', j'ai ramené l'platine En bas, tu m'as porté quand j'étais par terre J'ai choisi l'rap, toi t'as continué dans l'stup Tourne en Gilera, paro, frérot tu dors plus Mais dans l'illégal, pour durer, ouais, c'est tendu Coûte cher, la cavale, mon produit gagne toujours plus Re-fré, j'suis khabat, j'fais que penser à oi-t Re-fré, j'suis khabat, j'fais que penser à oi-t Re-fré, j'suis khabat, j'fais que penser à oi-t Re-fré, j'suis khabat, j'fais que penser à oi-t J'me rappelle d'l'époque où on fumait d'la wax J'aime trop ma té-ci, depuis tit-peu, j'la squatte Et quand pour toi, les sous rentrent, j'avais pas, tu m'relances Généreux, j'avais même pas besoin de d'mander On est pas d'ceux qui se ventent, pas besoin d'se voir souvent Nos délires d'avant risqueraient de me manquer Re-fré, j'suis khabat, j'fais que penser à oi-t Re-fré, j'suis khabat, j'fais que penser à oi-t</t>
+          <t>Re-fré, j'suis khabat, jfais que penser à oi-t Re-fré, j'suis khabat, j'fais que penser à oi-t La racli hispanique, yeux verts, vert, brune On avait des bons goûts, juste on avait pas dthunes Pas besoin de sparring, regard baril, j'appuie l'feu On marchait qu'à deux, avec eux, on parlait peu Des soirées dans l'parking, têtes cramées qu'on interpelle Jamais l'un sans l'autre comme Stringer et Barksdale Nos têtes sur les clichés pendant qules autres révisaient Foncedé, les yeux plissés, avec eux, jflashais l'épicier Jai choisi l'rap, toi t'as continué dans l'stup Tourne en Gilera, paro, frérot tu dors plus Mais dans lillégal, pour durer, ouais, c'est tendu Coûte cher, la cavale, mon produit gagne toujours plus Y avait moins de sous, mais plus de sourires, mon ami Remplis de souvenirs, on faisait face au pire, prés des risques On tournait à deux, j'protégeais ton dos, j'élimine Re-fré, j'suis khabat, j'fais que penser à oi-t Re-fré, j'suis khabat, j'fais que penser à oi-t J'me rappelle d'l'époque où on fumait d'la wax J'aime trop ma té-ci, depuis tit-peu, j'la squatte Et quand pour toi, les sous rentrent, j'avais pas, tu m'relances Généreux, j'avais même pas besoin de d'mander On est pas d'ceux qui se ventent, pas besoin d'se voir souvent Nos délires d'avant risqueraient de me manquer Attiré par la ne-zo, ça vendait la résine Leur mettre dans le naseau, fallait du papel Tu m'as donné d'l'inspi', j'ai ramené l'platine En bas, tu m'as porté quand j'étais par terre J'ai choisi l'rap, toi t'as continué dans l'stup Tourne en Gilera, paro, frérot tu dors plus Mais dans l'illégal, pour durer, ouais, c'est tendu Coûte cher, la cavale, mon produit gagne toujours plus Re-fré, j'suis khabat, j'fais que penser à oi-t Re-fré, j'suis khabat, j'fais que penser à oi-t Re-fré, j'suis khabat, j'fais que penser à oi-t Re-fré, j'suis khabat, j'fais que penser à oi-t J'me rappelle d'l'époque où on fumait d'la wax J'aime trop ma té-ci, depuis tit-peu, j'la squatte Et quand pour toi, les sous rentrent, j'avais pas, tu m'relances Généreux, j'avais même pas besoin de d'mander On est pas d'ceux qui se ventent, pas besoin d'se voir souvent Nos délires d'avant risqueraient de me manquer Re-fré, j'suis khabat, j'fais que penser à oi-t Re-fré, j'suis khabat, j'fais que penser à oi-t</t>
         </is>
       </c>
     </row>
